--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="96" windowWidth="2220" windowHeight="8640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2436" windowWidth="14280" windowHeight="7308" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="201">
   <si>
     <t>Payslip</t>
   </si>
@@ -354,9 +354,6 @@
     <t>If an Irish county is specified the Country Code must either be blank or set to IRL (i.e. Ireland).</t>
   </si>
   <si>
-    <t>Date of Birth must be a valid date in the format DD/MM/YYYY (e.g. 31/01/2019).</t>
-  </si>
-  <si>
     <t>Date of Birth cannot be over 130 years ago.</t>
   </si>
   <si>
@@ -464,15 +461,6 @@
     <t xml:space="preserve">Date Last Updated cannot be in the future.  </t>
   </si>
   <si>
-    <t>Leave Date must be a valid date in the format DD/MM/YYYY (e.g. 31/01/2019).</t>
-  </si>
-  <si>
-    <t>Pay Date must be a valid date in the format DD/MM/YYYY (e.g. 31/01/2019).</t>
-  </si>
-  <si>
-    <t>Date Last Updated must be a valid date in the format DD/MM/YYYY (e.g. 31/01/2019).</t>
-  </si>
-  <si>
     <t>Date of Birth must not be in the future.</t>
   </si>
   <si>
@@ -485,16 +473,10 @@
     <t>Invalid Eircode format.   Eircode must be a seven character alpha-numeric code.</t>
   </si>
   <si>
-    <t>Invalid date specified. Must be in the format DD/MM/YYYY (e.g. 31/01/2019).</t>
-  </si>
-  <si>
     <t xml:space="preserve">A Leave Date entered for an employee cannot be more than 12 months in the future.   </t>
   </si>
   <si>
     <t xml:space="preserve">LeaveDate cannot be more than 12 months from the date the PayrollSubmissionRequest is submitted. </t>
-  </si>
-  <si>
-    <t>Invalid date specified.  Must be in the format DD/MM/YYYY (e.g. 31/01/2019).</t>
   </si>
   <si>
     <r>
@@ -674,6 +656,30 @@
   </si>
   <si>
     <t>53 weeks changed to 56</t>
+  </si>
+  <si>
+    <t>Pay Date must be a valid date in the format YYYY-MM-DD (e.g. 2019-01-31).</t>
+  </si>
+  <si>
+    <t>Leave Date must be a valid date in the format YYYY-MM-DD (e.g. 2019-01-31).</t>
+  </si>
+  <si>
+    <t>Date of Birth must be a valid date in the format YYYY-MM-DD (e.g. 2019-01-31).</t>
+  </si>
+  <si>
+    <t>Date Last Updated must be a valid date in the format YYYY-MM-DD (e.g. 2019-01-31).</t>
+  </si>
+  <si>
+    <t>Date formatting changes</t>
+  </si>
+  <si>
+    <t>Invalid date specified.  Must be in the format YYYY-MM-DD (e.g. 2019-04-10).</t>
+  </si>
+  <si>
+    <t>EmploymentStartDate</t>
+  </si>
+  <si>
+    <t>Employment Start Date must be a valid date in the format YYYY-MM-DD (e.g. 2019-01-31).</t>
   </si>
 </sst>
 </file>
@@ -1085,15 +1091,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1107,6 +1104,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1161,8 +1167,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8395335" y="47625"/>
-          <a:ext cx="1819275" cy="885825"/>
+          <a:off x="8394246" y="47625"/>
+          <a:ext cx="1819275" cy="896711"/>
           <a:chOff x="4063321" y="0"/>
           <a:chExt cx="3161899" cy="1553550"/>
         </a:xfrm>
@@ -21297,8 +21303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E17"/>
+    <sheetView topLeftCell="C7" zoomScale="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21357,7 +21363,7 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -21368,16 +21374,16 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C13" s="19">
         <v>43056</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -21390,10 +21396,10 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -21411,7 +21417,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -21427,7 +21433,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -21443,7 +21449,7 @@
         <v>47</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -21454,9 +21460,13 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="C18" s="19">
+        <v>43465</v>
+      </c>
       <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>197</v>
+      </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -21596,8 +21606,8 @@
   <dimension ref="A1:BL439"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -21631,13 +21641,13 @@
         <v>82</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>6</v>
@@ -21710,21 +21720,21 @@
       <c r="BL1" s="21"/>
     </row>
     <row r="2" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
@@ -21778,21 +21788,21 @@
       <c r="BL2" s="22"/>
     </row>
     <row r="3" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
+      <c r="A3" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -21850,19 +21860,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G4" s="25">
         <v>401</v>
@@ -21877,7 +21887,7 @@
         <v>1012</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L4" s="36" t="s">
         <v>12</v>
@@ -21942,19 +21952,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G5" s="25">
         <v>401</v>
@@ -21969,7 +21979,7 @@
         <v>1013</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L5" s="36" t="s">
         <v>12</v>
@@ -22034,19 +22044,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G6" s="25">
         <v>401</v>
@@ -22061,7 +22071,7 @@
         <v>1014</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L6" s="36" t="s">
         <v>12</v>
@@ -22126,7 +22136,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>100</v>
@@ -22135,10 +22145,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G7" s="56">
         <v>400</v>
@@ -22167,19 +22177,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G8" s="56">
         <v>400</v>
@@ -22208,7 +22218,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>102</v>
@@ -22217,10 +22227,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G9" s="56">
         <v>403</v>
@@ -22249,7 +22259,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>103</v>
@@ -22258,10 +22268,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G10" s="56">
         <v>403</v>
@@ -22290,7 +22300,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>104</v>
@@ -22299,10 +22309,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G11" s="56">
         <v>403</v>
@@ -22331,7 +22341,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>86</v>
@@ -22340,10 +22350,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G12" s="56">
         <v>403</v>
@@ -22372,7 +22382,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>105</v>
@@ -22381,10 +22391,10 @@
         <v>12</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G13" s="56">
         <v>400</v>
@@ -22413,19 +22423,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G14" s="56">
         <v>400</v>
@@ -22454,7 +22464,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>106</v>
@@ -22463,10 +22473,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G15" s="56">
         <v>400</v>
@@ -22495,7 +22505,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>74</v>
@@ -22504,10 +22514,10 @@
         <v>5</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G16" s="56">
         <v>400</v>
@@ -22532,21 +22542,21 @@
       </c>
     </row>
     <row r="17" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
+      <c r="A17" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
@@ -22604,19 +22614,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G18" s="56" t="s">
         <v>12</v>
@@ -22631,7 +22641,7 @@
         <v>2040</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>0</v>
@@ -22645,7 +22655,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>107</v>
@@ -22654,10 +22664,10 @@
         <v>12</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G19" s="56" t="s">
         <v>12</v>
@@ -22686,7 +22696,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>93</v>
@@ -22695,10 +22705,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G20" s="56" t="s">
         <v>12</v>
@@ -22727,7 +22737,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>108</v>
@@ -22736,10 +22746,10 @@
         <v>13</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G21" s="56" t="s">
         <v>12</v>
@@ -22768,19 +22778,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D22" s="5">
         <v>13</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G22" s="56" t="s">
         <v>12</v>
@@ -22809,19 +22819,19 @@
         <v>23</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G23" s="56" t="s">
         <v>12</v>
@@ -22836,7 +22846,7 @@
         <v>2010</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L23" s="35" t="s">
         <v>0</v>
@@ -22850,7 +22860,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>37</v>
@@ -22859,10 +22869,10 @@
         <v>78</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G24" s="56" t="s">
         <v>12</v>
@@ -22891,19 +22901,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>80</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G25" s="56" t="s">
         <v>12</v>
@@ -22918,7 +22928,7 @@
         <v>2014</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>0</v>
@@ -22932,7 +22942,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>34</v>
@@ -22941,10 +22951,10 @@
         <v>80</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G26" s="56" t="s">
         <v>12</v>
@@ -22973,19 +22983,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G27" s="56" t="s">
         <v>12</v>
@@ -23014,7 +23024,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>109</v>
@@ -23023,10 +23033,10 @@
         <v>81</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G28" s="56" t="s">
         <v>12</v>
@@ -23055,19 +23065,19 @@
         <v>30</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="D29" s="5">
         <v>12</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G29" s="56" t="s">
         <v>12</v>
@@ -23082,7 +23092,7 @@
         <v>1002</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>0</v>
@@ -23096,19 +23106,19 @@
         <v>31</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D30" s="5">
         <v>12</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G30" s="56" t="s">
         <v>12</v>
@@ -23137,19 +23147,19 @@
         <v>32</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="5">
         <v>12</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G31" s="56" t="s">
         <v>12</v>
@@ -23178,19 +23188,19 @@
         <v>33</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D32" s="25">
         <v>16</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G32" s="56" t="s">
         <v>12</v>
@@ -23205,7 +23215,7 @@
         <v>2020</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L32" s="41" t="s">
         <v>0</v>
@@ -23270,19 +23280,19 @@
         <v>34</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="D33" s="5">
         <v>16</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G33" s="56" t="s">
         <v>12</v>
@@ -23297,7 +23307,7 @@
         <v>1002</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="L33" s="35" t="s">
         <v>0</v>
@@ -23311,19 +23321,19 @@
         <v>35</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="5">
         <v>16</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G34" s="56" t="s">
         <v>12</v>
@@ -23352,19 +23362,19 @@
         <v>36</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D35" s="42">
         <v>53</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G35" s="56" t="s">
         <v>12</v>
@@ -23444,19 +23454,19 @@
         <v>37</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D36" s="4">
         <v>21</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G36" s="56" t="s">
         <v>12</v>
@@ -23471,7 +23481,7 @@
         <v>2030</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L36" s="34" t="s">
         <v>0</v>
@@ -23536,19 +23546,19 @@
         <v>38</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G37" s="56" t="s">
         <v>12</v>
@@ -23577,19 +23587,19 @@
         <v>39</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D38" s="5">
         <v>20</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G38" s="56" t="s">
         <v>12</v>
@@ -23604,7 +23614,7 @@
         <v>2029</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L38" s="35" t="s">
         <v>0</v>
@@ -23618,19 +23628,19 @@
         <v>40</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D39" s="5">
         <v>22</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G39" s="56" t="s">
         <v>12</v>
@@ -23645,7 +23655,7 @@
         <v>2031</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L39" s="35" t="s">
         <v>0</v>
@@ -23659,19 +23669,19 @@
         <v>41</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D40" s="5">
         <v>23</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G40" s="56" t="s">
         <v>12</v>
@@ -23686,7 +23696,7 @@
         <v>2032</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L40" s="35" t="s">
         <v>0</v>
@@ -23700,19 +23710,19 @@
         <v>42</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D41" s="25">
         <v>17</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G41" s="56" t="s">
         <v>12</v>
@@ -23727,7 +23737,7 @@
         <v>2019</v>
       </c>
       <c r="K41" s="36" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L41" s="36" t="s">
         <v>0</v>
@@ -23741,19 +23751,19 @@
         <v>43</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="D42" s="5">
         <v>17</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G42" s="56" t="s">
         <v>12</v>
@@ -23768,7 +23778,7 @@
         <v>1002</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="L42" s="35" t="s">
         <v>0</v>
@@ -23782,19 +23792,19 @@
         <v>44</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="51">
         <v>30</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G43" s="56" t="s">
         <v>12</v>
@@ -23809,13 +23819,13 @@
         <v>2043</v>
       </c>
       <c r="K43" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L43" s="48" t="s">
         <v>0</v>
       </c>
       <c r="M43" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N43" s="39"/>
       <c r="O43" s="39"/>
@@ -23874,19 +23884,19 @@
         <v>45</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="45">
         <v>31</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G44" s="56" t="s">
         <v>12</v>
@@ -23901,13 +23911,13 @@
         <v>2033</v>
       </c>
       <c r="K44" s="60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L44" s="47" t="s">
         <v>0</v>
       </c>
       <c r="M44" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23915,7 +23925,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>77</v>
@@ -23924,10 +23934,10 @@
         <v>31</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G45" s="56" t="s">
         <v>12</v>
@@ -23948,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="41" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23956,19 +23966,19 @@
         <v>47</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D46" s="5">
         <v>32</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G46" s="56" t="s">
         <v>12</v>
@@ -23983,7 +23993,7 @@
         <v>2036</v>
       </c>
       <c r="K46" s="36" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L46" s="35" t="s">
         <v>0</v>
@@ -23997,19 +24007,19 @@
         <v>48</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" s="5">
         <v>35</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G47" s="56" t="s">
         <v>12</v>
@@ -24024,7 +24034,7 @@
         <v>2038</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L47" s="35" t="s">
         <v>0</v>
@@ -24038,19 +24048,19 @@
         <v>49</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D48" s="5">
         <v>39</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G48" s="56" t="s">
         <v>12</v>
@@ -24065,7 +24075,7 @@
         <v>2039</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L48" s="35" t="s">
         <v>0</v>
@@ -24079,25 +24089,25 @@
         <v>50</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D49" s="4">
         <v>19</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G49" s="56" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>39</v>
@@ -24106,13 +24116,13 @@
         <v>2044</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L49" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M49" s="34" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="N49" s="23"/>
       <c r="O49" s="23"/>
@@ -24171,25 +24181,25 @@
         <v>51</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D50" s="4">
         <v>8</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G50" s="56" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>39</v>
@@ -24198,7 +24208,7 @@
         <v>2045</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L50" s="34" t="s">
         <v>0</v>
@@ -24259,21 +24269,21 @@
       <c r="BL50" s="23"/>
     </row>
     <row r="51" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="73"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="70"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
@@ -24327,21 +24337,21 @@
       <c r="BL51" s="22"/>
     </row>
     <row r="52" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="69"/>
+      <c r="A52" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
@@ -24399,19 +24409,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G53" s="25">
         <v>401</v>
@@ -24426,7 +24436,7 @@
         <v>1012</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L53" s="36" t="s">
         <v>12</v>
@@ -24491,19 +24501,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G54" s="25">
         <v>401</v>
@@ -24518,7 +24528,7 @@
         <v>1013</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L54" s="36" t="s">
         <v>12</v>
@@ -24583,19 +24593,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G55" s="25">
         <v>401</v>
@@ -24610,7 +24620,7 @@
         <v>1014</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L55" s="36" t="s">
         <v>12</v>
@@ -24675,7 +24685,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>100</v>
@@ -24684,10 +24694,10 @@
         <v>12</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G56" s="25">
         <v>400</v>
@@ -24767,7 +24777,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="24" t="s">
         <v>101</v>
@@ -24776,10 +24786,10 @@
         <v>12</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G57" s="25">
         <v>400</v>
@@ -24859,7 +24869,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>102</v>
@@ -24868,10 +24878,10 @@
         <v>12</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G58" s="25">
         <v>403</v>
@@ -24951,7 +24961,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59" s="24" t="s">
         <v>103</v>
@@ -24960,10 +24970,10 @@
         <v>12</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G59" s="25">
         <v>403</v>
@@ -25043,19 +25053,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G60" s="25">
         <v>403</v>
@@ -25135,7 +25145,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C61" s="24" t="s">
         <v>86</v>
@@ -25144,10 +25154,10 @@
         <v>12</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G61" s="25">
         <v>403</v>
@@ -25227,19 +25237,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G62" s="25">
         <v>404</v>
@@ -25315,21 +25325,21 @@
       <c r="BL62" s="23"/>
     </row>
     <row r="63" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="70"/>
-      <c r="M63" s="70"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
       <c r="P63" s="22"/>
@@ -25383,21 +25393,21 @@
       <c r="BL63" s="22"/>
     </row>
     <row r="64" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="69"/>
-      <c r="J64" s="69"/>
-      <c r="K64" s="69"/>
-      <c r="L64" s="69"/>
-      <c r="M64" s="69"/>
+      <c r="A64" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="66"/>
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
       <c r="P64" s="22"/>
@@ -25455,19 +25465,19 @@
         <v>62</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G65" s="25">
         <v>401</v>
@@ -25482,7 +25492,7 @@
         <v>1012</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L65" s="36" t="s">
         <v>12</v>
@@ -25547,19 +25557,19 @@
         <v>63</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G66" s="25">
         <v>401</v>
@@ -25574,7 +25584,7 @@
         <v>1013</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L66" s="36" t="s">
         <v>12</v>
@@ -25639,19 +25649,19 @@
         <v>64</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G67" s="25">
         <v>401</v>
@@ -25666,7 +25676,7 @@
         <v>1014</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L67" s="36" t="s">
         <v>12</v>
@@ -25731,7 +25741,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="29" t="s">
         <v>100</v>
@@ -25740,10 +25750,10 @@
         <v>12</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G68" s="25">
         <v>400</v>
@@ -25823,7 +25833,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" s="24" t="s">
         <v>101</v>
@@ -25832,10 +25842,10 @@
         <v>12</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G69" s="25">
         <v>400</v>
@@ -25915,7 +25925,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C70" s="24" t="s">
         <v>102</v>
@@ -25924,10 +25934,10 @@
         <v>12</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G70" s="25">
         <v>403</v>
@@ -26007,7 +26017,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C71" s="24" t="s">
         <v>103</v>
@@ -26016,10 +26026,10 @@
         <v>12</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G71" s="25">
         <v>403</v>
@@ -26099,7 +26109,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C72" s="24" t="s">
         <v>104</v>
@@ -26108,10 +26118,10 @@
         <v>12</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G72" s="25">
         <v>403</v>
@@ -26191,7 +26201,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C73" s="24" t="s">
         <v>86</v>
@@ -26200,10 +26210,10 @@
         <v>12</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G73" s="25">
         <v>403</v>
@@ -26283,19 +26293,19 @@
         <v>71</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G74" s="25">
         <v>404</v>
@@ -26371,21 +26381,21 @@
       <c r="BL74" s="23"/>
     </row>
     <row r="75" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="70"/>
-      <c r="K75" s="70"/>
-      <c r="L75" s="70"/>
-      <c r="M75" s="70"/>
+      <c r="A75" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67"/>
+      <c r="L75" s="67"/>
+      <c r="M75" s="67"/>
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
       <c r="P75" s="22"/>
@@ -26439,21 +26449,21 @@
       <c r="BL75" s="22"/>
     </row>
     <row r="76" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="B76" s="69"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="69"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="69"/>
-      <c r="J76" s="69"/>
-      <c r="K76" s="69"/>
-      <c r="L76" s="69"/>
-      <c r="M76" s="69"/>
+      <c r="A76" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="66"/>
+      <c r="M76" s="66"/>
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
       <c r="P76" s="22"/>
@@ -26511,19 +26521,19 @@
         <v>72</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G77" s="25">
         <v>401</v>
@@ -26538,7 +26548,7 @@
         <v>1012</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L77" s="36" t="s">
         <v>12</v>
@@ -26603,19 +26613,19 @@
         <v>73</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G78" s="25">
         <v>401</v>
@@ -26630,7 +26640,7 @@
         <v>1013</v>
       </c>
       <c r="K78" s="24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L78" s="36" t="s">
         <v>12</v>
@@ -26695,19 +26705,19 @@
         <v>74</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G79" s="25">
         <v>401</v>
@@ -26722,7 +26732,7 @@
         <v>1014</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L79" s="36" t="s">
         <v>12</v>
@@ -26787,7 +26797,7 @@
         <v>75</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>100</v>
@@ -26796,10 +26806,10 @@
         <v>12</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G80" s="25">
         <v>400</v>
@@ -26817,7 +26827,7 @@
         <v>14</v>
       </c>
       <c r="L80" s="34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M80" s="34" t="s">
         <v>52</v>
@@ -26879,19 +26889,19 @@
         <v>76</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G81" s="25">
         <v>400</v>
@@ -26909,7 +26919,7 @@
         <v>26</v>
       </c>
       <c r="L81" s="34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M81" s="34" t="s">
         <v>52</v>
@@ -26971,19 +26981,19 @@
         <v>77</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G82" s="25">
         <v>400</v>
@@ -27001,7 +27011,7 @@
         <v>15</v>
       </c>
       <c r="L82" s="34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M82" s="34" t="s">
         <v>52</v>
@@ -27063,7 +27073,7 @@
         <v>78</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>102</v>
@@ -27072,10 +27082,10 @@
         <v>12</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G83" s="25">
         <v>403</v>
@@ -27093,7 +27103,7 @@
         <v>27</v>
       </c>
       <c r="L83" s="34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M83" s="34" t="s">
         <v>69</v>
@@ -27155,7 +27165,7 @@
         <v>79</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>103</v>
@@ -27164,10 +27174,10 @@
         <v>12</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G84" s="25">
         <v>403</v>
@@ -27185,7 +27195,7 @@
         <v>28</v>
       </c>
       <c r="L84" s="34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M84" s="34" t="s">
         <v>69</v>
@@ -27247,7 +27257,7 @@
         <v>80</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>104</v>
@@ -27256,10 +27266,10 @@
         <v>12</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G85" s="25">
         <v>403</v>
@@ -27277,7 +27287,7 @@
         <v>16</v>
       </c>
       <c r="L85" s="34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M85" s="34" t="s">
         <v>69</v>
@@ -27339,7 +27349,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>86</v>
@@ -27348,10 +27358,10 @@
         <v>12</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G86" s="25">
         <v>403</v>
@@ -27369,7 +27379,7 @@
         <v>85</v>
       </c>
       <c r="L86" s="34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M86" s="34" t="s">
         <v>69</v>
@@ -27431,19 +27441,19 @@
         <v>82</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G87" s="25">
         <v>400</v>
@@ -27458,10 +27468,10 @@
         <v>3001</v>
       </c>
       <c r="K87" s="34" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L87" s="34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M87" s="34" t="s">
         <v>75</v>
@@ -27523,19 +27533,19 @@
         <v>83</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G88" s="25">
         <v>400</v>
@@ -27553,7 +27563,7 @@
         <v>32</v>
       </c>
       <c r="L88" s="34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M88" s="34" t="s">
         <v>76</v>
@@ -27615,19 +27625,19 @@
         <v>84</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G89" s="25">
         <v>400</v>
@@ -27642,10 +27652,10 @@
         <v>1012</v>
       </c>
       <c r="K89" s="36" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="L89" s="34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M89" s="34" t="s">
         <v>76</v>
@@ -27703,21 +27713,21 @@
       <c r="BL89" s="23"/>
     </row>
     <row r="90" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="69"/>
-      <c r="H90" s="69"/>
-      <c r="I90" s="69"/>
-      <c r="J90" s="69"/>
-      <c r="K90" s="69"/>
-      <c r="L90" s="69"/>
-      <c r="M90" s="69"/>
+      <c r="A90" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="66"/>
+      <c r="J90" s="66"/>
+      <c r="K90" s="66"/>
+      <c r="L90" s="66"/>
+      <c r="M90" s="66"/>
       <c r="N90" s="22"/>
       <c r="O90" s="22"/>
       <c r="P90" s="22"/>
@@ -27775,7 +27785,7 @@
         <v>85</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>93</v>
@@ -27784,10 +27794,10 @@
         <v>8</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G91" s="56" t="s">
         <v>12</v>
@@ -27805,7 +27815,7 @@
         <v>22</v>
       </c>
       <c r="L91" s="34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M91" s="34" t="s">
         <v>1</v>
@@ -27863,21 +27873,21 @@
       <c r="BL91" s="23"/>
     </row>
     <row r="92" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="B92" s="70"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70"/>
-      <c r="G92" s="70"/>
-      <c r="H92" s="70"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="70"/>
-      <c r="K92" s="70"/>
-      <c r="L92" s="70"/>
-      <c r="M92" s="70"/>
+      <c r="A92" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" s="67"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="67"/>
+      <c r="K92" s="67"/>
+      <c r="L92" s="67"/>
+      <c r="M92" s="67"/>
       <c r="N92" s="22"/>
       <c r="O92" s="22"/>
       <c r="P92" s="22"/>
@@ -27931,21 +27941,21 @@
       <c r="BL92" s="22"/>
     </row>
     <row r="93" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="B93" s="69"/>
-      <c r="C93" s="69"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="69"/>
-      <c r="G93" s="69"/>
-      <c r="H93" s="69"/>
-      <c r="I93" s="69"/>
-      <c r="J93" s="69"/>
-      <c r="K93" s="69"/>
-      <c r="L93" s="69"/>
-      <c r="M93" s="69"/>
+      <c r="A93" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B93" s="66"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="66"/>
+      <c r="J93" s="66"/>
+      <c r="K93" s="66"/>
+      <c r="L93" s="66"/>
+      <c r="M93" s="66"/>
       <c r="N93" s="22"/>
       <c r="O93" s="22"/>
       <c r="P93" s="22"/>
@@ -28003,19 +28013,19 @@
         <v>86</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G94" s="25">
         <v>401</v>
@@ -28030,7 +28040,7 @@
         <v>1012</v>
       </c>
       <c r="K94" s="24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L94" s="36" t="s">
         <v>12</v>
@@ -28095,19 +28105,19 @@
         <v>87</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G95" s="25">
         <v>401</v>
@@ -28122,7 +28132,7 @@
         <v>1013</v>
       </c>
       <c r="K95" s="24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L95" s="36" t="s">
         <v>12</v>
@@ -28187,19 +28197,19 @@
         <v>88</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G96" s="25">
         <v>401</v>
@@ -28214,7 +28224,7 @@
         <v>1014</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L96" s="36" t="s">
         <v>12</v>
@@ -28279,7 +28289,7 @@
         <v>89</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>100</v>
@@ -28288,10 +28298,10 @@
         <v>12</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G97" s="25">
         <v>400</v>
@@ -28309,7 +28319,7 @@
         <v>14</v>
       </c>
       <c r="L97" s="34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M97" s="34" t="s">
         <v>52</v>
@@ -28371,19 +28381,19 @@
         <v>90</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G98" s="25">
         <v>400</v>
@@ -28401,7 +28411,7 @@
         <v>26</v>
       </c>
       <c r="L98" s="34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M98" s="34" t="s">
         <v>52</v>
@@ -28463,19 +28473,19 @@
         <v>91</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G99" s="25">
         <v>400</v>
@@ -28493,7 +28503,7 @@
         <v>15</v>
       </c>
       <c r="L99" s="34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M99" s="34" t="s">
         <v>52</v>
@@ -28555,7 +28565,7 @@
         <v>92</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>102</v>
@@ -28564,10 +28574,10 @@
         <v>12</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G100" s="25">
         <v>403</v>
@@ -28585,7 +28595,7 @@
         <v>27</v>
       </c>
       <c r="L100" s="34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M100" s="34" t="s">
         <v>69</v>
@@ -28647,7 +28657,7 @@
         <v>93</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>103</v>
@@ -28656,10 +28666,10 @@
         <v>12</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G101" s="25">
         <v>403</v>
@@ -28677,7 +28687,7 @@
         <v>28</v>
       </c>
       <c r="L101" s="34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M101" s="34" t="s">
         <v>69</v>
@@ -28739,7 +28749,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>104</v>
@@ -28748,10 +28758,10 @@
         <v>12</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G102" s="25">
         <v>403</v>
@@ -28769,7 +28779,7 @@
         <v>16</v>
       </c>
       <c r="L102" s="34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M102" s="34" t="s">
         <v>69</v>
@@ -28831,7 +28841,7 @@
         <v>95</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>86</v>
@@ -28840,10 +28850,10 @@
         <v>12</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G103" s="25">
         <v>403</v>
@@ -28861,7 +28871,7 @@
         <v>85</v>
       </c>
       <c r="L103" s="34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M103" s="36" t="s">
         <v>51</v>
@@ -28923,19 +28933,19 @@
         <v>96</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G104" s="25">
         <v>400</v>
@@ -28953,7 +28963,7 @@
         <v>19</v>
       </c>
       <c r="L104" s="34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M104" s="34" t="s">
         <v>73</v>
@@ -29011,21 +29021,21 @@
       <c r="BL104" s="23"/>
     </row>
     <row r="105" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="B105" s="67"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
-      <c r="I105" s="67"/>
-      <c r="J105" s="67"/>
-      <c r="K105" s="67"/>
-      <c r="L105" s="67"/>
-      <c r="M105" s="68"/>
+      <c r="A105" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="B105" s="72"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="72"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="72"/>
+      <c r="K105" s="72"/>
+      <c r="L105" s="72"/>
+      <c r="M105" s="73"/>
       <c r="N105" s="22"/>
       <c r="O105" s="22"/>
       <c r="P105" s="22"/>
@@ -29083,7 +29093,7 @@
         <v>97</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C106" s="24" t="s">
         <v>99</v>
@@ -29092,10 +29102,10 @@
         <v>12</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G106" s="42" t="s">
         <v>12</v>
@@ -29113,7 +29123,7 @@
         <v>46</v>
       </c>
       <c r="L106" s="35" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M106" s="35" t="s">
         <v>72</v>
@@ -29124,7 +29134,7 @@
         <v>98</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C107" s="31" t="s">
         <v>94</v>
@@ -29133,10 +29143,10 @@
         <v>12</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G107" s="42" t="s">
         <v>12</v>
@@ -29154,7 +29164,7 @@
         <v>95</v>
       </c>
       <c r="L107" s="35" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M107" s="37" t="s">
         <v>1</v>
@@ -29165,7 +29175,7 @@
         <v>99</v>
       </c>
       <c r="B108" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>93</v>
@@ -29174,10 +29184,10 @@
         <v>8</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G108" s="25" t="s">
         <v>12</v>
@@ -29195,7 +29205,7 @@
         <v>22</v>
       </c>
       <c r="L108" s="34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M108" s="34" t="s">
         <v>1</v>
@@ -29257,19 +29267,19 @@
         <v>100</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C109" s="36" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G109" s="56">
         <v>400</v>
@@ -29284,29 +29294,55 @@
         <v>2046</v>
       </c>
       <c r="K109" s="36" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L109" s="36" t="s">
         <v>71</v>
       </c>
       <c r="M109" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="110" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A110" s="21"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="58"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="21"/>
-      <c r="J110" s="21"/>
-      <c r="K110" s="38"/>
-      <c r="L110" s="22"/>
-      <c r="M110" s="38"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="110" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>101</v>
+      </c>
+      <c r="B110" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G110" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I110" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J110" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K110" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="L110" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="M110" s="37" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="111" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A111" s="21"/>
@@ -34246,6 +34282,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="A105:M105"/>
+    <mergeCell ref="A90:M90"/>
+    <mergeCell ref="A93:M93"/>
+    <mergeCell ref="A76:M76"/>
+    <mergeCell ref="A75:M75"/>
+    <mergeCell ref="A92:M92"/>
     <mergeCell ref="A64:M64"/>
     <mergeCell ref="A52:M52"/>
     <mergeCell ref="A2:M2"/>
@@ -34253,21 +34295,15 @@
     <mergeCell ref="A17:M17"/>
     <mergeCell ref="A51:M51"/>
     <mergeCell ref="A63:M63"/>
-    <mergeCell ref="A105:M105"/>
-    <mergeCell ref="A90:M90"/>
-    <mergeCell ref="A93:M93"/>
-    <mergeCell ref="A76:M76"/>
-    <mergeCell ref="A75:M75"/>
-    <mergeCell ref="A92:M92"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H68:H74 H56:H62 H44:H50 H97:H104 H80:H89 H91 H18:H42 H106:H109 H7:H15 H16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H68:H74 H56:H62 H44:H50 H97:H104 H80:H89 H91 H18:H42 H106:H110 H7:H16">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I56:I62 I68:I74 I44:I50 I106 I97:I104 I80:I89 I91 I18:I42 I108:I109 I7:I15 I16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I56:I62 I68:I74 I44:I50 I106 I97:I104 I80:I89 I91 I18:I42 I108:I109 I7:I16">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J68:J74 J56:J62 J80:J88 J34:J41 J91 J108 J97:J104 J106 J44:J48 J7:J15 J16 J18:J32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J68:J74 J56:J62 J80:J88 J34:J41 J91 J108 J97:J104 J106 J44:J48 J7:J16 J18:J32">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>TaxRate.RateCutOff</t>
-  </si>
-  <si>
-    <t>CalculationBasis</t>
   </si>
   <si>
     <t>ExclusionOrder</t>
@@ -530,12 +527,6 @@
     <t>TaxRate.RateCutOff is mandatory when no RPNNumber included.</t>
   </si>
   <si>
-    <t>Calculation Basis is mandatory when the RPN Number is not used.</t>
-  </si>
-  <si>
-    <t>CalculationBasis is mandatory when no RPNNumber included.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Exclusion Order marker is mandatory when the RPN Number is not used. </t>
   </si>
   <si>
@@ -680,6 +671,15 @@
   </si>
   <si>
     <t>Employment Start Date must be a valid date in the format YYYY-MM-DD (e.g. 2019-01-31).</t>
+  </si>
+  <si>
+    <t>Income Calculation Basis is mandatory when the RPN Number is not used.</t>
+  </si>
+  <si>
+    <t>Income Calculation Basis is mandatory when no RPNNumber included.</t>
+  </si>
+  <si>
+    <t>IncomeCalculationBasis</t>
   </si>
 </sst>
 </file>
@@ -1091,6 +1091,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1106,21 +1115,40 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFA3FFFF"/>
@@ -21304,7 +21332,7 @@
   <dimension ref="B8:M32"/>
   <sheetViews>
     <sheetView topLeftCell="C7" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21322,7 +21350,7 @@
   <sheetData>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
@@ -21336,16 +21364,16 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -21363,7 +21391,7 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -21374,16 +21402,16 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C13" s="19">
         <v>43056</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -21396,10 +21424,10 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -21417,7 +21445,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -21433,7 +21461,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -21449,7 +21477,7 @@
         <v>47</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -21461,11 +21489,11 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="19">
-        <v>43465</v>
+        <v>43140</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -21605,9 +21633,9 @@
   </sheetPr>
   <dimension ref="A1:BL439"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -21638,16 +21666,16 @@
         <v>4</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>6</v>
@@ -21659,7 +21687,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L1" s="32" t="s">
         <v>2</v>
@@ -21720,21 +21748,21 @@
       <c r="BL1" s="21"/>
     </row>
     <row r="2" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
+      <c r="A2" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
@@ -21788,21 +21816,21 @@
       <c r="BL2" s="22"/>
     </row>
     <row r="3" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
+      <c r="A3" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -21860,19 +21888,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G4" s="25">
         <v>401</v>
@@ -21887,7 +21915,7 @@
         <v>1012</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L4" s="36" t="s">
         <v>12</v>
@@ -21952,19 +21980,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G5" s="25">
         <v>401</v>
@@ -21979,7 +22007,7 @@
         <v>1013</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L5" s="36" t="s">
         <v>12</v>
@@ -22044,19 +22072,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G6" s="25">
         <v>401</v>
@@ -22071,7 +22099,7 @@
         <v>1014</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L6" s="36" t="s">
         <v>12</v>
@@ -22136,19 +22164,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="25">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G7" s="56">
         <v>400</v>
@@ -22166,7 +22194,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7" s="36" t="s">
         <v>52</v>
@@ -22177,19 +22205,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G8" s="56">
         <v>400</v>
@@ -22207,7 +22235,7 @@
         <v>26</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M8" s="36" t="s">
         <v>52</v>
@@ -22218,19 +22246,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="25">
         <v>2</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G9" s="56">
         <v>403</v>
@@ -22248,7 +22276,7 @@
         <v>27</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M9" s="36" t="s">
         <v>51</v>
@@ -22259,19 +22287,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="25">
         <v>2</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G10" s="56">
         <v>403</v>
@@ -22289,7 +22317,7 @@
         <v>28</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10" s="36" t="s">
         <v>51</v>
@@ -22300,19 +22328,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="25">
         <v>2</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G11" s="56">
         <v>403</v>
@@ -22330,7 +22358,7 @@
         <v>16</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M11" s="36" t="s">
         <v>51</v>
@@ -22341,19 +22369,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="25">
         <v>2</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G12" s="56">
         <v>403</v>
@@ -22368,10 +22396,10 @@
         <v>1011</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M12" s="36" t="s">
         <v>51</v>
@@ -22382,19 +22410,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G13" s="56">
         <v>400</v>
@@ -22412,7 +22440,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M13" s="36" t="s">
         <v>38</v>
@@ -22423,19 +22451,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G14" s="56">
         <v>400</v>
@@ -22453,7 +22481,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="36" t="s">
         <v>38</v>
@@ -22464,19 +22492,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G15" s="56">
         <v>400</v>
@@ -22494,7 +22522,7 @@
         <v>44</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15" s="36" t="s">
         <v>43</v>
@@ -22505,19 +22533,19 @@
         <v>17</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="25">
         <v>5</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G16" s="56">
         <v>400</v>
@@ -22535,28 +22563,28 @@
         <v>17</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M16" s="36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
+      <c r="A17" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
@@ -22614,19 +22642,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G18" s="56" t="s">
         <v>12</v>
@@ -22641,7 +22669,7 @@
         <v>2040</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>0</v>
@@ -22655,19 +22683,19 @@
         <v>19</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G19" s="56" t="s">
         <v>12</v>
@@ -22696,19 +22724,19 @@
         <v>20</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="5">
         <v>8</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G20" s="56" t="s">
         <v>12</v>
@@ -22737,19 +22765,19 @@
         <v>21</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="5">
         <v>13</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G21" s="56" t="s">
         <v>12</v>
@@ -22764,7 +22792,7 @@
         <v>2006</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L21" s="35" t="s">
         <v>0</v>
@@ -22778,19 +22806,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="5">
         <v>13</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G22" s="56" t="s">
         <v>12</v>
@@ -22805,7 +22833,7 @@
         <v>2009</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L22" s="35" t="s">
         <v>0</v>
@@ -22819,19 +22847,19 @@
         <v>23</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G23" s="56" t="s">
         <v>12</v>
@@ -22846,7 +22874,7 @@
         <v>2010</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L23" s="35" t="s">
         <v>0</v>
@@ -22860,19 +22888,19 @@
         <v>24</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G24" s="56" t="s">
         <v>12</v>
@@ -22901,19 +22929,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G25" s="56" t="s">
         <v>12</v>
@@ -22928,7 +22956,7 @@
         <v>2014</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>0</v>
@@ -22942,19 +22970,19 @@
         <v>26</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G26" s="56" t="s">
         <v>12</v>
@@ -22983,19 +23011,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G27" s="56" t="s">
         <v>12</v>
@@ -23024,19 +23052,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G28" s="56" t="s">
         <v>12</v>
@@ -23065,19 +23093,19 @@
         <v>30</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D29" s="5">
         <v>12</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G29" s="56" t="s">
         <v>12</v>
@@ -23092,7 +23120,7 @@
         <v>1002</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>0</v>
@@ -23106,19 +23134,19 @@
         <v>31</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="5">
         <v>12</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G30" s="56" t="s">
         <v>12</v>
@@ -23147,19 +23175,19 @@
         <v>32</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="5">
         <v>12</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G31" s="56" t="s">
         <v>12</v>
@@ -23188,19 +23216,19 @@
         <v>33</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="25">
         <v>16</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G32" s="56" t="s">
         <v>12</v>
@@ -23215,7 +23243,7 @@
         <v>2020</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L32" s="41" t="s">
         <v>0</v>
@@ -23280,19 +23308,19 @@
         <v>34</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D33" s="5">
         <v>16</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G33" s="56" t="s">
         <v>12</v>
@@ -23307,7 +23335,7 @@
         <v>1002</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L33" s="35" t="s">
         <v>0</v>
@@ -23321,19 +23349,19 @@
         <v>35</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="5">
         <v>16</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G34" s="56" t="s">
         <v>12</v>
@@ -23348,7 +23376,7 @@
         <v>2023</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L34" s="35" t="s">
         <v>0</v>
@@ -23362,19 +23390,19 @@
         <v>36</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="42">
         <v>53</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G35" s="56" t="s">
         <v>12</v>
@@ -23389,7 +23417,7 @@
         <v>2025</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L35" s="41" t="s">
         <v>0</v>
@@ -23454,19 +23482,19 @@
         <v>37</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="4">
         <v>21</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G36" s="56" t="s">
         <v>12</v>
@@ -23481,7 +23509,7 @@
         <v>2030</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L36" s="34" t="s">
         <v>0</v>
@@ -23546,19 +23574,19 @@
         <v>38</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G37" s="56" t="s">
         <v>12</v>
@@ -23587,19 +23615,19 @@
         <v>39</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D38" s="5">
         <v>20</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G38" s="56" t="s">
         <v>12</v>
@@ -23614,7 +23642,7 @@
         <v>2029</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L38" s="35" t="s">
         <v>0</v>
@@ -23628,19 +23656,19 @@
         <v>40</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="D39" s="5">
         <v>22</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G39" s="56" t="s">
         <v>12</v>
@@ -23655,13 +23683,13 @@
         <v>2031</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="L39" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M39" s="35" t="s">
-        <v>62</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23669,19 +23697,19 @@
         <v>41</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D40" s="5">
         <v>23</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G40" s="56" t="s">
         <v>12</v>
@@ -23696,13 +23724,13 @@
         <v>2032</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L40" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M40" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23710,19 +23738,19 @@
         <v>42</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D41" s="25">
         <v>17</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G41" s="56" t="s">
         <v>12</v>
@@ -23737,13 +23765,13 @@
         <v>2019</v>
       </c>
       <c r="K41" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L41" s="36" t="s">
         <v>0</v>
       </c>
       <c r="M41" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23751,19 +23779,19 @@
         <v>43</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D42" s="5">
         <v>17</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G42" s="56" t="s">
         <v>12</v>
@@ -23778,13 +23806,13 @@
         <v>1002</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L42" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M42" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:64" s="40" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23792,19 +23820,19 @@
         <v>44</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="51">
         <v>30</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G43" s="56" t="s">
         <v>12</v>
@@ -23819,13 +23847,13 @@
         <v>2043</v>
       </c>
       <c r="K43" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L43" s="48" t="s">
         <v>0</v>
       </c>
       <c r="M43" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N43" s="39"/>
       <c r="O43" s="39"/>
@@ -23884,19 +23912,19 @@
         <v>45</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="45">
         <v>31</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G44" s="56" t="s">
         <v>12</v>
@@ -23911,13 +23939,13 @@
         <v>2033</v>
       </c>
       <c r="K44" s="60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L44" s="47" t="s">
         <v>0</v>
       </c>
       <c r="M44" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23925,19 +23953,19 @@
         <v>46</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" s="5">
         <v>31</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G45" s="56" t="s">
         <v>12</v>
@@ -23958,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23966,19 +23994,19 @@
         <v>47</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D46" s="5">
         <v>32</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G46" s="56" t="s">
         <v>12</v>
@@ -23993,13 +24021,13 @@
         <v>2036</v>
       </c>
       <c r="K46" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L46" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M46" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24007,19 +24035,19 @@
         <v>48</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" s="5">
         <v>35</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G47" s="56" t="s">
         <v>12</v>
@@ -24034,13 +24062,13 @@
         <v>2038</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L47" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M47" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24048,19 +24076,19 @@
         <v>49</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D48" s="5">
         <v>39</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G48" s="56" t="s">
         <v>12</v>
@@ -24075,13 +24103,13 @@
         <v>2039</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L48" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M48" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24089,25 +24117,25 @@
         <v>50</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D49" s="4">
         <v>19</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G49" s="56" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>39</v>
@@ -24116,13 +24144,13 @@
         <v>2044</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L49" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M49" s="34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N49" s="23"/>
       <c r="O49" s="23"/>
@@ -24181,25 +24209,25 @@
         <v>51</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D50" s="4">
         <v>8</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G50" s="56" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>39</v>
@@ -24208,7 +24236,7 @@
         <v>2045</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L50" s="34" t="s">
         <v>0</v>
@@ -24269,21 +24297,21 @@
       <c r="BL50" s="23"/>
     </row>
     <row r="51" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="68" t="s">
+      <c r="A51" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="70"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="73"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
@@ -24337,21 +24365,21 @@
       <c r="BL51" s="22"/>
     </row>
     <row r="52" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="66"/>
+      <c r="A52" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
@@ -24409,19 +24437,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G53" s="25">
         <v>401</v>
@@ -24436,7 +24464,7 @@
         <v>1012</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L53" s="36" t="s">
         <v>12</v>
@@ -24501,19 +24529,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G54" s="25">
         <v>401</v>
@@ -24528,7 +24556,7 @@
         <v>1013</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L54" s="36" t="s">
         <v>12</v>
@@ -24593,19 +24621,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G55" s="25">
         <v>401</v>
@@ -24620,7 +24648,7 @@
         <v>1014</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L55" s="36" t="s">
         <v>12</v>
@@ -24685,19 +24713,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G56" s="25">
         <v>400</v>
@@ -24715,7 +24743,7 @@
         <v>14</v>
       </c>
       <c r="L56" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M56" s="34" t="s">
         <v>52</v>
@@ -24777,19 +24805,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G57" s="25">
         <v>400</v>
@@ -24807,7 +24835,7 @@
         <v>26</v>
       </c>
       <c r="L57" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M57" s="34" t="s">
         <v>52</v>
@@ -24869,19 +24897,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G58" s="25">
         <v>403</v>
@@ -24899,10 +24927,10 @@
         <v>27</v>
       </c>
       <c r="L58" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M58" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N58" s="23"/>
       <c r="O58" s="23"/>
@@ -24961,19 +24989,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G59" s="25">
         <v>403</v>
@@ -24991,10 +25019,10 @@
         <v>28</v>
       </c>
       <c r="L59" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M59" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N59" s="23"/>
       <c r="O59" s="23"/>
@@ -25053,19 +25081,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G60" s="25">
         <v>403</v>
@@ -25083,10 +25111,10 @@
         <v>16</v>
       </c>
       <c r="L60" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M60" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N60" s="23"/>
       <c r="O60" s="23"/>
@@ -25145,19 +25173,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G61" s="25">
         <v>403</v>
@@ -25172,10 +25200,10 @@
         <v>1011</v>
       </c>
       <c r="K61" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L61" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M61" s="36" t="s">
         <v>51</v>
@@ -25237,19 +25265,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G62" s="25">
         <v>404</v>
@@ -25267,7 +25295,7 @@
         <v>48</v>
       </c>
       <c r="L62" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M62" s="34" t="s">
         <v>38</v>
@@ -25325,21 +25353,21 @@
       <c r="BL62" s="23"/>
     </row>
     <row r="63" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="67"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="70"/>
+      <c r="M63" s="70"/>
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
       <c r="P63" s="22"/>
@@ -25393,21 +25421,21 @@
       <c r="BL63" s="22"/>
     </row>
     <row r="64" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="B64" s="66"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66"/>
-      <c r="L64" s="66"/>
-      <c r="M64" s="66"/>
+      <c r="A64" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="69"/>
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
       <c r="P64" s="22"/>
@@ -25465,19 +25493,19 @@
         <v>62</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G65" s="25">
         <v>401</v>
@@ -25492,7 +25520,7 @@
         <v>1012</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L65" s="36" t="s">
         <v>12</v>
@@ -25557,19 +25585,19 @@
         <v>63</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G66" s="25">
         <v>401</v>
@@ -25584,7 +25612,7 @@
         <v>1013</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L66" s="36" t="s">
         <v>12</v>
@@ -25649,19 +25677,19 @@
         <v>64</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G67" s="25">
         <v>401</v>
@@ -25676,7 +25704,7 @@
         <v>1014</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L67" s="36" t="s">
         <v>12</v>
@@ -25741,19 +25769,19 @@
         <v>65</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G68" s="25">
         <v>400</v>
@@ -25771,7 +25799,7 @@
         <v>14</v>
       </c>
       <c r="L68" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>52</v>
@@ -25833,19 +25861,19 @@
         <v>66</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G69" s="25">
         <v>400</v>
@@ -25863,7 +25891,7 @@
         <v>26</v>
       </c>
       <c r="L69" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M69" s="34" t="s">
         <v>52</v>
@@ -25925,19 +25953,19 @@
         <v>67</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G70" s="25">
         <v>403</v>
@@ -25955,10 +25983,10 @@
         <v>27</v>
       </c>
       <c r="L70" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M70" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N70" s="23"/>
       <c r="O70" s="23"/>
@@ -26017,19 +26045,19 @@
         <v>68</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G71" s="25">
         <v>403</v>
@@ -26047,10 +26075,10 @@
         <v>28</v>
       </c>
       <c r="L71" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M71" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N71" s="23"/>
       <c r="O71" s="23"/>
@@ -26109,19 +26137,19 @@
         <v>69</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G72" s="25">
         <v>403</v>
@@ -26139,10 +26167,10 @@
         <v>16</v>
       </c>
       <c r="L72" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M72" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N72" s="23"/>
       <c r="O72" s="23"/>
@@ -26201,19 +26229,19 @@
         <v>70</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G73" s="25">
         <v>403</v>
@@ -26228,10 +26256,10 @@
         <v>1011</v>
       </c>
       <c r="K73" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L73" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M73" s="36" t="s">
         <v>51</v>
@@ -26293,19 +26321,19 @@
         <v>71</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G74" s="25">
         <v>404</v>
@@ -26323,7 +26351,7 @@
         <v>47</v>
       </c>
       <c r="L74" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M74" s="34" t="s">
         <v>54</v>
@@ -26381,21 +26409,21 @@
       <c r="BL74" s="23"/>
     </row>
     <row r="75" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" s="67"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="67"/>
-      <c r="L75" s="67"/>
-      <c r="M75" s="67"/>
+      <c r="A75" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="70"/>
+      <c r="M75" s="70"/>
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
       <c r="P75" s="22"/>
@@ -26449,21 +26477,21 @@
       <c r="BL75" s="22"/>
     </row>
     <row r="76" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="66"/>
-      <c r="M76" s="66"/>
+      <c r="A76" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="69"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="69"/>
+      <c r="M76" s="69"/>
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
       <c r="P76" s="22"/>
@@ -26521,19 +26549,19 @@
         <v>72</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G77" s="25">
         <v>401</v>
@@ -26548,7 +26576,7 @@
         <v>1012</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L77" s="36" t="s">
         <v>12</v>
@@ -26613,19 +26641,19 @@
         <v>73</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G78" s="25">
         <v>401</v>
@@ -26640,7 +26668,7 @@
         <v>1013</v>
       </c>
       <c r="K78" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L78" s="36" t="s">
         <v>12</v>
@@ -26705,19 +26733,19 @@
         <v>74</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G79" s="25">
         <v>401</v>
@@ -26732,7 +26760,7 @@
         <v>1014</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L79" s="36" t="s">
         <v>12</v>
@@ -26797,19 +26825,19 @@
         <v>75</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G80" s="25">
         <v>400</v>
@@ -26827,7 +26855,7 @@
         <v>14</v>
       </c>
       <c r="L80" s="34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M80" s="34" t="s">
         <v>52</v>
@@ -26889,19 +26917,19 @@
         <v>76</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G81" s="25">
         <v>400</v>
@@ -26919,7 +26947,7 @@
         <v>26</v>
       </c>
       <c r="L81" s="34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M81" s="34" t="s">
         <v>52</v>
@@ -26981,19 +27009,19 @@
         <v>77</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G82" s="25">
         <v>400</v>
@@ -27011,7 +27039,7 @@
         <v>15</v>
       </c>
       <c r="L82" s="34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M82" s="34" t="s">
         <v>52</v>
@@ -27073,19 +27101,19 @@
         <v>78</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G83" s="25">
         <v>403</v>
@@ -27103,10 +27131,10 @@
         <v>27</v>
       </c>
       <c r="L83" s="34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M83" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N83" s="23"/>
       <c r="O83" s="23"/>
@@ -27165,19 +27193,19 @@
         <v>79</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G84" s="25">
         <v>403</v>
@@ -27195,10 +27223,10 @@
         <v>28</v>
       </c>
       <c r="L84" s="34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M84" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N84" s="23"/>
       <c r="O84" s="23"/>
@@ -27257,19 +27285,19 @@
         <v>80</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G85" s="25">
         <v>403</v>
@@ -27287,10 +27315,10 @@
         <v>16</v>
       </c>
       <c r="L85" s="34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M85" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N85" s="23"/>
       <c r="O85" s="23"/>
@@ -27349,19 +27377,19 @@
         <v>81</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D86" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G86" s="25">
         <v>403</v>
@@ -27376,13 +27404,13 @@
         <v>1011</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L86" s="34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M86" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N86" s="23"/>
       <c r="O86" s="23"/>
@@ -27441,19 +27469,19 @@
         <v>82</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G87" s="25">
         <v>400</v>
@@ -27468,13 +27496,13 @@
         <v>3001</v>
       </c>
       <c r="K87" s="34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L87" s="34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M87" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N87" s="23"/>
       <c r="O87" s="23"/>
@@ -27533,19 +27561,19 @@
         <v>83</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G88" s="25">
         <v>400</v>
@@ -27563,10 +27591,10 @@
         <v>32</v>
       </c>
       <c r="L88" s="34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M88" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N88" s="23"/>
       <c r="O88" s="23"/>
@@ -27625,19 +27653,19 @@
         <v>84</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G89" s="25">
         <v>400</v>
@@ -27652,13 +27680,13 @@
         <v>1012</v>
       </c>
       <c r="K89" s="36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L89" s="34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M89" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N89" s="23"/>
       <c r="O89" s="23"/>
@@ -27713,21 +27741,21 @@
       <c r="BL89" s="23"/>
     </row>
     <row r="90" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="B90" s="66"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="66"/>
-      <c r="I90" s="66"/>
-      <c r="J90" s="66"/>
-      <c r="K90" s="66"/>
-      <c r="L90" s="66"/>
-      <c r="M90" s="66"/>
+      <c r="A90" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="69"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="69"/>
+      <c r="I90" s="69"/>
+      <c r="J90" s="69"/>
+      <c r="K90" s="69"/>
+      <c r="L90" s="69"/>
+      <c r="M90" s="69"/>
       <c r="N90" s="22"/>
       <c r="O90" s="22"/>
       <c r="P90" s="22"/>
@@ -27785,19 +27813,19 @@
         <v>85</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D91" s="4">
         <v>8</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G91" s="56" t="s">
         <v>12</v>
@@ -27815,7 +27843,7 @@
         <v>22</v>
       </c>
       <c r="L91" s="34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M91" s="34" t="s">
         <v>1</v>
@@ -27873,21 +27901,21 @@
       <c r="BL91" s="23"/>
     </row>
     <row r="92" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" s="67"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="67"/>
-      <c r="J92" s="67"/>
-      <c r="K92" s="67"/>
-      <c r="L92" s="67"/>
-      <c r="M92" s="67"/>
+      <c r="A92" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="B92" s="70"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
+      <c r="G92" s="70"/>
+      <c r="H92" s="70"/>
+      <c r="I92" s="70"/>
+      <c r="J92" s="70"/>
+      <c r="K92" s="70"/>
+      <c r="L92" s="70"/>
+      <c r="M92" s="70"/>
       <c r="N92" s="22"/>
       <c r="O92" s="22"/>
       <c r="P92" s="22"/>
@@ -27941,21 +27969,21 @@
       <c r="BL92" s="22"/>
     </row>
     <row r="93" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="B93" s="66"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="66"/>
-      <c r="J93" s="66"/>
-      <c r="K93" s="66"/>
-      <c r="L93" s="66"/>
-      <c r="M93" s="66"/>
+      <c r="A93" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" s="69"/>
+      <c r="C93" s="69"/>
+      <c r="D93" s="69"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="69"/>
+      <c r="G93" s="69"/>
+      <c r="H93" s="69"/>
+      <c r="I93" s="69"/>
+      <c r="J93" s="69"/>
+      <c r="K93" s="69"/>
+      <c r="L93" s="69"/>
+      <c r="M93" s="69"/>
       <c r="N93" s="22"/>
       <c r="O93" s="22"/>
       <c r="P93" s="22"/>
@@ -28013,19 +28041,19 @@
         <v>86</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G94" s="25">
         <v>401</v>
@@ -28040,7 +28068,7 @@
         <v>1012</v>
       </c>
       <c r="K94" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L94" s="36" t="s">
         <v>12</v>
@@ -28105,19 +28133,19 @@
         <v>87</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G95" s="25">
         <v>401</v>
@@ -28132,7 +28160,7 @@
         <v>1013</v>
       </c>
       <c r="K95" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L95" s="36" t="s">
         <v>12</v>
@@ -28197,19 +28225,19 @@
         <v>88</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G96" s="25">
         <v>401</v>
@@ -28224,7 +28252,7 @@
         <v>1014</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L96" s="36" t="s">
         <v>12</v>
@@ -28289,19 +28317,19 @@
         <v>89</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G97" s="25">
         <v>400</v>
@@ -28319,7 +28347,7 @@
         <v>14</v>
       </c>
       <c r="L97" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M97" s="34" t="s">
         <v>52</v>
@@ -28381,19 +28409,19 @@
         <v>90</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G98" s="25">
         <v>400</v>
@@ -28411,7 +28439,7 @@
         <v>26</v>
       </c>
       <c r="L98" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M98" s="34" t="s">
         <v>52</v>
@@ -28473,19 +28501,19 @@
         <v>91</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G99" s="25">
         <v>400</v>
@@ -28503,7 +28531,7 @@
         <v>15</v>
       </c>
       <c r="L99" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M99" s="34" t="s">
         <v>52</v>
@@ -28565,19 +28593,19 @@
         <v>92</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G100" s="25">
         <v>403</v>
@@ -28595,10 +28623,10 @@
         <v>27</v>
       </c>
       <c r="L100" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M100" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N100" s="23"/>
       <c r="O100" s="23"/>
@@ -28657,19 +28685,19 @@
         <v>93</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G101" s="25">
         <v>403</v>
@@ -28687,10 +28715,10 @@
         <v>28</v>
       </c>
       <c r="L101" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M101" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N101" s="23"/>
       <c r="O101" s="23"/>
@@ -28749,19 +28777,19 @@
         <v>94</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G102" s="25">
         <v>403</v>
@@ -28779,10 +28807,10 @@
         <v>16</v>
       </c>
       <c r="L102" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M102" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N102" s="23"/>
       <c r="O102" s="23"/>
@@ -28841,19 +28869,19 @@
         <v>95</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D103" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G103" s="25">
         <v>403</v>
@@ -28868,10 +28896,10 @@
         <v>1011</v>
       </c>
       <c r="K103" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L103" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M103" s="36" t="s">
         <v>51</v>
@@ -28933,19 +28961,19 @@
         <v>96</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G104" s="25">
         <v>400</v>
@@ -28963,10 +28991,10 @@
         <v>19</v>
       </c>
       <c r="L104" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M104" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N104" s="23"/>
       <c r="O104" s="23"/>
@@ -29021,21 +29049,21 @@
       <c r="BL104" s="23"/>
     </row>
     <row r="105" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="B105" s="72"/>
-      <c r="C105" s="72"/>
-      <c r="D105" s="72"/>
-      <c r="E105" s="72"/>
-      <c r="F105" s="72"/>
-      <c r="G105" s="72"/>
-      <c r="H105" s="72"/>
-      <c r="I105" s="72"/>
-      <c r="J105" s="72"/>
-      <c r="K105" s="72"/>
-      <c r="L105" s="72"/>
-      <c r="M105" s="73"/>
+      <c r="A105" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="B105" s="67"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
+      <c r="J105" s="67"/>
+      <c r="K105" s="67"/>
+      <c r="L105" s="67"/>
+      <c r="M105" s="68"/>
       <c r="N105" s="22"/>
       <c r="O105" s="22"/>
       <c r="P105" s="22"/>
@@ -29093,19 +29121,19 @@
         <v>97</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G106" s="42" t="s">
         <v>12</v>
@@ -29123,10 +29151,10 @@
         <v>46</v>
       </c>
       <c r="L106" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M106" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -29134,19 +29162,19 @@
         <v>98</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D107" s="30" t="s">
         <v>12</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G107" s="42" t="s">
         <v>12</v>
@@ -29161,10 +29189,10 @@
         <v>4003</v>
       </c>
       <c r="K107" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L107" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M107" s="37" t="s">
         <v>1</v>
@@ -29175,19 +29203,19 @@
         <v>99</v>
       </c>
       <c r="B108" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D108" s="4">
         <v>8</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G108" s="25" t="s">
         <v>12</v>
@@ -29205,7 +29233,7 @@
         <v>22</v>
       </c>
       <c r="L108" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M108" s="34" t="s">
         <v>1</v>
@@ -29267,19 +29295,19 @@
         <v>100</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C109" s="36" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G109" s="56">
         <v>400</v>
@@ -29294,13 +29322,13 @@
         <v>2046</v>
       </c>
       <c r="K109" s="36" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L109" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M109" s="36" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -29308,19 +29336,19 @@
         <v>101</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D110" s="30" t="s">
         <v>12</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G110" s="42" t="s">
         <v>12</v>
@@ -29335,13 +29363,13 @@
         <v>1012</v>
       </c>
       <c r="K110" s="36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L110" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M110" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="111" spans="1:64" x14ac:dyDescent="0.3">
@@ -34282,12 +34310,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A105:M105"/>
-    <mergeCell ref="A90:M90"/>
-    <mergeCell ref="A93:M93"/>
-    <mergeCell ref="A76:M76"/>
-    <mergeCell ref="A75:M75"/>
-    <mergeCell ref="A92:M92"/>
     <mergeCell ref="A64:M64"/>
     <mergeCell ref="A52:M52"/>
     <mergeCell ref="A2:M2"/>
@@ -34295,6 +34317,12 @@
     <mergeCell ref="A17:M17"/>
     <mergeCell ref="A51:M51"/>
     <mergeCell ref="A63:M63"/>
+    <mergeCell ref="A105:M105"/>
+    <mergeCell ref="A90:M90"/>
+    <mergeCell ref="A93:M93"/>
+    <mergeCell ref="A76:M76"/>
+    <mergeCell ref="A75:M75"/>
+    <mergeCell ref="A92:M92"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H68:H74 H56:H62 H44:H50 H97:H104 H80:H89 H91 H18:H42 H106:H110 H7:H16">

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -673,13 +673,13 @@
     <t>Employment Start Date must be a valid date in the format YYYY-MM-DD (e.g. 2019-01-31).</t>
   </si>
   <si>
-    <t>Income Calculation Basis is mandatory when the RPN Number is not used.</t>
+    <t>Income Tax Calculation Basis is mandatory when the RPN Number is not used.</t>
   </si>
   <si>
-    <t>Income Calculation Basis is mandatory when no RPNNumber included.</t>
+    <t>Income Tax Calculation Basis is mandatory when no RPNNumber included.</t>
   </si>
   <si>
-    <t>IncomeCalculationBasis</t>
+    <t>IncomeTaxCalculationBasis</t>
   </si>
 </sst>
 </file>
@@ -1091,15 +1091,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1113,6 +1104,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -21635,7 +21635,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -21748,21 +21748,21 @@
       <c r="BL1" s="21"/>
     </row>
     <row r="2" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
@@ -21816,21 +21816,21 @@
       <c r="BL2" s="22"/>
     </row>
     <row r="3" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -22570,21 +22570,21 @@
       </c>
     </row>
     <row r="17" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
@@ -24297,21 +24297,21 @@
       <c r="BL50" s="23"/>
     </row>
     <row r="51" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="73"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="70"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
@@ -24365,21 +24365,21 @@
       <c r="BL51" s="22"/>
     </row>
     <row r="52" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="69" t="s">
+      <c r="A52" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="69"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
@@ -25353,21 +25353,21 @@
       <c r="BL62" s="23"/>
     </row>
     <row r="63" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="70"/>
-      <c r="M63" s="70"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
       <c r="P63" s="22"/>
@@ -25421,21 +25421,21 @@
       <c r="BL63" s="22"/>
     </row>
     <row r="64" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="69"/>
-      <c r="J64" s="69"/>
-      <c r="K64" s="69"/>
-      <c r="L64" s="69"/>
-      <c r="M64" s="69"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="66"/>
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
       <c r="P64" s="22"/>
@@ -26409,21 +26409,21 @@
       <c r="BL74" s="23"/>
     </row>
     <row r="75" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="70" t="s">
+      <c r="A75" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="70"/>
-      <c r="K75" s="70"/>
-      <c r="L75" s="70"/>
-      <c r="M75" s="70"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67"/>
+      <c r="L75" s="67"/>
+      <c r="M75" s="67"/>
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
       <c r="P75" s="22"/>
@@ -26477,21 +26477,21 @@
       <c r="BL75" s="22"/>
     </row>
     <row r="76" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="69" t="s">
+      <c r="A76" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B76" s="69"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="69"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="69"/>
-      <c r="J76" s="69"/>
-      <c r="K76" s="69"/>
-      <c r="L76" s="69"/>
-      <c r="M76" s="69"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="66"/>
+      <c r="M76" s="66"/>
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
       <c r="P76" s="22"/>
@@ -27741,21 +27741,21 @@
       <c r="BL89" s="23"/>
     </row>
     <row r="90" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="69" t="s">
+      <c r="A90" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="69"/>
-      <c r="H90" s="69"/>
-      <c r="I90" s="69"/>
-      <c r="J90" s="69"/>
-      <c r="K90" s="69"/>
-      <c r="L90" s="69"/>
-      <c r="M90" s="69"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="66"/>
+      <c r="J90" s="66"/>
+      <c r="K90" s="66"/>
+      <c r="L90" s="66"/>
+      <c r="M90" s="66"/>
       <c r="N90" s="22"/>
       <c r="O90" s="22"/>
       <c r="P90" s="22"/>
@@ -27901,21 +27901,21 @@
       <c r="BL91" s="23"/>
     </row>
     <row r="92" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="70" t="s">
+      <c r="A92" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="B92" s="70"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70"/>
-      <c r="G92" s="70"/>
-      <c r="H92" s="70"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="70"/>
-      <c r="K92" s="70"/>
-      <c r="L92" s="70"/>
-      <c r="M92" s="70"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="67"/>
+      <c r="K92" s="67"/>
+      <c r="L92" s="67"/>
+      <c r="M92" s="67"/>
       <c r="N92" s="22"/>
       <c r="O92" s="22"/>
       <c r="P92" s="22"/>
@@ -27969,21 +27969,21 @@
       <c r="BL92" s="22"/>
     </row>
     <row r="93" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="69" t="s">
+      <c r="A93" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B93" s="69"/>
-      <c r="C93" s="69"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="69"/>
-      <c r="G93" s="69"/>
-      <c r="H93" s="69"/>
-      <c r="I93" s="69"/>
-      <c r="J93" s="69"/>
-      <c r="K93" s="69"/>
-      <c r="L93" s="69"/>
-      <c r="M93" s="69"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="66"/>
+      <c r="J93" s="66"/>
+      <c r="K93" s="66"/>
+      <c r="L93" s="66"/>
+      <c r="M93" s="66"/>
       <c r="N93" s="22"/>
       <c r="O93" s="22"/>
       <c r="P93" s="22"/>
@@ -29049,21 +29049,21 @@
       <c r="BL104" s="23"/>
     </row>
     <row r="105" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="66" t="s">
+      <c r="A105" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="B105" s="67"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
-      <c r="I105" s="67"/>
-      <c r="J105" s="67"/>
-      <c r="K105" s="67"/>
-      <c r="L105" s="67"/>
-      <c r="M105" s="68"/>
+      <c r="B105" s="72"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="72"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="72"/>
+      <c r="K105" s="72"/>
+      <c r="L105" s="72"/>
+      <c r="M105" s="73"/>
       <c r="N105" s="22"/>
       <c r="O105" s="22"/>
       <c r="P105" s="22"/>
@@ -34310,6 +34310,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="A105:M105"/>
+    <mergeCell ref="A90:M90"/>
+    <mergeCell ref="A93:M93"/>
+    <mergeCell ref="A76:M76"/>
+    <mergeCell ref="A75:M75"/>
+    <mergeCell ref="A92:M92"/>
     <mergeCell ref="A64:M64"/>
     <mergeCell ref="A52:M52"/>
     <mergeCell ref="A2:M2"/>
@@ -34317,12 +34323,6 @@
     <mergeCell ref="A17:M17"/>
     <mergeCell ref="A51:M51"/>
     <mergeCell ref="A63:M63"/>
-    <mergeCell ref="A105:M105"/>
-    <mergeCell ref="A90:M90"/>
-    <mergeCell ref="A93:M93"/>
-    <mergeCell ref="A76:M76"/>
-    <mergeCell ref="A75:M75"/>
-    <mergeCell ref="A92:M92"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H68:H74 H56:H62 H44:H50 H97:H104 H80:H89 H91 H18:H42 H106:H110 H7:H16">

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2436" windowWidth="14280" windowHeight="7308" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="14280" windowHeight="7305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$A$437</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$A$1:$M$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$A$1:$M$109</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$K$106</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="216">
   <si>
     <t>Payslip</t>
   </si>
@@ -719,6 +719,15 @@
   <si>
     <t>LookupPayrollReturnByPeriodRequest - section added</t>
   </si>
+  <si>
+    <t>Duplicate record(s) found in EmployeeDetail list.</t>
+  </si>
+  <si>
+    <t>EmployeeDetail.EmployeeID</t>
+  </si>
+  <si>
+    <t>Rule 115 added.</t>
+  </si>
 </sst>
 </file>
 
@@ -1129,22 +1138,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,10 +1162,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1242,8 +1251,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8394246" y="47625"/>
-          <a:ext cx="1819275" cy="896711"/>
+          <a:off x="8277225" y="47625"/>
+          <a:ext cx="1819275" cy="923925"/>
           <a:chOff x="4063321" y="0"/>
           <a:chExt cx="3161899" cy="1553550"/>
         </a:xfrm>
@@ -21379,37 +21388,37 @@
   <dimension ref="B8:M32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="12"/>
-    <col min="2" max="2" width="13.33203125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="13.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="12" customWidth="1"/>
     <col min="5" max="5" width="92" style="12" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" style="12" customWidth="1"/>
-    <col min="7" max="11" width="9.109375" style="12"/>
-    <col min="12" max="13" width="9.109375" style="13"/>
-    <col min="14" max="16384" width="9.109375" style="12"/>
+    <col min="6" max="6" width="21.85546875" style="12" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" style="12"/>
+    <col min="12" max="13" width="9.140625" style="13"/>
+    <col min="14" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="66" t="s">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+    </row>
+    <row r="11" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>86</v>
       </c>
@@ -21429,7 +21438,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="31">
         <v>0.1</v>
       </c>
@@ -21447,7 +21456,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
         <v>176</v>
       </c>
@@ -21467,7 +21476,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="15" t="s">
@@ -21483,7 +21492,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
       <c r="C15" s="19">
         <v>43067</v>
@@ -21501,7 +21510,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="15">
@@ -21517,7 +21526,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="15">
@@ -21533,7 +21542,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
         <v>199</v>
       </c>
@@ -21551,7 +21560,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
         <v>211</v>
       </c>
@@ -21569,11 +21578,13 @@
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -21581,7 +21592,7 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="15"/>
@@ -21593,7 +21604,7 @@
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="15"/>
@@ -21605,7 +21616,7 @@
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="15"/>
@@ -21617,55 +21628,55 @@
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="15"/>
@@ -21686,31 +21697,31 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BL437"/>
+  <dimension ref="A1:BL438"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G132" sqref="G132"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M109" sqref="M109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="2" customWidth="1"/>
-    <col min="4" max="6" width="10.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="56" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58.6640625" style="59" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58.7109375" style="59" customWidth="1"/>
     <col min="12" max="12" width="28" style="11" customWidth="1"/>
     <col min="13" max="13" width="30" style="11" customWidth="1"/>
-    <col min="14" max="64" width="9.109375" style="23"/>
-    <col min="65" max="16384" width="9.109375" style="2"/>
+    <col min="14" max="64" width="9.140625" style="23"/>
+    <col min="65" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" s="1" customFormat="1" ht="46.9" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
@@ -21803,21 +21814,21 @@
       <c r="BL1" s="21"/>
     </row>
     <row r="2" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
@@ -21871,21 +21882,21 @@
       <c r="BL2" s="22"/>
     </row>
     <row r="3" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -21938,7 +21949,7 @@
       <c r="BK3" s="22"/>
       <c r="BL3" s="22"/>
     </row>
-    <row r="4" spans="1:64" s="11" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" s="11" customFormat="1" ht="46.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -22296,7 +22307,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:64" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -22337,7 +22348,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:64" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -22501,7 +22512,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:64" ht="31.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" ht="31.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>100</v>
       </c>
@@ -22583,7 +22594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>17</v>
       </c>
@@ -22625,21 +22636,21 @@
       </c>
     </row>
     <row r="17" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
@@ -22692,7 +22703,7 @@
       <c r="BK17" s="22"/>
       <c r="BL17" s="22"/>
     </row>
-    <row r="18" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" ht="46.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>18</v>
       </c>
@@ -22733,7 +22744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" ht="15.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>19</v>
       </c>
@@ -22774,7 +22785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>20</v>
       </c>
@@ -22815,7 +22826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:64" ht="62.4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" ht="62.45" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>21</v>
       </c>
@@ -22856,7 +22867,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" ht="46.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>22</v>
       </c>
@@ -22897,7 +22908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>23</v>
       </c>
@@ -22938,7 +22949,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>24</v>
       </c>
@@ -22979,7 +22990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>25</v>
       </c>
@@ -23020,7 +23031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" ht="15.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>26</v>
       </c>
@@ -23061,7 +23072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" ht="46.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>27</v>
       </c>
@@ -23102,7 +23113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" ht="46.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>28</v>
       </c>
@@ -23143,7 +23154,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>30</v>
       </c>
@@ -23184,7 +23195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" ht="15.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>31</v>
       </c>
@@ -23225,7 +23236,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" ht="15.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>32</v>
       </c>
@@ -23266,7 +23277,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:64" s="38" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="38" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>33</v>
       </c>
@@ -23358,7 +23369,7 @@
       <c r="BK32" s="37"/>
       <c r="BL32" s="37"/>
     </row>
-    <row r="33" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>34</v>
       </c>
@@ -23399,7 +23410,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" ht="15.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>35</v>
       </c>
@@ -23532,7 +23543,7 @@
       <c r="BK35" s="37"/>
       <c r="BL35" s="37"/>
     </row>
-    <row r="36" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>37</v>
       </c>
@@ -23624,7 +23635,7 @@
       <c r="BK36" s="23"/>
       <c r="BL36" s="23"/>
     </row>
-    <row r="37" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>38</v>
       </c>
@@ -23665,7 +23676,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>39</v>
       </c>
@@ -23706,7 +23717,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>40</v>
       </c>
@@ -23747,7 +23758,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>41</v>
       </c>
@@ -23788,7 +23799,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>42</v>
       </c>
@@ -23829,7 +23840,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>43</v>
       </c>
@@ -23870,7 +23881,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:64" s="38" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" s="38" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>44</v>
       </c>
@@ -23962,7 +23973,7 @@
       <c r="BK43" s="37"/>
       <c r="BL43" s="37"/>
     </row>
-    <row r="44" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>45</v>
       </c>
@@ -24003,7 +24014,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:64" ht="15.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>46</v>
       </c>
@@ -24044,7 +24055,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>47</v>
       </c>
@@ -24085,7 +24096,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>48</v>
       </c>
@@ -24126,7 +24137,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:64" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>49</v>
       </c>
@@ -24167,7 +24178,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:64" s="7" customFormat="1" ht="15.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>50</v>
       </c>
@@ -24259,7 +24270,7 @@
       <c r="BK49" s="23"/>
       <c r="BL49" s="23"/>
     </row>
-    <row r="50" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>51</v>
       </c>
@@ -24352,21 +24363,21 @@
       <c r="BL50" s="23"/>
     </row>
     <row r="51" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="69" t="s">
+      <c r="A51" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="71"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="76"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
@@ -24420,21 +24431,21 @@
       <c r="BL51" s="22"/>
     </row>
     <row r="52" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="68" t="s">
+      <c r="A52" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="68"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
@@ -24487,7 +24498,7 @@
       <c r="BK52" s="22"/>
       <c r="BL52" s="22"/>
     </row>
-    <row r="53" spans="1:64" s="61" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:64" s="61" customFormat="1" ht="46.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -24579,7 +24590,7 @@
       <c r="BK53" s="22"/>
       <c r="BL53" s="22"/>
     </row>
-    <row r="54" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:64" s="61" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -24671,7 +24682,7 @@
       <c r="BK54" s="22"/>
       <c r="BL54" s="22"/>
     </row>
-    <row r="55" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:64" s="61" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -24763,7 +24774,7 @@
       <c r="BK55" s="22"/>
       <c r="BL55" s="22"/>
     </row>
-    <row r="56" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -24855,7 +24866,7 @@
       <c r="BK56" s="23"/>
       <c r="BL56" s="23"/>
     </row>
-    <row r="57" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:64" s="7" customFormat="1" ht="46.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -24947,7 +24958,7 @@
       <c r="BK57" s="23"/>
       <c r="BL57" s="23"/>
     </row>
-    <row r="58" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -25039,7 +25050,7 @@
       <c r="BK58" s="23"/>
       <c r="BL58" s="23"/>
     </row>
-    <row r="59" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -25131,7 +25142,7 @@
       <c r="BK59" s="23"/>
       <c r="BL59" s="23"/>
     </row>
-    <row r="60" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -25223,7 +25234,7 @@
       <c r="BK60" s="23"/>
       <c r="BL60" s="23"/>
     </row>
-    <row r="61" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -25315,7 +25326,7 @@
       <c r="BK61" s="23"/>
       <c r="BL61" s="23"/>
     </row>
-    <row r="62" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -25408,21 +25419,21 @@
       <c r="BL62" s="23"/>
     </row>
     <row r="63" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="67"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="69"/>
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
       <c r="P63" s="22"/>
@@ -25476,21 +25487,21 @@
       <c r="BL63" s="22"/>
     </row>
     <row r="64" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="68" t="s">
+      <c r="A64" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="B64" s="68"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="68"/>
-      <c r="M64" s="68"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="74"/>
+      <c r="M64" s="74"/>
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
       <c r="P64" s="22"/>
@@ -25543,7 +25554,7 @@
       <c r="BK64" s="22"/>
       <c r="BL64" s="22"/>
     </row>
-    <row r="65" spans="1:64" s="61" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:64" s="61" customFormat="1" ht="46.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>62</v>
       </c>
@@ -25635,7 +25646,7 @@
       <c r="BK65" s="22"/>
       <c r="BL65" s="22"/>
     </row>
-    <row r="66" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:64" s="61" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>63</v>
       </c>
@@ -25727,7 +25738,7 @@
       <c r="BK66" s="22"/>
       <c r="BL66" s="22"/>
     </row>
-    <row r="67" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:64" s="61" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>64</v>
       </c>
@@ -25819,7 +25830,7 @@
       <c r="BK67" s="22"/>
       <c r="BL67" s="22"/>
     </row>
-    <row r="68" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>65</v>
       </c>
@@ -25911,7 +25922,7 @@
       <c r="BK68" s="23"/>
       <c r="BL68" s="23"/>
     </row>
-    <row r="69" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:64" s="7" customFormat="1" ht="46.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>66</v>
       </c>
@@ -26003,7 +26014,7 @@
       <c r="BK69" s="23"/>
       <c r="BL69" s="23"/>
     </row>
-    <row r="70" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>67</v>
       </c>
@@ -26095,7 +26106,7 @@
       <c r="BK70" s="23"/>
       <c r="BL70" s="23"/>
     </row>
-    <row r="71" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>68</v>
       </c>
@@ -26187,7 +26198,7 @@
       <c r="BK71" s="23"/>
       <c r="BL71" s="23"/>
     </row>
-    <row r="72" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>69</v>
       </c>
@@ -26279,7 +26290,7 @@
       <c r="BK72" s="23"/>
       <c r="BL72" s="23"/>
     </row>
-    <row r="73" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>70</v>
       </c>
@@ -26371,7 +26382,7 @@
       <c r="BK73" s="23"/>
       <c r="BL73" s="23"/>
     </row>
-    <row r="74" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>71</v>
       </c>
@@ -26464,21 +26475,21 @@
       <c r="BL74" s="23"/>
     </row>
     <row r="75" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="67" t="s">
+      <c r="A75" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="67"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="67"/>
-      <c r="L75" s="67"/>
-      <c r="M75" s="67"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="69"/>
+      <c r="J75" s="69"/>
+      <c r="K75" s="69"/>
+      <c r="L75" s="69"/>
+      <c r="M75" s="69"/>
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
       <c r="P75" s="22"/>
@@ -26532,21 +26543,21 @@
       <c r="BL75" s="22"/>
     </row>
     <row r="76" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="68" t="s">
+      <c r="A76" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="B76" s="68"/>
-      <c r="C76" s="68"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="68"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="68"/>
-      <c r="M76" s="68"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="74"/>
+      <c r="J76" s="74"/>
+      <c r="K76" s="74"/>
+      <c r="L76" s="74"/>
+      <c r="M76" s="74"/>
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
       <c r="P76" s="22"/>
@@ -26599,7 +26610,7 @@
       <c r="BK76" s="22"/>
       <c r="BL76" s="22"/>
     </row>
-    <row r="77" spans="1:64" s="61" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:64" s="61" customFormat="1" ht="46.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>72</v>
       </c>
@@ -26691,7 +26702,7 @@
       <c r="BK77" s="22"/>
       <c r="BL77" s="22"/>
     </row>
-    <row r="78" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:64" s="61" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>73</v>
       </c>
@@ -26783,7 +26794,7 @@
       <c r="BK78" s="22"/>
       <c r="BL78" s="22"/>
     </row>
-    <row r="79" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:64" s="61" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>74</v>
       </c>
@@ -26875,7 +26886,7 @@
       <c r="BK79" s="22"/>
       <c r="BL79" s="22"/>
     </row>
-    <row r="80" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>75</v>
       </c>
@@ -26967,7 +26978,7 @@
       <c r="BK80" s="23"/>
       <c r="BL80" s="23"/>
     </row>
-    <row r="81" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:64" s="7" customFormat="1" ht="46.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>76</v>
       </c>
@@ -27059,7 +27070,7 @@
       <c r="BK81" s="23"/>
       <c r="BL81" s="23"/>
     </row>
-    <row r="82" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:64" s="7" customFormat="1" ht="15.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>77</v>
       </c>
@@ -27151,7 +27162,7 @@
       <c r="BK82" s="23"/>
       <c r="BL82" s="23"/>
     </row>
-    <row r="83" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:64" s="7" customFormat="1" ht="15.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>78</v>
       </c>
@@ -27243,7 +27254,7 @@
       <c r="BK83" s="23"/>
       <c r="BL83" s="23"/>
     </row>
-    <row r="84" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:64" s="7" customFormat="1" ht="15.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>79</v>
       </c>
@@ -27335,7 +27346,7 @@
       <c r="BK84" s="23"/>
       <c r="BL84" s="23"/>
     </row>
-    <row r="85" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>80</v>
       </c>
@@ -27427,7 +27438,7 @@
       <c r="BK85" s="23"/>
       <c r="BL85" s="23"/>
     </row>
-    <row r="86" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>81</v>
       </c>
@@ -27519,7 +27530,7 @@
       <c r="BK86" s="23"/>
       <c r="BL86" s="23"/>
     </row>
-    <row r="87" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>82</v>
       </c>
@@ -27611,7 +27622,7 @@
       <c r="BK87" s="23"/>
       <c r="BL87" s="23"/>
     </row>
-    <row r="88" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:64" s="7" customFormat="1" ht="15.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>83</v>
       </c>
@@ -27703,7 +27714,7 @@
       <c r="BK88" s="23"/>
       <c r="BL88" s="23"/>
     </row>
-    <row r="89" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>84</v>
       </c>
@@ -27796,21 +27807,21 @@
       <c r="BL89" s="23"/>
     </row>
     <row r="90" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="68" t="s">
+      <c r="A90" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="B90" s="68"/>
-      <c r="C90" s="68"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="68"/>
-      <c r="G90" s="68"/>
-      <c r="H90" s="68"/>
-      <c r="I90" s="68"/>
-      <c r="J90" s="68"/>
-      <c r="K90" s="68"/>
-      <c r="L90" s="68"/>
-      <c r="M90" s="68"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="74"/>
+      <c r="I90" s="74"/>
+      <c r="J90" s="74"/>
+      <c r="K90" s="74"/>
+      <c r="L90" s="74"/>
+      <c r="M90" s="74"/>
       <c r="N90" s="22"/>
       <c r="O90" s="22"/>
       <c r="P90" s="22"/>
@@ -27863,7 +27874,7 @@
       <c r="BK90" s="22"/>
       <c r="BL90" s="22"/>
     </row>
-    <row r="91" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>85</v>
       </c>
@@ -27956,21 +27967,21 @@
       <c r="BL91" s="23"/>
     </row>
     <row r="92" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="67" t="s">
+      <c r="A92" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="B92" s="67"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="67"/>
-      <c r="J92" s="67"/>
-      <c r="K92" s="67"/>
-      <c r="L92" s="67"/>
-      <c r="M92" s="67"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="69"/>
+      <c r="J92" s="69"/>
+      <c r="K92" s="69"/>
+      <c r="L92" s="69"/>
+      <c r="M92" s="69"/>
       <c r="N92" s="22"/>
       <c r="O92" s="22"/>
       <c r="P92" s="22"/>
@@ -28024,21 +28035,21 @@
       <c r="BL92" s="22"/>
     </row>
     <row r="93" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="68" t="s">
+      <c r="A93" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="68"/>
-      <c r="H93" s="68"/>
-      <c r="I93" s="68"/>
-      <c r="J93" s="68"/>
-      <c r="K93" s="68"/>
-      <c r="L93" s="68"/>
-      <c r="M93" s="68"/>
+      <c r="B93" s="74"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="74"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="74"/>
+      <c r="G93" s="74"/>
+      <c r="H93" s="74"/>
+      <c r="I93" s="74"/>
+      <c r="J93" s="74"/>
+      <c r="K93" s="74"/>
+      <c r="L93" s="74"/>
+      <c r="M93" s="74"/>
       <c r="N93" s="22"/>
       <c r="O93" s="22"/>
       <c r="P93" s="22"/>
@@ -28091,7 +28102,7 @@
       <c r="BK93" s="22"/>
       <c r="BL93" s="22"/>
     </row>
-    <row r="94" spans="1:64" s="61" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:64" s="61" customFormat="1" ht="46.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>86</v>
       </c>
@@ -28183,7 +28194,7 @@
       <c r="BK94" s="22"/>
       <c r="BL94" s="22"/>
     </row>
-    <row r="95" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:64" s="61" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>87</v>
       </c>
@@ -28275,7 +28286,7 @@
       <c r="BK95" s="22"/>
       <c r="BL95" s="22"/>
     </row>
-    <row r="96" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:64" s="61" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>88</v>
       </c>
@@ -28367,7 +28378,7 @@
       <c r="BK96" s="22"/>
       <c r="BL96" s="22"/>
     </row>
-    <row r="97" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>89</v>
       </c>
@@ -28459,7 +28470,7 @@
       <c r="BK97" s="23"/>
       <c r="BL97" s="23"/>
     </row>
-    <row r="98" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:64" s="7" customFormat="1" ht="46.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>90</v>
       </c>
@@ -28551,7 +28562,7 @@
       <c r="BK98" s="23"/>
       <c r="BL98" s="23"/>
     </row>
-    <row r="99" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:64" s="7" customFormat="1" ht="15.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>91</v>
       </c>
@@ -28643,7 +28654,7 @@
       <c r="BK99" s="23"/>
       <c r="BL99" s="23"/>
     </row>
-    <row r="100" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:64" s="7" customFormat="1" ht="15.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>92</v>
       </c>
@@ -28735,7 +28746,7 @@
       <c r="BK100" s="23"/>
       <c r="BL100" s="23"/>
     </row>
-    <row r="101" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:64" s="7" customFormat="1" ht="15.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>93</v>
       </c>
@@ -28827,7 +28838,7 @@
       <c r="BK101" s="23"/>
       <c r="BL101" s="23"/>
     </row>
-    <row r="102" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>94</v>
       </c>
@@ -28919,7 +28930,7 @@
       <c r="BK102" s="23"/>
       <c r="BL102" s="23"/>
     </row>
-    <row r="103" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>95</v>
       </c>
@@ -29011,7 +29022,7 @@
       <c r="BK103" s="23"/>
       <c r="BL103" s="23"/>
     </row>
-    <row r="104" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:64" s="7" customFormat="1" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>96</v>
       </c>
@@ -29104,21 +29115,21 @@
       <c r="BL104" s="23"/>
     </row>
     <row r="105" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="72" t="s">
+      <c r="A105" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="B105" s="73"/>
-      <c r="C105" s="73"/>
-      <c r="D105" s="73"/>
-      <c r="E105" s="73"/>
-      <c r="F105" s="73"/>
-      <c r="G105" s="73"/>
-      <c r="H105" s="73"/>
-      <c r="I105" s="73"/>
-      <c r="J105" s="73"/>
-      <c r="K105" s="73"/>
-      <c r="L105" s="73"/>
-      <c r="M105" s="74"/>
+      <c r="B105" s="72"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="72"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="72"/>
+      <c r="K105" s="72"/>
+      <c r="L105" s="72"/>
+      <c r="M105" s="73"/>
       <c r="N105" s="22"/>
       <c r="O105" s="22"/>
       <c r="P105" s="22"/>
@@ -29171,7 +29182,7 @@
       <c r="BK105" s="22"/>
       <c r="BL105" s="22"/>
     </row>
-    <row r="106" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>97</v>
       </c>
@@ -29212,7 +29223,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:64" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>98</v>
       </c>
@@ -29253,223 +29264,223 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B108" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D108" s="4">
-        <v>8</v>
-      </c>
-      <c r="E108" s="25" t="s">
+      <c r="C108" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F108" s="25" t="s">
+      <c r="F108" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G108" s="25" t="s">
+      <c r="G108" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H108" s="4" t="s">
+      <c r="H108" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I108" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J108" s="4">
-        <v>1010</v>
-      </c>
-      <c r="K108" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L108" s="32" t="s">
+      <c r="I108" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J108" s="28">
+        <v>4004</v>
+      </c>
+      <c r="K108" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="L108" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="M108" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="N108" s="23"/>
-      <c r="O108" s="23"/>
-      <c r="P108" s="23"/>
-      <c r="Q108" s="23"/>
-      <c r="R108" s="23"/>
-      <c r="S108" s="23"/>
-      <c r="T108" s="23"/>
-      <c r="U108" s="23"/>
-      <c r="V108" s="23"/>
-      <c r="W108" s="23"/>
-      <c r="X108" s="23"/>
-      <c r="Y108" s="23"/>
-      <c r="Z108" s="23"/>
-      <c r="AA108" s="23"/>
-      <c r="AB108" s="23"/>
-      <c r="AC108" s="23"/>
-      <c r="AD108" s="23"/>
-      <c r="AE108" s="23"/>
-      <c r="AF108" s="23"/>
-      <c r="AG108" s="23"/>
-      <c r="AH108" s="23"/>
-      <c r="AI108" s="23"/>
-      <c r="AJ108" s="23"/>
-      <c r="AK108" s="23"/>
-      <c r="AL108" s="23"/>
-      <c r="AM108" s="23"/>
-      <c r="AN108" s="23"/>
-      <c r="AO108" s="23"/>
-      <c r="AP108" s="23"/>
-      <c r="AQ108" s="23"/>
-      <c r="AR108" s="23"/>
-      <c r="AS108" s="23"/>
-      <c r="AT108" s="23"/>
-      <c r="AU108" s="23"/>
-      <c r="AV108" s="23"/>
-      <c r="AW108" s="23"/>
-      <c r="AX108" s="23"/>
-      <c r="AY108" s="23"/>
-      <c r="AZ108" s="23"/>
-      <c r="BA108" s="23"/>
-      <c r="BB108" s="23"/>
-      <c r="BC108" s="23"/>
-      <c r="BD108" s="23"/>
-      <c r="BE108" s="23"/>
-      <c r="BF108" s="23"/>
-      <c r="BG108" s="23"/>
-      <c r="BH108" s="23"/>
-      <c r="BI108" s="23"/>
-      <c r="BJ108" s="23"/>
-      <c r="BK108" s="23"/>
-      <c r="BL108" s="23"/>
-    </row>
-    <row r="109" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M108" s="33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:64" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B109" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C109" s="29" t="s">
+      <c r="C109" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D109" s="4">
+        <v>8</v>
+      </c>
+      <c r="E109" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F109" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G109" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J109" s="4">
+        <v>1010</v>
+      </c>
+      <c r="K109" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L109" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="M109" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="N109" s="23"/>
+      <c r="O109" s="23"/>
+      <c r="P109" s="23"/>
+      <c r="Q109" s="23"/>
+      <c r="R109" s="23"/>
+      <c r="S109" s="23"/>
+      <c r="T109" s="23"/>
+      <c r="U109" s="23"/>
+      <c r="V109" s="23"/>
+      <c r="W109" s="23"/>
+      <c r="X109" s="23"/>
+      <c r="Y109" s="23"/>
+      <c r="Z109" s="23"/>
+      <c r="AA109" s="23"/>
+      <c r="AB109" s="23"/>
+      <c r="AC109" s="23"/>
+      <c r="AD109" s="23"/>
+      <c r="AE109" s="23"/>
+      <c r="AF109" s="23"/>
+      <c r="AG109" s="23"/>
+      <c r="AH109" s="23"/>
+      <c r="AI109" s="23"/>
+      <c r="AJ109" s="23"/>
+      <c r="AK109" s="23"/>
+      <c r="AL109" s="23"/>
+      <c r="AM109" s="23"/>
+      <c r="AN109" s="23"/>
+      <c r="AO109" s="23"/>
+      <c r="AP109" s="23"/>
+      <c r="AQ109" s="23"/>
+      <c r="AR109" s="23"/>
+      <c r="AS109" s="23"/>
+      <c r="AT109" s="23"/>
+      <c r="AU109" s="23"/>
+      <c r="AV109" s="23"/>
+      <c r="AW109" s="23"/>
+      <c r="AX109" s="23"/>
+      <c r="AY109" s="23"/>
+      <c r="AZ109" s="23"/>
+      <c r="BA109" s="23"/>
+      <c r="BB109" s="23"/>
+      <c r="BC109" s="23"/>
+      <c r="BD109" s="23"/>
+      <c r="BE109" s="23"/>
+      <c r="BF109" s="23"/>
+      <c r="BG109" s="23"/>
+      <c r="BH109" s="23"/>
+      <c r="BI109" s="23"/>
+      <c r="BJ109" s="23"/>
+      <c r="BK109" s="23"/>
+      <c r="BL109" s="23"/>
+    </row>
+    <row r="110" spans="1:64" ht="31.15" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>101</v>
+      </c>
+      <c r="B110" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="D109" s="28" t="s">
+      <c r="D110" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E110" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F110" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G109" s="40" t="s">
+      <c r="G110" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H109" s="5" t="s">
+      <c r="H110" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I109" s="28" t="s">
+      <c r="I110" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="J109" s="4">
+      <c r="J110" s="4">
         <v>1002</v>
       </c>
-      <c r="K109" s="34" t="s">
+      <c r="K110" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="L109" s="33" t="s">
+      <c r="L110" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="M109" s="35" t="s">
+      <c r="M110" s="35" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="110" spans="1:64" ht="18" x14ac:dyDescent="0.3">
-      <c r="A110" s="67" t="s">
+    <row r="111" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+      <c r="A111" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="B110" s="67"/>
-      <c r="C110" s="67"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="67"/>
-      <c r="J110" s="67"/>
-      <c r="K110" s="67"/>
-      <c r="L110" s="67"/>
-      <c r="M110" s="69"/>
-    </row>
-    <row r="111" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A111" s="72" t="s">
+      <c r="B111" s="69"/>
+      <c r="C111" s="69"/>
+      <c r="D111" s="69"/>
+      <c r="E111" s="69"/>
+      <c r="F111" s="69"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="69"/>
+      <c r="I111" s="69"/>
+      <c r="J111" s="69"/>
+      <c r="K111" s="69"/>
+      <c r="L111" s="69"/>
+      <c r="M111" s="70"/>
+    </row>
+    <row r="112" spans="1:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="B111" s="73"/>
-      <c r="C111" s="73"/>
-      <c r="D111" s="73"/>
-      <c r="E111" s="73"/>
-      <c r="F111" s="73"/>
-      <c r="G111" s="73"/>
-      <c r="H111" s="73"/>
-      <c r="I111" s="73"/>
-      <c r="J111" s="73"/>
-      <c r="K111" s="73"/>
-      <c r="L111" s="73"/>
-      <c r="M111" s="73"/>
-    </row>
-    <row r="112" spans="1:64" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="4">
+      <c r="B112" s="72"/>
+      <c r="C112" s="72"/>
+      <c r="D112" s="72"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="72"/>
+      <c r="H112" s="72"/>
+      <c r="I112" s="72"/>
+      <c r="J112" s="72"/>
+      <c r="K112" s="72"/>
+      <c r="L112" s="72"/>
+      <c r="M112" s="72"/>
+    </row>
+    <row r="113" spans="1:13" ht="46.9" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
         <v>102</v>
-      </c>
-      <c r="B112" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C112" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G112" s="25">
-        <v>401</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J112" s="4">
-        <v>1012</v>
-      </c>
-      <c r="K112" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="L112" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M112" s="60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="4">
-        <v>103</v>
       </c>
       <c r="B113" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C113" s="24" t="s">
-        <v>170</v>
+      <c r="C113" s="34" t="s">
+        <v>178</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>12</v>
@@ -29490,27 +29501,27 @@
         <v>38</v>
       </c>
       <c r="J113" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K113" s="24" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="L113" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M113" s="58" t="s">
+      <c r="M113" s="60" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="31.15" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B114" s="34" t="s">
         <v>202</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>12</v>
@@ -29531,68 +29542,68 @@
         <v>38</v>
       </c>
       <c r="J114" s="4">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K114" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L114" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M114" s="32" t="s">
+      <c r="M114" s="58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="31.15" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B115" s="34" t="s">
         <v>202</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D115" s="25">
-        <v>201</v>
-      </c>
-      <c r="E115" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F115" s="25" t="s">
+      <c r="F115" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G115" s="54">
-        <v>400</v>
-      </c>
-      <c r="H115" s="25" t="s">
+      <c r="G115" s="25">
+        <v>401</v>
+      </c>
+      <c r="H115" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I115" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="J115" s="47">
-        <v>1003</v>
-      </c>
-      <c r="K115" s="34" t="s">
-        <v>14</v>
+      <c r="I115" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J115" s="4">
+        <v>1014</v>
+      </c>
+      <c r="K115" s="24" t="s">
+        <v>171</v>
       </c>
       <c r="L115" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="M115" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="M115" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="31.15" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B116" s="34" t="s">
         <v>202</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="D116" s="25">
         <v>201</v>
@@ -29610,13 +29621,13 @@
         <v>7</v>
       </c>
       <c r="I116" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J116" s="26">
-        <v>1004</v>
+        <v>35</v>
+      </c>
+      <c r="J116" s="47">
+        <v>1003</v>
       </c>
       <c r="K116" s="34" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L116" s="34" t="s">
         <v>63</v>
@@ -29625,18 +29636,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="46.9" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B117" s="34" t="s">
         <v>202</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="D117" s="25">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E117" s="25" t="s">
         <v>162</v>
@@ -29645,7 +29656,7 @@
         <v>162</v>
       </c>
       <c r="G117" s="54">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H117" s="25" t="s">
         <v>7</v>
@@ -29654,27 +29665,27 @@
         <v>11</v>
       </c>
       <c r="J117" s="26">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="K117" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L117" s="34" t="s">
         <v>63</v>
       </c>
       <c r="M117" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B118" s="34" t="s">
         <v>202</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D118" s="25">
         <v>202</v>
@@ -29692,13 +29703,13 @@
         <v>7</v>
       </c>
       <c r="I118" s="25" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J118" s="26">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K118" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L118" s="34" t="s">
         <v>63</v>
@@ -29707,15 +29718,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B119" s="34" t="s">
         <v>202</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D119" s="25">
         <v>202</v>
@@ -29736,10 +29747,10 @@
         <v>35</v>
       </c>
       <c r="J119" s="26">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K119" s="34" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="L119" s="34" t="s">
         <v>63</v>
@@ -29748,15 +29759,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="31.15" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B120" s="34" t="s">
         <v>202</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="D120" s="25">
         <v>202</v>
@@ -29767,7 +29778,7 @@
       <c r="F120" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="G120" s="25">
+      <c r="G120" s="54">
         <v>403</v>
       </c>
       <c r="H120" s="25" t="s">
@@ -29776,11 +29787,11 @@
       <c r="I120" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J120" s="55">
-        <v>5001</v>
+      <c r="J120" s="26">
+        <v>1008</v>
       </c>
       <c r="K120" s="34" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="L120" s="34" t="s">
         <v>63</v>
@@ -29789,15 +29800,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="46.9" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B121" s="34" t="s">
         <v>202</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="D121" s="25">
         <v>202</v>
@@ -29808,20 +29819,20 @@
       <c r="F121" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="G121" s="54">
+      <c r="G121" s="25">
         <v>403</v>
       </c>
       <c r="H121" s="25" t="s">
         <v>7</v>
       </c>
       <c r="I121" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J121" s="25">
-        <v>1011</v>
+        <v>35</v>
+      </c>
+      <c r="J121" s="55">
+        <v>5001</v>
       </c>
       <c r="K121" s="34" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="L121" s="34" t="s">
         <v>63</v>
@@ -29830,56 +29841,56 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="31.15" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B122" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D122" s="4">
-        <v>203</v>
-      </c>
-      <c r="E122" s="4" t="s">
+      <c r="C122" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D122" s="25">
+        <v>202</v>
+      </c>
+      <c r="E122" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="G122" s="25">
-        <v>400</v>
-      </c>
-      <c r="H122" s="4" t="s">
+      <c r="G122" s="54">
+        <v>403</v>
+      </c>
+      <c r="H122" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I122" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J122" s="10">
-        <v>3002</v>
-      </c>
-      <c r="K122" s="32" t="s">
-        <v>206</v>
+      <c r="I122" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J122" s="25">
+        <v>1011</v>
+      </c>
+      <c r="K122" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="L122" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="M122" s="32" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="M122" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B123" s="34" t="s">
         <v>202</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D123" s="4">
         <v>203</v>
@@ -29899,11 +29910,11 @@
       <c r="I123" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J123" s="4">
-        <v>1002</v>
-      </c>
-      <c r="K123" s="34" t="s">
-        <v>193</v>
+      <c r="J123" s="10">
+        <v>3002</v>
+      </c>
+      <c r="K123" s="32" t="s">
+        <v>206</v>
       </c>
       <c r="L123" s="34" t="s">
         <v>63</v>
@@ -29912,18 +29923,18 @@
         <v>207</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="31.15" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B124" s="34" t="s">
         <v>202</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D124" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>162</v>
@@ -29950,25 +29961,51 @@
         <v>63</v>
       </c>
       <c r="M124" s="32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="31.15" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
+        <v>114</v>
+      </c>
+      <c r="B125" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D125" s="4">
+        <v>204</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G125" s="25">
+        <v>400</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J125" s="4">
+        <v>1002</v>
+      </c>
+      <c r="K125" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="L125" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="M125" s="32" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A125" s="21"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="55"/>
-      <c r="H125" s="21"/>
-      <c r="I125" s="21"/>
-      <c r="J125" s="21"/>
-      <c r="K125" s="36"/>
-      <c r="L125" s="22"/>
-      <c r="M125" s="22"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
       <c r="C126" s="23"/>
@@ -29983,7 +30020,7 @@
       <c r="L126" s="22"/>
       <c r="M126" s="22"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="21"/>
       <c r="B127" s="22"/>
       <c r="C127" s="23"/>
@@ -29998,7 +30035,7 @@
       <c r="L127" s="22"/>
       <c r="M127" s="22"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="21"/>
       <c r="B128" s="22"/>
       <c r="C128" s="23"/>
@@ -30013,7 +30050,7 @@
       <c r="L128" s="22"/>
       <c r="M128" s="22"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="21"/>
       <c r="B129" s="22"/>
       <c r="C129" s="23"/>
@@ -30028,7 +30065,7 @@
       <c r="L129" s="22"/>
       <c r="M129" s="22"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="23"/>
@@ -30043,7 +30080,7 @@
       <c r="L130" s="22"/>
       <c r="M130" s="22"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="23"/>
@@ -30058,7 +30095,7 @@
       <c r="L131" s="22"/>
       <c r="M131" s="22"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="21"/>
       <c r="B132" s="22"/>
       <c r="C132" s="23"/>
@@ -30073,7 +30110,7 @@
       <c r="L132" s="22"/>
       <c r="M132" s="22"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="21"/>
       <c r="B133" s="22"/>
       <c r="C133" s="23"/>
@@ -30088,7 +30125,7 @@
       <c r="L133" s="22"/>
       <c r="M133" s="22"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="21"/>
       <c r="B134" s="22"/>
       <c r="C134" s="23"/>
@@ -30103,7 +30140,7 @@
       <c r="L134" s="22"/>
       <c r="M134" s="22"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="21"/>
       <c r="B135" s="22"/>
       <c r="C135" s="23"/>
@@ -30118,7 +30155,7 @@
       <c r="L135" s="22"/>
       <c r="M135" s="22"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="21"/>
       <c r="B136" s="22"/>
       <c r="C136" s="23"/>
@@ -30133,7 +30170,7 @@
       <c r="L136" s="22"/>
       <c r="M136" s="22"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="23"/>
@@ -30148,7 +30185,7 @@
       <c r="L137" s="22"/>
       <c r="M137" s="22"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="23"/>
@@ -30163,7 +30200,7 @@
       <c r="L138" s="22"/>
       <c r="M138" s="22"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="21"/>
       <c r="B139" s="22"/>
       <c r="C139" s="23"/>
@@ -30178,7 +30215,7 @@
       <c r="L139" s="22"/>
       <c r="M139" s="22"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="21"/>
       <c r="B140" s="22"/>
       <c r="C140" s="23"/>
@@ -30193,7 +30230,7 @@
       <c r="L140" s="22"/>
       <c r="M140" s="22"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="21"/>
       <c r="B141" s="22"/>
       <c r="C141" s="23"/>
@@ -30208,7 +30245,7 @@
       <c r="L141" s="22"/>
       <c r="M141" s="22"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="21"/>
       <c r="B142" s="22"/>
       <c r="C142" s="23"/>
@@ -30223,7 +30260,7 @@
       <c r="L142" s="22"/>
       <c r="M142" s="22"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="21"/>
       <c r="B143" s="22"/>
       <c r="C143" s="23"/>
@@ -30238,7 +30275,7 @@
       <c r="L143" s="22"/>
       <c r="M143" s="22"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="23"/>
@@ -30253,7 +30290,7 @@
       <c r="L144" s="22"/>
       <c r="M144" s="22"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="23"/>
@@ -30268,7 +30305,7 @@
       <c r="L145" s="22"/>
       <c r="M145" s="22"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="21"/>
       <c r="B146" s="22"/>
       <c r="C146" s="23"/>
@@ -30283,7 +30320,7 @@
       <c r="L146" s="22"/>
       <c r="M146" s="22"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="21"/>
       <c r="B147" s="22"/>
       <c r="C147" s="23"/>
@@ -30298,7 +30335,7 @@
       <c r="L147" s="22"/>
       <c r="M147" s="22"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="21"/>
       <c r="B148" s="22"/>
       <c r="C148" s="23"/>
@@ -30313,7 +30350,7 @@
       <c r="L148" s="22"/>
       <c r="M148" s="22"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="21"/>
       <c r="B149" s="22"/>
       <c r="C149" s="23"/>
@@ -30328,7 +30365,7 @@
       <c r="L149" s="22"/>
       <c r="M149" s="22"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="21"/>
       <c r="B150" s="22"/>
       <c r="C150" s="23"/>
@@ -30343,7 +30380,7 @@
       <c r="L150" s="22"/>
       <c r="M150" s="22"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="23"/>
@@ -30358,7 +30395,7 @@
       <c r="L151" s="22"/>
       <c r="M151" s="22"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="23"/>
@@ -30373,7 +30410,7 @@
       <c r="L152" s="22"/>
       <c r="M152" s="22"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="21"/>
       <c r="B153" s="22"/>
       <c r="C153" s="23"/>
@@ -30388,7 +30425,7 @@
       <c r="L153" s="22"/>
       <c r="M153" s="22"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="21"/>
       <c r="B154" s="22"/>
       <c r="C154" s="23"/>
@@ -30403,7 +30440,7 @@
       <c r="L154" s="22"/>
       <c r="M154" s="22"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="21"/>
       <c r="B155" s="22"/>
       <c r="C155" s="23"/>
@@ -30418,7 +30455,7 @@
       <c r="L155" s="22"/>
       <c r="M155" s="22"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="21"/>
       <c r="B156" s="22"/>
       <c r="C156" s="23"/>
@@ -30433,7 +30470,7 @@
       <c r="L156" s="22"/>
       <c r="M156" s="22"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="21"/>
       <c r="B157" s="22"/>
       <c r="C157" s="23"/>
@@ -30448,7 +30485,7 @@
       <c r="L157" s="22"/>
       <c r="M157" s="22"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="23"/>
@@ -30463,7 +30500,7 @@
       <c r="L158" s="22"/>
       <c r="M158" s="22"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="23"/>
@@ -30478,7 +30515,7 @@
       <c r="L159" s="22"/>
       <c r="M159" s="22"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="21"/>
       <c r="B160" s="22"/>
       <c r="C160" s="23"/>
@@ -30493,7 +30530,7 @@
       <c r="L160" s="22"/>
       <c r="M160" s="22"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="21"/>
       <c r="B161" s="22"/>
       <c r="C161" s="23"/>
@@ -30508,7 +30545,7 @@
       <c r="L161" s="22"/>
       <c r="M161" s="22"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="21"/>
       <c r="B162" s="22"/>
       <c r="C162" s="23"/>
@@ -30523,7 +30560,7 @@
       <c r="L162" s="22"/>
       <c r="M162" s="22"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="21"/>
       <c r="B163" s="22"/>
       <c r="C163" s="23"/>
@@ -30538,7 +30575,7 @@
       <c r="L163" s="22"/>
       <c r="M163" s="22"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="21"/>
       <c r="B164" s="22"/>
       <c r="C164" s="23"/>
@@ -30553,7 +30590,7 @@
       <c r="L164" s="22"/>
       <c r="M164" s="22"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="23"/>
@@ -30568,7 +30605,7 @@
       <c r="L165" s="22"/>
       <c r="M165" s="22"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="23"/>
@@ -30583,7 +30620,7 @@
       <c r="L166" s="22"/>
       <c r="M166" s="22"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="21"/>
       <c r="B167" s="22"/>
       <c r="C167" s="23"/>
@@ -30598,7 +30635,7 @@
       <c r="L167" s="22"/>
       <c r="M167" s="22"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="21"/>
       <c r="B168" s="22"/>
       <c r="C168" s="23"/>
@@ -30613,7 +30650,7 @@
       <c r="L168" s="22"/>
       <c r="M168" s="22"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="21"/>
       <c r="B169" s="22"/>
       <c r="C169" s="23"/>
@@ -30628,7 +30665,7 @@
       <c r="L169" s="22"/>
       <c r="M169" s="22"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="21"/>
       <c r="B170" s="22"/>
       <c r="C170" s="23"/>
@@ -30643,7 +30680,7 @@
       <c r="L170" s="22"/>
       <c r="M170" s="22"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="21"/>
       <c r="B171" s="22"/>
       <c r="C171" s="23"/>
@@ -30658,7 +30695,7 @@
       <c r="L171" s="22"/>
       <c r="M171" s="22"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="23"/>
@@ -30673,7 +30710,7 @@
       <c r="L172" s="22"/>
       <c r="M172" s="22"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="23"/>
@@ -30688,7 +30725,7 @@
       <c r="L173" s="22"/>
       <c r="M173" s="22"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="21"/>
       <c r="B174" s="22"/>
       <c r="C174" s="23"/>
@@ -30703,7 +30740,7 @@
       <c r="L174" s="22"/>
       <c r="M174" s="22"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="21"/>
       <c r="B175" s="22"/>
       <c r="C175" s="23"/>
@@ -30718,7 +30755,7 @@
       <c r="L175" s="22"/>
       <c r="M175" s="22"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="21"/>
       <c r="B176" s="22"/>
       <c r="C176" s="23"/>
@@ -30733,7 +30770,7 @@
       <c r="L176" s="22"/>
       <c r="M176" s="22"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="21"/>
       <c r="B177" s="22"/>
       <c r="C177" s="23"/>
@@ -30748,7 +30785,7 @@
       <c r="L177" s="22"/>
       <c r="M177" s="22"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="21"/>
       <c r="B178" s="22"/>
       <c r="C178" s="23"/>
@@ -30763,7 +30800,7 @@
       <c r="L178" s="22"/>
       <c r="M178" s="22"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="23"/>
@@ -30778,7 +30815,7 @@
       <c r="L179" s="22"/>
       <c r="M179" s="22"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="23"/>
@@ -30793,7 +30830,7 @@
       <c r="L180" s="22"/>
       <c r="M180" s="22"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="21"/>
       <c r="B181" s="22"/>
       <c r="C181" s="23"/>
@@ -30808,7 +30845,7 @@
       <c r="L181" s="22"/>
       <c r="M181" s="22"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="21"/>
       <c r="B182" s="22"/>
       <c r="C182" s="23"/>
@@ -30823,7 +30860,7 @@
       <c r="L182" s="22"/>
       <c r="M182" s="22"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="21"/>
       <c r="B183" s="22"/>
       <c r="C183" s="23"/>
@@ -30838,7 +30875,7 @@
       <c r="L183" s="22"/>
       <c r="M183" s="22"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="21"/>
       <c r="B184" s="22"/>
       <c r="C184" s="23"/>
@@ -30853,7 +30890,7 @@
       <c r="L184" s="22"/>
       <c r="M184" s="22"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="21"/>
       <c r="B185" s="22"/>
       <c r="C185" s="23"/>
@@ -30868,7 +30905,7 @@
       <c r="L185" s="22"/>
       <c r="M185" s="22"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="21"/>
       <c r="B186" s="22"/>
       <c r="C186" s="23"/>
@@ -30883,7 +30920,7 @@
       <c r="L186" s="22"/>
       <c r="M186" s="22"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="21"/>
       <c r="B187" s="22"/>
       <c r="C187" s="23"/>
@@ -30898,7 +30935,7 @@
       <c r="L187" s="22"/>
       <c r="M187" s="22"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="21"/>
       <c r="B188" s="22"/>
       <c r="C188" s="23"/>
@@ -30913,7 +30950,7 @@
       <c r="L188" s="22"/>
       <c r="M188" s="22"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="21"/>
       <c r="B189" s="22"/>
       <c r="C189" s="23"/>
@@ -30928,7 +30965,7 @@
       <c r="L189" s="22"/>
       <c r="M189" s="22"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="21"/>
       <c r="B190" s="22"/>
       <c r="C190" s="23"/>
@@ -30943,7 +30980,7 @@
       <c r="L190" s="22"/>
       <c r="M190" s="22"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="21"/>
       <c r="B191" s="22"/>
       <c r="C191" s="23"/>
@@ -30958,7 +30995,7 @@
       <c r="L191" s="22"/>
       <c r="M191" s="22"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="21"/>
       <c r="B192" s="22"/>
       <c r="C192" s="23"/>
@@ -30973,7 +31010,7 @@
       <c r="L192" s="22"/>
       <c r="M192" s="22"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="21"/>
       <c r="B193" s="22"/>
       <c r="C193" s="23"/>
@@ -30988,7 +31025,7 @@
       <c r="L193" s="22"/>
       <c r="M193" s="22"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="21"/>
       <c r="B194" s="22"/>
       <c r="C194" s="23"/>
@@ -31003,7 +31040,7 @@
       <c r="L194" s="22"/>
       <c r="M194" s="22"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="21"/>
       <c r="B195" s="22"/>
       <c r="C195" s="23"/>
@@ -31018,7 +31055,7 @@
       <c r="L195" s="22"/>
       <c r="M195" s="22"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="21"/>
       <c r="B196" s="22"/>
       <c r="C196" s="23"/>
@@ -31033,7 +31070,7 @@
       <c r="L196" s="22"/>
       <c r="M196" s="22"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="21"/>
       <c r="B197" s="22"/>
       <c r="C197" s="23"/>
@@ -31048,7 +31085,7 @@
       <c r="L197" s="22"/>
       <c r="M197" s="22"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="21"/>
       <c r="B198" s="22"/>
       <c r="C198" s="23"/>
@@ -31063,7 +31100,7 @@
       <c r="L198" s="22"/>
       <c r="M198" s="22"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="21"/>
       <c r="B199" s="22"/>
       <c r="C199" s="23"/>
@@ -31078,7 +31115,7 @@
       <c r="L199" s="22"/>
       <c r="M199" s="22"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="21"/>
       <c r="B200" s="22"/>
       <c r="C200" s="23"/>
@@ -31093,7 +31130,7 @@
       <c r="L200" s="22"/>
       <c r="M200" s="22"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="21"/>
       <c r="B201" s="22"/>
       <c r="C201" s="23"/>
@@ -31108,7 +31145,7 @@
       <c r="L201" s="22"/>
       <c r="M201" s="22"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="21"/>
       <c r="B202" s="22"/>
       <c r="C202" s="23"/>
@@ -31123,7 +31160,7 @@
       <c r="L202" s="22"/>
       <c r="M202" s="22"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="21"/>
       <c r="B203" s="22"/>
       <c r="C203" s="23"/>
@@ -31138,7 +31175,7 @@
       <c r="L203" s="22"/>
       <c r="M203" s="22"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="21"/>
       <c r="B204" s="22"/>
       <c r="C204" s="23"/>
@@ -31153,7 +31190,7 @@
       <c r="L204" s="22"/>
       <c r="M204" s="22"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="21"/>
       <c r="B205" s="22"/>
       <c r="C205" s="23"/>
@@ -31168,7 +31205,7 @@
       <c r="L205" s="22"/>
       <c r="M205" s="22"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="21"/>
       <c r="B206" s="22"/>
       <c r="C206" s="23"/>
@@ -31183,7 +31220,7 @@
       <c r="L206" s="22"/>
       <c r="M206" s="22"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="21"/>
       <c r="B207" s="22"/>
       <c r="C207" s="23"/>
@@ -31198,7 +31235,7 @@
       <c r="L207" s="22"/>
       <c r="M207" s="22"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="21"/>
       <c r="B208" s="22"/>
       <c r="C208" s="23"/>
@@ -31213,7 +31250,7 @@
       <c r="L208" s="22"/>
       <c r="M208" s="22"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="21"/>
       <c r="B209" s="22"/>
       <c r="C209" s="23"/>
@@ -31228,7 +31265,7 @@
       <c r="L209" s="22"/>
       <c r="M209" s="22"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="21"/>
       <c r="B210" s="22"/>
       <c r="C210" s="23"/>
@@ -31243,7 +31280,7 @@
       <c r="L210" s="22"/>
       <c r="M210" s="22"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="21"/>
       <c r="B211" s="22"/>
       <c r="C211" s="23"/>
@@ -31258,7 +31295,7 @@
       <c r="L211" s="22"/>
       <c r="M211" s="22"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="21"/>
       <c r="B212" s="22"/>
       <c r="C212" s="23"/>
@@ -31273,7 +31310,7 @@
       <c r="L212" s="22"/>
       <c r="M212" s="22"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="21"/>
       <c r="B213" s="22"/>
       <c r="C213" s="23"/>
@@ -31288,7 +31325,7 @@
       <c r="L213" s="22"/>
       <c r="M213" s="22"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="21"/>
       <c r="B214" s="22"/>
       <c r="C214" s="23"/>
@@ -31303,7 +31340,7 @@
       <c r="L214" s="22"/>
       <c r="M214" s="22"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="21"/>
       <c r="B215" s="22"/>
       <c r="C215" s="23"/>
@@ -31318,7 +31355,7 @@
       <c r="L215" s="22"/>
       <c r="M215" s="22"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="21"/>
       <c r="B216" s="22"/>
       <c r="C216" s="23"/>
@@ -31333,7 +31370,7 @@
       <c r="L216" s="22"/>
       <c r="M216" s="22"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="21"/>
       <c r="B217" s="22"/>
       <c r="C217" s="23"/>
@@ -31348,7 +31385,7 @@
       <c r="L217" s="22"/>
       <c r="M217" s="22"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="21"/>
       <c r="B218" s="22"/>
       <c r="C218" s="23"/>
@@ -31363,7 +31400,7 @@
       <c r="L218" s="22"/>
       <c r="M218" s="22"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="21"/>
       <c r="B219" s="22"/>
       <c r="C219" s="23"/>
@@ -31378,7 +31415,7 @@
       <c r="L219" s="22"/>
       <c r="M219" s="22"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="21"/>
       <c r="B220" s="22"/>
       <c r="C220" s="23"/>
@@ -31393,7 +31430,7 @@
       <c r="L220" s="22"/>
       <c r="M220" s="22"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="21"/>
       <c r="B221" s="22"/>
       <c r="C221" s="23"/>
@@ -31408,7 +31445,7 @@
       <c r="L221" s="22"/>
       <c r="M221" s="22"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="21"/>
       <c r="B222" s="22"/>
       <c r="C222" s="23"/>
@@ -31423,7 +31460,7 @@
       <c r="L222" s="22"/>
       <c r="M222" s="22"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="21"/>
       <c r="B223" s="22"/>
       <c r="C223" s="23"/>
@@ -31438,7 +31475,7 @@
       <c r="L223" s="22"/>
       <c r="M223" s="22"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="21"/>
       <c r="B224" s="22"/>
       <c r="C224" s="23"/>
@@ -31453,7 +31490,7 @@
       <c r="L224" s="22"/>
       <c r="M224" s="22"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="21"/>
       <c r="B225" s="22"/>
       <c r="C225" s="23"/>
@@ -31468,7 +31505,7 @@
       <c r="L225" s="22"/>
       <c r="M225" s="22"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="21"/>
       <c r="B226" s="22"/>
       <c r="C226" s="23"/>
@@ -31483,7 +31520,7 @@
       <c r="L226" s="22"/>
       <c r="M226" s="22"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="21"/>
       <c r="B227" s="22"/>
       <c r="C227" s="23"/>
@@ -31498,7 +31535,7 @@
       <c r="L227" s="22"/>
       <c r="M227" s="22"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="21"/>
       <c r="B228" s="22"/>
       <c r="C228" s="23"/>
@@ -31513,7 +31550,7 @@
       <c r="L228" s="22"/>
       <c r="M228" s="22"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="21"/>
       <c r="B229" s="22"/>
       <c r="C229" s="23"/>
@@ -31528,7 +31565,7 @@
       <c r="L229" s="22"/>
       <c r="M229" s="22"/>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="21"/>
       <c r="B230" s="22"/>
       <c r="C230" s="23"/>
@@ -31543,7 +31580,7 @@
       <c r="L230" s="22"/>
       <c r="M230" s="22"/>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="21"/>
       <c r="B231" s="22"/>
       <c r="C231" s="23"/>
@@ -31558,7 +31595,7 @@
       <c r="L231" s="22"/>
       <c r="M231" s="22"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="21"/>
       <c r="B232" s="22"/>
       <c r="C232" s="23"/>
@@ -31573,7 +31610,7 @@
       <c r="L232" s="22"/>
       <c r="M232" s="22"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="21"/>
       <c r="B233" s="22"/>
       <c r="C233" s="23"/>
@@ -31588,7 +31625,7 @@
       <c r="L233" s="22"/>
       <c r="M233" s="22"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="21"/>
       <c r="B234" s="22"/>
       <c r="C234" s="23"/>
@@ -31603,7 +31640,7 @@
       <c r="L234" s="22"/>
       <c r="M234" s="22"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="21"/>
       <c r="B235" s="22"/>
       <c r="C235" s="23"/>
@@ -31618,7 +31655,7 @@
       <c r="L235" s="22"/>
       <c r="M235" s="22"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="21"/>
       <c r="B236" s="22"/>
       <c r="C236" s="23"/>
@@ -31633,7 +31670,7 @@
       <c r="L236" s="22"/>
       <c r="M236" s="22"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="21"/>
       <c r="B237" s="22"/>
       <c r="C237" s="23"/>
@@ -31648,7 +31685,7 @@
       <c r="L237" s="22"/>
       <c r="M237" s="22"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="21"/>
       <c r="B238" s="22"/>
       <c r="C238" s="23"/>
@@ -31663,7 +31700,7 @@
       <c r="L238" s="22"/>
       <c r="M238" s="22"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="21"/>
       <c r="B239" s="22"/>
       <c r="C239" s="23"/>
@@ -31678,7 +31715,7 @@
       <c r="L239" s="22"/>
       <c r="M239" s="22"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="21"/>
       <c r="B240" s="22"/>
       <c r="C240" s="23"/>
@@ -31693,7 +31730,7 @@
       <c r="L240" s="22"/>
       <c r="M240" s="22"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="21"/>
       <c r="B241" s="22"/>
       <c r="C241" s="23"/>
@@ -31708,7 +31745,7 @@
       <c r="L241" s="22"/>
       <c r="M241" s="22"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="21"/>
       <c r="B242" s="22"/>
       <c r="C242" s="23"/>
@@ -31723,7 +31760,7 @@
       <c r="L242" s="22"/>
       <c r="M242" s="22"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="21"/>
       <c r="B243" s="22"/>
       <c r="C243" s="23"/>
@@ -31738,7 +31775,7 @@
       <c r="L243" s="22"/>
       <c r="M243" s="22"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="21"/>
       <c r="B244" s="22"/>
       <c r="C244" s="23"/>
@@ -31753,7 +31790,7 @@
       <c r="L244" s="22"/>
       <c r="M244" s="22"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="21"/>
       <c r="B245" s="22"/>
       <c r="C245" s="23"/>
@@ -31768,7 +31805,7 @@
       <c r="L245" s="22"/>
       <c r="M245" s="22"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="21"/>
       <c r="B246" s="22"/>
       <c r="C246" s="23"/>
@@ -31783,7 +31820,7 @@
       <c r="L246" s="22"/>
       <c r="M246" s="22"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="21"/>
       <c r="B247" s="22"/>
       <c r="C247" s="23"/>
@@ -31798,7 +31835,7 @@
       <c r="L247" s="22"/>
       <c r="M247" s="22"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="21"/>
       <c r="B248" s="22"/>
       <c r="C248" s="23"/>
@@ -31813,7 +31850,7 @@
       <c r="L248" s="22"/>
       <c r="M248" s="22"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="21"/>
       <c r="B249" s="22"/>
       <c r="C249" s="23"/>
@@ -31828,7 +31865,7 @@
       <c r="L249" s="22"/>
       <c r="M249" s="22"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="21"/>
       <c r="B250" s="22"/>
       <c r="C250" s="23"/>
@@ -31843,7 +31880,7 @@
       <c r="L250" s="22"/>
       <c r="M250" s="22"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="21"/>
       <c r="B251" s="22"/>
       <c r="C251" s="23"/>
@@ -31858,7 +31895,7 @@
       <c r="L251" s="22"/>
       <c r="M251" s="22"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="21"/>
       <c r="B252" s="22"/>
       <c r="C252" s="23"/>
@@ -31873,7 +31910,7 @@
       <c r="L252" s="22"/>
       <c r="M252" s="22"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="21"/>
       <c r="B253" s="22"/>
       <c r="C253" s="23"/>
@@ -31888,7 +31925,7 @@
       <c r="L253" s="22"/>
       <c r="M253" s="22"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="21"/>
       <c r="B254" s="22"/>
       <c r="C254" s="23"/>
@@ -31903,7 +31940,7 @@
       <c r="L254" s="22"/>
       <c r="M254" s="22"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="21"/>
       <c r="B255" s="22"/>
       <c r="C255" s="23"/>
@@ -31918,7 +31955,7 @@
       <c r="L255" s="22"/>
       <c r="M255" s="22"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="21"/>
       <c r="B256" s="22"/>
       <c r="C256" s="23"/>
@@ -31933,7 +31970,7 @@
       <c r="L256" s="22"/>
       <c r="M256" s="22"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="21"/>
       <c r="B257" s="22"/>
       <c r="C257" s="23"/>
@@ -31948,7 +31985,7 @@
       <c r="L257" s="22"/>
       <c r="M257" s="22"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="21"/>
       <c r="B258" s="22"/>
       <c r="C258" s="23"/>
@@ -31963,7 +32000,7 @@
       <c r="L258" s="22"/>
       <c r="M258" s="22"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="21"/>
       <c r="B259" s="22"/>
       <c r="C259" s="23"/>
@@ -31978,7 +32015,7 @@
       <c r="L259" s="22"/>
       <c r="M259" s="22"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="21"/>
       <c r="B260" s="22"/>
       <c r="C260" s="23"/>
@@ -31993,7 +32030,7 @@
       <c r="L260" s="22"/>
       <c r="M260" s="22"/>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="21"/>
       <c r="B261" s="22"/>
       <c r="C261" s="23"/>
@@ -32008,7 +32045,7 @@
       <c r="L261" s="22"/>
       <c r="M261" s="22"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="21"/>
       <c r="B262" s="22"/>
       <c r="C262" s="23"/>
@@ -32023,7 +32060,7 @@
       <c r="L262" s="22"/>
       <c r="M262" s="22"/>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="21"/>
       <c r="B263" s="22"/>
       <c r="C263" s="23"/>
@@ -32038,7 +32075,7 @@
       <c r="L263" s="22"/>
       <c r="M263" s="22"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="21"/>
       <c r="B264" s="22"/>
       <c r="C264" s="23"/>
@@ -32053,7 +32090,7 @@
       <c r="L264" s="22"/>
       <c r="M264" s="22"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="21"/>
       <c r="B265" s="22"/>
       <c r="C265" s="23"/>
@@ -32068,7 +32105,7 @@
       <c r="L265" s="22"/>
       <c r="M265" s="22"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="21"/>
       <c r="B266" s="22"/>
       <c r="C266" s="23"/>
@@ -32083,7 +32120,7 @@
       <c r="L266" s="22"/>
       <c r="M266" s="22"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="21"/>
       <c r="B267" s="22"/>
       <c r="C267" s="23"/>
@@ -32098,7 +32135,7 @@
       <c r="L267" s="22"/>
       <c r="M267" s="22"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="21"/>
       <c r="B268" s="22"/>
       <c r="C268" s="23"/>
@@ -32113,7 +32150,7 @@
       <c r="L268" s="22"/>
       <c r="M268" s="22"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="21"/>
       <c r="B269" s="22"/>
       <c r="C269" s="23"/>
@@ -32128,7 +32165,7 @@
       <c r="L269" s="22"/>
       <c r="M269" s="22"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="21"/>
       <c r="B270" s="22"/>
       <c r="C270" s="23"/>
@@ -32143,7 +32180,7 @@
       <c r="L270" s="22"/>
       <c r="M270" s="22"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="21"/>
       <c r="B271" s="22"/>
       <c r="C271" s="23"/>
@@ -32158,7 +32195,7 @@
       <c r="L271" s="22"/>
       <c r="M271" s="22"/>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="21"/>
       <c r="B272" s="22"/>
       <c r="C272" s="23"/>
@@ -32173,7 +32210,7 @@
       <c r="L272" s="22"/>
       <c r="M272" s="22"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="21"/>
       <c r="B273" s="22"/>
       <c r="C273" s="23"/>
@@ -32188,7 +32225,7 @@
       <c r="L273" s="22"/>
       <c r="M273" s="22"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="21"/>
       <c r="B274" s="22"/>
       <c r="C274" s="23"/>
@@ -32203,7 +32240,7 @@
       <c r="L274" s="22"/>
       <c r="M274" s="22"/>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="21"/>
       <c r="B275" s="22"/>
       <c r="C275" s="23"/>
@@ -32218,7 +32255,7 @@
       <c r="L275" s="22"/>
       <c r="M275" s="22"/>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="21"/>
       <c r="B276" s="22"/>
       <c r="C276" s="23"/>
@@ -32233,7 +32270,7 @@
       <c r="L276" s="22"/>
       <c r="M276" s="22"/>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="21"/>
       <c r="B277" s="22"/>
       <c r="C277" s="23"/>
@@ -32248,7 +32285,7 @@
       <c r="L277" s="22"/>
       <c r="M277" s="22"/>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="21"/>
       <c r="B278" s="22"/>
       <c r="C278" s="23"/>
@@ -32263,7 +32300,7 @@
       <c r="L278" s="22"/>
       <c r="M278" s="22"/>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="21"/>
       <c r="B279" s="22"/>
       <c r="C279" s="23"/>
@@ -32278,7 +32315,7 @@
       <c r="L279" s="22"/>
       <c r="M279" s="22"/>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="21"/>
       <c r="B280" s="22"/>
       <c r="C280" s="23"/>
@@ -32293,7 +32330,7 @@
       <c r="L280" s="22"/>
       <c r="M280" s="22"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="21"/>
       <c r="B281" s="22"/>
       <c r="C281" s="23"/>
@@ -32308,7 +32345,7 @@
       <c r="L281" s="22"/>
       <c r="M281" s="22"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="21"/>
       <c r="B282" s="22"/>
       <c r="C282" s="23"/>
@@ -32323,7 +32360,7 @@
       <c r="L282" s="22"/>
       <c r="M282" s="22"/>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="21"/>
       <c r="B283" s="22"/>
       <c r="C283" s="23"/>
@@ -32338,7 +32375,7 @@
       <c r="L283" s="22"/>
       <c r="M283" s="22"/>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="21"/>
       <c r="B284" s="22"/>
       <c r="C284" s="23"/>
@@ -32353,7 +32390,7 @@
       <c r="L284" s="22"/>
       <c r="M284" s="22"/>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="21"/>
       <c r="B285" s="22"/>
       <c r="C285" s="23"/>
@@ -32368,7 +32405,7 @@
       <c r="L285" s="22"/>
       <c r="M285" s="22"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="21"/>
       <c r="B286" s="22"/>
       <c r="C286" s="23"/>
@@ -32383,7 +32420,7 @@
       <c r="L286" s="22"/>
       <c r="M286" s="22"/>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="21"/>
       <c r="B287" s="22"/>
       <c r="C287" s="23"/>
@@ -32398,7 +32435,7 @@
       <c r="L287" s="22"/>
       <c r="M287" s="22"/>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="21"/>
       <c r="B288" s="22"/>
       <c r="C288" s="23"/>
@@ -32413,7 +32450,7 @@
       <c r="L288" s="22"/>
       <c r="M288" s="22"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="21"/>
       <c r="B289" s="22"/>
       <c r="C289" s="23"/>
@@ -32428,7 +32465,7 @@
       <c r="L289" s="22"/>
       <c r="M289" s="22"/>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="21"/>
       <c r="B290" s="22"/>
       <c r="C290" s="23"/>
@@ -32443,7 +32480,7 @@
       <c r="L290" s="22"/>
       <c r="M290" s="22"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="21"/>
       <c r="B291" s="22"/>
       <c r="C291" s="23"/>
@@ -32458,7 +32495,7 @@
       <c r="L291" s="22"/>
       <c r="M291" s="22"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="21"/>
       <c r="B292" s="22"/>
       <c r="C292" s="23"/>
@@ -32473,7 +32510,7 @@
       <c r="L292" s="22"/>
       <c r="M292" s="22"/>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="21"/>
       <c r="B293" s="22"/>
       <c r="C293" s="23"/>
@@ -32488,7 +32525,7 @@
       <c r="L293" s="22"/>
       <c r="M293" s="22"/>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="21"/>
       <c r="B294" s="22"/>
       <c r="C294" s="23"/>
@@ -32503,7 +32540,7 @@
       <c r="L294" s="22"/>
       <c r="M294" s="22"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="21"/>
       <c r="B295" s="22"/>
       <c r="C295" s="23"/>
@@ -32518,7 +32555,7 @@
       <c r="L295" s="22"/>
       <c r="M295" s="22"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="21"/>
       <c r="B296" s="22"/>
       <c r="C296" s="23"/>
@@ -32533,7 +32570,7 @@
       <c r="L296" s="22"/>
       <c r="M296" s="22"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="21"/>
       <c r="B297" s="22"/>
       <c r="C297" s="23"/>
@@ -32548,7 +32585,7 @@
       <c r="L297" s="22"/>
       <c r="M297" s="22"/>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="21"/>
       <c r="B298" s="22"/>
       <c r="C298" s="23"/>
@@ -32563,7 +32600,7 @@
       <c r="L298" s="22"/>
       <c r="M298" s="22"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="21"/>
       <c r="B299" s="22"/>
       <c r="C299" s="23"/>
@@ -32578,7 +32615,7 @@
       <c r="L299" s="22"/>
       <c r="M299" s="22"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="21"/>
       <c r="B300" s="22"/>
       <c r="C300" s="23"/>
@@ -32593,7 +32630,7 @@
       <c r="L300" s="22"/>
       <c r="M300" s="22"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="21"/>
       <c r="B301" s="22"/>
       <c r="C301" s="23"/>
@@ -32608,7 +32645,7 @@
       <c r="L301" s="22"/>
       <c r="M301" s="22"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="21"/>
       <c r="B302" s="22"/>
       <c r="C302" s="23"/>
@@ -32623,7 +32660,7 @@
       <c r="L302" s="22"/>
       <c r="M302" s="22"/>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="21"/>
       <c r="B303" s="22"/>
       <c r="C303" s="23"/>
@@ -32638,7 +32675,7 @@
       <c r="L303" s="22"/>
       <c r="M303" s="22"/>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="21"/>
       <c r="B304" s="22"/>
       <c r="C304" s="23"/>
@@ -32653,7 +32690,7 @@
       <c r="L304" s="22"/>
       <c r="M304" s="22"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="21"/>
       <c r="B305" s="22"/>
       <c r="C305" s="23"/>
@@ -32668,7 +32705,7 @@
       <c r="L305" s="22"/>
       <c r="M305" s="22"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="21"/>
       <c r="B306" s="22"/>
       <c r="C306" s="23"/>
@@ -32683,7 +32720,7 @@
       <c r="L306" s="22"/>
       <c r="M306" s="22"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="21"/>
       <c r="B307" s="22"/>
       <c r="C307" s="23"/>
@@ -32698,7 +32735,7 @@
       <c r="L307" s="22"/>
       <c r="M307" s="22"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="21"/>
       <c r="B308" s="22"/>
       <c r="C308" s="23"/>
@@ -32713,7 +32750,7 @@
       <c r="L308" s="22"/>
       <c r="M308" s="22"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="21"/>
       <c r="B309" s="22"/>
       <c r="C309" s="23"/>
@@ -32728,7 +32765,7 @@
       <c r="L309" s="22"/>
       <c r="M309" s="22"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="21"/>
       <c r="B310" s="22"/>
       <c r="C310" s="23"/>
@@ -32743,7 +32780,7 @@
       <c r="L310" s="22"/>
       <c r="M310" s="22"/>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="21"/>
       <c r="B311" s="22"/>
       <c r="C311" s="23"/>
@@ -32758,7 +32795,7 @@
       <c r="L311" s="22"/>
       <c r="M311" s="22"/>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="21"/>
       <c r="B312" s="22"/>
       <c r="C312" s="23"/>
@@ -32773,7 +32810,7 @@
       <c r="L312" s="22"/>
       <c r="M312" s="22"/>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="21"/>
       <c r="B313" s="22"/>
       <c r="C313" s="23"/>
@@ -32788,7 +32825,7 @@
       <c r="L313" s="22"/>
       <c r="M313" s="22"/>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="21"/>
       <c r="B314" s="22"/>
       <c r="C314" s="23"/>
@@ -32803,7 +32840,7 @@
       <c r="L314" s="22"/>
       <c r="M314" s="22"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="21"/>
       <c r="B315" s="22"/>
       <c r="C315" s="23"/>
@@ -32818,7 +32855,7 @@
       <c r="L315" s="22"/>
       <c r="M315" s="22"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="21"/>
       <c r="B316" s="22"/>
       <c r="C316" s="23"/>
@@ -32833,7 +32870,7 @@
       <c r="L316" s="22"/>
       <c r="M316" s="22"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="21"/>
       <c r="B317" s="22"/>
       <c r="C317" s="23"/>
@@ -32848,7 +32885,7 @@
       <c r="L317" s="22"/>
       <c r="M317" s="22"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="21"/>
       <c r="B318" s="22"/>
       <c r="C318" s="23"/>
@@ -32863,7 +32900,7 @@
       <c r="L318" s="22"/>
       <c r="M318" s="22"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="21"/>
       <c r="B319" s="22"/>
       <c r="C319" s="23"/>
@@ -32878,7 +32915,7 @@
       <c r="L319" s="22"/>
       <c r="M319" s="22"/>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="21"/>
       <c r="B320" s="22"/>
       <c r="C320" s="23"/>
@@ -32893,7 +32930,7 @@
       <c r="L320" s="22"/>
       <c r="M320" s="22"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="21"/>
       <c r="B321" s="22"/>
       <c r="C321" s="23"/>
@@ -32908,7 +32945,7 @@
       <c r="L321" s="22"/>
       <c r="M321" s="22"/>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="21"/>
       <c r="B322" s="22"/>
       <c r="C322" s="23"/>
@@ -32923,7 +32960,7 @@
       <c r="L322" s="22"/>
       <c r="M322" s="22"/>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="21"/>
       <c r="B323" s="22"/>
       <c r="C323" s="23"/>
@@ -32938,7 +32975,7 @@
       <c r="L323" s="22"/>
       <c r="M323" s="22"/>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="21"/>
       <c r="B324" s="22"/>
       <c r="C324" s="23"/>
@@ -32953,7 +32990,7 @@
       <c r="L324" s="22"/>
       <c r="M324" s="22"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="21"/>
       <c r="B325" s="22"/>
       <c r="C325" s="23"/>
@@ -32968,7 +33005,7 @@
       <c r="L325" s="22"/>
       <c r="M325" s="22"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="21"/>
       <c r="B326" s="22"/>
       <c r="C326" s="23"/>
@@ -32983,7 +33020,7 @@
       <c r="L326" s="22"/>
       <c r="M326" s="22"/>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="21"/>
       <c r="B327" s="22"/>
       <c r="C327" s="23"/>
@@ -32998,7 +33035,7 @@
       <c r="L327" s="22"/>
       <c r="M327" s="22"/>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="21"/>
       <c r="B328" s="22"/>
       <c r="C328" s="23"/>
@@ -33013,7 +33050,7 @@
       <c r="L328" s="22"/>
       <c r="M328" s="22"/>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="21"/>
       <c r="B329" s="22"/>
       <c r="C329" s="23"/>
@@ -33028,7 +33065,7 @@
       <c r="L329" s="22"/>
       <c r="M329" s="22"/>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="21"/>
       <c r="B330" s="22"/>
       <c r="C330" s="23"/>
@@ -33043,7 +33080,7 @@
       <c r="L330" s="22"/>
       <c r="M330" s="22"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="21"/>
       <c r="B331" s="22"/>
       <c r="C331" s="23"/>
@@ -33058,7 +33095,7 @@
       <c r="L331" s="22"/>
       <c r="M331" s="22"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" s="21"/>
       <c r="B332" s="22"/>
       <c r="C332" s="23"/>
@@ -33073,7 +33110,7 @@
       <c r="L332" s="22"/>
       <c r="M332" s="22"/>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="21"/>
       <c r="B333" s="22"/>
       <c r="C333" s="23"/>
@@ -33088,7 +33125,7 @@
       <c r="L333" s="22"/>
       <c r="M333" s="22"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" s="21"/>
       <c r="B334" s="22"/>
       <c r="C334" s="23"/>
@@ -33103,7 +33140,7 @@
       <c r="L334" s="22"/>
       <c r="M334" s="22"/>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="21"/>
       <c r="B335" s="22"/>
       <c r="C335" s="23"/>
@@ -33118,7 +33155,7 @@
       <c r="L335" s="22"/>
       <c r="M335" s="22"/>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" s="21"/>
       <c r="B336" s="22"/>
       <c r="C336" s="23"/>
@@ -33133,7 +33170,7 @@
       <c r="L336" s="22"/>
       <c r="M336" s="22"/>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" s="21"/>
       <c r="B337" s="22"/>
       <c r="C337" s="23"/>
@@ -33148,7 +33185,7 @@
       <c r="L337" s="22"/>
       <c r="M337" s="22"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="21"/>
       <c r="B338" s="22"/>
       <c r="C338" s="23"/>
@@ -33163,7 +33200,7 @@
       <c r="L338" s="22"/>
       <c r="M338" s="22"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" s="21"/>
       <c r="B339" s="22"/>
       <c r="C339" s="23"/>
@@ -33178,7 +33215,7 @@
       <c r="L339" s="22"/>
       <c r="M339" s="22"/>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" s="21"/>
       <c r="B340" s="22"/>
       <c r="C340" s="23"/>
@@ -33193,7 +33230,7 @@
       <c r="L340" s="22"/>
       <c r="M340" s="22"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" s="21"/>
       <c r="B341" s="22"/>
       <c r="C341" s="23"/>
@@ -33208,7 +33245,7 @@
       <c r="L341" s="22"/>
       <c r="M341" s="22"/>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="21"/>
       <c r="B342" s="22"/>
       <c r="C342" s="23"/>
@@ -33223,7 +33260,7 @@
       <c r="L342" s="22"/>
       <c r="M342" s="22"/>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" s="21"/>
       <c r="B343" s="22"/>
       <c r="C343" s="23"/>
@@ -33238,7 +33275,7 @@
       <c r="L343" s="22"/>
       <c r="M343" s="22"/>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" s="21"/>
       <c r="B344" s="22"/>
       <c r="C344" s="23"/>
@@ -33253,7 +33290,7 @@
       <c r="L344" s="22"/>
       <c r="M344" s="22"/>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" s="21"/>
       <c r="B345" s="22"/>
       <c r="C345" s="23"/>
@@ -33268,7 +33305,7 @@
       <c r="L345" s="22"/>
       <c r="M345" s="22"/>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" s="21"/>
       <c r="B346" s="22"/>
       <c r="C346" s="23"/>
@@ -33283,7 +33320,7 @@
       <c r="L346" s="22"/>
       <c r="M346" s="22"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" s="21"/>
       <c r="B347" s="22"/>
       <c r="C347" s="23"/>
@@ -33298,7 +33335,7 @@
       <c r="L347" s="22"/>
       <c r="M347" s="22"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" s="21"/>
       <c r="B348" s="22"/>
       <c r="C348" s="23"/>
@@ -33313,7 +33350,7 @@
       <c r="L348" s="22"/>
       <c r="M348" s="22"/>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" s="21"/>
       <c r="B349" s="22"/>
       <c r="C349" s="23"/>
@@ -33328,7 +33365,7 @@
       <c r="L349" s="22"/>
       <c r="M349" s="22"/>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" s="21"/>
       <c r="B350" s="22"/>
       <c r="C350" s="23"/>
@@ -33343,7 +33380,7 @@
       <c r="L350" s="22"/>
       <c r="M350" s="22"/>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" s="21"/>
       <c r="B351" s="22"/>
       <c r="C351" s="23"/>
@@ -33358,7 +33395,7 @@
       <c r="L351" s="22"/>
       <c r="M351" s="22"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" s="21"/>
       <c r="B352" s="22"/>
       <c r="C352" s="23"/>
@@ -33373,7 +33410,7 @@
       <c r="L352" s="22"/>
       <c r="M352" s="22"/>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" s="21"/>
       <c r="B353" s="22"/>
       <c r="C353" s="23"/>
@@ -33388,7 +33425,7 @@
       <c r="L353" s="22"/>
       <c r="M353" s="22"/>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" s="21"/>
       <c r="B354" s="22"/>
       <c r="C354" s="23"/>
@@ -33403,7 +33440,7 @@
       <c r="L354" s="22"/>
       <c r="M354" s="22"/>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" s="21"/>
       <c r="B355" s="22"/>
       <c r="C355" s="23"/>
@@ -33418,7 +33455,7 @@
       <c r="L355" s="22"/>
       <c r="M355" s="22"/>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" s="21"/>
       <c r="B356" s="22"/>
       <c r="C356" s="23"/>
@@ -33433,7 +33470,7 @@
       <c r="L356" s="22"/>
       <c r="M356" s="22"/>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" s="21"/>
       <c r="B357" s="22"/>
       <c r="C357" s="23"/>
@@ -33448,7 +33485,7 @@
       <c r="L357" s="22"/>
       <c r="M357" s="22"/>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" s="21"/>
       <c r="B358" s="22"/>
       <c r="C358" s="23"/>
@@ -33463,7 +33500,7 @@
       <c r="L358" s="22"/>
       <c r="M358" s="22"/>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" s="21"/>
       <c r="B359" s="22"/>
       <c r="C359" s="23"/>
@@ -33478,7 +33515,7 @@
       <c r="L359" s="22"/>
       <c r="M359" s="22"/>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" s="21"/>
       <c r="B360" s="22"/>
       <c r="C360" s="23"/>
@@ -33493,7 +33530,7 @@
       <c r="L360" s="22"/>
       <c r="M360" s="22"/>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" s="21"/>
       <c r="B361" s="22"/>
       <c r="C361" s="23"/>
@@ -33508,7 +33545,7 @@
       <c r="L361" s="22"/>
       <c r="M361" s="22"/>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" s="21"/>
       <c r="B362" s="22"/>
       <c r="C362" s="23"/>
@@ -33523,7 +33560,7 @@
       <c r="L362" s="22"/>
       <c r="M362" s="22"/>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" s="21"/>
       <c r="B363" s="22"/>
       <c r="C363" s="23"/>
@@ -33538,7 +33575,7 @@
       <c r="L363" s="22"/>
       <c r="M363" s="22"/>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" s="21"/>
       <c r="B364" s="22"/>
       <c r="C364" s="23"/>
@@ -33553,7 +33590,7 @@
       <c r="L364" s="22"/>
       <c r="M364" s="22"/>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" s="21"/>
       <c r="B365" s="22"/>
       <c r="C365" s="23"/>
@@ -33568,7 +33605,7 @@
       <c r="L365" s="22"/>
       <c r="M365" s="22"/>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" s="21"/>
       <c r="B366" s="22"/>
       <c r="C366" s="23"/>
@@ -33583,7 +33620,7 @@
       <c r="L366" s="22"/>
       <c r="M366" s="22"/>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" s="21"/>
       <c r="B367" s="22"/>
       <c r="C367" s="23"/>
@@ -33598,7 +33635,7 @@
       <c r="L367" s="22"/>
       <c r="M367" s="22"/>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="21"/>
       <c r="B368" s="22"/>
       <c r="C368" s="23"/>
@@ -33613,7 +33650,7 @@
       <c r="L368" s="22"/>
       <c r="M368" s="22"/>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="21"/>
       <c r="B369" s="22"/>
       <c r="C369" s="23"/>
@@ -33628,7 +33665,7 @@
       <c r="L369" s="22"/>
       <c r="M369" s="22"/>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" s="21"/>
       <c r="B370" s="22"/>
       <c r="C370" s="23"/>
@@ -33643,7 +33680,7 @@
       <c r="L370" s="22"/>
       <c r="M370" s="22"/>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" s="21"/>
       <c r="B371" s="22"/>
       <c r="C371" s="23"/>
@@ -33658,7 +33695,7 @@
       <c r="L371" s="22"/>
       <c r="M371" s="22"/>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="21"/>
       <c r="B372" s="22"/>
       <c r="C372" s="23"/>
@@ -33673,7 +33710,7 @@
       <c r="L372" s="22"/>
       <c r="M372" s="22"/>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="21"/>
       <c r="B373" s="22"/>
       <c r="C373" s="23"/>
@@ -33688,7 +33725,7 @@
       <c r="L373" s="22"/>
       <c r="M373" s="22"/>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="21"/>
       <c r="B374" s="22"/>
       <c r="C374" s="23"/>
@@ -33703,7 +33740,7 @@
       <c r="L374" s="22"/>
       <c r="M374" s="22"/>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="21"/>
       <c r="B375" s="22"/>
       <c r="C375" s="23"/>
@@ -33718,7 +33755,7 @@
       <c r="L375" s="22"/>
       <c r="M375" s="22"/>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" s="21"/>
       <c r="B376" s="22"/>
       <c r="C376" s="23"/>
@@ -33733,7 +33770,7 @@
       <c r="L376" s="22"/>
       <c r="M376" s="22"/>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="21"/>
       <c r="B377" s="22"/>
       <c r="C377" s="23"/>
@@ -33748,7 +33785,7 @@
       <c r="L377" s="22"/>
       <c r="M377" s="22"/>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="21"/>
       <c r="B378" s="22"/>
       <c r="C378" s="23"/>
@@ -33763,7 +33800,7 @@
       <c r="L378" s="22"/>
       <c r="M378" s="22"/>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="21"/>
       <c r="B379" s="22"/>
       <c r="C379" s="23"/>
@@ -33778,7 +33815,7 @@
       <c r="L379" s="22"/>
       <c r="M379" s="22"/>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" s="21"/>
       <c r="B380" s="22"/>
       <c r="C380" s="23"/>
@@ -33793,7 +33830,7 @@
       <c r="L380" s="22"/>
       <c r="M380" s="22"/>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" s="21"/>
       <c r="B381" s="22"/>
       <c r="C381" s="23"/>
@@ -33808,7 +33845,7 @@
       <c r="L381" s="22"/>
       <c r="M381" s="22"/>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="21"/>
       <c r="B382" s="22"/>
       <c r="C382" s="23"/>
@@ -33823,7 +33860,7 @@
       <c r="L382" s="22"/>
       <c r="M382" s="22"/>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="21"/>
       <c r="B383" s="22"/>
       <c r="C383" s="23"/>
@@ -33838,7 +33875,7 @@
       <c r="L383" s="22"/>
       <c r="M383" s="22"/>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="21"/>
       <c r="B384" s="22"/>
       <c r="C384" s="23"/>
@@ -33853,7 +33890,7 @@
       <c r="L384" s="22"/>
       <c r="M384" s="22"/>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="21"/>
       <c r="B385" s="22"/>
       <c r="C385" s="23"/>
@@ -33868,7 +33905,7 @@
       <c r="L385" s="22"/>
       <c r="M385" s="22"/>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" s="21"/>
       <c r="B386" s="22"/>
       <c r="C386" s="23"/>
@@ -33883,7 +33920,7 @@
       <c r="L386" s="22"/>
       <c r="M386" s="22"/>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" s="21"/>
       <c r="B387" s="22"/>
       <c r="C387" s="23"/>
@@ -33898,7 +33935,7 @@
       <c r="L387" s="22"/>
       <c r="M387" s="22"/>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" s="21"/>
       <c r="B388" s="22"/>
       <c r="C388" s="23"/>
@@ -33913,7 +33950,7 @@
       <c r="L388" s="22"/>
       <c r="M388" s="22"/>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" s="21"/>
       <c r="B389" s="22"/>
       <c r="C389" s="23"/>
@@ -33928,7 +33965,7 @@
       <c r="L389" s="22"/>
       <c r="M389" s="22"/>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" s="21"/>
       <c r="B390" s="22"/>
       <c r="C390" s="23"/>
@@ -33943,7 +33980,7 @@
       <c r="L390" s="22"/>
       <c r="M390" s="22"/>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" s="21"/>
       <c r="B391" s="22"/>
       <c r="C391" s="23"/>
@@ -33958,7 +33995,7 @@
       <c r="L391" s="22"/>
       <c r="M391" s="22"/>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" s="21"/>
       <c r="B392" s="22"/>
       <c r="C392" s="23"/>
@@ -33973,7 +34010,7 @@
       <c r="L392" s="22"/>
       <c r="M392" s="22"/>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" s="21"/>
       <c r="B393" s="22"/>
       <c r="C393" s="23"/>
@@ -33988,7 +34025,7 @@
       <c r="L393" s="22"/>
       <c r="M393" s="22"/>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="21"/>
       <c r="B394" s="22"/>
       <c r="C394" s="23"/>
@@ -34003,7 +34040,7 @@
       <c r="L394" s="22"/>
       <c r="M394" s="22"/>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" s="21"/>
       <c r="B395" s="22"/>
       <c r="C395" s="23"/>
@@ -34018,7 +34055,7 @@
       <c r="L395" s="22"/>
       <c r="M395" s="22"/>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" s="21"/>
       <c r="B396" s="22"/>
       <c r="C396" s="23"/>
@@ -34033,7 +34070,7 @@
       <c r="L396" s="22"/>
       <c r="M396" s="22"/>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" s="21"/>
       <c r="B397" s="22"/>
       <c r="C397" s="23"/>
@@ -34048,7 +34085,7 @@
       <c r="L397" s="22"/>
       <c r="M397" s="22"/>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" s="21"/>
       <c r="B398" s="22"/>
       <c r="C398" s="23"/>
@@ -34063,7 +34100,7 @@
       <c r="L398" s="22"/>
       <c r="M398" s="22"/>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" s="21"/>
       <c r="B399" s="22"/>
       <c r="C399" s="23"/>
@@ -34078,7 +34115,7 @@
       <c r="L399" s="22"/>
       <c r="M399" s="22"/>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" s="21"/>
       <c r="B400" s="22"/>
       <c r="C400" s="23"/>
@@ -34093,7 +34130,7 @@
       <c r="L400" s="22"/>
       <c r="M400" s="22"/>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" s="21"/>
       <c r="B401" s="22"/>
       <c r="C401" s="23"/>
@@ -34108,7 +34145,7 @@
       <c r="L401" s="22"/>
       <c r="M401" s="22"/>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" s="21"/>
       <c r="B402" s="22"/>
       <c r="C402" s="23"/>
@@ -34123,7 +34160,7 @@
       <c r="L402" s="22"/>
       <c r="M402" s="22"/>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" s="21"/>
       <c r="B403" s="22"/>
       <c r="C403" s="23"/>
@@ -34138,7 +34175,7 @@
       <c r="L403" s="22"/>
       <c r="M403" s="22"/>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" s="21"/>
       <c r="B404" s="22"/>
       <c r="C404" s="23"/>
@@ -34153,7 +34190,7 @@
       <c r="L404" s="22"/>
       <c r="M404" s="22"/>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" s="21"/>
       <c r="B405" s="22"/>
       <c r="C405" s="23"/>
@@ -34168,7 +34205,7 @@
       <c r="L405" s="22"/>
       <c r="M405" s="22"/>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" s="21"/>
       <c r="B406" s="22"/>
       <c r="C406" s="23"/>
@@ -34183,7 +34220,7 @@
       <c r="L406" s="22"/>
       <c r="M406" s="22"/>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" s="21"/>
       <c r="B407" s="22"/>
       <c r="C407" s="23"/>
@@ -34198,7 +34235,7 @@
       <c r="L407" s="22"/>
       <c r="M407" s="22"/>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" s="21"/>
       <c r="B408" s="22"/>
       <c r="C408" s="23"/>
@@ -34213,7 +34250,7 @@
       <c r="L408" s="22"/>
       <c r="M408" s="22"/>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" s="21"/>
       <c r="B409" s="22"/>
       <c r="C409" s="23"/>
@@ -34228,7 +34265,7 @@
       <c r="L409" s="22"/>
       <c r="M409" s="22"/>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" s="21"/>
       <c r="B410" s="22"/>
       <c r="C410" s="23"/>
@@ -34243,7 +34280,7 @@
       <c r="L410" s="22"/>
       <c r="M410" s="22"/>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" s="21"/>
       <c r="B411" s="22"/>
       <c r="C411" s="23"/>
@@ -34258,7 +34295,7 @@
       <c r="L411" s="22"/>
       <c r="M411" s="22"/>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" s="21"/>
       <c r="B412" s="22"/>
       <c r="C412" s="23"/>
@@ -34273,7 +34310,7 @@
       <c r="L412" s="22"/>
       <c r="M412" s="22"/>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" s="21"/>
       <c r="B413" s="22"/>
       <c r="C413" s="23"/>
@@ -34288,7 +34325,7 @@
       <c r="L413" s="22"/>
       <c r="M413" s="22"/>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" s="21"/>
       <c r="B414" s="22"/>
       <c r="C414" s="23"/>
@@ -34303,7 +34340,7 @@
       <c r="L414" s="22"/>
       <c r="M414" s="22"/>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" s="21"/>
       <c r="B415" s="22"/>
       <c r="C415" s="23"/>
@@ -34318,7 +34355,7 @@
       <c r="L415" s="22"/>
       <c r="M415" s="22"/>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" s="21"/>
       <c r="B416" s="22"/>
       <c r="C416" s="23"/>
@@ -34333,7 +34370,7 @@
       <c r="L416" s="22"/>
       <c r="M416" s="22"/>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" s="21"/>
       <c r="B417" s="22"/>
       <c r="C417" s="23"/>
@@ -34348,7 +34385,7 @@
       <c r="L417" s="22"/>
       <c r="M417" s="22"/>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" s="21"/>
       <c r="B418" s="22"/>
       <c r="C418" s="23"/>
@@ -34363,7 +34400,7 @@
       <c r="L418" s="22"/>
       <c r="M418" s="22"/>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" s="21"/>
       <c r="B419" s="22"/>
       <c r="C419" s="23"/>
@@ -34378,7 +34415,7 @@
       <c r="L419" s="22"/>
       <c r="M419" s="22"/>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="21"/>
       <c r="B420" s="22"/>
       <c r="C420" s="23"/>
@@ -34393,7 +34430,7 @@
       <c r="L420" s="22"/>
       <c r="M420" s="22"/>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" s="21"/>
       <c r="B421" s="22"/>
       <c r="C421" s="23"/>
@@ -34408,7 +34445,7 @@
       <c r="L421" s="22"/>
       <c r="M421" s="22"/>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" s="21"/>
       <c r="B422" s="22"/>
       <c r="C422" s="23"/>
@@ -34423,7 +34460,7 @@
       <c r="L422" s="22"/>
       <c r="M422" s="22"/>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" s="21"/>
       <c r="B423" s="22"/>
       <c r="C423" s="23"/>
@@ -34438,7 +34475,7 @@
       <c r="L423" s="22"/>
       <c r="M423" s="22"/>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" s="21"/>
       <c r="B424" s="22"/>
       <c r="C424" s="23"/>
@@ -34453,7 +34490,7 @@
       <c r="L424" s="22"/>
       <c r="M424" s="22"/>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" s="21"/>
       <c r="B425" s="22"/>
       <c r="C425" s="23"/>
@@ -34468,7 +34505,7 @@
       <c r="L425" s="22"/>
       <c r="M425" s="22"/>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" s="21"/>
       <c r="B426" s="22"/>
       <c r="C426" s="23"/>
@@ -34483,7 +34520,7 @@
       <c r="L426" s="22"/>
       <c r="M426" s="22"/>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" s="21"/>
       <c r="B427" s="22"/>
       <c r="C427" s="23"/>
@@ -34498,7 +34535,7 @@
       <c r="L427" s="22"/>
       <c r="M427" s="22"/>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" s="21"/>
       <c r="B428" s="22"/>
       <c r="C428" s="23"/>
@@ -34513,7 +34550,7 @@
       <c r="L428" s="22"/>
       <c r="M428" s="22"/>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" s="21"/>
       <c r="B429" s="22"/>
       <c r="C429" s="23"/>
@@ -34528,7 +34565,7 @@
       <c r="L429" s="22"/>
       <c r="M429" s="22"/>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" s="21"/>
       <c r="B430" s="22"/>
       <c r="C430" s="23"/>
@@ -34543,7 +34580,7 @@
       <c r="L430" s="22"/>
       <c r="M430" s="22"/>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" s="21"/>
       <c r="B431" s="22"/>
       <c r="C431" s="23"/>
@@ -34558,7 +34595,7 @@
       <c r="L431" s="22"/>
       <c r="M431" s="22"/>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" s="21"/>
       <c r="B432" s="22"/>
       <c r="C432" s="23"/>
@@ -34573,7 +34610,7 @@
       <c r="L432" s="22"/>
       <c r="M432" s="22"/>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" s="21"/>
       <c r="B433" s="22"/>
       <c r="C433" s="23"/>
@@ -34588,7 +34625,7 @@
       <c r="L433" s="22"/>
       <c r="M433" s="22"/>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" s="21"/>
       <c r="B434" s="22"/>
       <c r="C434" s="23"/>
@@ -34603,7 +34640,7 @@
       <c r="L434" s="22"/>
       <c r="M434" s="22"/>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" s="21"/>
       <c r="B435" s="22"/>
       <c r="C435" s="23"/>
@@ -34618,7 +34655,7 @@
       <c r="L435" s="22"/>
       <c r="M435" s="22"/>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" s="21"/>
       <c r="B436" s="22"/>
       <c r="C436" s="23"/>
@@ -34633,7 +34670,7 @@
       <c r="L436" s="22"/>
       <c r="M436" s="22"/>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" s="21"/>
       <c r="B437" s="22"/>
       <c r="C437" s="23"/>
@@ -34648,33 +34685,48 @@
       <c r="L437" s="22"/>
       <c r="M437" s="22"/>
     </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A438" s="21"/>
+      <c r="B438" s="22"/>
+      <c r="C438" s="23"/>
+      <c r="D438" s="21"/>
+      <c r="E438" s="21"/>
+      <c r="F438" s="21"/>
+      <c r="G438" s="55"/>
+      <c r="H438" s="21"/>
+      <c r="I438" s="21"/>
+      <c r="J438" s="21"/>
+      <c r="K438" s="36"/>
+      <c r="L438" s="22"/>
+      <c r="M438" s="22"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="A110:M110"/>
-    <mergeCell ref="A111:M111"/>
-    <mergeCell ref="A105:M105"/>
-    <mergeCell ref="A90:M90"/>
-    <mergeCell ref="A93:M93"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A63:M63"/>
     <mergeCell ref="A76:M76"/>
     <mergeCell ref="A75:M75"/>
     <mergeCell ref="A92:M92"/>
     <mergeCell ref="A64:M64"/>
     <mergeCell ref="A52:M52"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A51:M51"/>
-    <mergeCell ref="A63:M63"/>
+    <mergeCell ref="A111:M111"/>
+    <mergeCell ref="A112:M112"/>
+    <mergeCell ref="A105:M105"/>
+    <mergeCell ref="A90:M90"/>
+    <mergeCell ref="A93:M93"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H68:H74 H56:H62 H44:H50 H97:H104 H80:H89 H91 H18:H42 H7:H16 H106:H109 H115:H124">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H68:H74 H56:H62 H44:H50 H97:H104 H80:H89 H91 H18:H42 H7:H16 H106:H110 H116:H125">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I56:I62 I68:I74 I44:I50 I106 I97:I104 I80:I89 I91 I18:I42 I7:I16 I108 I115:I124">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I56:I62 I68:I74 I44:I50 I106 I97:I104 I80:I89 I91 I18:I42 I7:I16 I109 I116:I125">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J68:J74 J56:J62 J80:J88 J34:J41 J91 J108 J97:J104 J106 J44:J48 J18:J32 J7:J13 J15:J16 J115:J119 J121:J122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J68:J74 J56:J62 J80:J88 J34:J41 J91 J109 J97:J104 J106 J44:J48 J18:J32 J7:J13 J15:J16 J116:J120 J122:J123">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -34700,1424 +34752,1424 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5">
         <v>1002</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="47">
         <v>1003</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>1004</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1005</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26">
         <v>1006</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>1007</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26">
         <v>1008</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="26">
         <v>1009</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>1010</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>1011</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1012</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1013</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1014</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="64">
         <v>2001</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>2004</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2006</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2007</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>2009</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>2010</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>2012</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>2013</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2014</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2015</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>2016</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>2019</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="76">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="67">
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>2025</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="51">
         <v>2028</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="51">
         <v>2029</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="51">
         <v>2030</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="51">
         <v>2031</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="51">
         <v>2032</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="75">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="66">
         <v>2033</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="75">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="66">
         <v>2036</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="75">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="66">
         <v>2037</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>2038</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>2039</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="44">
         <v>2040</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>2043</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>2044</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>2045</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
         <v>2046</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>2501</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>2506</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="65">
         <v>3001</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="65">
         <v>3002</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>4001</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>4002</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>4003</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="63"/>
     </row>
-    <row r="54" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104"/>
     </row>
-    <row r="105" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A112"/>
     </row>
-    <row r="113" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A114"/>
     </row>
-    <row r="115" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130"/>
     </row>
-    <row r="131" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A132"/>
     </row>
-    <row r="133" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A138"/>
     </row>
-    <row r="139" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A140"/>
     </row>
-    <row r="141" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A144"/>
     </row>
-    <row r="145" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A146"/>
     </row>
-    <row r="147" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A150"/>
     </row>
-    <row r="151" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A152"/>
     </row>
-    <row r="153" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A154"/>
     </row>
-    <row r="155" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A156"/>
     </row>
-    <row r="157" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A160"/>
     </row>
-    <row r="161" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A162"/>
     </row>
-    <row r="163" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A164"/>
     </row>
-    <row r="165" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A166"/>
     </row>
-    <row r="167" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A168"/>
     </row>
-    <row r="169" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A170"/>
     </row>
-    <row r="171" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A172"/>
     </row>
-    <row r="173" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A174"/>
     </row>
-    <row r="175" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A176"/>
     </row>
-    <row r="177" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A178"/>
     </row>
-    <row r="179" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A180"/>
     </row>
-    <row r="181" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A182"/>
     </row>
-    <row r="183" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A184"/>
     </row>
-    <row r="185" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A186"/>
     </row>
-    <row r="187" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A188"/>
     </row>
-    <row r="189" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A190"/>
     </row>
-    <row r="191" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A192"/>
     </row>
-    <row r="193" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A194"/>
     </row>
-    <row r="195" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A196"/>
     </row>
-    <row r="197" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A198"/>
     </row>
-    <row r="199" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A200"/>
     </row>
-    <row r="201" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A202"/>
     </row>
-    <row r="203" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A204"/>
     </row>
-    <row r="205" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A206"/>
     </row>
-    <row r="207" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A208"/>
     </row>
-    <row r="209" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A210"/>
     </row>
-    <row r="211" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A212"/>
     </row>
-    <row r="213" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A214"/>
     </row>
-    <row r="215" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A218"/>
     </row>
-    <row r="219" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A222"/>
     </row>
-    <row r="223" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A224"/>
     </row>
-    <row r="225" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A226"/>
     </row>
-    <row r="227" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A228"/>
     </row>
-    <row r="229" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A230"/>
     </row>
-    <row r="231" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A232"/>
     </row>
-    <row r="233" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A234"/>
     </row>
-    <row r="235" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A236"/>
     </row>
-    <row r="237" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A238"/>
     </row>
-    <row r="239" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A240"/>
     </row>
-    <row r="241" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A242"/>
     </row>
-    <row r="243" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A244"/>
     </row>
-    <row r="245" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A246"/>
     </row>
-    <row r="247" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A248"/>
     </row>
-    <row r="249" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A250"/>
     </row>
-    <row r="251" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A252"/>
     </row>
-    <row r="253" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A254"/>
     </row>
-    <row r="255" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A256"/>
     </row>
-    <row r="257" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A258"/>
     </row>
-    <row r="259" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A260"/>
     </row>
-    <row r="261" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A262"/>
     </row>
-    <row r="263" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A264"/>
     </row>
-    <row r="265" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A266"/>
     </row>
-    <row r="267" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A268"/>
     </row>
-    <row r="269" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A270"/>
     </row>
-    <row r="271" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A272"/>
     </row>
-    <row r="273" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A274"/>
     </row>
-    <row r="275" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A276"/>
     </row>
-    <row r="277" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A278"/>
     </row>
-    <row r="279" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A280"/>
     </row>
-    <row r="281" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A282"/>
     </row>
-    <row r="283" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A284"/>
     </row>
-    <row r="285" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A286"/>
     </row>
-    <row r="287" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A288"/>
     </row>
-    <row r="289" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A290"/>
     </row>
-    <row r="291" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A292"/>
     </row>
-    <row r="293" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A294"/>
     </row>
-    <row r="295" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A296"/>
     </row>
-    <row r="297" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A298"/>
     </row>
-    <row r="299" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A300"/>
     </row>
-    <row r="301" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A302"/>
     </row>
-    <row r="303" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A304"/>
     </row>
-    <row r="305" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A305"/>
     </row>
-    <row r="306" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A306"/>
     </row>
-    <row r="307" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A307"/>
     </row>
-    <row r="308" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A308"/>
     </row>
-    <row r="309" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A309"/>
     </row>
-    <row r="310" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A310"/>
     </row>
-    <row r="311" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A311"/>
     </row>
-    <row r="312" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A312"/>
     </row>
-    <row r="313" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A313"/>
     </row>
-    <row r="314" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A314"/>
     </row>
-    <row r="315" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A315"/>
     </row>
-    <row r="316" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A316"/>
     </row>
-    <row r="317" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A317"/>
     </row>
-    <row r="318" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A318"/>
     </row>
-    <row r="319" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A319"/>
     </row>
-    <row r="320" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A320"/>
     </row>
-    <row r="321" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A321"/>
     </row>
-    <row r="322" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A322"/>
     </row>
-    <row r="323" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A323"/>
     </row>
-    <row r="324" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A324"/>
     </row>
-    <row r="325" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A325"/>
     </row>
-    <row r="326" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A326"/>
     </row>
-    <row r="327" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A327"/>
     </row>
-    <row r="328" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A328"/>
     </row>
-    <row r="329" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A329"/>
     </row>
-    <row r="330" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A330"/>
     </row>
-    <row r="331" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A331"/>
     </row>
-    <row r="332" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A332"/>
     </row>
-    <row r="333" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A333"/>
     </row>
-    <row r="334" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A334"/>
     </row>
-    <row r="335" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A335"/>
     </row>
-    <row r="336" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A336"/>
     </row>
-    <row r="337" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A337"/>
     </row>
-    <row r="338" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A338"/>
     </row>
-    <row r="339" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A339"/>
     </row>
-    <row r="340" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A340"/>
     </row>
-    <row r="341" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A341"/>
     </row>
-    <row r="342" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A342"/>
     </row>
-    <row r="343" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A343"/>
     </row>
-    <row r="344" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A344"/>
     </row>
-    <row r="345" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A345"/>
     </row>
-    <row r="346" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A346"/>
     </row>
-    <row r="347" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A347"/>
     </row>
-    <row r="348" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A348"/>
     </row>
-    <row r="349" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A349"/>
     </row>
-    <row r="350" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A350"/>
     </row>
-    <row r="351" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A351"/>
     </row>
-    <row r="352" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A352"/>
     </row>
-    <row r="353" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A353"/>
     </row>
-    <row r="354" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A354"/>
     </row>
-    <row r="355" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A355"/>
     </row>
-    <row r="356" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A356"/>
     </row>
-    <row r="357" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A357"/>
     </row>
-    <row r="358" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A358"/>
     </row>
-    <row r="359" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A359"/>
     </row>
-    <row r="360" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A360"/>
     </row>
-    <row r="361" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A361"/>
     </row>
-    <row r="362" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A362"/>
     </row>
-    <row r="363" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A363"/>
     </row>
-    <row r="364" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A364"/>
     </row>
-    <row r="365" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A365"/>
     </row>
-    <row r="366" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A366"/>
     </row>
-    <row r="367" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A367"/>
     </row>
-    <row r="368" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A368"/>
     </row>
-    <row r="369" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A369"/>
     </row>
-    <row r="370" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A370"/>
     </row>
-    <row r="371" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A371"/>
     </row>
-    <row r="372" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A372"/>
     </row>
-    <row r="373" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A373"/>
     </row>
-    <row r="374" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A374"/>
     </row>
-    <row r="375" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A375"/>
     </row>
-    <row r="376" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A376"/>
     </row>
-    <row r="377" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A377"/>
     </row>
-    <row r="378" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A378"/>
     </row>
-    <row r="379" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A379"/>
     </row>
-    <row r="380" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A380"/>
     </row>
-    <row r="381" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A381"/>
     </row>
-    <row r="382" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A382"/>
     </row>
-    <row r="383" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A383"/>
     </row>
-    <row r="384" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A384"/>
     </row>
-    <row r="385" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A385"/>
     </row>
-    <row r="386" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A386"/>
     </row>
-    <row r="387" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A387"/>
     </row>
-    <row r="388" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A388"/>
     </row>
-    <row r="389" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A389"/>
     </row>
-    <row r="390" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A390"/>
     </row>
-    <row r="391" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A391"/>
     </row>
-    <row r="392" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A392"/>
     </row>
-    <row r="393" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A393"/>
     </row>
-    <row r="394" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A394"/>
     </row>
-    <row r="395" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A395"/>
     </row>
-    <row r="396" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A396"/>
     </row>
-    <row r="397" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A397"/>
     </row>
-    <row r="398" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A398"/>
     </row>
-    <row r="399" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A399"/>
     </row>
-    <row r="400" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A400"/>
     </row>
-    <row r="401" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A401"/>
     </row>
-    <row r="402" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A402"/>
     </row>
-    <row r="403" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A403"/>
     </row>
-    <row r="404" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A404"/>
     </row>
-    <row r="405" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A405"/>
     </row>
-    <row r="406" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A406"/>
     </row>
-    <row r="407" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A407"/>
     </row>
-    <row r="408" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A408"/>
     </row>
-    <row r="409" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A409"/>
     </row>
-    <row r="410" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A410"/>
     </row>
-    <row r="411" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A411"/>
     </row>
-    <row r="412" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A412"/>
     </row>
-    <row r="413" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A413"/>
     </row>
-    <row r="414" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A414"/>
     </row>
-    <row r="415" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A415"/>
     </row>
-    <row r="416" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A416"/>
     </row>
-    <row r="417" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A417"/>
     </row>
-    <row r="418" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A418"/>
     </row>
-    <row r="419" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A419"/>
     </row>
-    <row r="420" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A420"/>
     </row>
-    <row r="421" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A421"/>
     </row>
-    <row r="422" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A422"/>
     </row>
-    <row r="423" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A423"/>
     </row>
-    <row r="424" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A424"/>
     </row>
-    <row r="425" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A425"/>
     </row>
-    <row r="426" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A426"/>
     </row>
-    <row r="427" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A427"/>
     </row>
-    <row r="428" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A428"/>
     </row>
-    <row r="429" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A429"/>
     </row>
-    <row r="430" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A430"/>
     </row>
-    <row r="431" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A431"/>
     </row>
-    <row r="432" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A432"/>
     </row>
-    <row r="433" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A433"/>
     </row>
-    <row r="434" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A434"/>
     </row>
-    <row r="435" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A435"/>
     </row>
-    <row r="436" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A436"/>
     </row>
-    <row r="437" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A437"/>
     </row>
   </sheetData>

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="234">
   <si>
     <t>Payslip</t>
   </si>
@@ -762,12 +762,30 @@
   <si>
     <t>EmploymentId</t>
   </si>
+  <si>
+    <t>Period start date must be first day of the month and in a valid date in the format YYYY-MM-DD (e.g. 2019-01-01).</t>
+  </si>
+  <si>
+    <t>Period end date must be last day of the month and in a valid date in the format YYYY-MM-DD (e.g. 2019-01-31).</t>
+  </si>
+  <si>
+    <t>Both period start date and period end date must be of the same month. (e.g. startDate: 2019-03-01 and endDate: 2019-04-30 shouldn?t be allowed.</t>
+  </si>
+  <si>
+    <t>ReturnPeriod</t>
+  </si>
+  <si>
+    <t>Invalid period start date based on the version of schema used.</t>
+  </si>
+  <si>
+    <t>115-118</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,6 +885,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3D3C40"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1032,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,33 +1246,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1312,6 +1309,37 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22010,7 +22038,7 @@
   <dimension ref="B8:M32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22027,18 +22055,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
@@ -22251,8 +22279,12 @@
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="D23" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>225</v>
+      </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -22332,8 +22364,8 @@
   <dimension ref="A1:BL450"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -22446,21 +22478,21 @@
       <c r="BL1" s="21"/>
     </row>
     <row r="2" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
@@ -22514,21 +22546,21 @@
       <c r="BL2" s="22"/>
     </row>
     <row r="3" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -23309,208 +23341,208 @@
       </c>
     </row>
     <row r="18" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A18" s="78">
+      <c r="A18" s="69">
         <v>124</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="81" t="s">
+      <c r="F18" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="G18" s="81">
+      <c r="G18" s="72">
         <v>400</v>
       </c>
-      <c r="H18" s="81" t="s">
+      <c r="H18" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="81" t="s">
+      <c r="I18" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="82">
+      <c r="J18" s="73">
         <v>5003</v>
       </c>
-      <c r="K18" s="79" t="s">
+      <c r="K18" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="L18" s="79" t="s">
+      <c r="L18" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="83" t="s">
+      <c r="M18" s="74" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A19" s="78">
+      <c r="A19" s="69">
         <v>126</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="E19" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="F19" s="96" t="s">
+      <c r="F19" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="G19" s="96">
+      <c r="G19" s="87">
         <v>400</v>
       </c>
-      <c r="H19" s="96" t="s">
+      <c r="H19" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="96" t="s">
+      <c r="I19" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="97">
+      <c r="J19" s="88">
         <v>2049</v>
       </c>
-      <c r="K19" s="94" t="s">
+      <c r="K19" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="L19" s="93" t="s">
+      <c r="L19" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="M19" s="94" t="s">
+      <c r="M19" s="85" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:64" s="100" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="91" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>127</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D20" s="90" t="s">
+      <c r="D20" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="91" t="s">
+      <c r="E20" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="F20" s="91" t="s">
+      <c r="F20" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="G20" s="91">
+      <c r="G20" s="82">
         <v>400</v>
       </c>
-      <c r="H20" s="91" t="s">
+      <c r="H20" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="91" t="s">
+      <c r="I20" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="92">
+      <c r="J20" s="83">
         <v>2050</v>
       </c>
-      <c r="K20" s="98" t="s">
+      <c r="K20" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="L20" s="89" t="s">
+      <c r="L20" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="M20" s="98" t="s">
+      <c r="M20" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="99"/>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="99"/>
-      <c r="AJ20" s="99"/>
-      <c r="AK20" s="99"/>
-      <c r="AL20" s="99"/>
-      <c r="AM20" s="99"/>
-      <c r="AN20" s="99"/>
-      <c r="AO20" s="99"/>
-      <c r="AP20" s="99"/>
-      <c r="AQ20" s="99"/>
-      <c r="AR20" s="99"/>
-      <c r="AS20" s="99"/>
-      <c r="AT20" s="99"/>
-      <c r="AU20" s="99"/>
-      <c r="AV20" s="99"/>
-      <c r="AW20" s="99"/>
-      <c r="AX20" s="99"/>
-      <c r="AY20" s="99"/>
-      <c r="AZ20" s="99"/>
-      <c r="BA20" s="99"/>
-      <c r="BB20" s="99"/>
-      <c r="BC20" s="99"/>
-      <c r="BD20" s="99"/>
-      <c r="BE20" s="99"/>
-      <c r="BF20" s="99"/>
-      <c r="BG20" s="99"/>
-      <c r="BH20" s="99"/>
-      <c r="BI20" s="99"/>
-      <c r="BJ20" s="99"/>
-      <c r="BK20" s="99"/>
-      <c r="BL20" s="99"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="90"/>
+      <c r="AJ20" s="90"/>
+      <c r="AK20" s="90"/>
+      <c r="AL20" s="90"/>
+      <c r="AM20" s="90"/>
+      <c r="AN20" s="90"/>
+      <c r="AO20" s="90"/>
+      <c r="AP20" s="90"/>
+      <c r="AQ20" s="90"/>
+      <c r="AR20" s="90"/>
+      <c r="AS20" s="90"/>
+      <c r="AT20" s="90"/>
+      <c r="AU20" s="90"/>
+      <c r="AV20" s="90"/>
+      <c r="AW20" s="90"/>
+      <c r="AX20" s="90"/>
+      <c r="AY20" s="90"/>
+      <c r="AZ20" s="90"/>
+      <c r="BA20" s="90"/>
+      <c r="BB20" s="90"/>
+      <c r="BC20" s="90"/>
+      <c r="BD20" s="90"/>
+      <c r="BE20" s="90"/>
+      <c r="BF20" s="90"/>
+      <c r="BG20" s="90"/>
+      <c r="BH20" s="90"/>
+      <c r="BI20" s="90"/>
+      <c r="BJ20" s="90"/>
+      <c r="BK20" s="90"/>
+      <c r="BL20" s="90"/>
     </row>
     <row r="21" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A21" s="84">
+      <c r="A21" s="75">
         <v>17</v>
       </c>
       <c r="B21" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="86">
+      <c r="D21" s="77">
         <v>5</v>
       </c>
-      <c r="E21" s="86" t="s">
+      <c r="E21" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="86" t="s">
+      <c r="F21" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="G21" s="87">
+      <c r="G21" s="78">
         <v>400</v>
       </c>
-      <c r="H21" s="86" t="s">
+      <c r="H21" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="86" t="s">
+      <c r="I21" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="88">
+      <c r="J21" s="79">
         <v>1009</v>
       </c>
       <c r="K21" s="57" t="s">
@@ -23524,21 +23556,21 @@
       </c>
     </row>
     <row r="22" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
@@ -25343,21 +25375,21 @@
       <c r="BL56" s="23"/>
     </row>
     <row r="57" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="77"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="97"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
@@ -25411,21 +25443,21 @@
       <c r="BL57" s="22"/>
     </row>
     <row r="58" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="75" t="s">
+      <c r="A58" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="94"/>
+      <c r="J58" s="94"/>
+      <c r="K58" s="94"/>
+      <c r="L58" s="94"/>
+      <c r="M58" s="94"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
       <c r="P58" s="22"/>
@@ -26440,21 +26472,21 @@
       <c r="BL69" s="23"/>
     </row>
     <row r="70" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="70" t="s">
+      <c r="A70" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="70"/>
-      <c r="J70" s="70"/>
-      <c r="K70" s="70"/>
-      <c r="L70" s="70"/>
-      <c r="M70" s="70"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="93"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="93"/>
+      <c r="H70" s="93"/>
+      <c r="I70" s="93"/>
+      <c r="J70" s="93"/>
+      <c r="K70" s="93"/>
+      <c r="L70" s="93"/>
+      <c r="M70" s="93"/>
       <c r="N70" s="22"/>
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
@@ -26508,21 +26540,21 @@
       <c r="BL70" s="22"/>
     </row>
     <row r="71" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="75" t="s">
+      <c r="A71" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="B71" s="75"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="75"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="75"/>
-      <c r="K71" s="75"/>
-      <c r="L71" s="75"/>
-      <c r="M71" s="75"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="94"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="94"/>
+      <c r="K71" s="94"/>
+      <c r="L71" s="94"/>
+      <c r="M71" s="94"/>
       <c r="N71" s="22"/>
       <c r="O71" s="22"/>
       <c r="P71" s="22"/>
@@ -27537,21 +27569,21 @@
       <c r="BL82" s="23"/>
     </row>
     <row r="83" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="70" t="s">
+      <c r="A83" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="B83" s="70"/>
-      <c r="C83" s="70"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="70"/>
-      <c r="H83" s="70"/>
-      <c r="I83" s="70"/>
-      <c r="J83" s="70"/>
-      <c r="K83" s="70"/>
-      <c r="L83" s="70"/>
-      <c r="M83" s="70"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="93"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="93"/>
+      <c r="H83" s="93"/>
+      <c r="I83" s="93"/>
+      <c r="J83" s="93"/>
+      <c r="K83" s="93"/>
+      <c r="L83" s="93"/>
+      <c r="M83" s="93"/>
       <c r="N83" s="22"/>
       <c r="O83" s="22"/>
       <c r="P83" s="22"/>
@@ -27605,21 +27637,21 @@
       <c r="BL83" s="22"/>
     </row>
     <row r="84" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="75" t="s">
+      <c r="A84" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="75"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="75"/>
-      <c r="H84" s="75"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="75"/>
-      <c r="M84" s="75"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="94"/>
+      <c r="F84" s="94"/>
+      <c r="G84" s="94"/>
+      <c r="H84" s="94"/>
+      <c r="I84" s="94"/>
+      <c r="J84" s="94"/>
+      <c r="K84" s="94"/>
+      <c r="L84" s="94"/>
+      <c r="M84" s="94"/>
       <c r="N84" s="22"/>
       <c r="O84" s="22"/>
       <c r="P84" s="22"/>
@@ -28910,21 +28942,21 @@
       <c r="BL98" s="23"/>
     </row>
     <row r="99" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="75" t="s">
+      <c r="A99" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="B99" s="75"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="75"/>
-      <c r="G99" s="75"/>
-      <c r="H99" s="75"/>
-      <c r="I99" s="75"/>
-      <c r="J99" s="75"/>
-      <c r="K99" s="75"/>
-      <c r="L99" s="75"/>
-      <c r="M99" s="75"/>
+      <c r="B99" s="94"/>
+      <c r="C99" s="94"/>
+      <c r="D99" s="94"/>
+      <c r="E99" s="94"/>
+      <c r="F99" s="94"/>
+      <c r="G99" s="94"/>
+      <c r="H99" s="94"/>
+      <c r="I99" s="94"/>
+      <c r="J99" s="94"/>
+      <c r="K99" s="94"/>
+      <c r="L99" s="94"/>
+      <c r="M99" s="94"/>
       <c r="N99" s="22"/>
       <c r="O99" s="22"/>
       <c r="P99" s="22"/>
@@ -29070,21 +29102,21 @@
       <c r="BL100" s="23"/>
     </row>
     <row r="101" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="70" t="s">
+      <c r="A101" s="93" t="s">
         <v>154</v>
       </c>
-      <c r="B101" s="70"/>
-      <c r="C101" s="70"/>
-      <c r="D101" s="70"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="70"/>
-      <c r="J101" s="70"/>
-      <c r="K101" s="70"/>
-      <c r="L101" s="70"/>
-      <c r="M101" s="70"/>
+      <c r="B101" s="93"/>
+      <c r="C101" s="93"/>
+      <c r="D101" s="93"/>
+      <c r="E101" s="93"/>
+      <c r="F101" s="93"/>
+      <c r="G101" s="93"/>
+      <c r="H101" s="93"/>
+      <c r="I101" s="93"/>
+      <c r="J101" s="93"/>
+      <c r="K101" s="93"/>
+      <c r="L101" s="93"/>
+      <c r="M101" s="93"/>
       <c r="N101" s="22"/>
       <c r="O101" s="22"/>
       <c r="P101" s="22"/>
@@ -29138,21 +29170,21 @@
       <c r="BL101" s="22"/>
     </row>
     <row r="102" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="75" t="s">
+      <c r="A102" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="B102" s="75"/>
-      <c r="C102" s="75"/>
-      <c r="D102" s="75"/>
-      <c r="E102" s="75"/>
-      <c r="F102" s="75"/>
-      <c r="G102" s="75"/>
-      <c r="H102" s="75"/>
-      <c r="I102" s="75"/>
-      <c r="J102" s="75"/>
-      <c r="K102" s="75"/>
-      <c r="L102" s="75"/>
-      <c r="M102" s="75"/>
+      <c r="B102" s="94"/>
+      <c r="C102" s="94"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="94"/>
+      <c r="F102" s="94"/>
+      <c r="G102" s="94"/>
+      <c r="H102" s="94"/>
+      <c r="I102" s="94"/>
+      <c r="J102" s="94"/>
+      <c r="K102" s="94"/>
+      <c r="L102" s="94"/>
+      <c r="M102" s="94"/>
       <c r="N102" s="22"/>
       <c r="O102" s="22"/>
       <c r="P102" s="22"/>
@@ -30351,21 +30383,21 @@
       <c r="BL115" s="23"/>
     </row>
     <row r="116" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="72" t="s">
+      <c r="A116" s="98" t="s">
         <v>168</v>
       </c>
-      <c r="B116" s="73"/>
-      <c r="C116" s="73"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="73"/>
-      <c r="F116" s="73"/>
-      <c r="G116" s="73"/>
-      <c r="H116" s="73"/>
-      <c r="I116" s="73"/>
-      <c r="J116" s="73"/>
-      <c r="K116" s="73"/>
-      <c r="L116" s="73"/>
-      <c r="M116" s="74"/>
+      <c r="B116" s="99"/>
+      <c r="C116" s="99"/>
+      <c r="D116" s="99"/>
+      <c r="E116" s="99"/>
+      <c r="F116" s="99"/>
+      <c r="G116" s="99"/>
+      <c r="H116" s="99"/>
+      <c r="I116" s="99"/>
+      <c r="J116" s="99"/>
+      <c r="K116" s="99"/>
+      <c r="L116" s="99"/>
+      <c r="M116" s="100"/>
       <c r="N116" s="22"/>
       <c r="O116" s="22"/>
       <c r="P116" s="22"/>
@@ -30675,38 +30707,38 @@
       </c>
     </row>
     <row r="122" spans="1:64" ht="18" x14ac:dyDescent="0.3">
-      <c r="A122" s="70" t="s">
+      <c r="A122" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="B122" s="70"/>
-      <c r="C122" s="70"/>
-      <c r="D122" s="70"/>
-      <c r="E122" s="70"/>
-      <c r="F122" s="70"/>
-      <c r="G122" s="70"/>
-      <c r="H122" s="70"/>
-      <c r="I122" s="70"/>
-      <c r="J122" s="70"/>
-      <c r="K122" s="70"/>
-      <c r="L122" s="70"/>
-      <c r="M122" s="71"/>
+      <c r="B122" s="93"/>
+      <c r="C122" s="93"/>
+      <c r="D122" s="93"/>
+      <c r="E122" s="93"/>
+      <c r="F122" s="93"/>
+      <c r="G122" s="93"/>
+      <c r="H122" s="93"/>
+      <c r="I122" s="93"/>
+      <c r="J122" s="93"/>
+      <c r="K122" s="93"/>
+      <c r="L122" s="93"/>
+      <c r="M122" s="95"/>
     </row>
     <row r="123" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A123" s="72" t="s">
+      <c r="A123" s="98" t="s">
         <v>169</v>
       </c>
-      <c r="B123" s="73"/>
-      <c r="C123" s="73"/>
-      <c r="D123" s="73"/>
-      <c r="E123" s="73"/>
-      <c r="F123" s="73"/>
-      <c r="G123" s="73"/>
-      <c r="H123" s="73"/>
-      <c r="I123" s="73"/>
-      <c r="J123" s="73"/>
-      <c r="K123" s="73"/>
-      <c r="L123" s="73"/>
-      <c r="M123" s="73"/>
+      <c r="B123" s="99"/>
+      <c r="C123" s="99"/>
+      <c r="D123" s="99"/>
+      <c r="E123" s="99"/>
+      <c r="F123" s="99"/>
+      <c r="G123" s="99"/>
+      <c r="H123" s="99"/>
+      <c r="I123" s="99"/>
+      <c r="J123" s="99"/>
+      <c r="K123" s="99"/>
+      <c r="L123" s="99"/>
+      <c r="M123" s="99"/>
     </row>
     <row r="124" spans="1:64" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
@@ -31282,65 +31314,153 @@
         <v>208</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A138" s="21"/>
-      <c r="B138" s="22"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="21"/>
-      <c r="E138" s="21"/>
-      <c r="F138" s="21"/>
-      <c r="G138" s="55"/>
-      <c r="H138" s="21"/>
-      <c r="I138" s="21"/>
-      <c r="J138" s="21"/>
-      <c r="K138" s="36"/>
-      <c r="L138" s="22"/>
-      <c r="M138" s="22"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A139" s="21"/>
-      <c r="B139" s="22"/>
-      <c r="C139" s="23"/>
-      <c r="D139" s="21"/>
-      <c r="E139" s="21"/>
-      <c r="F139" s="21"/>
-      <c r="G139" s="55"/>
-      <c r="H139" s="21"/>
-      <c r="I139" s="21"/>
-      <c r="J139" s="21"/>
-      <c r="K139" s="36"/>
-      <c r="L139" s="22"/>
-      <c r="M139" s="22"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A140" s="21"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="23"/>
-      <c r="D140" s="21"/>
-      <c r="E140" s="21"/>
-      <c r="F140" s="21"/>
-      <c r="G140" s="55"/>
-      <c r="H140" s="21"/>
-      <c r="I140" s="21"/>
-      <c r="J140" s="21"/>
-      <c r="K140" s="36"/>
-      <c r="L140" s="22"/>
-      <c r="M140" s="22"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A141" s="21"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="23"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="55"/>
-      <c r="H141" s="21"/>
-      <c r="I141" s="21"/>
-      <c r="J141" s="21"/>
-      <c r="K141" s="36"/>
-      <c r="L141" s="22"/>
-      <c r="M141" s="22"/>
+    <row r="138" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="28">
+        <v>115</v>
+      </c>
+      <c r="B138" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C138" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="D138" s="4">
+        <v>203</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G138" s="25">
+        <v>400</v>
+      </c>
+      <c r="H138" s="28"/>
+      <c r="I138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J138" s="28">
+        <v>3003</v>
+      </c>
+      <c r="K138" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="L138" s="35"/>
+      <c r="M138" s="32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="28">
+        <v>116</v>
+      </c>
+      <c r="B139" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C139" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="D139" s="4">
+        <v>204</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G139" s="25">
+        <v>400</v>
+      </c>
+      <c r="H139" s="28"/>
+      <c r="I139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J139" s="28">
+        <v>3004</v>
+      </c>
+      <c r="K139" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="L139" s="35"/>
+      <c r="M139" s="101" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="60.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="8">
+        <v>117</v>
+      </c>
+      <c r="B140" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C140" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G140" s="25">
+        <v>400</v>
+      </c>
+      <c r="H140" s="28"/>
+      <c r="I140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J140" s="28">
+        <v>3005</v>
+      </c>
+      <c r="K140" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="L140" s="35"/>
+      <c r="M140" s="101" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="8">
+        <v>118</v>
+      </c>
+      <c r="B141" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C141" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="D141" s="4">
+        <v>203</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G141" s="25">
+        <v>400</v>
+      </c>
+      <c r="H141" s="28"/>
+      <c r="I141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J141" s="28">
+        <v>3006</v>
+      </c>
+      <c r="K141" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="L141" s="35"/>
+      <c r="M141" s="102" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="21"/>
@@ -35980,27 +36100,27 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A122:M122"/>
+    <mergeCell ref="A123:M123"/>
+    <mergeCell ref="A116:M116"/>
+    <mergeCell ref="A99:M99"/>
+    <mergeCell ref="A102:M102"/>
+    <mergeCell ref="A84:M84"/>
+    <mergeCell ref="A83:M83"/>
+    <mergeCell ref="A101:M101"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="A58:M58"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A22:M22"/>
     <mergeCell ref="A57:M57"/>
     <mergeCell ref="A70:M70"/>
-    <mergeCell ref="A84:M84"/>
-    <mergeCell ref="A83:M83"/>
-    <mergeCell ref="A101:M101"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A122:M122"/>
-    <mergeCell ref="A123:M123"/>
-    <mergeCell ref="A116:M116"/>
-    <mergeCell ref="A99:M99"/>
-    <mergeCell ref="A102:M102"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65:H69 H49:H55 H130:H137 H92:H98 H78:H82 H100 H23:H47 H21 H117:H121 H7:H8 H62:H63 H75:H76 H88:H90 H106:H108 H127:H128 H10:H16 H110:H114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65:H69 H49:H55 H110:H114 H92:H98 H78:H82 H100 H23:H47 H21 H117:H121 H7:H8 H62:H63 H75:H76 H88:H90 H106:H108 H127:H128 H10:H16 H130:H137">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:I55 I65:I69 I130:I137 I117 I92:I98 I78:I82 I100 I23:I47 I21 I120 I7:I8 I62:I63 I75:I76 I88:I90 I106:I108 I127:I128 I10:I16 I110:I114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:I55 I65:I69 I117 I92:I98 I78:I82 I100 I23:I47 I21 I120 I7:I8 I62:I63 I75:I76 I88:I90 I106:I108 I127:I128 I10:I16 I110:I114 I130:I141">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J65:J69 J10:J14 J78:J82 J39:J46 J100 J120 J92:J97 J117 J49:J53 J23:J37 J134:J135 J130:J132 J21 J7:J8 J62:J63 J75:J76 J88:J90 J106:J108 J127:J128 J16 J110:J114">

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2436" windowWidth="14280" windowHeight="7308" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2436" windowWidth="14280" windowHeight="7308"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$A$1:$M$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$A$1:$M$119</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$K$117</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$K$116</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="233">
   <si>
     <t>Payslip</t>
   </si>
@@ -309,9 +309,6 @@
     <t>EmployerReference is mandatory if EmployeeID(PPSN &amp; EmploymentID) not included.</t>
   </si>
   <si>
-    <t>Duplicate EmployerReference across payroll run for Payslips with no EmployeeID (PPSN &amp; EmploymentID).</t>
-  </si>
-  <si>
     <t>Technical Validation Description</t>
   </si>
   <si>
@@ -340,9 +337,6 @@
   </si>
   <si>
     <t>Line Item ID must be unique across a payroll run.</t>
-  </si>
-  <si>
-    <t>If the PPSN is not known, the Employer Reference must be unique to that Employer Number and remain unchanged for all submissions until the PPSN is available.</t>
   </si>
   <si>
     <t>If an Irish county is specified the Country Code must either be blank or set to IRL (i.e. Ireland).</t>
@@ -779,6 +773,9 @@
   </si>
   <si>
     <t>115-118</t>
+  </si>
+  <si>
+    <t>removed</t>
   </si>
 </sst>
 </file>
@@ -1309,22 +1306,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,9 +1328,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22037,8 +22034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22055,18 +22052,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
@@ -22097,7 +22094,7 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -22108,16 +22105,16 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C13" s="19">
         <v>43056</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -22130,10 +22127,10 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -22151,7 +22148,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -22167,7 +22164,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -22183,7 +22180,7 @@
         <v>47</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -22194,14 +22191,14 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C18" s="19">
         <v>43140</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -22212,14 +22209,14 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C19" s="19">
         <v>43237</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -22233,7 +22230,7 @@
       <c r="C20" s="17"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -22251,7 +22248,7 @@
         <v>126</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -22267,7 +22264,7 @@
         <v>127</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -22280,10 +22277,10 @@
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -22295,8 +22292,12 @@
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="D24" s="15">
+        <v>21</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="17"/>
@@ -22361,11 +22362,11 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BL450"/>
+  <dimension ref="A1:BL449"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -22399,13 +22400,13 @@
         <v>80</v>
       </c>
       <c r="E1" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>159</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>161</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>6</v>
@@ -22417,7 +22418,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" s="30" t="s">
         <v>2</v>
@@ -22478,21 +22479,21 @@
       <c r="BL1" s="21"/>
     </row>
     <row r="2" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
@@ -22546,21 +22547,21 @@
       <c r="BL2" s="22"/>
     </row>
     <row r="3" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
+      <c r="A3" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -22618,19 +22619,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G4" s="25">
         <v>401</v>
@@ -22645,7 +22646,7 @@
         <v>1012</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L4" s="34" t="s">
         <v>12</v>
@@ -22710,19 +22711,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G5" s="25">
         <v>401</v>
@@ -22737,7 +22738,7 @@
         <v>1013</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>12</v>
@@ -22802,19 +22803,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G6" s="25">
         <v>401</v>
@@ -22829,7 +22830,7 @@
         <v>1014</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L6" s="34" t="s">
         <v>12</v>
@@ -22894,19 +22895,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="25">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G7" s="54">
         <v>400</v>
@@ -22935,19 +22936,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G8" s="54">
         <v>400</v>
@@ -22976,19 +22977,19 @@
         <v>116</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F9" s="65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G9" s="64">
         <v>400</v>
@@ -23003,7 +23004,7 @@
         <v>1015</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L9" s="63" t="s">
         <v>63</v>
@@ -23017,19 +23018,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="25">
         <v>2</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G10" s="54">
         <v>403</v>
@@ -23058,19 +23059,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="25">
         <v>2</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G11" s="54">
         <v>403</v>
@@ -23099,19 +23100,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="25">
         <v>2</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G12" s="54">
         <v>403</v>
@@ -23140,7 +23141,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>84</v>
@@ -23149,10 +23150,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G13" s="54">
         <v>403</v>
@@ -23181,19 +23182,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G14" s="54">
         <v>400</v>
@@ -23222,19 +23223,19 @@
         <v>100</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G15" s="54">
         <v>400</v>
@@ -23249,13 +23250,13 @@
         <v>2046</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L15" s="34" t="s">
         <v>69</v>
       </c>
       <c r="M15" s="34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23263,19 +23264,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G16" s="54">
         <v>400</v>
@@ -23304,19 +23305,19 @@
         <v>123</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D17" s="65" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G17" s="64">
         <v>400</v>
@@ -23331,13 +23332,13 @@
         <v>5002</v>
       </c>
       <c r="K17" s="63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L17" s="63" t="s">
         <v>0</v>
       </c>
       <c r="M17" s="66" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23345,19 +23346,19 @@
         <v>124</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D18" s="71" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F18" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G18" s="72">
         <v>400</v>
@@ -23372,13 +23373,13 @@
         <v>5003</v>
       </c>
       <c r="K18" s="70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L18" s="70" t="s">
         <v>0</v>
       </c>
       <c r="M18" s="74" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23386,19 +23387,19 @@
         <v>126</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="85" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D19" s="86" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="87" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F19" s="87" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G19" s="87">
         <v>400</v>
@@ -23413,13 +23414,13 @@
         <v>2049</v>
       </c>
       <c r="K19" s="85" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L19" s="84" t="s">
         <v>0</v>
       </c>
       <c r="M19" s="85" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:64" s="91" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23427,19 +23428,19 @@
         <v>127</v>
       </c>
       <c r="B20" s="80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C20" s="89" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D20" s="81" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G20" s="82">
         <v>400</v>
@@ -23454,13 +23455,13 @@
         <v>2050</v>
       </c>
       <c r="K20" s="89" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L20" s="80" t="s">
         <v>0</v>
       </c>
       <c r="M20" s="89" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N20" s="90"/>
       <c r="O20" s="90"/>
@@ -23519,7 +23520,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C21" s="76" t="s">
         <v>72</v>
@@ -23528,10 +23529,10 @@
         <v>5</v>
       </c>
       <c r="E21" s="77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G21" s="78">
         <v>400</v>
@@ -23556,21 +23557,21 @@
       </c>
     </row>
     <row r="22" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
+      <c r="A22" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
@@ -23628,19 +23629,19 @@
         <v>18</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G23" s="54" t="s">
         <v>12</v>
@@ -23655,7 +23656,7 @@
         <v>2040</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L23" s="33" t="s">
         <v>0</v>
@@ -23669,19 +23670,19 @@
         <v>19</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G24" s="54" t="s">
         <v>12</v>
@@ -23710,7 +23711,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>91</v>
@@ -23719,10 +23720,10 @@
         <v>8</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G25" s="54" t="s">
         <v>12</v>
@@ -23746,24 +23747,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:64" ht="62.4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D26" s="5">
         <v>13</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G26" s="54" t="s">
         <v>12</v>
@@ -23772,13 +23773,13 @@
         <v>7</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" s="5">
-        <v>2006</v>
+        <v>35</v>
+      </c>
+      <c r="J26" s="8">
+        <v>2009</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L26" s="33" t="s">
         <v>0</v>
@@ -23787,24 +23788,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="5">
-        <v>13</v>
+        <v>112</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G27" s="54" t="s">
         <v>12</v>
@@ -23815,37 +23816,37 @@
       <c r="I27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="8">
-        <v>2009</v>
+      <c r="J27" s="5">
+        <v>2010</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="L27" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M27" s="33" t="s">
-        <v>40</v>
+      <c r="M27" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>144</v>
+        <v>112</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G28" s="54" t="s">
         <v>12</v>
@@ -23857,36 +23858,36 @@
         <v>35</v>
       </c>
       <c r="J28" s="5">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="L28" s="33" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="32" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>76</v>
+        <v>112</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G29" s="54" t="s">
         <v>12</v>
@@ -23895,39 +23896,39 @@
         <v>7</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J29" s="5">
-        <v>2012</v>
-      </c>
-      <c r="K29" s="32" t="s">
-        <v>29</v>
+        <v>2014</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>132</v>
       </c>
       <c r="L29" s="33" t="s">
         <v>0</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>133</v>
+        <v>112</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>78</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G30" s="54" t="s">
         <v>12</v>
@@ -23936,13 +23937,13 @@
         <v>7</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J30" s="5">
-        <v>2014</v>
-      </c>
-      <c r="K30" s="34" t="s">
-        <v>134</v>
+        <v>2015</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="L30" s="33" t="s">
         <v>0</v>
@@ -23951,24 +23952,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>78</v>
+        <v>112</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G31" s="54" t="s">
         <v>12</v>
@@ -23977,39 +23978,39 @@
         <v>7</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J31" s="5">
-        <v>2015</v>
+        <v>11</v>
+      </c>
+      <c r="J31" s="8">
+        <v>2016</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L31" s="33" t="s">
         <v>0</v>
       </c>
       <c r="M31" s="32" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G32" s="54" t="s">
         <v>12</v>
@@ -24018,13 +24019,13 @@
         <v>7</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J32" s="8">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L32" s="33" t="s">
         <v>0</v>
@@ -24033,24 +24034,24 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>79</v>
+        <v>112</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="5">
+        <v>12</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G33" s="54" t="s">
         <v>12</v>
@@ -24059,39 +24060,39 @@
         <v>7</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33" s="8">
-        <v>2013</v>
-      </c>
-      <c r="K33" s="32" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1002</v>
+      </c>
+      <c r="K33" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="L33" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M33" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M33" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="D34" s="5">
         <v>12</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G34" s="54" t="s">
         <v>12</v>
@@ -24103,10 +24104,10 @@
         <v>11</v>
       </c>
       <c r="J34" s="5">
-        <v>1002</v>
-      </c>
-      <c r="K34" s="34" t="s">
-        <v>193</v>
+        <v>2017</v>
+      </c>
+      <c r="K34" s="32" t="s">
+        <v>13</v>
       </c>
       <c r="L34" s="33" t="s">
         <v>0</v>
@@ -24117,22 +24118,22 @@
     </row>
     <row r="35" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D35" s="5">
         <v>12</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G35" s="54" t="s">
         <v>12</v>
@@ -24144,10 +24145,10 @@
         <v>11</v>
       </c>
       <c r="J35" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L35" s="33" t="s">
         <v>0</v>
@@ -24156,157 +24157,157 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="38" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <v>32</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="5">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="25">
+        <v>16</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G36" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="5">
-        <v>2018</v>
-      </c>
-      <c r="K36" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="33" t="s">
+      <c r="I36" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="53">
+        <v>2020</v>
+      </c>
+      <c r="K36" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="L36" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="M36" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:64" s="38" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M36" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="37"/>
+      <c r="AK36" s="37"/>
+      <c r="AL36" s="37"/>
+      <c r="AM36" s="37"/>
+      <c r="AN36" s="37"/>
+      <c r="AO36" s="37"/>
+      <c r="AP36" s="37"/>
+      <c r="AQ36" s="37"/>
+      <c r="AR36" s="37"/>
+      <c r="AS36" s="37"/>
+      <c r="AT36" s="37"/>
+      <c r="AU36" s="37"/>
+      <c r="AV36" s="37"/>
+      <c r="AW36" s="37"/>
+      <c r="AX36" s="37"/>
+      <c r="AY36" s="37"/>
+      <c r="AZ36" s="37"/>
+      <c r="BA36" s="37"/>
+      <c r="BB36" s="37"/>
+      <c r="BC36" s="37"/>
+      <c r="BD36" s="37"/>
+      <c r="BE36" s="37"/>
+      <c r="BF36" s="37"/>
+      <c r="BG36" s="37"/>
+      <c r="BH36" s="37"/>
+      <c r="BI36" s="37"/>
+      <c r="BJ36" s="37"/>
+      <c r="BK36" s="37"/>
+      <c r="BL36" s="37"/>
+    </row>
+    <row r="37" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>33</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="25">
+        <v>34</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="5">
         <v>16</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G37" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="25" t="s">
+      <c r="H37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="53">
-        <v>2020</v>
+      <c r="I37" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1002</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="L37" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="L37" s="33" t="s">
         <v>0</v>
       </c>
       <c r="M37" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="37"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="37"/>
-      <c r="AJ37" s="37"/>
-      <c r="AK37" s="37"/>
-      <c r="AL37" s="37"/>
-      <c r="AM37" s="37"/>
-      <c r="AN37" s="37"/>
-      <c r="AO37" s="37"/>
-      <c r="AP37" s="37"/>
-      <c r="AQ37" s="37"/>
-      <c r="AR37" s="37"/>
-      <c r="AS37" s="37"/>
-      <c r="AT37" s="37"/>
-      <c r="AU37" s="37"/>
-      <c r="AV37" s="37"/>
-      <c r="AW37" s="37"/>
-      <c r="AX37" s="37"/>
-      <c r="AY37" s="37"/>
-      <c r="AZ37" s="37"/>
-      <c r="BA37" s="37"/>
-      <c r="BB37" s="37"/>
-      <c r="BC37" s="37"/>
-      <c r="BD37" s="37"/>
-      <c r="BE37" s="37"/>
-      <c r="BF37" s="37"/>
-      <c r="BG37" s="37"/>
-      <c r="BH37" s="37"/>
-      <c r="BI37" s="37"/>
-      <c r="BJ37" s="37"/>
-      <c r="BK37" s="37"/>
-      <c r="BL37" s="37"/>
-    </row>
-    <row r="38" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>189</v>
+        <v>112</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="D38" s="5">
         <v>16</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G38" s="54" t="s">
         <v>12</v>
@@ -24314,265 +24315,265 @@
       <c r="H38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="J38" s="5">
-        <v>1002</v>
-      </c>
-      <c r="K38" s="34" t="s">
-        <v>193</v>
+      <c r="I38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="51">
+        <v>2023</v>
+      </c>
+      <c r="K38" s="32" t="s">
+        <v>85</v>
       </c>
       <c r="L38" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M38" s="39" t="s">
+      <c r="M38" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" s="38" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>35</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="5">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="40">
+        <v>53</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G39" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="40" t="s">
         <v>35</v>
       </c>
       <c r="J39" s="51">
-        <v>2023</v>
-      </c>
-      <c r="K39" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="L39" s="33" t="s">
+        <v>2025</v>
+      </c>
+      <c r="K39" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="L39" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="M39" s="33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:64" s="38" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M39" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="37"/>
+      <c r="AE39" s="37"/>
+      <c r="AF39" s="37"/>
+      <c r="AG39" s="37"/>
+      <c r="AH39" s="37"/>
+      <c r="AI39" s="37"/>
+      <c r="AJ39" s="37"/>
+      <c r="AK39" s="37"/>
+      <c r="AL39" s="37"/>
+      <c r="AM39" s="37"/>
+      <c r="AN39" s="37"/>
+      <c r="AO39" s="37"/>
+      <c r="AP39" s="37"/>
+      <c r="AQ39" s="37"/>
+      <c r="AR39" s="37"/>
+      <c r="AS39" s="37"/>
+      <c r="AT39" s="37"/>
+      <c r="AU39" s="37"/>
+      <c r="AV39" s="37"/>
+      <c r="AW39" s="37"/>
+      <c r="AX39" s="37"/>
+      <c r="AY39" s="37"/>
+      <c r="AZ39" s="37"/>
+      <c r="BA39" s="37"/>
+      <c r="BB39" s="37"/>
+      <c r="BC39" s="37"/>
+      <c r="BD39" s="37"/>
+      <c r="BE39" s="37"/>
+      <c r="BF39" s="37"/>
+      <c r="BG39" s="37"/>
+      <c r="BH39" s="37"/>
+      <c r="BI39" s="37"/>
+      <c r="BJ39" s="37"/>
+      <c r="BK39" s="37"/>
+      <c r="BL39" s="37"/>
+    </row>
+    <row r="40" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
-        <v>36</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="40">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="4">
+        <v>21</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G40" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="40" t="s">
+      <c r="H40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="40" t="s">
+      <c r="I40" s="4" t="s">
         <v>35</v>
       </c>
       <c r="J40" s="51">
-        <v>2025</v>
-      </c>
-      <c r="K40" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="L40" s="39" t="s">
+        <v>2030</v>
+      </c>
+      <c r="K40" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="L40" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="M40" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
-      <c r="AA40" s="37"/>
-      <c r="AB40" s="37"/>
-      <c r="AC40" s="37"/>
-      <c r="AD40" s="37"/>
-      <c r="AE40" s="37"/>
-      <c r="AF40" s="37"/>
-      <c r="AG40" s="37"/>
-      <c r="AH40" s="37"/>
-      <c r="AI40" s="37"/>
-      <c r="AJ40" s="37"/>
-      <c r="AK40" s="37"/>
-      <c r="AL40" s="37"/>
-      <c r="AM40" s="37"/>
-      <c r="AN40" s="37"/>
-      <c r="AO40" s="37"/>
-      <c r="AP40" s="37"/>
-      <c r="AQ40" s="37"/>
-      <c r="AR40" s="37"/>
-      <c r="AS40" s="37"/>
-      <c r="AT40" s="37"/>
-      <c r="AU40" s="37"/>
-      <c r="AV40" s="37"/>
-      <c r="AW40" s="37"/>
-      <c r="AX40" s="37"/>
-      <c r="AY40" s="37"/>
-      <c r="AZ40" s="37"/>
-      <c r="BA40" s="37"/>
-      <c r="BB40" s="37"/>
-      <c r="BC40" s="37"/>
-      <c r="BD40" s="37"/>
-      <c r="BE40" s="37"/>
-      <c r="BF40" s="37"/>
-      <c r="BG40" s="37"/>
-      <c r="BH40" s="37"/>
-      <c r="BI40" s="37"/>
-      <c r="BJ40" s="37"/>
-      <c r="BK40" s="37"/>
-      <c r="BL40" s="37"/>
-    </row>
-    <row r="41" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M40" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="23"/>
+      <c r="AK40" s="23"/>
+      <c r="AL40" s="23"/>
+      <c r="AM40" s="23"/>
+      <c r="AN40" s="23"/>
+      <c r="AO40" s="23"/>
+      <c r="AP40" s="23"/>
+      <c r="AQ40" s="23"/>
+      <c r="AR40" s="23"/>
+      <c r="AS40" s="23"/>
+      <c r="AT40" s="23"/>
+      <c r="AU40" s="23"/>
+      <c r="AV40" s="23"/>
+      <c r="AW40" s="23"/>
+      <c r="AX40" s="23"/>
+      <c r="AY40" s="23"/>
+      <c r="AZ40" s="23"/>
+      <c r="BA40" s="23"/>
+      <c r="BB40" s="23"/>
+      <c r="BC40" s="23"/>
+      <c r="BD40" s="23"/>
+      <c r="BE40" s="23"/>
+      <c r="BF40" s="23"/>
+      <c r="BG40" s="23"/>
+      <c r="BH40" s="23"/>
+      <c r="BI40" s="23"/>
+      <c r="BJ40" s="23"/>
+      <c r="BK40" s="23"/>
+      <c r="BL40" s="23"/>
+    </row>
+    <row r="41" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="4">
-        <v>21</v>
+        <v>112</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G41" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>35</v>
+      <c r="I41" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="J41" s="51">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="K41" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="L41" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M41" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="23"/>
-      <c r="AA41" s="23"/>
-      <c r="AB41" s="23"/>
-      <c r="AC41" s="23"/>
-      <c r="AD41" s="23"/>
-      <c r="AE41" s="23"/>
-      <c r="AF41" s="23"/>
-      <c r="AG41" s="23"/>
-      <c r="AH41" s="23"/>
-      <c r="AI41" s="23"/>
-      <c r="AJ41" s="23"/>
-      <c r="AK41" s="23"/>
-      <c r="AL41" s="23"/>
-      <c r="AM41" s="23"/>
-      <c r="AN41" s="23"/>
-      <c r="AO41" s="23"/>
-      <c r="AP41" s="23"/>
-      <c r="AQ41" s="23"/>
-      <c r="AR41" s="23"/>
-      <c r="AS41" s="23"/>
-      <c r="AT41" s="23"/>
-      <c r="AU41" s="23"/>
-      <c r="AV41" s="23"/>
-      <c r="AW41" s="23"/>
-      <c r="AX41" s="23"/>
-      <c r="AY41" s="23"/>
-      <c r="AZ41" s="23"/>
-      <c r="BA41" s="23"/>
-      <c r="BB41" s="23"/>
-      <c r="BC41" s="23"/>
-      <c r="BD41" s="23"/>
-      <c r="BE41" s="23"/>
-      <c r="BF41" s="23"/>
-      <c r="BG41" s="23"/>
-      <c r="BH41" s="23"/>
-      <c r="BI41" s="23"/>
-      <c r="BJ41" s="23"/>
-      <c r="BK41" s="23"/>
-      <c r="BL41" s="23"/>
+      <c r="M41" s="33" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="42" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>12</v>
+        <v>112</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="5">
+        <v>20</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G42" s="54" t="s">
         <v>12</v>
@@ -24581,39 +24582,39 @@
         <v>7</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J42" s="51">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="K42" s="32" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="L42" s="33" t="s">
         <v>0</v>
       </c>
       <c r="M42" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>157</v>
+        <v>112</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D43" s="5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G43" s="54" t="s">
         <v>12</v>
@@ -24625,36 +24626,36 @@
         <v>35</v>
       </c>
       <c r="J43" s="51">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="K43" s="32" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="L43" s="33" t="s">
         <v>0</v>
       </c>
       <c r="M43" s="33" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D44" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G44" s="54" t="s">
         <v>12</v>
@@ -24666,292 +24667,292 @@
         <v>35</v>
       </c>
       <c r="J44" s="51">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="K44" s="32" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="L44" s="33" t="s">
         <v>0</v>
       </c>
       <c r="M44" s="33" t="s">
-        <v>198</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="5">
-        <v>23</v>
+        <v>112</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="25">
+        <v>17</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G45" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>35</v>
+      <c r="I45" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="J45" s="51">
-        <v>2032</v>
-      </c>
-      <c r="K45" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="L45" s="33" t="s">
+        <v>2019</v>
+      </c>
+      <c r="K45" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="L45" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="M45" s="33" t="s">
-        <v>61</v>
+      <c r="M45" s="34" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="25">
+        <v>112</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="5">
         <v>17</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G46" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="25" t="s">
+      <c r="H46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46" s="51">
-        <v>2019</v>
+      <c r="I46" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1002</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="L46" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="L46" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M46" s="34" t="s">
+      <c r="M46" s="39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:64" s="38" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
-        <v>43</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D47" s="5">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="49">
+        <v>30</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G47" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="51" t="s">
-        <v>11</v>
+      <c r="I47" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="J47" s="5">
-        <v>1002</v>
-      </c>
-      <c r="K47" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="L47" s="33" t="s">
+        <v>2043</v>
+      </c>
+      <c r="K47" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="L47" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="M47" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:64" s="38" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M47" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
+      <c r="AA47" s="37"/>
+      <c r="AB47" s="37"/>
+      <c r="AC47" s="37"/>
+      <c r="AD47" s="37"/>
+      <c r="AE47" s="37"/>
+      <c r="AF47" s="37"/>
+      <c r="AG47" s="37"/>
+      <c r="AH47" s="37"/>
+      <c r="AI47" s="37"/>
+      <c r="AJ47" s="37"/>
+      <c r="AK47" s="37"/>
+      <c r="AL47" s="37"/>
+      <c r="AM47" s="37"/>
+      <c r="AN47" s="37"/>
+      <c r="AO47" s="37"/>
+      <c r="AP47" s="37"/>
+      <c r="AQ47" s="37"/>
+      <c r="AR47" s="37"/>
+      <c r="AS47" s="37"/>
+      <c r="AT47" s="37"/>
+      <c r="AU47" s="37"/>
+      <c r="AV47" s="37"/>
+      <c r="AW47" s="37"/>
+      <c r="AX47" s="37"/>
+      <c r="AY47" s="37"/>
+      <c r="AZ47" s="37"/>
+      <c r="BA47" s="37"/>
+      <c r="BB47" s="37"/>
+      <c r="BC47" s="37"/>
+      <c r="BD47" s="37"/>
+      <c r="BE47" s="37"/>
+      <c r="BF47" s="37"/>
+      <c r="BG47" s="37"/>
+      <c r="BH47" s="37"/>
+      <c r="BI47" s="37"/>
+      <c r="BJ47" s="37"/>
+      <c r="BK47" s="37"/>
+      <c r="BL47" s="37"/>
+    </row>
+    <row r="48" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
-        <v>44</v>
-      </c>
-      <c r="B48" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="49">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="43">
+        <v>31</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G48" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="49" t="s">
+      <c r="H48" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="52" t="s">
+      <c r="I48" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="J48" s="5">
-        <v>2043</v>
-      </c>
-      <c r="K48" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="L48" s="46" t="s">
+      <c r="J48" s="44">
+        <v>2033</v>
+      </c>
+      <c r="K48" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="L48" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="M48" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="37"/>
-      <c r="AA48" s="37"/>
-      <c r="AB48" s="37"/>
-      <c r="AC48" s="37"/>
-      <c r="AD48" s="37"/>
-      <c r="AE48" s="37"/>
-      <c r="AF48" s="37"/>
-      <c r="AG48" s="37"/>
-      <c r="AH48" s="37"/>
-      <c r="AI48" s="37"/>
-      <c r="AJ48" s="37"/>
-      <c r="AK48" s="37"/>
-      <c r="AL48" s="37"/>
-      <c r="AM48" s="37"/>
-      <c r="AN48" s="37"/>
-      <c r="AO48" s="37"/>
-      <c r="AP48" s="37"/>
-      <c r="AQ48" s="37"/>
-      <c r="AR48" s="37"/>
-      <c r="AS48" s="37"/>
-      <c r="AT48" s="37"/>
-      <c r="AU48" s="37"/>
-      <c r="AV48" s="37"/>
-      <c r="AW48" s="37"/>
-      <c r="AX48" s="37"/>
-      <c r="AY48" s="37"/>
-      <c r="AZ48" s="37"/>
-      <c r="BA48" s="37"/>
-      <c r="BB48" s="37"/>
-      <c r="BC48" s="37"/>
-      <c r="BD48" s="37"/>
-      <c r="BE48" s="37"/>
-      <c r="BF48" s="37"/>
-      <c r="BG48" s="37"/>
-      <c r="BH48" s="37"/>
-      <c r="BI48" s="37"/>
-      <c r="BJ48" s="37"/>
-      <c r="BK48" s="37"/>
-      <c r="BL48" s="37"/>
-    </row>
-    <row r="49" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M48" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
-        <v>45</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" s="43">
+        <v>46</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="5">
         <v>31</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G49" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="43" t="s">
+      <c r="H49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="J49" s="44">
-        <v>2033</v>
-      </c>
-      <c r="K49" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="L49" s="45" t="s">
+      <c r="I49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="8">
+        <v>2037</v>
+      </c>
+      <c r="K49" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M49" s="45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M49" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="D50" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G50" s="54" t="s">
         <v>12</v>
@@ -24963,36 +24964,36 @@
         <v>11</v>
       </c>
       <c r="J50" s="8">
-        <v>2037</v>
-      </c>
-      <c r="K50" s="32" t="s">
-        <v>22</v>
+        <v>2036</v>
+      </c>
+      <c r="K50" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="L50" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M50" s="39" t="s">
-        <v>140</v>
+      <c r="M50" s="33" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>184</v>
+        <v>112</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="D51" s="5">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G51" s="54" t="s">
         <v>12</v>
@@ -25001,39 +25002,39 @@
         <v>7</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J51" s="8">
-        <v>2036</v>
-      </c>
-      <c r="K51" s="34" t="s">
-        <v>185</v>
+        <v>2038</v>
+      </c>
+      <c r="K51" s="32" t="s">
+        <v>121</v>
       </c>
       <c r="L51" s="33" t="s">
         <v>0</v>
       </c>
       <c r="M51" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="D52" s="5">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G52" s="54" t="s">
         <v>12</v>
@@ -25042,92 +25043,143 @@
         <v>7</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J52" s="8">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="K52" s="32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="M52" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>49</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>50</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="5">
-        <v>39</v>
+        <v>164</v>
+      </c>
+      <c r="D53" s="4">
+        <v>19</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G53" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J53" s="8">
-        <v>2039</v>
+      <c r="H53" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" s="10">
+        <v>2044</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="L53" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="L53" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="M53" s="33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M53" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="23"/>
+      <c r="Z53" s="23"/>
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="23"/>
+      <c r="AD53" s="23"/>
+      <c r="AE53" s="23"/>
+      <c r="AF53" s="23"/>
+      <c r="AG53" s="23"/>
+      <c r="AH53" s="23"/>
+      <c r="AI53" s="23"/>
+      <c r="AJ53" s="23"/>
+      <c r="AK53" s="23"/>
+      <c r="AL53" s="23"/>
+      <c r="AM53" s="23"/>
+      <c r="AN53" s="23"/>
+      <c r="AO53" s="23"/>
+      <c r="AP53" s="23"/>
+      <c r="AQ53" s="23"/>
+      <c r="AR53" s="23"/>
+      <c r="AS53" s="23"/>
+      <c r="AT53" s="23"/>
+      <c r="AU53" s="23"/>
+      <c r="AV53" s="23"/>
+      <c r="AW53" s="23"/>
+      <c r="AX53" s="23"/>
+      <c r="AY53" s="23"/>
+      <c r="AZ53" s="23"/>
+      <c r="BA53" s="23"/>
+      <c r="BB53" s="23"/>
+      <c r="BC53" s="23"/>
+      <c r="BD53" s="23"/>
+      <c r="BE53" s="23"/>
+      <c r="BF53" s="23"/>
+      <c r="BG53" s="23"/>
+      <c r="BH53" s="23"/>
+      <c r="BI53" s="23"/>
+      <c r="BJ53" s="23"/>
+      <c r="BK53" s="23"/>
+      <c r="BL53" s="23"/>
+    </row>
+    <row r="54" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="4">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G54" s="54" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>38</v>
       </c>
       <c r="J54" s="10">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="K54" s="32" t="s">
         <v>165</v>
@@ -25136,7 +25188,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="32" t="s">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="N54" s="23"/>
       <c r="O54" s="23"/>
@@ -25190,45 +25242,45 @@
       <c r="BK54" s="23"/>
       <c r="BL54" s="23"/>
     </row>
-    <row r="55" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>51</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D55" s="4">
-        <v>8</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G55" s="54" t="s">
+    <row r="55" spans="1:64" s="7" customFormat="1" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="67">
+        <v>122</v>
+      </c>
+      <c r="B55" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J55" s="10">
-        <v>2045</v>
-      </c>
-      <c r="K55" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="L55" s="32" t="s">
+      <c r="E55" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="G55" s="64">
+        <v>400</v>
+      </c>
+      <c r="H55" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="J55" s="65">
+        <v>2047</v>
+      </c>
+      <c r="K55" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="L55" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="M55" s="32" t="s">
-        <v>1</v>
+      <c r="M55" s="66" t="s">
+        <v>0</v>
       </c>
       <c r="N55" s="23"/>
       <c r="O55" s="23"/>
@@ -25282,114 +25334,90 @@
       <c r="BK55" s="23"/>
       <c r="BL55" s="23"/>
     </row>
-    <row r="56" spans="1:64" s="7" customFormat="1" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="67">
-        <v>122</v>
-      </c>
-      <c r="B56" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="D56" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="F56" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="G56" s="64">
-        <v>400</v>
-      </c>
-      <c r="H56" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="J56" s="65">
-        <v>2047</v>
-      </c>
-      <c r="K56" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="L56" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="M56" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
-      <c r="X56" s="23"/>
-      <c r="Y56" s="23"/>
-      <c r="Z56" s="23"/>
-      <c r="AA56" s="23"/>
-      <c r="AB56" s="23"/>
-      <c r="AC56" s="23"/>
-      <c r="AD56" s="23"/>
-      <c r="AE56" s="23"/>
-      <c r="AF56" s="23"/>
-      <c r="AG56" s="23"/>
-      <c r="AH56" s="23"/>
-      <c r="AI56" s="23"/>
-      <c r="AJ56" s="23"/>
-      <c r="AK56" s="23"/>
-      <c r="AL56" s="23"/>
-      <c r="AM56" s="23"/>
-      <c r="AN56" s="23"/>
-      <c r="AO56" s="23"/>
-      <c r="AP56" s="23"/>
-      <c r="AQ56" s="23"/>
-      <c r="AR56" s="23"/>
-      <c r="AS56" s="23"/>
-      <c r="AT56" s="23"/>
-      <c r="AU56" s="23"/>
-      <c r="AV56" s="23"/>
-      <c r="AW56" s="23"/>
-      <c r="AX56" s="23"/>
-      <c r="AY56" s="23"/>
-      <c r="AZ56" s="23"/>
-      <c r="BA56" s="23"/>
-      <c r="BB56" s="23"/>
-      <c r="BC56" s="23"/>
-      <c r="BD56" s="23"/>
-      <c r="BE56" s="23"/>
-      <c r="BF56" s="23"/>
-      <c r="BG56" s="23"/>
-      <c r="BH56" s="23"/>
-      <c r="BI56" s="23"/>
-      <c r="BJ56" s="23"/>
-      <c r="BK56" s="23"/>
-      <c r="BL56" s="23"/>
-    </row>
-    <row r="57" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="95" t="s">
+    <row r="56" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="96"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="97"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="101"/>
+      <c r="K56" s="101"/>
+      <c r="L56" s="101"/>
+      <c r="M56" s="102"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="22"/>
+      <c r="AH56" s="22"/>
+      <c r="AI56" s="22"/>
+      <c r="AJ56" s="22"/>
+      <c r="AK56" s="22"/>
+      <c r="AL56" s="22"/>
+      <c r="AM56" s="22"/>
+      <c r="AN56" s="22"/>
+      <c r="AO56" s="22"/>
+      <c r="AP56" s="22"/>
+      <c r="AQ56" s="22"/>
+      <c r="AR56" s="22"/>
+      <c r="AS56" s="22"/>
+      <c r="AT56" s="22"/>
+      <c r="AU56" s="22"/>
+      <c r="AV56" s="22"/>
+      <c r="AW56" s="22"/>
+      <c r="AX56" s="22"/>
+      <c r="AY56" s="22"/>
+      <c r="AZ56" s="22"/>
+      <c r="BA56" s="22"/>
+      <c r="BB56" s="22"/>
+      <c r="BC56" s="22"/>
+      <c r="BD56" s="22"/>
+      <c r="BE56" s="22"/>
+      <c r="BF56" s="22"/>
+      <c r="BG56" s="22"/>
+      <c r="BH56" s="22"/>
+      <c r="BI56" s="22"/>
+      <c r="BJ56" s="22"/>
+      <c r="BK56" s="22"/>
+      <c r="BL56" s="22"/>
+    </row>
+    <row r="57" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="100"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="100"/>
+      <c r="K57" s="100"/>
+      <c r="L57" s="100"/>
+      <c r="M57" s="100"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
@@ -25442,22 +25470,46 @@
       <c r="BK57" s="22"/>
       <c r="BL57" s="22"/>
     </row>
-    <row r="58" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="94"/>
-      <c r="I58" s="94"/>
-      <c r="J58" s="94"/>
-      <c r="K58" s="94"/>
-      <c r="L58" s="94"/>
-      <c r="M58" s="94"/>
+    <row r="58" spans="1:64" s="61" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>52</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G58" s="25">
+        <v>401</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K58" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="L58" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="60" t="s">
+        <v>12</v>
+      </c>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
       <c r="P58" s="22"/>
@@ -25510,24 +25562,24 @@
       <c r="BK58" s="22"/>
       <c r="BL58" s="22"/>
     </row>
-    <row r="59" spans="1:64" s="61" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>178</v>
+        <v>113</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G59" s="25">
         <v>401</v>
@@ -25539,15 +25591,15 @@
         <v>38</v>
       </c>
       <c r="J59" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="K59" s="24" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="L59" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M59" s="60" t="s">
+      <c r="M59" s="58" t="s">
         <v>12</v>
       </c>
       <c r="N59" s="22"/>
@@ -25604,22 +25656,22 @@
     </row>
     <row r="60" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G60" s="25">
         <v>401</v>
@@ -25631,15 +25683,15 @@
         <v>38</v>
       </c>
       <c r="J60" s="4">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L60" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M60" s="58" t="s">
+      <c r="M60" s="32" t="s">
         <v>12</v>
       </c>
       <c r="N60" s="22"/>
@@ -25694,104 +25746,104 @@
       <c r="BK60" s="22"/>
       <c r="BL60" s="22"/>
     </row>
-    <row r="61" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G61" s="25">
-        <v>401</v>
-      </c>
-      <c r="H61" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H61" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I61" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J61" s="4">
-        <v>1014</v>
-      </c>
-      <c r="K61" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="L61" s="34" t="s">
-        <v>12</v>
+      <c r="I61" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J61" s="25">
+        <v>1003</v>
+      </c>
+      <c r="K61" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="M61" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="22"/>
-      <c r="T61" s="22"/>
-      <c r="U61" s="22"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="22"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="22"/>
-      <c r="AE61" s="22"/>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="22"/>
-      <c r="AH61" s="22"/>
-      <c r="AI61" s="22"/>
-      <c r="AJ61" s="22"/>
-      <c r="AK61" s="22"/>
-      <c r="AL61" s="22"/>
-      <c r="AM61" s="22"/>
-      <c r="AN61" s="22"/>
-      <c r="AO61" s="22"/>
-      <c r="AP61" s="22"/>
-      <c r="AQ61" s="22"/>
-      <c r="AR61" s="22"/>
-      <c r="AS61" s="22"/>
-      <c r="AT61" s="22"/>
-      <c r="AU61" s="22"/>
-      <c r="AV61" s="22"/>
-      <c r="AW61" s="22"/>
-      <c r="AX61" s="22"/>
-      <c r="AY61" s="22"/>
-      <c r="AZ61" s="22"/>
-      <c r="BA61" s="22"/>
-      <c r="BB61" s="22"/>
-      <c r="BC61" s="22"/>
-      <c r="BD61" s="22"/>
-      <c r="BE61" s="22"/>
-      <c r="BF61" s="22"/>
-      <c r="BG61" s="22"/>
-      <c r="BH61" s="22"/>
-      <c r="BI61" s="22"/>
-      <c r="BJ61" s="22"/>
-      <c r="BK61" s="22"/>
-      <c r="BL61" s="22"/>
-    </row>
-    <row r="62" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="23"/>
+      <c r="S61" s="23"/>
+      <c r="T61" s="23"/>
+      <c r="U61" s="23"/>
+      <c r="V61" s="23"/>
+      <c r="W61" s="23"/>
+      <c r="X61" s="23"/>
+      <c r="Y61" s="23"/>
+      <c r="Z61" s="23"/>
+      <c r="AA61" s="23"/>
+      <c r="AB61" s="23"/>
+      <c r="AC61" s="23"/>
+      <c r="AD61" s="23"/>
+      <c r="AE61" s="23"/>
+      <c r="AF61" s="23"/>
+      <c r="AG61" s="23"/>
+      <c r="AH61" s="23"/>
+      <c r="AI61" s="23"/>
+      <c r="AJ61" s="23"/>
+      <c r="AK61" s="23"/>
+      <c r="AL61" s="23"/>
+      <c r="AM61" s="23"/>
+      <c r="AN61" s="23"/>
+      <c r="AO61" s="23"/>
+      <c r="AP61" s="23"/>
+      <c r="AQ61" s="23"/>
+      <c r="AR61" s="23"/>
+      <c r="AS61" s="23"/>
+      <c r="AT61" s="23"/>
+      <c r="AU61" s="23"/>
+      <c r="AV61" s="23"/>
+      <c r="AW61" s="23"/>
+      <c r="AX61" s="23"/>
+      <c r="AY61" s="23"/>
+      <c r="AZ61" s="23"/>
+      <c r="BA61" s="23"/>
+      <c r="BB61" s="23"/>
+      <c r="BC61" s="23"/>
+      <c r="BD61" s="23"/>
+      <c r="BE61" s="23"/>
+      <c r="BF61" s="23"/>
+      <c r="BG61" s="23"/>
+      <c r="BH61" s="23"/>
+      <c r="BI61" s="23"/>
+      <c r="BJ61" s="23"/>
+      <c r="BK61" s="23"/>
+      <c r="BL61" s="23"/>
+    </row>
+    <row r="62" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>98</v>
@@ -25800,10 +25852,10 @@
         <v>12</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G62" s="25">
         <v>400</v>
@@ -25812,13 +25864,13 @@
         <v>7</v>
       </c>
       <c r="I62" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="J62" s="25">
-        <v>1003</v>
+        <v>11</v>
+      </c>
+      <c r="J62" s="26">
+        <v>1004</v>
       </c>
       <c r="K62" s="34" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L62" s="32" t="s">
         <v>68</v>
@@ -25878,145 +25930,145 @@
       <c r="BK62" s="23"/>
       <c r="BL62" s="23"/>
     </row>
-    <row r="63" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:64" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C63" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="F63" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="G63" s="64">
+        <v>400</v>
+      </c>
+      <c r="H63" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="65">
+        <v>1015</v>
+      </c>
+      <c r="K63" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="L63" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="M63" s="66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>57</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G63" s="25">
-        <v>400</v>
-      </c>
-      <c r="H63" s="25" t="s">
+      <c r="E64" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G64" s="25">
+        <v>403</v>
+      </c>
+      <c r="H64" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I63" s="25" t="s">
+      <c r="I64" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J63" s="26">
-        <v>1004</v>
-      </c>
-      <c r="K63" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L63" s="32" t="s">
+      <c r="J64" s="26">
+        <v>1006</v>
+      </c>
+      <c r="K64" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="M63" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="23"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="23"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="23"/>
-      <c r="W63" s="23"/>
-      <c r="X63" s="23"/>
-      <c r="Y63" s="23"/>
-      <c r="Z63" s="23"/>
-      <c r="AA63" s="23"/>
-      <c r="AB63" s="23"/>
-      <c r="AC63" s="23"/>
-      <c r="AD63" s="23"/>
-      <c r="AE63" s="23"/>
-      <c r="AF63" s="23"/>
-      <c r="AG63" s="23"/>
-      <c r="AH63" s="23"/>
-      <c r="AI63" s="23"/>
-      <c r="AJ63" s="23"/>
-      <c r="AK63" s="23"/>
-      <c r="AL63" s="23"/>
-      <c r="AM63" s="23"/>
-      <c r="AN63" s="23"/>
-      <c r="AO63" s="23"/>
-      <c r="AP63" s="23"/>
-      <c r="AQ63" s="23"/>
-      <c r="AR63" s="23"/>
-      <c r="AS63" s="23"/>
-      <c r="AT63" s="23"/>
-      <c r="AU63" s="23"/>
-      <c r="AV63" s="23"/>
-      <c r="AW63" s="23"/>
-      <c r="AX63" s="23"/>
-      <c r="AY63" s="23"/>
-      <c r="AZ63" s="23"/>
-      <c r="BA63" s="23"/>
-      <c r="BB63" s="23"/>
-      <c r="BC63" s="23"/>
-      <c r="BD63" s="23"/>
-      <c r="BE63" s="23"/>
-      <c r="BF63" s="23"/>
-      <c r="BG63" s="23"/>
-      <c r="BH63" s="23"/>
-      <c r="BI63" s="23"/>
-      <c r="BJ63" s="23"/>
-      <c r="BK63" s="23"/>
-      <c r="BL63" s="23"/>
-    </row>
-    <row r="64" spans="1:64" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="4">
-        <v>117</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="D64" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="F64" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="G64" s="64">
-        <v>400</v>
-      </c>
-      <c r="H64" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="I64" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="J64" s="65">
-        <v>1015</v>
-      </c>
-      <c r="K64" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="L64" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="M64" s="66" t="s">
-        <v>12</v>
-      </c>
+      <c r="M64" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="23"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="23"/>
+      <c r="Z64" s="23"/>
+      <c r="AA64" s="23"/>
+      <c r="AB64" s="23"/>
+      <c r="AC64" s="23"/>
+      <c r="AD64" s="23"/>
+      <c r="AE64" s="23"/>
+      <c r="AF64" s="23"/>
+      <c r="AG64" s="23"/>
+      <c r="AH64" s="23"/>
+      <c r="AI64" s="23"/>
+      <c r="AJ64" s="23"/>
+      <c r="AK64" s="23"/>
+      <c r="AL64" s="23"/>
+      <c r="AM64" s="23"/>
+      <c r="AN64" s="23"/>
+      <c r="AO64" s="23"/>
+      <c r="AP64" s="23"/>
+      <c r="AQ64" s="23"/>
+      <c r="AR64" s="23"/>
+      <c r="AS64" s="23"/>
+      <c r="AT64" s="23"/>
+      <c r="AU64" s="23"/>
+      <c r="AV64" s="23"/>
+      <c r="AW64" s="23"/>
+      <c r="AX64" s="23"/>
+      <c r="AY64" s="23"/>
+      <c r="AZ64" s="23"/>
+      <c r="BA64" s="23"/>
+      <c r="BB64" s="23"/>
+      <c r="BC64" s="23"/>
+      <c r="BD64" s="23"/>
+      <c r="BE64" s="23"/>
+      <c r="BF64" s="23"/>
+      <c r="BG64" s="23"/>
+      <c r="BH64" s="23"/>
+      <c r="BI64" s="23"/>
+      <c r="BJ64" s="23"/>
+      <c r="BK64" s="23"/>
+      <c r="BL64" s="23"/>
     </row>
     <row r="65" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C65" s="24" t="s">
         <v>100</v>
@@ -26025,10 +26077,10 @@
         <v>12</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G65" s="25">
         <v>403</v>
@@ -26037,13 +26089,13 @@
         <v>7</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J65" s="26">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K65" s="34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L65" s="32" t="s">
         <v>68</v>
@@ -26105,22 +26157,22 @@
     </row>
     <row r="66" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G66" s="25">
         <v>403</v>
@@ -26132,10 +26184,10 @@
         <v>35</v>
       </c>
       <c r="J66" s="26">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K66" s="34" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L66" s="32" t="s">
         <v>68</v>
@@ -26197,22 +26249,22 @@
     </row>
     <row r="67" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D67" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G67" s="25">
         <v>403</v>
@@ -26221,19 +26273,19 @@
         <v>7</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="J67" s="26">
-        <v>1008</v>
+        <v>38</v>
+      </c>
+      <c r="J67" s="25">
+        <v>1011</v>
       </c>
       <c r="K67" s="34" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="L67" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="M67" s="32" t="s">
-        <v>67</v>
+      <c r="M67" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="N67" s="23"/>
       <c r="O67" s="23"/>
@@ -26289,43 +26341,43 @@
     </row>
     <row r="68" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G68" s="25">
-        <v>403</v>
-      </c>
-      <c r="H68" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I68" s="25" t="s">
+      <c r="I68" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J68" s="25">
-        <v>1011</v>
-      </c>
-      <c r="K68" s="34" t="s">
-        <v>83</v>
+      <c r="J68" s="4">
+        <v>2501</v>
+      </c>
+      <c r="K68" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="L68" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="M68" s="34" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="M68" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="N68" s="23"/>
       <c r="O68" s="23"/>
@@ -26379,114 +26431,90 @@
       <c r="BK68" s="23"/>
       <c r="BL68" s="23"/>
     </row>
-    <row r="69" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
-        <v>61</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G69" s="25">
-        <v>404</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J69" s="4">
-        <v>2501</v>
-      </c>
-      <c r="K69" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="L69" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="M69" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="N69" s="23"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="23"/>
-      <c r="S69" s="23"/>
-      <c r="T69" s="23"/>
-      <c r="U69" s="23"/>
-      <c r="V69" s="23"/>
-      <c r="W69" s="23"/>
-      <c r="X69" s="23"/>
-      <c r="Y69" s="23"/>
-      <c r="Z69" s="23"/>
-      <c r="AA69" s="23"/>
-      <c r="AB69" s="23"/>
-      <c r="AC69" s="23"/>
-      <c r="AD69" s="23"/>
-      <c r="AE69" s="23"/>
-      <c r="AF69" s="23"/>
-      <c r="AG69" s="23"/>
-      <c r="AH69" s="23"/>
-      <c r="AI69" s="23"/>
-      <c r="AJ69" s="23"/>
-      <c r="AK69" s="23"/>
-      <c r="AL69" s="23"/>
-      <c r="AM69" s="23"/>
-      <c r="AN69" s="23"/>
-      <c r="AO69" s="23"/>
-      <c r="AP69" s="23"/>
-      <c r="AQ69" s="23"/>
-      <c r="AR69" s="23"/>
-      <c r="AS69" s="23"/>
-      <c r="AT69" s="23"/>
-      <c r="AU69" s="23"/>
-      <c r="AV69" s="23"/>
-      <c r="AW69" s="23"/>
-      <c r="AX69" s="23"/>
-      <c r="AY69" s="23"/>
-      <c r="AZ69" s="23"/>
-      <c r="BA69" s="23"/>
-      <c r="BB69" s="23"/>
-      <c r="BC69" s="23"/>
-      <c r="BD69" s="23"/>
-      <c r="BE69" s="23"/>
-      <c r="BF69" s="23"/>
-      <c r="BG69" s="23"/>
-      <c r="BH69" s="23"/>
-      <c r="BI69" s="23"/>
-      <c r="BJ69" s="23"/>
-      <c r="BK69" s="23"/>
-      <c r="BL69" s="23"/>
-    </row>
-    <row r="70" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="93" t="s">
+    <row r="69" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="93"/>
-      <c r="C70" s="93"/>
-      <c r="D70" s="93"/>
-      <c r="E70" s="93"/>
-      <c r="F70" s="93"/>
-      <c r="G70" s="93"/>
-      <c r="H70" s="93"/>
-      <c r="I70" s="93"/>
-      <c r="J70" s="93"/>
-      <c r="K70" s="93"/>
-      <c r="L70" s="93"/>
-      <c r="M70" s="93"/>
+      <c r="B69" s="95"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="95"/>
+      <c r="I69" s="95"/>
+      <c r="J69" s="95"/>
+      <c r="K69" s="95"/>
+      <c r="L69" s="95"/>
+      <c r="M69" s="95"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="22"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="22"/>
+      <c r="AD69" s="22"/>
+      <c r="AE69" s="22"/>
+      <c r="AF69" s="22"/>
+      <c r="AG69" s="22"/>
+      <c r="AH69" s="22"/>
+      <c r="AI69" s="22"/>
+      <c r="AJ69" s="22"/>
+      <c r="AK69" s="22"/>
+      <c r="AL69" s="22"/>
+      <c r="AM69" s="22"/>
+      <c r="AN69" s="22"/>
+      <c r="AO69" s="22"/>
+      <c r="AP69" s="22"/>
+      <c r="AQ69" s="22"/>
+      <c r="AR69" s="22"/>
+      <c r="AS69" s="22"/>
+      <c r="AT69" s="22"/>
+      <c r="AU69" s="22"/>
+      <c r="AV69" s="22"/>
+      <c r="AW69" s="22"/>
+      <c r="AX69" s="22"/>
+      <c r="AY69" s="22"/>
+      <c r="AZ69" s="22"/>
+      <c r="BA69" s="22"/>
+      <c r="BB69" s="22"/>
+      <c r="BC69" s="22"/>
+      <c r="BD69" s="22"/>
+      <c r="BE69" s="22"/>
+      <c r="BF69" s="22"/>
+      <c r="BG69" s="22"/>
+      <c r="BH69" s="22"/>
+      <c r="BI69" s="22"/>
+      <c r="BJ69" s="22"/>
+      <c r="BK69" s="22"/>
+      <c r="BL69" s="22"/>
+    </row>
+    <row r="70" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="100"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="100"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="100"/>
+      <c r="G70" s="100"/>
+      <c r="H70" s="100"/>
+      <c r="I70" s="100"/>
+      <c r="J70" s="100"/>
+      <c r="K70" s="100"/>
+      <c r="L70" s="100"/>
+      <c r="M70" s="100"/>
       <c r="N70" s="22"/>
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
@@ -26539,22 +26567,46 @@
       <c r="BK70" s="22"/>
       <c r="BL70" s="22"/>
     </row>
-    <row r="71" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="B71" s="94"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="94"/>
-      <c r="K71" s="94"/>
-      <c r="L71" s="94"/>
-      <c r="M71" s="94"/>
+    <row r="71" spans="1:64" s="61" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>62</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G71" s="25">
+        <v>401</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J71" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K71" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="L71" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" s="60" t="s">
+        <v>12</v>
+      </c>
       <c r="N71" s="22"/>
       <c r="O71" s="22"/>
       <c r="P71" s="22"/>
@@ -26607,24 +26659,24 @@
       <c r="BK71" s="22"/>
       <c r="BL71" s="22"/>
     </row>
-    <row r="72" spans="1:64" s="61" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G72" s="25">
         <v>401</v>
@@ -26636,15 +26688,15 @@
         <v>38</v>
       </c>
       <c r="J72" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="K72" s="24" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="L72" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M72" s="60" t="s">
+      <c r="M72" s="58" t="s">
         <v>12</v>
       </c>
       <c r="N72" s="22"/>
@@ -26701,22 +26753,22 @@
     </row>
     <row r="73" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G73" s="25">
         <v>401</v>
@@ -26728,15 +26780,15 @@
         <v>38</v>
       </c>
       <c r="J73" s="4">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K73" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L73" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M73" s="58" t="s">
+      <c r="M73" s="32" t="s">
         <v>12</v>
       </c>
       <c r="N73" s="22"/>
@@ -26791,136 +26843,136 @@
       <c r="BK73" s="22"/>
       <c r="BL73" s="22"/>
     </row>
-    <row r="74" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>171</v>
+        <v>114</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G74" s="25">
-        <v>401</v>
-      </c>
-      <c r="H74" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H74" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I74" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J74" s="4">
-        <v>1014</v>
-      </c>
-      <c r="K74" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="L74" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M74" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="22"/>
-      <c r="T74" s="22"/>
-      <c r="U74" s="22"/>
-      <c r="V74" s="22"/>
-      <c r="W74" s="22"/>
-      <c r="X74" s="22"/>
-      <c r="Y74" s="22"/>
-      <c r="Z74" s="22"/>
-      <c r="AA74" s="22"/>
-      <c r="AB74" s="22"/>
-      <c r="AC74" s="22"/>
-      <c r="AD74" s="22"/>
-      <c r="AE74" s="22"/>
-      <c r="AF74" s="22"/>
-      <c r="AG74" s="22"/>
-      <c r="AH74" s="22"/>
-      <c r="AI74" s="22"/>
-      <c r="AJ74" s="22"/>
-      <c r="AK74" s="22"/>
-      <c r="AL74" s="22"/>
-      <c r="AM74" s="22"/>
-      <c r="AN74" s="22"/>
-      <c r="AO74" s="22"/>
-      <c r="AP74" s="22"/>
-      <c r="AQ74" s="22"/>
-      <c r="AR74" s="22"/>
-      <c r="AS74" s="22"/>
-      <c r="AT74" s="22"/>
-      <c r="AU74" s="22"/>
-      <c r="AV74" s="22"/>
-      <c r="AW74" s="22"/>
-      <c r="AX74" s="22"/>
-      <c r="AY74" s="22"/>
-      <c r="AZ74" s="22"/>
-      <c r="BA74" s="22"/>
-      <c r="BB74" s="22"/>
-      <c r="BC74" s="22"/>
-      <c r="BD74" s="22"/>
-      <c r="BE74" s="22"/>
-      <c r="BF74" s="22"/>
-      <c r="BG74" s="22"/>
-      <c r="BH74" s="22"/>
-      <c r="BI74" s="22"/>
-      <c r="BJ74" s="22"/>
-      <c r="BK74" s="22"/>
-      <c r="BL74" s="22"/>
-    </row>
-    <row r="75" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="I74" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J74" s="26">
+        <v>1003</v>
+      </c>
+      <c r="K74" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="23"/>
+      <c r="U74" s="23"/>
+      <c r="V74" s="23"/>
+      <c r="W74" s="23"/>
+      <c r="X74" s="23"/>
+      <c r="Y74" s="23"/>
+      <c r="Z74" s="23"/>
+      <c r="AA74" s="23"/>
+      <c r="AB74" s="23"/>
+      <c r="AC74" s="23"/>
+      <c r="AD74" s="23"/>
+      <c r="AE74" s="23"/>
+      <c r="AF74" s="23"/>
+      <c r="AG74" s="23"/>
+      <c r="AH74" s="23"/>
+      <c r="AI74" s="23"/>
+      <c r="AJ74" s="23"/>
+      <c r="AK74" s="23"/>
+      <c r="AL74" s="23"/>
+      <c r="AM74" s="23"/>
+      <c r="AN74" s="23"/>
+      <c r="AO74" s="23"/>
+      <c r="AP74" s="23"/>
+      <c r="AQ74" s="23"/>
+      <c r="AR74" s="23"/>
+      <c r="AS74" s="23"/>
+      <c r="AT74" s="23"/>
+      <c r="AU74" s="23"/>
+      <c r="AV74" s="23"/>
+      <c r="AW74" s="23"/>
+      <c r="AX74" s="23"/>
+      <c r="AY74" s="23"/>
+      <c r="AZ74" s="23"/>
+      <c r="BA74" s="23"/>
+      <c r="BB74" s="23"/>
+      <c r="BC74" s="23"/>
+      <c r="BD74" s="23"/>
+      <c r="BE74" s="23"/>
+      <c r="BF74" s="23"/>
+      <c r="BG74" s="23"/>
+      <c r="BH74" s="23"/>
+      <c r="BI74" s="23"/>
+      <c r="BJ74" s="23"/>
+      <c r="BK74" s="23"/>
+      <c r="BL74" s="23"/>
+    </row>
+    <row r="75" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C75" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="24" t="s">
         <v>98</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G75" s="25">
         <v>400</v>
       </c>
-      <c r="H75" s="26" t="s">
+      <c r="H75" s="25" t="s">
         <v>7</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J75" s="26">
-        <v>1003</v>
-      </c>
-      <c r="K75" s="58" t="s">
-        <v>14</v>
+        <v>1004</v>
+      </c>
+      <c r="K75" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="L75" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="M75" s="4" t="s">
+      <c r="M75" s="32" t="s">
         <v>51</v>
       </c>
       <c r="N75" s="23"/>
@@ -26975,145 +27027,145 @@
       <c r="BK75" s="23"/>
       <c r="BL75" s="23"/>
     </row>
-    <row r="76" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:64" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C76" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="F76" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="G76" s="64">
+        <v>400</v>
+      </c>
+      <c r="H76" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" s="65">
+        <v>1015</v>
+      </c>
+      <c r="K76" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="L76" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="M76" s="66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>67</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G76" s="25">
-        <v>400</v>
-      </c>
-      <c r="H76" s="25" t="s">
+      <c r="E77" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G77" s="25">
+        <v>403</v>
+      </c>
+      <c r="H77" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I76" s="25" t="s">
+      <c r="I77" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J76" s="26">
-        <v>1004</v>
-      </c>
-      <c r="K76" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="L76" s="32" t="s">
+      <c r="J77" s="26">
+        <v>1006</v>
+      </c>
+      <c r="K77" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L77" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="M76" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="N76" s="23"/>
-      <c r="O76" s="23"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="23"/>
-      <c r="S76" s="23"/>
-      <c r="T76" s="23"/>
-      <c r="U76" s="23"/>
-      <c r="V76" s="23"/>
-      <c r="W76" s="23"/>
-      <c r="X76" s="23"/>
-      <c r="Y76" s="23"/>
-      <c r="Z76" s="23"/>
-      <c r="AA76" s="23"/>
-      <c r="AB76" s="23"/>
-      <c r="AC76" s="23"/>
-      <c r="AD76" s="23"/>
-      <c r="AE76" s="23"/>
-      <c r="AF76" s="23"/>
-      <c r="AG76" s="23"/>
-      <c r="AH76" s="23"/>
-      <c r="AI76" s="23"/>
-      <c r="AJ76" s="23"/>
-      <c r="AK76" s="23"/>
-      <c r="AL76" s="23"/>
-      <c r="AM76" s="23"/>
-      <c r="AN76" s="23"/>
-      <c r="AO76" s="23"/>
-      <c r="AP76" s="23"/>
-      <c r="AQ76" s="23"/>
-      <c r="AR76" s="23"/>
-      <c r="AS76" s="23"/>
-      <c r="AT76" s="23"/>
-      <c r="AU76" s="23"/>
-      <c r="AV76" s="23"/>
-      <c r="AW76" s="23"/>
-      <c r="AX76" s="23"/>
-      <c r="AY76" s="23"/>
-      <c r="AZ76" s="23"/>
-      <c r="BA76" s="23"/>
-      <c r="BB76" s="23"/>
-      <c r="BC76" s="23"/>
-      <c r="BD76" s="23"/>
-      <c r="BE76" s="23"/>
-      <c r="BF76" s="23"/>
-      <c r="BG76" s="23"/>
-      <c r="BH76" s="23"/>
-      <c r="BI76" s="23"/>
-      <c r="BJ76" s="23"/>
-      <c r="BK76" s="23"/>
-      <c r="BL76" s="23"/>
-    </row>
-    <row r="77" spans="1:64" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="4">
-        <v>118</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C77" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="D77" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="F77" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="G77" s="64">
-        <v>400</v>
-      </c>
-      <c r="H77" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="I77" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="J77" s="65">
-        <v>1015</v>
-      </c>
-      <c r="K77" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="L77" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="M77" s="66" t="s">
-        <v>12</v>
-      </c>
+      <c r="M77" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="23"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="23"/>
+      <c r="X77" s="23"/>
+      <c r="Y77" s="23"/>
+      <c r="Z77" s="23"/>
+      <c r="AA77" s="23"/>
+      <c r="AB77" s="23"/>
+      <c r="AC77" s="23"/>
+      <c r="AD77" s="23"/>
+      <c r="AE77" s="23"/>
+      <c r="AF77" s="23"/>
+      <c r="AG77" s="23"/>
+      <c r="AH77" s="23"/>
+      <c r="AI77" s="23"/>
+      <c r="AJ77" s="23"/>
+      <c r="AK77" s="23"/>
+      <c r="AL77" s="23"/>
+      <c r="AM77" s="23"/>
+      <c r="AN77" s="23"/>
+      <c r="AO77" s="23"/>
+      <c r="AP77" s="23"/>
+      <c r="AQ77" s="23"/>
+      <c r="AR77" s="23"/>
+      <c r="AS77" s="23"/>
+      <c r="AT77" s="23"/>
+      <c r="AU77" s="23"/>
+      <c r="AV77" s="23"/>
+      <c r="AW77" s="23"/>
+      <c r="AX77" s="23"/>
+      <c r="AY77" s="23"/>
+      <c r="AZ77" s="23"/>
+      <c r="BA77" s="23"/>
+      <c r="BB77" s="23"/>
+      <c r="BC77" s="23"/>
+      <c r="BD77" s="23"/>
+      <c r="BE77" s="23"/>
+      <c r="BF77" s="23"/>
+      <c r="BG77" s="23"/>
+      <c r="BH77" s="23"/>
+      <c r="BI77" s="23"/>
+      <c r="BJ77" s="23"/>
+      <c r="BK77" s="23"/>
+      <c r="BL77" s="23"/>
     </row>
     <row r="78" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C78" s="24" t="s">
         <v>100</v>
@@ -27122,10 +27174,10 @@
         <v>12</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G78" s="25">
         <v>403</v>
@@ -27134,13 +27186,13 @@
         <v>7</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J78" s="26">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K78" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L78" s="32" t="s">
         <v>68</v>
@@ -27202,10 +27254,10 @@
     </row>
     <row r="79" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C79" s="24" t="s">
         <v>101</v>
@@ -27214,10 +27266,10 @@
         <v>12</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G79" s="25">
         <v>403</v>
@@ -27229,10 +27281,10 @@
         <v>35</v>
       </c>
       <c r="J79" s="26">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K79" s="32" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L79" s="32" t="s">
         <v>68</v>
@@ -27294,22 +27346,22 @@
     </row>
     <row r="80" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D80" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G80" s="25">
         <v>403</v>
@@ -27318,19 +27370,19 @@
         <v>7</v>
       </c>
       <c r="I80" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="J80" s="26">
-        <v>1008</v>
-      </c>
-      <c r="K80" s="32" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="J80" s="25">
+        <v>1011</v>
+      </c>
+      <c r="K80" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="L80" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="M80" s="32" t="s">
-        <v>67</v>
+      <c r="M80" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="N80" s="23"/>
       <c r="O80" s="23"/>
@@ -27386,43 +27438,43 @@
     </row>
     <row r="81" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" s="25">
-        <v>403</v>
-      </c>
-      <c r="H81" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I81" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J81" s="25">
-        <v>1011</v>
-      </c>
-      <c r="K81" s="34" t="s">
-        <v>83</v>
+      <c r="I81" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J81" s="10">
+        <v>2506</v>
+      </c>
+      <c r="K81" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="L81" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="M81" s="34" t="s">
-        <v>50</v>
+      <c r="M81" s="32" t="s">
+        <v>53</v>
       </c>
       <c r="N81" s="23"/>
       <c r="O81" s="23"/>
@@ -27476,114 +27528,90 @@
       <c r="BK81" s="23"/>
       <c r="BL81" s="23"/>
     </row>
-    <row r="82" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A82" s="4">
-        <v>71</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G82" s="25">
-        <v>404</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J82" s="10">
-        <v>2506</v>
-      </c>
-      <c r="K82" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="L82" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="M82" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="N82" s="23"/>
-      <c r="O82" s="23"/>
-      <c r="P82" s="23"/>
-      <c r="Q82" s="23"/>
-      <c r="R82" s="23"/>
-      <c r="S82" s="23"/>
-      <c r="T82" s="23"/>
-      <c r="U82" s="23"/>
-      <c r="V82" s="23"/>
-      <c r="W82" s="23"/>
-      <c r="X82" s="23"/>
-      <c r="Y82" s="23"/>
-      <c r="Z82" s="23"/>
-      <c r="AA82" s="23"/>
-      <c r="AB82" s="23"/>
-      <c r="AC82" s="23"/>
-      <c r="AD82" s="23"/>
-      <c r="AE82" s="23"/>
-      <c r="AF82" s="23"/>
-      <c r="AG82" s="23"/>
-      <c r="AH82" s="23"/>
-      <c r="AI82" s="23"/>
-      <c r="AJ82" s="23"/>
-      <c r="AK82" s="23"/>
-      <c r="AL82" s="23"/>
-      <c r="AM82" s="23"/>
-      <c r="AN82" s="23"/>
-      <c r="AO82" s="23"/>
-      <c r="AP82" s="23"/>
-      <c r="AQ82" s="23"/>
-      <c r="AR82" s="23"/>
-      <c r="AS82" s="23"/>
-      <c r="AT82" s="23"/>
-      <c r="AU82" s="23"/>
-      <c r="AV82" s="23"/>
-      <c r="AW82" s="23"/>
-      <c r="AX82" s="23"/>
-      <c r="AY82" s="23"/>
-      <c r="AZ82" s="23"/>
-      <c r="BA82" s="23"/>
-      <c r="BB82" s="23"/>
-      <c r="BC82" s="23"/>
-      <c r="BD82" s="23"/>
-      <c r="BE82" s="23"/>
-      <c r="BF82" s="23"/>
-      <c r="BG82" s="23"/>
-      <c r="BH82" s="23"/>
-      <c r="BI82" s="23"/>
-      <c r="BJ82" s="23"/>
-      <c r="BK82" s="23"/>
-      <c r="BL82" s="23"/>
-    </row>
-    <row r="83" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="B83" s="93"/>
-      <c r="C83" s="93"/>
-      <c r="D83" s="93"/>
-      <c r="E83" s="93"/>
-      <c r="F83" s="93"/>
-      <c r="G83" s="93"/>
-      <c r="H83" s="93"/>
-      <c r="I83" s="93"/>
-      <c r="J83" s="93"/>
-      <c r="K83" s="93"/>
-      <c r="L83" s="93"/>
-      <c r="M83" s="93"/>
+    <row r="82" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" s="95"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="95"/>
+      <c r="F82" s="95"/>
+      <c r="G82" s="95"/>
+      <c r="H82" s="95"/>
+      <c r="I82" s="95"/>
+      <c r="J82" s="95"/>
+      <c r="K82" s="95"/>
+      <c r="L82" s="95"/>
+      <c r="M82" s="95"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="22"/>
+      <c r="T82" s="22"/>
+      <c r="U82" s="22"/>
+      <c r="V82" s="22"/>
+      <c r="W82" s="22"/>
+      <c r="X82" s="22"/>
+      <c r="Y82" s="22"/>
+      <c r="Z82" s="22"/>
+      <c r="AA82" s="22"/>
+      <c r="AB82" s="22"/>
+      <c r="AC82" s="22"/>
+      <c r="AD82" s="22"/>
+      <c r="AE82" s="22"/>
+      <c r="AF82" s="22"/>
+      <c r="AG82" s="22"/>
+      <c r="AH82" s="22"/>
+      <c r="AI82" s="22"/>
+      <c r="AJ82" s="22"/>
+      <c r="AK82" s="22"/>
+      <c r="AL82" s="22"/>
+      <c r="AM82" s="22"/>
+      <c r="AN82" s="22"/>
+      <c r="AO82" s="22"/>
+      <c r="AP82" s="22"/>
+      <c r="AQ82" s="22"/>
+      <c r="AR82" s="22"/>
+      <c r="AS82" s="22"/>
+      <c r="AT82" s="22"/>
+      <c r="AU82" s="22"/>
+      <c r="AV82" s="22"/>
+      <c r="AW82" s="22"/>
+      <c r="AX82" s="22"/>
+      <c r="AY82" s="22"/>
+      <c r="AZ82" s="22"/>
+      <c r="BA82" s="22"/>
+      <c r="BB82" s="22"/>
+      <c r="BC82" s="22"/>
+      <c r="BD82" s="22"/>
+      <c r="BE82" s="22"/>
+      <c r="BF82" s="22"/>
+      <c r="BG82" s="22"/>
+      <c r="BH82" s="22"/>
+      <c r="BI82" s="22"/>
+      <c r="BJ82" s="22"/>
+      <c r="BK82" s="22"/>
+      <c r="BL82" s="22"/>
+    </row>
+    <row r="83" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="100"/>
+      <c r="C83" s="100"/>
+      <c r="D83" s="100"/>
+      <c r="E83" s="100"/>
+      <c r="F83" s="100"/>
+      <c r="G83" s="100"/>
+      <c r="H83" s="100"/>
+      <c r="I83" s="100"/>
+      <c r="J83" s="100"/>
+      <c r="K83" s="100"/>
+      <c r="L83" s="100"/>
+      <c r="M83" s="100"/>
       <c r="N83" s="22"/>
       <c r="O83" s="22"/>
       <c r="P83" s="22"/>
@@ -27636,22 +27664,46 @@
       <c r="BK83" s="22"/>
       <c r="BL83" s="22"/>
     </row>
-    <row r="84" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" s="94"/>
-      <c r="C84" s="94"/>
-      <c r="D84" s="94"/>
-      <c r="E84" s="94"/>
-      <c r="F84" s="94"/>
-      <c r="G84" s="94"/>
-      <c r="H84" s="94"/>
-      <c r="I84" s="94"/>
-      <c r="J84" s="94"/>
-      <c r="K84" s="94"/>
-      <c r="L84" s="94"/>
-      <c r="M84" s="94"/>
+    <row r="84" spans="1:64" s="61" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>72</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G84" s="25">
+        <v>401</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J84" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K84" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="L84" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M84" s="60" t="s">
+        <v>12</v>
+      </c>
       <c r="N84" s="22"/>
       <c r="O84" s="22"/>
       <c r="P84" s="22"/>
@@ -27704,24 +27756,24 @@
       <c r="BK84" s="22"/>
       <c r="BL84" s="22"/>
     </row>
-    <row r="85" spans="1:64" s="61" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G85" s="25">
         <v>401</v>
@@ -27733,15 +27785,15 @@
         <v>38</v>
       </c>
       <c r="J85" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="L85" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M85" s="60" t="s">
+      <c r="M85" s="58" t="s">
         <v>12</v>
       </c>
       <c r="N85" s="22"/>
@@ -27798,22 +27850,22 @@
     </row>
     <row r="86" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G86" s="25">
         <v>401</v>
@@ -27825,15 +27877,15 @@
         <v>38</v>
       </c>
       <c r="J86" s="4">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K86" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L86" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M86" s="58" t="s">
+      <c r="M86" s="32" t="s">
         <v>12</v>
       </c>
       <c r="N86" s="22"/>
@@ -27888,116 +27940,116 @@
       <c r="BK86" s="22"/>
       <c r="BL86" s="22"/>
     </row>
-    <row r="87" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>171</v>
+        <v>148</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G87" s="25">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J87" s="4">
-        <v>1014</v>
-      </c>
-      <c r="K87" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="L87" s="34" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="J87" s="10">
+        <v>1003</v>
+      </c>
+      <c r="K87" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" s="32" t="s">
+        <v>149</v>
       </c>
       <c r="M87" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="22"/>
-      <c r="T87" s="22"/>
-      <c r="U87" s="22"/>
-      <c r="V87" s="22"/>
-      <c r="W87" s="22"/>
-      <c r="X87" s="22"/>
-      <c r="Y87" s="22"/>
-      <c r="Z87" s="22"/>
-      <c r="AA87" s="22"/>
-      <c r="AB87" s="22"/>
-      <c r="AC87" s="22"/>
-      <c r="AD87" s="22"/>
-      <c r="AE87" s="22"/>
-      <c r="AF87" s="22"/>
-      <c r="AG87" s="22"/>
-      <c r="AH87" s="22"/>
-      <c r="AI87" s="22"/>
-      <c r="AJ87" s="22"/>
-      <c r="AK87" s="22"/>
-      <c r="AL87" s="22"/>
-      <c r="AM87" s="22"/>
-      <c r="AN87" s="22"/>
-      <c r="AO87" s="22"/>
-      <c r="AP87" s="22"/>
-      <c r="AQ87" s="22"/>
-      <c r="AR87" s="22"/>
-      <c r="AS87" s="22"/>
-      <c r="AT87" s="22"/>
-      <c r="AU87" s="22"/>
-      <c r="AV87" s="22"/>
-      <c r="AW87" s="22"/>
-      <c r="AX87" s="22"/>
-      <c r="AY87" s="22"/>
-      <c r="AZ87" s="22"/>
-      <c r="BA87" s="22"/>
-      <c r="BB87" s="22"/>
-      <c r="BC87" s="22"/>
-      <c r="BD87" s="22"/>
-      <c r="BE87" s="22"/>
-      <c r="BF87" s="22"/>
-      <c r="BG87" s="22"/>
-      <c r="BH87" s="22"/>
-      <c r="BI87" s="22"/>
-      <c r="BJ87" s="22"/>
-      <c r="BK87" s="22"/>
-      <c r="BL87" s="22"/>
-    </row>
-    <row r="88" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="N87" s="23"/>
+      <c r="O87" s="23"/>
+      <c r="P87" s="23"/>
+      <c r="Q87" s="23"/>
+      <c r="R87" s="23"/>
+      <c r="S87" s="23"/>
+      <c r="T87" s="23"/>
+      <c r="U87" s="23"/>
+      <c r="V87" s="23"/>
+      <c r="W87" s="23"/>
+      <c r="X87" s="23"/>
+      <c r="Y87" s="23"/>
+      <c r="Z87" s="23"/>
+      <c r="AA87" s="23"/>
+      <c r="AB87" s="23"/>
+      <c r="AC87" s="23"/>
+      <c r="AD87" s="23"/>
+      <c r="AE87" s="23"/>
+      <c r="AF87" s="23"/>
+      <c r="AG87" s="23"/>
+      <c r="AH87" s="23"/>
+      <c r="AI87" s="23"/>
+      <c r="AJ87" s="23"/>
+      <c r="AK87" s="23"/>
+      <c r="AL87" s="23"/>
+      <c r="AM87" s="23"/>
+      <c r="AN87" s="23"/>
+      <c r="AO87" s="23"/>
+      <c r="AP87" s="23"/>
+      <c r="AQ87" s="23"/>
+      <c r="AR87" s="23"/>
+      <c r="AS87" s="23"/>
+      <c r="AT87" s="23"/>
+      <c r="AU87" s="23"/>
+      <c r="AV87" s="23"/>
+      <c r="AW87" s="23"/>
+      <c r="AX87" s="23"/>
+      <c r="AY87" s="23"/>
+      <c r="AZ87" s="23"/>
+      <c r="BA87" s="23"/>
+      <c r="BB87" s="23"/>
+      <c r="BC87" s="23"/>
+      <c r="BD87" s="23"/>
+      <c r="BE87" s="23"/>
+      <c r="BF87" s="23"/>
+      <c r="BG87" s="23"/>
+      <c r="BH87" s="23"/>
+      <c r="BI87" s="23"/>
+      <c r="BJ87" s="23"/>
+      <c r="BK87" s="23"/>
+      <c r="BL87" s="23"/>
+    </row>
+    <row r="88" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G88" s="25">
         <v>400</v>
@@ -28006,16 +28058,16 @@
         <v>7</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J88" s="10">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="K88" s="32" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L88" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M88" s="32" t="s">
         <v>51</v>
@@ -28072,24 +28124,24 @@
       <c r="BK88" s="23"/>
       <c r="BL88" s="23"/>
     </row>
-    <row r="89" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G89" s="25">
         <v>400</v>
@@ -28098,16 +28150,16 @@
         <v>7</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J89" s="10">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="K89" s="32" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L89" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M89" s="32" t="s">
         <v>51</v>
@@ -28164,145 +28216,145 @@
       <c r="BK89" s="23"/>
       <c r="BL89" s="23"/>
     </row>
-    <row r="90" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:64" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D90" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C90" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G90" s="25">
+      <c r="E90" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="F90" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="G90" s="64">
         <v>400</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H90" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I90" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J90" s="10">
-        <v>1005</v>
-      </c>
-      <c r="K90" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L90" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="M90" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="N90" s="23"/>
-      <c r="O90" s="23"/>
-      <c r="P90" s="23"/>
-      <c r="Q90" s="23"/>
-      <c r="R90" s="23"/>
-      <c r="S90" s="23"/>
-      <c r="T90" s="23"/>
-      <c r="U90" s="23"/>
-      <c r="V90" s="23"/>
-      <c r="W90" s="23"/>
-      <c r="X90" s="23"/>
-      <c r="Y90" s="23"/>
-      <c r="Z90" s="23"/>
-      <c r="AA90" s="23"/>
-      <c r="AB90" s="23"/>
-      <c r="AC90" s="23"/>
-      <c r="AD90" s="23"/>
-      <c r="AE90" s="23"/>
-      <c r="AF90" s="23"/>
-      <c r="AG90" s="23"/>
-      <c r="AH90" s="23"/>
-      <c r="AI90" s="23"/>
-      <c r="AJ90" s="23"/>
-      <c r="AK90" s="23"/>
-      <c r="AL90" s="23"/>
-      <c r="AM90" s="23"/>
-      <c r="AN90" s="23"/>
-      <c r="AO90" s="23"/>
-      <c r="AP90" s="23"/>
-      <c r="AQ90" s="23"/>
-      <c r="AR90" s="23"/>
-      <c r="AS90" s="23"/>
-      <c r="AT90" s="23"/>
-      <c r="AU90" s="23"/>
-      <c r="AV90" s="23"/>
-      <c r="AW90" s="23"/>
-      <c r="AX90" s="23"/>
-      <c r="AY90" s="23"/>
-      <c r="AZ90" s="23"/>
-      <c r="BA90" s="23"/>
-      <c r="BB90" s="23"/>
-      <c r="BC90" s="23"/>
-      <c r="BD90" s="23"/>
-      <c r="BE90" s="23"/>
-      <c r="BF90" s="23"/>
-      <c r="BG90" s="23"/>
-      <c r="BH90" s="23"/>
-      <c r="BI90" s="23"/>
-      <c r="BJ90" s="23"/>
-      <c r="BK90" s="23"/>
-      <c r="BL90" s="23"/>
-    </row>
-    <row r="91" spans="1:64" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I90" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" s="65">
+        <v>1015</v>
+      </c>
+      <c r="K90" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="L90" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="M90" s="66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C91" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="D91" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="F91" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="G91" s="64">
-        <v>400</v>
-      </c>
-      <c r="H91" s="65" t="s">
+      <c r="E91" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G91" s="25">
+        <v>403</v>
+      </c>
+      <c r="H91" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I91" s="64" t="s">
+      <c r="I91" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J91" s="65">
-        <v>1015</v>
-      </c>
-      <c r="K91" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="L91" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="M91" s="66" t="s">
-        <v>12</v>
-      </c>
+      <c r="J91" s="10">
+        <v>1006</v>
+      </c>
+      <c r="K91" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L91" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="M91" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="23"/>
+      <c r="S91" s="23"/>
+      <c r="T91" s="23"/>
+      <c r="U91" s="23"/>
+      <c r="V91" s="23"/>
+      <c r="W91" s="23"/>
+      <c r="X91" s="23"/>
+      <c r="Y91" s="23"/>
+      <c r="Z91" s="23"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="23"/>
+      <c r="AE91" s="23"/>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="23"/>
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="23"/>
+      <c r="AJ91" s="23"/>
+      <c r="AK91" s="23"/>
+      <c r="AL91" s="23"/>
+      <c r="AM91" s="23"/>
+      <c r="AN91" s="23"/>
+      <c r="AO91" s="23"/>
+      <c r="AP91" s="23"/>
+      <c r="AQ91" s="23"/>
+      <c r="AR91" s="23"/>
+      <c r="AS91" s="23"/>
+      <c r="AT91" s="23"/>
+      <c r="AU91" s="23"/>
+      <c r="AV91" s="23"/>
+      <c r="AW91" s="23"/>
+      <c r="AX91" s="23"/>
+      <c r="AY91" s="23"/>
+      <c r="AZ91" s="23"/>
+      <c r="BA91" s="23"/>
+      <c r="BB91" s="23"/>
+      <c r="BC91" s="23"/>
+      <c r="BD91" s="23"/>
+      <c r="BE91" s="23"/>
+      <c r="BF91" s="23"/>
+      <c r="BG91" s="23"/>
+      <c r="BH91" s="23"/>
+      <c r="BI91" s="23"/>
+      <c r="BJ91" s="23"/>
+      <c r="BK91" s="23"/>
+      <c r="BL91" s="23"/>
     </row>
     <row r="92" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>100</v>
@@ -28311,10 +28363,10 @@
         <v>12</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G92" s="25">
         <v>403</v>
@@ -28323,16 +28375,16 @@
         <v>7</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J92" s="10">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K92" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L92" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M92" s="32" t="s">
         <v>67</v>
@@ -28389,12 +28441,12 @@
       <c r="BK92" s="23"/>
       <c r="BL92" s="23"/>
     </row>
-    <row r="93" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>101</v>
@@ -28403,10 +28455,10 @@
         <v>12</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G93" s="25">
         <v>403</v>
@@ -28418,13 +28470,13 @@
         <v>35</v>
       </c>
       <c r="J93" s="10">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K93" s="32" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L93" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M93" s="32" t="s">
         <v>67</v>
@@ -28483,22 +28535,22 @@
     </row>
     <row r="94" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B94" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D94" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D94" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G94" s="25">
         <v>403</v>
@@ -28507,16 +28559,16 @@
         <v>7</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J94" s="10">
-        <v>1008</v>
-      </c>
-      <c r="K94" s="32" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="J94" s="4">
+        <v>1011</v>
+      </c>
+      <c r="K94" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="L94" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M94" s="32" t="s">
         <v>67</v>
@@ -28575,25 +28627,25 @@
     </row>
     <row r="95" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B95" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D95" s="25" t="s">
+      <c r="D95" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G95" s="25">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>7</v>
@@ -28601,17 +28653,17 @@
       <c r="I95" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J95" s="4">
-        <v>1011</v>
-      </c>
-      <c r="K95" s="34" t="s">
-        <v>83</v>
+      <c r="J95" s="10">
+        <v>3001</v>
+      </c>
+      <c r="K95" s="32" t="s">
+        <v>151</v>
       </c>
       <c r="L95" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M95" s="32" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="N95" s="23"/>
       <c r="O95" s="23"/>
@@ -28665,24 +28717,24 @@
       <c r="BK95" s="23"/>
       <c r="BL95" s="23"/>
     </row>
-    <row r="96" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B96" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G96" s="25">
         <v>400</v>
@@ -28691,19 +28743,19 @@
         <v>7</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="J96" s="10">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="K96" s="32" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="L96" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M96" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N96" s="23"/>
       <c r="O96" s="23"/>
@@ -28757,24 +28809,24 @@
       <c r="BK96" s="23"/>
       <c r="BL96" s="23"/>
     </row>
-    <row r="97" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B97" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G97" s="25">
         <v>400</v>
@@ -28785,14 +28837,14 @@
       <c r="I97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J97" s="10">
-        <v>3002</v>
-      </c>
-      <c r="K97" s="32" t="s">
-        <v>31</v>
+      <c r="J97" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K97" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="L97" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M97" s="32" t="s">
         <v>74</v>
@@ -28849,274 +28901,250 @@
       <c r="BK97" s="23"/>
       <c r="BL97" s="23"/>
     </row>
-    <row r="98" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A98" s="4">
-        <v>84</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D98" s="4" t="s">
+    <row r="98" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="100"/>
+      <c r="C98" s="100"/>
+      <c r="D98" s="100"/>
+      <c r="E98" s="100"/>
+      <c r="F98" s="100"/>
+      <c r="G98" s="100"/>
+      <c r="H98" s="100"/>
+      <c r="I98" s="100"/>
+      <c r="J98" s="100"/>
+      <c r="K98" s="100"/>
+      <c r="L98" s="100"/>
+      <c r="M98" s="100"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="22"/>
+      <c r="Q98" s="22"/>
+      <c r="R98" s="22"/>
+      <c r="S98" s="22"/>
+      <c r="T98" s="22"/>
+      <c r="U98" s="22"/>
+      <c r="V98" s="22"/>
+      <c r="W98" s="22"/>
+      <c r="X98" s="22"/>
+      <c r="Y98" s="22"/>
+      <c r="Z98" s="22"/>
+      <c r="AA98" s="22"/>
+      <c r="AB98" s="22"/>
+      <c r="AC98" s="22"/>
+      <c r="AD98" s="22"/>
+      <c r="AE98" s="22"/>
+      <c r="AF98" s="22"/>
+      <c r="AG98" s="22"/>
+      <c r="AH98" s="22"/>
+      <c r="AI98" s="22"/>
+      <c r="AJ98" s="22"/>
+      <c r="AK98" s="22"/>
+      <c r="AL98" s="22"/>
+      <c r="AM98" s="22"/>
+      <c r="AN98" s="22"/>
+      <c r="AO98" s="22"/>
+      <c r="AP98" s="22"/>
+      <c r="AQ98" s="22"/>
+      <c r="AR98" s="22"/>
+      <c r="AS98" s="22"/>
+      <c r="AT98" s="22"/>
+      <c r="AU98" s="22"/>
+      <c r="AV98" s="22"/>
+      <c r="AW98" s="22"/>
+      <c r="AX98" s="22"/>
+      <c r="AY98" s="22"/>
+      <c r="AZ98" s="22"/>
+      <c r="BA98" s="22"/>
+      <c r="BB98" s="22"/>
+      <c r="BC98" s="22"/>
+      <c r="BD98" s="22"/>
+      <c r="BE98" s="22"/>
+      <c r="BF98" s="22"/>
+      <c r="BG98" s="22"/>
+      <c r="BH98" s="22"/>
+      <c r="BI98" s="22"/>
+      <c r="BJ98" s="22"/>
+      <c r="BK98" s="22"/>
+      <c r="BL98" s="22"/>
+    </row>
+    <row r="99" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>85</v>
+      </c>
+      <c r="B99" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99" s="4">
+        <v>8</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G99" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G98" s="25">
-        <v>400</v>
-      </c>
-      <c r="H98" s="4" t="s">
+      <c r="H99" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I98" s="4" t="s">
+      <c r="I99" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J98" s="4">
-        <v>1012</v>
-      </c>
-      <c r="K98" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="L98" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="M98" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="N98" s="23"/>
-      <c r="O98" s="23"/>
-      <c r="P98" s="23"/>
-      <c r="Q98" s="23"/>
-      <c r="R98" s="23"/>
-      <c r="S98" s="23"/>
-      <c r="T98" s="23"/>
-      <c r="U98" s="23"/>
-      <c r="V98" s="23"/>
-      <c r="W98" s="23"/>
-      <c r="X98" s="23"/>
-      <c r="Y98" s="23"/>
-      <c r="Z98" s="23"/>
-      <c r="AA98" s="23"/>
-      <c r="AB98" s="23"/>
-      <c r="AC98" s="23"/>
-      <c r="AD98" s="23"/>
-      <c r="AE98" s="23"/>
-      <c r="AF98" s="23"/>
-      <c r="AG98" s="23"/>
-      <c r="AH98" s="23"/>
-      <c r="AI98" s="23"/>
-      <c r="AJ98" s="23"/>
-      <c r="AK98" s="23"/>
-      <c r="AL98" s="23"/>
-      <c r="AM98" s="23"/>
-      <c r="AN98" s="23"/>
-      <c r="AO98" s="23"/>
-      <c r="AP98" s="23"/>
-      <c r="AQ98" s="23"/>
-      <c r="AR98" s="23"/>
-      <c r="AS98" s="23"/>
-      <c r="AT98" s="23"/>
-      <c r="AU98" s="23"/>
-      <c r="AV98" s="23"/>
-      <c r="AW98" s="23"/>
-      <c r="AX98" s="23"/>
-      <c r="AY98" s="23"/>
-      <c r="AZ98" s="23"/>
-      <c r="BA98" s="23"/>
-      <c r="BB98" s="23"/>
-      <c r="BC98" s="23"/>
-      <c r="BD98" s="23"/>
-      <c r="BE98" s="23"/>
-      <c r="BF98" s="23"/>
-      <c r="BG98" s="23"/>
-      <c r="BH98" s="23"/>
-      <c r="BI98" s="23"/>
-      <c r="BJ98" s="23"/>
-      <c r="BK98" s="23"/>
-      <c r="BL98" s="23"/>
-    </row>
-    <row r="99" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="B99" s="94"/>
-      <c r="C99" s="94"/>
-      <c r="D99" s="94"/>
-      <c r="E99" s="94"/>
-      <c r="F99" s="94"/>
-      <c r="G99" s="94"/>
-      <c r="H99" s="94"/>
-      <c r="I99" s="94"/>
-      <c r="J99" s="94"/>
-      <c r="K99" s="94"/>
-      <c r="L99" s="94"/>
-      <c r="M99" s="94"/>
-      <c r="N99" s="22"/>
-      <c r="O99" s="22"/>
-      <c r="P99" s="22"/>
-      <c r="Q99" s="22"/>
-      <c r="R99" s="22"/>
-      <c r="S99" s="22"/>
-      <c r="T99" s="22"/>
-      <c r="U99" s="22"/>
-      <c r="V99" s="22"/>
-      <c r="W99" s="22"/>
-      <c r="X99" s="22"/>
-      <c r="Y99" s="22"/>
-      <c r="Z99" s="22"/>
-      <c r="AA99" s="22"/>
-      <c r="AB99" s="22"/>
-      <c r="AC99" s="22"/>
-      <c r="AD99" s="22"/>
-      <c r="AE99" s="22"/>
-      <c r="AF99" s="22"/>
-      <c r="AG99" s="22"/>
-      <c r="AH99" s="22"/>
-      <c r="AI99" s="22"/>
-      <c r="AJ99" s="22"/>
-      <c r="AK99" s="22"/>
-      <c r="AL99" s="22"/>
-      <c r="AM99" s="22"/>
-      <c r="AN99" s="22"/>
-      <c r="AO99" s="22"/>
-      <c r="AP99" s="22"/>
-      <c r="AQ99" s="22"/>
-      <c r="AR99" s="22"/>
-      <c r="AS99" s="22"/>
-      <c r="AT99" s="22"/>
-      <c r="AU99" s="22"/>
-      <c r="AV99" s="22"/>
-      <c r="AW99" s="22"/>
-      <c r="AX99" s="22"/>
-      <c r="AY99" s="22"/>
-      <c r="AZ99" s="22"/>
-      <c r="BA99" s="22"/>
-      <c r="BB99" s="22"/>
-      <c r="BC99" s="22"/>
-      <c r="BD99" s="22"/>
-      <c r="BE99" s="22"/>
-      <c r="BF99" s="22"/>
-      <c r="BG99" s="22"/>
-      <c r="BH99" s="22"/>
-      <c r="BI99" s="22"/>
-      <c r="BJ99" s="22"/>
-      <c r="BK99" s="22"/>
-      <c r="BL99" s="22"/>
-    </row>
-    <row r="100" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
-        <v>85</v>
-      </c>
-      <c r="B100" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D100" s="4">
-        <v>8</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F100" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G100" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J100" s="4">
+      <c r="J99" s="4">
         <v>1010</v>
       </c>
-      <c r="K100" s="32" t="s">
+      <c r="K99" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L100" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="M100" s="32" t="s">
+      <c r="L99" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="M99" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="N100" s="23"/>
-      <c r="O100" s="23"/>
-      <c r="P100" s="23"/>
-      <c r="Q100" s="23"/>
-      <c r="R100" s="23"/>
-      <c r="S100" s="23"/>
-      <c r="T100" s="23"/>
-      <c r="U100" s="23"/>
-      <c r="V100" s="23"/>
-      <c r="W100" s="23"/>
-      <c r="X100" s="23"/>
-      <c r="Y100" s="23"/>
-      <c r="Z100" s="23"/>
-      <c r="AA100" s="23"/>
-      <c r="AB100" s="23"/>
-      <c r="AC100" s="23"/>
-      <c r="AD100" s="23"/>
-      <c r="AE100" s="23"/>
-      <c r="AF100" s="23"/>
-      <c r="AG100" s="23"/>
-      <c r="AH100" s="23"/>
-      <c r="AI100" s="23"/>
-      <c r="AJ100" s="23"/>
-      <c r="AK100" s="23"/>
-      <c r="AL100" s="23"/>
-      <c r="AM100" s="23"/>
-      <c r="AN100" s="23"/>
-      <c r="AO100" s="23"/>
-      <c r="AP100" s="23"/>
-      <c r="AQ100" s="23"/>
-      <c r="AR100" s="23"/>
-      <c r="AS100" s="23"/>
-      <c r="AT100" s="23"/>
-      <c r="AU100" s="23"/>
-      <c r="AV100" s="23"/>
-      <c r="AW100" s="23"/>
-      <c r="AX100" s="23"/>
-      <c r="AY100" s="23"/>
-      <c r="AZ100" s="23"/>
-      <c r="BA100" s="23"/>
-      <c r="BB100" s="23"/>
-      <c r="BC100" s="23"/>
-      <c r="BD100" s="23"/>
-      <c r="BE100" s="23"/>
-      <c r="BF100" s="23"/>
-      <c r="BG100" s="23"/>
-      <c r="BH100" s="23"/>
-      <c r="BI100" s="23"/>
-      <c r="BJ100" s="23"/>
-      <c r="BK100" s="23"/>
-      <c r="BL100" s="23"/>
-    </row>
-    <row r="101" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="93" t="s">
-        <v>154</v>
-      </c>
-      <c r="B101" s="93"/>
-      <c r="C101" s="93"/>
-      <c r="D101" s="93"/>
-      <c r="E101" s="93"/>
-      <c r="F101" s="93"/>
-      <c r="G101" s="93"/>
-      <c r="H101" s="93"/>
-      <c r="I101" s="93"/>
-      <c r="J101" s="93"/>
-      <c r="K101" s="93"/>
-      <c r="L101" s="93"/>
-      <c r="M101" s="93"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="23"/>
+      <c r="P99" s="23"/>
+      <c r="Q99" s="23"/>
+      <c r="R99" s="23"/>
+      <c r="S99" s="23"/>
+      <c r="T99" s="23"/>
+      <c r="U99" s="23"/>
+      <c r="V99" s="23"/>
+      <c r="W99" s="23"/>
+      <c r="X99" s="23"/>
+      <c r="Y99" s="23"/>
+      <c r="Z99" s="23"/>
+      <c r="AA99" s="23"/>
+      <c r="AB99" s="23"/>
+      <c r="AC99" s="23"/>
+      <c r="AD99" s="23"/>
+      <c r="AE99" s="23"/>
+      <c r="AF99" s="23"/>
+      <c r="AG99" s="23"/>
+      <c r="AH99" s="23"/>
+      <c r="AI99" s="23"/>
+      <c r="AJ99" s="23"/>
+      <c r="AK99" s="23"/>
+      <c r="AL99" s="23"/>
+      <c r="AM99" s="23"/>
+      <c r="AN99" s="23"/>
+      <c r="AO99" s="23"/>
+      <c r="AP99" s="23"/>
+      <c r="AQ99" s="23"/>
+      <c r="AR99" s="23"/>
+      <c r="AS99" s="23"/>
+      <c r="AT99" s="23"/>
+      <c r="AU99" s="23"/>
+      <c r="AV99" s="23"/>
+      <c r="AW99" s="23"/>
+      <c r="AX99" s="23"/>
+      <c r="AY99" s="23"/>
+      <c r="AZ99" s="23"/>
+      <c r="BA99" s="23"/>
+      <c r="BB99" s="23"/>
+      <c r="BC99" s="23"/>
+      <c r="BD99" s="23"/>
+      <c r="BE99" s="23"/>
+      <c r="BF99" s="23"/>
+      <c r="BG99" s="23"/>
+      <c r="BH99" s="23"/>
+      <c r="BI99" s="23"/>
+      <c r="BJ99" s="23"/>
+      <c r="BK99" s="23"/>
+      <c r="BL99" s="23"/>
+    </row>
+    <row r="100" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="B100" s="95"/>
+      <c r="C100" s="95"/>
+      <c r="D100" s="95"/>
+      <c r="E100" s="95"/>
+      <c r="F100" s="95"/>
+      <c r="G100" s="95"/>
+      <c r="H100" s="95"/>
+      <c r="I100" s="95"/>
+      <c r="J100" s="95"/>
+      <c r="K100" s="95"/>
+      <c r="L100" s="95"/>
+      <c r="M100" s="95"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="22"/>
+      <c r="Q100" s="22"/>
+      <c r="R100" s="22"/>
+      <c r="S100" s="22"/>
+      <c r="T100" s="22"/>
+      <c r="U100" s="22"/>
+      <c r="V100" s="22"/>
+      <c r="W100" s="22"/>
+      <c r="X100" s="22"/>
+      <c r="Y100" s="22"/>
+      <c r="Z100" s="22"/>
+      <c r="AA100" s="22"/>
+      <c r="AB100" s="22"/>
+      <c r="AC100" s="22"/>
+      <c r="AD100" s="22"/>
+      <c r="AE100" s="22"/>
+      <c r="AF100" s="22"/>
+      <c r="AG100" s="22"/>
+      <c r="AH100" s="22"/>
+      <c r="AI100" s="22"/>
+      <c r="AJ100" s="22"/>
+      <c r="AK100" s="22"/>
+      <c r="AL100" s="22"/>
+      <c r="AM100" s="22"/>
+      <c r="AN100" s="22"/>
+      <c r="AO100" s="22"/>
+      <c r="AP100" s="22"/>
+      <c r="AQ100" s="22"/>
+      <c r="AR100" s="22"/>
+      <c r="AS100" s="22"/>
+      <c r="AT100" s="22"/>
+      <c r="AU100" s="22"/>
+      <c r="AV100" s="22"/>
+      <c r="AW100" s="22"/>
+      <c r="AX100" s="22"/>
+      <c r="AY100" s="22"/>
+      <c r="AZ100" s="22"/>
+      <c r="BA100" s="22"/>
+      <c r="BB100" s="22"/>
+      <c r="BC100" s="22"/>
+      <c r="BD100" s="22"/>
+      <c r="BE100" s="22"/>
+      <c r="BF100" s="22"/>
+      <c r="BG100" s="22"/>
+      <c r="BH100" s="22"/>
+      <c r="BI100" s="22"/>
+      <c r="BJ100" s="22"/>
+      <c r="BK100" s="22"/>
+      <c r="BL100" s="22"/>
+    </row>
+    <row r="101" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="B101" s="100"/>
+      <c r="C101" s="100"/>
+      <c r="D101" s="100"/>
+      <c r="E101" s="100"/>
+      <c r="F101" s="100"/>
+      <c r="G101" s="100"/>
+      <c r="H101" s="100"/>
+      <c r="I101" s="100"/>
+      <c r="J101" s="100"/>
+      <c r="K101" s="100"/>
+      <c r="L101" s="100"/>
+      <c r="M101" s="100"/>
       <c r="N101" s="22"/>
       <c r="O101" s="22"/>
       <c r="P101" s="22"/>
@@ -29169,22 +29197,46 @@
       <c r="BK101" s="22"/>
       <c r="BL101" s="22"/>
     </row>
-    <row r="102" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="B102" s="94"/>
-      <c r="C102" s="94"/>
-      <c r="D102" s="94"/>
-      <c r="E102" s="94"/>
-      <c r="F102" s="94"/>
-      <c r="G102" s="94"/>
-      <c r="H102" s="94"/>
-      <c r="I102" s="94"/>
-      <c r="J102" s="94"/>
-      <c r="K102" s="94"/>
-      <c r="L102" s="94"/>
-      <c r="M102" s="94"/>
+    <row r="102" spans="1:64" s="61" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>86</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C102" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G102" s="25">
+        <v>401</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J102" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K102" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="L102" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M102" s="60" t="s">
+        <v>12</v>
+      </c>
       <c r="N102" s="22"/>
       <c r="O102" s="22"/>
       <c r="P102" s="22"/>
@@ -29237,24 +29289,24 @@
       <c r="BK102" s="22"/>
       <c r="BL102" s="22"/>
     </row>
-    <row r="103" spans="1:64" s="61" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C103" s="62" t="s">
-        <v>178</v>
+        <v>153</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G103" s="25">
         <v>401</v>
@@ -29266,15 +29318,15 @@
         <v>38</v>
       </c>
       <c r="J103" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="K103" s="24" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="L103" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M103" s="60" t="s">
+      <c r="M103" s="58" t="s">
         <v>12</v>
       </c>
       <c r="N103" s="22"/>
@@ -29331,22 +29383,22 @@
     </row>
     <row r="104" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G104" s="25">
         <v>401</v>
@@ -29358,15 +29410,15 @@
         <v>38</v>
       </c>
       <c r="J104" s="4">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K104" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L104" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M104" s="58" t="s">
+      <c r="M104" s="32" t="s">
         <v>12</v>
       </c>
       <c r="N104" s="22"/>
@@ -29421,116 +29473,116 @@
       <c r="BK104" s="22"/>
       <c r="BL104" s="22"/>
     </row>
-    <row r="105" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>171</v>
+        <v>153</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G105" s="25">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J105" s="4">
-        <v>1014</v>
-      </c>
-      <c r="K105" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="L105" s="34" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="J105" s="10">
+        <v>1003</v>
+      </c>
+      <c r="K105" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L105" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="M105" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N105" s="22"/>
-      <c r="O105" s="22"/>
-      <c r="P105" s="22"/>
-      <c r="Q105" s="22"/>
-      <c r="R105" s="22"/>
-      <c r="S105" s="22"/>
-      <c r="T105" s="22"/>
-      <c r="U105" s="22"/>
-      <c r="V105" s="22"/>
-      <c r="W105" s="22"/>
-      <c r="X105" s="22"/>
-      <c r="Y105" s="22"/>
-      <c r="Z105" s="22"/>
-      <c r="AA105" s="22"/>
-      <c r="AB105" s="22"/>
-      <c r="AC105" s="22"/>
-      <c r="AD105" s="22"/>
-      <c r="AE105" s="22"/>
-      <c r="AF105" s="22"/>
-      <c r="AG105" s="22"/>
-      <c r="AH105" s="22"/>
-      <c r="AI105" s="22"/>
-      <c r="AJ105" s="22"/>
-      <c r="AK105" s="22"/>
-      <c r="AL105" s="22"/>
-      <c r="AM105" s="22"/>
-      <c r="AN105" s="22"/>
-      <c r="AO105" s="22"/>
-      <c r="AP105" s="22"/>
-      <c r="AQ105" s="22"/>
-      <c r="AR105" s="22"/>
-      <c r="AS105" s="22"/>
-      <c r="AT105" s="22"/>
-      <c r="AU105" s="22"/>
-      <c r="AV105" s="22"/>
-      <c r="AW105" s="22"/>
-      <c r="AX105" s="22"/>
-      <c r="AY105" s="22"/>
-      <c r="AZ105" s="22"/>
-      <c r="BA105" s="22"/>
-      <c r="BB105" s="22"/>
-      <c r="BC105" s="22"/>
-      <c r="BD105" s="22"/>
-      <c r="BE105" s="22"/>
-      <c r="BF105" s="22"/>
-      <c r="BG105" s="22"/>
-      <c r="BH105" s="22"/>
-      <c r="BI105" s="22"/>
-      <c r="BJ105" s="22"/>
-      <c r="BK105" s="22"/>
-      <c r="BL105" s="22"/>
-    </row>
-    <row r="106" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="N105" s="23"/>
+      <c r="O105" s="23"/>
+      <c r="P105" s="23"/>
+      <c r="Q105" s="23"/>
+      <c r="R105" s="23"/>
+      <c r="S105" s="23"/>
+      <c r="T105" s="23"/>
+      <c r="U105" s="23"/>
+      <c r="V105" s="23"/>
+      <c r="W105" s="23"/>
+      <c r="X105" s="23"/>
+      <c r="Y105" s="23"/>
+      <c r="Z105" s="23"/>
+      <c r="AA105" s="23"/>
+      <c r="AB105" s="23"/>
+      <c r="AC105" s="23"/>
+      <c r="AD105" s="23"/>
+      <c r="AE105" s="23"/>
+      <c r="AF105" s="23"/>
+      <c r="AG105" s="23"/>
+      <c r="AH105" s="23"/>
+      <c r="AI105" s="23"/>
+      <c r="AJ105" s="23"/>
+      <c r="AK105" s="23"/>
+      <c r="AL105" s="23"/>
+      <c r="AM105" s="23"/>
+      <c r="AN105" s="23"/>
+      <c r="AO105" s="23"/>
+      <c r="AP105" s="23"/>
+      <c r="AQ105" s="23"/>
+      <c r="AR105" s="23"/>
+      <c r="AS105" s="23"/>
+      <c r="AT105" s="23"/>
+      <c r="AU105" s="23"/>
+      <c r="AV105" s="23"/>
+      <c r="AW105" s="23"/>
+      <c r="AX105" s="23"/>
+      <c r="AY105" s="23"/>
+      <c r="AZ105" s="23"/>
+      <c r="BA105" s="23"/>
+      <c r="BB105" s="23"/>
+      <c r="BC105" s="23"/>
+      <c r="BD105" s="23"/>
+      <c r="BE105" s="23"/>
+      <c r="BF105" s="23"/>
+      <c r="BG105" s="23"/>
+      <c r="BH105" s="23"/>
+      <c r="BI105" s="23"/>
+      <c r="BJ105" s="23"/>
+      <c r="BK105" s="23"/>
+      <c r="BL105" s="23"/>
+    </row>
+    <row r="106" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G106" s="25">
         <v>400</v>
@@ -29539,16 +29591,16 @@
         <v>7</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J106" s="10">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="K106" s="32" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L106" s="32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M106" s="32" t="s">
         <v>51</v>
@@ -29605,24 +29657,24 @@
       <c r="BK106" s="23"/>
       <c r="BL106" s="23"/>
     </row>
-    <row r="107" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G107" s="25">
         <v>400</v>
@@ -29631,16 +29683,16 @@
         <v>7</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J107" s="10">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="K107" s="32" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L107" s="32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M107" s="32" t="s">
         <v>51</v>
@@ -29697,145 +29749,145 @@
       <c r="BK107" s="23"/>
       <c r="BL107" s="23"/>
     </row>
-    <row r="108" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:64" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D108" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D108" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G108" s="25">
+      <c r="E108" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="F108" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="G108" s="64">
         <v>400</v>
       </c>
-      <c r="H108" s="4" t="s">
+      <c r="H108" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I108" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J108" s="10">
-        <v>1005</v>
-      </c>
-      <c r="K108" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L108" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="M108" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="N108" s="23"/>
-      <c r="O108" s="23"/>
-      <c r="P108" s="23"/>
-      <c r="Q108" s="23"/>
-      <c r="R108" s="23"/>
-      <c r="S108" s="23"/>
-      <c r="T108" s="23"/>
-      <c r="U108" s="23"/>
-      <c r="V108" s="23"/>
-      <c r="W108" s="23"/>
-      <c r="X108" s="23"/>
-      <c r="Y108" s="23"/>
-      <c r="Z108" s="23"/>
-      <c r="AA108" s="23"/>
-      <c r="AB108" s="23"/>
-      <c r="AC108" s="23"/>
-      <c r="AD108" s="23"/>
-      <c r="AE108" s="23"/>
-      <c r="AF108" s="23"/>
-      <c r="AG108" s="23"/>
-      <c r="AH108" s="23"/>
-      <c r="AI108" s="23"/>
-      <c r="AJ108" s="23"/>
-      <c r="AK108" s="23"/>
-      <c r="AL108" s="23"/>
-      <c r="AM108" s="23"/>
-      <c r="AN108" s="23"/>
-      <c r="AO108" s="23"/>
-      <c r="AP108" s="23"/>
-      <c r="AQ108" s="23"/>
-      <c r="AR108" s="23"/>
-      <c r="AS108" s="23"/>
-      <c r="AT108" s="23"/>
-      <c r="AU108" s="23"/>
-      <c r="AV108" s="23"/>
-      <c r="AW108" s="23"/>
-      <c r="AX108" s="23"/>
-      <c r="AY108" s="23"/>
-      <c r="AZ108" s="23"/>
-      <c r="BA108" s="23"/>
-      <c r="BB108" s="23"/>
-      <c r="BC108" s="23"/>
-      <c r="BD108" s="23"/>
-      <c r="BE108" s="23"/>
-      <c r="BF108" s="23"/>
-      <c r="BG108" s="23"/>
-      <c r="BH108" s="23"/>
-      <c r="BI108" s="23"/>
-      <c r="BJ108" s="23"/>
-      <c r="BK108" s="23"/>
-      <c r="BL108" s="23"/>
-    </row>
-    <row r="109" spans="1:64" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I108" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="J108" s="65">
+        <v>1015</v>
+      </c>
+      <c r="K108" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="L108" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="M108" s="66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C109" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="D109" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="F109" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="G109" s="64">
-        <v>400</v>
-      </c>
-      <c r="H109" s="65" t="s">
+      <c r="E109" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G109" s="25">
+        <v>404</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I109" s="64" t="s">
+      <c r="I109" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J109" s="65">
-        <v>1015</v>
-      </c>
-      <c r="K109" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="L109" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="M109" s="66" t="s">
-        <v>12</v>
-      </c>
+      <c r="J109" s="10">
+        <v>1006</v>
+      </c>
+      <c r="K109" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L109" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="M109" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="N109" s="23"/>
+      <c r="O109" s="23"/>
+      <c r="P109" s="23"/>
+      <c r="Q109" s="23"/>
+      <c r="R109" s="23"/>
+      <c r="S109" s="23"/>
+      <c r="T109" s="23"/>
+      <c r="U109" s="23"/>
+      <c r="V109" s="23"/>
+      <c r="W109" s="23"/>
+      <c r="X109" s="23"/>
+      <c r="Y109" s="23"/>
+      <c r="Z109" s="23"/>
+      <c r="AA109" s="23"/>
+      <c r="AB109" s="23"/>
+      <c r="AC109" s="23"/>
+      <c r="AD109" s="23"/>
+      <c r="AE109" s="23"/>
+      <c r="AF109" s="23"/>
+      <c r="AG109" s="23"/>
+      <c r="AH109" s="23"/>
+      <c r="AI109" s="23"/>
+      <c r="AJ109" s="23"/>
+      <c r="AK109" s="23"/>
+      <c r="AL109" s="23"/>
+      <c r="AM109" s="23"/>
+      <c r="AN109" s="23"/>
+      <c r="AO109" s="23"/>
+      <c r="AP109" s="23"/>
+      <c r="AQ109" s="23"/>
+      <c r="AR109" s="23"/>
+      <c r="AS109" s="23"/>
+      <c r="AT109" s="23"/>
+      <c r="AU109" s="23"/>
+      <c r="AV109" s="23"/>
+      <c r="AW109" s="23"/>
+      <c r="AX109" s="23"/>
+      <c r="AY109" s="23"/>
+      <c r="AZ109" s="23"/>
+      <c r="BA109" s="23"/>
+      <c r="BB109" s="23"/>
+      <c r="BC109" s="23"/>
+      <c r="BD109" s="23"/>
+      <c r="BE109" s="23"/>
+      <c r="BF109" s="23"/>
+      <c r="BG109" s="23"/>
+      <c r="BH109" s="23"/>
+      <c r="BI109" s="23"/>
+      <c r="BJ109" s="23"/>
+      <c r="BK109" s="23"/>
+      <c r="BL109" s="23"/>
     </row>
     <row r="110" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B110" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>100</v>
@@ -29844,10 +29896,10 @@
         <v>12</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G110" s="25">
         <v>404</v>
@@ -29856,16 +29908,16 @@
         <v>7</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J110" s="10">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K110" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L110" s="32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M110" s="32" t="s">
         <v>67</v>
@@ -29922,12 +29974,12 @@
       <c r="BK110" s="23"/>
       <c r="BL110" s="23"/>
     </row>
-    <row r="111" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B111" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>101</v>
@@ -29936,13 +29988,13 @@
         <v>12</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G111" s="25">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>7</v>
@@ -29951,13 +30003,13 @@
         <v>35</v>
       </c>
       <c r="J111" s="10">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K111" s="32" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L111" s="32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M111" s="32" t="s">
         <v>67</v>
@@ -30016,22 +30068,22 @@
     </row>
     <row r="112" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B112" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D112" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D112" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G112" s="25">
         <v>403</v>
@@ -30040,19 +30092,19 @@
         <v>7</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J112" s="10">
-        <v>1008</v>
-      </c>
-      <c r="K112" s="32" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="J112" s="4">
+        <v>1011</v>
+      </c>
+      <c r="K112" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="L112" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="M112" s="32" t="s">
-        <v>67</v>
+        <v>154</v>
+      </c>
+      <c r="M112" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="N112" s="23"/>
       <c r="O112" s="23"/>
@@ -30108,25 +30160,25 @@
     </row>
     <row r="113" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D113" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G113" s="25">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>7</v>
@@ -30134,17 +30186,17 @@
       <c r="I113" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J113" s="4">
-        <v>1011</v>
-      </c>
-      <c r="K113" s="34" t="s">
-        <v>83</v>
+      <c r="J113" s="10">
+        <v>4001</v>
+      </c>
+      <c r="K113" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="L113" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="M113" s="34" t="s">
-        <v>50</v>
+        <v>154</v>
+      </c>
+      <c r="M113" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="N113" s="23"/>
       <c r="O113" s="23"/>
@@ -30198,45 +30250,45 @@
       <c r="BK113" s="23"/>
       <c r="BL113" s="23"/>
     </row>
-    <row r="114" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A114" s="4">
-        <v>96</v>
-      </c>
-      <c r="B114" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D114" s="4" t="s">
+    <row r="114" spans="1:64" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="67">
+        <v>125</v>
+      </c>
+      <c r="B114" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="D114" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E114" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G114" s="25">
+      <c r="E114" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="F114" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="G114" s="64">
         <v>400</v>
       </c>
-      <c r="H114" s="4" t="s">
+      <c r="H114" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I114" s="4" t="s">
+      <c r="I114" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J114" s="10">
-        <v>4001</v>
-      </c>
-      <c r="K114" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="L114" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="M114" s="32" t="s">
-        <v>71</v>
+      <c r="J114" s="65">
+        <v>4004</v>
+      </c>
+      <c r="K114" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="L114" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="M114" s="66" t="s">
+        <v>12</v>
       </c>
       <c r="N114" s="23"/>
       <c r="O114" s="23"/>
@@ -30290,184 +30342,133 @@
       <c r="BK114" s="23"/>
       <c r="BL114" s="23"/>
     </row>
-    <row r="115" spans="1:64" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="67">
-        <v>125</v>
-      </c>
-      <c r="B115" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="C115" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="D115" s="65" t="s">
+    <row r="115" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="97" t="s">
+        <v>166</v>
+      </c>
+      <c r="B115" s="98"/>
+      <c r="C115" s="98"/>
+      <c r="D115" s="98"/>
+      <c r="E115" s="98"/>
+      <c r="F115" s="98"/>
+      <c r="G115" s="98"/>
+      <c r="H115" s="98"/>
+      <c r="I115" s="98"/>
+      <c r="J115" s="98"/>
+      <c r="K115" s="98"/>
+      <c r="L115" s="98"/>
+      <c r="M115" s="99"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="22"/>
+      <c r="Q115" s="22"/>
+      <c r="R115" s="22"/>
+      <c r="S115" s="22"/>
+      <c r="T115" s="22"/>
+      <c r="U115" s="22"/>
+      <c r="V115" s="22"/>
+      <c r="W115" s="22"/>
+      <c r="X115" s="22"/>
+      <c r="Y115" s="22"/>
+      <c r="Z115" s="22"/>
+      <c r="AA115" s="22"/>
+      <c r="AB115" s="22"/>
+      <c r="AC115" s="22"/>
+      <c r="AD115" s="22"/>
+      <c r="AE115" s="22"/>
+      <c r="AF115" s="22"/>
+      <c r="AG115" s="22"/>
+      <c r="AH115" s="22"/>
+      <c r="AI115" s="22"/>
+      <c r="AJ115" s="22"/>
+      <c r="AK115" s="22"/>
+      <c r="AL115" s="22"/>
+      <c r="AM115" s="22"/>
+      <c r="AN115" s="22"/>
+      <c r="AO115" s="22"/>
+      <c r="AP115" s="22"/>
+      <c r="AQ115" s="22"/>
+      <c r="AR115" s="22"/>
+      <c r="AS115" s="22"/>
+      <c r="AT115" s="22"/>
+      <c r="AU115" s="22"/>
+      <c r="AV115" s="22"/>
+      <c r="AW115" s="22"/>
+      <c r="AX115" s="22"/>
+      <c r="AY115" s="22"/>
+      <c r="AZ115" s="22"/>
+      <c r="BA115" s="22"/>
+      <c r="BB115" s="22"/>
+      <c r="BC115" s="22"/>
+      <c r="BD115" s="22"/>
+      <c r="BE115" s="22"/>
+      <c r="BF115" s="22"/>
+      <c r="BG115" s="22"/>
+      <c r="BH115" s="22"/>
+      <c r="BI115" s="22"/>
+      <c r="BJ115" s="22"/>
+      <c r="BK115" s="22"/>
+      <c r="BL115" s="22"/>
+    </row>
+    <row r="116" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>97</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E115" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="F115" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="G115" s="64">
-        <v>400</v>
-      </c>
-      <c r="H115" s="65" t="s">
+      <c r="E116" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G116" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I115" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="J115" s="65">
-        <v>4004</v>
-      </c>
-      <c r="K115" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="L115" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="M115" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="N115" s="23"/>
-      <c r="O115" s="23"/>
-      <c r="P115" s="23"/>
-      <c r="Q115" s="23"/>
-      <c r="R115" s="23"/>
-      <c r="S115" s="23"/>
-      <c r="T115" s="23"/>
-      <c r="U115" s="23"/>
-      <c r="V115" s="23"/>
-      <c r="W115" s="23"/>
-      <c r="X115" s="23"/>
-      <c r="Y115" s="23"/>
-      <c r="Z115" s="23"/>
-      <c r="AA115" s="23"/>
-      <c r="AB115" s="23"/>
-      <c r="AC115" s="23"/>
-      <c r="AD115" s="23"/>
-      <c r="AE115" s="23"/>
-      <c r="AF115" s="23"/>
-      <c r="AG115" s="23"/>
-      <c r="AH115" s="23"/>
-      <c r="AI115" s="23"/>
-      <c r="AJ115" s="23"/>
-      <c r="AK115" s="23"/>
-      <c r="AL115" s="23"/>
-      <c r="AM115" s="23"/>
-      <c r="AN115" s="23"/>
-      <c r="AO115" s="23"/>
-      <c r="AP115" s="23"/>
-      <c r="AQ115" s="23"/>
-      <c r="AR115" s="23"/>
-      <c r="AS115" s="23"/>
-      <c r="AT115" s="23"/>
-      <c r="AU115" s="23"/>
-      <c r="AV115" s="23"/>
-      <c r="AW115" s="23"/>
-      <c r="AX115" s="23"/>
-      <c r="AY115" s="23"/>
-      <c r="AZ115" s="23"/>
-      <c r="BA115" s="23"/>
-      <c r="BB115" s="23"/>
-      <c r="BC115" s="23"/>
-      <c r="BD115" s="23"/>
-      <c r="BE115" s="23"/>
-      <c r="BF115" s="23"/>
-      <c r="BG115" s="23"/>
-      <c r="BH115" s="23"/>
-      <c r="BI115" s="23"/>
-      <c r="BJ115" s="23"/>
-      <c r="BK115" s="23"/>
-      <c r="BL115" s="23"/>
-    </row>
-    <row r="116" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="98" t="s">
-        <v>168</v>
-      </c>
-      <c r="B116" s="99"/>
-      <c r="C116" s="99"/>
-      <c r="D116" s="99"/>
-      <c r="E116" s="99"/>
-      <c r="F116" s="99"/>
-      <c r="G116" s="99"/>
-      <c r="H116" s="99"/>
-      <c r="I116" s="99"/>
-      <c r="J116" s="99"/>
-      <c r="K116" s="99"/>
-      <c r="L116" s="99"/>
-      <c r="M116" s="100"/>
-      <c r="N116" s="22"/>
-      <c r="O116" s="22"/>
-      <c r="P116" s="22"/>
-      <c r="Q116" s="22"/>
-      <c r="R116" s="22"/>
-      <c r="S116" s="22"/>
-      <c r="T116" s="22"/>
-      <c r="U116" s="22"/>
-      <c r="V116" s="22"/>
-      <c r="W116" s="22"/>
-      <c r="X116" s="22"/>
-      <c r="Y116" s="22"/>
-      <c r="Z116" s="22"/>
-      <c r="AA116" s="22"/>
-      <c r="AB116" s="22"/>
-      <c r="AC116" s="22"/>
-      <c r="AD116" s="22"/>
-      <c r="AE116" s="22"/>
-      <c r="AF116" s="22"/>
-      <c r="AG116" s="22"/>
-      <c r="AH116" s="22"/>
-      <c r="AI116" s="22"/>
-      <c r="AJ116" s="22"/>
-      <c r="AK116" s="22"/>
-      <c r="AL116" s="22"/>
-      <c r="AM116" s="22"/>
-      <c r="AN116" s="22"/>
-      <c r="AO116" s="22"/>
-      <c r="AP116" s="22"/>
-      <c r="AQ116" s="22"/>
-      <c r="AR116" s="22"/>
-      <c r="AS116" s="22"/>
-      <c r="AT116" s="22"/>
-      <c r="AU116" s="22"/>
-      <c r="AV116" s="22"/>
-      <c r="AW116" s="22"/>
-      <c r="AX116" s="22"/>
-      <c r="AY116" s="22"/>
-      <c r="AZ116" s="22"/>
-      <c r="BA116" s="22"/>
-      <c r="BB116" s="22"/>
-      <c r="BC116" s="22"/>
-      <c r="BD116" s="22"/>
-      <c r="BE116" s="22"/>
-      <c r="BF116" s="22"/>
-      <c r="BG116" s="22"/>
-      <c r="BH116" s="22"/>
-      <c r="BI116" s="22"/>
-      <c r="BJ116" s="22"/>
-      <c r="BK116" s="22"/>
-      <c r="BL116" s="22"/>
+      <c r="I116" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J116" s="8">
+        <v>4002</v>
+      </c>
+      <c r="K116" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="L116" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="M116" s="33" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="117" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B117" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D117" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D117" s="28" t="s">
         <v>12</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G117" s="40" t="s">
         <v>12</v>
@@ -30475,40 +30476,40 @@
       <c r="H117" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I117" s="5" t="s">
+      <c r="I117" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J117" s="8">
-        <v>4002</v>
+      <c r="J117" s="28">
+        <v>4003</v>
       </c>
       <c r="K117" s="34" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="L117" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="M117" s="33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="118" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="M117" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="D118" s="28" t="s">
         <v>12</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G118" s="40" t="s">
         <v>12</v>
@@ -30520,244 +30521,244 @@
         <v>35</v>
       </c>
       <c r="J118" s="28">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="K118" s="34" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="L118" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="M118" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="M118" s="33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="119" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>99</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D119" s="4">
+        <v>8</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G119" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J119" s="4">
+        <v>1010</v>
+      </c>
+      <c r="K119" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L119" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="M119" s="32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A119" s="4">
-        <v>115</v>
-      </c>
-      <c r="B119" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C119" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="D119" s="28" t="s">
+      <c r="N119" s="23"/>
+      <c r="O119" s="23"/>
+      <c r="P119" s="23"/>
+      <c r="Q119" s="23"/>
+      <c r="R119" s="23"/>
+      <c r="S119" s="23"/>
+      <c r="T119" s="23"/>
+      <c r="U119" s="23"/>
+      <c r="V119" s="23"/>
+      <c r="W119" s="23"/>
+      <c r="X119" s="23"/>
+      <c r="Y119" s="23"/>
+      <c r="Z119" s="23"/>
+      <c r="AA119" s="23"/>
+      <c r="AB119" s="23"/>
+      <c r="AC119" s="23"/>
+      <c r="AD119" s="23"/>
+      <c r="AE119" s="23"/>
+      <c r="AF119" s="23"/>
+      <c r="AG119" s="23"/>
+      <c r="AH119" s="23"/>
+      <c r="AI119" s="23"/>
+      <c r="AJ119" s="23"/>
+      <c r="AK119" s="23"/>
+      <c r="AL119" s="23"/>
+      <c r="AM119" s="23"/>
+      <c r="AN119" s="23"/>
+      <c r="AO119" s="23"/>
+      <c r="AP119" s="23"/>
+      <c r="AQ119" s="23"/>
+      <c r="AR119" s="23"/>
+      <c r="AS119" s="23"/>
+      <c r="AT119" s="23"/>
+      <c r="AU119" s="23"/>
+      <c r="AV119" s="23"/>
+      <c r="AW119" s="23"/>
+      <c r="AX119" s="23"/>
+      <c r="AY119" s="23"/>
+      <c r="AZ119" s="23"/>
+      <c r="BA119" s="23"/>
+      <c r="BB119" s="23"/>
+      <c r="BC119" s="23"/>
+      <c r="BD119" s="23"/>
+      <c r="BE119" s="23"/>
+      <c r="BF119" s="23"/>
+      <c r="BG119" s="23"/>
+      <c r="BH119" s="23"/>
+      <c r="BI119" s="23"/>
+      <c r="BJ119" s="23"/>
+      <c r="BK119" s="23"/>
+      <c r="BL119" s="23"/>
+    </row>
+    <row r="120" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>101</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="D120" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E119" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G119" s="40" t="s">
+      <c r="E120" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G120" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="H120" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I119" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="J119" s="28">
-        <v>4004</v>
-      </c>
-      <c r="K119" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="L119" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="M119" s="33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="120" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A120" s="4">
-        <v>99</v>
-      </c>
-      <c r="B120" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D120" s="4">
-        <v>8</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F120" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G120" s="25" t="s">
+      <c r="I120" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J120" s="4">
+        <v>1002</v>
+      </c>
+      <c r="K120" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="L120" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="M120" s="35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+      <c r="A121" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="B121" s="95"/>
+      <c r="C121" s="95"/>
+      <c r="D121" s="95"/>
+      <c r="E121" s="95"/>
+      <c r="F121" s="95"/>
+      <c r="G121" s="95"/>
+      <c r="H121" s="95"/>
+      <c r="I121" s="95"/>
+      <c r="J121" s="95"/>
+      <c r="K121" s="95"/>
+      <c r="L121" s="95"/>
+      <c r="M121" s="96"/>
+    </row>
+    <row r="122" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A122" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B122" s="98"/>
+      <c r="C122" s="98"/>
+      <c r="D122" s="98"/>
+      <c r="E122" s="98"/>
+      <c r="F122" s="98"/>
+      <c r="G122" s="98"/>
+      <c r="H122" s="98"/>
+      <c r="I122" s="98"/>
+      <c r="J122" s="98"/>
+      <c r="K122" s="98"/>
+      <c r="L122" s="98"/>
+      <c r="M122" s="98"/>
+    </row>
+    <row r="123" spans="1:64" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>102</v>
+      </c>
+      <c r="B123" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C123" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H120" s="4" t="s">
+      <c r="E123" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G123" s="25">
+        <v>401</v>
+      </c>
+      <c r="H123" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I120" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J120" s="4">
-        <v>1010</v>
-      </c>
-      <c r="K120" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L120" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="M120" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="N120" s="23"/>
-      <c r="O120" s="23"/>
-      <c r="P120" s="23"/>
-      <c r="Q120" s="23"/>
-      <c r="R120" s="23"/>
-      <c r="S120" s="23"/>
-      <c r="T120" s="23"/>
-      <c r="U120" s="23"/>
-      <c r="V120" s="23"/>
-      <c r="W120" s="23"/>
-      <c r="X120" s="23"/>
-      <c r="Y120" s="23"/>
-      <c r="Z120" s="23"/>
-      <c r="AA120" s="23"/>
-      <c r="AB120" s="23"/>
-      <c r="AC120" s="23"/>
-      <c r="AD120" s="23"/>
-      <c r="AE120" s="23"/>
-      <c r="AF120" s="23"/>
-      <c r="AG120" s="23"/>
-      <c r="AH120" s="23"/>
-      <c r="AI120" s="23"/>
-      <c r="AJ120" s="23"/>
-      <c r="AK120" s="23"/>
-      <c r="AL120" s="23"/>
-      <c r="AM120" s="23"/>
-      <c r="AN120" s="23"/>
-      <c r="AO120" s="23"/>
-      <c r="AP120" s="23"/>
-      <c r="AQ120" s="23"/>
-      <c r="AR120" s="23"/>
-      <c r="AS120" s="23"/>
-      <c r="AT120" s="23"/>
-      <c r="AU120" s="23"/>
-      <c r="AV120" s="23"/>
-      <c r="AW120" s="23"/>
-      <c r="AX120" s="23"/>
-      <c r="AY120" s="23"/>
-      <c r="AZ120" s="23"/>
-      <c r="BA120" s="23"/>
-      <c r="BB120" s="23"/>
-      <c r="BC120" s="23"/>
-      <c r="BD120" s="23"/>
-      <c r="BE120" s="23"/>
-      <c r="BF120" s="23"/>
-      <c r="BG120" s="23"/>
-      <c r="BH120" s="23"/>
-      <c r="BI120" s="23"/>
-      <c r="BJ120" s="23"/>
-      <c r="BK120" s="23"/>
-      <c r="BL120" s="23"/>
-    </row>
-    <row r="121" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A121" s="4">
-        <v>101</v>
-      </c>
-      <c r="B121" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C121" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="D121" s="28" t="s">
+      <c r="I123" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J123" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K123" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="L123" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E121" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G121" s="40" t="s">
+      <c r="M123" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H121" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I121" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="J121" s="4">
-        <v>1002</v>
-      </c>
-      <c r="K121" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="L121" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="M121" s="35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="122" spans="1:64" ht="18" x14ac:dyDescent="0.3">
-      <c r="A122" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="B122" s="93"/>
-      <c r="C122" s="93"/>
-      <c r="D122" s="93"/>
-      <c r="E122" s="93"/>
-      <c r="F122" s="93"/>
-      <c r="G122" s="93"/>
-      <c r="H122" s="93"/>
-      <c r="I122" s="93"/>
-      <c r="J122" s="93"/>
-      <c r="K122" s="93"/>
-      <c r="L122" s="93"/>
-      <c r="M122" s="95"/>
-    </row>
-    <row r="123" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A123" s="98" t="s">
-        <v>169</v>
-      </c>
-      <c r="B123" s="99"/>
-      <c r="C123" s="99"/>
-      <c r="D123" s="99"/>
-      <c r="E123" s="99"/>
-      <c r="F123" s="99"/>
-      <c r="G123" s="99"/>
-      <c r="H123" s="99"/>
-      <c r="I123" s="99"/>
-      <c r="J123" s="99"/>
-      <c r="K123" s="99"/>
-      <c r="L123" s="99"/>
-      <c r="M123" s="99"/>
-    </row>
-    <row r="124" spans="1:64" ht="46.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B124" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C124" s="34" t="s">
-        <v>178</v>
+        <v>200</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G124" s="25">
         <v>401</v>
@@ -30769,36 +30770,36 @@
         <v>38</v>
       </c>
       <c r="J124" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="K124" s="24" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="L124" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M124" s="60" t="s">
+      <c r="M124" s="58" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B125" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G125" s="25">
         <v>401</v>
@@ -30810,77 +30811,77 @@
         <v>38</v>
       </c>
       <c r="J125" s="4">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K125" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L125" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M125" s="58" t="s">
+      <c r="M125" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B126" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G126" s="25">
-        <v>401</v>
-      </c>
-      <c r="H126" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D126" s="25">
+        <v>201</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G126" s="54">
+        <v>400</v>
+      </c>
+      <c r="H126" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I126" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J126" s="4">
-        <v>1014</v>
-      </c>
-      <c r="K126" s="24" t="s">
-        <v>171</v>
+      <c r="I126" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J126" s="47">
+        <v>1003</v>
+      </c>
+      <c r="K126" s="34" t="s">
+        <v>14</v>
       </c>
       <c r="L126" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M126" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="M126" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:64" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B127" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="D127" s="25">
         <v>201</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F127" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G127" s="54">
         <v>400</v>
@@ -30889,13 +30890,13 @@
         <v>7</v>
       </c>
       <c r="I127" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="J127" s="47">
-        <v>1003</v>
+        <v>11</v>
+      </c>
+      <c r="J127" s="26">
+        <v>1004</v>
       </c>
       <c r="K127" s="34" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L127" s="34" t="s">
         <v>63</v>
@@ -30904,94 +30905,94 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:64" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:64" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B128" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C128" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D128" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="F128" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="G128" s="64">
+        <v>400</v>
+      </c>
+      <c r="H128" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I128" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="J128" s="65">
+        <v>1015</v>
+      </c>
+      <c r="K128" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="L128" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="M128" s="66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
+        <v>107</v>
+      </c>
+      <c r="B129" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D129" s="25">
         <v>202</v>
       </c>
-      <c r="C128" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D128" s="25">
-        <v>201</v>
-      </c>
-      <c r="E128" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F128" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G128" s="54">
-        <v>400</v>
-      </c>
-      <c r="H128" s="25" t="s">
+      <c r="E129" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G129" s="54">
+        <v>403</v>
+      </c>
+      <c r="H129" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I128" s="25" t="s">
+      <c r="I129" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J128" s="26">
-        <v>1004</v>
-      </c>
-      <c r="K128" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L128" s="34" t="s">
+      <c r="J129" s="26">
+        <v>1006</v>
+      </c>
+      <c r="K129" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L129" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="M128" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="4">
-        <v>121</v>
-      </c>
-      <c r="B129" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C129" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="D129" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="F129" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="G129" s="64">
-        <v>400</v>
-      </c>
-      <c r="H129" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="I129" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="J129" s="65">
-        <v>1015</v>
-      </c>
-      <c r="K129" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="L129" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="M129" s="66" t="s">
-        <v>12</v>
+      <c r="M129" s="34" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B130" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C130" s="24" t="s">
         <v>100</v>
@@ -31000,10 +31001,10 @@
         <v>202</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F130" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G130" s="54">
         <v>403</v>
@@ -31012,13 +31013,13 @@
         <v>7</v>
       </c>
       <c r="I130" s="25" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J130" s="26">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K130" s="34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L130" s="34" t="s">
         <v>63</v>
@@ -31027,12 +31028,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B131" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C131" s="24" t="s">
         <v>101</v>
@@ -31041,10 +31042,10 @@
         <v>202</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F131" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G131" s="54">
         <v>403</v>
@@ -31056,10 +31057,10 @@
         <v>35</v>
       </c>
       <c r="J131" s="26">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K131" s="34" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L131" s="34" t="s">
         <v>63</v>
@@ -31068,26 +31069,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B132" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="D132" s="25">
         <v>202</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F132" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G132" s="54">
+        <v>160</v>
+      </c>
+      <c r="G132" s="25">
         <v>403</v>
       </c>
       <c r="H132" s="25" t="s">
@@ -31096,11 +31097,11 @@
       <c r="I132" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J132" s="26">
-        <v>1008</v>
+      <c r="J132" s="55">
+        <v>5001</v>
       </c>
       <c r="K132" s="34" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="L132" s="34" t="s">
         <v>63</v>
@@ -31109,39 +31110,39 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B133" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>203</v>
+        <v>84</v>
       </c>
       <c r="D133" s="25">
         <v>202</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F133" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G133" s="25">
+        <v>160</v>
+      </c>
+      <c r="G133" s="54">
         <v>403</v>
       </c>
       <c r="H133" s="25" t="s">
         <v>7</v>
       </c>
       <c r="I133" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="J133" s="55">
-        <v>5001</v>
+        <v>38</v>
+      </c>
+      <c r="J133" s="25">
+        <v>1011</v>
       </c>
       <c r="K133" s="34" t="s">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="L133" s="34" t="s">
         <v>63</v>
@@ -31150,65 +31151,65 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B134" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C134" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D134" s="25">
-        <v>202</v>
-      </c>
-      <c r="E134" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F134" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G134" s="54">
-        <v>403</v>
-      </c>
-      <c r="H134" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D134" s="4">
+        <v>203</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G134" s="25">
+        <v>400</v>
+      </c>
+      <c r="H134" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I134" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J134" s="25">
-        <v>1011</v>
-      </c>
-      <c r="K134" s="34" t="s">
-        <v>83</v>
+      <c r="I134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J134" s="10">
+        <v>3002</v>
+      </c>
+      <c r="K134" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="L134" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="M134" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M134" s="32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B135" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D135" s="4">
         <v>203</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G135" s="25">
         <v>400</v>
@@ -31219,37 +31220,37 @@
       <c r="I135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J135" s="10">
-        <v>3002</v>
-      </c>
-      <c r="K135" s="32" t="s">
-        <v>206</v>
+      <c r="J135" s="4">
+        <v>1002</v>
+      </c>
+      <c r="K135" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="L135" s="34" t="s">
         <v>63</v>
       </c>
       <c r="M135" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B136" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D136" s="4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G136" s="25">
         <v>400</v>
@@ -31264,74 +31265,70 @@
         <v>1002</v>
       </c>
       <c r="K136" s="34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L136" s="34" t="s">
         <v>63</v>
       </c>
       <c r="M136" s="32" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A137" s="4">
-        <v>114</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="28">
+        <v>115</v>
       </c>
       <c r="B137" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>210</v>
+        <v>200</v>
+      </c>
+      <c r="C137" s="93" t="s">
+        <v>226</v>
       </c>
       <c r="D137" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G137" s="25">
         <v>400</v>
       </c>
-      <c r="H137" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="H137" s="28"/>
       <c r="I137" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J137" s="4">
-        <v>1002</v>
-      </c>
-      <c r="K137" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="L137" s="34" t="s">
-        <v>63</v>
-      </c>
+      <c r="J137" s="28">
+        <v>3003</v>
+      </c>
+      <c r="K137" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="L137" s="35"/>
       <c r="M137" s="32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="28">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B138" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C138" s="102" t="s">
-        <v>228</v>
+        <v>200</v>
+      </c>
+      <c r="C138" s="93" t="s">
+        <v>227</v>
       </c>
       <c r="D138" s="4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G138" s="25">
         <v>400</v>
@@ -31341,34 +31338,34 @@
         <v>11</v>
       </c>
       <c r="J138" s="28">
-        <v>3003</v>
-      </c>
-      <c r="K138" s="102" t="s">
+        <v>3004</v>
+      </c>
+      <c r="K138" s="93" t="s">
+        <v>227</v>
+      </c>
+      <c r="L138" s="35"/>
+      <c r="M138" s="92" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="60.6" x14ac:dyDescent="0.3">
+      <c r="A139" s="8">
+        <v>117</v>
+      </c>
+      <c r="B139" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C139" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="L138" s="35"/>
-      <c r="M138" s="32" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="28">
-        <v>116</v>
-      </c>
-      <c r="B139" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C139" s="102" t="s">
-        <v>229</v>
-      </c>
-      <c r="D139" s="4">
-        <v>204</v>
+      <c r="D139" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G139" s="25">
         <v>400</v>
@@ -31378,34 +31375,34 @@
         <v>11</v>
       </c>
       <c r="J139" s="28">
-        <v>3004</v>
-      </c>
-      <c r="K139" s="102" t="s">
+        <v>3005</v>
+      </c>
+      <c r="K139" s="93" t="s">
+        <v>228</v>
+      </c>
+      <c r="L139" s="35"/>
+      <c r="M139" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="L139" s="35"/>
-      <c r="M139" s="101" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="60.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B140" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C140" s="102" t="s">
+        <v>200</v>
+      </c>
+      <c r="C140" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>12</v>
+      <c r="D140" s="4">
+        <v>203</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G140" s="25">
         <v>400</v>
@@ -31415,52 +31412,30 @@
         <v>11</v>
       </c>
       <c r="J140" s="28">
-        <v>3005</v>
-      </c>
-      <c r="K140" s="102" t="s">
+        <v>3006</v>
+      </c>
+      <c r="K140" s="93" t="s">
         <v>230</v>
       </c>
       <c r="L140" s="35"/>
-      <c r="M140" s="101" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="8">
-        <v>118</v>
-      </c>
-      <c r="B141" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C141" s="102" t="s">
-        <v>232</v>
-      </c>
-      <c r="D141" s="4">
-        <v>203</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G141" s="25">
-        <v>400</v>
-      </c>
-      <c r="H141" s="28"/>
-      <c r="I141" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J141" s="28">
-        <v>3006</v>
-      </c>
-      <c r="K141" s="102" t="s">
-        <v>232</v>
-      </c>
-      <c r="L141" s="35"/>
-      <c r="M141" s="102" t="s">
-        <v>207</v>
-      </c>
+      <c r="M140" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141" s="21"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="55"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="21"/>
+      <c r="J141" s="21"/>
+      <c r="K141" s="36"/>
+      <c r="L141" s="22"/>
+      <c r="M141" s="22"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="21"/>
@@ -36082,48 +36057,33 @@
       <c r="L449" s="22"/>
       <c r="M449" s="22"/>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A450" s="21"/>
-      <c r="B450" s="22"/>
-      <c r="C450" s="23"/>
-      <c r="D450" s="21"/>
-      <c r="E450" s="21"/>
-      <c r="F450" s="21"/>
-      <c r="G450" s="55"/>
-      <c r="H450" s="21"/>
-      <c r="I450" s="21"/>
-      <c r="J450" s="21"/>
-      <c r="K450" s="36"/>
-      <c r="L450" s="22"/>
-      <c r="M450" s="22"/>
-    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="A122:M122"/>
-    <mergeCell ref="A123:M123"/>
-    <mergeCell ref="A116:M116"/>
-    <mergeCell ref="A99:M99"/>
-    <mergeCell ref="A102:M102"/>
-    <mergeCell ref="A84:M84"/>
-    <mergeCell ref="A83:M83"/>
-    <mergeCell ref="A101:M101"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="A58:M58"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A56:M56"/>
+    <mergeCell ref="A69:M69"/>
+    <mergeCell ref="A83:M83"/>
+    <mergeCell ref="A82:M82"/>
+    <mergeCell ref="A100:M100"/>
+    <mergeCell ref="A70:M70"/>
     <mergeCell ref="A57:M57"/>
-    <mergeCell ref="A70:M70"/>
+    <mergeCell ref="A121:M121"/>
+    <mergeCell ref="A122:M122"/>
+    <mergeCell ref="A115:M115"/>
+    <mergeCell ref="A98:M98"/>
+    <mergeCell ref="A101:M101"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65:H69 H49:H55 H110:H114 H92:H98 H78:H82 H100 H23:H47 H21 H117:H121 H7:H8 H62:H63 H75:H76 H88:H90 H106:H108 H127:H128 H10:H16 H130:H137">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H64:H68 H48:H54 H109:H113 H91:H97 H77:H81 H99 H21 H116:H120 H7:H8 H61:H62 H74:H75 H87:H89 H105:H107 H126:H127 H10:H16 H129:H136 H23:H46">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:I55 I65:I69 I117 I92:I98 I78:I82 I100 I23:I47 I21 I120 I7:I8 I62:I63 I75:I76 I88:I90 I106:I108 I127:I128 I10:I16 I110:I114 I130:I141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I48:I54 I64:I68 I116 I91:I97 I77:I81 I99 I21 I119 I7:I8 I61:I62 I74:I75 I87:I89 I105:I107 I126:I127 I10:I16 I109:I113 I129:I140 I23:I46">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J65:J69 J10:J14 J78:J82 J39:J46 J100 J120 J92:J97 J117 J49:J53 J23:J37 J134:J135 J130:J132 J21 J7:J8 J62:J63 J75:J76 J88:J90 J106:J108 J127:J128 J16 J110:J114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J64:J68 J10:J14 J77:J81 J38:J45 J99 J119 J91:J96 J116 J48:J52 J133:J134 J129:J131 J21 J7:J8 J61:J62 J74:J75 J87:J89 J105:J107 J126:J127 J16 J109:J113 J23:J36">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -36135,8 +36095,8 @@
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="21" max="16383" man="1"/>
-    <brk id="56" max="16383" man="1"/>
-    <brk id="82" max="9" man="1"/>
+    <brk id="55" max="16383" man="1"/>
+    <brk id="81" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2436" windowWidth="14280" windowHeight="7308"/>
+    <workbookView xWindow="0" yWindow="2436" windowWidth="14280" windowHeight="7308" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -1316,7 +1316,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1326,15 +1335,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22034,7 +22034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -22364,9 +22364,9 @@
   </sheetPr>
   <dimension ref="A1:BL449"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -22547,21 +22547,21 @@
       <c r="BL2" s="22"/>
     </row>
     <row r="3" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -23557,21 +23557,21 @@
       </c>
     </row>
     <row r="22" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
@@ -25335,21 +25335,21 @@
       <c r="BL55" s="23"/>
     </row>
     <row r="56" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="96" t="s">
+      <c r="A56" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="101"/>
-      <c r="L56" s="101"/>
-      <c r="M56" s="102"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="98"/>
+      <c r="I56" s="98"/>
+      <c r="J56" s="98"/>
+      <c r="K56" s="98"/>
+      <c r="L56" s="98"/>
+      <c r="M56" s="99"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
       <c r="P56" s="22"/>
@@ -25403,21 +25403,21 @@
       <c r="BL56" s="22"/>
     </row>
     <row r="57" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100" t="s">
+      <c r="A57" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="100"/>
-      <c r="K57" s="100"/>
-      <c r="L57" s="100"/>
-      <c r="M57" s="100"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="96"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
@@ -26500,21 +26500,21 @@
       <c r="BL69" s="22"/>
     </row>
     <row r="70" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="100" t="s">
+      <c r="A70" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="B70" s="100"/>
-      <c r="C70" s="100"/>
-      <c r="D70" s="100"/>
-      <c r="E70" s="100"/>
-      <c r="F70" s="100"/>
-      <c r="G70" s="100"/>
-      <c r="H70" s="100"/>
-      <c r="I70" s="100"/>
-      <c r="J70" s="100"/>
-      <c r="K70" s="100"/>
-      <c r="L70" s="100"/>
-      <c r="M70" s="100"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="96"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="96"/>
+      <c r="G70" s="96"/>
+      <c r="H70" s="96"/>
+      <c r="I70" s="96"/>
+      <c r="J70" s="96"/>
+      <c r="K70" s="96"/>
+      <c r="L70" s="96"/>
+      <c r="M70" s="96"/>
       <c r="N70" s="22"/>
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
@@ -27597,21 +27597,21 @@
       <c r="BL82" s="22"/>
     </row>
     <row r="83" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="100" t="s">
+      <c r="A83" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="100"/>
-      <c r="C83" s="100"/>
-      <c r="D83" s="100"/>
-      <c r="E83" s="100"/>
-      <c r="F83" s="100"/>
-      <c r="G83" s="100"/>
-      <c r="H83" s="100"/>
-      <c r="I83" s="100"/>
-      <c r="J83" s="100"/>
-      <c r="K83" s="100"/>
-      <c r="L83" s="100"/>
-      <c r="M83" s="100"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="96"/>
+      <c r="F83" s="96"/>
+      <c r="G83" s="96"/>
+      <c r="H83" s="96"/>
+      <c r="I83" s="96"/>
+      <c r="J83" s="96"/>
+      <c r="K83" s="96"/>
+      <c r="L83" s="96"/>
+      <c r="M83" s="96"/>
       <c r="N83" s="22"/>
       <c r="O83" s="22"/>
       <c r="P83" s="22"/>
@@ -28838,7 +28838,7 @@
         <v>11</v>
       </c>
       <c r="J97" s="4">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="K97" s="34" t="s">
         <v>191</v>
@@ -28902,21 +28902,21 @@
       <c r="BL97" s="23"/>
     </row>
     <row r="98" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="100" t="s">
+      <c r="A98" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="B98" s="100"/>
-      <c r="C98" s="100"/>
-      <c r="D98" s="100"/>
-      <c r="E98" s="100"/>
-      <c r="F98" s="100"/>
-      <c r="G98" s="100"/>
-      <c r="H98" s="100"/>
-      <c r="I98" s="100"/>
-      <c r="J98" s="100"/>
-      <c r="K98" s="100"/>
-      <c r="L98" s="100"/>
-      <c r="M98" s="100"/>
+      <c r="B98" s="96"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="96"/>
+      <c r="E98" s="96"/>
+      <c r="F98" s="96"/>
+      <c r="G98" s="96"/>
+      <c r="H98" s="96"/>
+      <c r="I98" s="96"/>
+      <c r="J98" s="96"/>
+      <c r="K98" s="96"/>
+      <c r="L98" s="96"/>
+      <c r="M98" s="96"/>
       <c r="N98" s="22"/>
       <c r="O98" s="22"/>
       <c r="P98" s="22"/>
@@ -29130,21 +29130,21 @@
       <c r="BL100" s="22"/>
     </row>
     <row r="101" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="100" t="s">
+      <c r="A101" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="B101" s="100"/>
-      <c r="C101" s="100"/>
-      <c r="D101" s="100"/>
-      <c r="E101" s="100"/>
-      <c r="F101" s="100"/>
-      <c r="G101" s="100"/>
-      <c r="H101" s="100"/>
-      <c r="I101" s="100"/>
-      <c r="J101" s="100"/>
-      <c r="K101" s="100"/>
-      <c r="L101" s="100"/>
-      <c r="M101" s="100"/>
+      <c r="B101" s="96"/>
+      <c r="C101" s="96"/>
+      <c r="D101" s="96"/>
+      <c r="E101" s="96"/>
+      <c r="F101" s="96"/>
+      <c r="G101" s="96"/>
+      <c r="H101" s="96"/>
+      <c r="I101" s="96"/>
+      <c r="J101" s="96"/>
+      <c r="K101" s="96"/>
+      <c r="L101" s="96"/>
+      <c r="M101" s="96"/>
       <c r="N101" s="22"/>
       <c r="O101" s="22"/>
       <c r="P101" s="22"/>
@@ -30343,21 +30343,21 @@
       <c r="BL114" s="23"/>
     </row>
     <row r="115" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="97" t="s">
+      <c r="A115" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="B115" s="98"/>
-      <c r="C115" s="98"/>
-      <c r="D115" s="98"/>
-      <c r="E115" s="98"/>
-      <c r="F115" s="98"/>
-      <c r="G115" s="98"/>
-      <c r="H115" s="98"/>
-      <c r="I115" s="98"/>
-      <c r="J115" s="98"/>
-      <c r="K115" s="98"/>
-      <c r="L115" s="98"/>
-      <c r="M115" s="99"/>
+      <c r="B115" s="101"/>
+      <c r="C115" s="101"/>
+      <c r="D115" s="101"/>
+      <c r="E115" s="101"/>
+      <c r="F115" s="101"/>
+      <c r="G115" s="101"/>
+      <c r="H115" s="101"/>
+      <c r="I115" s="101"/>
+      <c r="J115" s="101"/>
+      <c r="K115" s="101"/>
+      <c r="L115" s="101"/>
+      <c r="M115" s="102"/>
       <c r="N115" s="22"/>
       <c r="O115" s="22"/>
       <c r="P115" s="22"/>
@@ -30681,24 +30681,24 @@
       <c r="J121" s="95"/>
       <c r="K121" s="95"/>
       <c r="L121" s="95"/>
-      <c r="M121" s="96"/>
+      <c r="M121" s="97"/>
     </row>
     <row r="122" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A122" s="97" t="s">
+      <c r="A122" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="B122" s="98"/>
-      <c r="C122" s="98"/>
-      <c r="D122" s="98"/>
-      <c r="E122" s="98"/>
-      <c r="F122" s="98"/>
-      <c r="G122" s="98"/>
-      <c r="H122" s="98"/>
-      <c r="I122" s="98"/>
-      <c r="J122" s="98"/>
-      <c r="K122" s="98"/>
-      <c r="L122" s="98"/>
-      <c r="M122" s="98"/>
+      <c r="B122" s="101"/>
+      <c r="C122" s="101"/>
+      <c r="D122" s="101"/>
+      <c r="E122" s="101"/>
+      <c r="F122" s="101"/>
+      <c r="G122" s="101"/>
+      <c r="H122" s="101"/>
+      <c r="I122" s="101"/>
+      <c r="J122" s="101"/>
+      <c r="K122" s="101"/>
+      <c r="L122" s="101"/>
+      <c r="M122" s="101"/>
     </row>
     <row r="123" spans="1:64" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
@@ -36060,21 +36060,21 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A121:M121"/>
+    <mergeCell ref="A122:M122"/>
+    <mergeCell ref="A115:M115"/>
+    <mergeCell ref="A98:M98"/>
+    <mergeCell ref="A101:M101"/>
+    <mergeCell ref="A83:M83"/>
+    <mergeCell ref="A82:M82"/>
+    <mergeCell ref="A100:M100"/>
+    <mergeCell ref="A70:M70"/>
+    <mergeCell ref="A57:M57"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A22:M22"/>
     <mergeCell ref="A56:M56"/>
     <mergeCell ref="A69:M69"/>
-    <mergeCell ref="A83:M83"/>
-    <mergeCell ref="A82:M82"/>
-    <mergeCell ref="A100:M100"/>
-    <mergeCell ref="A70:M70"/>
-    <mergeCell ref="A57:M57"/>
-    <mergeCell ref="A121:M121"/>
-    <mergeCell ref="A122:M122"/>
-    <mergeCell ref="A115:M115"/>
-    <mergeCell ref="A98:M98"/>
-    <mergeCell ref="A101:M101"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H64:H68 H48:H54 H109:H113 H91:H97 H77:H81 H99 H21 H116:H120 H7:H8 H61:H62 H74:H75 H87:H89 H105:H107 H126:H127 H10:H16 H129:H136 H23:H46">

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -763,9 +763,6 @@
     <t>Period end date must be last day of the month and in a valid date in the format YYYY-MM-DD (e.g. 2019-01-31).</t>
   </si>
   <si>
-    <t>Both period start date and period end date must be of the same month. (e.g. startDate: 2019-03-01 and endDate: 2019-04-30 shouldn?t be allowed.</t>
-  </si>
-  <si>
     <t>ReturnPeriod</t>
   </si>
   <si>
@@ -777,12 +774,15 @@
   <si>
     <t>removed</t>
   </si>
+  <si>
+    <t>Both period start date and period end date must be of the same month. (e.g. startDate: 2019-03-01 and endDate: 2019-04-30 shouldn't be allowed.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,8 +889,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,6 +932,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF025F63"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1050,10 +1062,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1316,16 +1329,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1337,8 +1341,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -22277,7 +22315,7 @@
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>223</v>
@@ -22296,7 +22334,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
@@ -22365,8 +22403,8 @@
   <dimension ref="A1:BL449"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -22547,21 +22585,21 @@
       <c r="BL2" s="22"/>
     </row>
     <row r="3" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -23557,21 +23595,21 @@
       </c>
     </row>
     <row r="22" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
@@ -23911,7 +23949,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" ht="27.6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -24034,44 +24072,44 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+    <row r="33" spans="1:64" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A33" s="103">
         <v>30</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="103">
         <v>12</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="G33" s="54" t="s">
+      <c r="G33" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="103">
         <v>1002</v>
       </c>
-      <c r="K33" s="34" t="s">
+      <c r="K33" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="L33" s="33" t="s">
+      <c r="L33" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="M33" s="33" t="s">
+      <c r="M33" s="104" t="s">
         <v>44</v>
       </c>
     </row>
@@ -24249,44 +24287,44 @@
       <c r="BK36" s="37"/>
       <c r="BL36" s="37"/>
     </row>
-    <row r="37" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+    <row r="37" spans="1:64" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A37" s="103">
         <v>34</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="103">
         <v>16</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="G37" s="54" t="s">
+      <c r="G37" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="51" t="s">
+      <c r="I37" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="103">
         <v>1002</v>
       </c>
-      <c r="K37" s="34" t="s">
+      <c r="K37" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="L37" s="33" t="s">
+      <c r="L37" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="M37" s="39" t="s">
+      <c r="M37" s="104" t="s">
         <v>56</v>
       </c>
     </row>
@@ -24720,44 +24758,44 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
+    <row r="46" spans="1:64" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A46" s="103">
         <v>43</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="103">
         <v>17</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="G46" s="54" t="s">
+      <c r="G46" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="51" t="s">
+      <c r="I46" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="103">
         <v>1002</v>
       </c>
-      <c r="K46" s="34" t="s">
+      <c r="K46" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="L46" s="33" t="s">
+      <c r="L46" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="M46" s="39" t="s">
+      <c r="M46" s="104" t="s">
         <v>62</v>
       </c>
     </row>
@@ -25335,21 +25373,21 @@
       <c r="BL55" s="23"/>
     </row>
     <row r="56" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="97" t="s">
+      <c r="A56" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="98"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="98"/>
-      <c r="I56" s="98"/>
-      <c r="J56" s="98"/>
-      <c r="K56" s="98"/>
-      <c r="L56" s="98"/>
-      <c r="M56" s="99"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="101"/>
+      <c r="K56" s="101"/>
+      <c r="L56" s="101"/>
+      <c r="M56" s="102"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
       <c r="P56" s="22"/>
@@ -25403,21 +25441,21 @@
       <c r="BL56" s="22"/>
     </row>
     <row r="57" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="96" t="s">
+      <c r="A57" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="96"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="96"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="100"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="100"/>
+      <c r="K57" s="100"/>
+      <c r="L57" s="100"/>
+      <c r="M57" s="100"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
@@ -26500,21 +26538,21 @@
       <c r="BL69" s="22"/>
     </row>
     <row r="70" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="96" t="s">
+      <c r="A70" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="B70" s="96"/>
-      <c r="C70" s="96"/>
-      <c r="D70" s="96"/>
-      <c r="E70" s="96"/>
-      <c r="F70" s="96"/>
-      <c r="G70" s="96"/>
-      <c r="H70" s="96"/>
-      <c r="I70" s="96"/>
-      <c r="J70" s="96"/>
-      <c r="K70" s="96"/>
-      <c r="L70" s="96"/>
-      <c r="M70" s="96"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="100"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="100"/>
+      <c r="G70" s="100"/>
+      <c r="H70" s="100"/>
+      <c r="I70" s="100"/>
+      <c r="J70" s="100"/>
+      <c r="K70" s="100"/>
+      <c r="L70" s="100"/>
+      <c r="M70" s="100"/>
       <c r="N70" s="22"/>
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
@@ -27597,21 +27635,21 @@
       <c r="BL82" s="22"/>
     </row>
     <row r="83" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="96" t="s">
+      <c r="A83" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="96"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="96"/>
-      <c r="E83" s="96"/>
-      <c r="F83" s="96"/>
-      <c r="G83" s="96"/>
-      <c r="H83" s="96"/>
-      <c r="I83" s="96"/>
-      <c r="J83" s="96"/>
-      <c r="K83" s="96"/>
-      <c r="L83" s="96"/>
-      <c r="M83" s="96"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="100"/>
+      <c r="D83" s="100"/>
+      <c r="E83" s="100"/>
+      <c r="F83" s="100"/>
+      <c r="G83" s="100"/>
+      <c r="H83" s="100"/>
+      <c r="I83" s="100"/>
+      <c r="J83" s="100"/>
+      <c r="K83" s="100"/>
+      <c r="L83" s="100"/>
+      <c r="M83" s="100"/>
       <c r="N83" s="22"/>
       <c r="O83" s="22"/>
       <c r="P83" s="22"/>
@@ -28809,44 +28847,44 @@
       <c r="BK96" s="23"/>
       <c r="BL96" s="23"/>
     </row>
-    <row r="97" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A97" s="4">
+    <row r="97" spans="1:64" s="7" customFormat="1" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A97" s="103">
         <v>84</v>
       </c>
-      <c r="B97" s="32" t="s">
+      <c r="B97" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="G97" s="25">
+      <c r="G97" s="103">
         <v>400</v>
       </c>
-      <c r="H97" s="4" t="s">
+      <c r="H97" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="I97" s="4" t="s">
+      <c r="I97" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="J97" s="4">
+      <c r="J97" s="103">
         <v>1002</v>
       </c>
-      <c r="K97" s="34" t="s">
+      <c r="K97" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="L97" s="32" t="s">
+      <c r="L97" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="M97" s="32" t="s">
+      <c r="M97" s="104" t="s">
         <v>74</v>
       </c>
       <c r="N97" s="23"/>
@@ -28902,21 +28940,21 @@
       <c r="BL97" s="23"/>
     </row>
     <row r="98" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="96" t="s">
+      <c r="A98" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="B98" s="96"/>
-      <c r="C98" s="96"/>
-      <c r="D98" s="96"/>
-      <c r="E98" s="96"/>
-      <c r="F98" s="96"/>
-      <c r="G98" s="96"/>
-      <c r="H98" s="96"/>
-      <c r="I98" s="96"/>
-      <c r="J98" s="96"/>
-      <c r="K98" s="96"/>
-      <c r="L98" s="96"/>
-      <c r="M98" s="96"/>
+      <c r="B98" s="100"/>
+      <c r="C98" s="100"/>
+      <c r="D98" s="100"/>
+      <c r="E98" s="100"/>
+      <c r="F98" s="100"/>
+      <c r="G98" s="100"/>
+      <c r="H98" s="100"/>
+      <c r="I98" s="100"/>
+      <c r="J98" s="100"/>
+      <c r="K98" s="100"/>
+      <c r="L98" s="100"/>
+      <c r="M98" s="100"/>
       <c r="N98" s="22"/>
       <c r="O98" s="22"/>
       <c r="P98" s="22"/>
@@ -29130,21 +29168,21 @@
       <c r="BL100" s="22"/>
     </row>
     <row r="101" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="96" t="s">
+      <c r="A101" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="B101" s="96"/>
-      <c r="C101" s="96"/>
-      <c r="D101" s="96"/>
-      <c r="E101" s="96"/>
-      <c r="F101" s="96"/>
-      <c r="G101" s="96"/>
-      <c r="H101" s="96"/>
-      <c r="I101" s="96"/>
-      <c r="J101" s="96"/>
-      <c r="K101" s="96"/>
-      <c r="L101" s="96"/>
-      <c r="M101" s="96"/>
+      <c r="B101" s="100"/>
+      <c r="C101" s="100"/>
+      <c r="D101" s="100"/>
+      <c r="E101" s="100"/>
+      <c r="F101" s="100"/>
+      <c r="G101" s="100"/>
+      <c r="H101" s="100"/>
+      <c r="I101" s="100"/>
+      <c r="J101" s="100"/>
+      <c r="K101" s="100"/>
+      <c r="L101" s="100"/>
+      <c r="M101" s="100"/>
       <c r="N101" s="22"/>
       <c r="O101" s="22"/>
       <c r="P101" s="22"/>
@@ -30343,21 +30381,21 @@
       <c r="BL114" s="23"/>
     </row>
     <row r="115" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="100" t="s">
+      <c r="A115" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="B115" s="101"/>
-      <c r="C115" s="101"/>
-      <c r="D115" s="101"/>
-      <c r="E115" s="101"/>
-      <c r="F115" s="101"/>
-      <c r="G115" s="101"/>
-      <c r="H115" s="101"/>
-      <c r="I115" s="101"/>
-      <c r="J115" s="101"/>
-      <c r="K115" s="101"/>
-      <c r="L115" s="101"/>
-      <c r="M115" s="102"/>
+      <c r="B115" s="98"/>
+      <c r="C115" s="98"/>
+      <c r="D115" s="98"/>
+      <c r="E115" s="98"/>
+      <c r="F115" s="98"/>
+      <c r="G115" s="98"/>
+      <c r="H115" s="98"/>
+      <c r="I115" s="98"/>
+      <c r="J115" s="98"/>
+      <c r="K115" s="98"/>
+      <c r="L115" s="98"/>
+      <c r="M115" s="99"/>
       <c r="N115" s="22"/>
       <c r="O115" s="22"/>
       <c r="P115" s="22"/>
@@ -30625,44 +30663,44 @@
       <c r="BK119" s="23"/>
       <c r="BL119" s="23"/>
     </row>
-    <row r="120" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A120" s="4">
+    <row r="120" spans="1:64" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A120" s="103">
         <v>101</v>
       </c>
-      <c r="B120" s="33" t="s">
+      <c r="B120" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="C120" s="29" t="s">
+      <c r="C120" s="109" t="s">
         <v>193</v>
       </c>
-      <c r="D120" s="28" t="s">
+      <c r="D120" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E120" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="F120" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="G120" s="40" t="s">
+      <c r="G120" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="H120" s="5" t="s">
+      <c r="H120" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="I120" s="28" t="s">
+      <c r="I120" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="J120" s="4">
+      <c r="J120" s="103">
         <v>1002</v>
       </c>
-      <c r="K120" s="34" t="s">
+      <c r="K120" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="L120" s="33" t="s">
+      <c r="L120" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="M120" s="35" t="s">
+      <c r="M120" s="110" t="s">
         <v>192</v>
       </c>
     </row>
@@ -30681,24 +30719,24 @@
       <c r="J121" s="95"/>
       <c r="K121" s="95"/>
       <c r="L121" s="95"/>
-      <c r="M121" s="97"/>
+      <c r="M121" s="96"/>
     </row>
     <row r="122" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A122" s="100" t="s">
+      <c r="A122" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="B122" s="101"/>
-      <c r="C122" s="101"/>
-      <c r="D122" s="101"/>
-      <c r="E122" s="101"/>
-      <c r="F122" s="101"/>
-      <c r="G122" s="101"/>
-      <c r="H122" s="101"/>
-      <c r="I122" s="101"/>
-      <c r="J122" s="101"/>
-      <c r="K122" s="101"/>
-      <c r="L122" s="101"/>
-      <c r="M122" s="101"/>
+      <c r="B122" s="98"/>
+      <c r="C122" s="98"/>
+      <c r="D122" s="98"/>
+      <c r="E122" s="98"/>
+      <c r="F122" s="98"/>
+      <c r="G122" s="98"/>
+      <c r="H122" s="98"/>
+      <c r="I122" s="98"/>
+      <c r="J122" s="98"/>
+      <c r="K122" s="98"/>
+      <c r="L122" s="98"/>
+      <c r="M122" s="98"/>
     </row>
     <row r="123" spans="1:64" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
@@ -31192,85 +31230,85 @@
         <v>205</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A135" s="4">
+    <row r="135" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="103">
         <v>113</v>
       </c>
-      <c r="B135" s="34" t="s">
+      <c r="B135" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="105" t="s">
         <v>207</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="103">
         <v>203</v>
       </c>
-      <c r="E135" s="4" t="s">
+      <c r="E135" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="G135" s="25">
+      <c r="G135" s="103">
         <v>400</v>
       </c>
-      <c r="H135" s="4" t="s">
+      <c r="H135" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="I135" s="4" t="s">
+      <c r="I135" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="J135" s="4">
+      <c r="J135" s="103">
         <v>1002</v>
       </c>
-      <c r="K135" s="34" t="s">
+      <c r="K135" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="L135" s="34" t="s">
+      <c r="L135" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="M135" s="32" t="s">
+      <c r="M135" s="104" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A136" s="4">
+    <row r="136" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="103">
         <v>114</v>
       </c>
-      <c r="B136" s="34" t="s">
+      <c r="B136" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="103">
         <v>204</v>
       </c>
-      <c r="E136" s="4" t="s">
+      <c r="E136" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="F136" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="G136" s="25">
+      <c r="G136" s="103">
         <v>400</v>
       </c>
-      <c r="H136" s="4" t="s">
+      <c r="H136" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="I136" s="4" t="s">
+      <c r="I136" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="J136" s="4">
+      <c r="J136" s="103">
         <v>1002</v>
       </c>
-      <c r="K136" s="34" t="s">
+      <c r="K136" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="L136" s="34" t="s">
+      <c r="L136" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="M136" s="32" t="s">
+      <c r="M136" s="104" t="s">
         <v>206</v>
       </c>
     </row>
@@ -31356,7 +31394,7 @@
         <v>200</v>
       </c>
       <c r="C139" s="93" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>12</v>
@@ -31378,11 +31416,11 @@
         <v>3005</v>
       </c>
       <c r="K139" s="93" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L139" s="35"/>
       <c r="M139" s="92" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
@@ -31393,7 +31431,7 @@
         <v>200</v>
       </c>
       <c r="C140" s="93" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D140" s="4">
         <v>203</v>
@@ -31415,7 +31453,7 @@
         <v>3006</v>
       </c>
       <c r="K140" s="93" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L140" s="35"/>
       <c r="M140" s="93" t="s">
@@ -36060,21 +36098,21 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A56:M56"/>
+    <mergeCell ref="A69:M69"/>
+    <mergeCell ref="A83:M83"/>
+    <mergeCell ref="A82:M82"/>
+    <mergeCell ref="A100:M100"/>
+    <mergeCell ref="A70:M70"/>
+    <mergeCell ref="A57:M57"/>
     <mergeCell ref="A121:M121"/>
     <mergeCell ref="A122:M122"/>
     <mergeCell ref="A115:M115"/>
     <mergeCell ref="A98:M98"/>
     <mergeCell ref="A101:M101"/>
-    <mergeCell ref="A83:M83"/>
-    <mergeCell ref="A82:M82"/>
-    <mergeCell ref="A100:M100"/>
-    <mergeCell ref="A70:M70"/>
-    <mergeCell ref="A57:M57"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A56:M56"/>
-    <mergeCell ref="A69:M69"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H64:H68 H48:H54 H109:H113 H91:H97 H77:H81 H99 H21 H116:H120 H7:H8 H61:H62 H74:H75 H87:H89 H105:H107 H126:H127 H10:H16 H129:H136 H23:H46">

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="237">
   <si>
     <t>Payslip</t>
   </si>
@@ -777,12 +777,24 @@
   <si>
     <t>Both period start date and period end date must be of the same month. (e.g. startDate: 2019-03-01 and endDate: 2019-04-30 shouldn't be allowed.</t>
   </si>
+  <si>
+    <t>Cert does not have appropriate permissions.</t>
+  </si>
+  <si>
+    <t>Cert must be set up with permissions to use payroll functions.</t>
+  </si>
+  <si>
+    <t>Modified to 'cert' instead of 'agent'</t>
+  </si>
+  <si>
+    <t>No return found for requested period</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,6 +908,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -940,7 +964,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -978,95 +1002,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1172,21 +1113,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1202,15 +1128,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1219,9 +1136,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1238,57 +1152,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1299,21 +1162,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1329,50 +1177,44 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -22073,7 +21915,7 @@
   <dimension ref="B8:M32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22090,18 +21932,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
@@ -22340,8 +22182,12 @@
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="D25" s="15">
+        <v>9</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
@@ -22403,8 +22249,8 @@
   <dimension ref="A1:BL449"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L141" sqref="L141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -22413,11 +22259,11 @@
     <col min="2" max="2" width="22.109375" style="11" customWidth="1"/>
     <col min="3" max="3" width="50.6640625" style="2" customWidth="1"/>
     <col min="4" max="6" width="10.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="56" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="48" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58.6640625" style="59" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" style="50" customWidth="1"/>
     <col min="12" max="12" width="28" style="11" customWidth="1"/>
     <col min="13" max="13" width="30" style="11" customWidth="1"/>
     <col min="14" max="64" width="9.109375" style="23"/>
@@ -22517,21 +22363,21 @@
       <c r="BL1" s="21"/>
     </row>
     <row r="2" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
@@ -22585,21 +22431,21 @@
       <c r="BL2" s="22"/>
     </row>
     <row r="3" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -22689,7 +22535,7 @@
       <c r="L4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="51" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="22"/>
@@ -22781,7 +22627,7 @@
       <c r="L5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="49" t="s">
         <v>12</v>
       </c>
       <c r="N5" s="22"/>
@@ -22947,7 +22793,7 @@
       <c r="F7" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="46">
         <v>400</v>
       </c>
       <c r="H7" s="25" t="s">
@@ -22956,7 +22802,7 @@
       <c r="I7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="42">
         <v>1003</v>
       </c>
       <c r="K7" s="34" t="s">
@@ -22988,7 +22834,7 @@
       <c r="F8" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="46">
         <v>400</v>
       </c>
       <c r="H8" s="25" t="s">
@@ -23010,44 +22856,44 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:64" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>116</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="56">
         <v>400</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="65">
+      <c r="J9" s="55">
         <v>1015</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="K9" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="L9" s="63" t="s">
+      <c r="L9" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="66" t="s">
+      <c r="M9" s="73" t="s">
         <v>12</v>
       </c>
     </row>
@@ -23070,7 +22916,7 @@
       <c r="F10" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="46">
         <v>403</v>
       </c>
       <c r="H10" s="25" t="s">
@@ -23111,7 +22957,7 @@
       <c r="F11" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="46">
         <v>403</v>
       </c>
       <c r="H11" s="25" t="s">
@@ -23152,7 +22998,7 @@
       <c r="F12" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="46">
         <v>403</v>
       </c>
       <c r="H12" s="25" t="s">
@@ -23182,7 +23028,7 @@
         <v>112</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="D13" s="25">
         <v>2</v>
@@ -23193,7 +23039,7 @@
       <c r="F13" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="46">
         <v>403</v>
       </c>
       <c r="H13" s="25" t="s">
@@ -23206,7 +23052,7 @@
         <v>1011</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="L13" s="34" t="s">
         <v>63</v>
@@ -23234,7 +23080,7 @@
       <c r="F14" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="46">
         <v>400</v>
       </c>
       <c r="H14" s="25" t="s">
@@ -23275,7 +23121,7 @@
       <c r="F15" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="46">
         <v>400</v>
       </c>
       <c r="H15" s="25" t="s">
@@ -23316,7 +23162,7 @@
       <c r="F16" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="46">
         <v>400</v>
       </c>
       <c r="H16" s="25" t="s">
@@ -23338,278 +23184,278 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:64" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>123</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="56">
         <v>400</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="64" t="s">
+      <c r="I17" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="68">
+      <c r="J17" s="57">
         <v>5002</v>
       </c>
-      <c r="K17" s="63" t="s">
+      <c r="K17" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="L17" s="63" t="s">
+      <c r="L17" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="M17" s="66" t="s">
+      <c r="M17" s="73" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A18" s="69">
+      <c r="A18" s="4">
         <v>124</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="72" t="s">
+      <c r="F18" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="72">
+      <c r="G18" s="56">
         <v>400</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="72" t="s">
+      <c r="I18" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="73">
+      <c r="J18" s="57">
         <v>5003</v>
       </c>
-      <c r="K18" s="70" t="s">
+      <c r="K18" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="L18" s="70" t="s">
+      <c r="L18" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="74" t="s">
+      <c r="M18" s="73" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A19" s="69">
+      <c r="A19" s="4">
         <v>126</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="87" t="s">
+      <c r="E19" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="87" t="s">
+      <c r="F19" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="G19" s="87">
+      <c r="G19" s="56">
         <v>400</v>
       </c>
-      <c r="H19" s="87" t="s">
+      <c r="H19" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="87" t="s">
+      <c r="I19" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="88">
+      <c r="J19" s="57">
         <v>2049</v>
       </c>
-      <c r="K19" s="85" t="s">
+      <c r="K19" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="L19" s="84" t="s">
+      <c r="L19" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="M19" s="85" t="s">
+      <c r="M19" s="74" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:64" s="91" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="60" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>127</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="82" t="s">
+      <c r="E20" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="82" t="s">
+      <c r="F20" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="G20" s="82">
+      <c r="G20" s="56">
         <v>400</v>
       </c>
-      <c r="H20" s="82" t="s">
+      <c r="H20" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="82" t="s">
+      <c r="I20" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="83">
+      <c r="J20" s="57">
         <v>2050</v>
       </c>
-      <c r="K20" s="89" t="s">
+      <c r="K20" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="L20" s="80" t="s">
+      <c r="L20" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="M20" s="89" t="s">
+      <c r="M20" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="90"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="90"/>
-      <c r="AH20" s="90"/>
-      <c r="AI20" s="90"/>
-      <c r="AJ20" s="90"/>
-      <c r="AK20" s="90"/>
-      <c r="AL20" s="90"/>
-      <c r="AM20" s="90"/>
-      <c r="AN20" s="90"/>
-      <c r="AO20" s="90"/>
-      <c r="AP20" s="90"/>
-      <c r="AQ20" s="90"/>
-      <c r="AR20" s="90"/>
-      <c r="AS20" s="90"/>
-      <c r="AT20" s="90"/>
-      <c r="AU20" s="90"/>
-      <c r="AV20" s="90"/>
-      <c r="AW20" s="90"/>
-      <c r="AX20" s="90"/>
-      <c r="AY20" s="90"/>
-      <c r="AZ20" s="90"/>
-      <c r="BA20" s="90"/>
-      <c r="BB20" s="90"/>
-      <c r="BC20" s="90"/>
-      <c r="BD20" s="90"/>
-      <c r="BE20" s="90"/>
-      <c r="BF20" s="90"/>
-      <c r="BG20" s="90"/>
-      <c r="BH20" s="90"/>
-      <c r="BI20" s="90"/>
-      <c r="BJ20" s="90"/>
-      <c r="BK20" s="90"/>
-      <c r="BL20" s="90"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="59"/>
+      <c r="AL20" s="59"/>
+      <c r="AM20" s="59"/>
+      <c r="AN20" s="59"/>
+      <c r="AO20" s="59"/>
+      <c r="AP20" s="59"/>
+      <c r="AQ20" s="59"/>
+      <c r="AR20" s="59"/>
+      <c r="AS20" s="59"/>
+      <c r="AT20" s="59"/>
+      <c r="AU20" s="59"/>
+      <c r="AV20" s="59"/>
+      <c r="AW20" s="59"/>
+      <c r="AX20" s="59"/>
+      <c r="AY20" s="59"/>
+      <c r="AZ20" s="59"/>
+      <c r="BA20" s="59"/>
+      <c r="BB20" s="59"/>
+      <c r="BC20" s="59"/>
+      <c r="BD20" s="59"/>
+      <c r="BE20" s="59"/>
+      <c r="BF20" s="59"/>
+      <c r="BG20" s="59"/>
+      <c r="BH20" s="59"/>
+      <c r="BI20" s="59"/>
+      <c r="BJ20" s="59"/>
+      <c r="BK20" s="59"/>
+      <c r="BL20" s="59"/>
     </row>
     <row r="21" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A21" s="75">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="77">
+      <c r="D21" s="25">
         <v>5</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F21" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G21" s="78">
+      <c r="G21" s="46">
         <v>400</v>
       </c>
-      <c r="H21" s="77" t="s">
+      <c r="H21" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="77" t="s">
+      <c r="I21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="79">
+      <c r="J21" s="26">
         <v>1009</v>
       </c>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="57" t="s">
+      <c r="L21" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="M21" s="57" t="s">
+      <c r="M21" s="34" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
@@ -23681,7 +23527,7 @@
       <c r="F23" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G23" s="54" t="s">
+      <c r="G23" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -23722,7 +23568,7 @@
       <c r="F24" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G24" s="54" t="s">
+      <c r="G24" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="5" t="s">
@@ -23763,7 +23609,7 @@
       <c r="F25" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="5" t="s">
@@ -23804,7 +23650,7 @@
       <c r="F26" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -23845,7 +23691,7 @@
       <c r="F27" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G27" s="54" t="s">
+      <c r="G27" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="5" t="s">
@@ -23886,7 +23732,7 @@
       <c r="F28" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G28" s="54" t="s">
+      <c r="G28" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="5" t="s">
@@ -23927,7 +23773,7 @@
       <c r="F29" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G29" s="54" t="s">
+      <c r="G29" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="5" t="s">
@@ -23968,7 +23814,7 @@
       <c r="F30" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G30" s="54" t="s">
+      <c r="G30" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="5" t="s">
@@ -24009,7 +23855,7 @@
       <c r="F31" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G31" s="54" t="s">
+      <c r="G31" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="5" t="s">
@@ -24050,7 +23896,7 @@
       <c r="F32" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="5" t="s">
@@ -24073,43 +23919,43 @@
       </c>
     </row>
     <row r="33" spans="1:64" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A33" s="103">
+      <c r="A33" s="66">
         <v>30</v>
       </c>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="105" t="s">
+      <c r="C33" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="D33" s="103">
+      <c r="D33" s="66">
         <v>12</v>
       </c>
-      <c r="E33" s="103" t="s">
+      <c r="E33" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="F33" s="103" t="s">
+      <c r="F33" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G33" s="106" t="s">
+      <c r="G33" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="103" t="s">
+      <c r="H33" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="103" t="s">
+      <c r="I33" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="103">
+      <c r="J33" s="66">
         <v>1002</v>
       </c>
-      <c r="K33" s="104" t="s">
+      <c r="K33" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="L33" s="104" t="s">
+      <c r="L33" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="M33" s="104" t="s">
+      <c r="M33" s="67" t="s">
         <v>44</v>
       </c>
     </row>
@@ -24132,7 +23978,7 @@
       <c r="F34" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G34" s="54" t="s">
+      <c r="G34" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -24173,7 +24019,7 @@
       <c r="F35" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G35" s="54" t="s">
+      <c r="G35" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="5" t="s">
@@ -24214,7 +24060,7 @@
       <c r="F36" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G36" s="54" t="s">
+      <c r="G36" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H36" s="25" t="s">
@@ -24223,7 +24069,7 @@
       <c r="I36" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J36" s="53">
+      <c r="J36" s="26">
         <v>2020</v>
       </c>
       <c r="K36" s="34" t="s">
@@ -24288,43 +24134,43 @@
       <c r="BL36" s="37"/>
     </row>
     <row r="37" spans="1:64" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A37" s="103">
+      <c r="A37" s="66">
         <v>34</v>
       </c>
-      <c r="B37" s="104" t="s">
+      <c r="B37" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="105" t="s">
+      <c r="C37" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="D37" s="103">
+      <c r="D37" s="66">
         <v>16</v>
       </c>
-      <c r="E37" s="103" t="s">
+      <c r="E37" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="103" t="s">
+      <c r="F37" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G37" s="106" t="s">
+      <c r="G37" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="103" t="s">
+      <c r="H37" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="107" t="s">
+      <c r="I37" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="103">
+      <c r="J37" s="66">
         <v>1002</v>
       </c>
-      <c r="K37" s="104" t="s">
+      <c r="K37" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="L37" s="104" t="s">
+      <c r="L37" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="M37" s="104" t="s">
+      <c r="M37" s="67" t="s">
         <v>56</v>
       </c>
     </row>
@@ -24347,7 +24193,7 @@
       <c r="F38" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G38" s="54" t="s">
+      <c r="G38" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H38" s="5" t="s">
@@ -24356,7 +24202,7 @@
       <c r="I38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J38" s="51">
+      <c r="J38" s="5">
         <v>2023</v>
       </c>
       <c r="K38" s="32" t="s">
@@ -24376,7 +24222,7 @@
       <c r="B39" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="43" t="s">
         <v>135</v>
       </c>
       <c r="D39" s="40">
@@ -24388,7 +24234,7 @@
       <c r="F39" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G39" s="54" t="s">
+      <c r="G39" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="40" t="s">
@@ -24397,7 +24243,7 @@
       <c r="I39" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="J39" s="51">
+      <c r="J39" s="5">
         <v>2025</v>
       </c>
       <c r="K39" s="34" t="s">
@@ -24480,7 +24326,7 @@
       <c r="F40" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="54" t="s">
+      <c r="G40" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -24489,7 +24335,7 @@
       <c r="I40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="51">
+      <c r="J40" s="5">
         <v>2030</v>
       </c>
       <c r="K40" s="32" t="s">
@@ -24572,7 +24418,7 @@
       <c r="F41" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G41" s="54" t="s">
+      <c r="G41" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="5" t="s">
@@ -24581,7 +24427,7 @@
       <c r="I41" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="51">
+      <c r="J41" s="5">
         <v>2028</v>
       </c>
       <c r="K41" s="32" t="s">
@@ -24613,7 +24459,7 @@
       <c r="F42" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G42" s="54" t="s">
+      <c r="G42" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H42" s="5" t="s">
@@ -24622,7 +24468,7 @@
       <c r="I42" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J42" s="51">
+      <c r="J42" s="5">
         <v>2029</v>
       </c>
       <c r="K42" s="32" t="s">
@@ -24654,7 +24500,7 @@
       <c r="F43" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G43" s="54" t="s">
+      <c r="G43" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H43" s="5" t="s">
@@ -24663,7 +24509,7 @@
       <c r="I43" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J43" s="51">
+      <c r="J43" s="5">
         <v>2031</v>
       </c>
       <c r="K43" s="32" t="s">
@@ -24695,7 +24541,7 @@
       <c r="F44" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G44" s="54" t="s">
+      <c r="G44" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="5" t="s">
@@ -24704,7 +24550,7 @@
       <c r="I44" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J44" s="51">
+      <c r="J44" s="5">
         <v>2032</v>
       </c>
       <c r="K44" s="32" t="s">
@@ -24736,7 +24582,7 @@
       <c r="F45" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G45" s="54" t="s">
+      <c r="G45" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="25" t="s">
@@ -24745,7 +24591,7 @@
       <c r="I45" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J45" s="51">
+      <c r="J45" s="5">
         <v>2019</v>
       </c>
       <c r="K45" s="34" t="s">
@@ -24759,43 +24605,43 @@
       </c>
     </row>
     <row r="46" spans="1:64" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A46" s="103">
+      <c r="A46" s="66">
         <v>43</v>
       </c>
-      <c r="B46" s="104" t="s">
+      <c r="B46" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="105" t="s">
+      <c r="C46" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D46" s="103">
+      <c r="D46" s="66">
         <v>17</v>
       </c>
-      <c r="E46" s="103" t="s">
+      <c r="E46" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="F46" s="103" t="s">
+      <c r="F46" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G46" s="106" t="s">
+      <c r="G46" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="103" t="s">
+      <c r="H46" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="107" t="s">
+      <c r="I46" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="103">
+      <c r="J46" s="66">
         <v>1002</v>
       </c>
-      <c r="K46" s="104" t="s">
+      <c r="K46" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="L46" s="104" t="s">
+      <c r="L46" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="M46" s="104" t="s">
+      <c r="M46" s="67" t="s">
         <v>62</v>
       </c>
     </row>
@@ -24803,13 +24649,13 @@
       <c r="A47" s="5">
         <v>44</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="49">
+      <c r="D47" s="44">
         <v>30</v>
       </c>
       <c r="E47" s="25" t="s">
@@ -24818,25 +24664,25 @@
       <c r="F47" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G47" s="54" t="s">
+      <c r="G47" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="49" t="s">
+      <c r="H47" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="52" t="s">
+      <c r="I47" s="44" t="s">
         <v>35</v>
       </c>
       <c r="J47" s="5">
         <v>2043</v>
       </c>
-      <c r="K47" s="46" t="s">
+      <c r="K47" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="L47" s="46" t="s">
+      <c r="L47" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="M47" s="50" t="s">
+      <c r="M47" s="45" t="s">
         <v>127</v>
       </c>
       <c r="N47" s="37"/>
@@ -24895,13 +24741,13 @@
       <c r="A48" s="5">
         <v>45</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="5">
         <v>31</v>
       </c>
       <c r="E48" s="25" t="s">
@@ -24910,25 +24756,25 @@
       <c r="F48" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G48" s="54" t="s">
+      <c r="G48" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="43" t="s">
+      <c r="H48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="43" t="s">
+      <c r="I48" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J48" s="44">
+      <c r="J48" s="8">
         <v>2033</v>
       </c>
-      <c r="K48" s="57" t="s">
+      <c r="K48" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="L48" s="45" t="s">
+      <c r="L48" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M48" s="45" t="s">
+      <c r="M48" s="33" t="s">
         <v>118</v>
       </c>
     </row>
@@ -24951,7 +24797,7 @@
       <c r="F49" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G49" s="54" t="s">
+      <c r="G49" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="5" t="s">
@@ -24992,7 +24838,7 @@
       <c r="F50" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G50" s="54" t="s">
+      <c r="G50" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="5" t="s">
@@ -25033,7 +24879,7 @@
       <c r="F51" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G51" s="54" t="s">
+      <c r="G51" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="5" t="s">
@@ -25074,7 +24920,7 @@
       <c r="F52" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G52" s="54" t="s">
+      <c r="G52" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="5" t="s">
@@ -25115,7 +24961,7 @@
       <c r="F53" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G53" s="54" t="s">
+      <c r="G53" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="4" t="s">
@@ -25207,7 +25053,7 @@
       <c r="F54" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G54" s="54" t="s">
+      <c r="G54" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -25280,44 +25126,44 @@
       <c r="BK54" s="23"/>
       <c r="BL54" s="23"/>
     </row>
-    <row r="55" spans="1:64" s="7" customFormat="1" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="67">
+    <row r="55" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
         <v>122</v>
       </c>
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="63" t="s">
+      <c r="C55" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="D55" s="65" t="s">
+      <c r="D55" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="64" t="s">
+      <c r="E55" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="F55" s="64" t="s">
+      <c r="F55" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="G55" s="64">
+      <c r="G55" s="56">
         <v>400</v>
       </c>
-      <c r="H55" s="64" t="s">
+      <c r="H55" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I55" s="64" t="s">
+      <c r="I55" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="J55" s="65">
+      <c r="J55" s="55">
         <v>2047</v>
       </c>
-      <c r="K55" s="63" t="s">
+      <c r="K55" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="L55" s="63" t="s">
+      <c r="L55" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="M55" s="66" t="s">
+      <c r="M55" s="73" t="s">
         <v>0</v>
       </c>
       <c r="N55" s="23"/>
@@ -25373,21 +25219,21 @@
       <c r="BL55" s="23"/>
     </row>
     <row r="56" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="96" t="s">
+      <c r="A56" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="101"/>
-      <c r="L56" s="101"/>
-      <c r="M56" s="102"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
       <c r="P56" s="22"/>
@@ -25441,21 +25287,21 @@
       <c r="BL56" s="22"/>
     </row>
     <row r="57" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100" t="s">
+      <c r="A57" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="100"/>
-      <c r="K57" s="100"/>
-      <c r="L57" s="100"/>
-      <c r="M57" s="100"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
@@ -25508,7 +25354,7 @@
       <c r="BK57" s="22"/>
       <c r="BL57" s="22"/>
     </row>
-    <row r="58" spans="1:64" s="61" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:64" s="52" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>52</v>
       </c>
@@ -25545,7 +25391,7 @@
       <c r="L58" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M58" s="60" t="s">
+      <c r="M58" s="51" t="s">
         <v>12</v>
       </c>
       <c r="N58" s="22"/>
@@ -25600,7 +25446,7 @@
       <c r="BK58" s="22"/>
       <c r="BL58" s="22"/>
     </row>
-    <row r="59" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:64" s="52" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>53</v>
       </c>
@@ -25637,7 +25483,7 @@
       <c r="L59" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M59" s="58" t="s">
+      <c r="M59" s="49" t="s">
         <v>12</v>
       </c>
       <c r="N59" s="22"/>
@@ -25692,7 +25538,7 @@
       <c r="BK59" s="22"/>
       <c r="BL59" s="22"/>
     </row>
-    <row r="60" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:64" s="52" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>54</v>
       </c>
@@ -25968,44 +25814,44 @@
       <c r="BK62" s="23"/>
       <c r="BL62" s="23"/>
     </row>
-    <row r="63" spans="1:64" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>117</v>
       </c>
       <c r="B63" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="63" t="s">
+      <c r="C63" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="D63" s="65" t="s">
+      <c r="D63" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="65" t="s">
+      <c r="E63" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="F63" s="65" t="s">
+      <c r="F63" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="G63" s="64">
+      <c r="G63" s="56">
         <v>400</v>
       </c>
-      <c r="H63" s="65" t="s">
+      <c r="H63" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="I63" s="64" t="s">
+      <c r="I63" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="J63" s="65">
+      <c r="J63" s="55">
         <v>1015</v>
       </c>
-      <c r="K63" s="63" t="s">
+      <c r="K63" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="L63" s="63" t="s">
+      <c r="L63" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M63" s="66" t="s">
+      <c r="M63" s="73" t="s">
         <v>12</v>
       </c>
     </row>
@@ -26470,21 +26316,21 @@
       <c r="BL68" s="23"/>
     </row>
     <row r="69" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="95" t="s">
+      <c r="A69" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="95"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="95"/>
-      <c r="E69" s="95"/>
-      <c r="F69" s="95"/>
-      <c r="G69" s="95"/>
-      <c r="H69" s="95"/>
-      <c r="I69" s="95"/>
-      <c r="J69" s="95"/>
-      <c r="K69" s="95"/>
-      <c r="L69" s="95"/>
-      <c r="M69" s="95"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
+      <c r="M69" s="64"/>
       <c r="N69" s="22"/>
       <c r="O69" s="22"/>
       <c r="P69" s="22"/>
@@ -26538,21 +26384,21 @@
       <c r="BL69" s="22"/>
     </row>
     <row r="70" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="100" t="s">
+      <c r="A70" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="B70" s="100"/>
-      <c r="C70" s="100"/>
-      <c r="D70" s="100"/>
-      <c r="E70" s="100"/>
-      <c r="F70" s="100"/>
-      <c r="G70" s="100"/>
-      <c r="H70" s="100"/>
-      <c r="I70" s="100"/>
-      <c r="J70" s="100"/>
-      <c r="K70" s="100"/>
-      <c r="L70" s="100"/>
-      <c r="M70" s="100"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
+      <c r="M70" s="65"/>
       <c r="N70" s="22"/>
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
@@ -26605,7 +26451,7 @@
       <c r="BK70" s="22"/>
       <c r="BL70" s="22"/>
     </row>
-    <row r="71" spans="1:64" s="61" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:64" s="52" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>62</v>
       </c>
@@ -26642,7 +26488,7 @@
       <c r="L71" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M71" s="60" t="s">
+      <c r="M71" s="51" t="s">
         <v>12</v>
       </c>
       <c r="N71" s="22"/>
@@ -26697,7 +26543,7 @@
       <c r="BK71" s="22"/>
       <c r="BL71" s="22"/>
     </row>
-    <row r="72" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:64" s="52" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>63</v>
       </c>
@@ -26734,7 +26580,7 @@
       <c r="L72" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M72" s="58" t="s">
+      <c r="M72" s="49" t="s">
         <v>12</v>
       </c>
       <c r="N72" s="22"/>
@@ -26789,7 +26635,7 @@
       <c r="BK72" s="22"/>
       <c r="BL72" s="22"/>
     </row>
-    <row r="73" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:64" s="52" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>64</v>
       </c>
@@ -26912,7 +26758,7 @@
       <c r="J74" s="26">
         <v>1003</v>
       </c>
-      <c r="K74" s="58" t="s">
+      <c r="K74" s="49" t="s">
         <v>14</v>
       </c>
       <c r="L74" s="32" t="s">
@@ -27065,44 +26911,44 @@
       <c r="BK75" s="23"/>
       <c r="BL75" s="23"/>
     </row>
-    <row r="76" spans="1:64" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>118</v>
       </c>
       <c r="B76" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C76" s="63" t="s">
+      <c r="C76" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="D76" s="65" t="s">
+      <c r="D76" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="65" t="s">
+      <c r="E76" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="F76" s="65" t="s">
+      <c r="F76" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="G76" s="64">
+      <c r="G76" s="56">
         <v>400</v>
       </c>
-      <c r="H76" s="65" t="s">
+      <c r="H76" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="I76" s="64" t="s">
+      <c r="I76" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="J76" s="65">
+      <c r="J76" s="55">
         <v>1015</v>
       </c>
-      <c r="K76" s="63" t="s">
+      <c r="K76" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="L76" s="63" t="s">
+      <c r="L76" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M76" s="66" t="s">
+      <c r="M76" s="73" t="s">
         <v>12</v>
       </c>
     </row>
@@ -27567,21 +27413,21 @@
       <c r="BL81" s="23"/>
     </row>
     <row r="82" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="95" t="s">
+      <c r="A82" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="B82" s="95"/>
-      <c r="C82" s="95"/>
-      <c r="D82" s="95"/>
-      <c r="E82" s="95"/>
-      <c r="F82" s="95"/>
-      <c r="G82" s="95"/>
-      <c r="H82" s="95"/>
-      <c r="I82" s="95"/>
-      <c r="J82" s="95"/>
-      <c r="K82" s="95"/>
-      <c r="L82" s="95"/>
-      <c r="M82" s="95"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="64"/>
+      <c r="K82" s="64"/>
+      <c r="L82" s="64"/>
+      <c r="M82" s="64"/>
       <c r="N82" s="22"/>
       <c r="O82" s="22"/>
       <c r="P82" s="22"/>
@@ -27635,21 +27481,21 @@
       <c r="BL82" s="22"/>
     </row>
     <row r="83" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="100" t="s">
+      <c r="A83" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="100"/>
-      <c r="C83" s="100"/>
-      <c r="D83" s="100"/>
-      <c r="E83" s="100"/>
-      <c r="F83" s="100"/>
-      <c r="G83" s="100"/>
-      <c r="H83" s="100"/>
-      <c r="I83" s="100"/>
-      <c r="J83" s="100"/>
-      <c r="K83" s="100"/>
-      <c r="L83" s="100"/>
-      <c r="M83" s="100"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="65"/>
+      <c r="H83" s="65"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="65"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="65"/>
+      <c r="M83" s="65"/>
       <c r="N83" s="22"/>
       <c r="O83" s="22"/>
       <c r="P83" s="22"/>
@@ -27702,7 +27548,7 @@
       <c r="BK83" s="22"/>
       <c r="BL83" s="22"/>
     </row>
-    <row r="84" spans="1:64" s="61" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:64" s="52" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>72</v>
       </c>
@@ -27739,7 +27585,7 @@
       <c r="L84" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M84" s="60" t="s">
+      <c r="M84" s="51" t="s">
         <v>12</v>
       </c>
       <c r="N84" s="22"/>
@@ -27794,7 +27640,7 @@
       <c r="BK84" s="22"/>
       <c r="BL84" s="22"/>
     </row>
-    <row r="85" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:64" s="52" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>73</v>
       </c>
@@ -27831,7 +27677,7 @@
       <c r="L85" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M85" s="58" t="s">
+      <c r="M85" s="49" t="s">
         <v>12</v>
       </c>
       <c r="N85" s="22"/>
@@ -27886,7 +27732,7 @@
       <c r="BK85" s="22"/>
       <c r="BL85" s="22"/>
     </row>
-    <row r="86" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:64" s="52" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>74</v>
       </c>
@@ -28254,44 +28100,44 @@
       <c r="BK89" s="23"/>
       <c r="BL89" s="23"/>
     </row>
-    <row r="90" spans="1:64" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>119</v>
       </c>
       <c r="B90" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C90" s="63" t="s">
+      <c r="C90" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="D90" s="65" t="s">
+      <c r="D90" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="65" t="s">
+      <c r="E90" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="F90" s="65" t="s">
+      <c r="F90" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="G90" s="64">
+      <c r="G90" s="56">
         <v>400</v>
       </c>
-      <c r="H90" s="65" t="s">
+      <c r="H90" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="I90" s="64" t="s">
+      <c r="I90" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="J90" s="65">
+      <c r="J90" s="55">
         <v>1015</v>
       </c>
-      <c r="K90" s="63" t="s">
+      <c r="K90" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="L90" s="63" t="s">
+      <c r="L90" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M90" s="66" t="s">
+      <c r="M90" s="73" t="s">
         <v>12</v>
       </c>
     </row>
@@ -28848,43 +28694,43 @@
       <c r="BL96" s="23"/>
     </row>
     <row r="97" spans="1:64" s="7" customFormat="1" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A97" s="103">
+      <c r="A97" s="66">
         <v>84</v>
       </c>
-      <c r="B97" s="104" t="s">
+      <c r="B97" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="C97" s="105" t="s">
+      <c r="C97" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="D97" s="103" t="s">
+      <c r="D97" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="103" t="s">
+      <c r="E97" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="F97" s="103" t="s">
+      <c r="F97" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G97" s="103">
+      <c r="G97" s="66">
         <v>400</v>
       </c>
-      <c r="H97" s="103" t="s">
+      <c r="H97" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I97" s="103" t="s">
+      <c r="I97" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J97" s="103">
+      <c r="J97" s="66">
         <v>1002</v>
       </c>
-      <c r="K97" s="104" t="s">
+      <c r="K97" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="L97" s="104" t="s">
+      <c r="L97" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="M97" s="104" t="s">
+      <c r="M97" s="67" t="s">
         <v>74</v>
       </c>
       <c r="N97" s="23"/>
@@ -28940,21 +28786,21 @@
       <c r="BL97" s="23"/>
     </row>
     <row r="98" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="100" t="s">
+      <c r="A98" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="B98" s="100"/>
-      <c r="C98" s="100"/>
-      <c r="D98" s="100"/>
-      <c r="E98" s="100"/>
-      <c r="F98" s="100"/>
-      <c r="G98" s="100"/>
-      <c r="H98" s="100"/>
-      <c r="I98" s="100"/>
-      <c r="J98" s="100"/>
-      <c r="K98" s="100"/>
-      <c r="L98" s="100"/>
-      <c r="M98" s="100"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="65"/>
+      <c r="K98" s="65"/>
+      <c r="L98" s="65"/>
+      <c r="M98" s="65"/>
       <c r="N98" s="22"/>
       <c r="O98" s="22"/>
       <c r="P98" s="22"/>
@@ -29026,7 +28872,7 @@
       <c r="F99" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G99" s="54" t="s">
+      <c r="G99" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H99" s="4" t="s">
@@ -29100,21 +28946,21 @@
       <c r="BL99" s="23"/>
     </row>
     <row r="100" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="95" t="s">
+      <c r="A100" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="B100" s="95"/>
-      <c r="C100" s="95"/>
-      <c r="D100" s="95"/>
-      <c r="E100" s="95"/>
-      <c r="F100" s="95"/>
-      <c r="G100" s="95"/>
-      <c r="H100" s="95"/>
-      <c r="I100" s="95"/>
-      <c r="J100" s="95"/>
-      <c r="K100" s="95"/>
-      <c r="L100" s="95"/>
-      <c r="M100" s="95"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="64"/>
+      <c r="I100" s="64"/>
+      <c r="J100" s="64"/>
+      <c r="K100" s="64"/>
+      <c r="L100" s="64"/>
+      <c r="M100" s="64"/>
       <c r="N100" s="22"/>
       <c r="O100" s="22"/>
       <c r="P100" s="22"/>
@@ -29168,21 +29014,21 @@
       <c r="BL100" s="22"/>
     </row>
     <row r="101" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="100" t="s">
+      <c r="A101" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="B101" s="100"/>
-      <c r="C101" s="100"/>
-      <c r="D101" s="100"/>
-      <c r="E101" s="100"/>
-      <c r="F101" s="100"/>
-      <c r="G101" s="100"/>
-      <c r="H101" s="100"/>
-      <c r="I101" s="100"/>
-      <c r="J101" s="100"/>
-      <c r="K101" s="100"/>
-      <c r="L101" s="100"/>
-      <c r="M101" s="100"/>
+      <c r="B101" s="65"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65"/>
+      <c r="K101" s="65"/>
+      <c r="L101" s="65"/>
+      <c r="M101" s="65"/>
       <c r="N101" s="22"/>
       <c r="O101" s="22"/>
       <c r="P101" s="22"/>
@@ -29235,14 +29081,14 @@
       <c r="BK101" s="22"/>
       <c r="BL101" s="22"/>
     </row>
-    <row r="102" spans="1:64" s="61" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:64" s="52" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>86</v>
       </c>
       <c r="B102" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C102" s="62" t="s">
+      <c r="C102" s="53" t="s">
         <v>176</v>
       </c>
       <c r="D102" s="4" t="s">
@@ -29272,7 +29118,7 @@
       <c r="L102" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M102" s="60" t="s">
+      <c r="M102" s="51" t="s">
         <v>12</v>
       </c>
       <c r="N102" s="22"/>
@@ -29327,7 +29173,7 @@
       <c r="BK102" s="22"/>
       <c r="BL102" s="22"/>
     </row>
-    <row r="103" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:64" s="52" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>87</v>
       </c>
@@ -29364,7 +29210,7 @@
       <c r="L103" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M103" s="58" t="s">
+      <c r="M103" s="49" t="s">
         <v>12</v>
       </c>
       <c r="N103" s="22"/>
@@ -29419,7 +29265,7 @@
       <c r="BK103" s="22"/>
       <c r="BL103" s="22"/>
     </row>
-    <row r="104" spans="1:64" s="61" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:64" s="52" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>88</v>
       </c>
@@ -29787,44 +29633,44 @@
       <c r="BK107" s="23"/>
       <c r="BL107" s="23"/>
     </row>
-    <row r="108" spans="1:64" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>120</v>
       </c>
       <c r="B108" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C108" s="63" t="s">
+      <c r="C108" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="D108" s="65" t="s">
+      <c r="D108" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="65" t="s">
+      <c r="E108" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="F108" s="65" t="s">
+      <c r="F108" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="G108" s="64">
+      <c r="G108" s="56">
         <v>400</v>
       </c>
-      <c r="H108" s="65" t="s">
+      <c r="H108" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="I108" s="64" t="s">
+      <c r="I108" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="J108" s="65">
+      <c r="J108" s="55">
         <v>1015</v>
       </c>
-      <c r="K108" s="63" t="s">
+      <c r="K108" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="L108" s="63" t="s">
+      <c r="L108" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M108" s="66" t="s">
+      <c r="M108" s="73" t="s">
         <v>12</v>
       </c>
     </row>
@@ -30288,44 +30134,44 @@
       <c r="BK113" s="23"/>
       <c r="BL113" s="23"/>
     </row>
-    <row r="114" spans="1:64" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="67">
+    <row r="114" spans="1:64" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
         <v>125</v>
       </c>
-      <c r="B114" s="63" t="s">
+      <c r="B114" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="C114" s="63" t="s">
+      <c r="C114" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="D114" s="65" t="s">
+      <c r="D114" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E114" s="65" t="s">
+      <c r="E114" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="F114" s="65" t="s">
+      <c r="F114" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="G114" s="64">
+      <c r="G114" s="56">
         <v>400</v>
       </c>
-      <c r="H114" s="65" t="s">
+      <c r="H114" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="I114" s="64" t="s">
+      <c r="I114" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="J114" s="65">
+      <c r="J114" s="55">
         <v>4004</v>
       </c>
-      <c r="K114" s="63" t="s">
+      <c r="K114" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="L114" s="63" t="s">
+      <c r="L114" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M114" s="66" t="s">
+      <c r="M114" s="73" t="s">
         <v>12</v>
       </c>
       <c r="N114" s="23"/>
@@ -30381,21 +30227,21 @@
       <c r="BL114" s="23"/>
     </row>
     <row r="115" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="97" t="s">
+      <c r="A115" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="B115" s="98"/>
-      <c r="C115" s="98"/>
-      <c r="D115" s="98"/>
-      <c r="E115" s="98"/>
-      <c r="F115" s="98"/>
-      <c r="G115" s="98"/>
-      <c r="H115" s="98"/>
-      <c r="I115" s="98"/>
-      <c r="J115" s="98"/>
-      <c r="K115" s="98"/>
-      <c r="L115" s="98"/>
-      <c r="M115" s="99"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="65"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="65"/>
+      <c r="J115" s="65"/>
+      <c r="K115" s="65"/>
+      <c r="L115" s="65"/>
+      <c r="M115" s="65"/>
       <c r="N115" s="22"/>
       <c r="O115" s="22"/>
       <c r="P115" s="22"/>
@@ -30664,79 +30510,79 @@
       <c r="BL119" s="23"/>
     </row>
     <row r="120" spans="1:64" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A120" s="103">
+      <c r="A120" s="66">
         <v>101</v>
       </c>
-      <c r="B120" s="104" t="s">
+      <c r="B120" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="C120" s="109" t="s">
+      <c r="C120" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="D120" s="108" t="s">
+      <c r="D120" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E120" s="103" t="s">
+      <c r="E120" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="F120" s="103" t="s">
+      <c r="F120" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G120" s="103" t="s">
+      <c r="G120" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H120" s="103" t="s">
+      <c r="H120" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I120" s="108" t="s">
+      <c r="I120" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="J120" s="103">
+      <c r="J120" s="66">
         <v>1002</v>
       </c>
-      <c r="K120" s="104" t="s">
+      <c r="K120" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="L120" s="104" t="s">
+      <c r="L120" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="M120" s="110" t="s">
+      <c r="M120" s="71" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="121" spans="1:64" ht="18" x14ac:dyDescent="0.3">
-      <c r="A121" s="95" t="s">
+      <c r="A121" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="B121" s="95"/>
-      <c r="C121" s="95"/>
-      <c r="D121" s="95"/>
-      <c r="E121" s="95"/>
-      <c r="F121" s="95"/>
-      <c r="G121" s="95"/>
-      <c r="H121" s="95"/>
-      <c r="I121" s="95"/>
-      <c r="J121" s="95"/>
-      <c r="K121" s="95"/>
-      <c r="L121" s="95"/>
-      <c r="M121" s="96"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="64"/>
+      <c r="F121" s="64"/>
+      <c r="G121" s="64"/>
+      <c r="H121" s="64"/>
+      <c r="I121" s="64"/>
+      <c r="J121" s="64"/>
+      <c r="K121" s="64"/>
+      <c r="L121" s="64"/>
+      <c r="M121" s="64"/>
     </row>
     <row r="122" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A122" s="97" t="s">
+      <c r="A122" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="B122" s="98"/>
-      <c r="C122" s="98"/>
-      <c r="D122" s="98"/>
-      <c r="E122" s="98"/>
-      <c r="F122" s="98"/>
-      <c r="G122" s="98"/>
-      <c r="H122" s="98"/>
-      <c r="I122" s="98"/>
-      <c r="J122" s="98"/>
-      <c r="K122" s="98"/>
-      <c r="L122" s="98"/>
-      <c r="M122" s="98"/>
+      <c r="B122" s="65"/>
+      <c r="C122" s="65"/>
+      <c r="D122" s="65"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="65"/>
+      <c r="G122" s="65"/>
+      <c r="H122" s="65"/>
+      <c r="I122" s="65"/>
+      <c r="J122" s="65"/>
+      <c r="K122" s="65"/>
+      <c r="L122" s="65"/>
+      <c r="M122" s="65"/>
     </row>
     <row r="123" spans="1:64" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
@@ -30775,7 +30621,7 @@
       <c r="L123" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M123" s="60" t="s">
+      <c r="M123" s="51" t="s">
         <v>12</v>
       </c>
     </row>
@@ -30816,7 +30662,7 @@
       <c r="L124" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M124" s="58" t="s">
+      <c r="M124" s="49" t="s">
         <v>12</v>
       </c>
     </row>
@@ -30880,7 +30726,7 @@
       <c r="F126" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G126" s="54">
+      <c r="G126" s="46">
         <v>400</v>
       </c>
       <c r="H126" s="25" t="s">
@@ -30889,7 +30735,7 @@
       <c r="I126" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J126" s="47">
+      <c r="J126" s="42">
         <v>1003</v>
       </c>
       <c r="K126" s="34" t="s">
@@ -30921,7 +30767,7 @@
       <c r="F127" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G127" s="54">
+      <c r="G127" s="46">
         <v>400</v>
       </c>
       <c r="H127" s="25" t="s">
@@ -30943,44 +30789,44 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:64" ht="31.8" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>121</v>
       </c>
       <c r="B128" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="C128" s="63" t="s">
+      <c r="C128" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="D128" s="65" t="s">
+      <c r="D128" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E128" s="65" t="s">
+      <c r="E128" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="F128" s="65" t="s">
+      <c r="F128" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="G128" s="64">
+      <c r="G128" s="56">
         <v>400</v>
       </c>
-      <c r="H128" s="65" t="s">
+      <c r="H128" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="I128" s="64" t="s">
+      <c r="I128" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="J128" s="65">
+      <c r="J128" s="55">
         <v>1015</v>
       </c>
-      <c r="K128" s="63" t="s">
+      <c r="K128" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="L128" s="63" t="s">
+      <c r="L128" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M128" s="66" t="s">
+      <c r="M128" s="73" t="s">
         <v>12</v>
       </c>
     </row>
@@ -31003,7 +30849,7 @@
       <c r="F129" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G129" s="54">
+      <c r="G129" s="46">
         <v>403</v>
       </c>
       <c r="H129" s="25" t="s">
@@ -31044,7 +30890,7 @@
       <c r="F130" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G130" s="54">
+      <c r="G130" s="46">
         <v>403</v>
       </c>
       <c r="H130" s="25" t="s">
@@ -31085,7 +30931,7 @@
       <c r="F131" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G131" s="54">
+      <c r="G131" s="46">
         <v>403</v>
       </c>
       <c r="H131" s="25" t="s">
@@ -31135,7 +30981,7 @@
       <c r="I132" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J132" s="55">
+      <c r="J132" s="75">
         <v>5001</v>
       </c>
       <c r="K132" s="34" t="s">
@@ -31167,7 +31013,7 @@
       <c r="F133" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G133" s="54">
+      <c r="G133" s="46">
         <v>403</v>
       </c>
       <c r="H133" s="25" t="s">
@@ -31231,84 +31077,84 @@
       </c>
     </row>
     <row r="135" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="103">
+      <c r="A135" s="66">
         <v>113</v>
       </c>
-      <c r="B135" s="104" t="s">
+      <c r="B135" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="C135" s="105" t="s">
+      <c r="C135" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="D135" s="103">
+      <c r="D135" s="66">
         <v>203</v>
       </c>
-      <c r="E135" s="103" t="s">
+      <c r="E135" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="F135" s="103" t="s">
+      <c r="F135" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G135" s="103">
+      <c r="G135" s="66">
         <v>400</v>
       </c>
-      <c r="H135" s="103" t="s">
+      <c r="H135" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I135" s="103" t="s">
+      <c r="I135" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J135" s="103">
+      <c r="J135" s="66">
         <v>1002</v>
       </c>
-      <c r="K135" s="104" t="s">
+      <c r="K135" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="L135" s="104" t="s">
+      <c r="L135" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="M135" s="104" t="s">
+      <c r="M135" s="67" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="103">
+      <c r="A136" s="66">
         <v>114</v>
       </c>
-      <c r="B136" s="104" t="s">
+      <c r="B136" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="C136" s="105" t="s">
+      <c r="C136" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="D136" s="103">
+      <c r="D136" s="66">
         <v>204</v>
       </c>
-      <c r="E136" s="103" t="s">
+      <c r="E136" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="F136" s="103" t="s">
+      <c r="F136" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G136" s="103">
+      <c r="G136" s="66">
         <v>400</v>
       </c>
-      <c r="H136" s="103" t="s">
+      <c r="H136" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I136" s="103" t="s">
+      <c r="I136" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J136" s="103">
+      <c r="J136" s="66">
         <v>1002</v>
       </c>
-      <c r="K136" s="104" t="s">
+      <c r="K136" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="L136" s="104" t="s">
+      <c r="L136" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="M136" s="104" t="s">
+      <c r="M136" s="67" t="s">
         <v>206</v>
       </c>
     </row>
@@ -31319,7 +31165,7 @@
       <c r="B137" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="C137" s="93" t="s">
+      <c r="C137" s="62" t="s">
         <v>226</v>
       </c>
       <c r="D137" s="4">
@@ -31334,14 +31180,16 @@
       <c r="G137" s="25">
         <v>400</v>
       </c>
-      <c r="H137" s="28"/>
+      <c r="H137" s="66" t="s">
+        <v>7</v>
+      </c>
       <c r="I137" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J137" s="28">
         <v>3003</v>
       </c>
-      <c r="K137" s="93" t="s">
+      <c r="K137" s="62" t="s">
         <v>226</v>
       </c>
       <c r="L137" s="35"/>
@@ -31356,7 +31204,7 @@
       <c r="B138" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="C138" s="93" t="s">
+      <c r="C138" s="62" t="s">
         <v>227</v>
       </c>
       <c r="D138" s="4">
@@ -31371,18 +31219,20 @@
       <c r="G138" s="25">
         <v>400</v>
       </c>
-      <c r="H138" s="28"/>
+      <c r="H138" s="66" t="s">
+        <v>7</v>
+      </c>
       <c r="I138" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J138" s="28">
         <v>3004</v>
       </c>
-      <c r="K138" s="93" t="s">
+      <c r="K138" s="62" t="s">
         <v>227</v>
       </c>
       <c r="L138" s="35"/>
-      <c r="M138" s="92" t="s">
+      <c r="M138" s="61" t="s">
         <v>206</v>
       </c>
     </row>
@@ -31393,7 +31243,7 @@
       <c r="B139" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="C139" s="93" t="s">
+      <c r="C139" s="62" t="s">
         <v>232</v>
       </c>
       <c r="D139" s="4" t="s">
@@ -31408,18 +31258,20 @@
       <c r="G139" s="25">
         <v>400</v>
       </c>
-      <c r="H139" s="28"/>
+      <c r="H139" s="66" t="s">
+        <v>7</v>
+      </c>
       <c r="I139" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J139" s="28">
         <v>3005</v>
       </c>
-      <c r="K139" s="93" t="s">
+      <c r="K139" s="62" t="s">
         <v>232</v>
       </c>
       <c r="L139" s="35"/>
-      <c r="M139" s="92" t="s">
+      <c r="M139" s="61" t="s">
         <v>228</v>
       </c>
     </row>
@@ -31430,7 +31282,7 @@
       <c r="B140" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="C140" s="93" t="s">
+      <c r="C140" s="62" t="s">
         <v>229</v>
       </c>
       <c r="D140" s="4">
@@ -31445,35 +31297,61 @@
       <c r="G140" s="25">
         <v>400</v>
       </c>
-      <c r="H140" s="28"/>
+      <c r="H140" s="66" t="s">
+        <v>7</v>
+      </c>
       <c r="I140" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J140" s="28">
         <v>3006</v>
       </c>
-      <c r="K140" s="93" t="s">
+      <c r="K140" s="62" t="s">
         <v>229</v>
       </c>
       <c r="L140" s="35"/>
-      <c r="M140" s="93" t="s">
+      <c r="M140" s="62" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A141" s="21"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="23"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="55"/>
-      <c r="H141" s="21"/>
-      <c r="I141" s="21"/>
-      <c r="J141" s="21"/>
-      <c r="K141" s="36"/>
-      <c r="L141" s="22"/>
-      <c r="M141" s="22"/>
+    <row r="141" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="28">
+        <v>119</v>
+      </c>
+      <c r="B141" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C141" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G141" s="75">
+        <v>404</v>
+      </c>
+      <c r="H141" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J141" s="76">
+        <v>3007</v>
+      </c>
+      <c r="K141" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="L141" s="35"/>
+      <c r="M141" s="62" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="21"/>
@@ -31482,7 +31360,7 @@
       <c r="D142" s="21"/>
       <c r="E142" s="21"/>
       <c r="F142" s="21"/>
-      <c r="G142" s="55"/>
+      <c r="G142" s="47"/>
       <c r="H142" s="21"/>
       <c r="I142" s="21"/>
       <c r="J142" s="21"/>
@@ -31497,7 +31375,7 @@
       <c r="D143" s="21"/>
       <c r="E143" s="21"/>
       <c r="F143" s="21"/>
-      <c r="G143" s="55"/>
+      <c r="G143" s="47"/>
       <c r="H143" s="21"/>
       <c r="I143" s="21"/>
       <c r="J143" s="21"/>
@@ -31512,7 +31390,7 @@
       <c r="D144" s="21"/>
       <c r="E144" s="21"/>
       <c r="F144" s="21"/>
-      <c r="G144" s="55"/>
+      <c r="G144" s="47"/>
       <c r="H144" s="21"/>
       <c r="I144" s="21"/>
       <c r="J144" s="21"/>
@@ -31527,7 +31405,7 @@
       <c r="D145" s="21"/>
       <c r="E145" s="21"/>
       <c r="F145" s="21"/>
-      <c r="G145" s="55"/>
+      <c r="G145" s="47"/>
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
       <c r="J145" s="21"/>
@@ -31542,7 +31420,7 @@
       <c r="D146" s="21"/>
       <c r="E146" s="21"/>
       <c r="F146" s="21"/>
-      <c r="G146" s="55"/>
+      <c r="G146" s="47"/>
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
       <c r="J146" s="21"/>
@@ -31557,7 +31435,7 @@
       <c r="D147" s="21"/>
       <c r="E147" s="21"/>
       <c r="F147" s="21"/>
-      <c r="G147" s="55"/>
+      <c r="G147" s="47"/>
       <c r="H147" s="21"/>
       <c r="I147" s="21"/>
       <c r="J147" s="21"/>
@@ -31572,7 +31450,7 @@
       <c r="D148" s="21"/>
       <c r="E148" s="21"/>
       <c r="F148" s="21"/>
-      <c r="G148" s="55"/>
+      <c r="G148" s="47"/>
       <c r="H148" s="21"/>
       <c r="I148" s="21"/>
       <c r="J148" s="21"/>
@@ -31587,7 +31465,7 @@
       <c r="D149" s="21"/>
       <c r="E149" s="21"/>
       <c r="F149" s="21"/>
-      <c r="G149" s="55"/>
+      <c r="G149" s="47"/>
       <c r="H149" s="21"/>
       <c r="I149" s="21"/>
       <c r="J149" s="21"/>
@@ -31602,7 +31480,7 @@
       <c r="D150" s="21"/>
       <c r="E150" s="21"/>
       <c r="F150" s="21"/>
-      <c r="G150" s="55"/>
+      <c r="G150" s="47"/>
       <c r="H150" s="21"/>
       <c r="I150" s="21"/>
       <c r="J150" s="21"/>
@@ -31617,7 +31495,7 @@
       <c r="D151" s="21"/>
       <c r="E151" s="21"/>
       <c r="F151" s="21"/>
-      <c r="G151" s="55"/>
+      <c r="G151" s="47"/>
       <c r="H151" s="21"/>
       <c r="I151" s="21"/>
       <c r="J151" s="21"/>
@@ -31632,7 +31510,7 @@
       <c r="D152" s="21"/>
       <c r="E152" s="21"/>
       <c r="F152" s="21"/>
-      <c r="G152" s="55"/>
+      <c r="G152" s="47"/>
       <c r="H152" s="21"/>
       <c r="I152" s="21"/>
       <c r="J152" s="21"/>
@@ -31647,7 +31525,7 @@
       <c r="D153" s="21"/>
       <c r="E153" s="21"/>
       <c r="F153" s="21"/>
-      <c r="G153" s="55"/>
+      <c r="G153" s="47"/>
       <c r="H153" s="21"/>
       <c r="I153" s="21"/>
       <c r="J153" s="21"/>
@@ -31662,7 +31540,7 @@
       <c r="D154" s="21"/>
       <c r="E154" s="21"/>
       <c r="F154" s="21"/>
-      <c r="G154" s="55"/>
+      <c r="G154" s="47"/>
       <c r="H154" s="21"/>
       <c r="I154" s="21"/>
       <c r="J154" s="21"/>
@@ -31677,7 +31555,7 @@
       <c r="D155" s="21"/>
       <c r="E155" s="21"/>
       <c r="F155" s="21"/>
-      <c r="G155" s="55"/>
+      <c r="G155" s="47"/>
       <c r="H155" s="21"/>
       <c r="I155" s="21"/>
       <c r="J155" s="21"/>
@@ -31692,7 +31570,7 @@
       <c r="D156" s="21"/>
       <c r="E156" s="21"/>
       <c r="F156" s="21"/>
-      <c r="G156" s="55"/>
+      <c r="G156" s="47"/>
       <c r="H156" s="21"/>
       <c r="I156" s="21"/>
       <c r="J156" s="21"/>
@@ -31707,7 +31585,7 @@
       <c r="D157" s="21"/>
       <c r="E157" s="21"/>
       <c r="F157" s="21"/>
-      <c r="G157" s="55"/>
+      <c r="G157" s="47"/>
       <c r="H157" s="21"/>
       <c r="I157" s="21"/>
       <c r="J157" s="21"/>
@@ -31722,7 +31600,7 @@
       <c r="D158" s="21"/>
       <c r="E158" s="21"/>
       <c r="F158" s="21"/>
-      <c r="G158" s="55"/>
+      <c r="G158" s="47"/>
       <c r="H158" s="21"/>
       <c r="I158" s="21"/>
       <c r="J158" s="21"/>
@@ -31737,7 +31615,7 @@
       <c r="D159" s="21"/>
       <c r="E159" s="21"/>
       <c r="F159" s="21"/>
-      <c r="G159" s="55"/>
+      <c r="G159" s="47"/>
       <c r="H159" s="21"/>
       <c r="I159" s="21"/>
       <c r="J159" s="21"/>
@@ -31752,7 +31630,7 @@
       <c r="D160" s="21"/>
       <c r="E160" s="21"/>
       <c r="F160" s="21"/>
-      <c r="G160" s="55"/>
+      <c r="G160" s="47"/>
       <c r="H160" s="21"/>
       <c r="I160" s="21"/>
       <c r="J160" s="21"/>
@@ -31767,7 +31645,7 @@
       <c r="D161" s="21"/>
       <c r="E161" s="21"/>
       <c r="F161" s="21"/>
-      <c r="G161" s="55"/>
+      <c r="G161" s="47"/>
       <c r="H161" s="21"/>
       <c r="I161" s="21"/>
       <c r="J161" s="21"/>
@@ -31782,7 +31660,7 @@
       <c r="D162" s="21"/>
       <c r="E162" s="21"/>
       <c r="F162" s="21"/>
-      <c r="G162" s="55"/>
+      <c r="G162" s="47"/>
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
       <c r="J162" s="21"/>
@@ -31797,7 +31675,7 @@
       <c r="D163" s="21"/>
       <c r="E163" s="21"/>
       <c r="F163" s="21"/>
-      <c r="G163" s="55"/>
+      <c r="G163" s="47"/>
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
       <c r="J163" s="21"/>
@@ -31812,7 +31690,7 @@
       <c r="D164" s="21"/>
       <c r="E164" s="21"/>
       <c r="F164" s="21"/>
-      <c r="G164" s="55"/>
+      <c r="G164" s="47"/>
       <c r="H164" s="21"/>
       <c r="I164" s="21"/>
       <c r="J164" s="21"/>
@@ -31827,7 +31705,7 @@
       <c r="D165" s="21"/>
       <c r="E165" s="21"/>
       <c r="F165" s="21"/>
-      <c r="G165" s="55"/>
+      <c r="G165" s="47"/>
       <c r="H165" s="21"/>
       <c r="I165" s="21"/>
       <c r="J165" s="21"/>
@@ -31842,7 +31720,7 @@
       <c r="D166" s="21"/>
       <c r="E166" s="21"/>
       <c r="F166" s="21"/>
-      <c r="G166" s="55"/>
+      <c r="G166" s="47"/>
       <c r="H166" s="21"/>
       <c r="I166" s="21"/>
       <c r="J166" s="21"/>
@@ -31857,7 +31735,7 @@
       <c r="D167" s="21"/>
       <c r="E167" s="21"/>
       <c r="F167" s="21"/>
-      <c r="G167" s="55"/>
+      <c r="G167" s="47"/>
       <c r="H167" s="21"/>
       <c r="I167" s="21"/>
       <c r="J167" s="21"/>
@@ -31872,7 +31750,7 @@
       <c r="D168" s="21"/>
       <c r="E168" s="21"/>
       <c r="F168" s="21"/>
-      <c r="G168" s="55"/>
+      <c r="G168" s="47"/>
       <c r="H168" s="21"/>
       <c r="I168" s="21"/>
       <c r="J168" s="21"/>
@@ -31887,7 +31765,7 @@
       <c r="D169" s="21"/>
       <c r="E169" s="21"/>
       <c r="F169" s="21"/>
-      <c r="G169" s="55"/>
+      <c r="G169" s="47"/>
       <c r="H169" s="21"/>
       <c r="I169" s="21"/>
       <c r="J169" s="21"/>
@@ -31902,7 +31780,7 @@
       <c r="D170" s="21"/>
       <c r="E170" s="21"/>
       <c r="F170" s="21"/>
-      <c r="G170" s="55"/>
+      <c r="G170" s="47"/>
       <c r="H170" s="21"/>
       <c r="I170" s="21"/>
       <c r="J170" s="21"/>
@@ -31917,7 +31795,7 @@
       <c r="D171" s="21"/>
       <c r="E171" s="21"/>
       <c r="F171" s="21"/>
-      <c r="G171" s="55"/>
+      <c r="G171" s="47"/>
       <c r="H171" s="21"/>
       <c r="I171" s="21"/>
       <c r="J171" s="21"/>
@@ -31932,7 +31810,7 @@
       <c r="D172" s="21"/>
       <c r="E172" s="21"/>
       <c r="F172" s="21"/>
-      <c r="G172" s="55"/>
+      <c r="G172" s="47"/>
       <c r="H172" s="21"/>
       <c r="I172" s="21"/>
       <c r="J172" s="21"/>
@@ -31947,7 +31825,7 @@
       <c r="D173" s="21"/>
       <c r="E173" s="21"/>
       <c r="F173" s="21"/>
-      <c r="G173" s="55"/>
+      <c r="G173" s="47"/>
       <c r="H173" s="21"/>
       <c r="I173" s="21"/>
       <c r="J173" s="21"/>
@@ -31962,7 +31840,7 @@
       <c r="D174" s="21"/>
       <c r="E174" s="21"/>
       <c r="F174" s="21"/>
-      <c r="G174" s="55"/>
+      <c r="G174" s="47"/>
       <c r="H174" s="21"/>
       <c r="I174" s="21"/>
       <c r="J174" s="21"/>
@@ -31977,7 +31855,7 @@
       <c r="D175" s="21"/>
       <c r="E175" s="21"/>
       <c r="F175" s="21"/>
-      <c r="G175" s="55"/>
+      <c r="G175" s="47"/>
       <c r="H175" s="21"/>
       <c r="I175" s="21"/>
       <c r="J175" s="21"/>
@@ -31992,7 +31870,7 @@
       <c r="D176" s="21"/>
       <c r="E176" s="21"/>
       <c r="F176" s="21"/>
-      <c r="G176" s="55"/>
+      <c r="G176" s="47"/>
       <c r="H176" s="21"/>
       <c r="I176" s="21"/>
       <c r="J176" s="21"/>
@@ -32007,7 +31885,7 @@
       <c r="D177" s="21"/>
       <c r="E177" s="21"/>
       <c r="F177" s="21"/>
-      <c r="G177" s="55"/>
+      <c r="G177" s="47"/>
       <c r="H177" s="21"/>
       <c r="I177" s="21"/>
       <c r="J177" s="21"/>
@@ -32022,7 +31900,7 @@
       <c r="D178" s="21"/>
       <c r="E178" s="21"/>
       <c r="F178" s="21"/>
-      <c r="G178" s="55"/>
+      <c r="G178" s="47"/>
       <c r="H178" s="21"/>
       <c r="I178" s="21"/>
       <c r="J178" s="21"/>
@@ -32037,7 +31915,7 @@
       <c r="D179" s="21"/>
       <c r="E179" s="21"/>
       <c r="F179" s="21"/>
-      <c r="G179" s="55"/>
+      <c r="G179" s="47"/>
       <c r="H179" s="21"/>
       <c r="I179" s="21"/>
       <c r="J179" s="21"/>
@@ -32052,7 +31930,7 @@
       <c r="D180" s="21"/>
       <c r="E180" s="21"/>
       <c r="F180" s="21"/>
-      <c r="G180" s="55"/>
+      <c r="G180" s="47"/>
       <c r="H180" s="21"/>
       <c r="I180" s="21"/>
       <c r="J180" s="21"/>
@@ -32067,7 +31945,7 @@
       <c r="D181" s="21"/>
       <c r="E181" s="21"/>
       <c r="F181" s="21"/>
-      <c r="G181" s="55"/>
+      <c r="G181" s="47"/>
       <c r="H181" s="21"/>
       <c r="I181" s="21"/>
       <c r="J181" s="21"/>
@@ -32082,7 +31960,7 @@
       <c r="D182" s="21"/>
       <c r="E182" s="21"/>
       <c r="F182" s="21"/>
-      <c r="G182" s="55"/>
+      <c r="G182" s="47"/>
       <c r="H182" s="21"/>
       <c r="I182" s="21"/>
       <c r="J182" s="21"/>
@@ -32097,7 +31975,7 @@
       <c r="D183" s="21"/>
       <c r="E183" s="21"/>
       <c r="F183" s="21"/>
-      <c r="G183" s="55"/>
+      <c r="G183" s="47"/>
       <c r="H183" s="21"/>
       <c r="I183" s="21"/>
       <c r="J183" s="21"/>
@@ -32112,7 +31990,7 @@
       <c r="D184" s="21"/>
       <c r="E184" s="21"/>
       <c r="F184" s="21"/>
-      <c r="G184" s="55"/>
+      <c r="G184" s="47"/>
       <c r="H184" s="21"/>
       <c r="I184" s="21"/>
       <c r="J184" s="21"/>
@@ -32127,7 +32005,7 @@
       <c r="D185" s="21"/>
       <c r="E185" s="21"/>
       <c r="F185" s="21"/>
-      <c r="G185" s="55"/>
+      <c r="G185" s="47"/>
       <c r="H185" s="21"/>
       <c r="I185" s="21"/>
       <c r="J185" s="21"/>
@@ -32142,7 +32020,7 @@
       <c r="D186" s="21"/>
       <c r="E186" s="21"/>
       <c r="F186" s="21"/>
-      <c r="G186" s="55"/>
+      <c r="G186" s="47"/>
       <c r="H186" s="21"/>
       <c r="I186" s="21"/>
       <c r="J186" s="21"/>
@@ -32157,7 +32035,7 @@
       <c r="D187" s="21"/>
       <c r="E187" s="21"/>
       <c r="F187" s="21"/>
-      <c r="G187" s="55"/>
+      <c r="G187" s="47"/>
       <c r="H187" s="21"/>
       <c r="I187" s="21"/>
       <c r="J187" s="21"/>
@@ -32172,7 +32050,7 @@
       <c r="D188" s="21"/>
       <c r="E188" s="21"/>
       <c r="F188" s="21"/>
-      <c r="G188" s="55"/>
+      <c r="G188" s="47"/>
       <c r="H188" s="21"/>
       <c r="I188" s="21"/>
       <c r="J188" s="21"/>
@@ -32187,7 +32065,7 @@
       <c r="D189" s="21"/>
       <c r="E189" s="21"/>
       <c r="F189" s="21"/>
-      <c r="G189" s="55"/>
+      <c r="G189" s="47"/>
       <c r="H189" s="21"/>
       <c r="I189" s="21"/>
       <c r="J189" s="21"/>
@@ -32202,7 +32080,7 @@
       <c r="D190" s="21"/>
       <c r="E190" s="21"/>
       <c r="F190" s="21"/>
-      <c r="G190" s="55"/>
+      <c r="G190" s="47"/>
       <c r="H190" s="21"/>
       <c r="I190" s="21"/>
       <c r="J190" s="21"/>
@@ -32217,7 +32095,7 @@
       <c r="D191" s="21"/>
       <c r="E191" s="21"/>
       <c r="F191" s="21"/>
-      <c r="G191" s="55"/>
+      <c r="G191" s="47"/>
       <c r="H191" s="21"/>
       <c r="I191" s="21"/>
       <c r="J191" s="21"/>
@@ -32232,7 +32110,7 @@
       <c r="D192" s="21"/>
       <c r="E192" s="21"/>
       <c r="F192" s="21"/>
-      <c r="G192" s="55"/>
+      <c r="G192" s="47"/>
       <c r="H192" s="21"/>
       <c r="I192" s="21"/>
       <c r="J192" s="21"/>
@@ -32247,7 +32125,7 @@
       <c r="D193" s="21"/>
       <c r="E193" s="21"/>
       <c r="F193" s="21"/>
-      <c r="G193" s="55"/>
+      <c r="G193" s="47"/>
       <c r="H193" s="21"/>
       <c r="I193" s="21"/>
       <c r="J193" s="21"/>
@@ -32262,7 +32140,7 @@
       <c r="D194" s="21"/>
       <c r="E194" s="21"/>
       <c r="F194" s="21"/>
-      <c r="G194" s="55"/>
+      <c r="G194" s="47"/>
       <c r="H194" s="21"/>
       <c r="I194" s="21"/>
       <c r="J194" s="21"/>
@@ -32277,7 +32155,7 @@
       <c r="D195" s="21"/>
       <c r="E195" s="21"/>
       <c r="F195" s="21"/>
-      <c r="G195" s="55"/>
+      <c r="G195" s="47"/>
       <c r="H195" s="21"/>
       <c r="I195" s="21"/>
       <c r="J195" s="21"/>
@@ -32292,7 +32170,7 @@
       <c r="D196" s="21"/>
       <c r="E196" s="21"/>
       <c r="F196" s="21"/>
-      <c r="G196" s="55"/>
+      <c r="G196" s="47"/>
       <c r="H196" s="21"/>
       <c r="I196" s="21"/>
       <c r="J196" s="21"/>
@@ -32307,7 +32185,7 @@
       <c r="D197" s="21"/>
       <c r="E197" s="21"/>
       <c r="F197" s="21"/>
-      <c r="G197" s="55"/>
+      <c r="G197" s="47"/>
       <c r="H197" s="21"/>
       <c r="I197" s="21"/>
       <c r="J197" s="21"/>
@@ -32322,7 +32200,7 @@
       <c r="D198" s="21"/>
       <c r="E198" s="21"/>
       <c r="F198" s="21"/>
-      <c r="G198" s="55"/>
+      <c r="G198" s="47"/>
       <c r="H198" s="21"/>
       <c r="I198" s="21"/>
       <c r="J198" s="21"/>
@@ -32337,7 +32215,7 @@
       <c r="D199" s="21"/>
       <c r="E199" s="21"/>
       <c r="F199" s="21"/>
-      <c r="G199" s="55"/>
+      <c r="G199" s="47"/>
       <c r="H199" s="21"/>
       <c r="I199" s="21"/>
       <c r="J199" s="21"/>
@@ -32352,7 +32230,7 @@
       <c r="D200" s="21"/>
       <c r="E200" s="21"/>
       <c r="F200" s="21"/>
-      <c r="G200" s="55"/>
+      <c r="G200" s="47"/>
       <c r="H200" s="21"/>
       <c r="I200" s="21"/>
       <c r="J200" s="21"/>
@@ -32367,7 +32245,7 @@
       <c r="D201" s="21"/>
       <c r="E201" s="21"/>
       <c r="F201" s="21"/>
-      <c r="G201" s="55"/>
+      <c r="G201" s="47"/>
       <c r="H201" s="21"/>
       <c r="I201" s="21"/>
       <c r="J201" s="21"/>
@@ -32382,7 +32260,7 @@
       <c r="D202" s="21"/>
       <c r="E202" s="21"/>
       <c r="F202" s="21"/>
-      <c r="G202" s="55"/>
+      <c r="G202" s="47"/>
       <c r="H202" s="21"/>
       <c r="I202" s="21"/>
       <c r="J202" s="21"/>
@@ -32397,7 +32275,7 @@
       <c r="D203" s="21"/>
       <c r="E203" s="21"/>
       <c r="F203" s="21"/>
-      <c r="G203" s="55"/>
+      <c r="G203" s="47"/>
       <c r="H203" s="21"/>
       <c r="I203" s="21"/>
       <c r="J203" s="21"/>
@@ -32412,7 +32290,7 @@
       <c r="D204" s="21"/>
       <c r="E204" s="21"/>
       <c r="F204" s="21"/>
-      <c r="G204" s="55"/>
+      <c r="G204" s="47"/>
       <c r="H204" s="21"/>
       <c r="I204" s="21"/>
       <c r="J204" s="21"/>
@@ -32427,7 +32305,7 @@
       <c r="D205" s="21"/>
       <c r="E205" s="21"/>
       <c r="F205" s="21"/>
-      <c r="G205" s="55"/>
+      <c r="G205" s="47"/>
       <c r="H205" s="21"/>
       <c r="I205" s="21"/>
       <c r="J205" s="21"/>
@@ -32442,7 +32320,7 @@
       <c r="D206" s="21"/>
       <c r="E206" s="21"/>
       <c r="F206" s="21"/>
-      <c r="G206" s="55"/>
+      <c r="G206" s="47"/>
       <c r="H206" s="21"/>
       <c r="I206" s="21"/>
       <c r="J206" s="21"/>
@@ -32457,7 +32335,7 @@
       <c r="D207" s="21"/>
       <c r="E207" s="21"/>
       <c r="F207" s="21"/>
-      <c r="G207" s="55"/>
+      <c r="G207" s="47"/>
       <c r="H207" s="21"/>
       <c r="I207" s="21"/>
       <c r="J207" s="21"/>
@@ -32472,7 +32350,7 @@
       <c r="D208" s="21"/>
       <c r="E208" s="21"/>
       <c r="F208" s="21"/>
-      <c r="G208" s="55"/>
+      <c r="G208" s="47"/>
       <c r="H208" s="21"/>
       <c r="I208" s="21"/>
       <c r="J208" s="21"/>
@@ -32487,7 +32365,7 @@
       <c r="D209" s="21"/>
       <c r="E209" s="21"/>
       <c r="F209" s="21"/>
-      <c r="G209" s="55"/>
+      <c r="G209" s="47"/>
       <c r="H209" s="21"/>
       <c r="I209" s="21"/>
       <c r="J209" s="21"/>
@@ -32502,7 +32380,7 @@
       <c r="D210" s="21"/>
       <c r="E210" s="21"/>
       <c r="F210" s="21"/>
-      <c r="G210" s="55"/>
+      <c r="G210" s="47"/>
       <c r="H210" s="21"/>
       <c r="I210" s="21"/>
       <c r="J210" s="21"/>
@@ -32517,7 +32395,7 @@
       <c r="D211" s="21"/>
       <c r="E211" s="21"/>
       <c r="F211" s="21"/>
-      <c r="G211" s="55"/>
+      <c r="G211" s="47"/>
       <c r="H211" s="21"/>
       <c r="I211" s="21"/>
       <c r="J211" s="21"/>
@@ -32532,7 +32410,7 @@
       <c r="D212" s="21"/>
       <c r="E212" s="21"/>
       <c r="F212" s="21"/>
-      <c r="G212" s="55"/>
+      <c r="G212" s="47"/>
       <c r="H212" s="21"/>
       <c r="I212" s="21"/>
       <c r="J212" s="21"/>
@@ -32547,7 +32425,7 @@
       <c r="D213" s="21"/>
       <c r="E213" s="21"/>
       <c r="F213" s="21"/>
-      <c r="G213" s="55"/>
+      <c r="G213" s="47"/>
       <c r="H213" s="21"/>
       <c r="I213" s="21"/>
       <c r="J213" s="21"/>
@@ -32562,7 +32440,7 @@
       <c r="D214" s="21"/>
       <c r="E214" s="21"/>
       <c r="F214" s="21"/>
-      <c r="G214" s="55"/>
+      <c r="G214" s="47"/>
       <c r="H214" s="21"/>
       <c r="I214" s="21"/>
       <c r="J214" s="21"/>
@@ -32577,7 +32455,7 @@
       <c r="D215" s="21"/>
       <c r="E215" s="21"/>
       <c r="F215" s="21"/>
-      <c r="G215" s="55"/>
+      <c r="G215" s="47"/>
       <c r="H215" s="21"/>
       <c r="I215" s="21"/>
       <c r="J215" s="21"/>
@@ -32592,7 +32470,7 @@
       <c r="D216" s="21"/>
       <c r="E216" s="21"/>
       <c r="F216" s="21"/>
-      <c r="G216" s="55"/>
+      <c r="G216" s="47"/>
       <c r="H216" s="21"/>
       <c r="I216" s="21"/>
       <c r="J216" s="21"/>
@@ -32607,7 +32485,7 @@
       <c r="D217" s="21"/>
       <c r="E217" s="21"/>
       <c r="F217" s="21"/>
-      <c r="G217" s="55"/>
+      <c r="G217" s="47"/>
       <c r="H217" s="21"/>
       <c r="I217" s="21"/>
       <c r="J217" s="21"/>
@@ -32622,7 +32500,7 @@
       <c r="D218" s="21"/>
       <c r="E218" s="21"/>
       <c r="F218" s="21"/>
-      <c r="G218" s="55"/>
+      <c r="G218" s="47"/>
       <c r="H218" s="21"/>
       <c r="I218" s="21"/>
       <c r="J218" s="21"/>
@@ -32637,7 +32515,7 @@
       <c r="D219" s="21"/>
       <c r="E219" s="21"/>
       <c r="F219" s="21"/>
-      <c r="G219" s="55"/>
+      <c r="G219" s="47"/>
       <c r="H219" s="21"/>
       <c r="I219" s="21"/>
       <c r="J219" s="21"/>
@@ -32652,7 +32530,7 @@
       <c r="D220" s="21"/>
       <c r="E220" s="21"/>
       <c r="F220" s="21"/>
-      <c r="G220" s="55"/>
+      <c r="G220" s="47"/>
       <c r="H220" s="21"/>
       <c r="I220" s="21"/>
       <c r="J220" s="21"/>
@@ -32667,7 +32545,7 @@
       <c r="D221" s="21"/>
       <c r="E221" s="21"/>
       <c r="F221" s="21"/>
-      <c r="G221" s="55"/>
+      <c r="G221" s="47"/>
       <c r="H221" s="21"/>
       <c r="I221" s="21"/>
       <c r="J221" s="21"/>
@@ -32682,7 +32560,7 @@
       <c r="D222" s="21"/>
       <c r="E222" s="21"/>
       <c r="F222" s="21"/>
-      <c r="G222" s="55"/>
+      <c r="G222" s="47"/>
       <c r="H222" s="21"/>
       <c r="I222" s="21"/>
       <c r="J222" s="21"/>
@@ -32697,7 +32575,7 @@
       <c r="D223" s="21"/>
       <c r="E223" s="21"/>
       <c r="F223" s="21"/>
-      <c r="G223" s="55"/>
+      <c r="G223" s="47"/>
       <c r="H223" s="21"/>
       <c r="I223" s="21"/>
       <c r="J223" s="21"/>
@@ -32712,7 +32590,7 @@
       <c r="D224" s="21"/>
       <c r="E224" s="21"/>
       <c r="F224" s="21"/>
-      <c r="G224" s="55"/>
+      <c r="G224" s="47"/>
       <c r="H224" s="21"/>
       <c r="I224" s="21"/>
       <c r="J224" s="21"/>
@@ -32727,7 +32605,7 @@
       <c r="D225" s="21"/>
       <c r="E225" s="21"/>
       <c r="F225" s="21"/>
-      <c r="G225" s="55"/>
+      <c r="G225" s="47"/>
       <c r="H225" s="21"/>
       <c r="I225" s="21"/>
       <c r="J225" s="21"/>
@@ -32742,7 +32620,7 @@
       <c r="D226" s="21"/>
       <c r="E226" s="21"/>
       <c r="F226" s="21"/>
-      <c r="G226" s="55"/>
+      <c r="G226" s="47"/>
       <c r="H226" s="21"/>
       <c r="I226" s="21"/>
       <c r="J226" s="21"/>
@@ -32757,7 +32635,7 @@
       <c r="D227" s="21"/>
       <c r="E227" s="21"/>
       <c r="F227" s="21"/>
-      <c r="G227" s="55"/>
+      <c r="G227" s="47"/>
       <c r="H227" s="21"/>
       <c r="I227" s="21"/>
       <c r="J227" s="21"/>
@@ -32772,7 +32650,7 @@
       <c r="D228" s="21"/>
       <c r="E228" s="21"/>
       <c r="F228" s="21"/>
-      <c r="G228" s="55"/>
+      <c r="G228" s="47"/>
       <c r="H228" s="21"/>
       <c r="I228" s="21"/>
       <c r="J228" s="21"/>
@@ -32787,7 +32665,7 @@
       <c r="D229" s="21"/>
       <c r="E229" s="21"/>
       <c r="F229" s="21"/>
-      <c r="G229" s="55"/>
+      <c r="G229" s="47"/>
       <c r="H229" s="21"/>
       <c r="I229" s="21"/>
       <c r="J229" s="21"/>
@@ -32802,7 +32680,7 @@
       <c r="D230" s="21"/>
       <c r="E230" s="21"/>
       <c r="F230" s="21"/>
-      <c r="G230" s="55"/>
+      <c r="G230" s="47"/>
       <c r="H230" s="21"/>
       <c r="I230" s="21"/>
       <c r="J230" s="21"/>
@@ -32817,7 +32695,7 @@
       <c r="D231" s="21"/>
       <c r="E231" s="21"/>
       <c r="F231" s="21"/>
-      <c r="G231" s="55"/>
+      <c r="G231" s="47"/>
       <c r="H231" s="21"/>
       <c r="I231" s="21"/>
       <c r="J231" s="21"/>
@@ -32832,7 +32710,7 @@
       <c r="D232" s="21"/>
       <c r="E232" s="21"/>
       <c r="F232" s="21"/>
-      <c r="G232" s="55"/>
+      <c r="G232" s="47"/>
       <c r="H232" s="21"/>
       <c r="I232" s="21"/>
       <c r="J232" s="21"/>
@@ -32847,7 +32725,7 @@
       <c r="D233" s="21"/>
       <c r="E233" s="21"/>
       <c r="F233" s="21"/>
-      <c r="G233" s="55"/>
+      <c r="G233" s="47"/>
       <c r="H233" s="21"/>
       <c r="I233" s="21"/>
       <c r="J233" s="21"/>
@@ -32862,7 +32740,7 @@
       <c r="D234" s="21"/>
       <c r="E234" s="21"/>
       <c r="F234" s="21"/>
-      <c r="G234" s="55"/>
+      <c r="G234" s="47"/>
       <c r="H234" s="21"/>
       <c r="I234" s="21"/>
       <c r="J234" s="21"/>
@@ -32877,7 +32755,7 @@
       <c r="D235" s="21"/>
       <c r="E235" s="21"/>
       <c r="F235" s="21"/>
-      <c r="G235" s="55"/>
+      <c r="G235" s="47"/>
       <c r="H235" s="21"/>
       <c r="I235" s="21"/>
       <c r="J235" s="21"/>
@@ -32892,7 +32770,7 @@
       <c r="D236" s="21"/>
       <c r="E236" s="21"/>
       <c r="F236" s="21"/>
-      <c r="G236" s="55"/>
+      <c r="G236" s="47"/>
       <c r="H236" s="21"/>
       <c r="I236" s="21"/>
       <c r="J236" s="21"/>
@@ -32907,7 +32785,7 @@
       <c r="D237" s="21"/>
       <c r="E237" s="21"/>
       <c r="F237" s="21"/>
-      <c r="G237" s="55"/>
+      <c r="G237" s="47"/>
       <c r="H237" s="21"/>
       <c r="I237" s="21"/>
       <c r="J237" s="21"/>
@@ -32922,7 +32800,7 @@
       <c r="D238" s="21"/>
       <c r="E238" s="21"/>
       <c r="F238" s="21"/>
-      <c r="G238" s="55"/>
+      <c r="G238" s="47"/>
       <c r="H238" s="21"/>
       <c r="I238" s="21"/>
       <c r="J238" s="21"/>
@@ -32937,7 +32815,7 @@
       <c r="D239" s="21"/>
       <c r="E239" s="21"/>
       <c r="F239" s="21"/>
-      <c r="G239" s="55"/>
+      <c r="G239" s="47"/>
       <c r="H239" s="21"/>
       <c r="I239" s="21"/>
       <c r="J239" s="21"/>
@@ -32952,7 +32830,7 @@
       <c r="D240" s="21"/>
       <c r="E240" s="21"/>
       <c r="F240" s="21"/>
-      <c r="G240" s="55"/>
+      <c r="G240" s="47"/>
       <c r="H240" s="21"/>
       <c r="I240" s="21"/>
       <c r="J240" s="21"/>
@@ -32967,7 +32845,7 @@
       <c r="D241" s="21"/>
       <c r="E241" s="21"/>
       <c r="F241" s="21"/>
-      <c r="G241" s="55"/>
+      <c r="G241" s="47"/>
       <c r="H241" s="21"/>
       <c r="I241" s="21"/>
       <c r="J241" s="21"/>
@@ -32982,7 +32860,7 @@
       <c r="D242" s="21"/>
       <c r="E242" s="21"/>
       <c r="F242" s="21"/>
-      <c r="G242" s="55"/>
+      <c r="G242" s="47"/>
       <c r="H242" s="21"/>
       <c r="I242" s="21"/>
       <c r="J242" s="21"/>
@@ -32997,7 +32875,7 @@
       <c r="D243" s="21"/>
       <c r="E243" s="21"/>
       <c r="F243" s="21"/>
-      <c r="G243" s="55"/>
+      <c r="G243" s="47"/>
       <c r="H243" s="21"/>
       <c r="I243" s="21"/>
       <c r="J243" s="21"/>
@@ -33012,7 +32890,7 @@
       <c r="D244" s="21"/>
       <c r="E244" s="21"/>
       <c r="F244" s="21"/>
-      <c r="G244" s="55"/>
+      <c r="G244" s="47"/>
       <c r="H244" s="21"/>
       <c r="I244" s="21"/>
       <c r="J244" s="21"/>
@@ -33027,7 +32905,7 @@
       <c r="D245" s="21"/>
       <c r="E245" s="21"/>
       <c r="F245" s="21"/>
-      <c r="G245" s="55"/>
+      <c r="G245" s="47"/>
       <c r="H245" s="21"/>
       <c r="I245" s="21"/>
       <c r="J245" s="21"/>
@@ -33042,7 +32920,7 @@
       <c r="D246" s="21"/>
       <c r="E246" s="21"/>
       <c r="F246" s="21"/>
-      <c r="G246" s="55"/>
+      <c r="G246" s="47"/>
       <c r="H246" s="21"/>
       <c r="I246" s="21"/>
       <c r="J246" s="21"/>
@@ -33057,7 +32935,7 @@
       <c r="D247" s="21"/>
       <c r="E247" s="21"/>
       <c r="F247" s="21"/>
-      <c r="G247" s="55"/>
+      <c r="G247" s="47"/>
       <c r="H247" s="21"/>
       <c r="I247" s="21"/>
       <c r="J247" s="21"/>
@@ -33072,7 +32950,7 @@
       <c r="D248" s="21"/>
       <c r="E248" s="21"/>
       <c r="F248" s="21"/>
-      <c r="G248" s="55"/>
+      <c r="G248" s="47"/>
       <c r="H248" s="21"/>
       <c r="I248" s="21"/>
       <c r="J248" s="21"/>
@@ -33087,7 +32965,7 @@
       <c r="D249" s="21"/>
       <c r="E249" s="21"/>
       <c r="F249" s="21"/>
-      <c r="G249" s="55"/>
+      <c r="G249" s="47"/>
       <c r="H249" s="21"/>
       <c r="I249" s="21"/>
       <c r="J249" s="21"/>
@@ -33102,7 +32980,7 @@
       <c r="D250" s="21"/>
       <c r="E250" s="21"/>
       <c r="F250" s="21"/>
-      <c r="G250" s="55"/>
+      <c r="G250" s="47"/>
       <c r="H250" s="21"/>
       <c r="I250" s="21"/>
       <c r="J250" s="21"/>
@@ -33117,7 +32995,7 @@
       <c r="D251" s="21"/>
       <c r="E251" s="21"/>
       <c r="F251" s="21"/>
-      <c r="G251" s="55"/>
+      <c r="G251" s="47"/>
       <c r="H251" s="21"/>
       <c r="I251" s="21"/>
       <c r="J251" s="21"/>
@@ -33132,7 +33010,7 @@
       <c r="D252" s="21"/>
       <c r="E252" s="21"/>
       <c r="F252" s="21"/>
-      <c r="G252" s="55"/>
+      <c r="G252" s="47"/>
       <c r="H252" s="21"/>
       <c r="I252" s="21"/>
       <c r="J252" s="21"/>
@@ -33147,7 +33025,7 @@
       <c r="D253" s="21"/>
       <c r="E253" s="21"/>
       <c r="F253" s="21"/>
-      <c r="G253" s="55"/>
+      <c r="G253" s="47"/>
       <c r="H253" s="21"/>
       <c r="I253" s="21"/>
       <c r="J253" s="21"/>
@@ -33162,7 +33040,7 @@
       <c r="D254" s="21"/>
       <c r="E254" s="21"/>
       <c r="F254" s="21"/>
-      <c r="G254" s="55"/>
+      <c r="G254" s="47"/>
       <c r="H254" s="21"/>
       <c r="I254" s="21"/>
       <c r="J254" s="21"/>
@@ -33177,7 +33055,7 @@
       <c r="D255" s="21"/>
       <c r="E255" s="21"/>
       <c r="F255" s="21"/>
-      <c r="G255" s="55"/>
+      <c r="G255" s="47"/>
       <c r="H255" s="21"/>
       <c r="I255" s="21"/>
       <c r="J255" s="21"/>
@@ -33192,7 +33070,7 @@
       <c r="D256" s="21"/>
       <c r="E256" s="21"/>
       <c r="F256" s="21"/>
-      <c r="G256" s="55"/>
+      <c r="G256" s="47"/>
       <c r="H256" s="21"/>
       <c r="I256" s="21"/>
       <c r="J256" s="21"/>
@@ -33207,7 +33085,7 @@
       <c r="D257" s="21"/>
       <c r="E257" s="21"/>
       <c r="F257" s="21"/>
-      <c r="G257" s="55"/>
+      <c r="G257" s="47"/>
       <c r="H257" s="21"/>
       <c r="I257" s="21"/>
       <c r="J257" s="21"/>
@@ -33222,7 +33100,7 @@
       <c r="D258" s="21"/>
       <c r="E258" s="21"/>
       <c r="F258" s="21"/>
-      <c r="G258" s="55"/>
+      <c r="G258" s="47"/>
       <c r="H258" s="21"/>
       <c r="I258" s="21"/>
       <c r="J258" s="21"/>
@@ -33237,7 +33115,7 @@
       <c r="D259" s="21"/>
       <c r="E259" s="21"/>
       <c r="F259" s="21"/>
-      <c r="G259" s="55"/>
+      <c r="G259" s="47"/>
       <c r="H259" s="21"/>
       <c r="I259" s="21"/>
       <c r="J259" s="21"/>
@@ -33252,7 +33130,7 @@
       <c r="D260" s="21"/>
       <c r="E260" s="21"/>
       <c r="F260" s="21"/>
-      <c r="G260" s="55"/>
+      <c r="G260" s="47"/>
       <c r="H260" s="21"/>
       <c r="I260" s="21"/>
       <c r="J260" s="21"/>
@@ -33267,7 +33145,7 @@
       <c r="D261" s="21"/>
       <c r="E261" s="21"/>
       <c r="F261" s="21"/>
-      <c r="G261" s="55"/>
+      <c r="G261" s="47"/>
       <c r="H261" s="21"/>
       <c r="I261" s="21"/>
       <c r="J261" s="21"/>
@@ -33282,7 +33160,7 @@
       <c r="D262" s="21"/>
       <c r="E262" s="21"/>
       <c r="F262" s="21"/>
-      <c r="G262" s="55"/>
+      <c r="G262" s="47"/>
       <c r="H262" s="21"/>
       <c r="I262" s="21"/>
       <c r="J262" s="21"/>
@@ -33297,7 +33175,7 @@
       <c r="D263" s="21"/>
       <c r="E263" s="21"/>
       <c r="F263" s="21"/>
-      <c r="G263" s="55"/>
+      <c r="G263" s="47"/>
       <c r="H263" s="21"/>
       <c r="I263" s="21"/>
       <c r="J263" s="21"/>
@@ -33312,7 +33190,7 @@
       <c r="D264" s="21"/>
       <c r="E264" s="21"/>
       <c r="F264" s="21"/>
-      <c r="G264" s="55"/>
+      <c r="G264" s="47"/>
       <c r="H264" s="21"/>
       <c r="I264" s="21"/>
       <c r="J264" s="21"/>
@@ -33327,7 +33205,7 @@
       <c r="D265" s="21"/>
       <c r="E265" s="21"/>
       <c r="F265" s="21"/>
-      <c r="G265" s="55"/>
+      <c r="G265" s="47"/>
       <c r="H265" s="21"/>
       <c r="I265" s="21"/>
       <c r="J265" s="21"/>
@@ -33342,7 +33220,7 @@
       <c r="D266" s="21"/>
       <c r="E266" s="21"/>
       <c r="F266" s="21"/>
-      <c r="G266" s="55"/>
+      <c r="G266" s="47"/>
       <c r="H266" s="21"/>
       <c r="I266" s="21"/>
       <c r="J266" s="21"/>
@@ -33357,7 +33235,7 @@
       <c r="D267" s="21"/>
       <c r="E267" s="21"/>
       <c r="F267" s="21"/>
-      <c r="G267" s="55"/>
+      <c r="G267" s="47"/>
       <c r="H267" s="21"/>
       <c r="I267" s="21"/>
       <c r="J267" s="21"/>
@@ -33372,7 +33250,7 @@
       <c r="D268" s="21"/>
       <c r="E268" s="21"/>
       <c r="F268" s="21"/>
-      <c r="G268" s="55"/>
+      <c r="G268" s="47"/>
       <c r="H268" s="21"/>
       <c r="I268" s="21"/>
       <c r="J268" s="21"/>
@@ -33387,7 +33265,7 @@
       <c r="D269" s="21"/>
       <c r="E269" s="21"/>
       <c r="F269" s="21"/>
-      <c r="G269" s="55"/>
+      <c r="G269" s="47"/>
       <c r="H269" s="21"/>
       <c r="I269" s="21"/>
       <c r="J269" s="21"/>
@@ -33402,7 +33280,7 @@
       <c r="D270" s="21"/>
       <c r="E270" s="21"/>
       <c r="F270" s="21"/>
-      <c r="G270" s="55"/>
+      <c r="G270" s="47"/>
       <c r="H270" s="21"/>
       <c r="I270" s="21"/>
       <c r="J270" s="21"/>
@@ -33417,7 +33295,7 @@
       <c r="D271" s="21"/>
       <c r="E271" s="21"/>
       <c r="F271" s="21"/>
-      <c r="G271" s="55"/>
+      <c r="G271" s="47"/>
       <c r="H271" s="21"/>
       <c r="I271" s="21"/>
       <c r="J271" s="21"/>
@@ -33432,7 +33310,7 @@
       <c r="D272" s="21"/>
       <c r="E272" s="21"/>
       <c r="F272" s="21"/>
-      <c r="G272" s="55"/>
+      <c r="G272" s="47"/>
       <c r="H272" s="21"/>
       <c r="I272" s="21"/>
       <c r="J272" s="21"/>
@@ -33447,7 +33325,7 @@
       <c r="D273" s="21"/>
       <c r="E273" s="21"/>
       <c r="F273" s="21"/>
-      <c r="G273" s="55"/>
+      <c r="G273" s="47"/>
       <c r="H273" s="21"/>
       <c r="I273" s="21"/>
       <c r="J273" s="21"/>
@@ -33462,7 +33340,7 @@
       <c r="D274" s="21"/>
       <c r="E274" s="21"/>
       <c r="F274" s="21"/>
-      <c r="G274" s="55"/>
+      <c r="G274" s="47"/>
       <c r="H274" s="21"/>
       <c r="I274" s="21"/>
       <c r="J274" s="21"/>
@@ -33477,7 +33355,7 @@
       <c r="D275" s="21"/>
       <c r="E275" s="21"/>
       <c r="F275" s="21"/>
-      <c r="G275" s="55"/>
+      <c r="G275" s="47"/>
       <c r="H275" s="21"/>
       <c r="I275" s="21"/>
       <c r="J275" s="21"/>
@@ -33492,7 +33370,7 @@
       <c r="D276" s="21"/>
       <c r="E276" s="21"/>
       <c r="F276" s="21"/>
-      <c r="G276" s="55"/>
+      <c r="G276" s="47"/>
       <c r="H276" s="21"/>
       <c r="I276" s="21"/>
       <c r="J276" s="21"/>
@@ -33507,7 +33385,7 @@
       <c r="D277" s="21"/>
       <c r="E277" s="21"/>
       <c r="F277" s="21"/>
-      <c r="G277" s="55"/>
+      <c r="G277" s="47"/>
       <c r="H277" s="21"/>
       <c r="I277" s="21"/>
       <c r="J277" s="21"/>
@@ -33522,7 +33400,7 @@
       <c r="D278" s="21"/>
       <c r="E278" s="21"/>
       <c r="F278" s="21"/>
-      <c r="G278" s="55"/>
+      <c r="G278" s="47"/>
       <c r="H278" s="21"/>
       <c r="I278" s="21"/>
       <c r="J278" s="21"/>
@@ -33537,7 +33415,7 @@
       <c r="D279" s="21"/>
       <c r="E279" s="21"/>
       <c r="F279" s="21"/>
-      <c r="G279" s="55"/>
+      <c r="G279" s="47"/>
       <c r="H279" s="21"/>
       <c r="I279" s="21"/>
       <c r="J279" s="21"/>
@@ -33552,7 +33430,7 @@
       <c r="D280" s="21"/>
       <c r="E280" s="21"/>
       <c r="F280" s="21"/>
-      <c r="G280" s="55"/>
+      <c r="G280" s="47"/>
       <c r="H280" s="21"/>
       <c r="I280" s="21"/>
       <c r="J280" s="21"/>
@@ -33567,7 +33445,7 @@
       <c r="D281" s="21"/>
       <c r="E281" s="21"/>
       <c r="F281" s="21"/>
-      <c r="G281" s="55"/>
+      <c r="G281" s="47"/>
       <c r="H281" s="21"/>
       <c r="I281" s="21"/>
       <c r="J281" s="21"/>
@@ -33582,7 +33460,7 @@
       <c r="D282" s="21"/>
       <c r="E282" s="21"/>
       <c r="F282" s="21"/>
-      <c r="G282" s="55"/>
+      <c r="G282" s="47"/>
       <c r="H282" s="21"/>
       <c r="I282" s="21"/>
       <c r="J282" s="21"/>
@@ -33597,7 +33475,7 @@
       <c r="D283" s="21"/>
       <c r="E283" s="21"/>
       <c r="F283" s="21"/>
-      <c r="G283" s="55"/>
+      <c r="G283" s="47"/>
       <c r="H283" s="21"/>
       <c r="I283" s="21"/>
       <c r="J283" s="21"/>
@@ -33612,7 +33490,7 @@
       <c r="D284" s="21"/>
       <c r="E284" s="21"/>
       <c r="F284" s="21"/>
-      <c r="G284" s="55"/>
+      <c r="G284" s="47"/>
       <c r="H284" s="21"/>
       <c r="I284" s="21"/>
       <c r="J284" s="21"/>
@@ -33627,7 +33505,7 @@
       <c r="D285" s="21"/>
       <c r="E285" s="21"/>
       <c r="F285" s="21"/>
-      <c r="G285" s="55"/>
+      <c r="G285" s="47"/>
       <c r="H285" s="21"/>
       <c r="I285" s="21"/>
       <c r="J285" s="21"/>
@@ -33642,7 +33520,7 @@
       <c r="D286" s="21"/>
       <c r="E286" s="21"/>
       <c r="F286" s="21"/>
-      <c r="G286" s="55"/>
+      <c r="G286" s="47"/>
       <c r="H286" s="21"/>
       <c r="I286" s="21"/>
       <c r="J286" s="21"/>
@@ -33657,7 +33535,7 @@
       <c r="D287" s="21"/>
       <c r="E287" s="21"/>
       <c r="F287" s="21"/>
-      <c r="G287" s="55"/>
+      <c r="G287" s="47"/>
       <c r="H287" s="21"/>
       <c r="I287" s="21"/>
       <c r="J287" s="21"/>
@@ -33672,7 +33550,7 @@
       <c r="D288" s="21"/>
       <c r="E288" s="21"/>
       <c r="F288" s="21"/>
-      <c r="G288" s="55"/>
+      <c r="G288" s="47"/>
       <c r="H288" s="21"/>
       <c r="I288" s="21"/>
       <c r="J288" s="21"/>
@@ -33687,7 +33565,7 @@
       <c r="D289" s="21"/>
       <c r="E289" s="21"/>
       <c r="F289" s="21"/>
-      <c r="G289" s="55"/>
+      <c r="G289" s="47"/>
       <c r="H289" s="21"/>
       <c r="I289" s="21"/>
       <c r="J289" s="21"/>
@@ -33702,7 +33580,7 @@
       <c r="D290" s="21"/>
       <c r="E290" s="21"/>
       <c r="F290" s="21"/>
-      <c r="G290" s="55"/>
+      <c r="G290" s="47"/>
       <c r="H290" s="21"/>
       <c r="I290" s="21"/>
       <c r="J290" s="21"/>
@@ -33717,7 +33595,7 @@
       <c r="D291" s="21"/>
       <c r="E291" s="21"/>
       <c r="F291" s="21"/>
-      <c r="G291" s="55"/>
+      <c r="G291" s="47"/>
       <c r="H291" s="21"/>
       <c r="I291" s="21"/>
       <c r="J291" s="21"/>
@@ -33732,7 +33610,7 @@
       <c r="D292" s="21"/>
       <c r="E292" s="21"/>
       <c r="F292" s="21"/>
-      <c r="G292" s="55"/>
+      <c r="G292" s="47"/>
       <c r="H292" s="21"/>
       <c r="I292" s="21"/>
       <c r="J292" s="21"/>
@@ -33747,7 +33625,7 @@
       <c r="D293" s="21"/>
       <c r="E293" s="21"/>
       <c r="F293" s="21"/>
-      <c r="G293" s="55"/>
+      <c r="G293" s="47"/>
       <c r="H293" s="21"/>
       <c r="I293" s="21"/>
       <c r="J293" s="21"/>
@@ -33762,7 +33640,7 @@
       <c r="D294" s="21"/>
       <c r="E294" s="21"/>
       <c r="F294" s="21"/>
-      <c r="G294" s="55"/>
+      <c r="G294" s="47"/>
       <c r="H294" s="21"/>
       <c r="I294" s="21"/>
       <c r="J294" s="21"/>
@@ -33777,7 +33655,7 @@
       <c r="D295" s="21"/>
       <c r="E295" s="21"/>
       <c r="F295" s="21"/>
-      <c r="G295" s="55"/>
+      <c r="G295" s="47"/>
       <c r="H295" s="21"/>
       <c r="I295" s="21"/>
       <c r="J295" s="21"/>
@@ -33792,7 +33670,7 @@
       <c r="D296" s="21"/>
       <c r="E296" s="21"/>
       <c r="F296" s="21"/>
-      <c r="G296" s="55"/>
+      <c r="G296" s="47"/>
       <c r="H296" s="21"/>
       <c r="I296" s="21"/>
       <c r="J296" s="21"/>
@@ -33807,7 +33685,7 @@
       <c r="D297" s="21"/>
       <c r="E297" s="21"/>
       <c r="F297" s="21"/>
-      <c r="G297" s="55"/>
+      <c r="G297" s="47"/>
       <c r="H297" s="21"/>
       <c r="I297" s="21"/>
       <c r="J297" s="21"/>
@@ -33822,7 +33700,7 @@
       <c r="D298" s="21"/>
       <c r="E298" s="21"/>
       <c r="F298" s="21"/>
-      <c r="G298" s="55"/>
+      <c r="G298" s="47"/>
       <c r="H298" s="21"/>
       <c r="I298" s="21"/>
       <c r="J298" s="21"/>
@@ -33837,7 +33715,7 @@
       <c r="D299" s="21"/>
       <c r="E299" s="21"/>
       <c r="F299" s="21"/>
-      <c r="G299" s="55"/>
+      <c r="G299" s="47"/>
       <c r="H299" s="21"/>
       <c r="I299" s="21"/>
       <c r="J299" s="21"/>
@@ -33852,7 +33730,7 @@
       <c r="D300" s="21"/>
       <c r="E300" s="21"/>
       <c r="F300" s="21"/>
-      <c r="G300" s="55"/>
+      <c r="G300" s="47"/>
       <c r="H300" s="21"/>
       <c r="I300" s="21"/>
       <c r="J300" s="21"/>
@@ -33867,7 +33745,7 @@
       <c r="D301" s="21"/>
       <c r="E301" s="21"/>
       <c r="F301" s="21"/>
-      <c r="G301" s="55"/>
+      <c r="G301" s="47"/>
       <c r="H301" s="21"/>
       <c r="I301" s="21"/>
       <c r="J301" s="21"/>
@@ -33882,7 +33760,7 @@
       <c r="D302" s="21"/>
       <c r="E302" s="21"/>
       <c r="F302" s="21"/>
-      <c r="G302" s="55"/>
+      <c r="G302" s="47"/>
       <c r="H302" s="21"/>
       <c r="I302" s="21"/>
       <c r="J302" s="21"/>
@@ -33897,7 +33775,7 @@
       <c r="D303" s="21"/>
       <c r="E303" s="21"/>
       <c r="F303" s="21"/>
-      <c r="G303" s="55"/>
+      <c r="G303" s="47"/>
       <c r="H303" s="21"/>
       <c r="I303" s="21"/>
       <c r="J303" s="21"/>
@@ -33912,7 +33790,7 @@
       <c r="D304" s="21"/>
       <c r="E304" s="21"/>
       <c r="F304" s="21"/>
-      <c r="G304" s="55"/>
+      <c r="G304" s="47"/>
       <c r="H304" s="21"/>
       <c r="I304" s="21"/>
       <c r="J304" s="21"/>
@@ -33927,7 +33805,7 @@
       <c r="D305" s="21"/>
       <c r="E305" s="21"/>
       <c r="F305" s="21"/>
-      <c r="G305" s="55"/>
+      <c r="G305" s="47"/>
       <c r="H305" s="21"/>
       <c r="I305" s="21"/>
       <c r="J305" s="21"/>
@@ -33942,7 +33820,7 @@
       <c r="D306" s="21"/>
       <c r="E306" s="21"/>
       <c r="F306" s="21"/>
-      <c r="G306" s="55"/>
+      <c r="G306" s="47"/>
       <c r="H306" s="21"/>
       <c r="I306" s="21"/>
       <c r="J306" s="21"/>
@@ -33957,7 +33835,7 @@
       <c r="D307" s="21"/>
       <c r="E307" s="21"/>
       <c r="F307" s="21"/>
-      <c r="G307" s="55"/>
+      <c r="G307" s="47"/>
       <c r="H307" s="21"/>
       <c r="I307" s="21"/>
       <c r="J307" s="21"/>
@@ -33972,7 +33850,7 @@
       <c r="D308" s="21"/>
       <c r="E308" s="21"/>
       <c r="F308" s="21"/>
-      <c r="G308" s="55"/>
+      <c r="G308" s="47"/>
       <c r="H308" s="21"/>
       <c r="I308" s="21"/>
       <c r="J308" s="21"/>
@@ -33987,7 +33865,7 @@
       <c r="D309" s="21"/>
       <c r="E309" s="21"/>
       <c r="F309" s="21"/>
-      <c r="G309" s="55"/>
+      <c r="G309" s="47"/>
       <c r="H309" s="21"/>
       <c r="I309" s="21"/>
       <c r="J309" s="21"/>
@@ -34002,7 +33880,7 @@
       <c r="D310" s="21"/>
       <c r="E310" s="21"/>
       <c r="F310" s="21"/>
-      <c r="G310" s="55"/>
+      <c r="G310" s="47"/>
       <c r="H310" s="21"/>
       <c r="I310" s="21"/>
       <c r="J310" s="21"/>
@@ -34017,7 +33895,7 @@
       <c r="D311" s="21"/>
       <c r="E311" s="21"/>
       <c r="F311" s="21"/>
-      <c r="G311" s="55"/>
+      <c r="G311" s="47"/>
       <c r="H311" s="21"/>
       <c r="I311" s="21"/>
       <c r="J311" s="21"/>
@@ -34032,7 +33910,7 @@
       <c r="D312" s="21"/>
       <c r="E312" s="21"/>
       <c r="F312" s="21"/>
-      <c r="G312" s="55"/>
+      <c r="G312" s="47"/>
       <c r="H312" s="21"/>
       <c r="I312" s="21"/>
       <c r="J312" s="21"/>
@@ -34047,7 +33925,7 @@
       <c r="D313" s="21"/>
       <c r="E313" s="21"/>
       <c r="F313" s="21"/>
-      <c r="G313" s="55"/>
+      <c r="G313" s="47"/>
       <c r="H313" s="21"/>
       <c r="I313" s="21"/>
       <c r="J313" s="21"/>
@@ -34062,7 +33940,7 @@
       <c r="D314" s="21"/>
       <c r="E314" s="21"/>
       <c r="F314" s="21"/>
-      <c r="G314" s="55"/>
+      <c r="G314" s="47"/>
       <c r="H314" s="21"/>
       <c r="I314" s="21"/>
       <c r="J314" s="21"/>
@@ -34077,7 +33955,7 @@
       <c r="D315" s="21"/>
       <c r="E315" s="21"/>
       <c r="F315" s="21"/>
-      <c r="G315" s="55"/>
+      <c r="G315" s="47"/>
       <c r="H315" s="21"/>
       <c r="I315" s="21"/>
       <c r="J315" s="21"/>
@@ -34092,7 +33970,7 @@
       <c r="D316" s="21"/>
       <c r="E316" s="21"/>
       <c r="F316" s="21"/>
-      <c r="G316" s="55"/>
+      <c r="G316" s="47"/>
       <c r="H316" s="21"/>
       <c r="I316" s="21"/>
       <c r="J316" s="21"/>
@@ -34107,7 +33985,7 @@
       <c r="D317" s="21"/>
       <c r="E317" s="21"/>
       <c r="F317" s="21"/>
-      <c r="G317" s="55"/>
+      <c r="G317" s="47"/>
       <c r="H317" s="21"/>
       <c r="I317" s="21"/>
       <c r="J317" s="21"/>
@@ -34122,7 +34000,7 @@
       <c r="D318" s="21"/>
       <c r="E318" s="21"/>
       <c r="F318" s="21"/>
-      <c r="G318" s="55"/>
+      <c r="G318" s="47"/>
       <c r="H318" s="21"/>
       <c r="I318" s="21"/>
       <c r="J318" s="21"/>
@@ -34137,7 +34015,7 @@
       <c r="D319" s="21"/>
       <c r="E319" s="21"/>
       <c r="F319" s="21"/>
-      <c r="G319" s="55"/>
+      <c r="G319" s="47"/>
       <c r="H319" s="21"/>
       <c r="I319" s="21"/>
       <c r="J319" s="21"/>
@@ -34152,7 +34030,7 @@
       <c r="D320" s="21"/>
       <c r="E320" s="21"/>
       <c r="F320" s="21"/>
-      <c r="G320" s="55"/>
+      <c r="G320" s="47"/>
       <c r="H320" s="21"/>
       <c r="I320" s="21"/>
       <c r="J320" s="21"/>
@@ -34167,7 +34045,7 @@
       <c r="D321" s="21"/>
       <c r="E321" s="21"/>
       <c r="F321" s="21"/>
-      <c r="G321" s="55"/>
+      <c r="G321" s="47"/>
       <c r="H321" s="21"/>
       <c r="I321" s="21"/>
       <c r="J321" s="21"/>
@@ -34182,7 +34060,7 @@
       <c r="D322" s="21"/>
       <c r="E322" s="21"/>
       <c r="F322" s="21"/>
-      <c r="G322" s="55"/>
+      <c r="G322" s="47"/>
       <c r="H322" s="21"/>
       <c r="I322" s="21"/>
       <c r="J322" s="21"/>
@@ -34197,7 +34075,7 @@
       <c r="D323" s="21"/>
       <c r="E323" s="21"/>
       <c r="F323" s="21"/>
-      <c r="G323" s="55"/>
+      <c r="G323" s="47"/>
       <c r="H323" s="21"/>
       <c r="I323" s="21"/>
       <c r="J323" s="21"/>
@@ -34212,7 +34090,7 @@
       <c r="D324" s="21"/>
       <c r="E324" s="21"/>
       <c r="F324" s="21"/>
-      <c r="G324" s="55"/>
+      <c r="G324" s="47"/>
       <c r="H324" s="21"/>
       <c r="I324" s="21"/>
       <c r="J324" s="21"/>
@@ -34227,7 +34105,7 @@
       <c r="D325" s="21"/>
       <c r="E325" s="21"/>
       <c r="F325" s="21"/>
-      <c r="G325" s="55"/>
+      <c r="G325" s="47"/>
       <c r="H325" s="21"/>
       <c r="I325" s="21"/>
       <c r="J325" s="21"/>
@@ -34242,7 +34120,7 @@
       <c r="D326" s="21"/>
       <c r="E326" s="21"/>
       <c r="F326" s="21"/>
-      <c r="G326" s="55"/>
+      <c r="G326" s="47"/>
       <c r="H326" s="21"/>
       <c r="I326" s="21"/>
       <c r="J326" s="21"/>
@@ -34257,7 +34135,7 @@
       <c r="D327" s="21"/>
       <c r="E327" s="21"/>
       <c r="F327" s="21"/>
-      <c r="G327" s="55"/>
+      <c r="G327" s="47"/>
       <c r="H327" s="21"/>
       <c r="I327" s="21"/>
       <c r="J327" s="21"/>
@@ -34272,7 +34150,7 @@
       <c r="D328" s="21"/>
       <c r="E328" s="21"/>
       <c r="F328" s="21"/>
-      <c r="G328" s="55"/>
+      <c r="G328" s="47"/>
       <c r="H328" s="21"/>
       <c r="I328" s="21"/>
       <c r="J328" s="21"/>
@@ -34287,7 +34165,7 @@
       <c r="D329" s="21"/>
       <c r="E329" s="21"/>
       <c r="F329" s="21"/>
-      <c r="G329" s="55"/>
+      <c r="G329" s="47"/>
       <c r="H329" s="21"/>
       <c r="I329" s="21"/>
       <c r="J329" s="21"/>
@@ -34302,7 +34180,7 @@
       <c r="D330" s="21"/>
       <c r="E330" s="21"/>
       <c r="F330" s="21"/>
-      <c r="G330" s="55"/>
+      <c r="G330" s="47"/>
       <c r="H330" s="21"/>
       <c r="I330" s="21"/>
       <c r="J330" s="21"/>
@@ -34317,7 +34195,7 @@
       <c r="D331" s="21"/>
       <c r="E331" s="21"/>
       <c r="F331" s="21"/>
-      <c r="G331" s="55"/>
+      <c r="G331" s="47"/>
       <c r="H331" s="21"/>
       <c r="I331" s="21"/>
       <c r="J331" s="21"/>
@@ -34332,7 +34210,7 @@
       <c r="D332" s="21"/>
       <c r="E332" s="21"/>
       <c r="F332" s="21"/>
-      <c r="G332" s="55"/>
+      <c r="G332" s="47"/>
       <c r="H332" s="21"/>
       <c r="I332" s="21"/>
       <c r="J332" s="21"/>
@@ -34347,7 +34225,7 @@
       <c r="D333" s="21"/>
       <c r="E333" s="21"/>
       <c r="F333" s="21"/>
-      <c r="G333" s="55"/>
+      <c r="G333" s="47"/>
       <c r="H333" s="21"/>
       <c r="I333" s="21"/>
       <c r="J333" s="21"/>
@@ -34362,7 +34240,7 @@
       <c r="D334" s="21"/>
       <c r="E334" s="21"/>
       <c r="F334" s="21"/>
-      <c r="G334" s="55"/>
+      <c r="G334" s="47"/>
       <c r="H334" s="21"/>
       <c r="I334" s="21"/>
       <c r="J334" s="21"/>
@@ -34377,7 +34255,7 @@
       <c r="D335" s="21"/>
       <c r="E335" s="21"/>
       <c r="F335" s="21"/>
-      <c r="G335" s="55"/>
+      <c r="G335" s="47"/>
       <c r="H335" s="21"/>
       <c r="I335" s="21"/>
       <c r="J335" s="21"/>
@@ -34392,7 +34270,7 @@
       <c r="D336" s="21"/>
       <c r="E336" s="21"/>
       <c r="F336" s="21"/>
-      <c r="G336" s="55"/>
+      <c r="G336" s="47"/>
       <c r="H336" s="21"/>
       <c r="I336" s="21"/>
       <c r="J336" s="21"/>
@@ -34407,7 +34285,7 @@
       <c r="D337" s="21"/>
       <c r="E337" s="21"/>
       <c r="F337" s="21"/>
-      <c r="G337" s="55"/>
+      <c r="G337" s="47"/>
       <c r="H337" s="21"/>
       <c r="I337" s="21"/>
       <c r="J337" s="21"/>
@@ -34422,7 +34300,7 @@
       <c r="D338" s="21"/>
       <c r="E338" s="21"/>
       <c r="F338" s="21"/>
-      <c r="G338" s="55"/>
+      <c r="G338" s="47"/>
       <c r="H338" s="21"/>
       <c r="I338" s="21"/>
       <c r="J338" s="21"/>
@@ -34437,7 +34315,7 @@
       <c r="D339" s="21"/>
       <c r="E339" s="21"/>
       <c r="F339" s="21"/>
-      <c r="G339" s="55"/>
+      <c r="G339" s="47"/>
       <c r="H339" s="21"/>
       <c r="I339" s="21"/>
       <c r="J339" s="21"/>
@@ -34452,7 +34330,7 @@
       <c r="D340" s="21"/>
       <c r="E340" s="21"/>
       <c r="F340" s="21"/>
-      <c r="G340" s="55"/>
+      <c r="G340" s="47"/>
       <c r="H340" s="21"/>
       <c r="I340" s="21"/>
       <c r="J340" s="21"/>
@@ -34467,7 +34345,7 @@
       <c r="D341" s="21"/>
       <c r="E341" s="21"/>
       <c r="F341" s="21"/>
-      <c r="G341" s="55"/>
+      <c r="G341" s="47"/>
       <c r="H341" s="21"/>
       <c r="I341" s="21"/>
       <c r="J341" s="21"/>
@@ -34482,7 +34360,7 @@
       <c r="D342" s="21"/>
       <c r="E342" s="21"/>
       <c r="F342" s="21"/>
-      <c r="G342" s="55"/>
+      <c r="G342" s="47"/>
       <c r="H342" s="21"/>
       <c r="I342" s="21"/>
       <c r="J342" s="21"/>
@@ -34497,7 +34375,7 @@
       <c r="D343" s="21"/>
       <c r="E343" s="21"/>
       <c r="F343" s="21"/>
-      <c r="G343" s="55"/>
+      <c r="G343" s="47"/>
       <c r="H343" s="21"/>
       <c r="I343" s="21"/>
       <c r="J343" s="21"/>
@@ -34512,7 +34390,7 @@
       <c r="D344" s="21"/>
       <c r="E344" s="21"/>
       <c r="F344" s="21"/>
-      <c r="G344" s="55"/>
+      <c r="G344" s="47"/>
       <c r="H344" s="21"/>
       <c r="I344" s="21"/>
       <c r="J344" s="21"/>
@@ -34527,7 +34405,7 @@
       <c r="D345" s="21"/>
       <c r="E345" s="21"/>
       <c r="F345" s="21"/>
-      <c r="G345" s="55"/>
+      <c r="G345" s="47"/>
       <c r="H345" s="21"/>
       <c r="I345" s="21"/>
       <c r="J345" s="21"/>
@@ -34542,7 +34420,7 @@
       <c r="D346" s="21"/>
       <c r="E346" s="21"/>
       <c r="F346" s="21"/>
-      <c r="G346" s="55"/>
+      <c r="G346" s="47"/>
       <c r="H346" s="21"/>
       <c r="I346" s="21"/>
       <c r="J346" s="21"/>
@@ -34557,7 +34435,7 @@
       <c r="D347" s="21"/>
       <c r="E347" s="21"/>
       <c r="F347" s="21"/>
-      <c r="G347" s="55"/>
+      <c r="G347" s="47"/>
       <c r="H347" s="21"/>
       <c r="I347" s="21"/>
       <c r="J347" s="21"/>
@@ -34572,7 +34450,7 @@
       <c r="D348" s="21"/>
       <c r="E348" s="21"/>
       <c r="F348" s="21"/>
-      <c r="G348" s="55"/>
+      <c r="G348" s="47"/>
       <c r="H348" s="21"/>
       <c r="I348" s="21"/>
       <c r="J348" s="21"/>
@@ -34587,7 +34465,7 @@
       <c r="D349" s="21"/>
       <c r="E349" s="21"/>
       <c r="F349" s="21"/>
-      <c r="G349" s="55"/>
+      <c r="G349" s="47"/>
       <c r="H349" s="21"/>
       <c r="I349" s="21"/>
       <c r="J349" s="21"/>
@@ -34602,7 +34480,7 @@
       <c r="D350" s="21"/>
       <c r="E350" s="21"/>
       <c r="F350" s="21"/>
-      <c r="G350" s="55"/>
+      <c r="G350" s="47"/>
       <c r="H350" s="21"/>
       <c r="I350" s="21"/>
       <c r="J350" s="21"/>
@@ -34617,7 +34495,7 @@
       <c r="D351" s="21"/>
       <c r="E351" s="21"/>
       <c r="F351" s="21"/>
-      <c r="G351" s="55"/>
+      <c r="G351" s="47"/>
       <c r="H351" s="21"/>
       <c r="I351" s="21"/>
       <c r="J351" s="21"/>
@@ -34632,7 +34510,7 @@
       <c r="D352" s="21"/>
       <c r="E352" s="21"/>
       <c r="F352" s="21"/>
-      <c r="G352" s="55"/>
+      <c r="G352" s="47"/>
       <c r="H352" s="21"/>
       <c r="I352" s="21"/>
       <c r="J352" s="21"/>
@@ -34647,7 +34525,7 @@
       <c r="D353" s="21"/>
       <c r="E353" s="21"/>
       <c r="F353" s="21"/>
-      <c r="G353" s="55"/>
+      <c r="G353" s="47"/>
       <c r="H353" s="21"/>
       <c r="I353" s="21"/>
       <c r="J353" s="21"/>
@@ -34662,7 +34540,7 @@
       <c r="D354" s="21"/>
       <c r="E354" s="21"/>
       <c r="F354" s="21"/>
-      <c r="G354" s="55"/>
+      <c r="G354" s="47"/>
       <c r="H354" s="21"/>
       <c r="I354" s="21"/>
       <c r="J354" s="21"/>
@@ -34677,7 +34555,7 @@
       <c r="D355" s="21"/>
       <c r="E355" s="21"/>
       <c r="F355" s="21"/>
-      <c r="G355" s="55"/>
+      <c r="G355" s="47"/>
       <c r="H355" s="21"/>
       <c r="I355" s="21"/>
       <c r="J355" s="21"/>
@@ -34692,7 +34570,7 @@
       <c r="D356" s="21"/>
       <c r="E356" s="21"/>
       <c r="F356" s="21"/>
-      <c r="G356" s="55"/>
+      <c r="G356" s="47"/>
       <c r="H356" s="21"/>
       <c r="I356" s="21"/>
       <c r="J356" s="21"/>
@@ -34707,7 +34585,7 @@
       <c r="D357" s="21"/>
       <c r="E357" s="21"/>
       <c r="F357" s="21"/>
-      <c r="G357" s="55"/>
+      <c r="G357" s="47"/>
       <c r="H357" s="21"/>
       <c r="I357" s="21"/>
       <c r="J357" s="21"/>
@@ -34722,7 +34600,7 @@
       <c r="D358" s="21"/>
       <c r="E358" s="21"/>
       <c r="F358" s="21"/>
-      <c r="G358" s="55"/>
+      <c r="G358" s="47"/>
       <c r="H358" s="21"/>
       <c r="I358" s="21"/>
       <c r="J358" s="21"/>
@@ -34737,7 +34615,7 @@
       <c r="D359" s="21"/>
       <c r="E359" s="21"/>
       <c r="F359" s="21"/>
-      <c r="G359" s="55"/>
+      <c r="G359" s="47"/>
       <c r="H359" s="21"/>
       <c r="I359" s="21"/>
       <c r="J359" s="21"/>
@@ -34752,7 +34630,7 @@
       <c r="D360" s="21"/>
       <c r="E360" s="21"/>
       <c r="F360" s="21"/>
-      <c r="G360" s="55"/>
+      <c r="G360" s="47"/>
       <c r="H360" s="21"/>
       <c r="I360" s="21"/>
       <c r="J360" s="21"/>
@@ -34767,7 +34645,7 @@
       <c r="D361" s="21"/>
       <c r="E361" s="21"/>
       <c r="F361" s="21"/>
-      <c r="G361" s="55"/>
+      <c r="G361" s="47"/>
       <c r="H361" s="21"/>
       <c r="I361" s="21"/>
       <c r="J361" s="21"/>
@@ -34782,7 +34660,7 @@
       <c r="D362" s="21"/>
       <c r="E362" s="21"/>
       <c r="F362" s="21"/>
-      <c r="G362" s="55"/>
+      <c r="G362" s="47"/>
       <c r="H362" s="21"/>
       <c r="I362" s="21"/>
       <c r="J362" s="21"/>
@@ -34797,7 +34675,7 @@
       <c r="D363" s="21"/>
       <c r="E363" s="21"/>
       <c r="F363" s="21"/>
-      <c r="G363" s="55"/>
+      <c r="G363" s="47"/>
       <c r="H363" s="21"/>
       <c r="I363" s="21"/>
       <c r="J363" s="21"/>
@@ -34812,7 +34690,7 @@
       <c r="D364" s="21"/>
       <c r="E364" s="21"/>
       <c r="F364" s="21"/>
-      <c r="G364" s="55"/>
+      <c r="G364" s="47"/>
       <c r="H364" s="21"/>
       <c r="I364" s="21"/>
       <c r="J364" s="21"/>
@@ -34827,7 +34705,7 @@
       <c r="D365" s="21"/>
       <c r="E365" s="21"/>
       <c r="F365" s="21"/>
-      <c r="G365" s="55"/>
+      <c r="G365" s="47"/>
       <c r="H365" s="21"/>
       <c r="I365" s="21"/>
       <c r="J365" s="21"/>
@@ -34842,7 +34720,7 @@
       <c r="D366" s="21"/>
       <c r="E366" s="21"/>
       <c r="F366" s="21"/>
-      <c r="G366" s="55"/>
+      <c r="G366" s="47"/>
       <c r="H366" s="21"/>
       <c r="I366" s="21"/>
       <c r="J366" s="21"/>
@@ -34857,7 +34735,7 @@
       <c r="D367" s="21"/>
       <c r="E367" s="21"/>
       <c r="F367" s="21"/>
-      <c r="G367" s="55"/>
+      <c r="G367" s="47"/>
       <c r="H367" s="21"/>
       <c r="I367" s="21"/>
       <c r="J367" s="21"/>
@@ -34872,7 +34750,7 @@
       <c r="D368" s="21"/>
       <c r="E368" s="21"/>
       <c r="F368" s="21"/>
-      <c r="G368" s="55"/>
+      <c r="G368" s="47"/>
       <c r="H368" s="21"/>
       <c r="I368" s="21"/>
       <c r="J368" s="21"/>
@@ -34887,7 +34765,7 @@
       <c r="D369" s="21"/>
       <c r="E369" s="21"/>
       <c r="F369" s="21"/>
-      <c r="G369" s="55"/>
+      <c r="G369" s="47"/>
       <c r="H369" s="21"/>
       <c r="I369" s="21"/>
       <c r="J369" s="21"/>
@@ -34902,7 +34780,7 @@
       <c r="D370" s="21"/>
       <c r="E370" s="21"/>
       <c r="F370" s="21"/>
-      <c r="G370" s="55"/>
+      <c r="G370" s="47"/>
       <c r="H370" s="21"/>
       <c r="I370" s="21"/>
       <c r="J370" s="21"/>
@@ -34917,7 +34795,7 @@
       <c r="D371" s="21"/>
       <c r="E371" s="21"/>
       <c r="F371" s="21"/>
-      <c r="G371" s="55"/>
+      <c r="G371" s="47"/>
       <c r="H371" s="21"/>
       <c r="I371" s="21"/>
       <c r="J371" s="21"/>
@@ -34932,7 +34810,7 @@
       <c r="D372" s="21"/>
       <c r="E372" s="21"/>
       <c r="F372" s="21"/>
-      <c r="G372" s="55"/>
+      <c r="G372" s="47"/>
       <c r="H372" s="21"/>
       <c r="I372" s="21"/>
       <c r="J372" s="21"/>
@@ -34947,7 +34825,7 @@
       <c r="D373" s="21"/>
       <c r="E373" s="21"/>
       <c r="F373" s="21"/>
-      <c r="G373" s="55"/>
+      <c r="G373" s="47"/>
       <c r="H373" s="21"/>
       <c r="I373" s="21"/>
       <c r="J373" s="21"/>
@@ -34962,7 +34840,7 @@
       <c r="D374" s="21"/>
       <c r="E374" s="21"/>
       <c r="F374" s="21"/>
-      <c r="G374" s="55"/>
+      <c r="G374" s="47"/>
       <c r="H374" s="21"/>
       <c r="I374" s="21"/>
       <c r="J374" s="21"/>
@@ -34977,7 +34855,7 @@
       <c r="D375" s="21"/>
       <c r="E375" s="21"/>
       <c r="F375" s="21"/>
-      <c r="G375" s="55"/>
+      <c r="G375" s="47"/>
       <c r="H375" s="21"/>
       <c r="I375" s="21"/>
       <c r="J375" s="21"/>
@@ -34992,7 +34870,7 @@
       <c r="D376" s="21"/>
       <c r="E376" s="21"/>
       <c r="F376" s="21"/>
-      <c r="G376" s="55"/>
+      <c r="G376" s="47"/>
       <c r="H376" s="21"/>
       <c r="I376" s="21"/>
       <c r="J376" s="21"/>
@@ -35007,7 +34885,7 @@
       <c r="D377" s="21"/>
       <c r="E377" s="21"/>
       <c r="F377" s="21"/>
-      <c r="G377" s="55"/>
+      <c r="G377" s="47"/>
       <c r="H377" s="21"/>
       <c r="I377" s="21"/>
       <c r="J377" s="21"/>
@@ -35022,7 +34900,7 @@
       <c r="D378" s="21"/>
       <c r="E378" s="21"/>
       <c r="F378" s="21"/>
-      <c r="G378" s="55"/>
+      <c r="G378" s="47"/>
       <c r="H378" s="21"/>
       <c r="I378" s="21"/>
       <c r="J378" s="21"/>
@@ -35037,7 +34915,7 @@
       <c r="D379" s="21"/>
       <c r="E379" s="21"/>
       <c r="F379" s="21"/>
-      <c r="G379" s="55"/>
+      <c r="G379" s="47"/>
       <c r="H379" s="21"/>
       <c r="I379" s="21"/>
       <c r="J379" s="21"/>
@@ -35052,7 +34930,7 @@
       <c r="D380" s="21"/>
       <c r="E380" s="21"/>
       <c r="F380" s="21"/>
-      <c r="G380" s="55"/>
+      <c r="G380" s="47"/>
       <c r="H380" s="21"/>
       <c r="I380" s="21"/>
       <c r="J380" s="21"/>
@@ -35067,7 +34945,7 @@
       <c r="D381" s="21"/>
       <c r="E381" s="21"/>
       <c r="F381" s="21"/>
-      <c r="G381" s="55"/>
+      <c r="G381" s="47"/>
       <c r="H381" s="21"/>
       <c r="I381" s="21"/>
       <c r="J381" s="21"/>
@@ -35082,7 +34960,7 @@
       <c r="D382" s="21"/>
       <c r="E382" s="21"/>
       <c r="F382" s="21"/>
-      <c r="G382" s="55"/>
+      <c r="G382" s="47"/>
       <c r="H382" s="21"/>
       <c r="I382" s="21"/>
       <c r="J382" s="21"/>
@@ -35097,7 +34975,7 @@
       <c r="D383" s="21"/>
       <c r="E383" s="21"/>
       <c r="F383" s="21"/>
-      <c r="G383" s="55"/>
+      <c r="G383" s="47"/>
       <c r="H383" s="21"/>
       <c r="I383" s="21"/>
       <c r="J383" s="21"/>
@@ -35112,7 +34990,7 @@
       <c r="D384" s="21"/>
       <c r="E384" s="21"/>
       <c r="F384" s="21"/>
-      <c r="G384" s="55"/>
+      <c r="G384" s="47"/>
       <c r="H384" s="21"/>
       <c r="I384" s="21"/>
       <c r="J384" s="21"/>
@@ -35127,7 +35005,7 @@
       <c r="D385" s="21"/>
       <c r="E385" s="21"/>
       <c r="F385" s="21"/>
-      <c r="G385" s="55"/>
+      <c r="G385" s="47"/>
       <c r="H385" s="21"/>
       <c r="I385" s="21"/>
       <c r="J385" s="21"/>
@@ -35142,7 +35020,7 @@
       <c r="D386" s="21"/>
       <c r="E386" s="21"/>
       <c r="F386" s="21"/>
-      <c r="G386" s="55"/>
+      <c r="G386" s="47"/>
       <c r="H386" s="21"/>
       <c r="I386" s="21"/>
       <c r="J386" s="21"/>
@@ -35157,7 +35035,7 @@
       <c r="D387" s="21"/>
       <c r="E387" s="21"/>
       <c r="F387" s="21"/>
-      <c r="G387" s="55"/>
+      <c r="G387" s="47"/>
       <c r="H387" s="21"/>
       <c r="I387" s="21"/>
       <c r="J387" s="21"/>
@@ -35172,7 +35050,7 @@
       <c r="D388" s="21"/>
       <c r="E388" s="21"/>
       <c r="F388" s="21"/>
-      <c r="G388" s="55"/>
+      <c r="G388" s="47"/>
       <c r="H388" s="21"/>
       <c r="I388" s="21"/>
       <c r="J388" s="21"/>
@@ -35187,7 +35065,7 @@
       <c r="D389" s="21"/>
       <c r="E389" s="21"/>
       <c r="F389" s="21"/>
-      <c r="G389" s="55"/>
+      <c r="G389" s="47"/>
       <c r="H389" s="21"/>
       <c r="I389" s="21"/>
       <c r="J389" s="21"/>
@@ -35202,7 +35080,7 @@
       <c r="D390" s="21"/>
       <c r="E390" s="21"/>
       <c r="F390" s="21"/>
-      <c r="G390" s="55"/>
+      <c r="G390" s="47"/>
       <c r="H390" s="21"/>
       <c r="I390" s="21"/>
       <c r="J390" s="21"/>
@@ -35217,7 +35095,7 @@
       <c r="D391" s="21"/>
       <c r="E391" s="21"/>
       <c r="F391" s="21"/>
-      <c r="G391" s="55"/>
+      <c r="G391" s="47"/>
       <c r="H391" s="21"/>
       <c r="I391" s="21"/>
       <c r="J391" s="21"/>
@@ -35232,7 +35110,7 @@
       <c r="D392" s="21"/>
       <c r="E392" s="21"/>
       <c r="F392" s="21"/>
-      <c r="G392" s="55"/>
+      <c r="G392" s="47"/>
       <c r="H392" s="21"/>
       <c r="I392" s="21"/>
       <c r="J392" s="21"/>
@@ -35247,7 +35125,7 @@
       <c r="D393" s="21"/>
       <c r="E393" s="21"/>
       <c r="F393" s="21"/>
-      <c r="G393" s="55"/>
+      <c r="G393" s="47"/>
       <c r="H393" s="21"/>
       <c r="I393" s="21"/>
       <c r="J393" s="21"/>
@@ -35262,7 +35140,7 @@
       <c r="D394" s="21"/>
       <c r="E394" s="21"/>
       <c r="F394" s="21"/>
-      <c r="G394" s="55"/>
+      <c r="G394" s="47"/>
       <c r="H394" s="21"/>
       <c r="I394" s="21"/>
       <c r="J394" s="21"/>
@@ -35277,7 +35155,7 @@
       <c r="D395" s="21"/>
       <c r="E395" s="21"/>
       <c r="F395" s="21"/>
-      <c r="G395" s="55"/>
+      <c r="G395" s="47"/>
       <c r="H395" s="21"/>
       <c r="I395" s="21"/>
       <c r="J395" s="21"/>
@@ -35292,7 +35170,7 @@
       <c r="D396" s="21"/>
       <c r="E396" s="21"/>
       <c r="F396" s="21"/>
-      <c r="G396" s="55"/>
+      <c r="G396" s="47"/>
       <c r="H396" s="21"/>
       <c r="I396" s="21"/>
       <c r="J396" s="21"/>
@@ -35307,7 +35185,7 @@
       <c r="D397" s="21"/>
       <c r="E397" s="21"/>
       <c r="F397" s="21"/>
-      <c r="G397" s="55"/>
+      <c r="G397" s="47"/>
       <c r="H397" s="21"/>
       <c r="I397" s="21"/>
       <c r="J397" s="21"/>
@@ -35322,7 +35200,7 @@
       <c r="D398" s="21"/>
       <c r="E398" s="21"/>
       <c r="F398" s="21"/>
-      <c r="G398" s="55"/>
+      <c r="G398" s="47"/>
       <c r="H398" s="21"/>
       <c r="I398" s="21"/>
       <c r="J398" s="21"/>
@@ -35337,7 +35215,7 @@
       <c r="D399" s="21"/>
       <c r="E399" s="21"/>
       <c r="F399" s="21"/>
-      <c r="G399" s="55"/>
+      <c r="G399" s="47"/>
       <c r="H399" s="21"/>
       <c r="I399" s="21"/>
       <c r="J399" s="21"/>
@@ -35352,7 +35230,7 @@
       <c r="D400" s="21"/>
       <c r="E400" s="21"/>
       <c r="F400" s="21"/>
-      <c r="G400" s="55"/>
+      <c r="G400" s="47"/>
       <c r="H400" s="21"/>
       <c r="I400" s="21"/>
       <c r="J400" s="21"/>
@@ -35367,7 +35245,7 @@
       <c r="D401" s="21"/>
       <c r="E401" s="21"/>
       <c r="F401" s="21"/>
-      <c r="G401" s="55"/>
+      <c r="G401" s="47"/>
       <c r="H401" s="21"/>
       <c r="I401" s="21"/>
       <c r="J401" s="21"/>
@@ -35382,7 +35260,7 @@
       <c r="D402" s="21"/>
       <c r="E402" s="21"/>
       <c r="F402" s="21"/>
-      <c r="G402" s="55"/>
+      <c r="G402" s="47"/>
       <c r="H402" s="21"/>
       <c r="I402" s="21"/>
       <c r="J402" s="21"/>
@@ -35397,7 +35275,7 @@
       <c r="D403" s="21"/>
       <c r="E403" s="21"/>
       <c r="F403" s="21"/>
-      <c r="G403" s="55"/>
+      <c r="G403" s="47"/>
       <c r="H403" s="21"/>
       <c r="I403" s="21"/>
       <c r="J403" s="21"/>
@@ -35412,7 +35290,7 @@
       <c r="D404" s="21"/>
       <c r="E404" s="21"/>
       <c r="F404" s="21"/>
-      <c r="G404" s="55"/>
+      <c r="G404" s="47"/>
       <c r="H404" s="21"/>
       <c r="I404" s="21"/>
       <c r="J404" s="21"/>
@@ -35427,7 +35305,7 @@
       <c r="D405" s="21"/>
       <c r="E405" s="21"/>
       <c r="F405" s="21"/>
-      <c r="G405" s="55"/>
+      <c r="G405" s="47"/>
       <c r="H405" s="21"/>
       <c r="I405" s="21"/>
       <c r="J405" s="21"/>
@@ -35442,7 +35320,7 @@
       <c r="D406" s="21"/>
       <c r="E406" s="21"/>
       <c r="F406" s="21"/>
-      <c r="G406" s="55"/>
+      <c r="G406" s="47"/>
       <c r="H406" s="21"/>
       <c r="I406" s="21"/>
       <c r="J406" s="21"/>
@@ -35457,7 +35335,7 @@
       <c r="D407" s="21"/>
       <c r="E407" s="21"/>
       <c r="F407" s="21"/>
-      <c r="G407" s="55"/>
+      <c r="G407" s="47"/>
       <c r="H407" s="21"/>
       <c r="I407" s="21"/>
       <c r="J407" s="21"/>
@@ -35472,7 +35350,7 @@
       <c r="D408" s="21"/>
       <c r="E408" s="21"/>
       <c r="F408" s="21"/>
-      <c r="G408" s="55"/>
+      <c r="G408" s="47"/>
       <c r="H408" s="21"/>
       <c r="I408" s="21"/>
       <c r="J408" s="21"/>
@@ -35487,7 +35365,7 @@
       <c r="D409" s="21"/>
       <c r="E409" s="21"/>
       <c r="F409" s="21"/>
-      <c r="G409" s="55"/>
+      <c r="G409" s="47"/>
       <c r="H409" s="21"/>
       <c r="I409" s="21"/>
       <c r="J409" s="21"/>
@@ -35502,7 +35380,7 @@
       <c r="D410" s="21"/>
       <c r="E410" s="21"/>
       <c r="F410" s="21"/>
-      <c r="G410" s="55"/>
+      <c r="G410" s="47"/>
       <c r="H410" s="21"/>
       <c r="I410" s="21"/>
       <c r="J410" s="21"/>
@@ -35517,7 +35395,7 @@
       <c r="D411" s="21"/>
       <c r="E411" s="21"/>
       <c r="F411" s="21"/>
-      <c r="G411" s="55"/>
+      <c r="G411" s="47"/>
       <c r="H411" s="21"/>
       <c r="I411" s="21"/>
       <c r="J411" s="21"/>
@@ -35532,7 +35410,7 @@
       <c r="D412" s="21"/>
       <c r="E412" s="21"/>
       <c r="F412" s="21"/>
-      <c r="G412" s="55"/>
+      <c r="G412" s="47"/>
       <c r="H412" s="21"/>
       <c r="I412" s="21"/>
       <c r="J412" s="21"/>
@@ -35547,7 +35425,7 @@
       <c r="D413" s="21"/>
       <c r="E413" s="21"/>
       <c r="F413" s="21"/>
-      <c r="G413" s="55"/>
+      <c r="G413" s="47"/>
       <c r="H413" s="21"/>
       <c r="I413" s="21"/>
       <c r="J413" s="21"/>
@@ -35562,7 +35440,7 @@
       <c r="D414" s="21"/>
       <c r="E414" s="21"/>
       <c r="F414" s="21"/>
-      <c r="G414" s="55"/>
+      <c r="G414" s="47"/>
       <c r="H414" s="21"/>
       <c r="I414" s="21"/>
       <c r="J414" s="21"/>
@@ -35577,7 +35455,7 @@
       <c r="D415" s="21"/>
       <c r="E415" s="21"/>
       <c r="F415" s="21"/>
-      <c r="G415" s="55"/>
+      <c r="G415" s="47"/>
       <c r="H415" s="21"/>
       <c r="I415" s="21"/>
       <c r="J415" s="21"/>
@@ -35592,7 +35470,7 @@
       <c r="D416" s="21"/>
       <c r="E416" s="21"/>
       <c r="F416" s="21"/>
-      <c r="G416" s="55"/>
+      <c r="G416" s="47"/>
       <c r="H416" s="21"/>
       <c r="I416" s="21"/>
       <c r="J416" s="21"/>
@@ -35607,7 +35485,7 @@
       <c r="D417" s="21"/>
       <c r="E417" s="21"/>
       <c r="F417" s="21"/>
-      <c r="G417" s="55"/>
+      <c r="G417" s="47"/>
       <c r="H417" s="21"/>
       <c r="I417" s="21"/>
       <c r="J417" s="21"/>
@@ -35622,7 +35500,7 @@
       <c r="D418" s="21"/>
       <c r="E418" s="21"/>
       <c r="F418" s="21"/>
-      <c r="G418" s="55"/>
+      <c r="G418" s="47"/>
       <c r="H418" s="21"/>
       <c r="I418" s="21"/>
       <c r="J418" s="21"/>
@@ -35637,7 +35515,7 @@
       <c r="D419" s="21"/>
       <c r="E419" s="21"/>
       <c r="F419" s="21"/>
-      <c r="G419" s="55"/>
+      <c r="G419" s="47"/>
       <c r="H419" s="21"/>
       <c r="I419" s="21"/>
       <c r="J419" s="21"/>
@@ -35652,7 +35530,7 @@
       <c r="D420" s="21"/>
       <c r="E420" s="21"/>
       <c r="F420" s="21"/>
-      <c r="G420" s="55"/>
+      <c r="G420" s="47"/>
       <c r="H420" s="21"/>
       <c r="I420" s="21"/>
       <c r="J420" s="21"/>
@@ -35667,7 +35545,7 @@
       <c r="D421" s="21"/>
       <c r="E421" s="21"/>
       <c r="F421" s="21"/>
-      <c r="G421" s="55"/>
+      <c r="G421" s="47"/>
       <c r="H421" s="21"/>
       <c r="I421" s="21"/>
       <c r="J421" s="21"/>
@@ -35682,7 +35560,7 @@
       <c r="D422" s="21"/>
       <c r="E422" s="21"/>
       <c r="F422" s="21"/>
-      <c r="G422" s="55"/>
+      <c r="G422" s="47"/>
       <c r="H422" s="21"/>
       <c r="I422" s="21"/>
       <c r="J422" s="21"/>
@@ -35697,7 +35575,7 @@
       <c r="D423" s="21"/>
       <c r="E423" s="21"/>
       <c r="F423" s="21"/>
-      <c r="G423" s="55"/>
+      <c r="G423" s="47"/>
       <c r="H423" s="21"/>
       <c r="I423" s="21"/>
       <c r="J423" s="21"/>
@@ -35712,7 +35590,7 @@
       <c r="D424" s="21"/>
       <c r="E424" s="21"/>
       <c r="F424" s="21"/>
-      <c r="G424" s="55"/>
+      <c r="G424" s="47"/>
       <c r="H424" s="21"/>
       <c r="I424" s="21"/>
       <c r="J424" s="21"/>
@@ -35727,7 +35605,7 @@
       <c r="D425" s="21"/>
       <c r="E425" s="21"/>
       <c r="F425" s="21"/>
-      <c r="G425" s="55"/>
+      <c r="G425" s="47"/>
       <c r="H425" s="21"/>
       <c r="I425" s="21"/>
       <c r="J425" s="21"/>
@@ -35742,7 +35620,7 @@
       <c r="D426" s="21"/>
       <c r="E426" s="21"/>
       <c r="F426" s="21"/>
-      <c r="G426" s="55"/>
+      <c r="G426" s="47"/>
       <c r="H426" s="21"/>
       <c r="I426" s="21"/>
       <c r="J426" s="21"/>
@@ -35757,7 +35635,7 @@
       <c r="D427" s="21"/>
       <c r="E427" s="21"/>
       <c r="F427" s="21"/>
-      <c r="G427" s="55"/>
+      <c r="G427" s="47"/>
       <c r="H427" s="21"/>
       <c r="I427" s="21"/>
       <c r="J427" s="21"/>
@@ -35772,7 +35650,7 @@
       <c r="D428" s="21"/>
       <c r="E428" s="21"/>
       <c r="F428" s="21"/>
-      <c r="G428" s="55"/>
+      <c r="G428" s="47"/>
       <c r="H428" s="21"/>
       <c r="I428" s="21"/>
       <c r="J428" s="21"/>
@@ -35787,7 +35665,7 @@
       <c r="D429" s="21"/>
       <c r="E429" s="21"/>
       <c r="F429" s="21"/>
-      <c r="G429" s="55"/>
+      <c r="G429" s="47"/>
       <c r="H429" s="21"/>
       <c r="I429" s="21"/>
       <c r="J429" s="21"/>
@@ -35802,7 +35680,7 @@
       <c r="D430" s="21"/>
       <c r="E430" s="21"/>
       <c r="F430" s="21"/>
-      <c r="G430" s="55"/>
+      <c r="G430" s="47"/>
       <c r="H430" s="21"/>
       <c r="I430" s="21"/>
       <c r="J430" s="21"/>
@@ -35817,7 +35695,7 @@
       <c r="D431" s="21"/>
       <c r="E431" s="21"/>
       <c r="F431" s="21"/>
-      <c r="G431" s="55"/>
+      <c r="G431" s="47"/>
       <c r="H431" s="21"/>
       <c r="I431" s="21"/>
       <c r="J431" s="21"/>
@@ -35832,7 +35710,7 @@
       <c r="D432" s="21"/>
       <c r="E432" s="21"/>
       <c r="F432" s="21"/>
-      <c r="G432" s="55"/>
+      <c r="G432" s="47"/>
       <c r="H432" s="21"/>
       <c r="I432" s="21"/>
       <c r="J432" s="21"/>
@@ -35847,7 +35725,7 @@
       <c r="D433" s="21"/>
       <c r="E433" s="21"/>
       <c r="F433" s="21"/>
-      <c r="G433" s="55"/>
+      <c r="G433" s="47"/>
       <c r="H433" s="21"/>
       <c r="I433" s="21"/>
       <c r="J433" s="21"/>
@@ -35862,7 +35740,7 @@
       <c r="D434" s="21"/>
       <c r="E434" s="21"/>
       <c r="F434" s="21"/>
-      <c r="G434" s="55"/>
+      <c r="G434" s="47"/>
       <c r="H434" s="21"/>
       <c r="I434" s="21"/>
       <c r="J434" s="21"/>
@@ -35877,7 +35755,7 @@
       <c r="D435" s="21"/>
       <c r="E435" s="21"/>
       <c r="F435" s="21"/>
-      <c r="G435" s="55"/>
+      <c r="G435" s="47"/>
       <c r="H435" s="21"/>
       <c r="I435" s="21"/>
       <c r="J435" s="21"/>
@@ -35892,7 +35770,7 @@
       <c r="D436" s="21"/>
       <c r="E436" s="21"/>
       <c r="F436" s="21"/>
-      <c r="G436" s="55"/>
+      <c r="G436" s="47"/>
       <c r="H436" s="21"/>
       <c r="I436" s="21"/>
       <c r="J436" s="21"/>
@@ -35907,7 +35785,7 @@
       <c r="D437" s="21"/>
       <c r="E437" s="21"/>
       <c r="F437" s="21"/>
-      <c r="G437" s="55"/>
+      <c r="G437" s="47"/>
       <c r="H437" s="21"/>
       <c r="I437" s="21"/>
       <c r="J437" s="21"/>
@@ -35922,7 +35800,7 @@
       <c r="D438" s="21"/>
       <c r="E438" s="21"/>
       <c r="F438" s="21"/>
-      <c r="G438" s="55"/>
+      <c r="G438" s="47"/>
       <c r="H438" s="21"/>
       <c r="I438" s="21"/>
       <c r="J438" s="21"/>
@@ -35937,7 +35815,7 @@
       <c r="D439" s="21"/>
       <c r="E439" s="21"/>
       <c r="F439" s="21"/>
-      <c r="G439" s="55"/>
+      <c r="G439" s="47"/>
       <c r="H439" s="21"/>
       <c r="I439" s="21"/>
       <c r="J439" s="21"/>
@@ -35952,7 +35830,7 @@
       <c r="D440" s="21"/>
       <c r="E440" s="21"/>
       <c r="F440" s="21"/>
-      <c r="G440" s="55"/>
+      <c r="G440" s="47"/>
       <c r="H440" s="21"/>
       <c r="I440" s="21"/>
       <c r="J440" s="21"/>
@@ -35967,7 +35845,7 @@
       <c r="D441" s="21"/>
       <c r="E441" s="21"/>
       <c r="F441" s="21"/>
-      <c r="G441" s="55"/>
+      <c r="G441" s="47"/>
       <c r="H441" s="21"/>
       <c r="I441" s="21"/>
       <c r="J441" s="21"/>
@@ -35982,7 +35860,7 @@
       <c r="D442" s="21"/>
       <c r="E442" s="21"/>
       <c r="F442" s="21"/>
-      <c r="G442" s="55"/>
+      <c r="G442" s="47"/>
       <c r="H442" s="21"/>
       <c r="I442" s="21"/>
       <c r="J442" s="21"/>
@@ -35997,7 +35875,7 @@
       <c r="D443" s="21"/>
       <c r="E443" s="21"/>
       <c r="F443" s="21"/>
-      <c r="G443" s="55"/>
+      <c r="G443" s="47"/>
       <c r="H443" s="21"/>
       <c r="I443" s="21"/>
       <c r="J443" s="21"/>
@@ -36012,7 +35890,7 @@
       <c r="D444" s="21"/>
       <c r="E444" s="21"/>
       <c r="F444" s="21"/>
-      <c r="G444" s="55"/>
+      <c r="G444" s="47"/>
       <c r="H444" s="21"/>
       <c r="I444" s="21"/>
       <c r="J444" s="21"/>
@@ -36027,7 +35905,7 @@
       <c r="D445" s="21"/>
       <c r="E445" s="21"/>
       <c r="F445" s="21"/>
-      <c r="G445" s="55"/>
+      <c r="G445" s="47"/>
       <c r="H445" s="21"/>
       <c r="I445" s="21"/>
       <c r="J445" s="21"/>
@@ -36042,7 +35920,7 @@
       <c r="D446" s="21"/>
       <c r="E446" s="21"/>
       <c r="F446" s="21"/>
-      <c r="G446" s="55"/>
+      <c r="G446" s="47"/>
       <c r="H446" s="21"/>
       <c r="I446" s="21"/>
       <c r="J446" s="21"/>
@@ -36057,7 +35935,7 @@
       <c r="D447" s="21"/>
       <c r="E447" s="21"/>
       <c r="F447" s="21"/>
-      <c r="G447" s="55"/>
+      <c r="G447" s="47"/>
       <c r="H447" s="21"/>
       <c r="I447" s="21"/>
       <c r="J447" s="21"/>
@@ -36072,7 +35950,7 @@
       <c r="D448" s="21"/>
       <c r="E448" s="21"/>
       <c r="F448" s="21"/>
-      <c r="G448" s="55"/>
+      <c r="G448" s="47"/>
       <c r="H448" s="21"/>
       <c r="I448" s="21"/>
       <c r="J448" s="21"/>
@@ -36087,7 +35965,7 @@
       <c r="D449" s="21"/>
       <c r="E449" s="21"/>
       <c r="F449" s="21"/>
-      <c r="G449" s="55"/>
+      <c r="G449" s="47"/>
       <c r="H449" s="21"/>
       <c r="I449" s="21"/>
       <c r="J449" s="21"/>
@@ -36098,27 +35976,27 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A121:M121"/>
+    <mergeCell ref="A122:M122"/>
+    <mergeCell ref="A115:M115"/>
+    <mergeCell ref="A98:M98"/>
+    <mergeCell ref="A101:M101"/>
+    <mergeCell ref="A83:M83"/>
+    <mergeCell ref="A82:M82"/>
+    <mergeCell ref="A100:M100"/>
+    <mergeCell ref="A70:M70"/>
+    <mergeCell ref="A57:M57"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A22:M22"/>
     <mergeCell ref="A56:M56"/>
     <mergeCell ref="A69:M69"/>
-    <mergeCell ref="A83:M83"/>
-    <mergeCell ref="A82:M82"/>
-    <mergeCell ref="A100:M100"/>
-    <mergeCell ref="A70:M70"/>
-    <mergeCell ref="A57:M57"/>
-    <mergeCell ref="A121:M121"/>
-    <mergeCell ref="A122:M122"/>
-    <mergeCell ref="A115:M115"/>
-    <mergeCell ref="A98:M98"/>
-    <mergeCell ref="A101:M101"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H64:H68 H48:H54 H109:H113 H91:H97 H77:H81 H99 H21 H116:H120 H7:H8 H61:H62 H74:H75 H87:H89 H105:H107 H126:H127 H10:H16 H129:H136 H23:H46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H64:H68 H48:H54 H109:H113 H91:H97 H77:H81 H99 H21 H116:H120 H7:H8 H61:H62 H74:H75 H87:H89 H105:H107 H126:H127 H10:H16 H23:H46 H129:H141">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I48:I54 I64:I68 I116 I91:I97 I77:I81 I99 I21 I119 I7:I8 I61:I62 I74:I75 I87:I89 I105:I107 I126:I127 I10:I16 I109:I113 I129:I140 I23:I46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I48:I54 I64:I68 I116 I91:I97 I77:I81 I99 I21 I119 I7:I8 I61:I62 I74:I75 I87:I89 I105:I107 I126:I127 I10:I16 I109:I113 I129:I141 I23:I46">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J64:J68 J10:J14 J77:J81 J38:J45 J99 J119 J91:J96 J116 J48:J52 J133:J134 J129:J131 J21 J7:J8 J61:J62 J74:J75 J87:J89 J105:J107 J126:J127 J16 J109:J113 J23:J36">

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -11,9 +11,9 @@
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$A$1:$M$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$A$1:$M$120</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$K$116</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$K$117</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="237">
   <si>
     <t>Payslip</t>
   </si>
@@ -786,6 +786,9 @@
   <si>
     <t>No return found for requested period</t>
   </si>
+  <si>
+    <t>Employee's Date of Birth is mandatory if the PPSN is not available</t>
+  </si>
 </sst>
 </file>
 
@@ -1004,7 +1007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1218,6 +1221,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -21918,7 +21924,7 @@
   <dimension ref="B8:M32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22196,7 +22202,7 @@
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
       <c r="C26" s="15">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>222</v>
@@ -22206,8 +22212,12 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="17"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="C27" s="15">
+        <v>134</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>183</v>
+      </c>
       <c r="K27" s="13"/>
       <c r="M27" s="12"/>
     </row>
@@ -22261,11 +22271,11 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BL449"/>
+  <dimension ref="A1:BL450"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -24015,15 +24025,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>32</v>
+    <row r="35" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="27">
+        <v>134</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>105</v>
+      <c r="C35" s="80" t="s">
+        <v>236</v>
       </c>
       <c r="D35" s="5">
         <v>12</v>
@@ -24034,20 +24044,20 @@
       <c r="F35" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="24" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="5">
-        <v>2018</v>
-      </c>
-      <c r="K35" s="31" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="J35" s="27">
+        <v>2048</v>
+      </c>
+      <c r="K35" s="80" t="s">
+        <v>236</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>0</v>
@@ -24056,18 +24066,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:64" s="37" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <v>33</v>
-      </c>
-      <c r="B36" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="24">
-        <v>16</v>
+      <c r="C36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="5">
+        <v>12</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>159</v>
@@ -24078,170 +24088,170 @@
       <c r="G36" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="5">
+        <v>2018</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:64" s="37" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>33</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="24">
+        <v>16</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J37" s="25">
         <v>2020</v>
       </c>
-      <c r="K36" s="33" t="s">
+      <c r="K37" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="L36" s="38" t="s">
+      <c r="L37" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="M36" s="38" t="s">
+      <c r="M37" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="36"/>
-      <c r="AI36" s="36"/>
-      <c r="AJ36" s="36"/>
-      <c r="AK36" s="36"/>
-      <c r="AL36" s="36"/>
-      <c r="AM36" s="36"/>
-      <c r="AN36" s="36"/>
-      <c r="AO36" s="36"/>
-      <c r="AP36" s="36"/>
-      <c r="AQ36" s="36"/>
-      <c r="AR36" s="36"/>
-      <c r="AS36" s="36"/>
-      <c r="AT36" s="36"/>
-      <c r="AU36" s="36"/>
-      <c r="AV36" s="36"/>
-      <c r="AW36" s="36"/>
-      <c r="AX36" s="36"/>
-      <c r="AY36" s="36"/>
-      <c r="AZ36" s="36"/>
-      <c r="BA36" s="36"/>
-      <c r="BB36" s="36"/>
-      <c r="BC36" s="36"/>
-      <c r="BD36" s="36"/>
-      <c r="BE36" s="36"/>
-      <c r="BF36" s="36"/>
-      <c r="BG36" s="36"/>
-      <c r="BH36" s="36"/>
-      <c r="BI36" s="36"/>
-      <c r="BJ36" s="36"/>
-      <c r="BK36" s="36"/>
-      <c r="BL36" s="36"/>
-    </row>
-    <row r="37" spans="1:64" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A37" s="62">
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="36"/>
+      <c r="AJ37" s="36"/>
+      <c r="AK37" s="36"/>
+      <c r="AL37" s="36"/>
+      <c r="AM37" s="36"/>
+      <c r="AN37" s="36"/>
+      <c r="AO37" s="36"/>
+      <c r="AP37" s="36"/>
+      <c r="AQ37" s="36"/>
+      <c r="AR37" s="36"/>
+      <c r="AS37" s="36"/>
+      <c r="AT37" s="36"/>
+      <c r="AU37" s="36"/>
+      <c r="AV37" s="36"/>
+      <c r="AW37" s="36"/>
+      <c r="AX37" s="36"/>
+      <c r="AY37" s="36"/>
+      <c r="AZ37" s="36"/>
+      <c r="BA37" s="36"/>
+      <c r="BB37" s="36"/>
+      <c r="BC37" s="36"/>
+      <c r="BD37" s="36"/>
+      <c r="BE37" s="36"/>
+      <c r="BF37" s="36"/>
+      <c r="BG37" s="36"/>
+      <c r="BH37" s="36"/>
+      <c r="BI37" s="36"/>
+      <c r="BJ37" s="36"/>
+      <c r="BK37" s="36"/>
+      <c r="BL37" s="36"/>
+    </row>
+    <row r="38" spans="1:64" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A38" s="62">
         <v>34</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B38" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C38" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="62">
+      <c r="D38" s="62">
         <v>16</v>
       </c>
-      <c r="E37" s="62" t="s">
+      <c r="E38" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="F37" s="62" t="s">
+      <c r="F38" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="G37" s="68" t="s">
+      <c r="G38" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="62" t="s">
+      <c r="H38" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="62" t="s">
+      <c r="I38" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="62">
+      <c r="J38" s="62">
         <v>1002</v>
       </c>
-      <c r="K37" s="63" t="s">
+      <c r="K38" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="L37" s="63" t="s">
+      <c r="L38" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="M37" s="63" t="s">
+      <c r="M38" s="63" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+    <row r="39" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
         <v>35</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B39" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C39" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D39" s="5">
         <v>16</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J38" s="5">
-        <v>2023</v>
-      </c>
-      <c r="K38" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L38" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M38" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:64" s="37" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
-        <v>36</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="39">
-        <v>53</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>159</v>
@@ -24252,88 +24262,37 @@
       <c r="G39" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="39" t="s">
+      <c r="H39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="39" t="s">
+      <c r="I39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="J39" s="5">
-        <v>2025</v>
-      </c>
-      <c r="K39" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="L39" s="38" t="s">
+        <v>2023</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L39" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="M39" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-      <c r="AC39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="36"/>
-      <c r="AI39" s="36"/>
-      <c r="AJ39" s="36"/>
-      <c r="AK39" s="36"/>
-      <c r="AL39" s="36"/>
-      <c r="AM39" s="36"/>
-      <c r="AN39" s="36"/>
-      <c r="AO39" s="36"/>
-      <c r="AP39" s="36"/>
-      <c r="AQ39" s="36"/>
-      <c r="AR39" s="36"/>
-      <c r="AS39" s="36"/>
-      <c r="AT39" s="36"/>
-      <c r="AU39" s="36"/>
-      <c r="AV39" s="36"/>
-      <c r="AW39" s="36"/>
-      <c r="AX39" s="36"/>
-      <c r="AY39" s="36"/>
-      <c r="AZ39" s="36"/>
-      <c r="BA39" s="36"/>
-      <c r="BB39" s="36"/>
-      <c r="BC39" s="36"/>
-      <c r="BD39" s="36"/>
-      <c r="BE39" s="36"/>
-      <c r="BF39" s="36"/>
-      <c r="BG39" s="36"/>
-      <c r="BH39" s="36"/>
-      <c r="BI39" s="36"/>
-      <c r="BJ39" s="36"/>
-      <c r="BK39" s="36"/>
-      <c r="BL39" s="36"/>
-    </row>
-    <row r="40" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M39" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:64" s="37" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
-        <v>37</v>
-      </c>
-      <c r="B40" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" s="4">
-        <v>21</v>
+      <c r="C40" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="39">
+        <v>53</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>159</v>
@@ -24344,88 +24303,88 @@
       <c r="G40" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="39" t="s">
         <v>35</v>
       </c>
       <c r="J40" s="5">
-        <v>2030</v>
-      </c>
-      <c r="K40" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="L40" s="31" t="s">
+        <v>2025</v>
+      </c>
+      <c r="K40" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L40" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="M40" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="22"/>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="22"/>
-      <c r="AF40" s="22"/>
-      <c r="AG40" s="22"/>
-      <c r="AH40" s="22"/>
-      <c r="AI40" s="22"/>
-      <c r="AJ40" s="22"/>
-      <c r="AK40" s="22"/>
-      <c r="AL40" s="22"/>
-      <c r="AM40" s="22"/>
-      <c r="AN40" s="22"/>
-      <c r="AO40" s="22"/>
-      <c r="AP40" s="22"/>
-      <c r="AQ40" s="22"/>
-      <c r="AR40" s="22"/>
-      <c r="AS40" s="22"/>
-      <c r="AT40" s="22"/>
-      <c r="AU40" s="22"/>
-      <c r="AV40" s="22"/>
-      <c r="AW40" s="22"/>
-      <c r="AX40" s="22"/>
-      <c r="AY40" s="22"/>
-      <c r="AZ40" s="22"/>
-      <c r="BA40" s="22"/>
-      <c r="BB40" s="22"/>
-      <c r="BC40" s="22"/>
-      <c r="BD40" s="22"/>
-      <c r="BE40" s="22"/>
-      <c r="BF40" s="22"/>
-      <c r="BG40" s="22"/>
-      <c r="BH40" s="22"/>
-      <c r="BI40" s="22"/>
-      <c r="BJ40" s="22"/>
-      <c r="BK40" s="22"/>
-      <c r="BL40" s="22"/>
-    </row>
-    <row r="41" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M40" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36"/>
+      <c r="AH40" s="36"/>
+      <c r="AI40" s="36"/>
+      <c r="AJ40" s="36"/>
+      <c r="AK40" s="36"/>
+      <c r="AL40" s="36"/>
+      <c r="AM40" s="36"/>
+      <c r="AN40" s="36"/>
+      <c r="AO40" s="36"/>
+      <c r="AP40" s="36"/>
+      <c r="AQ40" s="36"/>
+      <c r="AR40" s="36"/>
+      <c r="AS40" s="36"/>
+      <c r="AT40" s="36"/>
+      <c r="AU40" s="36"/>
+      <c r="AV40" s="36"/>
+      <c r="AW40" s="36"/>
+      <c r="AX40" s="36"/>
+      <c r="AY40" s="36"/>
+      <c r="AZ40" s="36"/>
+      <c r="BA40" s="36"/>
+      <c r="BB40" s="36"/>
+      <c r="BC40" s="36"/>
+      <c r="BD40" s="36"/>
+      <c r="BE40" s="36"/>
+      <c r="BF40" s="36"/>
+      <c r="BG40" s="36"/>
+      <c r="BH40" s="36"/>
+      <c r="BI40" s="36"/>
+      <c r="BJ40" s="36"/>
+      <c r="BK40" s="36"/>
+      <c r="BL40" s="36"/>
+    </row>
+    <row r="41" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>12</v>
+      <c r="C41" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="4">
+        <v>21</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>159</v>
@@ -24436,37 +24395,88 @@
       <c r="G41" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>11</v>
+      <c r="I41" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="J41" s="5">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="K41" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L41" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="L41" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="M41" s="32" t="s">
-        <v>59</v>
-      </c>
+      <c r="M41" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="22"/>
+      <c r="AH41" s="22"/>
+      <c r="AI41" s="22"/>
+      <c r="AJ41" s="22"/>
+      <c r="AK41" s="22"/>
+      <c r="AL41" s="22"/>
+      <c r="AM41" s="22"/>
+      <c r="AN41" s="22"/>
+      <c r="AO41" s="22"/>
+      <c r="AP41" s="22"/>
+      <c r="AQ41" s="22"/>
+      <c r="AR41" s="22"/>
+      <c r="AS41" s="22"/>
+      <c r="AT41" s="22"/>
+      <c r="AU41" s="22"/>
+      <c r="AV41" s="22"/>
+      <c r="AW41" s="22"/>
+      <c r="AX41" s="22"/>
+      <c r="AY41" s="22"/>
+      <c r="AZ41" s="22"/>
+      <c r="BA41" s="22"/>
+      <c r="BB41" s="22"/>
+      <c r="BC41" s="22"/>
+      <c r="BD41" s="22"/>
+      <c r="BE41" s="22"/>
+      <c r="BF41" s="22"/>
+      <c r="BG41" s="22"/>
+      <c r="BH41" s="22"/>
+      <c r="BI41" s="22"/>
+      <c r="BJ41" s="22"/>
+      <c r="BK41" s="22"/>
+      <c r="BL41" s="22"/>
     </row>
     <row r="42" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="5">
-        <v>20</v>
+      <c r="C42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>159</v>
@@ -24481,33 +24491,33 @@
         <v>7</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J42" s="5">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="K42" s="31" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="L42" s="32" t="s">
         <v>0</v>
       </c>
       <c r="M42" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>193</v>
+      <c r="C43" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="D43" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>159</v>
@@ -24525,30 +24535,30 @@
         <v>35</v>
       </c>
       <c r="J43" s="5">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="K43" s="31" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="L43" s="32" t="s">
         <v>0</v>
       </c>
       <c r="M43" s="32" t="s">
-        <v>195</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="D44" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>159</v>
@@ -24566,30 +24576,30 @@
         <v>35</v>
       </c>
       <c r="J44" s="5">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="K44" s="31" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="L44" s="32" t="s">
         <v>0</v>
       </c>
       <c r="M44" s="32" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="24">
-        <v>17</v>
+      <c r="C45" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="5">
+        <v>23</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>159</v>
@@ -24600,170 +24610,119 @@
       <c r="G45" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="I45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" s="5">
+        <v>2032</v>
+      </c>
+      <c r="K45" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="L45" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M45" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>42</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="24">
+        <v>17</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J46" s="5">
         <v>2019</v>
       </c>
-      <c r="K45" s="33" t="s">
+      <c r="K46" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="L45" s="33" t="s">
+      <c r="L46" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M45" s="33" t="s">
+      <c r="M46" s="33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:64" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A46" s="62">
+    <row r="47" spans="1:64" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A47" s="62">
         <v>43</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B47" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C47" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="62">
+      <c r="D47" s="62">
         <v>17</v>
       </c>
-      <c r="E46" s="62" t="s">
+      <c r="E47" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="F46" s="62" t="s">
+      <c r="F47" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="G46" s="68" t="s">
+      <c r="G47" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="62" t="s">
+      <c r="H47" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="62" t="s">
+      <c r="I47" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="62">
+      <c r="J47" s="62">
         <v>1002</v>
       </c>
-      <c r="K46" s="63" t="s">
+      <c r="K47" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="L46" s="63" t="s">
+      <c r="L47" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="M46" s="63" t="s">
+      <c r="M47" s="63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:64" s="37" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
+    <row r="48" spans="1:64" s="37" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
         <v>44</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B48" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C48" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="43">
+      <c r="D48" s="43">
         <v>30</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G47" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="J47" s="5">
-        <v>2043</v>
-      </c>
-      <c r="K47" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="L47" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="M47" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="36"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="36"/>
-      <c r="AF47" s="36"/>
-      <c r="AG47" s="36"/>
-      <c r="AH47" s="36"/>
-      <c r="AI47" s="36"/>
-      <c r="AJ47" s="36"/>
-      <c r="AK47" s="36"/>
-      <c r="AL47" s="36"/>
-      <c r="AM47" s="36"/>
-      <c r="AN47" s="36"/>
-      <c r="AO47" s="36"/>
-      <c r="AP47" s="36"/>
-      <c r="AQ47" s="36"/>
-      <c r="AR47" s="36"/>
-      <c r="AS47" s="36"/>
-      <c r="AT47" s="36"/>
-      <c r="AU47" s="36"/>
-      <c r="AV47" s="36"/>
-      <c r="AW47" s="36"/>
-      <c r="AX47" s="36"/>
-      <c r="AY47" s="36"/>
-      <c r="AZ47" s="36"/>
-      <c r="BA47" s="36"/>
-      <c r="BB47" s="36"/>
-      <c r="BC47" s="36"/>
-      <c r="BD47" s="36"/>
-      <c r="BE47" s="36"/>
-      <c r="BF47" s="36"/>
-      <c r="BG47" s="36"/>
-      <c r="BH47" s="36"/>
-      <c r="BI47" s="36"/>
-      <c r="BJ47" s="36"/>
-      <c r="BK47" s="36"/>
-      <c r="BL47" s="36"/>
-    </row>
-    <row r="48" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>45</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" s="5">
-        <v>31</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>159</v>
@@ -24774,34 +24733,85 @@
       <c r="G48" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="J48" s="8">
-        <v>2033</v>
-      </c>
-      <c r="K48" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="L48" s="32" t="s">
+      <c r="J48" s="5">
+        <v>2043</v>
+      </c>
+      <c r="K48" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="L48" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="M48" s="32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M48" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="36"/>
+      <c r="AA48" s="36"/>
+      <c r="AB48" s="36"/>
+      <c r="AC48" s="36"/>
+      <c r="AD48" s="36"/>
+      <c r="AE48" s="36"/>
+      <c r="AF48" s="36"/>
+      <c r="AG48" s="36"/>
+      <c r="AH48" s="36"/>
+      <c r="AI48" s="36"/>
+      <c r="AJ48" s="36"/>
+      <c r="AK48" s="36"/>
+      <c r="AL48" s="36"/>
+      <c r="AM48" s="36"/>
+      <c r="AN48" s="36"/>
+      <c r="AO48" s="36"/>
+      <c r="AP48" s="36"/>
+      <c r="AQ48" s="36"/>
+      <c r="AR48" s="36"/>
+      <c r="AS48" s="36"/>
+      <c r="AT48" s="36"/>
+      <c r="AU48" s="36"/>
+      <c r="AV48" s="36"/>
+      <c r="AW48" s="36"/>
+      <c r="AX48" s="36"/>
+      <c r="AY48" s="36"/>
+      <c r="AZ48" s="36"/>
+      <c r="BA48" s="36"/>
+      <c r="BB48" s="36"/>
+      <c r="BC48" s="36"/>
+      <c r="BD48" s="36"/>
+      <c r="BE48" s="36"/>
+      <c r="BF48" s="36"/>
+      <c r="BG48" s="36"/>
+      <c r="BH48" s="36"/>
+      <c r="BI48" s="36"/>
+      <c r="BJ48" s="36"/>
+      <c r="BK48" s="36"/>
+      <c r="BL48" s="36"/>
+    </row>
+    <row r="49" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="D49" s="5">
         <v>31</v>
@@ -24819,33 +24829,33 @@
         <v>7</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J49" s="8">
-        <v>2037</v>
-      </c>
-      <c r="K49" s="31" t="s">
-        <v>22</v>
+        <v>2033</v>
+      </c>
+      <c r="K49" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="L49" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="M49" s="38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M49" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="D50" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>159</v>
@@ -24863,30 +24873,30 @@
         <v>11</v>
       </c>
       <c r="J50" s="8">
-        <v>2036</v>
-      </c>
-      <c r="K50" s="33" t="s">
-        <v>182</v>
+        <v>2037</v>
+      </c>
+      <c r="K50" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="L50" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="M50" s="32" t="s">
-        <v>64</v>
+      <c r="M50" s="38" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>121</v>
+      <c r="C51" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="D51" s="5">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>159</v>
@@ -24901,33 +24911,33 @@
         <v>7</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J51" s="8">
-        <v>2038</v>
-      </c>
-      <c r="K51" s="31" t="s">
-        <v>120</v>
+        <v>2036</v>
+      </c>
+      <c r="K51" s="33" t="s">
+        <v>182</v>
       </c>
       <c r="L51" s="32" t="s">
         <v>0</v>
       </c>
       <c r="M51" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>115</v>
+      <c r="C52" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="D52" s="5">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E52" s="24" t="s">
         <v>159</v>
@@ -24942,33 +24952,33 @@
         <v>7</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J52" s="8">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="K52" s="31" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L52" s="32" t="s">
         <v>0</v>
       </c>
       <c r="M52" s="32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>50</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>49</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="4">
-        <v>19</v>
+        <v>115</v>
+      </c>
+      <c r="D53" s="5">
+        <v>39</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>159</v>
@@ -24979,88 +24989,37 @@
       <c r="G53" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J53" s="10">
-        <v>2044</v>
+      <c r="H53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="8">
+        <v>2039</v>
       </c>
       <c r="K53" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="L53" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="L53" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="M53" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="22"/>
-      <c r="AA53" s="22"/>
-      <c r="AB53" s="22"/>
-      <c r="AC53" s="22"/>
-      <c r="AD53" s="22"/>
-      <c r="AE53" s="22"/>
-      <c r="AF53" s="22"/>
-      <c r="AG53" s="22"/>
-      <c r="AH53" s="22"/>
-      <c r="AI53" s="22"/>
-      <c r="AJ53" s="22"/>
-      <c r="AK53" s="22"/>
-      <c r="AL53" s="22"/>
-      <c r="AM53" s="22"/>
-      <c r="AN53" s="22"/>
-      <c r="AO53" s="22"/>
-      <c r="AP53" s="22"/>
-      <c r="AQ53" s="22"/>
-      <c r="AR53" s="22"/>
-      <c r="AS53" s="22"/>
-      <c r="AT53" s="22"/>
-      <c r="AU53" s="22"/>
-      <c r="AV53" s="22"/>
-      <c r="AW53" s="22"/>
-      <c r="AX53" s="22"/>
-      <c r="AY53" s="22"/>
-      <c r="AZ53" s="22"/>
-      <c r="BA53" s="22"/>
-      <c r="BB53" s="22"/>
-      <c r="BC53" s="22"/>
-      <c r="BD53" s="22"/>
-      <c r="BE53" s="22"/>
-      <c r="BF53" s="22"/>
-      <c r="BG53" s="22"/>
-      <c r="BH53" s="22"/>
-      <c r="BI53" s="22"/>
-      <c r="BJ53" s="22"/>
-      <c r="BK53" s="22"/>
-      <c r="BL53" s="22"/>
-    </row>
-    <row r="54" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M53" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="4">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>159</v>
@@ -25078,16 +25037,16 @@
         <v>38</v>
       </c>
       <c r="J54" s="10">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="K54" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L54" s="31" t="s">
         <v>0</v>
       </c>
       <c r="M54" s="31" t="s">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -25143,43 +25102,43 @@
     </row>
     <row r="55" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>122</v>
-      </c>
-      <c r="B55" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="D55" s="54" t="s">
+      <c r="C55" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="4">
+        <v>8</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="F55" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="G55" s="55">
-        <v>400</v>
-      </c>
-      <c r="H55" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="J55" s="54">
-        <v>2047</v>
-      </c>
-      <c r="K55" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="L55" s="53" t="s">
+      <c r="H55" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J55" s="10">
+        <v>2045</v>
+      </c>
+      <c r="K55" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="L55" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="M55" s="69" t="s">
-        <v>0</v>
+      <c r="M55" s="31" t="s">
+        <v>1</v>
       </c>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -25233,90 +25192,114 @@
       <c r="BK55" s="22"/>
       <c r="BL55" s="22"/>
     </row>
-    <row r="56" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="78" t="s">
+    <row r="56" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>122</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" s="55">
+        <v>400</v>
+      </c>
+      <c r="H56" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="J56" s="54">
+        <v>2047</v>
+      </c>
+      <c r="K56" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="L56" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="M56" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="22"/>
+      <c r="AH56" s="22"/>
+      <c r="AI56" s="22"/>
+      <c r="AJ56" s="22"/>
+      <c r="AK56" s="22"/>
+      <c r="AL56" s="22"/>
+      <c r="AM56" s="22"/>
+      <c r="AN56" s="22"/>
+      <c r="AO56" s="22"/>
+      <c r="AP56" s="22"/>
+      <c r="AQ56" s="22"/>
+      <c r="AR56" s="22"/>
+      <c r="AS56" s="22"/>
+      <c r="AT56" s="22"/>
+      <c r="AU56" s="22"/>
+      <c r="AV56" s="22"/>
+      <c r="AW56" s="22"/>
+      <c r="AX56" s="22"/>
+      <c r="AY56" s="22"/>
+      <c r="AZ56" s="22"/>
+      <c r="BA56" s="22"/>
+      <c r="BB56" s="22"/>
+      <c r="BC56" s="22"/>
+      <c r="BD56" s="22"/>
+      <c r="BE56" s="22"/>
+      <c r="BF56" s="22"/>
+      <c r="BG56" s="22"/>
+      <c r="BH56" s="22"/>
+      <c r="BI56" s="22"/>
+      <c r="BJ56" s="22"/>
+      <c r="BK56" s="22"/>
+      <c r="BL56" s="22"/>
+    </row>
+    <row r="57" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="78"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="21"/>
-      <c r="AB56" s="21"/>
-      <c r="AC56" s="21"/>
-      <c r="AD56" s="21"/>
-      <c r="AE56" s="21"/>
-      <c r="AF56" s="21"/>
-      <c r="AG56" s="21"/>
-      <c r="AH56" s="21"/>
-      <c r="AI56" s="21"/>
-      <c r="AJ56" s="21"/>
-      <c r="AK56" s="21"/>
-      <c r="AL56" s="21"/>
-      <c r="AM56" s="21"/>
-      <c r="AN56" s="21"/>
-      <c r="AO56" s="21"/>
-      <c r="AP56" s="21"/>
-      <c r="AQ56" s="21"/>
-      <c r="AR56" s="21"/>
-      <c r="AS56" s="21"/>
-      <c r="AT56" s="21"/>
-      <c r="AU56" s="21"/>
-      <c r="AV56" s="21"/>
-      <c r="AW56" s="21"/>
-      <c r="AX56" s="21"/>
-      <c r="AY56" s="21"/>
-      <c r="AZ56" s="21"/>
-      <c r="BA56" s="21"/>
-      <c r="BB56" s="21"/>
-      <c r="BC56" s="21"/>
-      <c r="BD56" s="21"/>
-      <c r="BE56" s="21"/>
-      <c r="BF56" s="21"/>
-      <c r="BG56" s="21"/>
-      <c r="BH56" s="21"/>
-      <c r="BI56" s="21"/>
-      <c r="BJ56" s="21"/>
-      <c r="BK56" s="21"/>
-      <c r="BL56" s="21"/>
-    </row>
-    <row r="57" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="79"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="78"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="78"/>
       <c r="N57" s="21"/>
       <c r="O57" s="21"/>
       <c r="P57" s="21"/>
@@ -25369,46 +25352,22 @@
       <c r="BK57" s="21"/>
       <c r="BL57" s="21"/>
     </row>
-    <row r="58" spans="1:64" s="51" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>52</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G58" s="24">
-        <v>401</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J58" s="4">
-        <v>1012</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="L58" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M58" s="50" t="s">
-        <v>12</v>
-      </c>
+    <row r="58" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="79"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="79"/>
       <c r="N58" s="21"/>
       <c r="O58" s="21"/>
       <c r="P58" s="21"/>
@@ -25461,15 +25420,15 @@
       <c r="BK58" s="21"/>
       <c r="BL58" s="21"/>
     </row>
-    <row r="59" spans="1:64" s="51" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:64" s="51" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="23" t="s">
-        <v>167</v>
+      <c r="C59" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>12</v>
@@ -25490,15 +25449,15 @@
         <v>38</v>
       </c>
       <c r="J59" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L59" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M59" s="48" t="s">
+      <c r="M59" s="50" t="s">
         <v>12</v>
       </c>
       <c r="N59" s="21"/>
@@ -25555,13 +25514,13 @@
     </row>
     <row r="60" spans="1:64" s="51" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="31" t="s">
         <v>112</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>12</v>
@@ -25582,15 +25541,15 @@
         <v>38</v>
       </c>
       <c r="J60" s="4">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K60" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L60" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M60" s="31" t="s">
+      <c r="M60" s="48" t="s">
         <v>12</v>
       </c>
       <c r="N60" s="21"/>
@@ -25645,15 +25604,15 @@
       <c r="BK60" s="21"/>
       <c r="BL60" s="21"/>
     </row>
-    <row r="61" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:64" s="51" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" s="31" t="s">
         <v>112</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>12</v>
@@ -25665,87 +25624,87 @@
         <v>159</v>
       </c>
       <c r="G61" s="24">
-        <v>400</v>
-      </c>
-      <c r="H61" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I61" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J61" s="24">
-        <v>1003</v>
-      </c>
-      <c r="K61" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L61" s="31" t="s">
-        <v>68</v>
+      <c r="I61" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" s="4">
+        <v>1014</v>
+      </c>
+      <c r="K61" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="L61" s="33" t="s">
+        <v>12</v>
       </c>
       <c r="M61" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="22"/>
-      <c r="T61" s="22"/>
-      <c r="U61" s="22"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="22"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="22"/>
-      <c r="AE61" s="22"/>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="22"/>
-      <c r="AH61" s="22"/>
-      <c r="AI61" s="22"/>
-      <c r="AJ61" s="22"/>
-      <c r="AK61" s="22"/>
-      <c r="AL61" s="22"/>
-      <c r="AM61" s="22"/>
-      <c r="AN61" s="22"/>
-      <c r="AO61" s="22"/>
-      <c r="AP61" s="22"/>
-      <c r="AQ61" s="22"/>
-      <c r="AR61" s="22"/>
-      <c r="AS61" s="22"/>
-      <c r="AT61" s="22"/>
-      <c r="AU61" s="22"/>
-      <c r="AV61" s="22"/>
-      <c r="AW61" s="22"/>
-      <c r="AX61" s="22"/>
-      <c r="AY61" s="22"/>
-      <c r="AZ61" s="22"/>
-      <c r="BA61" s="22"/>
-      <c r="BB61" s="22"/>
-      <c r="BC61" s="22"/>
-      <c r="BD61" s="22"/>
-      <c r="BE61" s="22"/>
-      <c r="BF61" s="22"/>
-      <c r="BG61" s="22"/>
-      <c r="BH61" s="22"/>
-      <c r="BI61" s="22"/>
-      <c r="BJ61" s="22"/>
-      <c r="BK61" s="22"/>
-      <c r="BL61" s="22"/>
-    </row>
-    <row r="62" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
+      <c r="AB61" s="21"/>
+      <c r="AC61" s="21"/>
+      <c r="AD61" s="21"/>
+      <c r="AE61" s="21"/>
+      <c r="AF61" s="21"/>
+      <c r="AG61" s="21"/>
+      <c r="AH61" s="21"/>
+      <c r="AI61" s="21"/>
+      <c r="AJ61" s="21"/>
+      <c r="AK61" s="21"/>
+      <c r="AL61" s="21"/>
+      <c r="AM61" s="21"/>
+      <c r="AN61" s="21"/>
+      <c r="AO61" s="21"/>
+      <c r="AP61" s="21"/>
+      <c r="AQ61" s="21"/>
+      <c r="AR61" s="21"/>
+      <c r="AS61" s="21"/>
+      <c r="AT61" s="21"/>
+      <c r="AU61" s="21"/>
+      <c r="AV61" s="21"/>
+      <c r="AW61" s="21"/>
+      <c r="AX61" s="21"/>
+      <c r="AY61" s="21"/>
+      <c r="AZ61" s="21"/>
+      <c r="BA61" s="21"/>
+      <c r="BB61" s="21"/>
+      <c r="BC61" s="21"/>
+      <c r="BD61" s="21"/>
+      <c r="BE61" s="21"/>
+      <c r="BF61" s="21"/>
+      <c r="BG61" s="21"/>
+      <c r="BH61" s="21"/>
+      <c r="BI61" s="21"/>
+      <c r="BJ61" s="21"/>
+      <c r="BK61" s="21"/>
+      <c r="BL61" s="21"/>
+    </row>
+    <row r="62" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="31" t="s">
         <v>112</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>12</v>
@@ -25763,13 +25722,13 @@
         <v>7</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="J62" s="25">
-        <v>1004</v>
+        <v>35</v>
+      </c>
+      <c r="J62" s="24">
+        <v>1003</v>
       </c>
       <c r="K62" s="33" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L62" s="31" t="s">
         <v>68</v>
@@ -25829,148 +25788,148 @@
       <c r="BK62" s="22"/>
       <c r="BL62" s="22"/>
     </row>
-    <row r="63" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B63" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C63" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="D63" s="54" t="s">
+      <c r="C63" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="54" t="s">
+      <c r="E63" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F63" s="54" t="s">
+      <c r="F63" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G63" s="55">
+      <c r="G63" s="24">
         <v>400</v>
       </c>
-      <c r="H63" s="54" t="s">
+      <c r="H63" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I63" s="55" t="s">
+      <c r="I63" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J63" s="54">
-        <v>1015</v>
-      </c>
-      <c r="K63" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="L63" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="M63" s="69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="J63" s="25">
+        <v>1004</v>
+      </c>
+      <c r="K63" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="M63" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="22"/>
+      <c r="S63" s="22"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="22"/>
+      <c r="AD63" s="22"/>
+      <c r="AE63" s="22"/>
+      <c r="AF63" s="22"/>
+      <c r="AG63" s="22"/>
+      <c r="AH63" s="22"/>
+      <c r="AI63" s="22"/>
+      <c r="AJ63" s="22"/>
+      <c r="AK63" s="22"/>
+      <c r="AL63" s="22"/>
+      <c r="AM63" s="22"/>
+      <c r="AN63" s="22"/>
+      <c r="AO63" s="22"/>
+      <c r="AP63" s="22"/>
+      <c r="AQ63" s="22"/>
+      <c r="AR63" s="22"/>
+      <c r="AS63" s="22"/>
+      <c r="AT63" s="22"/>
+      <c r="AU63" s="22"/>
+      <c r="AV63" s="22"/>
+      <c r="AW63" s="22"/>
+      <c r="AX63" s="22"/>
+      <c r="AY63" s="22"/>
+      <c r="AZ63" s="22"/>
+      <c r="BA63" s="22"/>
+      <c r="BB63" s="22"/>
+      <c r="BC63" s="22"/>
+      <c r="BD63" s="22"/>
+      <c r="BE63" s="22"/>
+      <c r="BF63" s="22"/>
+      <c r="BG63" s="22"/>
+      <c r="BH63" s="22"/>
+      <c r="BI63" s="22"/>
+      <c r="BJ63" s="22"/>
+      <c r="BK63" s="22"/>
+      <c r="BL63" s="22"/>
+    </row>
+    <row r="64" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B64" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="C64" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="G64" s="24">
-        <v>403</v>
-      </c>
-      <c r="H64" s="24" t="s">
+      <c r="G64" s="55">
+        <v>400</v>
+      </c>
+      <c r="H64" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I64" s="24" t="s">
+      <c r="I64" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="J64" s="25">
-        <v>1006</v>
-      </c>
-      <c r="K64" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L64" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="M64" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
-      <c r="Z64" s="22"/>
-      <c r="AA64" s="22"/>
-      <c r="AB64" s="22"/>
-      <c r="AC64" s="22"/>
-      <c r="AD64" s="22"/>
-      <c r="AE64" s="22"/>
-      <c r="AF64" s="22"/>
-      <c r="AG64" s="22"/>
-      <c r="AH64" s="22"/>
-      <c r="AI64" s="22"/>
-      <c r="AJ64" s="22"/>
-      <c r="AK64" s="22"/>
-      <c r="AL64" s="22"/>
-      <c r="AM64" s="22"/>
-      <c r="AN64" s="22"/>
-      <c r="AO64" s="22"/>
-      <c r="AP64" s="22"/>
-      <c r="AQ64" s="22"/>
-      <c r="AR64" s="22"/>
-      <c r="AS64" s="22"/>
-      <c r="AT64" s="22"/>
-      <c r="AU64" s="22"/>
-      <c r="AV64" s="22"/>
-      <c r="AW64" s="22"/>
-      <c r="AX64" s="22"/>
-      <c r="AY64" s="22"/>
-      <c r="AZ64" s="22"/>
-      <c r="BA64" s="22"/>
-      <c r="BB64" s="22"/>
-      <c r="BC64" s="22"/>
-      <c r="BD64" s="22"/>
-      <c r="BE64" s="22"/>
-      <c r="BF64" s="22"/>
-      <c r="BG64" s="22"/>
-      <c r="BH64" s="22"/>
-      <c r="BI64" s="22"/>
-      <c r="BJ64" s="22"/>
-      <c r="BK64" s="22"/>
-      <c r="BL64" s="22"/>
+      <c r="J64" s="54">
+        <v>1015</v>
+      </c>
+      <c r="K64" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="L64" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="M64" s="69" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="65" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" s="31" t="s">
         <v>112</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>12</v>
@@ -25988,13 +25947,13 @@
         <v>7</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J65" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K65" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L65" s="31" t="s">
         <v>68</v>
@@ -26056,13 +26015,13 @@
     </row>
     <row r="66" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" s="31" t="s">
         <v>112</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>12</v>
@@ -26083,10 +26042,10 @@
         <v>35</v>
       </c>
       <c r="J66" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K66" s="33" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="L66" s="31" t="s">
         <v>68</v>
@@ -26148,15 +26107,15 @@
     </row>
     <row r="67" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" s="31" t="s">
         <v>112</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="4" t="s">
@@ -26172,19 +26131,19 @@
         <v>7</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J67" s="24">
-        <v>1011</v>
+        <v>35</v>
+      </c>
+      <c r="J67" s="25">
+        <v>1008</v>
       </c>
       <c r="K67" s="33" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="L67" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="M67" s="33" t="s">
-        <v>50</v>
+      <c r="M67" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="N67" s="22"/>
       <c r="O67" s="22"/>
@@ -26240,15 +26199,15 @@
     </row>
     <row r="68" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68" s="31" t="s">
         <v>112</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -26258,25 +26217,25 @@
         <v>159</v>
       </c>
       <c r="G68" s="24">
-        <v>404</v>
-      </c>
-      <c r="H68" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="H68" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="I68" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J68" s="4">
-        <v>2501</v>
-      </c>
-      <c r="K68" s="31" t="s">
-        <v>47</v>
+      <c r="J68" s="24">
+        <v>1011</v>
+      </c>
+      <c r="K68" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="L68" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="M68" s="31" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="M68" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="N68" s="22"/>
       <c r="O68" s="22"/>
@@ -26330,90 +26289,114 @@
       <c r="BK68" s="22"/>
       <c r="BL68" s="22"/>
     </row>
-    <row r="69" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="78" t="s">
+    <row r="69" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>61</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G69" s="24">
+        <v>404</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J69" s="4">
+        <v>2501</v>
+      </c>
+      <c r="K69" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="L69" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="M69" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="22"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="22"/>
+      <c r="AD69" s="22"/>
+      <c r="AE69" s="22"/>
+      <c r="AF69" s="22"/>
+      <c r="AG69" s="22"/>
+      <c r="AH69" s="22"/>
+      <c r="AI69" s="22"/>
+      <c r="AJ69" s="22"/>
+      <c r="AK69" s="22"/>
+      <c r="AL69" s="22"/>
+      <c r="AM69" s="22"/>
+      <c r="AN69" s="22"/>
+      <c r="AO69" s="22"/>
+      <c r="AP69" s="22"/>
+      <c r="AQ69" s="22"/>
+      <c r="AR69" s="22"/>
+      <c r="AS69" s="22"/>
+      <c r="AT69" s="22"/>
+      <c r="AU69" s="22"/>
+      <c r="AV69" s="22"/>
+      <c r="AW69" s="22"/>
+      <c r="AX69" s="22"/>
+      <c r="AY69" s="22"/>
+      <c r="AZ69" s="22"/>
+      <c r="BA69" s="22"/>
+      <c r="BB69" s="22"/>
+      <c r="BC69" s="22"/>
+      <c r="BD69" s="22"/>
+      <c r="BE69" s="22"/>
+      <c r="BF69" s="22"/>
+      <c r="BG69" s="22"/>
+      <c r="BH69" s="22"/>
+      <c r="BI69" s="22"/>
+      <c r="BJ69" s="22"/>
+      <c r="BK69" s="22"/>
+      <c r="BL69" s="22"/>
+    </row>
+    <row r="70" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="78"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="78"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="78"/>
-      <c r="H69" s="78"/>
-      <c r="I69" s="78"/>
-      <c r="J69" s="78"/>
-      <c r="K69" s="78"/>
-      <c r="L69" s="78"/>
-      <c r="M69" s="78"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="21"/>
-      <c r="X69" s="21"/>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="21"/>
-      <c r="AB69" s="21"/>
-      <c r="AC69" s="21"/>
-      <c r="AD69" s="21"/>
-      <c r="AE69" s="21"/>
-      <c r="AF69" s="21"/>
-      <c r="AG69" s="21"/>
-      <c r="AH69" s="21"/>
-      <c r="AI69" s="21"/>
-      <c r="AJ69" s="21"/>
-      <c r="AK69" s="21"/>
-      <c r="AL69" s="21"/>
-      <c r="AM69" s="21"/>
-      <c r="AN69" s="21"/>
-      <c r="AO69" s="21"/>
-      <c r="AP69" s="21"/>
-      <c r="AQ69" s="21"/>
-      <c r="AR69" s="21"/>
-      <c r="AS69" s="21"/>
-      <c r="AT69" s="21"/>
-      <c r="AU69" s="21"/>
-      <c r="AV69" s="21"/>
-      <c r="AW69" s="21"/>
-      <c r="AX69" s="21"/>
-      <c r="AY69" s="21"/>
-      <c r="AZ69" s="21"/>
-      <c r="BA69" s="21"/>
-      <c r="BB69" s="21"/>
-      <c r="BC69" s="21"/>
-      <c r="BD69" s="21"/>
-      <c r="BE69" s="21"/>
-      <c r="BF69" s="21"/>
-      <c r="BG69" s="21"/>
-      <c r="BH69" s="21"/>
-      <c r="BI69" s="21"/>
-      <c r="BJ69" s="21"/>
-      <c r="BK69" s="21"/>
-      <c r="BL69" s="21"/>
-    </row>
-    <row r="70" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="B70" s="79"/>
-      <c r="C70" s="79"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="79"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="78"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="78"/>
+      <c r="H70" s="78"/>
+      <c r="I70" s="78"/>
+      <c r="J70" s="78"/>
+      <c r="K70" s="78"/>
+      <c r="L70" s="78"/>
+      <c r="M70" s="78"/>
       <c r="N70" s="21"/>
       <c r="O70" s="21"/>
       <c r="P70" s="21"/>
@@ -26466,46 +26449,22 @@
       <c r="BK70" s="21"/>
       <c r="BL70" s="21"/>
     </row>
-    <row r="71" spans="1:64" s="51" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
-        <v>62</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G71" s="24">
-        <v>401</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J71" s="4">
-        <v>1012</v>
-      </c>
-      <c r="K71" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="L71" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M71" s="50" t="s">
-        <v>12</v>
-      </c>
+    <row r="71" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="79"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
+      <c r="M71" s="79"/>
       <c r="N71" s="21"/>
       <c r="O71" s="21"/>
       <c r="P71" s="21"/>
@@ -26558,15 +26517,15 @@
       <c r="BK71" s="21"/>
       <c r="BL71" s="21"/>
     </row>
-    <row r="72" spans="1:64" s="51" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:64" s="51" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B72" s="31" t="s">
         <v>113</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>12</v>
@@ -26587,15 +26546,15 @@
         <v>38</v>
       </c>
       <c r="J72" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K72" s="23" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L72" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M72" s="48" t="s">
+      <c r="M72" s="50" t="s">
         <v>12</v>
       </c>
       <c r="N72" s="21"/>
@@ -26652,13 +26611,13 @@
     </row>
     <row r="73" spans="1:64" s="51" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B73" s="31" t="s">
         <v>113</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>12</v>
@@ -26679,15 +26638,15 @@
         <v>38</v>
       </c>
       <c r="J73" s="4">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K73" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L73" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M73" s="31" t="s">
+      <c r="M73" s="48" t="s">
         <v>12</v>
       </c>
       <c r="N73" s="21"/>
@@ -26742,15 +26701,15 @@
       <c r="BK73" s="21"/>
       <c r="BL73" s="21"/>
     </row>
-    <row r="74" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:64" s="51" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B74" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C74" s="26" t="s">
-        <v>96</v>
+      <c r="C74" s="23" t="s">
+        <v>168</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>12</v>
@@ -26762,87 +26721,87 @@
         <v>159</v>
       </c>
       <c r="G74" s="24">
-        <v>400</v>
-      </c>
-      <c r="H74" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I74" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J74" s="25">
-        <v>1003</v>
-      </c>
-      <c r="K74" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="L74" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="22"/>
-      <c r="T74" s="22"/>
-      <c r="U74" s="22"/>
-      <c r="V74" s="22"/>
-      <c r="W74" s="22"/>
-      <c r="X74" s="22"/>
-      <c r="Y74" s="22"/>
-      <c r="Z74" s="22"/>
-      <c r="AA74" s="22"/>
-      <c r="AB74" s="22"/>
-      <c r="AC74" s="22"/>
-      <c r="AD74" s="22"/>
-      <c r="AE74" s="22"/>
-      <c r="AF74" s="22"/>
-      <c r="AG74" s="22"/>
-      <c r="AH74" s="22"/>
-      <c r="AI74" s="22"/>
-      <c r="AJ74" s="22"/>
-      <c r="AK74" s="22"/>
-      <c r="AL74" s="22"/>
-      <c r="AM74" s="22"/>
-      <c r="AN74" s="22"/>
-      <c r="AO74" s="22"/>
-      <c r="AP74" s="22"/>
-      <c r="AQ74" s="22"/>
-      <c r="AR74" s="22"/>
-      <c r="AS74" s="22"/>
-      <c r="AT74" s="22"/>
-      <c r="AU74" s="22"/>
-      <c r="AV74" s="22"/>
-      <c r="AW74" s="22"/>
-      <c r="AX74" s="22"/>
-      <c r="AY74" s="22"/>
-      <c r="AZ74" s="22"/>
-      <c r="BA74" s="22"/>
-      <c r="BB74" s="22"/>
-      <c r="BC74" s="22"/>
-      <c r="BD74" s="22"/>
-      <c r="BE74" s="22"/>
-      <c r="BF74" s="22"/>
-      <c r="BG74" s="22"/>
-      <c r="BH74" s="22"/>
-      <c r="BI74" s="22"/>
-      <c r="BJ74" s="22"/>
-      <c r="BK74" s="22"/>
-      <c r="BL74" s="22"/>
-    </row>
-    <row r="75" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="I74" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J74" s="4">
+        <v>1014</v>
+      </c>
+      <c r="K74" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="L74" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="21"/>
+      <c r="X74" s="21"/>
+      <c r="Y74" s="21"/>
+      <c r="Z74" s="21"/>
+      <c r="AA74" s="21"/>
+      <c r="AB74" s="21"/>
+      <c r="AC74" s="21"/>
+      <c r="AD74" s="21"/>
+      <c r="AE74" s="21"/>
+      <c r="AF74" s="21"/>
+      <c r="AG74" s="21"/>
+      <c r="AH74" s="21"/>
+      <c r="AI74" s="21"/>
+      <c r="AJ74" s="21"/>
+      <c r="AK74" s="21"/>
+      <c r="AL74" s="21"/>
+      <c r="AM74" s="21"/>
+      <c r="AN74" s="21"/>
+      <c r="AO74" s="21"/>
+      <c r="AP74" s="21"/>
+      <c r="AQ74" s="21"/>
+      <c r="AR74" s="21"/>
+      <c r="AS74" s="21"/>
+      <c r="AT74" s="21"/>
+      <c r="AU74" s="21"/>
+      <c r="AV74" s="21"/>
+      <c r="AW74" s="21"/>
+      <c r="AX74" s="21"/>
+      <c r="AY74" s="21"/>
+      <c r="AZ74" s="21"/>
+      <c r="BA74" s="21"/>
+      <c r="BB74" s="21"/>
+      <c r="BC74" s="21"/>
+      <c r="BD74" s="21"/>
+      <c r="BE74" s="21"/>
+      <c r="BF74" s="21"/>
+      <c r="BG74" s="21"/>
+      <c r="BH74" s="21"/>
+      <c r="BI74" s="21"/>
+      <c r="BJ74" s="21"/>
+      <c r="BK74" s="21"/>
+      <c r="BL74" s="21"/>
+    </row>
+    <row r="75" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B75" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="23" t="s">
-        <v>97</v>
+      <c r="C75" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>12</v>
@@ -26856,22 +26815,22 @@
       <c r="G75" s="24">
         <v>400</v>
       </c>
-      <c r="H75" s="24" t="s">
+      <c r="H75" s="25" t="s">
         <v>7</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J75" s="25">
-        <v>1004</v>
-      </c>
-      <c r="K75" s="31" t="s">
-        <v>25</v>
+        <v>1003</v>
+      </c>
+      <c r="K75" s="48" t="s">
+        <v>14</v>
       </c>
       <c r="L75" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="M75" s="31" t="s">
+      <c r="M75" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N75" s="22"/>
@@ -26926,148 +26885,148 @@
       <c r="BK75" s="22"/>
       <c r="BL75" s="22"/>
     </row>
-    <row r="76" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B76" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C76" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="D76" s="54" t="s">
+      <c r="C76" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="54" t="s">
+      <c r="E76" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="54" t="s">
+      <c r="F76" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G76" s="55">
+      <c r="G76" s="24">
         <v>400</v>
       </c>
-      <c r="H76" s="54" t="s">
+      <c r="H76" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I76" s="55" t="s">
+      <c r="I76" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J76" s="54">
-        <v>1015</v>
-      </c>
-      <c r="K76" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="L76" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="M76" s="69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="J76" s="25">
+        <v>1004</v>
+      </c>
+      <c r="K76" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L76" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="M76" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="22"/>
+      <c r="U76" s="22"/>
+      <c r="V76" s="22"/>
+      <c r="W76" s="22"/>
+      <c r="X76" s="22"/>
+      <c r="Y76" s="22"/>
+      <c r="Z76" s="22"/>
+      <c r="AA76" s="22"/>
+      <c r="AB76" s="22"/>
+      <c r="AC76" s="22"/>
+      <c r="AD76" s="22"/>
+      <c r="AE76" s="22"/>
+      <c r="AF76" s="22"/>
+      <c r="AG76" s="22"/>
+      <c r="AH76" s="22"/>
+      <c r="AI76" s="22"/>
+      <c r="AJ76" s="22"/>
+      <c r="AK76" s="22"/>
+      <c r="AL76" s="22"/>
+      <c r="AM76" s="22"/>
+      <c r="AN76" s="22"/>
+      <c r="AO76" s="22"/>
+      <c r="AP76" s="22"/>
+      <c r="AQ76" s="22"/>
+      <c r="AR76" s="22"/>
+      <c r="AS76" s="22"/>
+      <c r="AT76" s="22"/>
+      <c r="AU76" s="22"/>
+      <c r="AV76" s="22"/>
+      <c r="AW76" s="22"/>
+      <c r="AX76" s="22"/>
+      <c r="AY76" s="22"/>
+      <c r="AZ76" s="22"/>
+      <c r="BA76" s="22"/>
+      <c r="BB76" s="22"/>
+      <c r="BC76" s="22"/>
+      <c r="BD76" s="22"/>
+      <c r="BE76" s="22"/>
+      <c r="BF76" s="22"/>
+      <c r="BG76" s="22"/>
+      <c r="BH76" s="22"/>
+      <c r="BI76" s="22"/>
+      <c r="BJ76" s="22"/>
+      <c r="BK76" s="22"/>
+      <c r="BL76" s="22"/>
+    </row>
+    <row r="77" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="B77" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D77" s="4" t="s">
+      <c r="C77" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="G77" s="24">
-        <v>403</v>
-      </c>
-      <c r="H77" s="24" t="s">
+      <c r="G77" s="55">
+        <v>400</v>
+      </c>
+      <c r="H77" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I77" s="24" t="s">
+      <c r="I77" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="J77" s="25">
-        <v>1006</v>
-      </c>
-      <c r="K77" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L77" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="M77" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="22"/>
-      <c r="S77" s="22"/>
-      <c r="T77" s="22"/>
-      <c r="U77" s="22"/>
-      <c r="V77" s="22"/>
-      <c r="W77" s="22"/>
-      <c r="X77" s="22"/>
-      <c r="Y77" s="22"/>
-      <c r="Z77" s="22"/>
-      <c r="AA77" s="22"/>
-      <c r="AB77" s="22"/>
-      <c r="AC77" s="22"/>
-      <c r="AD77" s="22"/>
-      <c r="AE77" s="22"/>
-      <c r="AF77" s="22"/>
-      <c r="AG77" s="22"/>
-      <c r="AH77" s="22"/>
-      <c r="AI77" s="22"/>
-      <c r="AJ77" s="22"/>
-      <c r="AK77" s="22"/>
-      <c r="AL77" s="22"/>
-      <c r="AM77" s="22"/>
-      <c r="AN77" s="22"/>
-      <c r="AO77" s="22"/>
-      <c r="AP77" s="22"/>
-      <c r="AQ77" s="22"/>
-      <c r="AR77" s="22"/>
-      <c r="AS77" s="22"/>
-      <c r="AT77" s="22"/>
-      <c r="AU77" s="22"/>
-      <c r="AV77" s="22"/>
-      <c r="AW77" s="22"/>
-      <c r="AX77" s="22"/>
-      <c r="AY77" s="22"/>
-      <c r="AZ77" s="22"/>
-      <c r="BA77" s="22"/>
-      <c r="BB77" s="22"/>
-      <c r="BC77" s="22"/>
-      <c r="BD77" s="22"/>
-      <c r="BE77" s="22"/>
-      <c r="BF77" s="22"/>
-      <c r="BG77" s="22"/>
-      <c r="BH77" s="22"/>
-      <c r="BI77" s="22"/>
-      <c r="BJ77" s="22"/>
-      <c r="BK77" s="22"/>
-      <c r="BL77" s="22"/>
+      <c r="J77" s="54">
+        <v>1015</v>
+      </c>
+      <c r="K77" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="L77" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="M77" s="69" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="78" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B78" s="31" t="s">
         <v>113</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>12</v>
@@ -27085,13 +27044,13 @@
         <v>7</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J78" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K78" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L78" s="31" t="s">
         <v>68</v>
@@ -27153,13 +27112,13 @@
     </row>
     <row r="79" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B79" s="31" t="s">
         <v>113</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>12</v>
@@ -27180,10 +27139,10 @@
         <v>35</v>
       </c>
       <c r="J79" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K79" s="31" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="L79" s="31" t="s">
         <v>68</v>
@@ -27245,15 +27204,15 @@
     </row>
     <row r="80" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" s="31" t="s">
         <v>113</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="4" t="s">
@@ -27269,19 +27228,19 @@
         <v>7</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J80" s="24">
-        <v>1011</v>
-      </c>
-      <c r="K80" s="33" t="s">
-        <v>83</v>
+        <v>35</v>
+      </c>
+      <c r="J80" s="25">
+        <v>1008</v>
+      </c>
+      <c r="K80" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="L80" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="M80" s="33" t="s">
-        <v>50</v>
+      <c r="M80" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="N80" s="22"/>
       <c r="O80" s="22"/>
@@ -27337,15 +27296,15 @@
     </row>
     <row r="81" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B81" s="31" t="s">
         <v>113</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="4" t="s">
@@ -27355,25 +27314,25 @@
         <v>159</v>
       </c>
       <c r="G81" s="24">
-        <v>404</v>
-      </c>
-      <c r="H81" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="H81" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I81" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J81" s="10">
-        <v>2506</v>
-      </c>
-      <c r="K81" s="31" t="s">
-        <v>46</v>
+      <c r="I81" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J81" s="24">
+        <v>1011</v>
+      </c>
+      <c r="K81" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="L81" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="M81" s="31" t="s">
-        <v>53</v>
+      <c r="M81" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
@@ -27427,90 +27386,114 @@
       <c r="BK81" s="22"/>
       <c r="BL81" s="22"/>
     </row>
-    <row r="82" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="78" t="s">
+    <row r="82" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>71</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G82" s="24">
+        <v>404</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J82" s="10">
+        <v>2506</v>
+      </c>
+      <c r="K82" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="L82" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="M82" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="22"/>
+      <c r="T82" s="22"/>
+      <c r="U82" s="22"/>
+      <c r="V82" s="22"/>
+      <c r="W82" s="22"/>
+      <c r="X82" s="22"/>
+      <c r="Y82" s="22"/>
+      <c r="Z82" s="22"/>
+      <c r="AA82" s="22"/>
+      <c r="AB82" s="22"/>
+      <c r="AC82" s="22"/>
+      <c r="AD82" s="22"/>
+      <c r="AE82" s="22"/>
+      <c r="AF82" s="22"/>
+      <c r="AG82" s="22"/>
+      <c r="AH82" s="22"/>
+      <c r="AI82" s="22"/>
+      <c r="AJ82" s="22"/>
+      <c r="AK82" s="22"/>
+      <c r="AL82" s="22"/>
+      <c r="AM82" s="22"/>
+      <c r="AN82" s="22"/>
+      <c r="AO82" s="22"/>
+      <c r="AP82" s="22"/>
+      <c r="AQ82" s="22"/>
+      <c r="AR82" s="22"/>
+      <c r="AS82" s="22"/>
+      <c r="AT82" s="22"/>
+      <c r="AU82" s="22"/>
+      <c r="AV82" s="22"/>
+      <c r="AW82" s="22"/>
+      <c r="AX82" s="22"/>
+      <c r="AY82" s="22"/>
+      <c r="AZ82" s="22"/>
+      <c r="BA82" s="22"/>
+      <c r="BB82" s="22"/>
+      <c r="BC82" s="22"/>
+      <c r="BD82" s="22"/>
+      <c r="BE82" s="22"/>
+      <c r="BF82" s="22"/>
+      <c r="BG82" s="22"/>
+      <c r="BH82" s="22"/>
+      <c r="BI82" s="22"/>
+      <c r="BJ82" s="22"/>
+      <c r="BK82" s="22"/>
+      <c r="BL82" s="22"/>
+    </row>
+    <row r="83" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="B82" s="78"/>
-      <c r="C82" s="78"/>
-      <c r="D82" s="78"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="78"/>
-      <c r="H82" s="78"/>
-      <c r="I82" s="78"/>
-      <c r="J82" s="78"/>
-      <c r="K82" s="78"/>
-      <c r="L82" s="78"/>
-      <c r="M82" s="78"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="21"/>
-      <c r="S82" s="21"/>
-      <c r="T82" s="21"/>
-      <c r="U82" s="21"/>
-      <c r="V82" s="21"/>
-      <c r="W82" s="21"/>
-      <c r="X82" s="21"/>
-      <c r="Y82" s="21"/>
-      <c r="Z82" s="21"/>
-      <c r="AA82" s="21"/>
-      <c r="AB82" s="21"/>
-      <c r="AC82" s="21"/>
-      <c r="AD82" s="21"/>
-      <c r="AE82" s="21"/>
-      <c r="AF82" s="21"/>
-      <c r="AG82" s="21"/>
-      <c r="AH82" s="21"/>
-      <c r="AI82" s="21"/>
-      <c r="AJ82" s="21"/>
-      <c r="AK82" s="21"/>
-      <c r="AL82" s="21"/>
-      <c r="AM82" s="21"/>
-      <c r="AN82" s="21"/>
-      <c r="AO82" s="21"/>
-      <c r="AP82" s="21"/>
-      <c r="AQ82" s="21"/>
-      <c r="AR82" s="21"/>
-      <c r="AS82" s="21"/>
-      <c r="AT82" s="21"/>
-      <c r="AU82" s="21"/>
-      <c r="AV82" s="21"/>
-      <c r="AW82" s="21"/>
-      <c r="AX82" s="21"/>
-      <c r="AY82" s="21"/>
-      <c r="AZ82" s="21"/>
-      <c r="BA82" s="21"/>
-      <c r="BB82" s="21"/>
-      <c r="BC82" s="21"/>
-      <c r="BD82" s="21"/>
-      <c r="BE82" s="21"/>
-      <c r="BF82" s="21"/>
-      <c r="BG82" s="21"/>
-      <c r="BH82" s="21"/>
-      <c r="BI82" s="21"/>
-      <c r="BJ82" s="21"/>
-      <c r="BK82" s="21"/>
-      <c r="BL82" s="21"/>
-    </row>
-    <row r="83" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="B83" s="79"/>
-      <c r="C83" s="79"/>
-      <c r="D83" s="79"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="79"/>
-      <c r="G83" s="79"/>
-      <c r="H83" s="79"/>
-      <c r="I83" s="79"/>
-      <c r="J83" s="79"/>
-      <c r="K83" s="79"/>
-      <c r="L83" s="79"/>
-      <c r="M83" s="79"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="78"/>
+      <c r="H83" s="78"/>
+      <c r="I83" s="78"/>
+      <c r="J83" s="78"/>
+      <c r="K83" s="78"/>
+      <c r="L83" s="78"/>
+      <c r="M83" s="78"/>
       <c r="N83" s="21"/>
       <c r="O83" s="21"/>
       <c r="P83" s="21"/>
@@ -27563,46 +27546,22 @@
       <c r="BK83" s="21"/>
       <c r="BL83" s="21"/>
     </row>
-    <row r="84" spans="1:64" s="51" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A84" s="4">
-        <v>72</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C84" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G84" s="24">
-        <v>401</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J84" s="4">
-        <v>1012</v>
-      </c>
-      <c r="K84" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="L84" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M84" s="50" t="s">
-        <v>12</v>
-      </c>
+    <row r="84" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="79"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="79"/>
+      <c r="H84" s="79"/>
+      <c r="I84" s="79"/>
+      <c r="J84" s="79"/>
+      <c r="K84" s="79"/>
+      <c r="L84" s="79"/>
+      <c r="M84" s="79"/>
       <c r="N84" s="21"/>
       <c r="O84" s="21"/>
       <c r="P84" s="21"/>
@@ -27655,15 +27614,15 @@
       <c r="BK84" s="21"/>
       <c r="BL84" s="21"/>
     </row>
-    <row r="85" spans="1:64" s="51" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:64" s="51" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B85" s="31" t="s">
         <v>147</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>12</v>
@@ -27684,15 +27643,15 @@
         <v>38</v>
       </c>
       <c r="J85" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K85" s="23" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L85" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M85" s="48" t="s">
+      <c r="M85" s="50" t="s">
         <v>12</v>
       </c>
       <c r="N85" s="21"/>
@@ -27749,13 +27708,13 @@
     </row>
     <row r="86" spans="1:64" s="51" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B86" s="31" t="s">
         <v>147</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>12</v>
@@ -27776,15 +27735,15 @@
         <v>38</v>
       </c>
       <c r="J86" s="4">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K86" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L86" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M86" s="31" t="s">
+      <c r="M86" s="48" t="s">
         <v>12</v>
       </c>
       <c r="N86" s="21"/>
@@ -27839,15 +27798,15 @@
       <c r="BK86" s="21"/>
       <c r="BL86" s="21"/>
     </row>
-    <row r="87" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:64" s="51" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B87" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>96</v>
+      <c r="C87" s="23" t="s">
+        <v>168</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>12</v>
@@ -27859,87 +27818,87 @@
         <v>159</v>
       </c>
       <c r="G87" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J87" s="10">
-        <v>1003</v>
-      </c>
-      <c r="K87" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="L87" s="31" t="s">
-        <v>148</v>
+        <v>38</v>
+      </c>
+      <c r="J87" s="4">
+        <v>1014</v>
+      </c>
+      <c r="K87" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="L87" s="33" t="s">
+        <v>12</v>
       </c>
       <c r="M87" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="22"/>
-      <c r="T87" s="22"/>
-      <c r="U87" s="22"/>
-      <c r="V87" s="22"/>
-      <c r="W87" s="22"/>
-      <c r="X87" s="22"/>
-      <c r="Y87" s="22"/>
-      <c r="Z87" s="22"/>
-      <c r="AA87" s="22"/>
-      <c r="AB87" s="22"/>
-      <c r="AC87" s="22"/>
-      <c r="AD87" s="22"/>
-      <c r="AE87" s="22"/>
-      <c r="AF87" s="22"/>
-      <c r="AG87" s="22"/>
-      <c r="AH87" s="22"/>
-      <c r="AI87" s="22"/>
-      <c r="AJ87" s="22"/>
-      <c r="AK87" s="22"/>
-      <c r="AL87" s="22"/>
-      <c r="AM87" s="22"/>
-      <c r="AN87" s="22"/>
-      <c r="AO87" s="22"/>
-      <c r="AP87" s="22"/>
-      <c r="AQ87" s="22"/>
-      <c r="AR87" s="22"/>
-      <c r="AS87" s="22"/>
-      <c r="AT87" s="22"/>
-      <c r="AU87" s="22"/>
-      <c r="AV87" s="22"/>
-      <c r="AW87" s="22"/>
-      <c r="AX87" s="22"/>
-      <c r="AY87" s="22"/>
-      <c r="AZ87" s="22"/>
-      <c r="BA87" s="22"/>
-      <c r="BB87" s="22"/>
-      <c r="BC87" s="22"/>
-      <c r="BD87" s="22"/>
-      <c r="BE87" s="22"/>
-      <c r="BF87" s="22"/>
-      <c r="BG87" s="22"/>
-      <c r="BH87" s="22"/>
-      <c r="BI87" s="22"/>
-      <c r="BJ87" s="22"/>
-      <c r="BK87" s="22"/>
-      <c r="BL87" s="22"/>
-    </row>
-    <row r="88" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="X87" s="21"/>
+      <c r="Y87" s="21"/>
+      <c r="Z87" s="21"/>
+      <c r="AA87" s="21"/>
+      <c r="AB87" s="21"/>
+      <c r="AC87" s="21"/>
+      <c r="AD87" s="21"/>
+      <c r="AE87" s="21"/>
+      <c r="AF87" s="21"/>
+      <c r="AG87" s="21"/>
+      <c r="AH87" s="21"/>
+      <c r="AI87" s="21"/>
+      <c r="AJ87" s="21"/>
+      <c r="AK87" s="21"/>
+      <c r="AL87" s="21"/>
+      <c r="AM87" s="21"/>
+      <c r="AN87" s="21"/>
+      <c r="AO87" s="21"/>
+      <c r="AP87" s="21"/>
+      <c r="AQ87" s="21"/>
+      <c r="AR87" s="21"/>
+      <c r="AS87" s="21"/>
+      <c r="AT87" s="21"/>
+      <c r="AU87" s="21"/>
+      <c r="AV87" s="21"/>
+      <c r="AW87" s="21"/>
+      <c r="AX87" s="21"/>
+      <c r="AY87" s="21"/>
+      <c r="AZ87" s="21"/>
+      <c r="BA87" s="21"/>
+      <c r="BB87" s="21"/>
+      <c r="BC87" s="21"/>
+      <c r="BD87" s="21"/>
+      <c r="BE87" s="21"/>
+      <c r="BF87" s="21"/>
+      <c r="BG87" s="21"/>
+      <c r="BH87" s="21"/>
+      <c r="BI87" s="21"/>
+      <c r="BJ87" s="21"/>
+      <c r="BK87" s="21"/>
+      <c r="BL87" s="21"/>
+    </row>
+    <row r="88" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B88" s="31" t="s">
         <v>147</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>12</v>
@@ -27957,13 +27916,13 @@
         <v>7</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J88" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K88" s="31" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L88" s="31" t="s">
         <v>148</v>
@@ -28023,15 +27982,15 @@
       <c r="BK88" s="22"/>
       <c r="BL88" s="22"/>
     </row>
-    <row r="89" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B89" s="31" t="s">
         <v>147</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>12</v>
@@ -28049,13 +28008,13 @@
         <v>7</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J89" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K89" s="31" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L89" s="31" t="s">
         <v>148</v>
@@ -28115,148 +28074,148 @@
       <c r="BK89" s="22"/>
       <c r="BL89" s="22"/>
     </row>
-    <row r="90" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B90" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C90" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="D90" s="54" t="s">
+      <c r="C90" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="54" t="s">
+      <c r="E90" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F90" s="54" t="s">
+      <c r="F90" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G90" s="55">
+      <c r="G90" s="24">
         <v>400</v>
       </c>
-      <c r="H90" s="54" t="s">
+      <c r="H90" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I90" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="J90" s="54">
-        <v>1015</v>
-      </c>
-      <c r="K90" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="L90" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="M90" s="69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="I90" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J90" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K90" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L90" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="M90" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="N90" s="22"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="22"/>
+      <c r="Q90" s="22"/>
+      <c r="R90" s="22"/>
+      <c r="S90" s="22"/>
+      <c r="T90" s="22"/>
+      <c r="U90" s="22"/>
+      <c r="V90" s="22"/>
+      <c r="W90" s="22"/>
+      <c r="X90" s="22"/>
+      <c r="Y90" s="22"/>
+      <c r="Z90" s="22"/>
+      <c r="AA90" s="22"/>
+      <c r="AB90" s="22"/>
+      <c r="AC90" s="22"/>
+      <c r="AD90" s="22"/>
+      <c r="AE90" s="22"/>
+      <c r="AF90" s="22"/>
+      <c r="AG90" s="22"/>
+      <c r="AH90" s="22"/>
+      <c r="AI90" s="22"/>
+      <c r="AJ90" s="22"/>
+      <c r="AK90" s="22"/>
+      <c r="AL90" s="22"/>
+      <c r="AM90" s="22"/>
+      <c r="AN90" s="22"/>
+      <c r="AO90" s="22"/>
+      <c r="AP90" s="22"/>
+      <c r="AQ90" s="22"/>
+      <c r="AR90" s="22"/>
+      <c r="AS90" s="22"/>
+      <c r="AT90" s="22"/>
+      <c r="AU90" s="22"/>
+      <c r="AV90" s="22"/>
+      <c r="AW90" s="22"/>
+      <c r="AX90" s="22"/>
+      <c r="AY90" s="22"/>
+      <c r="AZ90" s="22"/>
+      <c r="BA90" s="22"/>
+      <c r="BB90" s="22"/>
+      <c r="BC90" s="22"/>
+      <c r="BD90" s="22"/>
+      <c r="BE90" s="22"/>
+      <c r="BF90" s="22"/>
+      <c r="BG90" s="22"/>
+      <c r="BH90" s="22"/>
+      <c r="BI90" s="22"/>
+      <c r="BJ90" s="22"/>
+      <c r="BK90" s="22"/>
+      <c r="BL90" s="22"/>
+    </row>
+    <row r="91" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B91" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D91" s="4" t="s">
+      <c r="C91" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="D91" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="G91" s="24">
-        <v>403</v>
-      </c>
-      <c r="H91" s="4" t="s">
+      <c r="G91" s="55">
+        <v>400</v>
+      </c>
+      <c r="H91" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="I91" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="J91" s="10">
-        <v>1006</v>
-      </c>
-      <c r="K91" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L91" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="M91" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
-      <c r="T91" s="22"/>
-      <c r="U91" s="22"/>
-      <c r="V91" s="22"/>
-      <c r="W91" s="22"/>
-      <c r="X91" s="22"/>
-      <c r="Y91" s="22"/>
-      <c r="Z91" s="22"/>
-      <c r="AA91" s="22"/>
-      <c r="AB91" s="22"/>
-      <c r="AC91" s="22"/>
-      <c r="AD91" s="22"/>
-      <c r="AE91" s="22"/>
-      <c r="AF91" s="22"/>
-      <c r="AG91" s="22"/>
-      <c r="AH91" s="22"/>
-      <c r="AI91" s="22"/>
-      <c r="AJ91" s="22"/>
-      <c r="AK91" s="22"/>
-      <c r="AL91" s="22"/>
-      <c r="AM91" s="22"/>
-      <c r="AN91" s="22"/>
-      <c r="AO91" s="22"/>
-      <c r="AP91" s="22"/>
-      <c r="AQ91" s="22"/>
-      <c r="AR91" s="22"/>
-      <c r="AS91" s="22"/>
-      <c r="AT91" s="22"/>
-      <c r="AU91" s="22"/>
-      <c r="AV91" s="22"/>
-      <c r="AW91" s="22"/>
-      <c r="AX91" s="22"/>
-      <c r="AY91" s="22"/>
-      <c r="AZ91" s="22"/>
-      <c r="BA91" s="22"/>
-      <c r="BB91" s="22"/>
-      <c r="BC91" s="22"/>
-      <c r="BD91" s="22"/>
-      <c r="BE91" s="22"/>
-      <c r="BF91" s="22"/>
-      <c r="BG91" s="22"/>
-      <c r="BH91" s="22"/>
-      <c r="BI91" s="22"/>
-      <c r="BJ91" s="22"/>
-      <c r="BK91" s="22"/>
-      <c r="BL91" s="22"/>
+      <c r="J91" s="54">
+        <v>1015</v>
+      </c>
+      <c r="K91" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="L91" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="M91" s="69" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="92" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B92" s="31" t="s">
         <v>147</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>12</v>
@@ -28274,13 +28233,13 @@
         <v>7</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J92" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K92" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L92" s="31" t="s">
         <v>148</v>
@@ -28340,15 +28299,15 @@
       <c r="BK92" s="22"/>
       <c r="BL92" s="22"/>
     </row>
-    <row r="93" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B93" s="31" t="s">
         <v>147</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>12</v>
@@ -28369,10 +28328,10 @@
         <v>35</v>
       </c>
       <c r="J93" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K93" s="31" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="L93" s="31" t="s">
         <v>148</v>
@@ -28434,15 +28393,15 @@
     </row>
     <row r="94" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B94" s="31" t="s">
         <v>147</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D94" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E94" s="4" t="s">
@@ -28458,13 +28417,13 @@
         <v>7</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J94" s="4">
-        <v>1011</v>
-      </c>
-      <c r="K94" s="33" t="s">
-        <v>83</v>
+        <v>35</v>
+      </c>
+      <c r="J94" s="10">
+        <v>1008</v>
+      </c>
+      <c r="K94" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="L94" s="31" t="s">
         <v>148</v>
@@ -28526,15 +28485,15 @@
     </row>
     <row r="95" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B95" s="31" t="s">
         <v>147</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D95" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="4" t="s">
@@ -28544,7 +28503,7 @@
         <v>159</v>
       </c>
       <c r="G95" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>7</v>
@@ -28552,17 +28511,17 @@
       <c r="I95" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J95" s="10">
-        <v>3001</v>
-      </c>
-      <c r="K95" s="31" t="s">
-        <v>150</v>
+      <c r="J95" s="4">
+        <v>1011</v>
+      </c>
+      <c r="K95" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="L95" s="31" t="s">
         <v>148</v>
       </c>
       <c r="M95" s="31" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N95" s="22"/>
       <c r="O95" s="22"/>
@@ -28616,15 +28575,15 @@
       <c r="BK95" s="22"/>
       <c r="BL95" s="22"/>
     </row>
-    <row r="96" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B96" s="31" t="s">
         <v>147</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>12</v>
@@ -28642,19 +28601,19 @@
         <v>7</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J96" s="10">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="K96" s="31" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="L96" s="31" t="s">
         <v>148</v>
       </c>
       <c r="M96" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N96" s="22"/>
       <c r="O96" s="22"/>
@@ -28708,44 +28667,44 @@
       <c r="BK96" s="22"/>
       <c r="BL96" s="22"/>
     </row>
-    <row r="97" spans="1:64" s="7" customFormat="1" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A97" s="62">
-        <v>84</v>
-      </c>
-      <c r="B97" s="63" t="s">
+    <row r="97" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>83</v>
+      </c>
+      <c r="B97" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C97" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="D97" s="62" t="s">
+      <c r="C97" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="62" t="s">
+      <c r="E97" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F97" s="62" t="s">
+      <c r="F97" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G97" s="62">
+      <c r="G97" s="24">
         <v>400</v>
       </c>
-      <c r="H97" s="62" t="s">
+      <c r="H97" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I97" s="62" t="s">
+      <c r="I97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J97" s="62">
-        <v>1002</v>
-      </c>
-      <c r="K97" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="L97" s="63" t="s">
+      <c r="J97" s="10">
+        <v>3002</v>
+      </c>
+      <c r="K97" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L97" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="M97" s="63" t="s">
+      <c r="M97" s="31" t="s">
         <v>74</v>
       </c>
       <c r="N97" s="22"/>
@@ -28800,250 +28759,274 @@
       <c r="BK97" s="22"/>
       <c r="BL97" s="22"/>
     </row>
-    <row r="98" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="79" t="s">
+    <row r="98" spans="1:64" s="7" customFormat="1" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A98" s="62">
+        <v>84</v>
+      </c>
+      <c r="B98" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C98" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="D98" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="F98" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="G98" s="62">
+        <v>400</v>
+      </c>
+      <c r="H98" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98" s="62">
+        <v>1002</v>
+      </c>
+      <c r="K98" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="L98" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="M98" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="N98" s="22"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="22"/>
+      <c r="Q98" s="22"/>
+      <c r="R98" s="22"/>
+      <c r="S98" s="22"/>
+      <c r="T98" s="22"/>
+      <c r="U98" s="22"/>
+      <c r="V98" s="22"/>
+      <c r="W98" s="22"/>
+      <c r="X98" s="22"/>
+      <c r="Y98" s="22"/>
+      <c r="Z98" s="22"/>
+      <c r="AA98" s="22"/>
+      <c r="AB98" s="22"/>
+      <c r="AC98" s="22"/>
+      <c r="AD98" s="22"/>
+      <c r="AE98" s="22"/>
+      <c r="AF98" s="22"/>
+      <c r="AG98" s="22"/>
+      <c r="AH98" s="22"/>
+      <c r="AI98" s="22"/>
+      <c r="AJ98" s="22"/>
+      <c r="AK98" s="22"/>
+      <c r="AL98" s="22"/>
+      <c r="AM98" s="22"/>
+      <c r="AN98" s="22"/>
+      <c r="AO98" s="22"/>
+      <c r="AP98" s="22"/>
+      <c r="AQ98" s="22"/>
+      <c r="AR98" s="22"/>
+      <c r="AS98" s="22"/>
+      <c r="AT98" s="22"/>
+      <c r="AU98" s="22"/>
+      <c r="AV98" s="22"/>
+      <c r="AW98" s="22"/>
+      <c r="AX98" s="22"/>
+      <c r="AY98" s="22"/>
+      <c r="AZ98" s="22"/>
+      <c r="BA98" s="22"/>
+      <c r="BB98" s="22"/>
+      <c r="BC98" s="22"/>
+      <c r="BD98" s="22"/>
+      <c r="BE98" s="22"/>
+      <c r="BF98" s="22"/>
+      <c r="BG98" s="22"/>
+      <c r="BH98" s="22"/>
+      <c r="BI98" s="22"/>
+      <c r="BJ98" s="22"/>
+      <c r="BK98" s="22"/>
+      <c r="BL98" s="22"/>
+    </row>
+    <row r="99" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="B98" s="79"/>
-      <c r="C98" s="79"/>
-      <c r="D98" s="79"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="79"/>
-      <c r="G98" s="79"/>
-      <c r="H98" s="79"/>
-      <c r="I98" s="79"/>
-      <c r="J98" s="79"/>
-      <c r="K98" s="79"/>
-      <c r="L98" s="79"/>
-      <c r="M98" s="79"/>
-      <c r="N98" s="21"/>
-      <c r="O98" s="21"/>
-      <c r="P98" s="21"/>
-      <c r="Q98" s="21"/>
-      <c r="R98" s="21"/>
-      <c r="S98" s="21"/>
-      <c r="T98" s="21"/>
-      <c r="U98" s="21"/>
-      <c r="V98" s="21"/>
-      <c r="W98" s="21"/>
-      <c r="X98" s="21"/>
-      <c r="Y98" s="21"/>
-      <c r="Z98" s="21"/>
-      <c r="AA98" s="21"/>
-      <c r="AB98" s="21"/>
-      <c r="AC98" s="21"/>
-      <c r="AD98" s="21"/>
-      <c r="AE98" s="21"/>
-      <c r="AF98" s="21"/>
-      <c r="AG98" s="21"/>
-      <c r="AH98" s="21"/>
-      <c r="AI98" s="21"/>
-      <c r="AJ98" s="21"/>
-      <c r="AK98" s="21"/>
-      <c r="AL98" s="21"/>
-      <c r="AM98" s="21"/>
-      <c r="AN98" s="21"/>
-      <c r="AO98" s="21"/>
-      <c r="AP98" s="21"/>
-      <c r="AQ98" s="21"/>
-      <c r="AR98" s="21"/>
-      <c r="AS98" s="21"/>
-      <c r="AT98" s="21"/>
-      <c r="AU98" s="21"/>
-      <c r="AV98" s="21"/>
-      <c r="AW98" s="21"/>
-      <c r="AX98" s="21"/>
-      <c r="AY98" s="21"/>
-      <c r="AZ98" s="21"/>
-      <c r="BA98" s="21"/>
-      <c r="BB98" s="21"/>
-      <c r="BC98" s="21"/>
-      <c r="BD98" s="21"/>
-      <c r="BE98" s="21"/>
-      <c r="BF98" s="21"/>
-      <c r="BG98" s="21"/>
-      <c r="BH98" s="21"/>
-      <c r="BI98" s="21"/>
-      <c r="BJ98" s="21"/>
-      <c r="BK98" s="21"/>
-      <c r="BL98" s="21"/>
-    </row>
-    <row r="99" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
+      <c r="B99" s="79"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="79"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="79"/>
+      <c r="H99" s="79"/>
+      <c r="I99" s="79"/>
+      <c r="J99" s="79"/>
+      <c r="K99" s="79"/>
+      <c r="L99" s="79"/>
+      <c r="M99" s="79"/>
+      <c r="N99" s="21"/>
+      <c r="O99" s="21"/>
+      <c r="P99" s="21"/>
+      <c r="Q99" s="21"/>
+      <c r="R99" s="21"/>
+      <c r="S99" s="21"/>
+      <c r="T99" s="21"/>
+      <c r="U99" s="21"/>
+      <c r="V99" s="21"/>
+      <c r="W99" s="21"/>
+      <c r="X99" s="21"/>
+      <c r="Y99" s="21"/>
+      <c r="Z99" s="21"/>
+      <c r="AA99" s="21"/>
+      <c r="AB99" s="21"/>
+      <c r="AC99" s="21"/>
+      <c r="AD99" s="21"/>
+      <c r="AE99" s="21"/>
+      <c r="AF99" s="21"/>
+      <c r="AG99" s="21"/>
+      <c r="AH99" s="21"/>
+      <c r="AI99" s="21"/>
+      <c r="AJ99" s="21"/>
+      <c r="AK99" s="21"/>
+      <c r="AL99" s="21"/>
+      <c r="AM99" s="21"/>
+      <c r="AN99" s="21"/>
+      <c r="AO99" s="21"/>
+      <c r="AP99" s="21"/>
+      <c r="AQ99" s="21"/>
+      <c r="AR99" s="21"/>
+      <c r="AS99" s="21"/>
+      <c r="AT99" s="21"/>
+      <c r="AU99" s="21"/>
+      <c r="AV99" s="21"/>
+      <c r="AW99" s="21"/>
+      <c r="AX99" s="21"/>
+      <c r="AY99" s="21"/>
+      <c r="AZ99" s="21"/>
+      <c r="BA99" s="21"/>
+      <c r="BB99" s="21"/>
+      <c r="BC99" s="21"/>
+      <c r="BD99" s="21"/>
+      <c r="BE99" s="21"/>
+      <c r="BF99" s="21"/>
+      <c r="BG99" s="21"/>
+      <c r="BH99" s="21"/>
+      <c r="BI99" s="21"/>
+      <c r="BJ99" s="21"/>
+      <c r="BK99" s="21"/>
+      <c r="BL99" s="21"/>
+    </row>
+    <row r="100" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
         <v>85</v>
       </c>
-      <c r="B99" s="31" t="s">
+      <c r="B100" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C100" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D100" s="4">
         <v>8</v>
       </c>
-      <c r="E99" s="24" t="s">
+      <c r="E100" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F99" s="24" t="s">
+      <c r="F100" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G99" s="45" t="s">
+      <c r="G100" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="H100" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I99" s="4" t="s">
+      <c r="I100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J99" s="4">
+      <c r="J100" s="4">
         <v>1010</v>
       </c>
-      <c r="K99" s="31" t="s">
+      <c r="K100" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L99" s="31" t="s">
+      <c r="L100" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="M99" s="31" t="s">
+      <c r="M100" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="N99" s="22"/>
-      <c r="O99" s="22"/>
-      <c r="P99" s="22"/>
-      <c r="Q99" s="22"/>
-      <c r="R99" s="22"/>
-      <c r="S99" s="22"/>
-      <c r="T99" s="22"/>
-      <c r="U99" s="22"/>
-      <c r="V99" s="22"/>
-      <c r="W99" s="22"/>
-      <c r="X99" s="22"/>
-      <c r="Y99" s="22"/>
-      <c r="Z99" s="22"/>
-      <c r="AA99" s="22"/>
-      <c r="AB99" s="22"/>
-      <c r="AC99" s="22"/>
-      <c r="AD99" s="22"/>
-      <c r="AE99" s="22"/>
-      <c r="AF99" s="22"/>
-      <c r="AG99" s="22"/>
-      <c r="AH99" s="22"/>
-      <c r="AI99" s="22"/>
-      <c r="AJ99" s="22"/>
-      <c r="AK99" s="22"/>
-      <c r="AL99" s="22"/>
-      <c r="AM99" s="22"/>
-      <c r="AN99" s="22"/>
-      <c r="AO99" s="22"/>
-      <c r="AP99" s="22"/>
-      <c r="AQ99" s="22"/>
-      <c r="AR99" s="22"/>
-      <c r="AS99" s="22"/>
-      <c r="AT99" s="22"/>
-      <c r="AU99" s="22"/>
-      <c r="AV99" s="22"/>
-      <c r="AW99" s="22"/>
-      <c r="AX99" s="22"/>
-      <c r="AY99" s="22"/>
-      <c r="AZ99" s="22"/>
-      <c r="BA99" s="22"/>
-      <c r="BB99" s="22"/>
-      <c r="BC99" s="22"/>
-      <c r="BD99" s="22"/>
-      <c r="BE99" s="22"/>
-      <c r="BF99" s="22"/>
-      <c r="BG99" s="22"/>
-      <c r="BH99" s="22"/>
-      <c r="BI99" s="22"/>
-      <c r="BJ99" s="22"/>
-      <c r="BK99" s="22"/>
-      <c r="BL99" s="22"/>
-    </row>
-    <row r="100" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="78" t="s">
+      <c r="N100" s="22"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="22"/>
+      <c r="Q100" s="22"/>
+      <c r="R100" s="22"/>
+      <c r="S100" s="22"/>
+      <c r="T100" s="22"/>
+      <c r="U100" s="22"/>
+      <c r="V100" s="22"/>
+      <c r="W100" s="22"/>
+      <c r="X100" s="22"/>
+      <c r="Y100" s="22"/>
+      <c r="Z100" s="22"/>
+      <c r="AA100" s="22"/>
+      <c r="AB100" s="22"/>
+      <c r="AC100" s="22"/>
+      <c r="AD100" s="22"/>
+      <c r="AE100" s="22"/>
+      <c r="AF100" s="22"/>
+      <c r="AG100" s="22"/>
+      <c r="AH100" s="22"/>
+      <c r="AI100" s="22"/>
+      <c r="AJ100" s="22"/>
+      <c r="AK100" s="22"/>
+      <c r="AL100" s="22"/>
+      <c r="AM100" s="22"/>
+      <c r="AN100" s="22"/>
+      <c r="AO100" s="22"/>
+      <c r="AP100" s="22"/>
+      <c r="AQ100" s="22"/>
+      <c r="AR100" s="22"/>
+      <c r="AS100" s="22"/>
+      <c r="AT100" s="22"/>
+      <c r="AU100" s="22"/>
+      <c r="AV100" s="22"/>
+      <c r="AW100" s="22"/>
+      <c r="AX100" s="22"/>
+      <c r="AY100" s="22"/>
+      <c r="AZ100" s="22"/>
+      <c r="BA100" s="22"/>
+      <c r="BB100" s="22"/>
+      <c r="BC100" s="22"/>
+      <c r="BD100" s="22"/>
+      <c r="BE100" s="22"/>
+      <c r="BF100" s="22"/>
+      <c r="BG100" s="22"/>
+      <c r="BH100" s="22"/>
+      <c r="BI100" s="22"/>
+      <c r="BJ100" s="22"/>
+      <c r="BK100" s="22"/>
+      <c r="BL100" s="22"/>
+    </row>
+    <row r="101" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="B100" s="78"/>
-      <c r="C100" s="78"/>
-      <c r="D100" s="78"/>
-      <c r="E100" s="78"/>
-      <c r="F100" s="78"/>
-      <c r="G100" s="78"/>
-      <c r="H100" s="78"/>
-      <c r="I100" s="78"/>
-      <c r="J100" s="78"/>
-      <c r="K100" s="78"/>
-      <c r="L100" s="78"/>
-      <c r="M100" s="78"/>
-      <c r="N100" s="21"/>
-      <c r="O100" s="21"/>
-      <c r="P100" s="21"/>
-      <c r="Q100" s="21"/>
-      <c r="R100" s="21"/>
-      <c r="S100" s="21"/>
-      <c r="T100" s="21"/>
-      <c r="U100" s="21"/>
-      <c r="V100" s="21"/>
-      <c r="W100" s="21"/>
-      <c r="X100" s="21"/>
-      <c r="Y100" s="21"/>
-      <c r="Z100" s="21"/>
-      <c r="AA100" s="21"/>
-      <c r="AB100" s="21"/>
-      <c r="AC100" s="21"/>
-      <c r="AD100" s="21"/>
-      <c r="AE100" s="21"/>
-      <c r="AF100" s="21"/>
-      <c r="AG100" s="21"/>
-      <c r="AH100" s="21"/>
-      <c r="AI100" s="21"/>
-      <c r="AJ100" s="21"/>
-      <c r="AK100" s="21"/>
-      <c r="AL100" s="21"/>
-      <c r="AM100" s="21"/>
-      <c r="AN100" s="21"/>
-      <c r="AO100" s="21"/>
-      <c r="AP100" s="21"/>
-      <c r="AQ100" s="21"/>
-      <c r="AR100" s="21"/>
-      <c r="AS100" s="21"/>
-      <c r="AT100" s="21"/>
-      <c r="AU100" s="21"/>
-      <c r="AV100" s="21"/>
-      <c r="AW100" s="21"/>
-      <c r="AX100" s="21"/>
-      <c r="AY100" s="21"/>
-      <c r="AZ100" s="21"/>
-      <c r="BA100" s="21"/>
-      <c r="BB100" s="21"/>
-      <c r="BC100" s="21"/>
-      <c r="BD100" s="21"/>
-      <c r="BE100" s="21"/>
-      <c r="BF100" s="21"/>
-      <c r="BG100" s="21"/>
-      <c r="BH100" s="21"/>
-      <c r="BI100" s="21"/>
-      <c r="BJ100" s="21"/>
-      <c r="BK100" s="21"/>
-      <c r="BL100" s="21"/>
-    </row>
-    <row r="101" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="B101" s="79"/>
-      <c r="C101" s="79"/>
-      <c r="D101" s="79"/>
-      <c r="E101" s="79"/>
-      <c r="F101" s="79"/>
-      <c r="G101" s="79"/>
-      <c r="H101" s="79"/>
-      <c r="I101" s="79"/>
-      <c r="J101" s="79"/>
-      <c r="K101" s="79"/>
-      <c r="L101" s="79"/>
-      <c r="M101" s="79"/>
+      <c r="B101" s="78"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="78"/>
+      <c r="H101" s="78"/>
+      <c r="I101" s="78"/>
+      <c r="J101" s="78"/>
+      <c r="K101" s="78"/>
+      <c r="L101" s="78"/>
+      <c r="M101" s="78"/>
       <c r="N101" s="21"/>
       <c r="O101" s="21"/>
       <c r="P101" s="21"/>
@@ -29096,46 +29079,22 @@
       <c r="BK101" s="21"/>
       <c r="BL101" s="21"/>
     </row>
-    <row r="102" spans="1:64" s="51" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A102" s="4">
-        <v>86</v>
-      </c>
-      <c r="B102" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C102" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G102" s="24">
-        <v>401</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J102" s="4">
-        <v>1012</v>
-      </c>
-      <c r="K102" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="L102" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M102" s="50" t="s">
-        <v>12</v>
-      </c>
+    <row r="102" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B102" s="79"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="79"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="79"/>
+      <c r="H102" s="79"/>
+      <c r="I102" s="79"/>
+      <c r="J102" s="79"/>
+      <c r="K102" s="79"/>
+      <c r="L102" s="79"/>
+      <c r="M102" s="79"/>
       <c r="N102" s="21"/>
       <c r="O102" s="21"/>
       <c r="P102" s="21"/>
@@ -29188,15 +29147,15 @@
       <c r="BK102" s="21"/>
       <c r="BL102" s="21"/>
     </row>
-    <row r="103" spans="1:64" s="51" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:64" s="51" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B103" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C103" s="23" t="s">
-        <v>167</v>
+      <c r="C103" s="52" t="s">
+        <v>175</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>12</v>
@@ -29217,15 +29176,15 @@
         <v>38</v>
       </c>
       <c r="J103" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K103" s="23" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L103" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M103" s="48" t="s">
+      <c r="M103" s="50" t="s">
         <v>12</v>
       </c>
       <c r="N103" s="21"/>
@@ -29282,13 +29241,13 @@
     </row>
     <row r="104" spans="1:64" s="51" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B104" s="31" t="s">
         <v>152</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>12</v>
@@ -29309,15 +29268,15 @@
         <v>38</v>
       </c>
       <c r="J104" s="4">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K104" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L104" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M104" s="31" t="s">
+      <c r="M104" s="48" t="s">
         <v>12</v>
       </c>
       <c r="N104" s="21"/>
@@ -29372,15 +29331,15 @@
       <c r="BK104" s="21"/>
       <c r="BL104" s="21"/>
     </row>
-    <row r="105" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:64" s="51" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B105" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>96</v>
+      <c r="C105" s="23" t="s">
+        <v>168</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>12</v>
@@ -29392,87 +29351,87 @@
         <v>159</v>
       </c>
       <c r="G105" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J105" s="10">
-        <v>1003</v>
-      </c>
-      <c r="K105" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="L105" s="31" t="s">
-        <v>153</v>
+        <v>38</v>
+      </c>
+      <c r="J105" s="4">
+        <v>1014</v>
+      </c>
+      <c r="K105" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="L105" s="33" t="s">
+        <v>12</v>
       </c>
       <c r="M105" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="N105" s="22"/>
-      <c r="O105" s="22"/>
-      <c r="P105" s="22"/>
-      <c r="Q105" s="22"/>
-      <c r="R105" s="22"/>
-      <c r="S105" s="22"/>
-      <c r="T105" s="22"/>
-      <c r="U105" s="22"/>
-      <c r="V105" s="22"/>
-      <c r="W105" s="22"/>
-      <c r="X105" s="22"/>
-      <c r="Y105" s="22"/>
-      <c r="Z105" s="22"/>
-      <c r="AA105" s="22"/>
-      <c r="AB105" s="22"/>
-      <c r="AC105" s="22"/>
-      <c r="AD105" s="22"/>
-      <c r="AE105" s="22"/>
-      <c r="AF105" s="22"/>
-      <c r="AG105" s="22"/>
-      <c r="AH105" s="22"/>
-      <c r="AI105" s="22"/>
-      <c r="AJ105" s="22"/>
-      <c r="AK105" s="22"/>
-      <c r="AL105" s="22"/>
-      <c r="AM105" s="22"/>
-      <c r="AN105" s="22"/>
-      <c r="AO105" s="22"/>
-      <c r="AP105" s="22"/>
-      <c r="AQ105" s="22"/>
-      <c r="AR105" s="22"/>
-      <c r="AS105" s="22"/>
-      <c r="AT105" s="22"/>
-      <c r="AU105" s="22"/>
-      <c r="AV105" s="22"/>
-      <c r="AW105" s="22"/>
-      <c r="AX105" s="22"/>
-      <c r="AY105" s="22"/>
-      <c r="AZ105" s="22"/>
-      <c r="BA105" s="22"/>
-      <c r="BB105" s="22"/>
-      <c r="BC105" s="22"/>
-      <c r="BD105" s="22"/>
-      <c r="BE105" s="22"/>
-      <c r="BF105" s="22"/>
-      <c r="BG105" s="22"/>
-      <c r="BH105" s="22"/>
-      <c r="BI105" s="22"/>
-      <c r="BJ105" s="22"/>
-      <c r="BK105" s="22"/>
-      <c r="BL105" s="22"/>
-    </row>
-    <row r="106" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N105" s="21"/>
+      <c r="O105" s="21"/>
+      <c r="P105" s="21"/>
+      <c r="Q105" s="21"/>
+      <c r="R105" s="21"/>
+      <c r="S105" s="21"/>
+      <c r="T105" s="21"/>
+      <c r="U105" s="21"/>
+      <c r="V105" s="21"/>
+      <c r="W105" s="21"/>
+      <c r="X105" s="21"/>
+      <c r="Y105" s="21"/>
+      <c r="Z105" s="21"/>
+      <c r="AA105" s="21"/>
+      <c r="AB105" s="21"/>
+      <c r="AC105" s="21"/>
+      <c r="AD105" s="21"/>
+      <c r="AE105" s="21"/>
+      <c r="AF105" s="21"/>
+      <c r="AG105" s="21"/>
+      <c r="AH105" s="21"/>
+      <c r="AI105" s="21"/>
+      <c r="AJ105" s="21"/>
+      <c r="AK105" s="21"/>
+      <c r="AL105" s="21"/>
+      <c r="AM105" s="21"/>
+      <c r="AN105" s="21"/>
+      <c r="AO105" s="21"/>
+      <c r="AP105" s="21"/>
+      <c r="AQ105" s="21"/>
+      <c r="AR105" s="21"/>
+      <c r="AS105" s="21"/>
+      <c r="AT105" s="21"/>
+      <c r="AU105" s="21"/>
+      <c r="AV105" s="21"/>
+      <c r="AW105" s="21"/>
+      <c r="AX105" s="21"/>
+      <c r="AY105" s="21"/>
+      <c r="AZ105" s="21"/>
+      <c r="BA105" s="21"/>
+      <c r="BB105" s="21"/>
+      <c r="BC105" s="21"/>
+      <c r="BD105" s="21"/>
+      <c r="BE105" s="21"/>
+      <c r="BF105" s="21"/>
+      <c r="BG105" s="21"/>
+      <c r="BH105" s="21"/>
+      <c r="BI105" s="21"/>
+      <c r="BJ105" s="21"/>
+      <c r="BK105" s="21"/>
+      <c r="BL105" s="21"/>
+    </row>
+    <row r="106" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B106" s="31" t="s">
         <v>152</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>12</v>
@@ -29490,13 +29449,13 @@
         <v>7</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J106" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K106" s="31" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L106" s="31" t="s">
         <v>153</v>
@@ -29556,15 +29515,15 @@
       <c r="BK106" s="22"/>
       <c r="BL106" s="22"/>
     </row>
-    <row r="107" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B107" s="31" t="s">
         <v>152</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>12</v>
@@ -29582,13 +29541,13 @@
         <v>7</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J107" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K107" s="31" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L107" s="31" t="s">
         <v>153</v>
@@ -29648,148 +29607,148 @@
       <c r="BK107" s="22"/>
       <c r="BL107" s="22"/>
     </row>
-    <row r="108" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B108" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C108" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="D108" s="54" t="s">
+      <c r="C108" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="54" t="s">
+      <c r="E108" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F108" s="54" t="s">
+      <c r="F108" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G108" s="55">
+      <c r="G108" s="24">
         <v>400</v>
       </c>
-      <c r="H108" s="54" t="s">
+      <c r="H108" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I108" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="J108" s="54">
-        <v>1015</v>
-      </c>
-      <c r="K108" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="L108" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="M108" s="69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="I108" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J108" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K108" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L108" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M108" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="N108" s="22"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="22"/>
+      <c r="S108" s="22"/>
+      <c r="T108" s="22"/>
+      <c r="U108" s="22"/>
+      <c r="V108" s="22"/>
+      <c r="W108" s="22"/>
+      <c r="X108" s="22"/>
+      <c r="Y108" s="22"/>
+      <c r="Z108" s="22"/>
+      <c r="AA108" s="22"/>
+      <c r="AB108" s="22"/>
+      <c r="AC108" s="22"/>
+      <c r="AD108" s="22"/>
+      <c r="AE108" s="22"/>
+      <c r="AF108" s="22"/>
+      <c r="AG108" s="22"/>
+      <c r="AH108" s="22"/>
+      <c r="AI108" s="22"/>
+      <c r="AJ108" s="22"/>
+      <c r="AK108" s="22"/>
+      <c r="AL108" s="22"/>
+      <c r="AM108" s="22"/>
+      <c r="AN108" s="22"/>
+      <c r="AO108" s="22"/>
+      <c r="AP108" s="22"/>
+      <c r="AQ108" s="22"/>
+      <c r="AR108" s="22"/>
+      <c r="AS108" s="22"/>
+      <c r="AT108" s="22"/>
+      <c r="AU108" s="22"/>
+      <c r="AV108" s="22"/>
+      <c r="AW108" s="22"/>
+      <c r="AX108" s="22"/>
+      <c r="AY108" s="22"/>
+      <c r="AZ108" s="22"/>
+      <c r="BA108" s="22"/>
+      <c r="BB108" s="22"/>
+      <c r="BC108" s="22"/>
+      <c r="BD108" s="22"/>
+      <c r="BE108" s="22"/>
+      <c r="BF108" s="22"/>
+      <c r="BG108" s="22"/>
+      <c r="BH108" s="22"/>
+      <c r="BI108" s="22"/>
+      <c r="BJ108" s="22"/>
+      <c r="BK108" s="22"/>
+      <c r="BL108" s="22"/>
+    </row>
+    <row r="109" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B109" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D109" s="4" t="s">
+      <c r="C109" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="D109" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="G109" s="24">
-        <v>404</v>
-      </c>
-      <c r="H109" s="4" t="s">
+      <c r="G109" s="55">
+        <v>400</v>
+      </c>
+      <c r="H109" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I109" s="4" t="s">
+      <c r="I109" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="J109" s="10">
-        <v>1006</v>
-      </c>
-      <c r="K109" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L109" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="M109" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="N109" s="22"/>
-      <c r="O109" s="22"/>
-      <c r="P109" s="22"/>
-      <c r="Q109" s="22"/>
-      <c r="R109" s="22"/>
-      <c r="S109" s="22"/>
-      <c r="T109" s="22"/>
-      <c r="U109" s="22"/>
-      <c r="V109" s="22"/>
-      <c r="W109" s="22"/>
-      <c r="X109" s="22"/>
-      <c r="Y109" s="22"/>
-      <c r="Z109" s="22"/>
-      <c r="AA109" s="22"/>
-      <c r="AB109" s="22"/>
-      <c r="AC109" s="22"/>
-      <c r="AD109" s="22"/>
-      <c r="AE109" s="22"/>
-      <c r="AF109" s="22"/>
-      <c r="AG109" s="22"/>
-      <c r="AH109" s="22"/>
-      <c r="AI109" s="22"/>
-      <c r="AJ109" s="22"/>
-      <c r="AK109" s="22"/>
-      <c r="AL109" s="22"/>
-      <c r="AM109" s="22"/>
-      <c r="AN109" s="22"/>
-      <c r="AO109" s="22"/>
-      <c r="AP109" s="22"/>
-      <c r="AQ109" s="22"/>
-      <c r="AR109" s="22"/>
-      <c r="AS109" s="22"/>
-      <c r="AT109" s="22"/>
-      <c r="AU109" s="22"/>
-      <c r="AV109" s="22"/>
-      <c r="AW109" s="22"/>
-      <c r="AX109" s="22"/>
-      <c r="AY109" s="22"/>
-      <c r="AZ109" s="22"/>
-      <c r="BA109" s="22"/>
-      <c r="BB109" s="22"/>
-      <c r="BC109" s="22"/>
-      <c r="BD109" s="22"/>
-      <c r="BE109" s="22"/>
-      <c r="BF109" s="22"/>
-      <c r="BG109" s="22"/>
-      <c r="BH109" s="22"/>
-      <c r="BI109" s="22"/>
-      <c r="BJ109" s="22"/>
-      <c r="BK109" s="22"/>
-      <c r="BL109" s="22"/>
+      <c r="J109" s="54">
+        <v>1015</v>
+      </c>
+      <c r="K109" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="L109" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="M109" s="69" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="110" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B110" s="31" t="s">
         <v>152</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>12</v>
@@ -29807,13 +29766,13 @@
         <v>7</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J110" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K110" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L110" s="31" t="s">
         <v>153</v>
@@ -29873,15 +29832,15 @@
       <c r="BK110" s="22"/>
       <c r="BL110" s="22"/>
     </row>
-    <row r="111" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B111" s="31" t="s">
         <v>152</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>12</v>
@@ -29893,7 +29852,7 @@
         <v>159</v>
       </c>
       <c r="G111" s="24">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>7</v>
@@ -29902,10 +29861,10 @@
         <v>35</v>
       </c>
       <c r="J111" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K111" s="31" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="L111" s="31" t="s">
         <v>153</v>
@@ -29967,15 +29926,15 @@
     </row>
     <row r="112" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B112" s="31" t="s">
         <v>152</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D112" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E112" s="4" t="s">
@@ -29991,19 +29950,19 @@
         <v>7</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J112" s="4">
-        <v>1011</v>
-      </c>
-      <c r="K112" s="33" t="s">
-        <v>83</v>
+        <v>35</v>
+      </c>
+      <c r="J112" s="10">
+        <v>1008</v>
+      </c>
+      <c r="K112" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="L112" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="M112" s="33" t="s">
-        <v>50</v>
+      <c r="M112" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="N112" s="22"/>
       <c r="O112" s="22"/>
@@ -30059,15 +30018,15 @@
     </row>
     <row r="113" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B113" s="31" t="s">
         <v>152</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D113" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D113" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E113" s="4" t="s">
@@ -30077,7 +30036,7 @@
         <v>159</v>
       </c>
       <c r="G113" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>7</v>
@@ -30085,17 +30044,17 @@
       <c r="I113" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J113" s="10">
-        <v>4001</v>
-      </c>
-      <c r="K113" s="31" t="s">
-        <v>19</v>
+      <c r="J113" s="4">
+        <v>1011</v>
+      </c>
+      <c r="K113" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="L113" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="M113" s="31" t="s">
-        <v>71</v>
+      <c r="M113" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="N113" s="22"/>
       <c r="O113" s="22"/>
@@ -30149,45 +30108,45 @@
       <c r="BK113" s="22"/>
       <c r="BL113" s="22"/>
     </row>
-    <row r="114" spans="1:64" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>125</v>
-      </c>
-      <c r="B114" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C114" s="53" t="s">
-        <v>219</v>
-      </c>
-      <c r="D114" s="54" t="s">
+      <c r="C114" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E114" s="54" t="s">
+      <c r="E114" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F114" s="54" t="s">
+      <c r="F114" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G114" s="55">
+      <c r="G114" s="24">
         <v>400</v>
       </c>
-      <c r="H114" s="54" t="s">
+      <c r="H114" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I114" s="55" t="s">
+      <c r="I114" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J114" s="54">
-        <v>4004</v>
-      </c>
-      <c r="K114" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="L114" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="M114" s="69" t="s">
-        <v>12</v>
+      <c r="J114" s="10">
+        <v>4001</v>
+      </c>
+      <c r="K114" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L114" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M114" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="N114" s="22"/>
       <c r="O114" s="22"/>
@@ -30241,126 +30200,177 @@
       <c r="BK114" s="22"/>
       <c r="BL114" s="22"/>
     </row>
-    <row r="115" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="79" t="s">
+    <row r="115" spans="1:64" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>125</v>
+      </c>
+      <c r="B115" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="C115" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="D115" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="F115" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="G115" s="55">
+        <v>400</v>
+      </c>
+      <c r="H115" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="I115" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="J115" s="54">
+        <v>4004</v>
+      </c>
+      <c r="K115" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="L115" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M115" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="22"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="22"/>
+      <c r="Q115" s="22"/>
+      <c r="R115" s="22"/>
+      <c r="S115" s="22"/>
+      <c r="T115" s="22"/>
+      <c r="U115" s="22"/>
+      <c r="V115" s="22"/>
+      <c r="W115" s="22"/>
+      <c r="X115" s="22"/>
+      <c r="Y115" s="22"/>
+      <c r="Z115" s="22"/>
+      <c r="AA115" s="22"/>
+      <c r="AB115" s="22"/>
+      <c r="AC115" s="22"/>
+      <c r="AD115" s="22"/>
+      <c r="AE115" s="22"/>
+      <c r="AF115" s="22"/>
+      <c r="AG115" s="22"/>
+      <c r="AH115" s="22"/>
+      <c r="AI115" s="22"/>
+      <c r="AJ115" s="22"/>
+      <c r="AK115" s="22"/>
+      <c r="AL115" s="22"/>
+      <c r="AM115" s="22"/>
+      <c r="AN115" s="22"/>
+      <c r="AO115" s="22"/>
+      <c r="AP115" s="22"/>
+      <c r="AQ115" s="22"/>
+      <c r="AR115" s="22"/>
+      <c r="AS115" s="22"/>
+      <c r="AT115" s="22"/>
+      <c r="AU115" s="22"/>
+      <c r="AV115" s="22"/>
+      <c r="AW115" s="22"/>
+      <c r="AX115" s="22"/>
+      <c r="AY115" s="22"/>
+      <c r="AZ115" s="22"/>
+      <c r="BA115" s="22"/>
+      <c r="BB115" s="22"/>
+      <c r="BC115" s="22"/>
+      <c r="BD115" s="22"/>
+      <c r="BE115" s="22"/>
+      <c r="BF115" s="22"/>
+      <c r="BG115" s="22"/>
+      <c r="BH115" s="22"/>
+      <c r="BI115" s="22"/>
+      <c r="BJ115" s="22"/>
+      <c r="BK115" s="22"/>
+      <c r="BL115" s="22"/>
+    </row>
+    <row r="116" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="B115" s="79"/>
-      <c r="C115" s="79"/>
-      <c r="D115" s="79"/>
-      <c r="E115" s="79"/>
-      <c r="F115" s="79"/>
-      <c r="G115" s="79"/>
-      <c r="H115" s="79"/>
-      <c r="I115" s="79"/>
-      <c r="J115" s="79"/>
-      <c r="K115" s="79"/>
-      <c r="L115" s="79"/>
-      <c r="M115" s="79"/>
-      <c r="N115" s="21"/>
-      <c r="O115" s="21"/>
-      <c r="P115" s="21"/>
-      <c r="Q115" s="21"/>
-      <c r="R115" s="21"/>
-      <c r="S115" s="21"/>
-      <c r="T115" s="21"/>
-      <c r="U115" s="21"/>
-      <c r="V115" s="21"/>
-      <c r="W115" s="21"/>
-      <c r="X115" s="21"/>
-      <c r="Y115" s="21"/>
-      <c r="Z115" s="21"/>
-      <c r="AA115" s="21"/>
-      <c r="AB115" s="21"/>
-      <c r="AC115" s="21"/>
-      <c r="AD115" s="21"/>
-      <c r="AE115" s="21"/>
-      <c r="AF115" s="21"/>
-      <c r="AG115" s="21"/>
-      <c r="AH115" s="21"/>
-      <c r="AI115" s="21"/>
-      <c r="AJ115" s="21"/>
-      <c r="AK115" s="21"/>
-      <c r="AL115" s="21"/>
-      <c r="AM115" s="21"/>
-      <c r="AN115" s="21"/>
-      <c r="AO115" s="21"/>
-      <c r="AP115" s="21"/>
-      <c r="AQ115" s="21"/>
-      <c r="AR115" s="21"/>
-      <c r="AS115" s="21"/>
-      <c r="AT115" s="21"/>
-      <c r="AU115" s="21"/>
-      <c r="AV115" s="21"/>
-      <c r="AW115" s="21"/>
-      <c r="AX115" s="21"/>
-      <c r="AY115" s="21"/>
-      <c r="AZ115" s="21"/>
-      <c r="BA115" s="21"/>
-      <c r="BB115" s="21"/>
-      <c r="BC115" s="21"/>
-      <c r="BD115" s="21"/>
-      <c r="BE115" s="21"/>
-      <c r="BF115" s="21"/>
-      <c r="BG115" s="21"/>
-      <c r="BH115" s="21"/>
-      <c r="BI115" s="21"/>
-      <c r="BJ115" s="21"/>
-      <c r="BK115" s="21"/>
-      <c r="BL115" s="21"/>
-    </row>
-    <row r="116" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A116" s="4">
-        <v>97</v>
-      </c>
-      <c r="B116" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G116" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J116" s="8">
-        <v>4002</v>
-      </c>
-      <c r="K116" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="L116" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="M116" s="32" t="s">
-        <v>70</v>
-      </c>
+      <c r="B116" s="79"/>
+      <c r="C116" s="79"/>
+      <c r="D116" s="79"/>
+      <c r="E116" s="79"/>
+      <c r="F116" s="79"/>
+      <c r="G116" s="79"/>
+      <c r="H116" s="79"/>
+      <c r="I116" s="79"/>
+      <c r="J116" s="79"/>
+      <c r="K116" s="79"/>
+      <c r="L116" s="79"/>
+      <c r="M116" s="79"/>
+      <c r="N116" s="21"/>
+      <c r="O116" s="21"/>
+      <c r="P116" s="21"/>
+      <c r="Q116" s="21"/>
+      <c r="R116" s="21"/>
+      <c r="S116" s="21"/>
+      <c r="T116" s="21"/>
+      <c r="U116" s="21"/>
+      <c r="V116" s="21"/>
+      <c r="W116" s="21"/>
+      <c r="X116" s="21"/>
+      <c r="Y116" s="21"/>
+      <c r="Z116" s="21"/>
+      <c r="AA116" s="21"/>
+      <c r="AB116" s="21"/>
+      <c r="AC116" s="21"/>
+      <c r="AD116" s="21"/>
+      <c r="AE116" s="21"/>
+      <c r="AF116" s="21"/>
+      <c r="AG116" s="21"/>
+      <c r="AH116" s="21"/>
+      <c r="AI116" s="21"/>
+      <c r="AJ116" s="21"/>
+      <c r="AK116" s="21"/>
+      <c r="AL116" s="21"/>
+      <c r="AM116" s="21"/>
+      <c r="AN116" s="21"/>
+      <c r="AO116" s="21"/>
+      <c r="AP116" s="21"/>
+      <c r="AQ116" s="21"/>
+      <c r="AR116" s="21"/>
+      <c r="AS116" s="21"/>
+      <c r="AT116" s="21"/>
+      <c r="AU116" s="21"/>
+      <c r="AV116" s="21"/>
+      <c r="AW116" s="21"/>
+      <c r="AX116" s="21"/>
+      <c r="AY116" s="21"/>
+      <c r="AZ116" s="21"/>
+      <c r="BA116" s="21"/>
+      <c r="BB116" s="21"/>
+      <c r="BC116" s="21"/>
+      <c r="BD116" s="21"/>
+      <c r="BE116" s="21"/>
+      <c r="BF116" s="21"/>
+      <c r="BG116" s="21"/>
+      <c r="BH116" s="21"/>
+      <c r="BI116" s="21"/>
+      <c r="BJ116" s="21"/>
+      <c r="BK116" s="21"/>
+      <c r="BL116" s="21"/>
     </row>
     <row r="117" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B117" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C117" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D117" s="27" t="s">
+      <c r="C117" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E117" s="5" t="s">
@@ -30375,31 +30385,31 @@
       <c r="H117" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I117" s="27" t="s">
+      <c r="I117" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J117" s="27">
-        <v>4003</v>
+      <c r="J117" s="8">
+        <v>4002</v>
       </c>
       <c r="K117" s="33" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="L117" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="M117" s="34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M117" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B118" s="32" t="s">
         <v>152</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="D118" s="27" t="s">
         <v>12</v>
@@ -30420,235 +30430,235 @@
         <v>35</v>
       </c>
       <c r="J118" s="27">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="K118" s="33" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="L118" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="M118" s="32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="119" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M118" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B119" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D119" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G119" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I119" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J119" s="27">
+        <v>4004</v>
+      </c>
+      <c r="K119" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="L119" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="M119" s="32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>99</v>
+      </c>
+      <c r="B120" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D120" s="4">
         <v>8</v>
       </c>
-      <c r="E119" s="24" t="s">
+      <c r="E120" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F119" s="24" t="s">
+      <c r="F120" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G119" s="24" t="s">
+      <c r="G120" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H119" s="4" t="s">
+      <c r="H120" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I119" s="4" t="s">
+      <c r="I120" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J119" s="4">
+      <c r="J120" s="4">
         <v>1010</v>
       </c>
-      <c r="K119" s="31" t="s">
+      <c r="K120" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L119" s="31" t="s">
+      <c r="L120" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="M119" s="31" t="s">
+      <c r="M120" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="N119" s="22"/>
-      <c r="O119" s="22"/>
-      <c r="P119" s="22"/>
-      <c r="Q119" s="22"/>
-      <c r="R119" s="22"/>
-      <c r="S119" s="22"/>
-      <c r="T119" s="22"/>
-      <c r="U119" s="22"/>
-      <c r="V119" s="22"/>
-      <c r="W119" s="22"/>
-      <c r="X119" s="22"/>
-      <c r="Y119" s="22"/>
-      <c r="Z119" s="22"/>
-      <c r="AA119" s="22"/>
-      <c r="AB119" s="22"/>
-      <c r="AC119" s="22"/>
-      <c r="AD119" s="22"/>
-      <c r="AE119" s="22"/>
-      <c r="AF119" s="22"/>
-      <c r="AG119" s="22"/>
-      <c r="AH119" s="22"/>
-      <c r="AI119" s="22"/>
-      <c r="AJ119" s="22"/>
-      <c r="AK119" s="22"/>
-      <c r="AL119" s="22"/>
-      <c r="AM119" s="22"/>
-      <c r="AN119" s="22"/>
-      <c r="AO119" s="22"/>
-      <c r="AP119" s="22"/>
-      <c r="AQ119" s="22"/>
-      <c r="AR119" s="22"/>
-      <c r="AS119" s="22"/>
-      <c r="AT119" s="22"/>
-      <c r="AU119" s="22"/>
-      <c r="AV119" s="22"/>
-      <c r="AW119" s="22"/>
-      <c r="AX119" s="22"/>
-      <c r="AY119" s="22"/>
-      <c r="AZ119" s="22"/>
-      <c r="BA119" s="22"/>
-      <c r="BB119" s="22"/>
-      <c r="BC119" s="22"/>
-      <c r="BD119" s="22"/>
-      <c r="BE119" s="22"/>
-      <c r="BF119" s="22"/>
-      <c r="BG119" s="22"/>
-      <c r="BH119" s="22"/>
-      <c r="BI119" s="22"/>
-      <c r="BJ119" s="22"/>
-      <c r="BK119" s="22"/>
-      <c r="BL119" s="22"/>
-    </row>
-    <row r="120" spans="1:64" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A120" s="62">
+      <c r="N120" s="22"/>
+      <c r="O120" s="22"/>
+      <c r="P120" s="22"/>
+      <c r="Q120" s="22"/>
+      <c r="R120" s="22"/>
+      <c r="S120" s="22"/>
+      <c r="T120" s="22"/>
+      <c r="U120" s="22"/>
+      <c r="V120" s="22"/>
+      <c r="W120" s="22"/>
+      <c r="X120" s="22"/>
+      <c r="Y120" s="22"/>
+      <c r="Z120" s="22"/>
+      <c r="AA120" s="22"/>
+      <c r="AB120" s="22"/>
+      <c r="AC120" s="22"/>
+      <c r="AD120" s="22"/>
+      <c r="AE120" s="22"/>
+      <c r="AF120" s="22"/>
+      <c r="AG120" s="22"/>
+      <c r="AH120" s="22"/>
+      <c r="AI120" s="22"/>
+      <c r="AJ120" s="22"/>
+      <c r="AK120" s="22"/>
+      <c r="AL120" s="22"/>
+      <c r="AM120" s="22"/>
+      <c r="AN120" s="22"/>
+      <c r="AO120" s="22"/>
+      <c r="AP120" s="22"/>
+      <c r="AQ120" s="22"/>
+      <c r="AR120" s="22"/>
+      <c r="AS120" s="22"/>
+      <c r="AT120" s="22"/>
+      <c r="AU120" s="22"/>
+      <c r="AV120" s="22"/>
+      <c r="AW120" s="22"/>
+      <c r="AX120" s="22"/>
+      <c r="AY120" s="22"/>
+      <c r="AZ120" s="22"/>
+      <c r="BA120" s="22"/>
+      <c r="BB120" s="22"/>
+      <c r="BC120" s="22"/>
+      <c r="BD120" s="22"/>
+      <c r="BE120" s="22"/>
+      <c r="BF120" s="22"/>
+      <c r="BG120" s="22"/>
+      <c r="BH120" s="22"/>
+      <c r="BI120" s="22"/>
+      <c r="BJ120" s="22"/>
+      <c r="BK120" s="22"/>
+      <c r="BL120" s="22"/>
+    </row>
+    <row r="121" spans="1:64" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A121" s="62">
         <v>101</v>
       </c>
-      <c r="B120" s="63" t="s">
+      <c r="B121" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="C120" s="65" t="s">
+      <c r="C121" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="D120" s="66" t="s">
+      <c r="D121" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E120" s="62" t="s">
+      <c r="E121" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="F120" s="62" t="s">
+      <c r="F121" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="G120" s="62" t="s">
+      <c r="G121" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H120" s="62" t="s">
+      <c r="H121" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I120" s="66" t="s">
+      <c r="I121" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J120" s="62">
+      <c r="J121" s="62">
         <v>1002</v>
       </c>
-      <c r="K120" s="63" t="s">
+      <c r="K121" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="L120" s="63" t="s">
+      <c r="L121" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="M120" s="67" t="s">
+      <c r="M121" s="67" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="121" spans="1:64" ht="18" x14ac:dyDescent="0.3">
-      <c r="A121" s="78" t="s">
+    <row r="122" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+      <c r="A122" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="B121" s="78"/>
-      <c r="C121" s="78"/>
-      <c r="D121" s="78"/>
-      <c r="E121" s="78"/>
-      <c r="F121" s="78"/>
-      <c r="G121" s="78"/>
-      <c r="H121" s="78"/>
-      <c r="I121" s="78"/>
-      <c r="J121" s="78"/>
-      <c r="K121" s="78"/>
-      <c r="L121" s="78"/>
-      <c r="M121" s="78"/>
-    </row>
-    <row r="122" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A122" s="79" t="s">
+      <c r="B122" s="78"/>
+      <c r="C122" s="78"/>
+      <c r="D122" s="78"/>
+      <c r="E122" s="78"/>
+      <c r="F122" s="78"/>
+      <c r="G122" s="78"/>
+      <c r="H122" s="78"/>
+      <c r="I122" s="78"/>
+      <c r="J122" s="78"/>
+      <c r="K122" s="78"/>
+      <c r="L122" s="78"/>
+      <c r="M122" s="78"/>
+    </row>
+    <row r="123" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A123" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="B122" s="79"/>
-      <c r="C122" s="79"/>
-      <c r="D122" s="79"/>
-      <c r="E122" s="79"/>
-      <c r="F122" s="79"/>
-      <c r="G122" s="79"/>
-      <c r="H122" s="79"/>
-      <c r="I122" s="79"/>
-      <c r="J122" s="79"/>
-      <c r="K122" s="79"/>
-      <c r="L122" s="79"/>
-      <c r="M122" s="79"/>
-    </row>
-    <row r="123" spans="1:64" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="4">
+      <c r="B123" s="79"/>
+      <c r="C123" s="79"/>
+      <c r="D123" s="79"/>
+      <c r="E123" s="79"/>
+      <c r="F123" s="79"/>
+      <c r="G123" s="79"/>
+      <c r="H123" s="79"/>
+      <c r="I123" s="79"/>
+      <c r="J123" s="79"/>
+      <c r="K123" s="79"/>
+      <c r="L123" s="79"/>
+      <c r="M123" s="79"/>
+    </row>
+    <row r="124" spans="1:64" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
         <v>102</v>
-      </c>
-      <c r="B123" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C123" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G123" s="24">
-        <v>401</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J123" s="4">
-        <v>1012</v>
-      </c>
-      <c r="K123" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="L123" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M123" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="4">
-        <v>103</v>
       </c>
       <c r="B124" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="C124" s="23" t="s">
-        <v>167</v>
+      <c r="C124" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>12</v>
@@ -30669,27 +30679,27 @@
         <v>38</v>
       </c>
       <c r="J124" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K124" s="23" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L124" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M124" s="48" t="s">
+      <c r="M124" s="50" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B125" s="33" t="s">
         <v>199</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>12</v>
@@ -30710,68 +30720,68 @@
         <v>38</v>
       </c>
       <c r="J125" s="4">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K125" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L125" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M125" s="31" t="s">
+      <c r="M125" s="48" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B126" s="33" t="s">
         <v>199</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D126" s="24">
-        <v>201</v>
-      </c>
-      <c r="E126" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F126" s="24" t="s">
+      <c r="F126" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G126" s="45">
-        <v>400</v>
-      </c>
-      <c r="H126" s="24" t="s">
+      <c r="G126" s="24">
+        <v>401</v>
+      </c>
+      <c r="H126" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I126" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J126" s="41">
-        <v>1003</v>
-      </c>
-      <c r="K126" s="33" t="s">
-        <v>14</v>
+      <c r="I126" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J126" s="4">
+        <v>1014</v>
+      </c>
+      <c r="K126" s="23" t="s">
+        <v>168</v>
       </c>
       <c r="L126" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="M126" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="127" spans="1:64" ht="46.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="M126" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B127" s="33" t="s">
         <v>199</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="D127" s="24">
         <v>201</v>
@@ -30789,13 +30799,13 @@
         <v>7</v>
       </c>
       <c r="I127" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="J127" s="25">
-        <v>1004</v>
+        <v>35</v>
+      </c>
+      <c r="J127" s="41">
+        <v>1003</v>
       </c>
       <c r="K127" s="33" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L127" s="33" t="s">
         <v>63</v>
@@ -30804,97 +30814,97 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:64" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B128" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="C128" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="D128" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128" s="54" t="s">
+      <c r="C128" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D128" s="24">
+        <v>201</v>
+      </c>
+      <c r="E128" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F128" s="54" t="s">
+      <c r="F128" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G128" s="55">
+      <c r="G128" s="45">
         <v>400</v>
       </c>
-      <c r="H128" s="54" t="s">
+      <c r="H128" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I128" s="55" t="s">
+      <c r="I128" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J128" s="54">
-        <v>1015</v>
-      </c>
-      <c r="K128" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="L128" s="53" t="s">
+      <c r="J128" s="25">
+        <v>1004</v>
+      </c>
+      <c r="K128" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L128" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="M128" s="69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M128" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B129" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="C129" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D129" s="24">
-        <v>202</v>
-      </c>
-      <c r="E129" s="24" t="s">
+      <c r="C129" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="D129" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="F129" s="24" t="s">
+      <c r="F129" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="G129" s="45">
-        <v>403</v>
-      </c>
-      <c r="H129" s="24" t="s">
+      <c r="G129" s="55">
+        <v>400</v>
+      </c>
+      <c r="H129" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I129" s="24" t="s">
+      <c r="I129" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="J129" s="25">
-        <v>1006</v>
-      </c>
-      <c r="K129" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L129" s="33" t="s">
+      <c r="J129" s="54">
+        <v>1015</v>
+      </c>
+      <c r="K129" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="L129" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="M129" s="33" t="s">
-        <v>50</v>
+      <c r="M129" s="69" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B130" s="33" t="s">
         <v>199</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D130" s="24">
         <v>202</v>
@@ -30912,13 +30922,13 @@
         <v>7</v>
       </c>
       <c r="I130" s="24" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J130" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K130" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L130" s="33" t="s">
         <v>63</v>
@@ -30927,15 +30937,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B131" s="33" t="s">
         <v>199</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D131" s="24">
         <v>202</v>
@@ -30956,10 +30966,10 @@
         <v>35</v>
       </c>
       <c r="J131" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K131" s="33" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="L131" s="33" t="s">
         <v>63</v>
@@ -30968,15 +30978,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B132" s="33" t="s">
         <v>199</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D132" s="24">
         <v>202</v>
@@ -30987,7 +30997,7 @@
       <c r="F132" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G132" s="24">
+      <c r="G132" s="45">
         <v>403</v>
       </c>
       <c r="H132" s="24" t="s">
@@ -30996,11 +31006,11 @@
       <c r="I132" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J132" s="71">
-        <v>5001</v>
+      <c r="J132" s="25">
+        <v>1008</v>
       </c>
       <c r="K132" s="33" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="L132" s="33" t="s">
         <v>63</v>
@@ -31009,15 +31019,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B133" s="33" t="s">
         <v>199</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="D133" s="24">
         <v>202</v>
@@ -31028,20 +31038,20 @@
       <c r="F133" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G133" s="45">
+      <c r="G133" s="24">
         <v>403</v>
       </c>
       <c r="H133" s="24" t="s">
         <v>7</v>
       </c>
       <c r="I133" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J133" s="24">
-        <v>1011</v>
+        <v>35</v>
+      </c>
+      <c r="J133" s="71">
+        <v>5001</v>
       </c>
       <c r="K133" s="33" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="L133" s="33" t="s">
         <v>63</v>
@@ -31050,100 +31060,100 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B134" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D134" s="24">
         <v>202</v>
       </c>
-      <c r="D134" s="4">
-        <v>203</v>
-      </c>
-      <c r="E134" s="4" t="s">
+      <c r="E134" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G134" s="24">
-        <v>400</v>
-      </c>
-      <c r="H134" s="4" t="s">
+      <c r="G134" s="45">
+        <v>403</v>
+      </c>
+      <c r="H134" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I134" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J134" s="10">
-        <v>3002</v>
-      </c>
-      <c r="K134" s="31" t="s">
-        <v>203</v>
+      <c r="I134" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J134" s="24">
+        <v>1011</v>
+      </c>
+      <c r="K134" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="L134" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="M134" s="31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="62">
-        <v>113</v>
-      </c>
-      <c r="B135" s="63" t="s">
+      <c r="M134" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" s="4">
+        <v>112</v>
+      </c>
+      <c r="B135" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="C135" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="D135" s="62">
+      <c r="C135" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D135" s="4">
         <v>203</v>
       </c>
-      <c r="E135" s="62" t="s">
+      <c r="E135" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F135" s="62" t="s">
+      <c r="F135" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G135" s="62">
+      <c r="G135" s="24">
         <v>400</v>
       </c>
-      <c r="H135" s="62" t="s">
+      <c r="H135" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I135" s="62" t="s">
+      <c r="I135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J135" s="62">
-        <v>1002</v>
-      </c>
-      <c r="K135" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="L135" s="63" t="s">
+      <c r="J135" s="10">
+        <v>3002</v>
+      </c>
+      <c r="K135" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="L135" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="M135" s="63" t="s">
+      <c r="M135" s="31" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="62">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B136" s="63" t="s">
         <v>199</v>
       </c>
       <c r="C136" s="64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D136" s="62">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E136" s="62" t="s">
         <v>159</v>
@@ -31170,60 +31180,62 @@
         <v>63</v>
       </c>
       <c r="M136" s="63" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="27">
-        <v>115</v>
-      </c>
-      <c r="B137" s="33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="62">
+        <v>133</v>
+      </c>
+      <c r="B137" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="C137" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="D137" s="4">
-        <v>203</v>
-      </c>
-      <c r="E137" s="4" t="s">
+      <c r="C137" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D137" s="62">
+        <v>204</v>
+      </c>
+      <c r="E137" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F137" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="G137" s="24">
+      <c r="G137" s="62">
         <v>400</v>
       </c>
       <c r="H137" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I137" s="4" t="s">
+      <c r="I137" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="J137" s="27">
-        <v>3003</v>
-      </c>
-      <c r="K137" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="L137" s="34"/>
-      <c r="M137" s="31" t="s">
-        <v>204</v>
+      <c r="J137" s="62">
+        <v>1002</v>
+      </c>
+      <c r="K137" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="L137" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="M137" s="63" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="27">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B138" s="33" t="s">
         <v>199</v>
       </c>
       <c r="C138" s="61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D138" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>159</v>
@@ -31241,28 +31253,28 @@
         <v>11</v>
       </c>
       <c r="J138" s="27">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="K138" s="61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L138" s="34"/>
-      <c r="M138" s="60" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="60.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="8">
-        <v>117</v>
+      <c r="M138" s="31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="27">
+        <v>131</v>
       </c>
       <c r="B139" s="33" t="s">
         <v>199</v>
       </c>
       <c r="C139" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>12</v>
+        <v>226</v>
+      </c>
+      <c r="D139" s="4">
+        <v>204</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>159</v>
@@ -31280,28 +31292,28 @@
         <v>11</v>
       </c>
       <c r="J139" s="27">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="K139" s="61" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L139" s="34"/>
       <c r="M139" s="60" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B140" s="33" t="s">
         <v>199</v>
       </c>
       <c r="C140" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="D140" s="4">
-        <v>203</v>
+        <v>231</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>159</v>
@@ -31319,28 +31331,28 @@
         <v>11</v>
       </c>
       <c r="J140" s="27">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="K140" s="61" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L140" s="34"/>
-      <c r="M140" s="61" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="27">
-        <v>119</v>
+      <c r="M140" s="60" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="8">
+        <v>128</v>
       </c>
       <c r="B141" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="C141" s="73" t="s">
-        <v>235</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>12</v>
+      <c r="C141" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="D141" s="4">
+        <v>203</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>159</v>
@@ -31348,8 +31360,8 @@
       <c r="F141" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G141" s="71">
-        <v>404</v>
+      <c r="G141" s="24">
+        <v>400</v>
       </c>
       <c r="H141" s="62" t="s">
         <v>7</v>
@@ -31357,31 +31369,55 @@
       <c r="I141" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J141" s="72">
-        <v>3007</v>
-      </c>
-      <c r="K141" s="73" t="s">
-        <v>235</v>
+      <c r="J141" s="27">
+        <v>3006</v>
+      </c>
+      <c r="K141" s="61" t="s">
+        <v>228</v>
       </c>
       <c r="L141" s="34"/>
       <c r="M141" s="61" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A142" s="20"/>
-      <c r="B142" s="21"/>
-      <c r="C142" s="22"/>
-      <c r="D142" s="20"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="46"/>
-      <c r="H142" s="20"/>
-      <c r="I142" s="20"/>
-      <c r="J142" s="20"/>
-      <c r="K142" s="35"/>
-      <c r="L142" s="21"/>
-      <c r="M142" s="21"/>
+    <row r="142" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="27">
+        <v>129</v>
+      </c>
+      <c r="B142" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C142" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G142" s="71">
+        <v>404</v>
+      </c>
+      <c r="H142" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J142" s="72">
+        <v>3007</v>
+      </c>
+      <c r="K142" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="L142" s="34"/>
+      <c r="M142" s="61" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="20"/>
@@ -35988,33 +36024,48 @@
       <c r="L449" s="21"/>
       <c r="M449" s="21"/>
     </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A450" s="20"/>
+      <c r="B450" s="21"/>
+      <c r="C450" s="22"/>
+      <c r="D450" s="20"/>
+      <c r="E450" s="20"/>
+      <c r="F450" s="20"/>
+      <c r="G450" s="46"/>
+      <c r="H450" s="20"/>
+      <c r="I450" s="20"/>
+      <c r="J450" s="20"/>
+      <c r="K450" s="35"/>
+      <c r="L450" s="21"/>
+      <c r="M450" s="21"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="A121:M121"/>
-    <mergeCell ref="A122:M122"/>
-    <mergeCell ref="A115:M115"/>
-    <mergeCell ref="A98:M98"/>
-    <mergeCell ref="A101:M101"/>
-    <mergeCell ref="A83:M83"/>
-    <mergeCell ref="A82:M82"/>
-    <mergeCell ref="A100:M100"/>
-    <mergeCell ref="A70:M70"/>
-    <mergeCell ref="A57:M57"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A56:M56"/>
-    <mergeCell ref="A69:M69"/>
+    <mergeCell ref="A57:M57"/>
+    <mergeCell ref="A70:M70"/>
+    <mergeCell ref="A84:M84"/>
+    <mergeCell ref="A83:M83"/>
+    <mergeCell ref="A101:M101"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A122:M122"/>
+    <mergeCell ref="A123:M123"/>
+    <mergeCell ref="A116:M116"/>
+    <mergeCell ref="A99:M99"/>
+    <mergeCell ref="A102:M102"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H64:H68 H48:H54 H109:H113 H91:H97 H77:H81 H99 H21 H116:H120 H7:H8 H61:H62 H74:H75 H87:H89 H105:H107 H126:H127 H10:H16 H23:H46 H129:H141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65:H69 H49:H55 H110:H114 H92:H98 H78:H82 H100 H21 H117:H121 H7:H8 H62:H63 H75:H76 H88:H90 H106:H108 H127:H128 H10:H16 H130:H142 H23:H47">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I48:I54 I64:I68 I116 I91:I97 I77:I81 I99 I21 I119 I7:I8 I61:I62 I74:I75 I87:I89 I105:I107 I126:I127 I10:I16 I109:I113 I129:I141 I23:I46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:I55 I65:I69 I117 I92:I98 I78:I82 I100 I21 I120 I7:I8 I62:I63 I75:I76 I88:I90 I106:I108 I127:I128 I10:I16 I110:I114 I130:I142 I23:I47">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J64:J68 J10:J14 J77:J81 J38:J45 J99 J119 J91:J96 J116 J48:J52 J133:J134 J129:J131 J21 J7:J8 J61:J62 J74:J75 J87:J89 J105:J107 J126:J127 J16 J109:J113 J23:J36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J65:J69 J10:J14 J78:J82 J39:J46 J100 J120 J92:J97 J117 J49:J53 J134:J135 J130:J132 J21 J7:J8 J62:J63 J75:J76 J88:J90 J106:J108 J127:J128 J16 J110:J114 J23:J34 J36:J37">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -36026,8 +36077,8 @@
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="21" max="16383" man="1"/>
-    <brk id="55" max="16383" man="1"/>
-    <brk id="81" max="9" man="1"/>
+    <brk id="56" max="16383" man="1"/>
+    <brk id="82" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -11,9 +11,9 @@
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$A$1:$M$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$A$1:$M$124</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$K$117</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$K$121</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="245">
   <si>
     <t>Payslip</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>CheckPayrollSubmissionRequest - Validation</t>
-  </si>
-  <si>
-    <t>AgentTain</t>
   </si>
   <si>
     <t>EmployerRegistrationNumber</t>
@@ -524,12 +521,6 @@
     <t>LookupRPNRequest</t>
   </si>
   <si>
-    <t>Range Parameters must be within the range of the Total RPN Count.</t>
-  </si>
-  <si>
-    <t>RangeParameters selected are outside the range of RPN available.</t>
-  </si>
-  <si>
     <t>NewRPNRequest - Validation</t>
   </si>
   <si>
@@ -736,9 +727,6 @@
     <t>BatchReference.count</t>
   </si>
   <si>
-    <t>Only one RPN can be created for each employment.</t>
-  </si>
-  <si>
     <t>Invalid previous line item</t>
   </si>
   <si>
@@ -788,6 +776,42 @@
   </si>
   <si>
     <t>Employee's Date of Birth is mandatory if the PPSN is not available</t>
+  </si>
+  <si>
+    <t>From should not be negative</t>
+  </si>
+  <si>
+    <t>To cannot be zero or empty.</t>
+  </si>
+  <si>
+    <t>From should be less than TO</t>
+  </si>
+  <si>
+    <t>Page size cannot be more than 1000</t>
+  </si>
+  <si>
+    <t>Date Expired</t>
+  </si>
+  <si>
+    <t>Range Parameters must be within the range of the Total RPN Count.  TO cannot be more than Total count</t>
+  </si>
+  <si>
+    <t>RangeParameters selected are outside the range of RPN available. TO cannot be more than Total count</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>TO and FROM</t>
+  </si>
+  <si>
+    <t>136-140</t>
+  </si>
+  <si>
+    <t>LookupPayrollReturnByPeriodRequest</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1213,6 +1237,13 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1221,9 +1252,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -21924,7 +21952,7 @@
   <dimension ref="B8:M32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21941,28 +21969,28 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
+      <c r="B8" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="11" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -21979,7 +22007,7 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -21992,13 +22020,13 @@
     </row>
     <row r="13" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="76" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -22012,10 +22040,10 @@
     <row r="14" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="17"/>
       <c r="C14" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -22032,7 +22060,7 @@
         <v>100</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -22049,7 +22077,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -22066,7 +22094,7 @@
         <v>47</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -22079,11 +22107,11 @@
     </row>
     <row r="18" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="76" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -22096,11 +22124,11 @@
     </row>
     <row r="19" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="75" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="74" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -22115,7 +22143,7 @@
       <c r="B20" s="17"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -22132,7 +22160,7 @@
         <v>126</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -22149,7 +22177,7 @@
         <v>127</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -22163,10 +22191,10 @@
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="C23" s="15" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -22183,7 +22211,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K24" s="13"/>
       <c r="M24" s="12"/>
@@ -22194,7 +22222,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="74" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K25" s="13"/>
       <c r="M25" s="12"/>
@@ -22205,7 +22233,7 @@
         <v>129</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K26" s="13"/>
       <c r="M26" s="12"/>
@@ -22216,22 +22244,30 @@
         <v>134</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K27" s="13"/>
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="K28" s="13"/>
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="C29" s="15">
+        <v>125</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>169</v>
+      </c>
       <c r="K29" s="13"/>
       <c r="M29" s="12"/>
     </row>
@@ -22271,11 +22307,11 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BL450"/>
+  <dimension ref="A1:BL454"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M102" sqref="M102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -22306,16 +22342,16 @@
         <v>4</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H1" s="29" t="s">
         <v>6</v>
@@ -22327,7 +22363,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L1" s="29" t="s">
         <v>2</v>
@@ -22388,21 +22424,21 @@
       <c r="BL1" s="20"/>
     </row>
     <row r="2" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
+      <c r="A2" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
@@ -22456,21 +22492,21 @@
       <c r="BL2" s="21"/>
     </row>
     <row r="3" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
+      <c r="A3" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
@@ -22528,19 +22564,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G4" s="24">
         <v>401</v>
@@ -22555,7 +22591,7 @@
         <v>1012</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L4" s="33" t="s">
         <v>12</v>
@@ -22620,19 +22656,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G5" s="24">
         <v>401</v>
@@ -22647,7 +22683,7 @@
         <v>1013</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L5" s="33" t="s">
         <v>12</v>
@@ -22712,19 +22748,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G6" s="24">
         <v>401</v>
@@ -22739,7 +22775,7 @@
         <v>1014</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L6" s="33" t="s">
         <v>12</v>
@@ -22804,19 +22840,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="24">
         <v>1</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G7" s="45">
         <v>400</v>
@@ -22834,10 +22870,10 @@
         <v>14</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M7" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -22845,19 +22881,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D8" s="24">
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G8" s="45">
         <v>400</v>
@@ -22875,10 +22911,10 @@
         <v>25</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -22886,19 +22922,19 @@
         <v>116</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D9" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G9" s="55">
         <v>400</v>
@@ -22913,10 +22949,10 @@
         <v>1015</v>
       </c>
       <c r="K9" s="53" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L9" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M9" s="69" t="s">
         <v>12</v>
@@ -22927,19 +22963,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="24">
         <v>2</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G10" s="45">
         <v>403</v>
@@ -22957,10 +22993,10 @@
         <v>26</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -22968,19 +23004,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="24">
         <v>2</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G11" s="45">
         <v>403</v>
@@ -22998,10 +23034,10 @@
         <v>27</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23009,19 +23045,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="24">
         <v>2</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G12" s="45">
         <v>403</v>
@@ -23039,10 +23075,10 @@
         <v>16</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23050,19 +23086,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D13" s="24">
         <v>2</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G13" s="45">
         <v>403</v>
@@ -23077,13 +23113,13 @@
         <v>1011</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="33" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23091,19 +23127,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G14" s="45">
         <v>400</v>
@@ -23121,7 +23157,7 @@
         <v>39</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M14" s="33" t="s">
         <v>37</v>
@@ -23132,19 +23168,19 @@
         <v>100</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G15" s="45">
         <v>400</v>
@@ -23159,13 +23195,13 @@
         <v>2046</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L15" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M15" s="33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23173,19 +23209,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G16" s="45">
         <v>400</v>
@@ -23203,7 +23239,7 @@
         <v>43</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M16" s="33" t="s">
         <v>42</v>
@@ -23214,19 +23250,19 @@
         <v>123</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D17" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G17" s="55">
         <v>400</v>
@@ -23241,13 +23277,13 @@
         <v>5002</v>
       </c>
       <c r="K17" s="53" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L17" s="53" t="s">
         <v>0</v>
       </c>
       <c r="M17" s="69" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23255,19 +23291,19 @@
         <v>124</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D18" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G18" s="55">
         <v>400</v>
@@ -23282,13 +23318,13 @@
         <v>5003</v>
       </c>
       <c r="K18" s="53" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L18" s="53" t="s">
         <v>0</v>
       </c>
       <c r="M18" s="69" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23296,19 +23332,19 @@
         <v>126</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D19" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F19" s="55" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G19" s="55">
         <v>400</v>
@@ -23323,13 +23359,13 @@
         <v>2049</v>
       </c>
       <c r="K19" s="70" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L19" s="53" t="s">
         <v>0</v>
       </c>
       <c r="M19" s="70" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:64" s="59" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23337,19 +23373,19 @@
         <v>127</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D20" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G20" s="55">
         <v>400</v>
@@ -23364,13 +23400,13 @@
         <v>2050</v>
       </c>
       <c r="K20" s="57" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L20" s="53" t="s">
         <v>0</v>
       </c>
       <c r="M20" s="57" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N20" s="58"/>
       <c r="O20" s="58"/>
@@ -23429,19 +23465,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="24">
         <v>5</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G21" s="45">
         <v>400</v>
@@ -23459,28 +23495,28 @@
         <v>17</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M21" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
+      <c r="A22" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
@@ -23538,19 +23574,19 @@
         <v>18</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>12</v>
@@ -23565,7 +23601,7 @@
         <v>2040</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L23" s="32" t="s">
         <v>0</v>
@@ -23579,19 +23615,19 @@
         <v>19</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>12</v>
@@ -23620,19 +23656,19 @@
         <v>20</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="5">
         <v>8</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>12</v>
@@ -23661,19 +23697,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" s="5">
         <v>13</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>12</v>
@@ -23688,7 +23724,7 @@
         <v>2009</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>0</v>
@@ -23702,19 +23738,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>12</v>
@@ -23729,13 +23765,13 @@
         <v>2010</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>0</v>
       </c>
       <c r="M27" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23743,19 +23779,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G28" s="45" t="s">
         <v>12</v>
@@ -23784,19 +23820,19 @@
         <v>25</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G29" s="45" t="s">
         <v>12</v>
@@ -23811,7 +23847,7 @@
         <v>2014</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L29" s="32" t="s">
         <v>0</v>
@@ -23825,19 +23861,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>12</v>
@@ -23866,19 +23902,19 @@
         <v>27</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G31" s="45" t="s">
         <v>12</v>
@@ -23899,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23907,19 +23943,19 @@
         <v>28</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G32" s="45" t="s">
         <v>12</v>
@@ -23940,7 +23976,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:64" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23948,19 +23984,19 @@
         <v>30</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D33" s="62">
         <v>12</v>
       </c>
       <c r="E33" s="62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F33" s="62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G33" s="68" t="s">
         <v>12</v>
@@ -23975,7 +24011,7 @@
         <v>1002</v>
       </c>
       <c r="K33" s="63" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L33" s="63" t="s">
         <v>0</v>
@@ -23989,19 +24025,19 @@
         <v>31</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" s="5">
         <v>12</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G34" s="45" t="s">
         <v>12</v>
@@ -24030,19 +24066,19 @@
         <v>134</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="80" t="s">
-        <v>236</v>
+        <v>110</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>232</v>
       </c>
       <c r="D35" s="5">
         <v>12</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G35" s="24" t="s">
         <v>12</v>
@@ -24056,8 +24092,8 @@
       <c r="J35" s="27">
         <v>2048</v>
       </c>
-      <c r="K35" s="80" t="s">
-        <v>236</v>
+      <c r="K35" s="77" t="s">
+        <v>232</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>0</v>
@@ -24071,19 +24107,19 @@
         <v>32</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="5">
         <v>12</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G36" s="45" t="s">
         <v>12</v>
@@ -24112,19 +24148,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" s="24">
         <v>16</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>12</v>
@@ -24139,13 +24175,13 @@
         <v>2020</v>
       </c>
       <c r="K37" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L37" s="38" t="s">
         <v>0</v>
       </c>
       <c r="M37" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
@@ -24204,19 +24240,19 @@
         <v>34</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D38" s="62">
         <v>16</v>
       </c>
       <c r="E38" s="62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F38" s="62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G38" s="68" t="s">
         <v>12</v>
@@ -24231,13 +24267,13 @@
         <v>1002</v>
       </c>
       <c r="K38" s="63" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L38" s="63" t="s">
         <v>0</v>
       </c>
       <c r="M38" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24245,19 +24281,19 @@
         <v>35</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D39" s="5">
         <v>16</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G39" s="45" t="s">
         <v>12</v>
@@ -24272,13 +24308,13 @@
         <v>2023</v>
       </c>
       <c r="K39" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L39" s="32" t="s">
         <v>0</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:64" s="37" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24286,19 +24322,19 @@
         <v>36</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D40" s="39">
         <v>53</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G40" s="45" t="s">
         <v>12</v>
@@ -24313,13 +24349,13 @@
         <v>2025</v>
       </c>
       <c r="K40" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L40" s="38" t="s">
         <v>0</v>
       </c>
       <c r="M40" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
@@ -24378,19 +24414,19 @@
         <v>37</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D41" s="4">
         <v>21</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G41" s="45" t="s">
         <v>12</v>
@@ -24405,13 +24441,13 @@
         <v>2030</v>
       </c>
       <c r="K41" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L41" s="31" t="s">
         <v>0</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -24470,19 +24506,19 @@
         <v>38</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>12</v>
@@ -24503,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24511,19 +24547,19 @@
         <v>39</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D43" s="5">
         <v>20</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G43" s="45" t="s">
         <v>12</v>
@@ -24538,13 +24574,13 @@
         <v>2029</v>
       </c>
       <c r="K43" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L43" s="32" t="s">
         <v>0</v>
       </c>
       <c r="M43" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24552,19 +24588,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D44" s="5">
         <v>22</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G44" s="45" t="s">
         <v>12</v>
@@ -24579,13 +24615,13 @@
         <v>2031</v>
       </c>
       <c r="K44" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L44" s="32" t="s">
         <v>0</v>
       </c>
       <c r="M44" s="32" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24593,19 +24629,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" s="5">
         <v>23</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G45" s="45" t="s">
         <v>12</v>
@@ -24620,13 +24656,13 @@
         <v>2032</v>
       </c>
       <c r="K45" s="31" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L45" s="32" t="s">
         <v>0</v>
       </c>
       <c r="M45" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24634,19 +24670,19 @@
         <v>42</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="24">
         <v>17</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G46" s="45" t="s">
         <v>12</v>
@@ -24661,13 +24697,13 @@
         <v>2019</v>
       </c>
       <c r="K46" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L46" s="33" t="s">
         <v>0</v>
       </c>
       <c r="M46" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:64" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24675,19 +24711,19 @@
         <v>43</v>
       </c>
       <c r="B47" s="63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D47" s="62">
         <v>17</v>
       </c>
       <c r="E47" s="62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F47" s="62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G47" s="68" t="s">
         <v>12</v>
@@ -24702,13 +24738,13 @@
         <v>1002</v>
       </c>
       <c r="K47" s="63" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L47" s="63" t="s">
         <v>0</v>
       </c>
       <c r="M47" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:64" s="37" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24716,19 +24752,19 @@
         <v>44</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D48" s="43">
         <v>30</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G48" s="45" t="s">
         <v>12</v>
@@ -24743,13 +24779,13 @@
         <v>2043</v>
       </c>
       <c r="K48" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L48" s="40" t="s">
         <v>0</v>
       </c>
       <c r="M48" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="36"/>
@@ -24808,19 +24844,19 @@
         <v>45</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D49" s="5">
         <v>31</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G49" s="45" t="s">
         <v>12</v>
@@ -24835,13 +24871,13 @@
         <v>2033</v>
       </c>
       <c r="K49" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L49" s="32" t="s">
         <v>0</v>
       </c>
       <c r="M49" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24849,19 +24885,19 @@
         <v>46</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" s="5">
         <v>31</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G50" s="45" t="s">
         <v>12</v>
@@ -24882,7 +24918,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24890,19 +24926,19 @@
         <v>47</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D51" s="5">
         <v>32</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>12</v>
@@ -24917,13 +24953,13 @@
         <v>2036</v>
       </c>
       <c r="K51" s="33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L51" s="32" t="s">
         <v>0</v>
       </c>
       <c r="M51" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24931,19 +24967,19 @@
         <v>48</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D52" s="5">
         <v>35</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>12</v>
@@ -24958,13 +24994,13 @@
         <v>2038</v>
       </c>
       <c r="K52" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L52" s="32" t="s">
         <v>0</v>
       </c>
       <c r="M52" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24972,19 +25008,19 @@
         <v>49</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D53" s="5">
         <v>39</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>12</v>
@@ -24999,13 +25035,13 @@
         <v>2039</v>
       </c>
       <c r="K53" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L53" s="32" t="s">
         <v>0</v>
       </c>
       <c r="M53" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -25013,25 +25049,25 @@
         <v>50</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D54" s="4">
         <v>19</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G54" s="45" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>38</v>
@@ -25040,13 +25076,13 @@
         <v>2044</v>
       </c>
       <c r="K54" s="31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L54" s="31" t="s">
         <v>0</v>
       </c>
       <c r="M54" s="31" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -25105,25 +25141,25 @@
         <v>51</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D55" s="4">
         <v>8</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G55" s="45" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>38</v>
@@ -25132,7 +25168,7 @@
         <v>2045</v>
       </c>
       <c r="K55" s="31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L55" s="31" t="s">
         <v>0</v>
@@ -25197,19 +25233,19 @@
         <v>122</v>
       </c>
       <c r="B56" s="53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C56" s="53" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D56" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F56" s="55" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G56" s="55">
         <v>400</v>
@@ -25224,7 +25260,7 @@
         <v>2047</v>
       </c>
       <c r="K56" s="53" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L56" s="53" t="s">
         <v>0</v>
@@ -25285,21 +25321,21 @@
       <c r="BL56" s="22"/>
     </row>
     <row r="57" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="78" t="s">
+      <c r="A57" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="78"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="81"/>
+      <c r="M57" s="81"/>
       <c r="N57" s="21"/>
       <c r="O57" s="21"/>
       <c r="P57" s="21"/>
@@ -25353,21 +25389,21 @@
       <c r="BL57" s="21"/>
     </row>
     <row r="58" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
+      <c r="A58" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="82"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="82"/>
+      <c r="M58" s="82"/>
       <c r="N58" s="21"/>
       <c r="O58" s="21"/>
       <c r="P58" s="21"/>
@@ -25425,19 +25461,19 @@
         <v>52</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G59" s="24">
         <v>401</v>
@@ -25452,7 +25488,7 @@
         <v>1012</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L59" s="33" t="s">
         <v>12</v>
@@ -25517,19 +25553,19 @@
         <v>53</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G60" s="24">
         <v>401</v>
@@ -25544,7 +25580,7 @@
         <v>1013</v>
       </c>
       <c r="K60" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L60" s="33" t="s">
         <v>12</v>
@@ -25609,19 +25645,19 @@
         <v>54</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G61" s="24">
         <v>401</v>
@@ -25636,7 +25672,7 @@
         <v>1014</v>
       </c>
       <c r="K61" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L61" s="33" t="s">
         <v>12</v>
@@ -25701,19 +25737,19 @@
         <v>55</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G62" s="24">
         <v>400</v>
@@ -25731,10 +25767,10 @@
         <v>14</v>
       </c>
       <c r="L62" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M62" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N62" s="22"/>
       <c r="O62" s="22"/>
@@ -25793,19 +25829,19 @@
         <v>56</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G63" s="24">
         <v>400</v>
@@ -25823,10 +25859,10 @@
         <v>25</v>
       </c>
       <c r="L63" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M63" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
@@ -25885,19 +25921,19 @@
         <v>117</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" s="53" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D64" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E64" s="54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F64" s="54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G64" s="55">
         <v>400</v>
@@ -25912,10 +25948,10 @@
         <v>1015</v>
       </c>
       <c r="K64" s="53" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L64" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M64" s="69" t="s">
         <v>12</v>
@@ -25926,19 +25962,19 @@
         <v>57</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G65" s="24">
         <v>403</v>
@@ -25956,10 +25992,10 @@
         <v>26</v>
       </c>
       <c r="L65" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M65" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N65" s="22"/>
       <c r="O65" s="22"/>
@@ -26018,19 +26054,19 @@
         <v>58</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G66" s="24">
         <v>403</v>
@@ -26048,10 +26084,10 @@
         <v>27</v>
       </c>
       <c r="L66" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M66" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N66" s="22"/>
       <c r="O66" s="22"/>
@@ -26110,19 +26146,19 @@
         <v>59</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G67" s="24">
         <v>403</v>
@@ -26140,10 +26176,10 @@
         <v>16</v>
       </c>
       <c r="L67" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M67" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N67" s="22"/>
       <c r="O67" s="22"/>
@@ -26202,19 +26238,19 @@
         <v>60</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G68" s="24">
         <v>403</v>
@@ -26229,13 +26265,13 @@
         <v>1011</v>
       </c>
       <c r="K68" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L68" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="M68" s="33" t="s">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="M68" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="N68" s="22"/>
       <c r="O68" s="22"/>
@@ -26294,19 +26330,19 @@
         <v>61</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G69" s="24">
         <v>404</v>
@@ -26324,7 +26360,7 @@
         <v>47</v>
       </c>
       <c r="L69" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M69" s="31" t="s">
         <v>37</v>
@@ -26382,21 +26418,21 @@
       <c r="BL69" s="22"/>
     </row>
     <row r="70" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="78" t="s">
+      <c r="A70" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="78"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="78"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="78"/>
-      <c r="H70" s="78"/>
-      <c r="I70" s="78"/>
-      <c r="J70" s="78"/>
-      <c r="K70" s="78"/>
-      <c r="L70" s="78"/>
-      <c r="M70" s="78"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="81"/>
+      <c r="I70" s="81"/>
+      <c r="J70" s="81"/>
+      <c r="K70" s="81"/>
+      <c r="L70" s="81"/>
+      <c r="M70" s="81"/>
       <c r="N70" s="21"/>
       <c r="O70" s="21"/>
       <c r="P70" s="21"/>
@@ -26450,21 +26486,21 @@
       <c r="BL70" s="21"/>
     </row>
     <row r="71" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="B71" s="79"/>
-      <c r="C71" s="79"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
-      <c r="J71" s="79"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="79"/>
+      <c r="A71" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="82"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="82"/>
+      <c r="J71" s="82"/>
+      <c r="K71" s="82"/>
+      <c r="L71" s="82"/>
+      <c r="M71" s="82"/>
       <c r="N71" s="21"/>
       <c r="O71" s="21"/>
       <c r="P71" s="21"/>
@@ -26522,19 +26558,19 @@
         <v>62</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G72" s="24">
         <v>401</v>
@@ -26549,7 +26585,7 @@
         <v>1012</v>
       </c>
       <c r="K72" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L72" s="33" t="s">
         <v>12</v>
@@ -26614,19 +26650,19 @@
         <v>63</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G73" s="24">
         <v>401</v>
@@ -26641,7 +26677,7 @@
         <v>1013</v>
       </c>
       <c r="K73" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L73" s="33" t="s">
         <v>12</v>
@@ -26706,19 +26742,19 @@
         <v>64</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G74" s="24">
         <v>401</v>
@@ -26733,7 +26769,7 @@
         <v>1014</v>
       </c>
       <c r="K74" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L74" s="33" t="s">
         <v>12</v>
@@ -26798,19 +26834,19 @@
         <v>65</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G75" s="24">
         <v>400</v>
@@ -26828,10 +26864,10 @@
         <v>14</v>
       </c>
       <c r="L75" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
@@ -26890,19 +26926,19 @@
         <v>66</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G76" s="24">
         <v>400</v>
@@ -26920,10 +26956,10 @@
         <v>25</v>
       </c>
       <c r="L76" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M76" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
@@ -26982,19 +27018,19 @@
         <v>118</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C77" s="53" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D77" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E77" s="54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F77" s="54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G77" s="55">
         <v>400</v>
@@ -27009,10 +27045,10 @@
         <v>1015</v>
       </c>
       <c r="K77" s="53" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L77" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M77" s="69" t="s">
         <v>12</v>
@@ -27023,19 +27059,19 @@
         <v>67</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G78" s="24">
         <v>403</v>
@@ -27053,10 +27089,10 @@
         <v>26</v>
       </c>
       <c r="L78" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M78" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N78" s="22"/>
       <c r="O78" s="22"/>
@@ -27115,19 +27151,19 @@
         <v>68</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G79" s="24">
         <v>403</v>
@@ -27145,10 +27181,10 @@
         <v>27</v>
       </c>
       <c r="L79" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M79" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N79" s="22"/>
       <c r="O79" s="22"/>
@@ -27207,19 +27243,19 @@
         <v>69</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G80" s="24">
         <v>403</v>
@@ -27237,10 +27273,10 @@
         <v>16</v>
       </c>
       <c r="L80" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M80" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N80" s="22"/>
       <c r="O80" s="22"/>
@@ -27299,19 +27335,19 @@
         <v>70</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G81" s="24">
         <v>403</v>
@@ -27326,13 +27362,13 @@
         <v>1011</v>
       </c>
       <c r="K81" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L81" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="M81" s="33" t="s">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="M81" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
@@ -27391,19 +27427,19 @@
         <v>71</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G82" s="24">
         <v>404</v>
@@ -27421,10 +27457,10 @@
         <v>46</v>
       </c>
       <c r="L82" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M82" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N82" s="22"/>
       <c r="O82" s="22"/>
@@ -27479,21 +27515,21 @@
       <c r="BL82" s="22"/>
     </row>
     <row r="83" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="78" t="s">
-        <v>146</v>
-      </c>
-      <c r="B83" s="78"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="78"/>
-      <c r="E83" s="78"/>
-      <c r="F83" s="78"/>
-      <c r="G83" s="78"/>
-      <c r="H83" s="78"/>
-      <c r="I83" s="78"/>
-      <c r="J83" s="78"/>
-      <c r="K83" s="78"/>
-      <c r="L83" s="78"/>
-      <c r="M83" s="78"/>
+      <c r="A83" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" s="81"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="81"/>
+      <c r="F83" s="81"/>
+      <c r="G83" s="81"/>
+      <c r="H83" s="81"/>
+      <c r="I83" s="81"/>
+      <c r="J83" s="81"/>
+      <c r="K83" s="81"/>
+      <c r="L83" s="81"/>
+      <c r="M83" s="81"/>
       <c r="N83" s="21"/>
       <c r="O83" s="21"/>
       <c r="P83" s="21"/>
@@ -27547,21 +27583,21 @@
       <c r="BL83" s="21"/>
     </row>
     <row r="84" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="B84" s="79"/>
-      <c r="C84" s="79"/>
-      <c r="D84" s="79"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="79"/>
-      <c r="H84" s="79"/>
-      <c r="I84" s="79"/>
-      <c r="J84" s="79"/>
-      <c r="K84" s="79"/>
-      <c r="L84" s="79"/>
-      <c r="M84" s="79"/>
+      <c r="A84" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" s="82"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="82"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="82"/>
+      <c r="I84" s="82"/>
+      <c r="J84" s="82"/>
+      <c r="K84" s="82"/>
+      <c r="L84" s="82"/>
+      <c r="M84" s="82"/>
       <c r="N84" s="21"/>
       <c r="O84" s="21"/>
       <c r="P84" s="21"/>
@@ -27619,19 +27655,19 @@
         <v>72</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G85" s="24">
         <v>401</v>
@@ -27646,7 +27682,7 @@
         <v>1012</v>
       </c>
       <c r="K85" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L85" s="33" t="s">
         <v>12</v>
@@ -27711,19 +27747,19 @@
         <v>73</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G86" s="24">
         <v>401</v>
@@ -27738,7 +27774,7 @@
         <v>1013</v>
       </c>
       <c r="K86" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L86" s="33" t="s">
         <v>12</v>
@@ -27803,19 +27839,19 @@
         <v>74</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G87" s="24">
         <v>401</v>
@@ -27830,7 +27866,7 @@
         <v>1014</v>
       </c>
       <c r="K87" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L87" s="33" t="s">
         <v>12</v>
@@ -27895,19 +27931,19 @@
         <v>75</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G88" s="24">
         <v>400</v>
@@ -27925,10 +27961,10 @@
         <v>14</v>
       </c>
       <c r="L88" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M88" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N88" s="22"/>
       <c r="O88" s="22"/>
@@ -27987,19 +28023,19 @@
         <v>76</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G89" s="24">
         <v>400</v>
@@ -28017,10 +28053,10 @@
         <v>25</v>
       </c>
       <c r="L89" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M89" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N89" s="22"/>
       <c r="O89" s="22"/>
@@ -28079,19 +28115,19 @@
         <v>77</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G90" s="24">
         <v>400</v>
@@ -28109,10 +28145,10 @@
         <v>15</v>
       </c>
       <c r="L90" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M90" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N90" s="22"/>
       <c r="O90" s="22"/>
@@ -28171,19 +28207,19 @@
         <v>119</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C91" s="53" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D91" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E91" s="54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F91" s="54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G91" s="55">
         <v>400</v>
@@ -28198,10 +28234,10 @@
         <v>1015</v>
       </c>
       <c r="K91" s="53" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L91" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M91" s="69" t="s">
         <v>12</v>
@@ -28212,19 +28248,19 @@
         <v>78</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G92" s="24">
         <v>403</v>
@@ -28242,10 +28278,10 @@
         <v>26</v>
       </c>
       <c r="L92" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M92" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N92" s="22"/>
       <c r="O92" s="22"/>
@@ -28304,19 +28340,19 @@
         <v>79</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G93" s="24">
         <v>403</v>
@@ -28334,10 +28370,10 @@
         <v>27</v>
       </c>
       <c r="L93" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M93" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N93" s="22"/>
       <c r="O93" s="22"/>
@@ -28396,19 +28432,19 @@
         <v>80</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G94" s="24">
         <v>403</v>
@@ -28426,10 +28462,10 @@
         <v>16</v>
       </c>
       <c r="L94" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M94" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N94" s="22"/>
       <c r="O94" s="22"/>
@@ -28488,19 +28524,19 @@
         <v>81</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D95" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G95" s="24">
         <v>403</v>
@@ -28515,13 +28551,13 @@
         <v>1011</v>
       </c>
       <c r="K95" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L95" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M95" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N95" s="22"/>
       <c r="O95" s="22"/>
@@ -28575,24 +28611,24 @@
       <c r="BK95" s="22"/>
       <c r="BL95" s="22"/>
     </row>
-    <row r="96" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>82</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G96" s="24">
         <v>400</v>
@@ -28607,13 +28643,13 @@
         <v>3001</v>
       </c>
       <c r="K96" s="31" t="s">
-        <v>150</v>
+        <v>239</v>
       </c>
       <c r="L96" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M96" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N96" s="22"/>
       <c r="O96" s="22"/>
@@ -28672,19 +28708,19 @@
         <v>83</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G97" s="24">
         <v>400</v>
@@ -28702,10 +28738,10 @@
         <v>31</v>
       </c>
       <c r="L97" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M97" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N97" s="22"/>
       <c r="O97" s="22"/>
@@ -28759,274 +28795,322 @@
       <c r="BK97" s="22"/>
       <c r="BL97" s="22"/>
     </row>
-    <row r="98" spans="1:64" s="7" customFormat="1" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A98" s="62">
-        <v>84</v>
-      </c>
-      <c r="B98" s="63" t="s">
+    <row r="98" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="27">
+        <v>136</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" s="78" t="s">
+        <v>233</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G98" s="24">
+        <v>400</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98" s="27">
+        <v>3008</v>
+      </c>
+      <c r="K98" s="78" t="s">
+        <v>233</v>
+      </c>
+      <c r="L98" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C98" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="D98" s="62" t="s">
+      <c r="M98" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="N98" s="21"/>
+      <c r="O98" s="21"/>
+      <c r="P98" s="21"/>
+      <c r="Q98" s="21"/>
+      <c r="R98" s="21"/>
+      <c r="S98" s="21"/>
+      <c r="T98" s="21"/>
+      <c r="U98" s="21"/>
+      <c r="V98" s="21"/>
+      <c r="W98" s="21"/>
+      <c r="X98" s="21"/>
+      <c r="Y98" s="21"/>
+      <c r="Z98" s="21"/>
+      <c r="AA98" s="21"/>
+      <c r="AB98" s="21"/>
+      <c r="AC98" s="21"/>
+      <c r="AD98" s="21"/>
+      <c r="AE98" s="21"/>
+      <c r="AF98" s="21"/>
+      <c r="AG98" s="21"/>
+      <c r="AH98" s="21"/>
+      <c r="AI98" s="21"/>
+      <c r="AJ98" s="21"/>
+      <c r="AK98" s="21"/>
+      <c r="AL98" s="21"/>
+      <c r="AM98" s="21"/>
+      <c r="AN98" s="21"/>
+      <c r="AO98" s="21"/>
+      <c r="AP98" s="21"/>
+      <c r="AQ98" s="21"/>
+      <c r="AR98" s="21"/>
+      <c r="AS98" s="21"/>
+      <c r="AT98" s="21"/>
+      <c r="AU98" s="21"/>
+      <c r="AV98" s="21"/>
+      <c r="AW98" s="21"/>
+      <c r="AX98" s="21"/>
+      <c r="AY98" s="21"/>
+      <c r="AZ98" s="21"/>
+      <c r="BA98" s="21"/>
+      <c r="BB98" s="21"/>
+      <c r="BC98" s="21"/>
+      <c r="BD98" s="21"/>
+      <c r="BE98" s="21"/>
+      <c r="BF98" s="21"/>
+      <c r="BG98" s="21"/>
+      <c r="BH98" s="21"/>
+      <c r="BI98" s="21"/>
+      <c r="BJ98" s="21"/>
+      <c r="BK98" s="21"/>
+      <c r="BL98" s="21"/>
+    </row>
+    <row r="99" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A99" s="27">
+        <v>137</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="F98" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="G98" s="62">
+      <c r="E99" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G99" s="24">
         <v>400</v>
       </c>
-      <c r="H98" s="62" t="s">
+      <c r="H99" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I98" s="62" t="s">
+      <c r="I99" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J98" s="62">
-        <v>1002</v>
-      </c>
-      <c r="K98" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="L98" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="M98" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="N98" s="22"/>
-      <c r="O98" s="22"/>
-      <c r="P98" s="22"/>
-      <c r="Q98" s="22"/>
-      <c r="R98" s="22"/>
-      <c r="S98" s="22"/>
-      <c r="T98" s="22"/>
-      <c r="U98" s="22"/>
-      <c r="V98" s="22"/>
-      <c r="W98" s="22"/>
-      <c r="X98" s="22"/>
-      <c r="Y98" s="22"/>
-      <c r="Z98" s="22"/>
-      <c r="AA98" s="22"/>
-      <c r="AB98" s="22"/>
-      <c r="AC98" s="22"/>
-      <c r="AD98" s="22"/>
-      <c r="AE98" s="22"/>
-      <c r="AF98" s="22"/>
-      <c r="AG98" s="22"/>
-      <c r="AH98" s="22"/>
-      <c r="AI98" s="22"/>
-      <c r="AJ98" s="22"/>
-      <c r="AK98" s="22"/>
-      <c r="AL98" s="22"/>
-      <c r="AM98" s="22"/>
-      <c r="AN98" s="22"/>
-      <c r="AO98" s="22"/>
-      <c r="AP98" s="22"/>
-      <c r="AQ98" s="22"/>
-      <c r="AR98" s="22"/>
-      <c r="AS98" s="22"/>
-      <c r="AT98" s="22"/>
-      <c r="AU98" s="22"/>
-      <c r="AV98" s="22"/>
-      <c r="AW98" s="22"/>
-      <c r="AX98" s="22"/>
-      <c r="AY98" s="22"/>
-      <c r="AZ98" s="22"/>
-      <c r="BA98" s="22"/>
-      <c r="BB98" s="22"/>
-      <c r="BC98" s="22"/>
-      <c r="BD98" s="22"/>
-      <c r="BE98" s="22"/>
-      <c r="BF98" s="22"/>
-      <c r="BG98" s="22"/>
-      <c r="BH98" s="22"/>
-      <c r="BI98" s="22"/>
-      <c r="BJ98" s="22"/>
-      <c r="BK98" s="22"/>
-      <c r="BL98" s="22"/>
-    </row>
-    <row r="99" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="B99" s="79"/>
-      <c r="C99" s="79"/>
-      <c r="D99" s="79"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="79"/>
-      <c r="H99" s="79"/>
-      <c r="I99" s="79"/>
-      <c r="J99" s="79"/>
-      <c r="K99" s="79"/>
-      <c r="L99" s="79"/>
-      <c r="M99" s="79"/>
-      <c r="N99" s="21"/>
-      <c r="O99" s="21"/>
-      <c r="P99" s="21"/>
-      <c r="Q99" s="21"/>
-      <c r="R99" s="21"/>
-      <c r="S99" s="21"/>
-      <c r="T99" s="21"/>
-      <c r="U99" s="21"/>
-      <c r="V99" s="21"/>
-      <c r="W99" s="21"/>
-      <c r="X99" s="21"/>
-      <c r="Y99" s="21"/>
-      <c r="Z99" s="21"/>
-      <c r="AA99" s="21"/>
-      <c r="AB99" s="21"/>
-      <c r="AC99" s="21"/>
-      <c r="AD99" s="21"/>
-      <c r="AE99" s="21"/>
-      <c r="AF99" s="21"/>
-      <c r="AG99" s="21"/>
-      <c r="AH99" s="21"/>
-      <c r="AI99" s="21"/>
-      <c r="AJ99" s="21"/>
-      <c r="AK99" s="21"/>
-      <c r="AL99" s="21"/>
-      <c r="AM99" s="21"/>
-      <c r="AN99" s="21"/>
-      <c r="AO99" s="21"/>
-      <c r="AP99" s="21"/>
-      <c r="AQ99" s="21"/>
-      <c r="AR99" s="21"/>
-      <c r="AS99" s="21"/>
-      <c r="AT99" s="21"/>
-      <c r="AU99" s="21"/>
-      <c r="AV99" s="21"/>
-      <c r="AW99" s="21"/>
-      <c r="AX99" s="21"/>
-      <c r="AY99" s="21"/>
-      <c r="AZ99" s="21"/>
-      <c r="BA99" s="21"/>
-      <c r="BB99" s="21"/>
-      <c r="BC99" s="21"/>
-      <c r="BD99" s="21"/>
-      <c r="BE99" s="21"/>
-      <c r="BF99" s="21"/>
-      <c r="BG99" s="21"/>
-      <c r="BH99" s="21"/>
-      <c r="BI99" s="21"/>
-      <c r="BJ99" s="21"/>
-      <c r="BK99" s="21"/>
-      <c r="BL99" s="21"/>
-    </row>
-    <row r="100" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
-        <v>85</v>
+      <c r="J99" s="27">
+        <v>3009</v>
+      </c>
+      <c r="K99" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="L99" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="M99" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="22"/>
+      <c r="S99" s="22"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="22"/>
+      <c r="V99" s="22"/>
+      <c r="W99" s="22"/>
+      <c r="X99" s="22"/>
+      <c r="Y99" s="22"/>
+      <c r="Z99" s="22"/>
+      <c r="AA99" s="22"/>
+      <c r="AB99" s="22"/>
+      <c r="AC99" s="22"/>
+      <c r="AD99" s="22"/>
+      <c r="AE99" s="22"/>
+      <c r="AF99" s="22"/>
+      <c r="AG99" s="22"/>
+      <c r="AH99" s="22"/>
+      <c r="AI99" s="22"/>
+      <c r="AJ99" s="22"/>
+      <c r="AK99" s="22"/>
+      <c r="AL99" s="22"/>
+      <c r="AM99" s="22"/>
+      <c r="AN99" s="22"/>
+      <c r="AO99" s="22"/>
+      <c r="AP99" s="22"/>
+      <c r="AQ99" s="22"/>
+      <c r="AR99" s="22"/>
+      <c r="AS99" s="22"/>
+      <c r="AT99" s="22"/>
+      <c r="AU99" s="22"/>
+      <c r="AV99" s="22"/>
+      <c r="AW99" s="22"/>
+      <c r="AX99" s="22"/>
+      <c r="AY99" s="22"/>
+      <c r="AZ99" s="22"/>
+      <c r="BA99" s="22"/>
+      <c r="BB99" s="22"/>
+      <c r="BC99" s="22"/>
+      <c r="BD99" s="22"/>
+      <c r="BE99" s="22"/>
+      <c r="BF99" s="22"/>
+      <c r="BG99" s="22"/>
+      <c r="BH99" s="22"/>
+      <c r="BI99" s="22"/>
+      <c r="BJ99" s="22"/>
+      <c r="BK99" s="22"/>
+      <c r="BL99" s="22"/>
+    </row>
+    <row r="100" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="27">
+        <v>138</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D100" s="4">
-        <v>8</v>
-      </c>
-      <c r="E100" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F100" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G100" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F100" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G100" s="24">
+        <v>400</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J100" s="4">
-        <v>1010</v>
-      </c>
-      <c r="K100" s="31" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="J100" s="27">
+        <v>3010</v>
+      </c>
+      <c r="K100" s="78" t="s">
+        <v>235</v>
       </c>
       <c r="L100" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="M100" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="N100" s="22"/>
-      <c r="O100" s="22"/>
-      <c r="P100" s="22"/>
-      <c r="Q100" s="22"/>
-      <c r="R100" s="22"/>
-      <c r="S100" s="22"/>
-      <c r="T100" s="22"/>
-      <c r="U100" s="22"/>
-      <c r="V100" s="22"/>
-      <c r="W100" s="22"/>
-      <c r="X100" s="22"/>
-      <c r="Y100" s="22"/>
-      <c r="Z100" s="22"/>
-      <c r="AA100" s="22"/>
-      <c r="AB100" s="22"/>
-      <c r="AC100" s="22"/>
-      <c r="AD100" s="22"/>
-      <c r="AE100" s="22"/>
-      <c r="AF100" s="22"/>
-      <c r="AG100" s="22"/>
-      <c r="AH100" s="22"/>
-      <c r="AI100" s="22"/>
-      <c r="AJ100" s="22"/>
-      <c r="AK100" s="22"/>
-      <c r="AL100" s="22"/>
-      <c r="AM100" s="22"/>
-      <c r="AN100" s="22"/>
-      <c r="AO100" s="22"/>
-      <c r="AP100" s="22"/>
-      <c r="AQ100" s="22"/>
-      <c r="AR100" s="22"/>
-      <c r="AS100" s="22"/>
-      <c r="AT100" s="22"/>
-      <c r="AU100" s="22"/>
-      <c r="AV100" s="22"/>
-      <c r="AW100" s="22"/>
-      <c r="AX100" s="22"/>
-      <c r="AY100" s="22"/>
-      <c r="AZ100" s="22"/>
-      <c r="BA100" s="22"/>
-      <c r="BB100" s="22"/>
-      <c r="BC100" s="22"/>
-      <c r="BD100" s="22"/>
-      <c r="BE100" s="22"/>
-      <c r="BF100" s="22"/>
-      <c r="BG100" s="22"/>
-      <c r="BH100" s="22"/>
-      <c r="BI100" s="22"/>
-      <c r="BJ100" s="22"/>
-      <c r="BK100" s="22"/>
-      <c r="BL100" s="22"/>
-    </row>
-    <row r="101" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="B101" s="78"/>
-      <c r="C101" s="78"/>
-      <c r="D101" s="78"/>
-      <c r="E101" s="78"/>
-      <c r="F101" s="78"/>
-      <c r="G101" s="78"/>
-      <c r="H101" s="78"/>
-      <c r="I101" s="78"/>
-      <c r="J101" s="78"/>
-      <c r="K101" s="78"/>
-      <c r="L101" s="78"/>
-      <c r="M101" s="78"/>
+        <v>147</v>
+      </c>
+      <c r="M100" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="N100" s="21"/>
+      <c r="O100" s="21"/>
+      <c r="P100" s="21"/>
+      <c r="Q100" s="21"/>
+      <c r="R100" s="21"/>
+      <c r="S100" s="21"/>
+      <c r="T100" s="21"/>
+      <c r="U100" s="21"/>
+      <c r="V100" s="21"/>
+      <c r="W100" s="21"/>
+      <c r="X100" s="21"/>
+      <c r="Y100" s="21"/>
+      <c r="Z100" s="21"/>
+      <c r="AA100" s="21"/>
+      <c r="AB100" s="21"/>
+      <c r="AC100" s="21"/>
+      <c r="AD100" s="21"/>
+      <c r="AE100" s="21"/>
+      <c r="AF100" s="21"/>
+      <c r="AG100" s="21"/>
+      <c r="AH100" s="21"/>
+      <c r="AI100" s="21"/>
+      <c r="AJ100" s="21"/>
+      <c r="AK100" s="21"/>
+      <c r="AL100" s="21"/>
+      <c r="AM100" s="21"/>
+      <c r="AN100" s="21"/>
+      <c r="AO100" s="21"/>
+      <c r="AP100" s="21"/>
+      <c r="AQ100" s="21"/>
+      <c r="AR100" s="21"/>
+      <c r="AS100" s="21"/>
+      <c r="AT100" s="21"/>
+      <c r="AU100" s="21"/>
+      <c r="AV100" s="21"/>
+      <c r="AW100" s="21"/>
+      <c r="AX100" s="21"/>
+      <c r="AY100" s="21"/>
+      <c r="AZ100" s="21"/>
+      <c r="BA100" s="21"/>
+      <c r="BB100" s="21"/>
+      <c r="BC100" s="21"/>
+      <c r="BD100" s="21"/>
+      <c r="BE100" s="21"/>
+      <c r="BF100" s="21"/>
+      <c r="BG100" s="21"/>
+      <c r="BH100" s="21"/>
+      <c r="BI100" s="21"/>
+      <c r="BJ100" s="21"/>
+      <c r="BK100" s="21"/>
+      <c r="BL100" s="21"/>
+    </row>
+    <row r="101" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="27">
+        <v>139</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F101" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G101" s="24">
+        <v>400</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J101" s="27">
+        <v>3011</v>
+      </c>
+      <c r="K101" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="L101" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="M101" s="34" t="s">
+        <v>242</v>
+      </c>
       <c r="N101" s="21"/>
       <c r="O101" s="21"/>
       <c r="P101" s="21"/>
@@ -29079,22 +29163,46 @@
       <c r="BK101" s="21"/>
       <c r="BL101" s="21"/>
     </row>
-    <row r="102" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="B102" s="79"/>
-      <c r="C102" s="79"/>
-      <c r="D102" s="79"/>
-      <c r="E102" s="79"/>
-      <c r="F102" s="79"/>
-      <c r="G102" s="79"/>
-      <c r="H102" s="79"/>
-      <c r="I102" s="79"/>
-      <c r="J102" s="79"/>
-      <c r="K102" s="79"/>
-      <c r="L102" s="79"/>
-      <c r="M102" s="79"/>
+    <row r="102" spans="1:64" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A102" s="27">
+        <v>140</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F102" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G102" s="24">
+        <v>404</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J102" s="27">
+        <v>3012</v>
+      </c>
+      <c r="K102" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="L102" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="M102" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="N102" s="21"/>
       <c r="O102" s="21"/>
       <c r="P102" s="21"/>
@@ -29147,45 +29255,45 @@
       <c r="BK102" s="21"/>
       <c r="BL102" s="21"/>
     </row>
-    <row r="103" spans="1:64" s="51" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A103" s="4">
-        <v>86</v>
-      </c>
-      <c r="B103" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C103" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="D103" s="4" t="s">
+    <row r="103" spans="1:64" s="51" customFormat="1" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A103" s="62">
+        <v>84</v>
+      </c>
+      <c r="B103" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="D103" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G103" s="24">
-        <v>401</v>
-      </c>
-      <c r="H103" s="4" t="s">
+      <c r="E103" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F103" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="G103" s="62">
+        <v>400</v>
+      </c>
+      <c r="H103" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I103" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J103" s="4">
-        <v>1012</v>
-      </c>
-      <c r="K103" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="L103" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M103" s="50" t="s">
-        <v>12</v>
+      <c r="I103" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="J103" s="62">
+        <v>1002</v>
+      </c>
+      <c r="K103" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="L103" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="M103" s="63" t="s">
+        <v>73</v>
       </c>
       <c r="N103" s="21"/>
       <c r="O103" s="21"/>
@@ -29239,46 +29347,22 @@
       <c r="BK103" s="21"/>
       <c r="BL103" s="21"/>
     </row>
-    <row r="104" spans="1:64" s="51" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A104" s="4">
-        <v>87</v>
-      </c>
-      <c r="B104" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G104" s="24">
-        <v>401</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J104" s="4">
-        <v>1013</v>
-      </c>
-      <c r="K104" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="L104" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M104" s="48" t="s">
-        <v>12</v>
-      </c>
+    <row r="104" spans="1:64" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A104" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B104" s="82"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="82"/>
+      <c r="H104" s="82"/>
+      <c r="I104" s="82"/>
+      <c r="J104" s="82"/>
+      <c r="K104" s="82"/>
+      <c r="L104" s="82"/>
+      <c r="M104" s="82"/>
       <c r="N104" s="21"/>
       <c r="O104" s="21"/>
       <c r="P104" s="21"/>
@@ -29331,138 +29415,114 @@
       <c r="BK104" s="21"/>
       <c r="BL104" s="21"/>
     </row>
-    <row r="105" spans="1:64" s="51" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D105" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" s="4">
+        <v>8</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G105" s="45" t="s">
         <v>12</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G105" s="24">
-        <v>401</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="J105" s="4">
-        <v>1014</v>
-      </c>
-      <c r="K105" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="L105" s="33" t="s">
-        <v>12</v>
+        <v>1010</v>
+      </c>
+      <c r="K105" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L105" s="31" t="s">
+        <v>147</v>
       </c>
       <c r="M105" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="N105" s="21"/>
-      <c r="O105" s="21"/>
-      <c r="P105" s="21"/>
-      <c r="Q105" s="21"/>
-      <c r="R105" s="21"/>
-      <c r="S105" s="21"/>
-      <c r="T105" s="21"/>
-      <c r="U105" s="21"/>
-      <c r="V105" s="21"/>
-      <c r="W105" s="21"/>
-      <c r="X105" s="21"/>
-      <c r="Y105" s="21"/>
-      <c r="Z105" s="21"/>
-      <c r="AA105" s="21"/>
-      <c r="AB105" s="21"/>
-      <c r="AC105" s="21"/>
-      <c r="AD105" s="21"/>
-      <c r="AE105" s="21"/>
-      <c r="AF105" s="21"/>
-      <c r="AG105" s="21"/>
-      <c r="AH105" s="21"/>
-      <c r="AI105" s="21"/>
-      <c r="AJ105" s="21"/>
-      <c r="AK105" s="21"/>
-      <c r="AL105" s="21"/>
-      <c r="AM105" s="21"/>
-      <c r="AN105" s="21"/>
-      <c r="AO105" s="21"/>
-      <c r="AP105" s="21"/>
-      <c r="AQ105" s="21"/>
-      <c r="AR105" s="21"/>
-      <c r="AS105" s="21"/>
-      <c r="AT105" s="21"/>
-      <c r="AU105" s="21"/>
-      <c r="AV105" s="21"/>
-      <c r="AW105" s="21"/>
-      <c r="AX105" s="21"/>
-      <c r="AY105" s="21"/>
-      <c r="AZ105" s="21"/>
-      <c r="BA105" s="21"/>
-      <c r="BB105" s="21"/>
-      <c r="BC105" s="21"/>
-      <c r="BD105" s="21"/>
-      <c r="BE105" s="21"/>
-      <c r="BF105" s="21"/>
-      <c r="BG105" s="21"/>
-      <c r="BH105" s="21"/>
-      <c r="BI105" s="21"/>
-      <c r="BJ105" s="21"/>
-      <c r="BK105" s="21"/>
-      <c r="BL105" s="21"/>
-    </row>
-    <row r="106" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A106" s="4">
-        <v>89</v>
-      </c>
-      <c r="B106" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G106" s="24">
-        <v>400</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J106" s="10">
-        <v>1003</v>
-      </c>
-      <c r="K106" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="L106" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="M106" s="31" t="s">
-        <v>51</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N105" s="22"/>
+      <c r="O105" s="22"/>
+      <c r="P105" s="22"/>
+      <c r="Q105" s="22"/>
+      <c r="R105" s="22"/>
+      <c r="S105" s="22"/>
+      <c r="T105" s="22"/>
+      <c r="U105" s="22"/>
+      <c r="V105" s="22"/>
+      <c r="W105" s="22"/>
+      <c r="X105" s="22"/>
+      <c r="Y105" s="22"/>
+      <c r="Z105" s="22"/>
+      <c r="AA105" s="22"/>
+      <c r="AB105" s="22"/>
+      <c r="AC105" s="22"/>
+      <c r="AD105" s="22"/>
+      <c r="AE105" s="22"/>
+      <c r="AF105" s="22"/>
+      <c r="AG105" s="22"/>
+      <c r="AH105" s="22"/>
+      <c r="AI105" s="22"/>
+      <c r="AJ105" s="22"/>
+      <c r="AK105" s="22"/>
+      <c r="AL105" s="22"/>
+      <c r="AM105" s="22"/>
+      <c r="AN105" s="22"/>
+      <c r="AO105" s="22"/>
+      <c r="AP105" s="22"/>
+      <c r="AQ105" s="22"/>
+      <c r="AR105" s="22"/>
+      <c r="AS105" s="22"/>
+      <c r="AT105" s="22"/>
+      <c r="AU105" s="22"/>
+      <c r="AV105" s="22"/>
+      <c r="AW105" s="22"/>
+      <c r="AX105" s="22"/>
+      <c r="AY105" s="22"/>
+      <c r="AZ105" s="22"/>
+      <c r="BA105" s="22"/>
+      <c r="BB105" s="22"/>
+      <c r="BC105" s="22"/>
+      <c r="BD105" s="22"/>
+      <c r="BE105" s="22"/>
+      <c r="BF105" s="22"/>
+      <c r="BG105" s="22"/>
+      <c r="BH105" s="22"/>
+      <c r="BI105" s="22"/>
+      <c r="BJ105" s="22"/>
+      <c r="BK105" s="22"/>
+      <c r="BL105" s="22"/>
+    </row>
+    <row r="106" spans="1:64" s="7" customFormat="1" ht="18" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A106" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" s="81"/>
+      <c r="C106" s="81"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="81"/>
+      <c r="H106" s="81"/>
+      <c r="I106" s="81"/>
+      <c r="J106" s="81"/>
+      <c r="K106" s="81"/>
+      <c r="L106" s="81"/>
+      <c r="M106" s="81"/>
       <c r="N106" s="22"/>
       <c r="O106" s="22"/>
       <c r="P106" s="22"/>
@@ -29515,46 +29575,22 @@
       <c r="BK106" s="22"/>
       <c r="BL106" s="22"/>
     </row>
-    <row r="107" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A107" s="4">
-        <v>90</v>
-      </c>
-      <c r="B107" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G107" s="24">
-        <v>400</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J107" s="10">
-        <v>1004</v>
-      </c>
-      <c r="K107" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="L107" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="M107" s="31" t="s">
-        <v>51</v>
-      </c>
+    <row r="107" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A107" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="82"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="82"/>
+      <c r="I107" s="82"/>
+      <c r="J107" s="82"/>
+      <c r="K107" s="82"/>
+      <c r="L107" s="82"/>
+      <c r="M107" s="82"/>
       <c r="N107" s="22"/>
       <c r="O107" s="22"/>
       <c r="P107" s="22"/>
@@ -29607,178 +29643,178 @@
       <c r="BK107" s="22"/>
       <c r="BL107" s="22"/>
     </row>
-    <row r="108" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>108</v>
+        <v>149</v>
+      </c>
+      <c r="C108" s="52" t="s">
+        <v>172</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G108" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J108" s="10">
-        <v>1005</v>
-      </c>
-      <c r="K108" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L108" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="M108" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="N108" s="22"/>
-      <c r="O108" s="22"/>
-      <c r="P108" s="22"/>
-      <c r="Q108" s="22"/>
-      <c r="R108" s="22"/>
-      <c r="S108" s="22"/>
-      <c r="T108" s="22"/>
-      <c r="U108" s="22"/>
-      <c r="V108" s="22"/>
-      <c r="W108" s="22"/>
-      <c r="X108" s="22"/>
-      <c r="Y108" s="22"/>
-      <c r="Z108" s="22"/>
-      <c r="AA108" s="22"/>
-      <c r="AB108" s="22"/>
-      <c r="AC108" s="22"/>
-      <c r="AD108" s="22"/>
-      <c r="AE108" s="22"/>
-      <c r="AF108" s="22"/>
-      <c r="AG108" s="22"/>
-      <c r="AH108" s="22"/>
-      <c r="AI108" s="22"/>
-      <c r="AJ108" s="22"/>
-      <c r="AK108" s="22"/>
-      <c r="AL108" s="22"/>
-      <c r="AM108" s="22"/>
-      <c r="AN108" s="22"/>
-      <c r="AO108" s="22"/>
-      <c r="AP108" s="22"/>
-      <c r="AQ108" s="22"/>
-      <c r="AR108" s="22"/>
-      <c r="AS108" s="22"/>
-      <c r="AT108" s="22"/>
-      <c r="AU108" s="22"/>
-      <c r="AV108" s="22"/>
-      <c r="AW108" s="22"/>
-      <c r="AX108" s="22"/>
-      <c r="AY108" s="22"/>
-      <c r="AZ108" s="22"/>
-      <c r="BA108" s="22"/>
-      <c r="BB108" s="22"/>
-      <c r="BC108" s="22"/>
-      <c r="BD108" s="22"/>
-      <c r="BE108" s="22"/>
-      <c r="BF108" s="22"/>
-      <c r="BG108" s="22"/>
-      <c r="BH108" s="22"/>
-      <c r="BI108" s="22"/>
-      <c r="BJ108" s="22"/>
-      <c r="BK108" s="22"/>
-      <c r="BL108" s="22"/>
-    </row>
-    <row r="109" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="J108" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K108" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L108" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M108" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C109" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="D109" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="F109" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="G109" s="55">
-        <v>400</v>
-      </c>
-      <c r="H109" s="54" t="s">
+      <c r="E109" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G109" s="24">
+        <v>401</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I109" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="J109" s="54">
-        <v>1015</v>
-      </c>
-      <c r="K109" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="L109" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="M109" s="69" t="s">
+      <c r="I109" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J109" s="4">
+        <v>1013</v>
+      </c>
+      <c r="K109" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="L109" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M109" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="N109" s="22"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="22"/>
+      <c r="Q109" s="22"/>
+      <c r="R109" s="22"/>
+      <c r="S109" s="22"/>
+      <c r="T109" s="22"/>
+      <c r="U109" s="22"/>
+      <c r="V109" s="22"/>
+      <c r="W109" s="22"/>
+      <c r="X109" s="22"/>
+      <c r="Y109" s="22"/>
+      <c r="Z109" s="22"/>
+      <c r="AA109" s="22"/>
+      <c r="AB109" s="22"/>
+      <c r="AC109" s="22"/>
+      <c r="AD109" s="22"/>
+      <c r="AE109" s="22"/>
+      <c r="AF109" s="22"/>
+      <c r="AG109" s="22"/>
+      <c r="AH109" s="22"/>
+      <c r="AI109" s="22"/>
+      <c r="AJ109" s="22"/>
+      <c r="AK109" s="22"/>
+      <c r="AL109" s="22"/>
+      <c r="AM109" s="22"/>
+      <c r="AN109" s="22"/>
+      <c r="AO109" s="22"/>
+      <c r="AP109" s="22"/>
+      <c r="AQ109" s="22"/>
+      <c r="AR109" s="22"/>
+      <c r="AS109" s="22"/>
+      <c r="AT109" s="22"/>
+      <c r="AU109" s="22"/>
+      <c r="AV109" s="22"/>
+      <c r="AW109" s="22"/>
+      <c r="AX109" s="22"/>
+      <c r="AY109" s="22"/>
+      <c r="AZ109" s="22"/>
+      <c r="BA109" s="22"/>
+      <c r="BB109" s="22"/>
+      <c r="BC109" s="22"/>
+      <c r="BD109" s="22"/>
+      <c r="BE109" s="22"/>
+      <c r="BF109" s="22"/>
+      <c r="BG109" s="22"/>
+      <c r="BH109" s="22"/>
+      <c r="BI109" s="22"/>
+      <c r="BJ109" s="22"/>
+      <c r="BK109" s="22"/>
+      <c r="BL109" s="22"/>
+    </row>
+    <row r="110" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>98</v>
+        <v>149</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G110" s="24">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J110" s="10">
-        <v>1006</v>
-      </c>
-      <c r="K110" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L110" s="31" t="s">
-        <v>153</v>
+        <v>38</v>
+      </c>
+      <c r="J110" s="4">
+        <v>1014</v>
+      </c>
+      <c r="K110" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="L110" s="33" t="s">
+        <v>12</v>
       </c>
       <c r="M110" s="31" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="N110" s="22"/>
       <c r="O110" s="22"/>
@@ -29832,27 +29868,27 @@
       <c r="BK110" s="22"/>
       <c r="BL110" s="22"/>
     </row>
-    <row r="111" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G111" s="24">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>7</v>
@@ -29861,16 +29897,16 @@
         <v>35</v>
       </c>
       <c r="J111" s="10">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="K111" s="31" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="L111" s="31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M111" s="31" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N111" s="22"/>
       <c r="O111" s="22"/>
@@ -29924,45 +29960,45 @@
       <c r="BK111" s="22"/>
       <c r="BL111" s="22"/>
     </row>
-    <row r="112" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G112" s="24">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J112" s="10">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="K112" s="31" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L112" s="31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M112" s="31" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N112" s="22"/>
       <c r="O112" s="22"/>
@@ -30016,44 +30052,44 @@
       <c r="BK112" s="22"/>
       <c r="BL112" s="22"/>
     </row>
-    <row r="113" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D113" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G113" s="24">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J113" s="4">
-        <v>1011</v>
-      </c>
-      <c r="K113" s="33" t="s">
-        <v>83</v>
+        <v>35</v>
+      </c>
+      <c r="J113" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K113" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="L113" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="M113" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="M113" s="31" t="s">
         <v>50</v>
       </c>
       <c r="N113" s="22"/>
@@ -30108,45 +30144,45 @@
       <c r="BK113" s="22"/>
       <c r="BL113" s="22"/>
     </row>
-    <row r="114" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:64" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D114" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C114" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D114" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E114" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G114" s="24">
+      <c r="E114" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="F114" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="G114" s="55">
         <v>400</v>
       </c>
-      <c r="H114" s="4" t="s">
+      <c r="H114" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I114" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J114" s="10">
-        <v>4001</v>
-      </c>
-      <c r="K114" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L114" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="M114" s="31" t="s">
-        <v>71</v>
+      <c r="I114" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J114" s="54">
+        <v>1015</v>
+      </c>
+      <c r="K114" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="L114" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="M114" s="69" t="s">
+        <v>12</v>
       </c>
       <c r="N114" s="22"/>
       <c r="O114" s="22"/>
@@ -30200,764 +30236,713 @@
       <c r="BK114" s="22"/>
       <c r="BL114" s="22"/>
     </row>
-    <row r="115" spans="1:64" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>125</v>
-      </c>
-      <c r="B115" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="C115" s="53" t="s">
-        <v>219</v>
-      </c>
-      <c r="D115" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B115" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E115" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="F115" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="G115" s="55">
-        <v>400</v>
-      </c>
-      <c r="H115" s="54" t="s">
+      <c r="E115" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G115" s="24">
+        <v>404</v>
+      </c>
+      <c r="H115" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I115" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="J115" s="54">
-        <v>4004</v>
-      </c>
-      <c r="K115" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="L115" s="53" t="s">
+      <c r="I115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J115" s="10">
+        <v>1006</v>
+      </c>
+      <c r="K115" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L115" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="M115" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N115" s="21"/>
+      <c r="O115" s="21"/>
+      <c r="P115" s="21"/>
+      <c r="Q115" s="21"/>
+      <c r="R115" s="21"/>
+      <c r="S115" s="21"/>
+      <c r="T115" s="21"/>
+      <c r="U115" s="21"/>
+      <c r="V115" s="21"/>
+      <c r="W115" s="21"/>
+      <c r="X115" s="21"/>
+      <c r="Y115" s="21"/>
+      <c r="Z115" s="21"/>
+      <c r="AA115" s="21"/>
+      <c r="AB115" s="21"/>
+      <c r="AC115" s="21"/>
+      <c r="AD115" s="21"/>
+      <c r="AE115" s="21"/>
+      <c r="AF115" s="21"/>
+      <c r="AG115" s="21"/>
+      <c r="AH115" s="21"/>
+      <c r="AI115" s="21"/>
+      <c r="AJ115" s="21"/>
+      <c r="AK115" s="21"/>
+      <c r="AL115" s="21"/>
+      <c r="AM115" s="21"/>
+      <c r="AN115" s="21"/>
+      <c r="AO115" s="21"/>
+      <c r="AP115" s="21"/>
+      <c r="AQ115" s="21"/>
+      <c r="AR115" s="21"/>
+      <c r="AS115" s="21"/>
+      <c r="AT115" s="21"/>
+      <c r="AU115" s="21"/>
+      <c r="AV115" s="21"/>
+      <c r="AW115" s="21"/>
+      <c r="AX115" s="21"/>
+      <c r="AY115" s="21"/>
+      <c r="AZ115" s="21"/>
+      <c r="BA115" s="21"/>
+      <c r="BB115" s="21"/>
+      <c r="BC115" s="21"/>
+      <c r="BD115" s="21"/>
+      <c r="BE115" s="21"/>
+      <c r="BF115" s="21"/>
+      <c r="BG115" s="21"/>
+      <c r="BH115" s="21"/>
+      <c r="BI115" s="21"/>
+      <c r="BJ115" s="21"/>
+      <c r="BK115" s="21"/>
+      <c r="BL115" s="21"/>
+    </row>
+    <row r="116" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>93</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M115" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="N115" s="22"/>
-      <c r="O115" s="22"/>
-      <c r="P115" s="22"/>
-      <c r="Q115" s="22"/>
-      <c r="R115" s="22"/>
-      <c r="S115" s="22"/>
-      <c r="T115" s="22"/>
-      <c r="U115" s="22"/>
-      <c r="V115" s="22"/>
-      <c r="W115" s="22"/>
-      <c r="X115" s="22"/>
-      <c r="Y115" s="22"/>
-      <c r="Z115" s="22"/>
-      <c r="AA115" s="22"/>
-      <c r="AB115" s="22"/>
-      <c r="AC115" s="22"/>
-      <c r="AD115" s="22"/>
-      <c r="AE115" s="22"/>
-      <c r="AF115" s="22"/>
-      <c r="AG115" s="22"/>
-      <c r="AH115" s="22"/>
-      <c r="AI115" s="22"/>
-      <c r="AJ115" s="22"/>
-      <c r="AK115" s="22"/>
-      <c r="AL115" s="22"/>
-      <c r="AM115" s="22"/>
-      <c r="AN115" s="22"/>
-      <c r="AO115" s="22"/>
-      <c r="AP115" s="22"/>
-      <c r="AQ115" s="22"/>
-      <c r="AR115" s="22"/>
-      <c r="AS115" s="22"/>
-      <c r="AT115" s="22"/>
-      <c r="AU115" s="22"/>
-      <c r="AV115" s="22"/>
-      <c r="AW115" s="22"/>
-      <c r="AX115" s="22"/>
-      <c r="AY115" s="22"/>
-      <c r="AZ115" s="22"/>
-      <c r="BA115" s="22"/>
-      <c r="BB115" s="22"/>
-      <c r="BC115" s="22"/>
-      <c r="BD115" s="22"/>
-      <c r="BE115" s="22"/>
-      <c r="BF115" s="22"/>
-      <c r="BG115" s="22"/>
-      <c r="BH115" s="22"/>
-      <c r="BI115" s="22"/>
-      <c r="BJ115" s="22"/>
-      <c r="BK115" s="22"/>
-      <c r="BL115" s="22"/>
-    </row>
-    <row r="116" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="B116" s="79"/>
-      <c r="C116" s="79"/>
-      <c r="D116" s="79"/>
-      <c r="E116" s="79"/>
-      <c r="F116" s="79"/>
-      <c r="G116" s="79"/>
-      <c r="H116" s="79"/>
-      <c r="I116" s="79"/>
-      <c r="J116" s="79"/>
-      <c r="K116" s="79"/>
-      <c r="L116" s="79"/>
-      <c r="M116" s="79"/>
-      <c r="N116" s="21"/>
-      <c r="O116" s="21"/>
-      <c r="P116" s="21"/>
-      <c r="Q116" s="21"/>
-      <c r="R116" s="21"/>
-      <c r="S116" s="21"/>
-      <c r="T116" s="21"/>
-      <c r="U116" s="21"/>
-      <c r="V116" s="21"/>
-      <c r="W116" s="21"/>
-      <c r="X116" s="21"/>
-      <c r="Y116" s="21"/>
-      <c r="Z116" s="21"/>
-      <c r="AA116" s="21"/>
-      <c r="AB116" s="21"/>
-      <c r="AC116" s="21"/>
-      <c r="AD116" s="21"/>
-      <c r="AE116" s="21"/>
-      <c r="AF116" s="21"/>
-      <c r="AG116" s="21"/>
-      <c r="AH116" s="21"/>
-      <c r="AI116" s="21"/>
-      <c r="AJ116" s="21"/>
-      <c r="AK116" s="21"/>
-      <c r="AL116" s="21"/>
-      <c r="AM116" s="21"/>
-      <c r="AN116" s="21"/>
-      <c r="AO116" s="21"/>
-      <c r="AP116" s="21"/>
-      <c r="AQ116" s="21"/>
-      <c r="AR116" s="21"/>
-      <c r="AS116" s="21"/>
-      <c r="AT116" s="21"/>
-      <c r="AU116" s="21"/>
-      <c r="AV116" s="21"/>
-      <c r="AW116" s="21"/>
-      <c r="AX116" s="21"/>
-      <c r="AY116" s="21"/>
-      <c r="AZ116" s="21"/>
-      <c r="BA116" s="21"/>
-      <c r="BB116" s="21"/>
-      <c r="BC116" s="21"/>
-      <c r="BD116" s="21"/>
-      <c r="BE116" s="21"/>
-      <c r="BF116" s="21"/>
-      <c r="BG116" s="21"/>
-      <c r="BH116" s="21"/>
-      <c r="BI116" s="21"/>
-      <c r="BJ116" s="21"/>
-      <c r="BK116" s="21"/>
-      <c r="BL116" s="21"/>
+      <c r="E116" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G116" s="24">
+        <v>404</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J116" s="10">
+        <v>1007</v>
+      </c>
+      <c r="K116" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L116" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="M116" s="31" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="117" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>97</v>
-      </c>
-      <c r="B117" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D117" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E117" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G117" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" s="5" t="s">
+      <c r="E117" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G117" s="24">
+        <v>403</v>
+      </c>
+      <c r="H117" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I117" s="5" t="s">
+      <c r="I117" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J117" s="8">
-        <v>4002</v>
-      </c>
-      <c r="K117" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="L117" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="M117" s="32" t="s">
-        <v>70</v>
+      <c r="J117" s="10">
+        <v>1008</v>
+      </c>
+      <c r="K117" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="L117" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="M117" s="31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
+        <v>95</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G118" s="24">
+        <v>403</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J118" s="4">
+        <v>1011</v>
+      </c>
+      <c r="K118" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L118" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="M118" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>96</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G119" s="24">
+        <v>400</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J119" s="10">
+        <v>4001</v>
+      </c>
+      <c r="K119" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L119" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="M119" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="N119" s="22"/>
+      <c r="O119" s="22"/>
+      <c r="P119" s="22"/>
+      <c r="Q119" s="22"/>
+      <c r="R119" s="22"/>
+      <c r="S119" s="22"/>
+      <c r="T119" s="22"/>
+      <c r="U119" s="22"/>
+      <c r="V119" s="22"/>
+      <c r="W119" s="22"/>
+      <c r="X119" s="22"/>
+      <c r="Y119" s="22"/>
+      <c r="Z119" s="22"/>
+      <c r="AA119" s="22"/>
+      <c r="AB119" s="22"/>
+      <c r="AC119" s="22"/>
+      <c r="AD119" s="22"/>
+      <c r="AE119" s="22"/>
+      <c r="AF119" s="22"/>
+      <c r="AG119" s="22"/>
+      <c r="AH119" s="22"/>
+      <c r="AI119" s="22"/>
+      <c r="AJ119" s="22"/>
+      <c r="AK119" s="22"/>
+      <c r="AL119" s="22"/>
+      <c r="AM119" s="22"/>
+      <c r="AN119" s="22"/>
+      <c r="AO119" s="22"/>
+      <c r="AP119" s="22"/>
+      <c r="AQ119" s="22"/>
+      <c r="AR119" s="22"/>
+      <c r="AS119" s="22"/>
+      <c r="AT119" s="22"/>
+      <c r="AU119" s="22"/>
+      <c r="AV119" s="22"/>
+      <c r="AW119" s="22"/>
+      <c r="AX119" s="22"/>
+      <c r="AY119" s="22"/>
+      <c r="AZ119" s="22"/>
+      <c r="BA119" s="22"/>
+      <c r="BB119" s="22"/>
+      <c r="BC119" s="22"/>
+      <c r="BD119" s="22"/>
+      <c r="BE119" s="22"/>
+      <c r="BF119" s="22"/>
+      <c r="BG119" s="22"/>
+      <c r="BH119" s="22"/>
+      <c r="BI119" s="22"/>
+      <c r="BJ119" s="22"/>
+      <c r="BK119" s="22"/>
+      <c r="BL119" s="22"/>
+    </row>
+    <row r="120" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A120" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="82"/>
+      <c r="C120" s="82"/>
+      <c r="D120" s="82"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="82"/>
+      <c r="H120" s="82"/>
+      <c r="I120" s="82"/>
+      <c r="J120" s="82"/>
+      <c r="K120" s="82"/>
+      <c r="L120" s="82"/>
+      <c r="M120" s="82"/>
+    </row>
+    <row r="121" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
+        <v>97</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G121" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J121" s="8">
+        <v>4002</v>
+      </c>
+      <c r="K121" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="L121" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="M121" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
         <v>98</v>
       </c>
-      <c r="B118" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C118" s="28" t="s">
+      <c r="B122" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D122" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G122" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I122" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J122" s="27">
+        <v>4003</v>
+      </c>
+      <c r="K122" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D118" s="27" t="s">
+      <c r="L122" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="M122" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>115</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C123" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D123" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G118" s="39" t="s">
+      <c r="E123" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G123" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="H123" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I118" s="27" t="s">
+      <c r="I123" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="J118" s="27">
-        <v>4003</v>
-      </c>
-      <c r="K118" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="L118" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="M118" s="34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A119" s="4">
-        <v>115</v>
-      </c>
-      <c r="B119" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C119" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="D119" s="27" t="s">
+      <c r="J123" s="27">
+        <v>4004</v>
+      </c>
+      <c r="K123" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="L123" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="M123" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="124" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <v>99</v>
+      </c>
+      <c r="B124" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D124" s="4">
+        <v>8</v>
+      </c>
+      <c r="E124" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F124" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G124" s="24" t="s">
         <v>12</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G119" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I119" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J119" s="27">
-        <v>4004</v>
-      </c>
-      <c r="K119" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="L119" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="M119" s="32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="120" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A120" s="4">
-        <v>99</v>
-      </c>
-      <c r="B120" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D120" s="4">
-        <v>8</v>
-      </c>
-      <c r="E120" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F120" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G120" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J120" s="4">
-        <v>1010</v>
-      </c>
-      <c r="K120" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L120" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="M120" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="N120" s="22"/>
-      <c r="O120" s="22"/>
-      <c r="P120" s="22"/>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="22"/>
-      <c r="S120" s="22"/>
-      <c r="T120" s="22"/>
-      <c r="U120" s="22"/>
-      <c r="V120" s="22"/>
-      <c r="W120" s="22"/>
-      <c r="X120" s="22"/>
-      <c r="Y120" s="22"/>
-      <c r="Z120" s="22"/>
-      <c r="AA120" s="22"/>
-      <c r="AB120" s="22"/>
-      <c r="AC120" s="22"/>
-      <c r="AD120" s="22"/>
-      <c r="AE120" s="22"/>
-      <c r="AF120" s="22"/>
-      <c r="AG120" s="22"/>
-      <c r="AH120" s="22"/>
-      <c r="AI120" s="22"/>
-      <c r="AJ120" s="22"/>
-      <c r="AK120" s="22"/>
-      <c r="AL120" s="22"/>
-      <c r="AM120" s="22"/>
-      <c r="AN120" s="22"/>
-      <c r="AO120" s="22"/>
-      <c r="AP120" s="22"/>
-      <c r="AQ120" s="22"/>
-      <c r="AR120" s="22"/>
-      <c r="AS120" s="22"/>
-      <c r="AT120" s="22"/>
-      <c r="AU120" s="22"/>
-      <c r="AV120" s="22"/>
-      <c r="AW120" s="22"/>
-      <c r="AX120" s="22"/>
-      <c r="AY120" s="22"/>
-      <c r="AZ120" s="22"/>
-      <c r="BA120" s="22"/>
-      <c r="BB120" s="22"/>
-      <c r="BC120" s="22"/>
-      <c r="BD120" s="22"/>
-      <c r="BE120" s="22"/>
-      <c r="BF120" s="22"/>
-      <c r="BG120" s="22"/>
-      <c r="BH120" s="22"/>
-      <c r="BI120" s="22"/>
-      <c r="BJ120" s="22"/>
-      <c r="BK120" s="22"/>
-      <c r="BL120" s="22"/>
-    </row>
-    <row r="121" spans="1:64" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A121" s="62">
-        <v>101</v>
-      </c>
-      <c r="B121" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="C121" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="D121" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="F121" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="G121" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="I121" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="J121" s="62">
-        <v>1002</v>
-      </c>
-      <c r="K121" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="L121" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="M121" s="67" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="122" spans="1:64" ht="18" x14ac:dyDescent="0.3">
-      <c r="A122" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="B122" s="78"/>
-      <c r="C122" s="78"/>
-      <c r="D122" s="78"/>
-      <c r="E122" s="78"/>
-      <c r="F122" s="78"/>
-      <c r="G122" s="78"/>
-      <c r="H122" s="78"/>
-      <c r="I122" s="78"/>
-      <c r="J122" s="78"/>
-      <c r="K122" s="78"/>
-      <c r="L122" s="78"/>
-      <c r="M122" s="78"/>
-    </row>
-    <row r="123" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A123" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="B123" s="79"/>
-      <c r="C123" s="79"/>
-      <c r="D123" s="79"/>
-      <c r="E123" s="79"/>
-      <c r="F123" s="79"/>
-      <c r="G123" s="79"/>
-      <c r="H123" s="79"/>
-      <c r="I123" s="79"/>
-      <c r="J123" s="79"/>
-      <c r="K123" s="79"/>
-      <c r="L123" s="79"/>
-      <c r="M123" s="79"/>
-    </row>
-    <row r="124" spans="1:64" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="4">
-        <v>102</v>
-      </c>
-      <c r="B124" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C124" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G124" s="24">
-        <v>401</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="J124" s="4">
-        <v>1012</v>
-      </c>
-      <c r="K124" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="L124" s="33" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K124" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L124" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="M124" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:64" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="62">
+        <v>101</v>
+      </c>
+      <c r="B125" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C125" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="D125" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="M124" s="50" t="s">
+      <c r="E125" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="F125" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="G125" s="62" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="125" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A125" s="4">
-        <v>103</v>
-      </c>
-      <c r="B125" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C125" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G125" s="24">
-        <v>401</v>
-      </c>
-      <c r="H125" s="4" t="s">
+      <c r="H125" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I125" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J125" s="4">
-        <v>1013</v>
-      </c>
-      <c r="K125" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="L125" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M125" s="48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A126" s="4">
-        <v>104</v>
-      </c>
-      <c r="B126" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C126" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G126" s="24">
-        <v>401</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J126" s="4">
-        <v>1014</v>
-      </c>
-      <c r="K126" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="L126" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M126" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A127" s="4">
-        <v>105</v>
-      </c>
-      <c r="B127" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C127" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D127" s="24">
-        <v>201</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F127" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G127" s="45">
-        <v>400</v>
-      </c>
-      <c r="H127" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I127" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J127" s="41">
-        <v>1003</v>
-      </c>
-      <c r="K127" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L127" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="M127" s="33" t="s">
-        <v>51</v>
-      </c>
+      <c r="I125" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="J125" s="62">
+        <v>1002</v>
+      </c>
+      <c r="K125" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="L125" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="M125" s="67" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+      <c r="A126" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="B126" s="81"/>
+      <c r="C126" s="81"/>
+      <c r="D126" s="81"/>
+      <c r="E126" s="81"/>
+      <c r="F126" s="81"/>
+      <c r="G126" s="81"/>
+      <c r="H126" s="81"/>
+      <c r="I126" s="81"/>
+      <c r="J126" s="81"/>
+      <c r="K126" s="81"/>
+      <c r="L126" s="81"/>
+      <c r="M126" s="81"/>
+    </row>
+    <row r="127" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A127" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B127" s="82"/>
+      <c r="C127" s="82"/>
+      <c r="D127" s="82"/>
+      <c r="E127" s="82"/>
+      <c r="F127" s="82"/>
+      <c r="G127" s="82"/>
+      <c r="H127" s="82"/>
+      <c r="I127" s="82"/>
+      <c r="J127" s="82"/>
+      <c r="K127" s="82"/>
+      <c r="L127" s="82"/>
+      <c r="M127" s="82"/>
     </row>
     <row r="128" spans="1:64" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C128" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D128" s="24">
+        <v>196</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G128" s="24">
+        <v>401</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J128" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K128" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L128" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M128" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
+        <v>103</v>
+      </c>
+      <c r="B129" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G129" s="24">
+        <v>401</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J129" s="4">
+        <v>1013</v>
+      </c>
+      <c r="K129" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="L129" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M129" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>104</v>
+      </c>
+      <c r="B130" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G130" s="24">
+        <v>401</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J130" s="4">
+        <v>1014</v>
+      </c>
+      <c r="K130" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="L130" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M130" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
+        <v>105</v>
+      </c>
+      <c r="B131" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D131" s="24">
         <v>201</v>
       </c>
-      <c r="E128" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F128" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G128" s="45">
+      <c r="E131" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F131" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G131" s="45">
         <v>400</v>
-      </c>
-      <c r="H128" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I128" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="J128" s="25">
-        <v>1004</v>
-      </c>
-      <c r="K128" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="L128" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="M128" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A129" s="4">
-        <v>121</v>
-      </c>
-      <c r="B129" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C129" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="D129" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="F129" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="G129" s="55">
-        <v>400</v>
-      </c>
-      <c r="H129" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="I129" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="J129" s="54">
-        <v>1015</v>
-      </c>
-      <c r="K129" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="L129" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="M129" s="69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130" s="4">
-        <v>107</v>
-      </c>
-      <c r="B130" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D130" s="24">
-        <v>202</v>
-      </c>
-      <c r="E130" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F130" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G130" s="45">
-        <v>403</v>
-      </c>
-      <c r="H130" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I130" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="J130" s="25">
-        <v>1006</v>
-      </c>
-      <c r="K130" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L130" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="M130" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131" s="4">
-        <v>108</v>
-      </c>
-      <c r="B131" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C131" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D131" s="24">
-        <v>202</v>
-      </c>
-      <c r="E131" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F131" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G131" s="45">
-        <v>403</v>
       </c>
       <c r="H131" s="24" t="s">
         <v>7</v>
@@ -30965,119 +30950,119 @@
       <c r="I131" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J131" s="25">
-        <v>1007</v>
+      <c r="J131" s="41">
+        <v>1003</v>
       </c>
       <c r="K131" s="33" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="L131" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M131" s="33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="D132" s="24">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F132" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G132" s="45">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H132" s="24" t="s">
         <v>7</v>
       </c>
       <c r="I132" s="24" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J132" s="25">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="K132" s="33" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L132" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M132" s="33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C133" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="D133" s="24">
-        <v>202</v>
-      </c>
-      <c r="E133" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F133" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G133" s="24">
-        <v>403</v>
-      </c>
-      <c r="H133" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C133" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D133" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="F133" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="G133" s="55">
+        <v>400</v>
+      </c>
+      <c r="H133" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I133" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J133" s="71">
-        <v>5001</v>
-      </c>
-      <c r="K133" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="L133" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="M133" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="I133" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J133" s="54">
+        <v>1015</v>
+      </c>
+      <c r="K133" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="L133" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="M133" s="69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D134" s="24">
         <v>202</v>
       </c>
       <c r="E134" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F134" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G134" s="45">
         <v>403</v>
@@ -31086,321 +31071,329 @@
         <v>7</v>
       </c>
       <c r="I134" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J134" s="24">
-        <v>1011</v>
+        <v>11</v>
+      </c>
+      <c r="J134" s="25">
+        <v>1006</v>
       </c>
       <c r="K134" s="33" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="L134" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="M134" s="33" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="M134" s="31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
+        <v>108</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D135" s="24">
+        <v>202</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F135" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G135" s="45">
+        <v>403</v>
+      </c>
+      <c r="H135" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I135" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J135" s="25">
+        <v>1007</v>
+      </c>
+      <c r="K135" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L135" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="M135" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
+        <v>109</v>
+      </c>
+      <c r="B136" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D136" s="24">
+        <v>202</v>
+      </c>
+      <c r="E136" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F136" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G136" s="45">
+        <v>403</v>
+      </c>
+      <c r="H136" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I136" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J136" s="25">
+        <v>1008</v>
+      </c>
+      <c r="K136" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L136" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="M136" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="4">
+        <v>110</v>
+      </c>
+      <c r="B137" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D137" s="24">
+        <v>202</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G137" s="24">
+        <v>403</v>
+      </c>
+      <c r="H137" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I137" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J137" s="71">
+        <v>5001</v>
+      </c>
+      <c r="K137" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="L137" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="M137" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="4">
+        <v>111</v>
+      </c>
+      <c r="B138" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D138" s="24">
+        <v>202</v>
+      </c>
+      <c r="E138" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F138" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G138" s="45">
+        <v>403</v>
+      </c>
+      <c r="H138" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I138" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J138" s="24">
+        <v>1011</v>
+      </c>
+      <c r="K138" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L138" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="M138" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="4">
         <v>112</v>
       </c>
-      <c r="B135" s="33" t="s">
+      <c r="B139" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D135" s="4">
+      <c r="D139" s="4">
         <v>203</v>
       </c>
-      <c r="E135" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G135" s="24">
-        <v>400</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J135" s="10">
-        <v>3002</v>
-      </c>
-      <c r="K135" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="L135" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="M135" s="31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="62">
-        <v>113</v>
-      </c>
-      <c r="B136" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="C136" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="D136" s="62">
-        <v>203</v>
-      </c>
-      <c r="E136" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="F136" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="G136" s="62">
-        <v>400</v>
-      </c>
-      <c r="H136" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="I136" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="J136" s="62">
-        <v>1002</v>
-      </c>
-      <c r="K136" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="L136" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="M136" s="63" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="62">
-        <v>133</v>
-      </c>
-      <c r="B137" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="C137" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="D137" s="62">
-        <v>204</v>
-      </c>
-      <c r="E137" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="F137" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="G137" s="62">
-        <v>400</v>
-      </c>
-      <c r="H137" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="I137" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="J137" s="62">
-        <v>1002</v>
-      </c>
-      <c r="K137" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="L137" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="M137" s="63" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="27">
-        <v>132</v>
-      </c>
-      <c r="B138" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C138" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="D138" s="4">
-        <v>203</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G138" s="24">
-        <v>400</v>
-      </c>
-      <c r="H138" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J138" s="27">
-        <v>3003</v>
-      </c>
-      <c r="K138" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="L138" s="34"/>
-      <c r="M138" s="31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="27">
-        <v>131</v>
-      </c>
-      <c r="B139" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C139" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="D139" s="4">
-        <v>204</v>
-      </c>
       <c r="E139" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G139" s="24">
         <v>400</v>
       </c>
-      <c r="H139" s="62" t="s">
+      <c r="H139" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I139" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J139" s="27">
-        <v>3004</v>
-      </c>
-      <c r="K139" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="L139" s="34"/>
-      <c r="M139" s="60" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="60.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="8">
-        <v>130</v>
-      </c>
-      <c r="B140" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C140" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G140" s="24">
+      <c r="J139" s="10">
+        <v>3002</v>
+      </c>
+      <c r="K139" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="L139" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="M139" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="62">
+        <v>113</v>
+      </c>
+      <c r="B140" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="C140" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="D140" s="62">
+        <v>203</v>
+      </c>
+      <c r="E140" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="F140" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="G140" s="62">
         <v>400</v>
       </c>
       <c r="H140" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I140" s="4" t="s">
+      <c r="I140" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="J140" s="27">
-        <v>3005</v>
-      </c>
-      <c r="K140" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="L140" s="34"/>
-      <c r="M140" s="60" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="8">
-        <v>128</v>
-      </c>
-      <c r="B141" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C141" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="D141" s="4">
-        <v>203</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G141" s="24">
+      <c r="J140" s="62">
+        <v>1002</v>
+      </c>
+      <c r="K140" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="L140" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="M140" s="63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="62">
+        <v>133</v>
+      </c>
+      <c r="B141" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="C141" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="D141" s="62">
+        <v>204</v>
+      </c>
+      <c r="E141" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="F141" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="G141" s="62">
         <v>400</v>
       </c>
       <c r="H141" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I141" s="4" t="s">
+      <c r="I141" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="J141" s="27">
-        <v>3006</v>
-      </c>
-      <c r="K141" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="L141" s="34"/>
-      <c r="M141" s="61" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J141" s="62">
+        <v>1002</v>
+      </c>
+      <c r="K141" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="L141" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="M141" s="63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="45.6" x14ac:dyDescent="0.3">
       <c r="A142" s="27">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C142" s="73" t="s">
-        <v>235</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>12</v>
+        <v>196</v>
+      </c>
+      <c r="C142" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="D142" s="4">
+        <v>203</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G142" s="71">
-        <v>404</v>
+        <v>156</v>
+      </c>
+      <c r="G142" s="24">
+        <v>400</v>
       </c>
       <c r="H142" s="62" t="s">
         <v>7</v>
@@ -31408,76 +31401,182 @@
       <c r="I142" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J142" s="72">
+      <c r="J142" s="27">
+        <v>3003</v>
+      </c>
+      <c r="K142" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="L142" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="M142" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="27">
+        <v>131</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C143" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="D143" s="4">
+        <v>204</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G143" s="24">
+        <v>400</v>
+      </c>
+      <c r="H143" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J143" s="27">
+        <v>3004</v>
+      </c>
+      <c r="K143" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="L143" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="M143" s="60" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="60.6" x14ac:dyDescent="0.3">
+      <c r="A144" s="8">
+        <v>130</v>
+      </c>
+      <c r="B144" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C144" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G144" s="24">
+        <v>400</v>
+      </c>
+      <c r="H144" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J144" s="27">
+        <v>3005</v>
+      </c>
+      <c r="K144" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="L144" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="M144" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="8">
+        <v>128</v>
+      </c>
+      <c r="B145" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C145" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="D145" s="4">
+        <v>203</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G145" s="24">
+        <v>400</v>
+      </c>
+      <c r="H145" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J145" s="27">
+        <v>3006</v>
+      </c>
+      <c r="K145" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="L145" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="M145" s="61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" s="27">
+        <v>129</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C146" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G146" s="71">
+        <v>404</v>
+      </c>
+      <c r="H146" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J146" s="72">
         <v>3007</v>
       </c>
-      <c r="K142" s="73" t="s">
-        <v>235</v>
-      </c>
-      <c r="L142" s="34"/>
-      <c r="M142" s="61" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A143" s="20"/>
-      <c r="B143" s="21"/>
-      <c r="C143" s="22"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="46"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="20"/>
-      <c r="J143" s="20"/>
-      <c r="K143" s="35"/>
-      <c r="L143" s="21"/>
-      <c r="M143" s="21"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A144" s="20"/>
-      <c r="B144" s="21"/>
-      <c r="C144" s="22"/>
-      <c r="D144" s="20"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="20"/>
-      <c r="G144" s="46"/>
-      <c r="H144" s="20"/>
-      <c r="I144" s="20"/>
-      <c r="J144" s="20"/>
-      <c r="K144" s="35"/>
-      <c r="L144" s="21"/>
-      <c r="M144" s="21"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A145" s="20"/>
-      <c r="B145" s="21"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="20"/>
-      <c r="F145" s="20"/>
-      <c r="G145" s="46"/>
-      <c r="H145" s="20"/>
-      <c r="I145" s="20"/>
-      <c r="J145" s="20"/>
-      <c r="K145" s="35"/>
-      <c r="L145" s="21"/>
-      <c r="M145" s="21"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A146" s="20"/>
-      <c r="B146" s="21"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="46"/>
-      <c r="H146" s="20"/>
-      <c r="I146" s="20"/>
-      <c r="J146" s="20"/>
-      <c r="K146" s="35"/>
-      <c r="L146" s="21"/>
-      <c r="M146" s="21"/>
+      <c r="K146" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="L146" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="M146" s="61" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="20"/>
@@ -36039,6 +36138,66 @@
       <c r="L450" s="21"/>
       <c r="M450" s="21"/>
     </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A451" s="20"/>
+      <c r="B451" s="21"/>
+      <c r="C451" s="22"/>
+      <c r="D451" s="20"/>
+      <c r="E451" s="20"/>
+      <c r="F451" s="20"/>
+      <c r="G451" s="46"/>
+      <c r="H451" s="20"/>
+      <c r="I451" s="20"/>
+      <c r="J451" s="20"/>
+      <c r="K451" s="35"/>
+      <c r="L451" s="21"/>
+      <c r="M451" s="21"/>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A452" s="20"/>
+      <c r="B452" s="21"/>
+      <c r="C452" s="22"/>
+      <c r="D452" s="20"/>
+      <c r="E452" s="20"/>
+      <c r="F452" s="20"/>
+      <c r="G452" s="46"/>
+      <c r="H452" s="20"/>
+      <c r="I452" s="20"/>
+      <c r="J452" s="20"/>
+      <c r="K452" s="35"/>
+      <c r="L452" s="21"/>
+      <c r="M452" s="21"/>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A453" s="20"/>
+      <c r="B453" s="21"/>
+      <c r="C453" s="22"/>
+      <c r="D453" s="20"/>
+      <c r="E453" s="20"/>
+      <c r="F453" s="20"/>
+      <c r="G453" s="46"/>
+      <c r="H453" s="20"/>
+      <c r="I453" s="20"/>
+      <c r="J453" s="20"/>
+      <c r="K453" s="35"/>
+      <c r="L453" s="21"/>
+      <c r="M453" s="21"/>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A454" s="20"/>
+      <c r="B454" s="21"/>
+      <c r="C454" s="22"/>
+      <c r="D454" s="20"/>
+      <c r="E454" s="20"/>
+      <c r="F454" s="20"/>
+      <c r="G454" s="46"/>
+      <c r="H454" s="20"/>
+      <c r="I454" s="20"/>
+      <c r="J454" s="20"/>
+      <c r="K454" s="35"/>
+      <c r="L454" s="21"/>
+      <c r="M454" s="21"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
@@ -36049,23 +36208,23 @@
     <mergeCell ref="A70:M70"/>
     <mergeCell ref="A84:M84"/>
     <mergeCell ref="A83:M83"/>
-    <mergeCell ref="A101:M101"/>
+    <mergeCell ref="A106:M106"/>
     <mergeCell ref="A71:M71"/>
     <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A122:M122"/>
-    <mergeCell ref="A123:M123"/>
-    <mergeCell ref="A116:M116"/>
-    <mergeCell ref="A99:M99"/>
-    <mergeCell ref="A102:M102"/>
+    <mergeCell ref="A126:M126"/>
+    <mergeCell ref="A127:M127"/>
+    <mergeCell ref="A120:M120"/>
+    <mergeCell ref="A104:M104"/>
+    <mergeCell ref="A107:M107"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65:H69 H49:H55 H110:H114 H92:H98 H78:H82 H100 H21 H117:H121 H7:H8 H62:H63 H75:H76 H88:H90 H106:H108 H127:H128 H10:H16 H130:H142 H23:H47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65:H69 H49:H55 H115:H119 H78:H82 H105 H21 H121:H125 H7:H8 H62:H63 H75:H76 H88:H90 H111:H113 H131:H132 H10:H16 H134:H146 H23:H47 H92:H103">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:I55 I65:I69 I117 I92:I98 I78:I82 I100 I21 I120 I7:I8 I62:I63 I75:I76 I88:I90 I106:I108 I127:I128 I10:I16 I110:I114 I130:I142 I23:I47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:I55 I65:I69 I121 I78:I82 I105 I21 I124 I7:I8 I62:I63 I75:I76 I88:I90 I111:I113 I131:I132 I10:I16 I115:I119 I134:I146 I23:I47 I92:I103">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J65:J69 J10:J14 J78:J82 J39:J46 J100 J120 J92:J97 J117 J49:J53 J134:J135 J130:J132 J21 J7:J8 J62:J63 J75:J76 J88:J90 J106:J108 J127:J128 J16 J110:J114 J23:J34 J36:J37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J65:J69 J10:J14 J78:J82 J39:J46 J105 J124 J121 J49:J53 J138:J139 J134:J136 J21 J7:J8 J62:J63 J75:J76 J88:J90 J111:J113 J131:J132 J16 J115:J119 J23:J34 J36:J37 J92:J97">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -36201,21 +36201,21 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A126:M126"/>
+    <mergeCell ref="A127:M127"/>
+    <mergeCell ref="A120:M120"/>
+    <mergeCell ref="A104:M104"/>
+    <mergeCell ref="A107:M107"/>
+    <mergeCell ref="A84:M84"/>
+    <mergeCell ref="A83:M83"/>
+    <mergeCell ref="A106:M106"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="A58:M58"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A22:M22"/>
     <mergeCell ref="A57:M57"/>
     <mergeCell ref="A70:M70"/>
-    <mergeCell ref="A84:M84"/>
-    <mergeCell ref="A83:M83"/>
-    <mergeCell ref="A106:M106"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A126:M126"/>
-    <mergeCell ref="A127:M127"/>
-    <mergeCell ref="A120:M120"/>
-    <mergeCell ref="A104:M104"/>
-    <mergeCell ref="A107:M107"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65:H69 H49:H55 H115:H119 H78:H82 H105 H21 H121:H125 H7:H8 H62:H63 H75:H76 H88:H90 H111:H113 H131:H132 H10:H16 H134:H146 H23:H47 H92:H103">

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -11,9 +11,9 @@
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$A$1:$M$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$A$1:$M$123</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$K$121</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$K$120</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="243">
   <si>
     <t>Payslip</t>
   </si>
@@ -778,9 +778,6 @@
     <t>Employee's Date of Birth is mandatory if the PPSN is not available</t>
   </si>
   <si>
-    <t>From should not be negative</t>
-  </si>
-  <si>
     <t>To cannot be zero or empty.</t>
   </si>
   <si>
@@ -799,19 +796,16 @@
     <t>RangeParameters selected are outside the range of RPN available. TO cannot be more than Total count</t>
   </si>
   <si>
-    <t>TO</t>
-  </si>
-  <si>
     <t>FROM</t>
   </si>
   <si>
     <t>TO and FROM</t>
   </si>
   <si>
-    <t>136-140</t>
+    <t>LookupPayrollReturnByPeriodRequest</t>
   </si>
   <si>
-    <t>LookupPayrollReturnByPeriodRequest</t>
+    <t>137-140</t>
   </si>
 </sst>
 </file>
@@ -21952,7 +21946,7 @@
   <dimension ref="B8:M32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22252,7 +22246,7 @@
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
       <c r="C28" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>180</v>
@@ -22307,11 +22301,11 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BL454"/>
+  <dimension ref="A1:BL453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M102" sqref="M102"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -28619,7 +28613,7 @@
         <v>146</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>12</v>
@@ -28643,7 +28637,7 @@
         <v>3001</v>
       </c>
       <c r="K96" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L96" s="31" t="s">
         <v>147</v>
@@ -28795,9 +28789,9 @@
       <c r="BK97" s="22"/>
       <c r="BL97" s="22"/>
     </row>
-    <row r="98" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A98" s="27">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B98" s="31" t="s">
         <v>146</v>
@@ -28824,7 +28818,7 @@
         <v>11</v>
       </c>
       <c r="J98" s="27">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="K98" s="78" t="s">
         <v>233</v>
@@ -28833,63 +28827,63 @@
         <v>147</v>
       </c>
       <c r="M98" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="N98" s="21"/>
-      <c r="O98" s="21"/>
-      <c r="P98" s="21"/>
-      <c r="Q98" s="21"/>
-      <c r="R98" s="21"/>
-      <c r="S98" s="21"/>
-      <c r="T98" s="21"/>
-      <c r="U98" s="21"/>
-      <c r="V98" s="21"/>
-      <c r="W98" s="21"/>
-      <c r="X98" s="21"/>
-      <c r="Y98" s="21"/>
-      <c r="Z98" s="21"/>
-      <c r="AA98" s="21"/>
-      <c r="AB98" s="21"/>
-      <c r="AC98" s="21"/>
-      <c r="AD98" s="21"/>
-      <c r="AE98" s="21"/>
-      <c r="AF98" s="21"/>
-      <c r="AG98" s="21"/>
-      <c r="AH98" s="21"/>
-      <c r="AI98" s="21"/>
-      <c r="AJ98" s="21"/>
-      <c r="AK98" s="21"/>
-      <c r="AL98" s="21"/>
-      <c r="AM98" s="21"/>
-      <c r="AN98" s="21"/>
-      <c r="AO98" s="21"/>
-      <c r="AP98" s="21"/>
-      <c r="AQ98" s="21"/>
-      <c r="AR98" s="21"/>
-      <c r="AS98" s="21"/>
-      <c r="AT98" s="21"/>
-      <c r="AU98" s="21"/>
-      <c r="AV98" s="21"/>
-      <c r="AW98" s="21"/>
-      <c r="AX98" s="21"/>
-      <c r="AY98" s="21"/>
-      <c r="AZ98" s="21"/>
-      <c r="BA98" s="21"/>
-      <c r="BB98" s="21"/>
-      <c r="BC98" s="21"/>
-      <c r="BD98" s="21"/>
-      <c r="BE98" s="21"/>
-      <c r="BF98" s="21"/>
-      <c r="BG98" s="21"/>
-      <c r="BH98" s="21"/>
-      <c r="BI98" s="21"/>
-      <c r="BJ98" s="21"/>
-      <c r="BK98" s="21"/>
-      <c r="BL98" s="21"/>
-    </row>
-    <row r="99" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="N98" s="22"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="22"/>
+      <c r="Q98" s="22"/>
+      <c r="R98" s="22"/>
+      <c r="S98" s="22"/>
+      <c r="T98" s="22"/>
+      <c r="U98" s="22"/>
+      <c r="V98" s="22"/>
+      <c r="W98" s="22"/>
+      <c r="X98" s="22"/>
+      <c r="Y98" s="22"/>
+      <c r="Z98" s="22"/>
+      <c r="AA98" s="22"/>
+      <c r="AB98" s="22"/>
+      <c r="AC98" s="22"/>
+      <c r="AD98" s="22"/>
+      <c r="AE98" s="22"/>
+      <c r="AF98" s="22"/>
+      <c r="AG98" s="22"/>
+      <c r="AH98" s="22"/>
+      <c r="AI98" s="22"/>
+      <c r="AJ98" s="22"/>
+      <c r="AK98" s="22"/>
+      <c r="AL98" s="22"/>
+      <c r="AM98" s="22"/>
+      <c r="AN98" s="22"/>
+      <c r="AO98" s="22"/>
+      <c r="AP98" s="22"/>
+      <c r="AQ98" s="22"/>
+      <c r="AR98" s="22"/>
+      <c r="AS98" s="22"/>
+      <c r="AT98" s="22"/>
+      <c r="AU98" s="22"/>
+      <c r="AV98" s="22"/>
+      <c r="AW98" s="22"/>
+      <c r="AX98" s="22"/>
+      <c r="AY98" s="22"/>
+      <c r="AZ98" s="22"/>
+      <c r="BA98" s="22"/>
+      <c r="BB98" s="22"/>
+      <c r="BC98" s="22"/>
+      <c r="BD98" s="22"/>
+      <c r="BE98" s="22"/>
+      <c r="BF98" s="22"/>
+      <c r="BG98" s="22"/>
+      <c r="BH98" s="22"/>
+      <c r="BI98" s="22"/>
+      <c r="BJ98" s="22"/>
+      <c r="BK98" s="22"/>
+      <c r="BL98" s="22"/>
+    </row>
+    <row r="99" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="27">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B99" s="31" t="s">
         <v>146</v>
@@ -28913,10 +28907,10 @@
         <v>7</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J99" s="27">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="K99" s="78" t="s">
         <v>234</v>
@@ -28925,63 +28919,63 @@
         <v>147</v>
       </c>
       <c r="M99" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="N99" s="22"/>
-      <c r="O99" s="22"/>
-      <c r="P99" s="22"/>
-      <c r="Q99" s="22"/>
-      <c r="R99" s="22"/>
-      <c r="S99" s="22"/>
-      <c r="T99" s="22"/>
-      <c r="U99" s="22"/>
-      <c r="V99" s="22"/>
-      <c r="W99" s="22"/>
-      <c r="X99" s="22"/>
-      <c r="Y99" s="22"/>
-      <c r="Z99" s="22"/>
-      <c r="AA99" s="22"/>
-      <c r="AB99" s="22"/>
-      <c r="AC99" s="22"/>
-      <c r="AD99" s="22"/>
-      <c r="AE99" s="22"/>
-      <c r="AF99" s="22"/>
-      <c r="AG99" s="22"/>
-      <c r="AH99" s="22"/>
-      <c r="AI99" s="22"/>
-      <c r="AJ99" s="22"/>
-      <c r="AK99" s="22"/>
-      <c r="AL99" s="22"/>
-      <c r="AM99" s="22"/>
-      <c r="AN99" s="22"/>
-      <c r="AO99" s="22"/>
-      <c r="AP99" s="22"/>
-      <c r="AQ99" s="22"/>
-      <c r="AR99" s="22"/>
-      <c r="AS99" s="22"/>
-      <c r="AT99" s="22"/>
-      <c r="AU99" s="22"/>
-      <c r="AV99" s="22"/>
-      <c r="AW99" s="22"/>
-      <c r="AX99" s="22"/>
-      <c r="AY99" s="22"/>
-      <c r="AZ99" s="22"/>
-      <c r="BA99" s="22"/>
-      <c r="BB99" s="22"/>
-      <c r="BC99" s="22"/>
-      <c r="BD99" s="22"/>
-      <c r="BE99" s="22"/>
-      <c r="BF99" s="22"/>
-      <c r="BG99" s="22"/>
-      <c r="BH99" s="22"/>
-      <c r="BI99" s="22"/>
-      <c r="BJ99" s="22"/>
-      <c r="BK99" s="22"/>
-      <c r="BL99" s="22"/>
-    </row>
-    <row r="100" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="N99" s="21"/>
+      <c r="O99" s="21"/>
+      <c r="P99" s="21"/>
+      <c r="Q99" s="21"/>
+      <c r="R99" s="21"/>
+      <c r="S99" s="21"/>
+      <c r="T99" s="21"/>
+      <c r="U99" s="21"/>
+      <c r="V99" s="21"/>
+      <c r="W99" s="21"/>
+      <c r="X99" s="21"/>
+      <c r="Y99" s="21"/>
+      <c r="Z99" s="21"/>
+      <c r="AA99" s="21"/>
+      <c r="AB99" s="21"/>
+      <c r="AC99" s="21"/>
+      <c r="AD99" s="21"/>
+      <c r="AE99" s="21"/>
+      <c r="AF99" s="21"/>
+      <c r="AG99" s="21"/>
+      <c r="AH99" s="21"/>
+      <c r="AI99" s="21"/>
+      <c r="AJ99" s="21"/>
+      <c r="AK99" s="21"/>
+      <c r="AL99" s="21"/>
+      <c r="AM99" s="21"/>
+      <c r="AN99" s="21"/>
+      <c r="AO99" s="21"/>
+      <c r="AP99" s="21"/>
+      <c r="AQ99" s="21"/>
+      <c r="AR99" s="21"/>
+      <c r="AS99" s="21"/>
+      <c r="AT99" s="21"/>
+      <c r="AU99" s="21"/>
+      <c r="AV99" s="21"/>
+      <c r="AW99" s="21"/>
+      <c r="AX99" s="21"/>
+      <c r="AY99" s="21"/>
+      <c r="AZ99" s="21"/>
+      <c r="BA99" s="21"/>
+      <c r="BB99" s="21"/>
+      <c r="BC99" s="21"/>
+      <c r="BD99" s="21"/>
+      <c r="BE99" s="21"/>
+      <c r="BF99" s="21"/>
+      <c r="BG99" s="21"/>
+      <c r="BH99" s="21"/>
+      <c r="BI99" s="21"/>
+      <c r="BJ99" s="21"/>
+      <c r="BK99" s="21"/>
+      <c r="BL99" s="21"/>
+    </row>
+    <row r="100" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" s="27">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B100" s="31" t="s">
         <v>146</v>
@@ -29008,7 +29002,7 @@
         <v>35</v>
       </c>
       <c r="J100" s="27">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="K100" s="78" t="s">
         <v>235</v>
@@ -29017,7 +29011,7 @@
         <v>147</v>
       </c>
       <c r="M100" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N100" s="21"/>
       <c r="O100" s="21"/>
@@ -29071,9 +29065,9 @@
       <c r="BK100" s="21"/>
       <c r="BL100" s="21"/>
     </row>
-    <row r="101" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:64" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A101" s="27">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B101" s="31" t="s">
         <v>146</v>
@@ -29091,16 +29085,16 @@
         <v>157</v>
       </c>
       <c r="G101" s="24">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J101" s="27">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="K101" s="78" t="s">
         <v>236</v>
@@ -29108,8 +29102,8 @@
       <c r="L101" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="M101" s="34" t="s">
-        <v>242</v>
+      <c r="M101" s="31" t="s">
+        <v>12</v>
       </c>
       <c r="N101" s="21"/>
       <c r="O101" s="21"/>
@@ -29163,45 +29157,45 @@
       <c r="BK101" s="21"/>
       <c r="BL101" s="21"/>
     </row>
-    <row r="102" spans="1:64" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A102" s="27">
-        <v>140</v>
-      </c>
-      <c r="B102" s="31" t="s">
+    <row r="102" spans="1:64" s="51" customFormat="1" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A102" s="62">
+        <v>84</v>
+      </c>
+      <c r="B102" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="C102" s="78" t="s">
-        <v>237</v>
-      </c>
-      <c r="D102" s="4" t="s">
+      <c r="C102" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="F102" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="G102" s="24">
-        <v>404</v>
-      </c>
-      <c r="H102" s="4" t="s">
+      <c r="F102" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="G102" s="62">
+        <v>400</v>
+      </c>
+      <c r="H102" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I102" s="4" t="s">
+      <c r="I102" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="J102" s="27">
-        <v>3012</v>
-      </c>
-      <c r="K102" s="78" t="s">
-        <v>237</v>
-      </c>
-      <c r="L102" s="31" t="s">
+      <c r="J102" s="62">
+        <v>1002</v>
+      </c>
+      <c r="K102" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="L102" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="M102" s="31" t="s">
-        <v>12</v>
+      <c r="M102" s="63" t="s">
+        <v>73</v>
       </c>
       <c r="N102" s="21"/>
       <c r="O102" s="21"/>
@@ -29255,46 +29249,22 @@
       <c r="BK102" s="21"/>
       <c r="BL102" s="21"/>
     </row>
-    <row r="103" spans="1:64" s="51" customFormat="1" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A103" s="62">
-        <v>84</v>
-      </c>
-      <c r="B103" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="C103" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="D103" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="F103" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="G103" s="62">
-        <v>400</v>
-      </c>
-      <c r="H103" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="I103" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="J103" s="62">
-        <v>1002</v>
-      </c>
-      <c r="K103" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="L103" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="M103" s="63" t="s">
-        <v>73</v>
-      </c>
+    <row r="103" spans="1:64" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A103" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" s="82"/>
+      <c r="C103" s="82"/>
+      <c r="D103" s="82"/>
+      <c r="E103" s="82"/>
+      <c r="F103" s="82"/>
+      <c r="G103" s="82"/>
+      <c r="H103" s="82"/>
+      <c r="I103" s="82"/>
+      <c r="J103" s="82"/>
+      <c r="K103" s="82"/>
+      <c r="L103" s="82"/>
+      <c r="M103" s="82"/>
       <c r="N103" s="21"/>
       <c r="O103" s="21"/>
       <c r="P103" s="21"/>
@@ -29347,114 +29317,114 @@
       <c r="BK103" s="21"/>
       <c r="BL103" s="21"/>
     </row>
-    <row r="104" spans="1:64" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A104" s="82" t="s">
-        <v>162</v>
-      </c>
-      <c r="B104" s="82"/>
-      <c r="C104" s="82"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="82"/>
-      <c r="H104" s="82"/>
-      <c r="I104" s="82"/>
-      <c r="J104" s="82"/>
-      <c r="K104" s="82"/>
-      <c r="L104" s="82"/>
-      <c r="M104" s="82"/>
-      <c r="N104" s="21"/>
-      <c r="O104" s="21"/>
-      <c r="P104" s="21"/>
-      <c r="Q104" s="21"/>
-      <c r="R104" s="21"/>
-      <c r="S104" s="21"/>
-      <c r="T104" s="21"/>
-      <c r="U104" s="21"/>
-      <c r="V104" s="21"/>
-      <c r="W104" s="21"/>
-      <c r="X104" s="21"/>
-      <c r="Y104" s="21"/>
-      <c r="Z104" s="21"/>
-      <c r="AA104" s="21"/>
-      <c r="AB104" s="21"/>
-      <c r="AC104" s="21"/>
-      <c r="AD104" s="21"/>
-      <c r="AE104" s="21"/>
-      <c r="AF104" s="21"/>
-      <c r="AG104" s="21"/>
-      <c r="AH104" s="21"/>
-      <c r="AI104" s="21"/>
-      <c r="AJ104" s="21"/>
-      <c r="AK104" s="21"/>
-      <c r="AL104" s="21"/>
-      <c r="AM104" s="21"/>
-      <c r="AN104" s="21"/>
-      <c r="AO104" s="21"/>
-      <c r="AP104" s="21"/>
-      <c r="AQ104" s="21"/>
-      <c r="AR104" s="21"/>
-      <c r="AS104" s="21"/>
-      <c r="AT104" s="21"/>
-      <c r="AU104" s="21"/>
-      <c r="AV104" s="21"/>
-      <c r="AW104" s="21"/>
-      <c r="AX104" s="21"/>
-      <c r="AY104" s="21"/>
-      <c r="AZ104" s="21"/>
-      <c r="BA104" s="21"/>
-      <c r="BB104" s="21"/>
-      <c r="BC104" s="21"/>
-      <c r="BD104" s="21"/>
-      <c r="BE104" s="21"/>
-      <c r="BF104" s="21"/>
-      <c r="BG104" s="21"/>
-      <c r="BH104" s="21"/>
-      <c r="BI104" s="21"/>
-      <c r="BJ104" s="21"/>
-      <c r="BK104" s="21"/>
-      <c r="BL104" s="21"/>
-    </row>
-    <row r="105" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A105" s="4">
+    <row r="104" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
         <v>85</v>
       </c>
-      <c r="B105" s="31" t="s">
+      <c r="B104" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C104" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D104" s="4">
         <v>8</v>
       </c>
-      <c r="E105" s="24" t="s">
+      <c r="E104" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="F105" s="24" t="s">
+      <c r="F104" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G105" s="45" t="s">
+      <c r="G104" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H105" s="4" t="s">
+      <c r="H104" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I105" s="4" t="s">
+      <c r="I104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J105" s="4">
+      <c r="J104" s="4">
         <v>1010</v>
       </c>
-      <c r="K105" s="31" t="s">
+      <c r="K104" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L105" s="31" t="s">
+      <c r="L104" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="M105" s="31" t="s">
+      <c r="M104" s="31" t="s">
         <v>1</v>
       </c>
+      <c r="N104" s="22"/>
+      <c r="O104" s="22"/>
+      <c r="P104" s="22"/>
+      <c r="Q104" s="22"/>
+      <c r="R104" s="22"/>
+      <c r="S104" s="22"/>
+      <c r="T104" s="22"/>
+      <c r="U104" s="22"/>
+      <c r="V104" s="22"/>
+      <c r="W104" s="22"/>
+      <c r="X104" s="22"/>
+      <c r="Y104" s="22"/>
+      <c r="Z104" s="22"/>
+      <c r="AA104" s="22"/>
+      <c r="AB104" s="22"/>
+      <c r="AC104" s="22"/>
+      <c r="AD104" s="22"/>
+      <c r="AE104" s="22"/>
+      <c r="AF104" s="22"/>
+      <c r="AG104" s="22"/>
+      <c r="AH104" s="22"/>
+      <c r="AI104" s="22"/>
+      <c r="AJ104" s="22"/>
+      <c r="AK104" s="22"/>
+      <c r="AL104" s="22"/>
+      <c r="AM104" s="22"/>
+      <c r="AN104" s="22"/>
+      <c r="AO104" s="22"/>
+      <c r="AP104" s="22"/>
+      <c r="AQ104" s="22"/>
+      <c r="AR104" s="22"/>
+      <c r="AS104" s="22"/>
+      <c r="AT104" s="22"/>
+      <c r="AU104" s="22"/>
+      <c r="AV104" s="22"/>
+      <c r="AW104" s="22"/>
+      <c r="AX104" s="22"/>
+      <c r="AY104" s="22"/>
+      <c r="AZ104" s="22"/>
+      <c r="BA104" s="22"/>
+      <c r="BB104" s="22"/>
+      <c r="BC104" s="22"/>
+      <c r="BD104" s="22"/>
+      <c r="BE104" s="22"/>
+      <c r="BF104" s="22"/>
+      <c r="BG104" s="22"/>
+      <c r="BH104" s="22"/>
+      <c r="BI104" s="22"/>
+      <c r="BJ104" s="22"/>
+      <c r="BK104" s="22"/>
+      <c r="BL104" s="22"/>
+    </row>
+    <row r="105" spans="1:64" s="7" customFormat="1" ht="18" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A105" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" s="81"/>
+      <c r="C105" s="81"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="81"/>
+      <c r="H105" s="81"/>
+      <c r="I105" s="81"/>
+      <c r="J105" s="81"/>
+      <c r="K105" s="81"/>
+      <c r="L105" s="81"/>
+      <c r="M105" s="81"/>
       <c r="N105" s="22"/>
       <c r="O105" s="22"/>
       <c r="P105" s="22"/>
@@ -29507,22 +29477,22 @@
       <c r="BK105" s="22"/>
       <c r="BL105" s="22"/>
     </row>
-    <row r="106" spans="1:64" s="7" customFormat="1" ht="18" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A106" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="B106" s="81"/>
-      <c r="C106" s="81"/>
-      <c r="D106" s="81"/>
-      <c r="E106" s="81"/>
-      <c r="F106" s="81"/>
-      <c r="G106" s="81"/>
-      <c r="H106" s="81"/>
-      <c r="I106" s="81"/>
-      <c r="J106" s="81"/>
-      <c r="K106" s="81"/>
-      <c r="L106" s="81"/>
-      <c r="M106" s="81"/>
+    <row r="106" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A106" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="82"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="82"/>
+      <c r="E106" s="82"/>
+      <c r="F106" s="82"/>
+      <c r="G106" s="82"/>
+      <c r="H106" s="82"/>
+      <c r="I106" s="82"/>
+      <c r="J106" s="82"/>
+      <c r="K106" s="82"/>
+      <c r="L106" s="82"/>
+      <c r="M106" s="82"/>
       <c r="N106" s="22"/>
       <c r="O106" s="22"/>
       <c r="P106" s="22"/>
@@ -29575,83 +29545,56 @@
       <c r="BK106" s="22"/>
       <c r="BL106" s="22"/>
     </row>
-    <row r="107" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A107" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="B107" s="82"/>
-      <c r="C107" s="82"/>
-      <c r="D107" s="82"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="82"/>
-      <c r="G107" s="82"/>
-      <c r="H107" s="82"/>
-      <c r="I107" s="82"/>
-      <c r="J107" s="82"/>
-      <c r="K107" s="82"/>
-      <c r="L107" s="82"/>
-      <c r="M107" s="82"/>
-      <c r="N107" s="22"/>
-      <c r="O107" s="22"/>
-      <c r="P107" s="22"/>
-      <c r="Q107" s="22"/>
-      <c r="R107" s="22"/>
-      <c r="S107" s="22"/>
-      <c r="T107" s="22"/>
-      <c r="U107" s="22"/>
-      <c r="V107" s="22"/>
-      <c r="W107" s="22"/>
-      <c r="X107" s="22"/>
-      <c r="Y107" s="22"/>
-      <c r="Z107" s="22"/>
-      <c r="AA107" s="22"/>
-      <c r="AB107" s="22"/>
-      <c r="AC107" s="22"/>
-      <c r="AD107" s="22"/>
-      <c r="AE107" s="22"/>
-      <c r="AF107" s="22"/>
-      <c r="AG107" s="22"/>
-      <c r="AH107" s="22"/>
-      <c r="AI107" s="22"/>
-      <c r="AJ107" s="22"/>
-      <c r="AK107" s="22"/>
-      <c r="AL107" s="22"/>
-      <c r="AM107" s="22"/>
-      <c r="AN107" s="22"/>
-      <c r="AO107" s="22"/>
-      <c r="AP107" s="22"/>
-      <c r="AQ107" s="22"/>
-      <c r="AR107" s="22"/>
-      <c r="AS107" s="22"/>
-      <c r="AT107" s="22"/>
-      <c r="AU107" s="22"/>
-      <c r="AV107" s="22"/>
-      <c r="AW107" s="22"/>
-      <c r="AX107" s="22"/>
-      <c r="AY107" s="22"/>
-      <c r="AZ107" s="22"/>
-      <c r="BA107" s="22"/>
-      <c r="BB107" s="22"/>
-      <c r="BC107" s="22"/>
-      <c r="BD107" s="22"/>
-      <c r="BE107" s="22"/>
-      <c r="BF107" s="22"/>
-      <c r="BG107" s="22"/>
-      <c r="BH107" s="22"/>
-      <c r="BI107" s="22"/>
-      <c r="BJ107" s="22"/>
-      <c r="BK107" s="22"/>
-      <c r="BL107" s="22"/>
-    </row>
-    <row r="108" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>86</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G107" s="24">
+        <v>401</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J107" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K107" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L107" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M107" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B108" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C108" s="52" t="s">
-        <v>172</v>
+      <c r="C108" s="23" t="s">
+        <v>164</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>12</v>
@@ -29672,27 +29615,78 @@
         <v>38</v>
       </c>
       <c r="J108" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="K108" s="23" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L108" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M108" s="50" t="s">
+      <c r="M108" s="48" t="s">
         <v>12</v>
       </c>
+      <c r="N108" s="22"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="22"/>
+      <c r="S108" s="22"/>
+      <c r="T108" s="22"/>
+      <c r="U108" s="22"/>
+      <c r="V108" s="22"/>
+      <c r="W108" s="22"/>
+      <c r="X108" s="22"/>
+      <c r="Y108" s="22"/>
+      <c r="Z108" s="22"/>
+      <c r="AA108" s="22"/>
+      <c r="AB108" s="22"/>
+      <c r="AC108" s="22"/>
+      <c r="AD108" s="22"/>
+      <c r="AE108" s="22"/>
+      <c r="AF108" s="22"/>
+      <c r="AG108" s="22"/>
+      <c r="AH108" s="22"/>
+      <c r="AI108" s="22"/>
+      <c r="AJ108" s="22"/>
+      <c r="AK108" s="22"/>
+      <c r="AL108" s="22"/>
+      <c r="AM108" s="22"/>
+      <c r="AN108" s="22"/>
+      <c r="AO108" s="22"/>
+      <c r="AP108" s="22"/>
+      <c r="AQ108" s="22"/>
+      <c r="AR108" s="22"/>
+      <c r="AS108" s="22"/>
+      <c r="AT108" s="22"/>
+      <c r="AU108" s="22"/>
+      <c r="AV108" s="22"/>
+      <c r="AW108" s="22"/>
+      <c r="AX108" s="22"/>
+      <c r="AY108" s="22"/>
+      <c r="AZ108" s="22"/>
+      <c r="BA108" s="22"/>
+      <c r="BB108" s="22"/>
+      <c r="BC108" s="22"/>
+      <c r="BD108" s="22"/>
+      <c r="BE108" s="22"/>
+      <c r="BF108" s="22"/>
+      <c r="BG108" s="22"/>
+      <c r="BH108" s="22"/>
+      <c r="BI108" s="22"/>
+      <c r="BJ108" s="22"/>
+      <c r="BK108" s="22"/>
+      <c r="BL108" s="22"/>
     </row>
     <row r="109" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B109" s="31" t="s">
         <v>149</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>12</v>
@@ -29713,15 +29707,15 @@
         <v>38</v>
       </c>
       <c r="J109" s="4">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K109" s="23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L109" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M109" s="48" t="s">
+      <c r="M109" s="31" t="s">
         <v>12</v>
       </c>
       <c r="N109" s="22"/>
@@ -29778,13 +29772,13 @@
     </row>
     <row r="110" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B110" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C110" s="23" t="s">
-        <v>165</v>
+      <c r="C110" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>12</v>
@@ -29796,25 +29790,25 @@
         <v>156</v>
       </c>
       <c r="G110" s="24">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J110" s="4">
-        <v>1014</v>
-      </c>
-      <c r="K110" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="L110" s="33" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="J110" s="10">
+        <v>1003</v>
+      </c>
+      <c r="K110" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L110" s="31" t="s">
+        <v>150</v>
       </c>
       <c r="M110" s="31" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="N110" s="22"/>
       <c r="O110" s="22"/>
@@ -29868,15 +29862,15 @@
       <c r="BK110" s="22"/>
       <c r="BL110" s="22"/>
     </row>
-    <row r="111" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B111" s="31" t="s">
         <v>149</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>12</v>
@@ -29894,13 +29888,13 @@
         <v>7</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J111" s="10">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="K111" s="31" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L111" s="31" t="s">
         <v>150</v>
@@ -29960,15 +29954,15 @@
       <c r="BK111" s="22"/>
       <c r="BL111" s="22"/>
     </row>
-    <row r="112" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B112" s="31" t="s">
         <v>149</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>12</v>
@@ -29986,13 +29980,13 @@
         <v>7</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J112" s="10">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="K112" s="31" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L112" s="31" t="s">
         <v>150</v>
@@ -30052,45 +30046,45 @@
       <c r="BK112" s="22"/>
       <c r="BL112" s="22"/>
     </row>
-    <row r="113" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:64" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B113" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D113" s="4" t="s">
+      <c r="C113" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D113" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F113" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="G113" s="24">
+      <c r="G113" s="55">
         <v>400</v>
       </c>
-      <c r="H113" s="4" t="s">
+      <c r="H113" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I113" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J113" s="10">
-        <v>1005</v>
-      </c>
-      <c r="K113" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L113" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="M113" s="31" t="s">
-        <v>50</v>
+      <c r="I113" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J113" s="54">
+        <v>1015</v>
+      </c>
+      <c r="K113" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="L113" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="M113" s="69" t="s">
+        <v>12</v>
       </c>
       <c r="N113" s="22"/>
       <c r="O113" s="22"/>
@@ -30144,107 +30138,107 @@
       <c r="BK113" s="22"/>
       <c r="BL113" s="22"/>
     </row>
-    <row r="114" spans="1:64" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B114" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C114" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="D114" s="54" t="s">
+      <c r="C114" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E114" s="54" t="s">
+      <c r="E114" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F114" s="54" t="s">
+      <c r="F114" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G114" s="55">
-        <v>400</v>
-      </c>
-      <c r="H114" s="54" t="s">
+      <c r="G114" s="24">
+        <v>404</v>
+      </c>
+      <c r="H114" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I114" s="55" t="s">
+      <c r="I114" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J114" s="54">
-        <v>1015</v>
-      </c>
-      <c r="K114" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="L114" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="M114" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="N114" s="22"/>
-      <c r="O114" s="22"/>
-      <c r="P114" s="22"/>
-      <c r="Q114" s="22"/>
-      <c r="R114" s="22"/>
-      <c r="S114" s="22"/>
-      <c r="T114" s="22"/>
-      <c r="U114" s="22"/>
-      <c r="V114" s="22"/>
-      <c r="W114" s="22"/>
-      <c r="X114" s="22"/>
-      <c r="Y114" s="22"/>
-      <c r="Z114" s="22"/>
-      <c r="AA114" s="22"/>
-      <c r="AB114" s="22"/>
-      <c r="AC114" s="22"/>
-      <c r="AD114" s="22"/>
-      <c r="AE114" s="22"/>
-      <c r="AF114" s="22"/>
-      <c r="AG114" s="22"/>
-      <c r="AH114" s="22"/>
-      <c r="AI114" s="22"/>
-      <c r="AJ114" s="22"/>
-      <c r="AK114" s="22"/>
-      <c r="AL114" s="22"/>
-      <c r="AM114" s="22"/>
-      <c r="AN114" s="22"/>
-      <c r="AO114" s="22"/>
-      <c r="AP114" s="22"/>
-      <c r="AQ114" s="22"/>
-      <c r="AR114" s="22"/>
-      <c r="AS114" s="22"/>
-      <c r="AT114" s="22"/>
-      <c r="AU114" s="22"/>
-      <c r="AV114" s="22"/>
-      <c r="AW114" s="22"/>
-      <c r="AX114" s="22"/>
-      <c r="AY114" s="22"/>
-      <c r="AZ114" s="22"/>
-      <c r="BA114" s="22"/>
-      <c r="BB114" s="22"/>
-      <c r="BC114" s="22"/>
-      <c r="BD114" s="22"/>
-      <c r="BE114" s="22"/>
-      <c r="BF114" s="22"/>
-      <c r="BG114" s="22"/>
-      <c r="BH114" s="22"/>
-      <c r="BI114" s="22"/>
-      <c r="BJ114" s="22"/>
-      <c r="BK114" s="22"/>
-      <c r="BL114" s="22"/>
-    </row>
-    <row r="115" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="J114" s="10">
+        <v>1006</v>
+      </c>
+      <c r="K114" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L114" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="M114" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N114" s="21"/>
+      <c r="O114" s="21"/>
+      <c r="P114" s="21"/>
+      <c r="Q114" s="21"/>
+      <c r="R114" s="21"/>
+      <c r="S114" s="21"/>
+      <c r="T114" s="21"/>
+      <c r="U114" s="21"/>
+      <c r="V114" s="21"/>
+      <c r="W114" s="21"/>
+      <c r="X114" s="21"/>
+      <c r="Y114" s="21"/>
+      <c r="Z114" s="21"/>
+      <c r="AA114" s="21"/>
+      <c r="AB114" s="21"/>
+      <c r="AC114" s="21"/>
+      <c r="AD114" s="21"/>
+      <c r="AE114" s="21"/>
+      <c r="AF114" s="21"/>
+      <c r="AG114" s="21"/>
+      <c r="AH114" s="21"/>
+      <c r="AI114" s="21"/>
+      <c r="AJ114" s="21"/>
+      <c r="AK114" s="21"/>
+      <c r="AL114" s="21"/>
+      <c r="AM114" s="21"/>
+      <c r="AN114" s="21"/>
+      <c r="AO114" s="21"/>
+      <c r="AP114" s="21"/>
+      <c r="AQ114" s="21"/>
+      <c r="AR114" s="21"/>
+      <c r="AS114" s="21"/>
+      <c r="AT114" s="21"/>
+      <c r="AU114" s="21"/>
+      <c r="AV114" s="21"/>
+      <c r="AW114" s="21"/>
+      <c r="AX114" s="21"/>
+      <c r="AY114" s="21"/>
+      <c r="AZ114" s="21"/>
+      <c r="BA114" s="21"/>
+      <c r="BB114" s="21"/>
+      <c r="BC114" s="21"/>
+      <c r="BD114" s="21"/>
+      <c r="BE114" s="21"/>
+      <c r="BF114" s="21"/>
+      <c r="BG114" s="21"/>
+      <c r="BH114" s="21"/>
+      <c r="BI114" s="21"/>
+      <c r="BJ114" s="21"/>
+      <c r="BK114" s="21"/>
+      <c r="BL114" s="21"/>
+    </row>
+    <row r="115" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B115" s="31" t="s">
         <v>149</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>12</v>
@@ -30262,13 +30256,13 @@
         <v>7</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J115" s="10">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K115" s="31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L115" s="31" t="s">
         <v>150</v>
@@ -30276,67 +30270,16 @@
       <c r="M115" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="N115" s="21"/>
-      <c r="O115" s="21"/>
-      <c r="P115" s="21"/>
-      <c r="Q115" s="21"/>
-      <c r="R115" s="21"/>
-      <c r="S115" s="21"/>
-      <c r="T115" s="21"/>
-      <c r="U115" s="21"/>
-      <c r="V115" s="21"/>
-      <c r="W115" s="21"/>
-      <c r="X115" s="21"/>
-      <c r="Y115" s="21"/>
-      <c r="Z115" s="21"/>
-      <c r="AA115" s="21"/>
-      <c r="AB115" s="21"/>
-      <c r="AC115" s="21"/>
-      <c r="AD115" s="21"/>
-      <c r="AE115" s="21"/>
-      <c r="AF115" s="21"/>
-      <c r="AG115" s="21"/>
-      <c r="AH115" s="21"/>
-      <c r="AI115" s="21"/>
-      <c r="AJ115" s="21"/>
-      <c r="AK115" s="21"/>
-      <c r="AL115" s="21"/>
-      <c r="AM115" s="21"/>
-      <c r="AN115" s="21"/>
-      <c r="AO115" s="21"/>
-      <c r="AP115" s="21"/>
-      <c r="AQ115" s="21"/>
-      <c r="AR115" s="21"/>
-      <c r="AS115" s="21"/>
-      <c r="AT115" s="21"/>
-      <c r="AU115" s="21"/>
-      <c r="AV115" s="21"/>
-      <c r="AW115" s="21"/>
-      <c r="AX115" s="21"/>
-      <c r="AY115" s="21"/>
-      <c r="AZ115" s="21"/>
-      <c r="BA115" s="21"/>
-      <c r="BB115" s="21"/>
-      <c r="BC115" s="21"/>
-      <c r="BD115" s="21"/>
-      <c r="BE115" s="21"/>
-      <c r="BF115" s="21"/>
-      <c r="BG115" s="21"/>
-      <c r="BH115" s="21"/>
-      <c r="BI115" s="21"/>
-      <c r="BJ115" s="21"/>
-      <c r="BK115" s="21"/>
-      <c r="BL115" s="21"/>
-    </row>
-    <row r="116" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B116" s="31" t="s">
         <v>149</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>12</v>
@@ -30348,7 +30291,7 @@
         <v>156</v>
       </c>
       <c r="G116" s="24">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>7</v>
@@ -30357,10 +30300,10 @@
         <v>35</v>
       </c>
       <c r="J116" s="10">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K116" s="31" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L116" s="31" t="s">
         <v>150</v>
@@ -30371,15 +30314,15 @@
     </row>
     <row r="117" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B117" s="31" t="s">
         <v>149</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D117" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D117" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E117" s="4" t="s">
@@ -30395,13 +30338,13 @@
         <v>7</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J117" s="10">
-        <v>1008</v>
-      </c>
-      <c r="K117" s="31" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="J117" s="4">
+        <v>1011</v>
+      </c>
+      <c r="K117" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="L117" s="31" t="s">
         <v>150</v>
@@ -30410,17 +30353,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B118" s="31" t="s">
         <v>149</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D118" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E118" s="4" t="s">
@@ -30430,7 +30373,7 @@
         <v>156</v>
       </c>
       <c r="G118" s="24">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>7</v>
@@ -30438,139 +30381,139 @@
       <c r="I118" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J118" s="4">
-        <v>1011</v>
-      </c>
-      <c r="K118" s="33" t="s">
-        <v>82</v>
+      <c r="J118" s="10">
+        <v>4001</v>
+      </c>
+      <c r="K118" s="31" t="s">
+        <v>19</v>
       </c>
       <c r="L118" s="31" t="s">
         <v>150</v>
       </c>
       <c r="M118" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="119" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A119" s="4">
-        <v>96</v>
-      </c>
-      <c r="B119" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="N118" s="22"/>
+      <c r="O118" s="22"/>
+      <c r="P118" s="22"/>
+      <c r="Q118" s="22"/>
+      <c r="R118" s="22"/>
+      <c r="S118" s="22"/>
+      <c r="T118" s="22"/>
+      <c r="U118" s="22"/>
+      <c r="V118" s="22"/>
+      <c r="W118" s="22"/>
+      <c r="X118" s="22"/>
+      <c r="Y118" s="22"/>
+      <c r="Z118" s="22"/>
+      <c r="AA118" s="22"/>
+      <c r="AB118" s="22"/>
+      <c r="AC118" s="22"/>
+      <c r="AD118" s="22"/>
+      <c r="AE118" s="22"/>
+      <c r="AF118" s="22"/>
+      <c r="AG118" s="22"/>
+      <c r="AH118" s="22"/>
+      <c r="AI118" s="22"/>
+      <c r="AJ118" s="22"/>
+      <c r="AK118" s="22"/>
+      <c r="AL118" s="22"/>
+      <c r="AM118" s="22"/>
+      <c r="AN118" s="22"/>
+      <c r="AO118" s="22"/>
+      <c r="AP118" s="22"/>
+      <c r="AQ118" s="22"/>
+      <c r="AR118" s="22"/>
+      <c r="AS118" s="22"/>
+      <c r="AT118" s="22"/>
+      <c r="AU118" s="22"/>
+      <c r="AV118" s="22"/>
+      <c r="AW118" s="22"/>
+      <c r="AX118" s="22"/>
+      <c r="AY118" s="22"/>
+      <c r="AZ118" s="22"/>
+      <c r="BA118" s="22"/>
+      <c r="BB118" s="22"/>
+      <c r="BC118" s="22"/>
+      <c r="BD118" s="22"/>
+      <c r="BE118" s="22"/>
+      <c r="BF118" s="22"/>
+      <c r="BG118" s="22"/>
+      <c r="BH118" s="22"/>
+      <c r="BI118" s="22"/>
+      <c r="BJ118" s="22"/>
+      <c r="BK118" s="22"/>
+      <c r="BL118" s="22"/>
+    </row>
+    <row r="119" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A119" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" s="82"/>
+      <c r="C119" s="82"/>
+      <c r="D119" s="82"/>
+      <c r="E119" s="82"/>
+      <c r="F119" s="82"/>
+      <c r="G119" s="82"/>
+      <c r="H119" s="82"/>
+      <c r="I119" s="82"/>
+      <c r="J119" s="82"/>
+      <c r="K119" s="82"/>
+      <c r="L119" s="82"/>
+      <c r="M119" s="82"/>
+    </row>
+    <row r="120" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>97</v>
+      </c>
+      <c r="B120" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D119" s="4" t="s">
+      <c r="C120" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E120" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F120" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G119" s="24">
-        <v>400</v>
-      </c>
-      <c r="H119" s="4" t="s">
+      <c r="G120" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I119" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J119" s="10">
-        <v>4001</v>
-      </c>
-      <c r="K119" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L119" s="31" t="s">
+      <c r="I120" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J120" s="8">
+        <v>4002</v>
+      </c>
+      <c r="K120" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="L120" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="M119" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="N119" s="22"/>
-      <c r="O119" s="22"/>
-      <c r="P119" s="22"/>
-      <c r="Q119" s="22"/>
-      <c r="R119" s="22"/>
-      <c r="S119" s="22"/>
-      <c r="T119" s="22"/>
-      <c r="U119" s="22"/>
-      <c r="V119" s="22"/>
-      <c r="W119" s="22"/>
-      <c r="X119" s="22"/>
-      <c r="Y119" s="22"/>
-      <c r="Z119" s="22"/>
-      <c r="AA119" s="22"/>
-      <c r="AB119" s="22"/>
-      <c r="AC119" s="22"/>
-      <c r="AD119" s="22"/>
-      <c r="AE119" s="22"/>
-      <c r="AF119" s="22"/>
-      <c r="AG119" s="22"/>
-      <c r="AH119" s="22"/>
-      <c r="AI119" s="22"/>
-      <c r="AJ119" s="22"/>
-      <c r="AK119" s="22"/>
-      <c r="AL119" s="22"/>
-      <c r="AM119" s="22"/>
-      <c r="AN119" s="22"/>
-      <c r="AO119" s="22"/>
-      <c r="AP119" s="22"/>
-      <c r="AQ119" s="22"/>
-      <c r="AR119" s="22"/>
-      <c r="AS119" s="22"/>
-      <c r="AT119" s="22"/>
-      <c r="AU119" s="22"/>
-      <c r="AV119" s="22"/>
-      <c r="AW119" s="22"/>
-      <c r="AX119" s="22"/>
-      <c r="AY119" s="22"/>
-      <c r="AZ119" s="22"/>
-      <c r="BA119" s="22"/>
-      <c r="BB119" s="22"/>
-      <c r="BC119" s="22"/>
-      <c r="BD119" s="22"/>
-      <c r="BE119" s="22"/>
-      <c r="BF119" s="22"/>
-      <c r="BG119" s="22"/>
-      <c r="BH119" s="22"/>
-      <c r="BI119" s="22"/>
-      <c r="BJ119" s="22"/>
-      <c r="BK119" s="22"/>
-      <c r="BL119" s="22"/>
-    </row>
-    <row r="120" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A120" s="82" t="s">
-        <v>162</v>
-      </c>
-      <c r="B120" s="82"/>
-      <c r="C120" s="82"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="82"/>
-      <c r="F120" s="82"/>
-      <c r="G120" s="82"/>
-      <c r="H120" s="82"/>
-      <c r="I120" s="82"/>
-      <c r="J120" s="82"/>
-      <c r="K120" s="82"/>
-      <c r="L120" s="82"/>
-      <c r="M120" s="82"/>
+      <c r="M120" s="32" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="121" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B121" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C121" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D121" s="5" t="s">
+      <c r="C121" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D121" s="27" t="s">
         <v>12</v>
       </c>
       <c r="E121" s="5" t="s">
@@ -30585,31 +30528,31 @@
       <c r="H121" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I121" s="5" t="s">
+      <c r="I121" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="J121" s="8">
-        <v>4002</v>
+      <c r="J121" s="27">
+        <v>4003</v>
       </c>
       <c r="K121" s="33" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="L121" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="M121" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="122" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="M121" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B122" s="32" t="s">
         <v>149</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="D122" s="27" t="s">
         <v>12</v>
@@ -30630,184 +30573,184 @@
         <v>35</v>
       </c>
       <c r="J122" s="27">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="K122" s="33" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="L122" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="M122" s="34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="M122" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="123" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B123" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C123" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D123" s="27" t="s">
+      <c r="C123" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D123" s="4">
+        <v>8</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G123" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="H123" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J123" s="4">
+        <v>1010</v>
+      </c>
+      <c r="K123" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L123" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="M123" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:64" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="62">
+        <v>101</v>
+      </c>
+      <c r="B124" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C124" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="D124" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="F124" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G123" s="39" t="s">
+      <c r="G124" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="H124" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I123" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J123" s="27">
-        <v>4004</v>
-      </c>
-      <c r="K123" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="L123" s="32" t="s">
+      <c r="I124" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="J124" s="62">
+        <v>1002</v>
+      </c>
+      <c r="K124" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="L124" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="M123" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="124" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="4">
-        <v>99</v>
-      </c>
-      <c r="B124" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D124" s="4">
-        <v>8</v>
-      </c>
-      <c r="E124" s="24" t="s">
+      <c r="M124" s="67" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="125" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+      <c r="A125" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="B125" s="81"/>
+      <c r="C125" s="81"/>
+      <c r="D125" s="81"/>
+      <c r="E125" s="81"/>
+      <c r="F125" s="81"/>
+      <c r="G125" s="81"/>
+      <c r="H125" s="81"/>
+      <c r="I125" s="81"/>
+      <c r="J125" s="81"/>
+      <c r="K125" s="81"/>
+      <c r="L125" s="81"/>
+      <c r="M125" s="81"/>
+    </row>
+    <row r="126" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A126" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B126" s="82"/>
+      <c r="C126" s="82"/>
+      <c r="D126" s="82"/>
+      <c r="E126" s="82"/>
+      <c r="F126" s="82"/>
+      <c r="G126" s="82"/>
+      <c r="H126" s="82"/>
+      <c r="I126" s="82"/>
+      <c r="J126" s="82"/>
+      <c r="K126" s="82"/>
+      <c r="L126" s="82"/>
+      <c r="M126" s="82"/>
+    </row>
+    <row r="127" spans="1:64" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>102</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F124" s="24" t="s">
+      <c r="F127" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G124" s="24" t="s">
+      <c r="G127" s="24">
+        <v>401</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J127" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K127" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L127" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H124" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J124" s="4">
-        <v>1010</v>
-      </c>
-      <c r="K124" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L124" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="M124" s="31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:64" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="62">
-        <v>101</v>
-      </c>
-      <c r="B125" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="C125" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="D125" s="66" t="s">
+      <c r="M127" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E125" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="F125" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="G125" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="I125" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="J125" s="62">
-        <v>1002</v>
-      </c>
-      <c r="K125" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="L125" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="M125" s="67" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="126" spans="1:64" ht="18" x14ac:dyDescent="0.3">
-      <c r="A126" s="81" t="s">
-        <v>195</v>
-      </c>
-      <c r="B126" s="81"/>
-      <c r="C126" s="81"/>
-      <c r="D126" s="81"/>
-      <c r="E126" s="81"/>
-      <c r="F126" s="81"/>
-      <c r="G126" s="81"/>
-      <c r="H126" s="81"/>
-      <c r="I126" s="81"/>
-      <c r="J126" s="81"/>
-      <c r="K126" s="81"/>
-      <c r="L126" s="81"/>
-      <c r="M126" s="81"/>
-    </row>
-    <row r="127" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A127" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="B127" s="82"/>
-      <c r="C127" s="82"/>
-      <c r="D127" s="82"/>
-      <c r="E127" s="82"/>
-      <c r="F127" s="82"/>
-      <c r="G127" s="82"/>
-      <c r="H127" s="82"/>
-      <c r="I127" s="82"/>
-      <c r="J127" s="82"/>
-      <c r="K127" s="82"/>
-      <c r="L127" s="82"/>
-      <c r="M127" s="82"/>
-    </row>
-    <row r="128" spans="1:64" ht="46.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:64" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B128" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="C128" s="33" t="s">
-        <v>172</v>
+      <c r="C128" s="23" t="s">
+        <v>164</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>12</v>
@@ -30828,27 +30771,27 @@
         <v>38</v>
       </c>
       <c r="J128" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="K128" s="23" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L128" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M128" s="50" t="s">
+      <c r="M128" s="48" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B129" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>12</v>
@@ -30869,68 +30812,68 @@
         <v>38</v>
       </c>
       <c r="J129" s="4">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K129" s="23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L129" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M129" s="48" t="s">
+      <c r="M129" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B130" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D130" s="24">
+        <v>201</v>
+      </c>
+      <c r="E130" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G130" s="24">
-        <v>401</v>
-      </c>
-      <c r="H130" s="4" t="s">
+      <c r="G130" s="45">
+        <v>400</v>
+      </c>
+      <c r="H130" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I130" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J130" s="4">
-        <v>1014</v>
-      </c>
-      <c r="K130" s="23" t="s">
-        <v>165</v>
+      <c r="I130" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J130" s="41">
+        <v>1003</v>
+      </c>
+      <c r="K130" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="L130" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M130" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="M130" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B131" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="D131" s="24">
         <v>201</v>
@@ -30948,13 +30891,13 @@
         <v>7</v>
       </c>
       <c r="I131" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J131" s="41">
-        <v>1003</v>
+        <v>11</v>
+      </c>
+      <c r="J131" s="25">
+        <v>1004</v>
       </c>
       <c r="K131" s="33" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L131" s="33" t="s">
         <v>62</v>
@@ -30963,97 +30906,97 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B132" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="C132" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="D132" s="24">
-        <v>201</v>
-      </c>
-      <c r="E132" s="24" t="s">
+      <c r="C132" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D132" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="F132" s="24" t="s">
+      <c r="F132" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="G132" s="45">
+      <c r="G132" s="55">
         <v>400</v>
       </c>
-      <c r="H132" s="24" t="s">
+      <c r="H132" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I132" s="24" t="s">
+      <c r="I132" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="J132" s="25">
-        <v>1004</v>
-      </c>
-      <c r="K132" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="L132" s="33" t="s">
+      <c r="J132" s="54">
+        <v>1015</v>
+      </c>
+      <c r="K132" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="L132" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="M132" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="M132" s="69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B133" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="C133" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="D133" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" s="54" t="s">
+      <c r="C133" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D133" s="24">
+        <v>202</v>
+      </c>
+      <c r="E133" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="F133" s="54" t="s">
+      <c r="F133" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G133" s="55">
-        <v>400</v>
-      </c>
-      <c r="H133" s="54" t="s">
+      <c r="G133" s="45">
+        <v>403</v>
+      </c>
+      <c r="H133" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I133" s="55" t="s">
+      <c r="I133" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J133" s="54">
-        <v>1015</v>
-      </c>
-      <c r="K133" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="L133" s="53" t="s">
+      <c r="J133" s="25">
+        <v>1006</v>
+      </c>
+      <c r="K133" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L133" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="M133" s="69" t="s">
-        <v>12</v>
+      <c r="M133" s="31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B134" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D134" s="24">
         <v>202</v>
@@ -31071,13 +31014,13 @@
         <v>7</v>
       </c>
       <c r="I134" s="24" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J134" s="25">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K134" s="33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L134" s="33" t="s">
         <v>62</v>
@@ -31086,15 +31029,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B135" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D135" s="24">
         <v>202</v>
@@ -31115,10 +31058,10 @@
         <v>35</v>
       </c>
       <c r="J135" s="25">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K135" s="33" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L135" s="33" t="s">
         <v>62</v>
@@ -31129,13 +31072,13 @@
     </row>
     <row r="136" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B136" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="D136" s="24">
         <v>202</v>
@@ -31146,7 +31089,7 @@
       <c r="F136" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G136" s="45">
+      <c r="G136" s="24">
         <v>403</v>
       </c>
       <c r="H136" s="24" t="s">
@@ -31155,11 +31098,11 @@
       <c r="I136" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J136" s="25">
-        <v>1008</v>
+      <c r="J136" s="71">
+        <v>5001</v>
       </c>
       <c r="K136" s="33" t="s">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="L136" s="33" t="s">
         <v>62</v>
@@ -31168,15 +31111,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B137" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="D137" s="24">
         <v>202</v>
@@ -31187,20 +31130,20 @@
       <c r="F137" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G137" s="24">
+      <c r="G137" s="45">
         <v>403</v>
       </c>
       <c r="H137" s="24" t="s">
         <v>7</v>
       </c>
       <c r="I137" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J137" s="71">
-        <v>5001</v>
+        <v>38</v>
+      </c>
+      <c r="J137" s="24">
+        <v>1011</v>
       </c>
       <c r="K137" s="33" t="s">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="L137" s="33" t="s">
         <v>62</v>
@@ -31211,98 +31154,98 @@
     </row>
     <row r="138" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B138" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="C138" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D138" s="24">
-        <v>202</v>
-      </c>
-      <c r="E138" s="24" t="s">
+      <c r="C138" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D138" s="4">
+        <v>203</v>
+      </c>
+      <c r="E138" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F138" s="24" t="s">
+      <c r="F138" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G138" s="45">
-        <v>403</v>
-      </c>
-      <c r="H138" s="24" t="s">
+      <c r="G138" s="24">
+        <v>400</v>
+      </c>
+      <c r="H138" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I138" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J138" s="24">
-        <v>1011</v>
-      </c>
-      <c r="K138" s="33" t="s">
-        <v>82</v>
+      <c r="I138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J138" s="10">
+        <v>3002</v>
+      </c>
+      <c r="K138" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="L138" s="33" t="s">
-        <v>62</v>
+        <v>241</v>
       </c>
       <c r="M138" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A139" s="4">
-        <v>112</v>
-      </c>
-      <c r="B139" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="62">
+        <v>113</v>
+      </c>
+      <c r="B139" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D139" s="4">
+      <c r="C139" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="E139" s="4" t="s">
+      <c r="D139" s="62">
+        <v>203</v>
+      </c>
+      <c r="E139" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F139" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G139" s="24">
+      <c r="G139" s="62">
         <v>400</v>
       </c>
-      <c r="H139" s="4" t="s">
+      <c r="H139" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I139" s="4" t="s">
+      <c r="I139" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="J139" s="10">
-        <v>3002</v>
-      </c>
-      <c r="K139" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="L139" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="M139" s="31" t="s">
+      <c r="J139" s="62">
+        <v>1002</v>
+      </c>
+      <c r="K139" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="L139" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="M139" s="63" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="62">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B140" s="63" t="s">
         <v>196</v>
       </c>
       <c r="C140" s="64" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D140" s="62">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E140" s="62" t="s">
         <v>156</v>
@@ -31326,65 +31269,65 @@
         <v>187</v>
       </c>
       <c r="L140" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M140" s="63" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="62">
-        <v>133</v>
-      </c>
-      <c r="B141" s="63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="27">
+        <v>132</v>
+      </c>
+      <c r="B141" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="C141" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="D141" s="62">
-        <v>204</v>
-      </c>
-      <c r="E141" s="62" t="s">
+      <c r="C141" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="D141" s="4">
+        <v>203</v>
+      </c>
+      <c r="E141" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F141" s="62" t="s">
+      <c r="F141" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G141" s="62">
+      <c r="G141" s="24">
         <v>400</v>
       </c>
       <c r="H141" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I141" s="62" t="s">
+      <c r="I141" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J141" s="62">
-        <v>1002</v>
-      </c>
-      <c r="K141" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="L141" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="M141" s="63" t="s">
-        <v>202</v>
+      <c r="J141" s="27">
+        <v>3003</v>
+      </c>
+      <c r="K141" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="L141" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="M141" s="31" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="45.6" x14ac:dyDescent="0.3">
       <c r="A142" s="27">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B142" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C142" s="61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D142" s="4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>156</v>
@@ -31402,30 +31345,30 @@
         <v>11</v>
       </c>
       <c r="J142" s="27">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="K142" s="61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L142" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="M142" s="31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="45.6" x14ac:dyDescent="0.3">
-      <c r="A143" s="27">
-        <v>131</v>
+        <v>241</v>
+      </c>
+      <c r="M142" s="60" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="60.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="8">
+        <v>130</v>
       </c>
       <c r="B143" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C143" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="D143" s="4">
-        <v>204</v>
+        <v>227</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>156</v>
@@ -31443,30 +31386,30 @@
         <v>11</v>
       </c>
       <c r="J143" s="27">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="K143" s="61" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L143" s="34" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M143" s="60" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="60.6" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B144" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C144" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>12</v>
+        <v>224</v>
+      </c>
+      <c r="D144" s="4">
+        <v>203</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>156</v>
@@ -31484,30 +31427,30 @@
         <v>11</v>
       </c>
       <c r="J144" s="27">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="K144" s="61" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L144" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="M144" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A145" s="8">
-        <v>128</v>
+        <v>241</v>
+      </c>
+      <c r="M144" s="61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" s="27">
+        <v>129</v>
       </c>
       <c r="B145" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="C145" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="D145" s="4">
-        <v>203</v>
+      <c r="C145" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>156</v>
@@ -31515,8 +31458,8 @@
       <c r="F145" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G145" s="24">
-        <v>400</v>
+      <c r="G145" s="71">
+        <v>404</v>
       </c>
       <c r="H145" s="62" t="s">
         <v>7</v>
@@ -31524,59 +31467,33 @@
       <c r="I145" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J145" s="27">
-        <v>3006</v>
-      </c>
-      <c r="K145" s="61" t="s">
-        <v>224</v>
+      <c r="J145" s="72">
+        <v>3007</v>
+      </c>
+      <c r="K145" s="73" t="s">
+        <v>231</v>
       </c>
       <c r="L145" s="34" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M145" s="61" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A146" s="27">
-        <v>129</v>
-      </c>
-      <c r="B146" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="C146" s="73" t="s">
-        <v>231</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G146" s="71">
-        <v>404</v>
-      </c>
-      <c r="H146" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="I146" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J146" s="72">
-        <v>3007</v>
-      </c>
-      <c r="K146" s="73" t="s">
-        <v>231</v>
-      </c>
-      <c r="L146" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="M146" s="61" t="s">
-        <v>201</v>
-      </c>
+      <c r="A146" s="20"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="46"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="20"/>
+      <c r="K146" s="35"/>
+      <c r="L146" s="21"/>
+      <c r="M146" s="21"/>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="20"/>
@@ -36183,48 +36100,33 @@
       <c r="L453" s="21"/>
       <c r="M453" s="21"/>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A454" s="20"/>
-      <c r="B454" s="21"/>
-      <c r="C454" s="22"/>
-      <c r="D454" s="20"/>
-      <c r="E454" s="20"/>
-      <c r="F454" s="20"/>
-      <c r="G454" s="46"/>
-      <c r="H454" s="20"/>
-      <c r="I454" s="20"/>
-      <c r="J454" s="20"/>
-      <c r="K454" s="35"/>
-      <c r="L454" s="21"/>
-      <c r="M454" s="21"/>
-    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="A126:M126"/>
-    <mergeCell ref="A127:M127"/>
-    <mergeCell ref="A120:M120"/>
-    <mergeCell ref="A104:M104"/>
-    <mergeCell ref="A107:M107"/>
-    <mergeCell ref="A84:M84"/>
-    <mergeCell ref="A83:M83"/>
-    <mergeCell ref="A106:M106"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="A58:M58"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A22:M22"/>
     <mergeCell ref="A57:M57"/>
     <mergeCell ref="A70:M70"/>
+    <mergeCell ref="A84:M84"/>
+    <mergeCell ref="A83:M83"/>
+    <mergeCell ref="A105:M105"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A125:M125"/>
+    <mergeCell ref="A126:M126"/>
+    <mergeCell ref="A119:M119"/>
+    <mergeCell ref="A103:M103"/>
+    <mergeCell ref="A106:M106"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65:H69 H49:H55 H115:H119 H78:H82 H105 H21 H121:H125 H7:H8 H62:H63 H75:H76 H88:H90 H111:H113 H131:H132 H10:H16 H134:H146 H23:H47 H92:H103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65:H69 H49:H55 H114:H118 H78:H82 H104 H21 H120:H124 H7:H8 H62:H63 H75:H76 H88:H90 H110:H112 H130:H131 H10:H16 H133:H145 H23:H47 H92:H102">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:I55 I65:I69 I121 I78:I82 I105 I21 I124 I7:I8 I62:I63 I75:I76 I88:I90 I111:I113 I131:I132 I10:I16 I115:I119 I134:I146 I23:I47 I92:I103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:I55 I65:I69 I120 I78:I82 I104 I21 I123 I7:I8 I62:I63 I75:I76 I88:I90 I110:I112 I130:I131 I10:I16 I114:I118 I133:I145 I23:I47 I92:I102">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J65:J69 J10:J14 J78:J82 J39:J46 J105 J124 J121 J49:J53 J138:J139 J134:J136 J21 J7:J8 J62:J63 J75:J76 J88:J90 J111:J113 J131:J132 J16 J115:J119 J23:J34 J36:J37 J92:J97">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J65:J69 J10:J14 J78:J82 J39:J46 J104 J123 J120 J49:J53 J137:J138 J133:J135 J21 J7:J8 J62:J63 J75:J76 J88:J90 J110:J112 J130:J131 J16 J114:J118 J23:J34 J36:J37 J92:J97">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="253">
   <si>
     <t>Payslip</t>
   </si>
@@ -805,9 +805,6 @@
     <t>137-140</t>
   </si>
   <si>
-    <t>CheckPayrollSubmission</t>
-  </si>
-  <si>
     <t>Sync</t>
   </si>
   <si>
@@ -815,9 +812,6 @@
   </si>
   <si>
     <t>Response Message</t>
-  </si>
-  <si>
-    <t>Error Response</t>
   </si>
   <si>
     <t>Response Error</t>
@@ -839,6 +833,9 @@
   </si>
   <si>
     <t>Response Message column</t>
+  </si>
+  <si>
+    <t>Sync/Async</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1271,6 +1268,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1280,8 +1280,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -21999,18 +22003,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
     </row>
     <row r="11" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
@@ -22307,7 +22311,7 @@
         <v>140</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K30" s="13"/>
       <c r="M30" s="12"/>
@@ -22315,7 +22319,7 @@
     <row r="31" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="74" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>218</v>
@@ -22326,7 +22330,7 @@
     <row r="32" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="17"/>
       <c r="C32" s="74" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>218</v>
@@ -22351,9 +22355,9 @@
   </sheetPr>
   <dimension ref="A1:BN453"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J111" sqref="J111"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -22396,10 +22400,10 @@
         <v>155</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J1" s="29" t="s">
         <v>6</v>
@@ -22472,23 +22476,23 @@
       <c r="BN1" s="20"/>
     </row>
     <row r="2" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -22542,23 +22546,23 @@
       <c r="BN2" s="21"/>
     </row>
     <row r="3" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -22634,10 +22638,10 @@
         <v>401</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>7</v>
@@ -22732,10 +22736,10 @@
         <v>401</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>7</v>
@@ -22830,10 +22834,10 @@
         <v>401</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>7</v>
@@ -22928,10 +22932,10 @@
         <v>400</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J7" s="24" t="s">
         <v>7</v>
@@ -22975,10 +22979,10 @@
         <v>400</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J8" s="24" t="s">
         <v>7</v>
@@ -23022,10 +23026,10 @@
         <v>400</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J9" s="54" t="s">
         <v>7</v>
@@ -23069,10 +23073,10 @@
         <v>403</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J10" s="24" t="s">
         <v>7</v>
@@ -23116,10 +23120,10 @@
         <v>403</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J11" s="24" t="s">
         <v>7</v>
@@ -23163,10 +23167,10 @@
         <v>403</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J12" s="24" t="s">
         <v>7</v>
@@ -23210,10 +23214,10 @@
         <v>403</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J13" s="24" t="s">
         <v>7</v>
@@ -23257,10 +23261,10 @@
         <v>400</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>7</v>
@@ -23304,10 +23308,10 @@
         <v>400</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J15" s="24" t="s">
         <v>7</v>
@@ -23328,44 +23332,44 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:66" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+    <row r="16" spans="1:66" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A16" s="62">
         <v>12</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="68">
         <v>400</v>
       </c>
-      <c r="H16" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="J16" s="24" t="s">
+      <c r="H16" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="I16" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="J16" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="62">
         <v>2004</v>
       </c>
-      <c r="M16" s="33" t="s">
+      <c r="M16" s="63" t="s">
         <v>43</v>
       </c>
       <c r="N16" s="33" t="s">
@@ -23375,91 +23379,91 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:66" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="17" spans="1:66" s="36" customFormat="1" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A17" s="62">
         <v>123</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="62">
         <v>400</v>
       </c>
-      <c r="H17" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="J17" s="55" t="s">
+      <c r="H17" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="J17" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="55" t="s">
+      <c r="K17" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="56">
+      <c r="L17" s="66">
         <v>5002</v>
       </c>
-      <c r="M17" s="53" t="s">
+      <c r="M17" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="N17" s="53" t="s">
+      <c r="N17" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="O17" s="69" t="s">
+      <c r="O17" s="86" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:66" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+    <row r="18" spans="1:66" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A18" s="62">
         <v>124</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="62">
         <v>400</v>
       </c>
-      <c r="H18" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="J18" s="55" t="s">
+      <c r="H18" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="I18" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="J18" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="55" t="s">
+      <c r="K18" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="56">
+      <c r="L18" s="66">
         <v>5003</v>
       </c>
-      <c r="M18" s="53" t="s">
+      <c r="M18" s="63" t="s">
         <v>214</v>
       </c>
       <c r="N18" s="53" t="s">
@@ -23492,10 +23496,10 @@
         <v>400</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J19" s="55" t="s">
         <v>7</v>
@@ -23523,7 +23527,7 @@
       <c r="B20" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="80" t="s">
         <v>219</v>
       </c>
       <c r="D20" s="54" t="s">
@@ -23539,10 +23543,10 @@
         <v>400</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J20" s="55" t="s">
         <v>7</v>
@@ -23553,7 +23557,7 @@
       <c r="L20" s="56">
         <v>2050</v>
       </c>
-      <c r="M20" s="57" t="s">
+      <c r="M20" s="80" t="s">
         <v>219</v>
       </c>
       <c r="N20" s="53" t="s">
@@ -23614,7 +23618,7 @@
       <c r="BM20" s="58"/>
       <c r="BN20" s="58"/>
     </row>
-    <row r="21" spans="1:66" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:66" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -23637,10 +23641,10 @@
         <v>400</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>7</v>
@@ -23662,23 +23666,23 @@
       </c>
     </row>
     <row r="22" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
@@ -23731,54 +23735,54 @@
       <c r="BM22" s="21"/>
       <c r="BN22" s="21"/>
     </row>
-    <row r="23" spans="1:66" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+    <row r="23" spans="1:66" s="84" customFormat="1" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A23" s="62">
         <v>18</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="J23" s="5" t="s">
+      <c r="H23" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="I23" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="J23" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="66">
         <v>2040</v>
       </c>
-      <c r="M23" s="33" t="s">
+      <c r="M23" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="N23" s="32" t="s">
+      <c r="N23" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="O23" s="31" t="s">
+      <c r="O23" s="63" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:66" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -23803,8 +23807,8 @@
       <c r="H24" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="I24" s="45" t="s">
-        <v>247</v>
+      <c r="I24" s="24" t="s">
+        <v>246</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>7</v>
@@ -23848,10 +23852,10 @@
         <v>12</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="I25" s="45" t="s">
-        <v>247</v>
+        <v>242</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>245</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>7</v>
@@ -23895,10 +23899,10 @@
         <v>12</v>
       </c>
       <c r="H26" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>7</v>
@@ -23942,10 +23946,10 @@
         <v>12</v>
       </c>
       <c r="H27" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>7</v>
@@ -23989,10 +23993,10 @@
         <v>12</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>7</v>
@@ -24036,10 +24040,10 @@
         <v>12</v>
       </c>
       <c r="H29" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>7</v>
@@ -24060,7 +24064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:66" ht="27.6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:66" ht="35.4" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -24083,10 +24087,10 @@
         <v>12</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>7</v>
@@ -24107,50 +24111,50 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:66" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+    <row r="31" spans="1:66" s="84" customFormat="1" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A31" s="62">
         <v>27</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="I31" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="J31" s="5" t="s">
+      <c r="H31" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="I31" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="66">
         <v>2016</v>
       </c>
-      <c r="M31" s="31" t="s">
+      <c r="M31" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="N31" s="32" t="s">
+      <c r="N31" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="O31" s="31" t="s">
+      <c r="O31" s="63" t="s">
         <v>53</v>
       </c>
     </row>
@@ -24177,10 +24181,10 @@
         <v>12</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>7</v>
@@ -24201,7 +24205,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:66" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:66" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A33" s="62">
         <v>30</v>
       </c>
@@ -24224,10 +24228,10 @@
         <v>12</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J33" s="62" t="s">
         <v>7</v>
@@ -24271,10 +24275,10 @@
         <v>12</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>7</v>
@@ -24318,10 +24322,10 @@
         <v>12</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>7</v>
@@ -24365,10 +24369,10 @@
         <v>12</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>7</v>
@@ -24412,10 +24416,10 @@
         <v>12</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J37" s="24" t="s">
         <v>7</v>
@@ -24510,10 +24514,10 @@
         <v>12</v>
       </c>
       <c r="H38" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I38" s="68" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J38" s="62" t="s">
         <v>7</v>
@@ -24557,10 +24561,10 @@
         <v>12</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>7</v>
@@ -24604,10 +24608,10 @@
         <v>12</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J40" s="39" t="s">
         <v>7</v>
@@ -24702,10 +24706,10 @@
         <v>12</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>7</v>
@@ -24799,11 +24803,11 @@
       <c r="G42" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="62" t="s">
+      <c r="H42" s="24" t="s">
         <v>243</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>7</v>
@@ -24847,10 +24851,10 @@
         <v>12</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>7</v>
@@ -24894,10 +24898,10 @@
         <v>12</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>7</v>
@@ -24941,10 +24945,10 @@
         <v>12</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>7</v>
@@ -24988,10 +24992,10 @@
         <v>12</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J46" s="24" t="s">
         <v>7</v>
@@ -25035,10 +25039,10 @@
         <v>12</v>
       </c>
       <c r="H47" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I47" s="62" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J47" s="62" t="s">
         <v>7</v>
@@ -25082,10 +25086,10 @@
         <v>12</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J48" s="43" t="s">
         <v>7</v>
@@ -25180,10 +25184,10 @@
         <v>12</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>7</v>
@@ -25227,10 +25231,10 @@
         <v>12</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>7</v>
@@ -25274,10 +25278,10 @@
         <v>12</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>7</v>
@@ -25321,10 +25325,10 @@
         <v>12</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>7</v>
@@ -25345,50 +25349,50 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:66" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
+    <row r="53" spans="1:66" s="84" customFormat="1" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A53" s="62">
         <v>49</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="62">
         <v>39</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="45" t="s">
+      <c r="G53" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="62" t="s">
+      <c r="H53" s="85" t="s">
         <v>243</v>
       </c>
-      <c r="I53" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="J53" s="5" t="s">
+      <c r="I53" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="J53" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="K53" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L53" s="8">
+      <c r="L53" s="66">
         <v>2039</v>
       </c>
-      <c r="M53" s="31" t="s">
+      <c r="M53" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="N53" s="32" t="s">
+      <c r="N53" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="O53" s="32" t="s">
+      <c r="O53" s="63" t="s">
         <v>65</v>
       </c>
     </row>
@@ -25415,10 +25419,10 @@
         <v>12</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>158</v>
@@ -25513,10 +25517,10 @@
         <v>12</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>158</v>
@@ -25611,10 +25615,10 @@
         <v>400</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J56" s="55" t="s">
         <v>7</v>
@@ -25687,23 +25691,23 @@
       <c r="BN56" s="22"/>
     </row>
     <row r="57" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="81" t="s">
+      <c r="A57" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
-      <c r="M57" s="81"/>
-      <c r="N57" s="81"/>
-      <c r="O57" s="81"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="82"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
@@ -25757,23 +25761,23 @@
       <c r="BN57" s="21"/>
     </row>
     <row r="58" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="82" t="s">
+      <c r="A58" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="82"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="82"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="82"/>
-      <c r="M58" s="82"/>
-      <c r="N58" s="82"/>
-      <c r="O58" s="82"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="83"/>
+      <c r="J58" s="83"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="83"/>
+      <c r="O58" s="83"/>
       <c r="P58" s="21"/>
       <c r="Q58" s="21"/>
       <c r="R58" s="21"/>
@@ -25849,10 +25853,10 @@
         <v>401</v>
       </c>
       <c r="H59" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>7</v>
@@ -25947,10 +25951,10 @@
         <v>401</v>
       </c>
       <c r="H60" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>7</v>
@@ -26045,10 +26049,10 @@
         <v>401</v>
       </c>
       <c r="H61" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>7</v>
@@ -26143,10 +26147,10 @@
         <v>400</v>
       </c>
       <c r="H62" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J62" s="24" t="s">
         <v>7</v>
@@ -26241,10 +26245,10 @@
         <v>400</v>
       </c>
       <c r="H63" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J63" s="24" t="s">
         <v>7</v>
@@ -26339,10 +26343,10 @@
         <v>400</v>
       </c>
       <c r="H64" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J64" s="54" t="s">
         <v>7</v>
@@ -26386,10 +26390,10 @@
         <v>403</v>
       </c>
       <c r="H65" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J65" s="24" t="s">
         <v>7</v>
@@ -26484,10 +26488,10 @@
         <v>403</v>
       </c>
       <c r="H66" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J66" s="24" t="s">
         <v>7</v>
@@ -26582,10 +26586,10 @@
         <v>403</v>
       </c>
       <c r="H67" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J67" s="24" t="s">
         <v>7</v>
@@ -26680,10 +26684,10 @@
         <v>403</v>
       </c>
       <c r="H68" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J68" s="24" t="s">
         <v>7</v>
@@ -26778,10 +26782,10 @@
         <v>404</v>
       </c>
       <c r="H69" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I69" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>7</v>
@@ -26854,23 +26858,23 @@
       <c r="BN69" s="22"/>
     </row>
     <row r="70" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="81" t="s">
+      <c r="A70" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="81"/>
-      <c r="C70" s="81"/>
-      <c r="D70" s="81"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81"/>
-      <c r="H70" s="81"/>
-      <c r="I70" s="81"/>
-      <c r="J70" s="81"/>
-      <c r="K70" s="81"/>
-      <c r="L70" s="81"/>
-      <c r="M70" s="81"/>
-      <c r="N70" s="81"/>
-      <c r="O70" s="81"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="82"/>
+      <c r="J70" s="82"/>
+      <c r="K70" s="82"/>
+      <c r="L70" s="82"/>
+      <c r="M70" s="82"/>
+      <c r="N70" s="82"/>
+      <c r="O70" s="82"/>
       <c r="P70" s="21"/>
       <c r="Q70" s="21"/>
       <c r="R70" s="21"/>
@@ -26924,23 +26928,23 @@
       <c r="BN70" s="21"/>
     </row>
     <row r="71" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="82" t="s">
+      <c r="A71" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="B71" s="82"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="82"/>
-      <c r="H71" s="82"/>
-      <c r="I71" s="82"/>
-      <c r="J71" s="82"/>
-      <c r="K71" s="82"/>
-      <c r="L71" s="82"/>
-      <c r="M71" s="82"/>
-      <c r="N71" s="82"/>
-      <c r="O71" s="82"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
+      <c r="I71" s="83"/>
+      <c r="J71" s="83"/>
+      <c r="K71" s="83"/>
+      <c r="L71" s="83"/>
+      <c r="M71" s="83"/>
+      <c r="N71" s="83"/>
+      <c r="O71" s="83"/>
       <c r="P71" s="21"/>
       <c r="Q71" s="21"/>
       <c r="R71" s="21"/>
@@ -27016,10 +27020,10 @@
         <v>401</v>
       </c>
       <c r="H72" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>7</v>
@@ -27114,10 +27118,10 @@
         <v>401</v>
       </c>
       <c r="H73" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I73" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>7</v>
@@ -27212,10 +27216,10 @@
         <v>401</v>
       </c>
       <c r="H74" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I74" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>7</v>
@@ -27310,10 +27314,10 @@
         <v>400</v>
       </c>
       <c r="H75" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J75" s="25" t="s">
         <v>7</v>
@@ -27408,10 +27412,10 @@
         <v>400</v>
       </c>
       <c r="H76" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J76" s="24" t="s">
         <v>7</v>
@@ -27506,10 +27510,10 @@
         <v>400</v>
       </c>
       <c r="H77" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J77" s="54" t="s">
         <v>7</v>
@@ -27553,10 +27557,10 @@
         <v>403</v>
       </c>
       <c r="H78" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J78" s="24" t="s">
         <v>7</v>
@@ -27651,10 +27655,10 @@
         <v>403</v>
       </c>
       <c r="H79" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J79" s="24" t="s">
         <v>7</v>
@@ -27749,10 +27753,10 @@
         <v>403</v>
       </c>
       <c r="H80" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J80" s="24" t="s">
         <v>7</v>
@@ -27847,10 +27851,10 @@
         <v>403</v>
       </c>
       <c r="H81" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I81" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J81" s="24" t="s">
         <v>7</v>
@@ -27945,10 +27949,10 @@
         <v>404</v>
       </c>
       <c r="H82" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>7</v>
@@ -28021,23 +28025,23 @@
       <c r="BN82" s="22"/>
     </row>
     <row r="83" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="81" t="s">
+      <c r="A83" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="E83" s="81"/>
-      <c r="F83" s="81"/>
-      <c r="G83" s="81"/>
-      <c r="H83" s="81"/>
-      <c r="I83" s="81"/>
-      <c r="J83" s="81"/>
-      <c r="K83" s="81"/>
-      <c r="L83" s="81"/>
-      <c r="M83" s="81"/>
-      <c r="N83" s="81"/>
-      <c r="O83" s="81"/>
+      <c r="B83" s="82"/>
+      <c r="C83" s="82"/>
+      <c r="D83" s="82"/>
+      <c r="E83" s="82"/>
+      <c r="F83" s="82"/>
+      <c r="G83" s="82"/>
+      <c r="H83" s="82"/>
+      <c r="I83" s="82"/>
+      <c r="J83" s="82"/>
+      <c r="K83" s="82"/>
+      <c r="L83" s="82"/>
+      <c r="M83" s="82"/>
+      <c r="N83" s="82"/>
+      <c r="O83" s="82"/>
       <c r="P83" s="21"/>
       <c r="Q83" s="21"/>
       <c r="R83" s="21"/>
@@ -28091,23 +28095,23 @@
       <c r="BN83" s="21"/>
     </row>
     <row r="84" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="82" t="s">
+      <c r="A84" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="82"/>
-      <c r="C84" s="82"/>
-      <c r="D84" s="82"/>
-      <c r="E84" s="82"/>
-      <c r="F84" s="82"/>
-      <c r="G84" s="82"/>
-      <c r="H84" s="82"/>
-      <c r="I84" s="82"/>
-      <c r="J84" s="82"/>
-      <c r="K84" s="82"/>
-      <c r="L84" s="82"/>
-      <c r="M84" s="82"/>
-      <c r="N84" s="82"/>
-      <c r="O84" s="82"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="83"/>
+      <c r="I84" s="83"/>
+      <c r="J84" s="83"/>
+      <c r="K84" s="83"/>
+      <c r="L84" s="83"/>
+      <c r="M84" s="83"/>
+      <c r="N84" s="83"/>
+      <c r="O84" s="83"/>
       <c r="P84" s="21"/>
       <c r="Q84" s="21"/>
       <c r="R84" s="21"/>
@@ -28183,10 +28187,10 @@
         <v>401</v>
       </c>
       <c r="H85" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I85" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>7</v>
@@ -28281,10 +28285,10 @@
         <v>401</v>
       </c>
       <c r="H86" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I86" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>7</v>
@@ -28379,10 +28383,10 @@
         <v>401</v>
       </c>
       <c r="H87" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>7</v>
@@ -28477,10 +28481,10 @@
         <v>400</v>
       </c>
       <c r="H88" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I88" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>7</v>
@@ -28575,10 +28579,10 @@
         <v>400</v>
       </c>
       <c r="H89" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I89" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>7</v>
@@ -28673,10 +28677,10 @@
         <v>400</v>
       </c>
       <c r="H90" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I90" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>7</v>
@@ -28771,10 +28775,10 @@
         <v>400</v>
       </c>
       <c r="H91" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I91" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J91" s="54" t="s">
         <v>7</v>
@@ -28818,10 +28822,10 @@
         <v>403</v>
       </c>
       <c r="H92" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I92" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>7</v>
@@ -28916,10 +28920,10 @@
         <v>403</v>
       </c>
       <c r="H93" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I93" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>7</v>
@@ -29014,10 +29018,10 @@
         <v>403</v>
       </c>
       <c r="H94" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I94" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>7</v>
@@ -29112,10 +29116,10 @@
         <v>403</v>
       </c>
       <c r="H95" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I95" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>7</v>
@@ -29210,10 +29214,10 @@
         <v>400</v>
       </c>
       <c r="H96" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I96" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>7</v>
@@ -29308,10 +29312,10 @@
         <v>400</v>
       </c>
       <c r="H97" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I97" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>7</v>
@@ -29406,10 +29410,10 @@
         <v>400</v>
       </c>
       <c r="H98" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I98" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>7</v>
@@ -29504,10 +29508,10 @@
         <v>400</v>
       </c>
       <c r="H99" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I99" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>7</v>
@@ -29602,10 +29606,10 @@
         <v>400</v>
       </c>
       <c r="H100" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I100" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J100" s="4" t="s">
         <v>7</v>
@@ -29685,7 +29689,7 @@
         <v>146</v>
       </c>
       <c r="C101" s="78" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>12</v>
@@ -29700,10 +29704,10 @@
         <v>404</v>
       </c>
       <c r="H101" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I101" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J101" s="4" t="s">
         <v>7</v>
@@ -29715,7 +29719,7 @@
         <v>3012</v>
       </c>
       <c r="M101" s="78" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N101" s="31" t="s">
         <v>147</v>
@@ -29798,10 +29802,10 @@
         <v>400</v>
       </c>
       <c r="H102" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I102" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J102" s="62" t="s">
         <v>7</v>
@@ -29874,23 +29878,23 @@
       <c r="BN102" s="21"/>
     </row>
     <row r="103" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A103" s="82" t="s">
+      <c r="A103" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="B103" s="82"/>
-      <c r="C103" s="82"/>
-      <c r="D103" s="82"/>
-      <c r="E103" s="82"/>
-      <c r="F103" s="82"/>
-      <c r="G103" s="82"/>
-      <c r="H103" s="82"/>
-      <c r="I103" s="82"/>
-      <c r="J103" s="82"/>
-      <c r="K103" s="82"/>
-      <c r="L103" s="82"/>
-      <c r="M103" s="82"/>
-      <c r="N103" s="82"/>
-      <c r="O103" s="82"/>
+      <c r="B103" s="83"/>
+      <c r="C103" s="83"/>
+      <c r="D103" s="83"/>
+      <c r="E103" s="83"/>
+      <c r="F103" s="83"/>
+      <c r="G103" s="83"/>
+      <c r="H103" s="83"/>
+      <c r="I103" s="83"/>
+      <c r="J103" s="83"/>
+      <c r="K103" s="83"/>
+      <c r="L103" s="83"/>
+      <c r="M103" s="83"/>
+      <c r="N103" s="83"/>
+      <c r="O103" s="83"/>
       <c r="P103" s="21"/>
       <c r="Q103" s="21"/>
       <c r="R103" s="21"/>
@@ -29966,10 +29970,10 @@
         <v>12</v>
       </c>
       <c r="H104" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I104" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J104" s="4" t="s">
         <v>7</v>
@@ -30042,23 +30046,23 @@
       <c r="BN104" s="22"/>
     </row>
     <row r="105" spans="1:66" s="7" customFormat="1" ht="18" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A105" s="81" t="s">
+      <c r="A105" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="B105" s="81"/>
-      <c r="C105" s="81"/>
-      <c r="D105" s="81"/>
-      <c r="E105" s="81"/>
-      <c r="F105" s="81"/>
-      <c r="G105" s="81"/>
-      <c r="H105" s="81"/>
-      <c r="I105" s="81"/>
-      <c r="J105" s="81"/>
-      <c r="K105" s="81"/>
-      <c r="L105" s="81"/>
-      <c r="M105" s="81"/>
-      <c r="N105" s="81"/>
-      <c r="O105" s="81"/>
+      <c r="B105" s="82"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="82"/>
+      <c r="J105" s="82"/>
+      <c r="K105" s="82"/>
+      <c r="L105" s="82"/>
+      <c r="M105" s="82"/>
+      <c r="N105" s="82"/>
+      <c r="O105" s="82"/>
       <c r="P105" s="22"/>
       <c r="Q105" s="22"/>
       <c r="R105" s="22"/>
@@ -30112,23 +30116,23 @@
       <c r="BN105" s="22"/>
     </row>
     <row r="106" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A106" s="82" t="s">
+      <c r="A106" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="82"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="82"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="82"/>
-      <c r="G106" s="82"/>
-      <c r="H106" s="82"/>
-      <c r="I106" s="82"/>
-      <c r="J106" s="82"/>
-      <c r="K106" s="82"/>
-      <c r="L106" s="82"/>
-      <c r="M106" s="82"/>
-      <c r="N106" s="82"/>
-      <c r="O106" s="82"/>
+      <c r="B106" s="83"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="83"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="83"/>
+      <c r="I106" s="83"/>
+      <c r="J106" s="83"/>
+      <c r="K106" s="83"/>
+      <c r="L106" s="83"/>
+      <c r="M106" s="83"/>
+      <c r="N106" s="83"/>
+      <c r="O106" s="83"/>
       <c r="P106" s="22"/>
       <c r="Q106" s="22"/>
       <c r="R106" s="22"/>
@@ -30204,10 +30208,10 @@
         <v>401</v>
       </c>
       <c r="H107" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I107" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J107" s="4" t="s">
         <v>7</v>
@@ -30251,10 +30255,10 @@
         <v>401</v>
       </c>
       <c r="H108" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I108" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J108" s="4" t="s">
         <v>7</v>
@@ -30349,10 +30353,10 @@
         <v>401</v>
       </c>
       <c r="H109" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I109" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J109" s="4" t="s">
         <v>7</v>
@@ -30447,10 +30451,10 @@
         <v>400</v>
       </c>
       <c r="H110" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I110" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J110" s="4" t="s">
         <v>7</v>
@@ -30545,10 +30549,10 @@
         <v>400</v>
       </c>
       <c r="H111" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I111" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>7</v>
@@ -30643,10 +30647,10 @@
         <v>400</v>
       </c>
       <c r="H112" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I112" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J112" s="4" t="s">
         <v>7</v>
@@ -30741,10 +30745,10 @@
         <v>400</v>
       </c>
       <c r="H113" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I113" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J113" s="54" t="s">
         <v>7</v>
@@ -30839,10 +30843,10 @@
         <v>404</v>
       </c>
       <c r="H114" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I114" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J114" s="4" t="s">
         <v>7</v>
@@ -30937,10 +30941,10 @@
         <v>404</v>
       </c>
       <c r="H115" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I115" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J115" s="4" t="s">
         <v>7</v>
@@ -30984,10 +30988,10 @@
         <v>403</v>
       </c>
       <c r="H116" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I116" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J116" s="4" t="s">
         <v>7</v>
@@ -31031,10 +31035,10 @@
         <v>403</v>
       </c>
       <c r="H117" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I117" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J117" s="4" t="s">
         <v>7</v>
@@ -31078,10 +31082,10 @@
         <v>400</v>
       </c>
       <c r="H118" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I118" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J118" s="4" t="s">
         <v>7</v>
@@ -31154,23 +31158,23 @@
       <c r="BN118" s="22"/>
     </row>
     <row r="119" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A119" s="82" t="s">
+      <c r="A119" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="B119" s="82"/>
-      <c r="C119" s="82"/>
-      <c r="D119" s="82"/>
-      <c r="E119" s="82"/>
-      <c r="F119" s="82"/>
-      <c r="G119" s="82"/>
-      <c r="H119" s="82"/>
-      <c r="I119" s="82"/>
-      <c r="J119" s="82"/>
-      <c r="K119" s="82"/>
-      <c r="L119" s="82"/>
-      <c r="M119" s="82"/>
-      <c r="N119" s="82"/>
-      <c r="O119" s="82"/>
+      <c r="B119" s="83"/>
+      <c r="C119" s="83"/>
+      <c r="D119" s="83"/>
+      <c r="E119" s="83"/>
+      <c r="F119" s="83"/>
+      <c r="G119" s="83"/>
+      <c r="H119" s="83"/>
+      <c r="I119" s="83"/>
+      <c r="J119" s="83"/>
+      <c r="K119" s="83"/>
+      <c r="L119" s="83"/>
+      <c r="M119" s="83"/>
+      <c r="N119" s="83"/>
+      <c r="O119" s="83"/>
     </row>
     <row r="120" spans="1:66" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
@@ -31195,10 +31199,10 @@
         <v>12</v>
       </c>
       <c r="H120" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I120" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J120" s="5" t="s">
         <v>7</v>
@@ -31242,10 +31246,10 @@
         <v>12</v>
       </c>
       <c r="H121" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I121" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J121" s="5" t="s">
         <v>7</v>
@@ -31289,10 +31293,10 @@
         <v>12</v>
       </c>
       <c r="H122" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I122" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J122" s="5" t="s">
         <v>7</v>
@@ -31336,10 +31340,10 @@
         <v>12</v>
       </c>
       <c r="H123" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I123" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J123" s="4" t="s">
         <v>7</v>
@@ -31383,10 +31387,10 @@
         <v>12</v>
       </c>
       <c r="H124" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I124" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J124" s="62" t="s">
         <v>7</v>
@@ -31408,42 +31412,42 @@
       </c>
     </row>
     <row r="125" spans="1:66" ht="18" x14ac:dyDescent="0.3">
-      <c r="A125" s="81" t="s">
+      <c r="A125" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="B125" s="81"/>
-      <c r="C125" s="81"/>
-      <c r="D125" s="81"/>
-      <c r="E125" s="81"/>
-      <c r="F125" s="81"/>
-      <c r="G125" s="81"/>
-      <c r="H125" s="81"/>
-      <c r="I125" s="81"/>
-      <c r="J125" s="81"/>
-      <c r="K125" s="81"/>
-      <c r="L125" s="81"/>
-      <c r="M125" s="81"/>
-      <c r="N125" s="81"/>
-      <c r="O125" s="81"/>
+      <c r="B125" s="82"/>
+      <c r="C125" s="82"/>
+      <c r="D125" s="82"/>
+      <c r="E125" s="82"/>
+      <c r="F125" s="82"/>
+      <c r="G125" s="82"/>
+      <c r="H125" s="82"/>
+      <c r="I125" s="82"/>
+      <c r="J125" s="82"/>
+      <c r="K125" s="82"/>
+      <c r="L125" s="82"/>
+      <c r="M125" s="82"/>
+      <c r="N125" s="82"/>
+      <c r="O125" s="82"/>
     </row>
     <row r="126" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A126" s="82" t="s">
+      <c r="A126" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="B126" s="82"/>
-      <c r="C126" s="82"/>
-      <c r="D126" s="82"/>
-      <c r="E126" s="82"/>
-      <c r="F126" s="82"/>
-      <c r="G126" s="82"/>
-      <c r="H126" s="82"/>
-      <c r="I126" s="82"/>
-      <c r="J126" s="82"/>
-      <c r="K126" s="82"/>
-      <c r="L126" s="82"/>
-      <c r="M126" s="82"/>
-      <c r="N126" s="82"/>
-      <c r="O126" s="82"/>
+      <c r="B126" s="83"/>
+      <c r="C126" s="83"/>
+      <c r="D126" s="83"/>
+      <c r="E126" s="83"/>
+      <c r="F126" s="83"/>
+      <c r="G126" s="83"/>
+      <c r="H126" s="83"/>
+      <c r="I126" s="83"/>
+      <c r="J126" s="83"/>
+      <c r="K126" s="83"/>
+      <c r="L126" s="83"/>
+      <c r="M126" s="83"/>
+      <c r="N126" s="83"/>
+      <c r="O126" s="83"/>
     </row>
     <row r="127" spans="1:66" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
@@ -31468,10 +31472,10 @@
         <v>401</v>
       </c>
       <c r="H127" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I127" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J127" s="4" t="s">
         <v>7</v>
@@ -31515,10 +31519,10 @@
         <v>401</v>
       </c>
       <c r="H128" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I128" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J128" s="4" t="s">
         <v>7</v>
@@ -31562,10 +31566,10 @@
         <v>401</v>
       </c>
       <c r="H129" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I129" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J129" s="4" t="s">
         <v>7</v>
@@ -31609,10 +31613,10 @@
         <v>400</v>
       </c>
       <c r="H130" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I130" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J130" s="24" t="s">
         <v>7</v>
@@ -31656,10 +31660,10 @@
         <v>400</v>
       </c>
       <c r="H131" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I131" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J131" s="24" t="s">
         <v>7</v>
@@ -31703,10 +31707,10 @@
         <v>400</v>
       </c>
       <c r="H132" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I132" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J132" s="54" t="s">
         <v>7</v>
@@ -31750,10 +31754,10 @@
         <v>403</v>
       </c>
       <c r="H133" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I133" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J133" s="24" t="s">
         <v>7</v>
@@ -31797,10 +31801,10 @@
         <v>403</v>
       </c>
       <c r="H134" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I134" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J134" s="24" t="s">
         <v>7</v>
@@ -31844,10 +31848,10 @@
         <v>403</v>
       </c>
       <c r="H135" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I135" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J135" s="24" t="s">
         <v>7</v>
@@ -31891,10 +31895,10 @@
         <v>403</v>
       </c>
       <c r="H136" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I136" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J136" s="24" t="s">
         <v>7</v>
@@ -31938,10 +31942,10 @@
         <v>403</v>
       </c>
       <c r="H137" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I137" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J137" s="24" t="s">
         <v>7</v>
@@ -31985,10 +31989,10 @@
         <v>400</v>
       </c>
       <c r="H138" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I138" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J138" s="4" t="s">
         <v>7</v>
@@ -32032,10 +32036,10 @@
         <v>400</v>
       </c>
       <c r="H139" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I139" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J139" s="62" t="s">
         <v>7</v>
@@ -32079,10 +32083,10 @@
         <v>400</v>
       </c>
       <c r="H140" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I140" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J140" s="62" t="s">
         <v>7</v>
@@ -32126,10 +32130,10 @@
         <v>400</v>
       </c>
       <c r="H141" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I141" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J141" s="62" t="s">
         <v>7</v>
@@ -32173,10 +32177,10 @@
         <v>400</v>
       </c>
       <c r="H142" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I142" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J142" s="62" t="s">
         <v>7</v>
@@ -32220,10 +32224,10 @@
         <v>400</v>
       </c>
       <c r="H143" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I143" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J143" s="62" t="s">
         <v>7</v>
@@ -32267,10 +32271,10 @@
         <v>400</v>
       </c>
       <c r="H144" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I144" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J144" s="62" t="s">
         <v>7</v>
@@ -32314,10 +32318,10 @@
         <v>404</v>
       </c>
       <c r="H145" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I145" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J145" s="62" t="s">
         <v>7</v>
@@ -37577,21 +37581,21 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A22:O22"/>
+    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A84:O84"/>
+    <mergeCell ref="A83:O83"/>
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A71:O71"/>
+    <mergeCell ref="A58:O58"/>
     <mergeCell ref="A125:O125"/>
     <mergeCell ref="A126:O126"/>
     <mergeCell ref="A119:O119"/>
     <mergeCell ref="A103:O103"/>
     <mergeCell ref="A106:O106"/>
-    <mergeCell ref="A84:O84"/>
-    <mergeCell ref="A83:O83"/>
-    <mergeCell ref="A105:O105"/>
-    <mergeCell ref="A71:O71"/>
-    <mergeCell ref="A58:O58"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A22:O22"/>
-    <mergeCell ref="A57:O57"/>
-    <mergeCell ref="A70:O70"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J65:J69 J49:J55 J114:J118 J78:J82 J104 J21 J120:J124 J7:J8 J62:J63 J75:J76 J88:J90 J110:J112 J130:J131 J10:J16 J133:J145 J23:J47 J92:J102">

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -1012,7 +1012,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1050,12 +1050,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1271,6 +1308,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1280,12 +1324,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -22003,18 +22049,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
     </row>
     <row r="11" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
@@ -22357,7 +22403,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -22476,23 +22522,23 @@
       <c r="BN1" s="20"/>
     </row>
     <row r="2" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -22546,23 +22592,23 @@
       <c r="BN2" s="21"/>
     </row>
     <row r="3" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -23419,10 +23465,10 @@
       <c r="M17" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="N17" s="86" t="s">
+      <c r="N17" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="O17" s="86" t="s">
+      <c r="O17" s="83" t="s">
         <v>213</v>
       </c>
     </row>
@@ -23665,122 +23711,122 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83" t="s">
+    <row r="22" spans="1:66" s="81" customFormat="1" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A22" s="62">
+        <v>18</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="I22" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="J22" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="66">
+        <v>2040</v>
+      </c>
+      <c r="M22" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="21"/>
-      <c r="AJ22" s="21"/>
-      <c r="AK22" s="21"/>
-      <c r="AL22" s="21"/>
-      <c r="AM22" s="21"/>
-      <c r="AN22" s="21"/>
-      <c r="AO22" s="21"/>
-      <c r="AP22" s="21"/>
-      <c r="AQ22" s="21"/>
-      <c r="AR22" s="21"/>
-      <c r="AS22" s="21"/>
-      <c r="AT22" s="21"/>
-      <c r="AU22" s="21"/>
-      <c r="AV22" s="21"/>
-      <c r="AW22" s="21"/>
-      <c r="AX22" s="21"/>
-      <c r="AY22" s="21"/>
-      <c r="AZ22" s="21"/>
-      <c r="BA22" s="21"/>
-      <c r="BB22" s="21"/>
-      <c r="BC22" s="21"/>
-      <c r="BD22" s="21"/>
-      <c r="BE22" s="21"/>
-      <c r="BF22" s="21"/>
-      <c r="BG22" s="21"/>
-      <c r="BH22" s="21"/>
-      <c r="BI22" s="21"/>
-      <c r="BJ22" s="21"/>
-      <c r="BK22" s="21"/>
-      <c r="BL22" s="21"/>
-      <c r="BM22" s="21"/>
-      <c r="BN22" s="21"/>
-    </row>
-    <row r="23" spans="1:66" s="84" customFormat="1" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A23" s="62">
-        <v>18</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="I23" s="62" t="s">
-        <v>245</v>
-      </c>
-      <c r="J23" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="66">
-        <v>2040</v>
-      </c>
-      <c r="M23" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="N23" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="O23" s="63" t="s">
-        <v>0</v>
-      </c>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="21"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="21"/>
+      <c r="AR23" s="21"/>
+      <c r="AS23" s="21"/>
+      <c r="AT23" s="21"/>
+      <c r="AU23" s="21"/>
+      <c r="AV23" s="21"/>
+      <c r="AW23" s="21"/>
+      <c r="AX23" s="21"/>
+      <c r="AY23" s="21"/>
+      <c r="AZ23" s="21"/>
+      <c r="BA23" s="21"/>
+      <c r="BB23" s="21"/>
+      <c r="BC23" s="21"/>
+      <c r="BD23" s="21"/>
+      <c r="BE23" s="21"/>
+      <c r="BF23" s="21"/>
+      <c r="BG23" s="21"/>
+      <c r="BH23" s="21"/>
+      <c r="BI23" s="21"/>
+      <c r="BJ23" s="21"/>
+      <c r="BK23" s="21"/>
+      <c r="BL23" s="21"/>
+      <c r="BM23" s="21"/>
+      <c r="BN23" s="21"/>
     </row>
     <row r="24" spans="1:66" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
@@ -24111,7 +24157,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:66" s="84" customFormat="1" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:66" s="81" customFormat="1" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A31" s="62">
         <v>27</v>
       </c>
@@ -25349,7 +25395,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:66" s="84" customFormat="1" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:66" s="81" customFormat="1" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A53" s="62">
         <v>49</v>
       </c>
@@ -25371,7 +25417,7 @@
       <c r="G53" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="85" t="s">
+      <c r="H53" s="82" t="s">
         <v>243</v>
       </c>
       <c r="I53" s="62" t="s">
@@ -25691,23 +25737,23 @@
       <c r="BN56" s="22"/>
     </row>
     <row r="57" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="82" t="s">
+      <c r="A57" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="82"/>
-      <c r="M57" s="82"/>
-      <c r="N57" s="82"/>
-      <c r="O57" s="82"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="85"/>
+      <c r="N57" s="85"/>
+      <c r="O57" s="85"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
@@ -25761,23 +25807,23 @@
       <c r="BN57" s="21"/>
     </row>
     <row r="58" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="83" t="s">
+      <c r="A58" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="83"/>
-      <c r="N58" s="83"/>
-      <c r="O58" s="83"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="86"/>
+      <c r="K58" s="86"/>
+      <c r="L58" s="86"/>
+      <c r="M58" s="86"/>
+      <c r="N58" s="86"/>
+      <c r="O58" s="86"/>
       <c r="P58" s="21"/>
       <c r="Q58" s="21"/>
       <c r="R58" s="21"/>
@@ -26858,23 +26904,23 @@
       <c r="BN69" s="22"/>
     </row>
     <row r="70" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="82" t="s">
+      <c r="A70" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="82"/>
-      <c r="C70" s="82"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="82"/>
-      <c r="H70" s="82"/>
-      <c r="I70" s="82"/>
-      <c r="J70" s="82"/>
-      <c r="K70" s="82"/>
-      <c r="L70" s="82"/>
-      <c r="M70" s="82"/>
-      <c r="N70" s="82"/>
-      <c r="O70" s="82"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="85"/>
+      <c r="I70" s="85"/>
+      <c r="J70" s="85"/>
+      <c r="K70" s="85"/>
+      <c r="L70" s="85"/>
+      <c r="M70" s="85"/>
+      <c r="N70" s="85"/>
+      <c r="O70" s="85"/>
       <c r="P70" s="21"/>
       <c r="Q70" s="21"/>
       <c r="R70" s="21"/>
@@ -26928,23 +26974,23 @@
       <c r="BN70" s="21"/>
     </row>
     <row r="71" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="83" t="s">
+      <c r="A71" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="B71" s="83"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="83"/>
-      <c r="I71" s="83"/>
-      <c r="J71" s="83"/>
-      <c r="K71" s="83"/>
-      <c r="L71" s="83"/>
-      <c r="M71" s="83"/>
-      <c r="N71" s="83"/>
-      <c r="O71" s="83"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="86"/>
+      <c r="I71" s="86"/>
+      <c r="J71" s="86"/>
+      <c r="K71" s="86"/>
+      <c r="L71" s="86"/>
+      <c r="M71" s="86"/>
+      <c r="N71" s="86"/>
+      <c r="O71" s="86"/>
       <c r="P71" s="21"/>
       <c r="Q71" s="21"/>
       <c r="R71" s="21"/>
@@ -28025,23 +28071,23 @@
       <c r="BN82" s="22"/>
     </row>
     <row r="83" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="82" t="s">
+      <c r="A83" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="B83" s="82"/>
-      <c r="C83" s="82"/>
-      <c r="D83" s="82"/>
-      <c r="E83" s="82"/>
-      <c r="F83" s="82"/>
-      <c r="G83" s="82"/>
-      <c r="H83" s="82"/>
-      <c r="I83" s="82"/>
-      <c r="J83" s="82"/>
-      <c r="K83" s="82"/>
-      <c r="L83" s="82"/>
-      <c r="M83" s="82"/>
-      <c r="N83" s="82"/>
-      <c r="O83" s="82"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="85"/>
+      <c r="I83" s="85"/>
+      <c r="J83" s="85"/>
+      <c r="K83" s="85"/>
+      <c r="L83" s="85"/>
+      <c r="M83" s="85"/>
+      <c r="N83" s="85"/>
+      <c r="O83" s="85"/>
       <c r="P83" s="21"/>
       <c r="Q83" s="21"/>
       <c r="R83" s="21"/>
@@ -28095,23 +28141,23 @@
       <c r="BN83" s="21"/>
     </row>
     <row r="84" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="83" t="s">
+      <c r="A84" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="83"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="83"/>
-      <c r="H84" s="83"/>
-      <c r="I84" s="83"/>
-      <c r="J84" s="83"/>
-      <c r="K84" s="83"/>
-      <c r="L84" s="83"/>
-      <c r="M84" s="83"/>
-      <c r="N84" s="83"/>
-      <c r="O84" s="83"/>
+      <c r="B84" s="86"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="86"/>
+      <c r="E84" s="86"/>
+      <c r="F84" s="86"/>
+      <c r="G84" s="86"/>
+      <c r="H84" s="86"/>
+      <c r="I84" s="86"/>
+      <c r="J84" s="86"/>
+      <c r="K84" s="86"/>
+      <c r="L84" s="86"/>
+      <c r="M84" s="86"/>
+      <c r="N84" s="86"/>
+      <c r="O84" s="86"/>
       <c r="P84" s="21"/>
       <c r="Q84" s="21"/>
       <c r="R84" s="21"/>
@@ -29878,23 +29924,23 @@
       <c r="BN102" s="21"/>
     </row>
     <row r="103" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A103" s="83" t="s">
+      <c r="A103" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="B103" s="83"/>
-      <c r="C103" s="83"/>
-      <c r="D103" s="83"/>
-      <c r="E103" s="83"/>
-      <c r="F103" s="83"/>
-      <c r="G103" s="83"/>
-      <c r="H103" s="83"/>
-      <c r="I103" s="83"/>
-      <c r="J103" s="83"/>
-      <c r="K103" s="83"/>
-      <c r="L103" s="83"/>
-      <c r="M103" s="83"/>
-      <c r="N103" s="83"/>
-      <c r="O103" s="83"/>
+      <c r="B103" s="86"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="86"/>
+      <c r="E103" s="86"/>
+      <c r="F103" s="86"/>
+      <c r="G103" s="86"/>
+      <c r="H103" s="86"/>
+      <c r="I103" s="86"/>
+      <c r="J103" s="86"/>
+      <c r="K103" s="86"/>
+      <c r="L103" s="86"/>
+      <c r="M103" s="86"/>
+      <c r="N103" s="86"/>
+      <c r="O103" s="86"/>
       <c r="P103" s="21"/>
       <c r="Q103" s="21"/>
       <c r="R103" s="21"/>
@@ -30046,23 +30092,23 @@
       <c r="BN104" s="22"/>
     </row>
     <row r="105" spans="1:66" s="7" customFormat="1" ht="18" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A105" s="82" t="s">
+      <c r="A105" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="B105" s="82"/>
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="H105" s="82"/>
-      <c r="I105" s="82"/>
-      <c r="J105" s="82"/>
-      <c r="K105" s="82"/>
-      <c r="L105" s="82"/>
-      <c r="M105" s="82"/>
-      <c r="N105" s="82"/>
-      <c r="O105" s="82"/>
+      <c r="B105" s="85"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="85"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="85"/>
+      <c r="H105" s="85"/>
+      <c r="I105" s="85"/>
+      <c r="J105" s="85"/>
+      <c r="K105" s="85"/>
+      <c r="L105" s="85"/>
+      <c r="M105" s="85"/>
+      <c r="N105" s="85"/>
+      <c r="O105" s="85"/>
       <c r="P105" s="22"/>
       <c r="Q105" s="22"/>
       <c r="R105" s="22"/>
@@ -30116,23 +30162,23 @@
       <c r="BN105" s="22"/>
     </row>
     <row r="106" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A106" s="83" t="s">
+      <c r="A106" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="83"/>
-      <c r="C106" s="83"/>
-      <c r="D106" s="83"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="83"/>
-      <c r="H106" s="83"/>
-      <c r="I106" s="83"/>
-      <c r="J106" s="83"/>
-      <c r="K106" s="83"/>
-      <c r="L106" s="83"/>
-      <c r="M106" s="83"/>
-      <c r="N106" s="83"/>
-      <c r="O106" s="83"/>
+      <c r="B106" s="86"/>
+      <c r="C106" s="86"/>
+      <c r="D106" s="86"/>
+      <c r="E106" s="86"/>
+      <c r="F106" s="86"/>
+      <c r="G106" s="86"/>
+      <c r="H106" s="86"/>
+      <c r="I106" s="86"/>
+      <c r="J106" s="86"/>
+      <c r="K106" s="86"/>
+      <c r="L106" s="86"/>
+      <c r="M106" s="86"/>
+      <c r="N106" s="86"/>
+      <c r="O106" s="86"/>
       <c r="P106" s="22"/>
       <c r="Q106" s="22"/>
       <c r="R106" s="22"/>
@@ -31158,23 +31204,23 @@
       <c r="BN118" s="22"/>
     </row>
     <row r="119" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A119" s="83" t="s">
+      <c r="A119" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="B119" s="83"/>
-      <c r="C119" s="83"/>
-      <c r="D119" s="83"/>
-      <c r="E119" s="83"/>
-      <c r="F119" s="83"/>
-      <c r="G119" s="83"/>
-      <c r="H119" s="83"/>
-      <c r="I119" s="83"/>
-      <c r="J119" s="83"/>
-      <c r="K119" s="83"/>
-      <c r="L119" s="83"/>
-      <c r="M119" s="83"/>
-      <c r="N119" s="83"/>
-      <c r="O119" s="83"/>
+      <c r="B119" s="86"/>
+      <c r="C119" s="86"/>
+      <c r="D119" s="86"/>
+      <c r="E119" s="86"/>
+      <c r="F119" s="86"/>
+      <c r="G119" s="86"/>
+      <c r="H119" s="86"/>
+      <c r="I119" s="86"/>
+      <c r="J119" s="86"/>
+      <c r="K119" s="86"/>
+      <c r="L119" s="86"/>
+      <c r="M119" s="86"/>
+      <c r="N119" s="86"/>
+      <c r="O119" s="86"/>
     </row>
     <row r="120" spans="1:66" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
@@ -31412,42 +31458,42 @@
       </c>
     </row>
     <row r="125" spans="1:66" ht="18" x14ac:dyDescent="0.3">
-      <c r="A125" s="82" t="s">
+      <c r="A125" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="B125" s="82"/>
-      <c r="C125" s="82"/>
-      <c r="D125" s="82"/>
-      <c r="E125" s="82"/>
-      <c r="F125" s="82"/>
-      <c r="G125" s="82"/>
-      <c r="H125" s="82"/>
-      <c r="I125" s="82"/>
-      <c r="J125" s="82"/>
-      <c r="K125" s="82"/>
-      <c r="L125" s="82"/>
-      <c r="M125" s="82"/>
-      <c r="N125" s="82"/>
-      <c r="O125" s="82"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="85"/>
+      <c r="I125" s="85"/>
+      <c r="J125" s="85"/>
+      <c r="K125" s="85"/>
+      <c r="L125" s="85"/>
+      <c r="M125" s="85"/>
+      <c r="N125" s="85"/>
+      <c r="O125" s="85"/>
     </row>
     <row r="126" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A126" s="83" t="s">
+      <c r="A126" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="B126" s="83"/>
-      <c r="C126" s="83"/>
-      <c r="D126" s="83"/>
-      <c r="E126" s="83"/>
-      <c r="F126" s="83"/>
-      <c r="G126" s="83"/>
-      <c r="H126" s="83"/>
-      <c r="I126" s="83"/>
-      <c r="J126" s="83"/>
-      <c r="K126" s="83"/>
-      <c r="L126" s="83"/>
-      <c r="M126" s="83"/>
-      <c r="N126" s="83"/>
-      <c r="O126" s="83"/>
+      <c r="B126" s="86"/>
+      <c r="C126" s="86"/>
+      <c r="D126" s="86"/>
+      <c r="E126" s="86"/>
+      <c r="F126" s="86"/>
+      <c r="G126" s="86"/>
+      <c r="H126" s="86"/>
+      <c r="I126" s="86"/>
+      <c r="J126" s="86"/>
+      <c r="K126" s="86"/>
+      <c r="L126" s="86"/>
+      <c r="M126" s="86"/>
+      <c r="N126" s="86"/>
+      <c r="O126" s="86"/>
     </row>
     <row r="127" spans="1:66" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
@@ -37581,30 +37627,30 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A22:O22"/>
-    <mergeCell ref="A57:O57"/>
-    <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A125:O125"/>
+    <mergeCell ref="A126:O126"/>
+    <mergeCell ref="A119:O119"/>
+    <mergeCell ref="A103:O103"/>
+    <mergeCell ref="A106:O106"/>
     <mergeCell ref="A84:O84"/>
     <mergeCell ref="A83:O83"/>
     <mergeCell ref="A105:O105"/>
     <mergeCell ref="A71:O71"/>
     <mergeCell ref="A58:O58"/>
-    <mergeCell ref="A125:O125"/>
-    <mergeCell ref="A126:O126"/>
-    <mergeCell ref="A119:O119"/>
-    <mergeCell ref="A103:O103"/>
-    <mergeCell ref="A106:O106"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A23:O23"/>
+    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="A70:O70"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J65:J69 J49:J55 J114:J118 J78:J82 J104 J21 J120:J124 J7:J8 J62:J63 J75:J76 J88:J90 J110:J112 J130:J131 J10:J16 J133:J145 J23:J47 J92:J102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J65:J69 J49:J55 J114:J118 J78:J82 J104 J120:J124 J7:J8 J62:J63 J75:J76 J88:J90 J110:J112 J130:J131 J10:J16 J133:J145 J92:J102 J21:J22 J24:J47">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K49:K55 K65:K69 K120 K78:K82 K104 K21 K123 K7:K8 K62:K63 K75:K76 K88:K90 K110:K112 K130:K131 K10:K16 K114:K118 K133:K145 K23:K47 K92:K102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K49:K55 K65:K69 K120 K78:K82 K104 K123 K7:K8 K62:K63 K75:K76 K88:K90 K110:K112 K130:K131 K10:K16 K114:K118 K133:K145 K92:K102 K21:K22 K24:K47">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L65:L69 L10:L14 L78:L82 L39:L46 L104 L123 L120 L49:L53 L137:L138 L133:L135 L21 L7:L8 L62:L63 L75:L76 L88:L90 L110:L112 L130:L131 L16 L114:L118 L23:L34 L36:L37 L92:L97">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L65:L69 L10:L14 L78:L82 L39:L46 L104 L123 L120 L49:L53 L137:L138 L133:L135 L7:L8 L62:L63 L75:L76 L88:L90 L110:L112 L130:L131 L16 L114:L118 L36:L37 L92:L97 L21:L22 L24:L34">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -37615,7 +37661,7 @@
     <oddFooter>&amp;L&amp;BRevenue Confidential&amp;B&amp;C&amp;D&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="21" max="16383" man="1"/>
+    <brk id="22" max="16383" man="1"/>
     <brk id="56" max="16383" man="1"/>
     <brk id="82" max="9" man="1"/>
   </rowBreaks>

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="253">
   <si>
     <t>Payslip</t>
   </si>
@@ -22402,8 +22402,8 @@
   <dimension ref="A1:BN453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A105" sqref="A105:O105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -23400,7 +23400,7 @@
       <c r="G16" s="68">
         <v>400</v>
       </c>
-      <c r="H16" s="62" t="s">
+      <c r="H16" s="24" t="s">
         <v>242</v>
       </c>
       <c r="I16" s="62" t="s">
@@ -23447,7 +23447,7 @@
       <c r="G17" s="62">
         <v>400</v>
       </c>
-      <c r="H17" s="62" t="s">
+      <c r="H17" s="24" t="s">
         <v>242</v>
       </c>
       <c r="I17" s="62" t="s">
@@ -23494,7 +23494,7 @@
       <c r="G18" s="62">
         <v>400</v>
       </c>
-      <c r="H18" s="62" t="s">
+      <c r="H18" s="24" t="s">
         <v>242</v>
       </c>
       <c r="I18" s="62" t="s">
@@ -23539,7 +23539,7 @@
         <v>156</v>
       </c>
       <c r="G19" s="55">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H19" s="55" t="s">
         <v>243</v>
@@ -23586,7 +23586,7 @@
         <v>156</v>
       </c>
       <c r="G20" s="55">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H20" s="55" t="s">
         <v>243</v>
@@ -23847,8 +23847,8 @@
       <c r="F24" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G24" s="45" t="s">
-        <v>12</v>
+      <c r="G24" s="24">
+        <v>200</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>243</v>
@@ -23941,8 +23941,8 @@
       <c r="F26" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="45" t="s">
-        <v>12</v>
+      <c r="G26" s="24">
+        <v>200</v>
       </c>
       <c r="H26" s="55" t="s">
         <v>243</v>
@@ -23988,8 +23988,8 @@
       <c r="F27" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G27" s="45" t="s">
-        <v>12</v>
+      <c r="G27" s="24">
+        <v>200</v>
       </c>
       <c r="H27" s="55" t="s">
         <v>243</v>
@@ -24035,8 +24035,8 @@
       <c r="F28" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G28" s="45" t="s">
-        <v>12</v>
+      <c r="G28" s="24">
+        <v>200</v>
       </c>
       <c r="H28" s="55" t="s">
         <v>243</v>
@@ -24082,8 +24082,8 @@
       <c r="F29" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="45" t="s">
-        <v>12</v>
+      <c r="G29" s="24">
+        <v>200</v>
       </c>
       <c r="H29" s="55" t="s">
         <v>243</v>
@@ -24129,8 +24129,8 @@
       <c r="F30" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G30" s="45" t="s">
-        <v>12</v>
+      <c r="G30" s="24">
+        <v>200</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>243</v>
@@ -24176,8 +24176,8 @@
       <c r="F31" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G31" s="68" t="s">
-        <v>12</v>
+      <c r="G31" s="24">
+        <v>200</v>
       </c>
       <c r="H31" s="62" t="s">
         <v>243</v>
@@ -24223,8 +24223,8 @@
       <c r="F32" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G32" s="45" t="s">
-        <v>12</v>
+      <c r="G32" s="24">
+        <v>200</v>
       </c>
       <c r="H32" s="24" t="s">
         <v>243</v>
@@ -24317,8 +24317,8 @@
       <c r="F34" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G34" s="45" t="s">
-        <v>12</v>
+      <c r="G34" s="24">
+        <v>200</v>
       </c>
       <c r="H34" s="24" t="s">
         <v>243</v>
@@ -24364,8 +24364,8 @@
       <c r="F35" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G35" s="24" t="s">
-        <v>12</v>
+      <c r="G35" s="24">
+        <v>200</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>243</v>
@@ -24411,8 +24411,8 @@
       <c r="F36" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G36" s="45" t="s">
-        <v>12</v>
+      <c r="G36" s="24">
+        <v>200</v>
       </c>
       <c r="H36" s="24" t="s">
         <v>243</v>
@@ -24458,8 +24458,8 @@
       <c r="F37" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G37" s="45" t="s">
-        <v>12</v>
+      <c r="G37" s="24">
+        <v>200</v>
       </c>
       <c r="H37" s="24" t="s">
         <v>243</v>
@@ -24603,8 +24603,8 @@
       <c r="F39" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G39" s="45" t="s">
-        <v>12</v>
+      <c r="G39" s="24">
+        <v>200</v>
       </c>
       <c r="H39" s="24" t="s">
         <v>243</v>
@@ -24650,8 +24650,8 @@
       <c r="F40" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G40" s="45" t="s">
-        <v>12</v>
+      <c r="G40" s="24">
+        <v>200</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>243</v>
@@ -24748,8 +24748,8 @@
       <c r="F41" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G41" s="45" t="s">
-        <v>12</v>
+      <c r="G41" s="24">
+        <v>200</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>243</v>
@@ -24846,8 +24846,8 @@
       <c r="F42" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G42" s="45" t="s">
-        <v>12</v>
+      <c r="G42" s="24">
+        <v>200</v>
       </c>
       <c r="H42" s="24" t="s">
         <v>243</v>
@@ -24893,8 +24893,8 @@
       <c r="F43" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G43" s="45" t="s">
-        <v>12</v>
+      <c r="G43" s="24">
+        <v>200</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>243</v>
@@ -24940,8 +24940,8 @@
       <c r="F44" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G44" s="45" t="s">
-        <v>12</v>
+      <c r="G44" s="24">
+        <v>200</v>
       </c>
       <c r="H44" s="24" t="s">
         <v>243</v>
@@ -24987,8 +24987,8 @@
       <c r="F45" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G45" s="45" t="s">
-        <v>12</v>
+      <c r="G45" s="24">
+        <v>200</v>
       </c>
       <c r="H45" s="24" t="s">
         <v>243</v>
@@ -25034,8 +25034,8 @@
       <c r="F46" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G46" s="45" t="s">
-        <v>12</v>
+      <c r="G46" s="24">
+        <v>200</v>
       </c>
       <c r="H46" s="24" t="s">
         <v>243</v>
@@ -25128,8 +25128,8 @@
       <c r="F48" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G48" s="45" t="s">
-        <v>12</v>
+      <c r="G48" s="24">
+        <v>200</v>
       </c>
       <c r="H48" s="24" t="s">
         <v>243</v>
@@ -25226,8 +25226,8 @@
       <c r="F49" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G49" s="45" t="s">
-        <v>12</v>
+      <c r="G49" s="24">
+        <v>200</v>
       </c>
       <c r="H49" s="24" t="s">
         <v>243</v>
@@ -25273,8 +25273,8 @@
       <c r="F50" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G50" s="45" t="s">
-        <v>12</v>
+      <c r="G50" s="24">
+        <v>200</v>
       </c>
       <c r="H50" s="24" t="s">
         <v>243</v>
@@ -25320,8 +25320,8 @@
       <c r="F51" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G51" s="45" t="s">
-        <v>12</v>
+      <c r="G51" s="24">
+        <v>200</v>
       </c>
       <c r="H51" s="24" t="s">
         <v>243</v>
@@ -25367,8 +25367,8 @@
       <c r="F52" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G52" s="45" t="s">
-        <v>12</v>
+      <c r="G52" s="24">
+        <v>200</v>
       </c>
       <c r="H52" s="24" t="s">
         <v>243</v>
@@ -25395,7 +25395,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:66" s="81" customFormat="1" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:66" s="81" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A53" s="62">
         <v>49</v>
       </c>
@@ -25414,14 +25414,14 @@
       <c r="F53" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="62" t="s">
-        <v>12</v>
+      <c r="G53" s="24">
+        <v>200</v>
       </c>
       <c r="H53" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="I53" s="62" t="s">
-        <v>245</v>
+      <c r="I53" s="24" t="s">
+        <v>246</v>
       </c>
       <c r="J53" s="62" t="s">
         <v>7</v>
@@ -25461,8 +25461,8 @@
       <c r="F54" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G54" s="45" t="s">
-        <v>12</v>
+      <c r="G54" s="24">
+        <v>200</v>
       </c>
       <c r="H54" s="24" t="s">
         <v>243</v>
@@ -25559,8 +25559,8 @@
       <c r="F55" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G55" s="45" t="s">
-        <v>12</v>
+      <c r="G55" s="24">
+        <v>200</v>
       </c>
       <c r="H55" s="24" t="s">
         <v>243</v>
@@ -25658,7 +25658,7 @@
         <v>156</v>
       </c>
       <c r="G56" s="55">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H56" s="24" t="s">
         <v>243</v>
@@ -37627,21 +37627,21 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A23:O23"/>
+    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A84:O84"/>
+    <mergeCell ref="A83:O83"/>
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A71:O71"/>
+    <mergeCell ref="A58:O58"/>
     <mergeCell ref="A125:O125"/>
     <mergeCell ref="A126:O126"/>
     <mergeCell ref="A119:O119"/>
     <mergeCell ref="A103:O103"/>
     <mergeCell ref="A106:O106"/>
-    <mergeCell ref="A84:O84"/>
-    <mergeCell ref="A83:O83"/>
-    <mergeCell ref="A105:O105"/>
-    <mergeCell ref="A71:O71"/>
-    <mergeCell ref="A58:O58"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A23:O23"/>
-    <mergeCell ref="A57:O57"/>
-    <mergeCell ref="A70:O70"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J65:J69 J49:J55 J114:J118 J78:J82 J104 J120:J124 J7:J8 J62:J63 J75:J76 J88:J90 J110:J112 J130:J131 J10:J16 J133:J145 J92:J102 J21:J22 J24:J47">

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$A$1:$O$118</definedName>
@@ -1107,7 +1106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1336,6 +1335,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1353,29 +1362,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -22093,18 +22079,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
     </row>
     <row r="11" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
@@ -22487,7 +22473,7 @@
       <c r="C39" s="81" t="s">
         <v>246</v>
       </c>
-      <c r="D39" s="92" t="s">
+      <c r="D39" s="86" t="s">
         <v>247</v>
       </c>
     </row>
@@ -22647,23 +22633,23 @@
       <c r="BN1" s="20"/>
     </row>
     <row r="2" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -22717,23 +22703,23 @@
       <c r="BN2" s="21"/>
     </row>
     <row r="3" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -23647,7 +23633,7 @@
       <c r="B20" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="87" t="s">
         <v>248</v>
       </c>
       <c r="D20" s="27"/>
@@ -23665,7 +23651,7 @@
       </c>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
-      <c r="M20" s="98" t="s">
+      <c r="M20" s="87" t="s">
         <v>248</v>
       </c>
       <c r="N20" s="34"/>
@@ -23719,23 +23705,23 @@
       </c>
     </row>
     <row r="22" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="91"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="95"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
@@ -25366,7 +25352,7 @@
       <c r="B51" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="99" t="s">
+      <c r="C51" s="88" t="s">
         <v>249</v>
       </c>
       <c r="D51" s="4">
@@ -25396,7 +25382,7 @@
       <c r="L51" s="10">
         <v>2045</v>
       </c>
-      <c r="M51" s="100" t="s">
+      <c r="M51" s="89" t="s">
         <v>249</v>
       </c>
       <c r="N51" s="31" t="s">
@@ -25556,23 +25542,23 @@
       <c r="BN52" s="22"/>
     </row>
     <row r="53" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="87" t="s">
+      <c r="A53" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="87"/>
-      <c r="O53" s="87"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="91"/>
+      <c r="L53" s="91"/>
+      <c r="M53" s="91"/>
+      <c r="N53" s="91"/>
+      <c r="O53" s="91"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="21"/>
       <c r="R53" s="21"/>
@@ -25626,23 +25612,23 @@
       <c r="BN53" s="21"/>
     </row>
     <row r="54" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="88" t="s">
+      <c r="A54" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="88"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="88"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="92"/>
+      <c r="K54" s="92"/>
+      <c r="L54" s="92"/>
+      <c r="M54" s="92"/>
+      <c r="N54" s="92"/>
+      <c r="O54" s="92"/>
       <c r="P54" s="21"/>
       <c r="Q54" s="21"/>
       <c r="R54" s="21"/>
@@ -26625,23 +26611,23 @@
       <c r="BN64" s="22"/>
     </row>
     <row r="65" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="87" t="s">
+      <c r="A65" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="B65" s="87"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="87"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="87"/>
-      <c r="I65" s="87"/>
-      <c r="J65" s="87"/>
-      <c r="K65" s="87"/>
-      <c r="L65" s="87"/>
-      <c r="M65" s="87"/>
-      <c r="N65" s="87"/>
-      <c r="O65" s="87"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="91"/>
+      <c r="K65" s="91"/>
+      <c r="L65" s="91"/>
+      <c r="M65" s="91"/>
+      <c r="N65" s="91"/>
+      <c r="O65" s="91"/>
       <c r="P65" s="21"/>
       <c r="Q65" s="21"/>
       <c r="R65" s="21"/>
@@ -26695,23 +26681,23 @@
       <c r="BN65" s="21"/>
     </row>
     <row r="66" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="88" t="s">
+      <c r="A66" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B66" s="88"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="88"/>
-      <c r="K66" s="88"/>
-      <c r="L66" s="88"/>
-      <c r="M66" s="88"/>
-      <c r="N66" s="88"/>
-      <c r="O66" s="88"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="92"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="92"/>
+      <c r="K66" s="92"/>
+      <c r="L66" s="92"/>
+      <c r="M66" s="92"/>
+      <c r="N66" s="92"/>
+      <c r="O66" s="92"/>
       <c r="P66" s="21"/>
       <c r="Q66" s="21"/>
       <c r="R66" s="21"/>
@@ -27694,23 +27680,23 @@
       <c r="BN76" s="22"/>
     </row>
     <row r="77" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="87" t="s">
+      <c r="A77" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="B77" s="87"/>
-      <c r="C77" s="87"/>
-      <c r="D77" s="87"/>
-      <c r="E77" s="87"/>
-      <c r="F77" s="87"/>
-      <c r="G77" s="87"/>
-      <c r="H77" s="87"/>
-      <c r="I77" s="87"/>
-      <c r="J77" s="87"/>
-      <c r="K77" s="87"/>
-      <c r="L77" s="87"/>
-      <c r="M77" s="87"/>
-      <c r="N77" s="87"/>
-      <c r="O77" s="87"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="91"/>
+      <c r="I77" s="91"/>
+      <c r="J77" s="91"/>
+      <c r="K77" s="91"/>
+      <c r="L77" s="91"/>
+      <c r="M77" s="91"/>
+      <c r="N77" s="91"/>
+      <c r="O77" s="91"/>
       <c r="P77" s="21"/>
       <c r="Q77" s="21"/>
       <c r="R77" s="21"/>
@@ -27764,23 +27750,23 @@
       <c r="BN77" s="21"/>
     </row>
     <row r="78" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="88" t="s">
+      <c r="A78" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="88"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="88"/>
-      <c r="G78" s="88"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="88"/>
-      <c r="K78" s="88"/>
-      <c r="L78" s="88"/>
-      <c r="M78" s="88"/>
-      <c r="N78" s="88"/>
-      <c r="O78" s="88"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="92"/>
+      <c r="J78" s="92"/>
+      <c r="K78" s="92"/>
+      <c r="L78" s="92"/>
+      <c r="M78" s="92"/>
+      <c r="N78" s="92"/>
+      <c r="O78" s="92"/>
       <c r="P78" s="21"/>
       <c r="Q78" s="21"/>
       <c r="R78" s="21"/>
@@ -29547,23 +29533,23 @@
       <c r="BN96" s="21"/>
     </row>
     <row r="97" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A97" s="88" t="s">
+      <c r="A97" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="B97" s="88"/>
-      <c r="C97" s="88"/>
-      <c r="D97" s="88"/>
-      <c r="E97" s="88"/>
-      <c r="F97" s="88"/>
-      <c r="G97" s="88"/>
-      <c r="H97" s="88"/>
-      <c r="I97" s="88"/>
-      <c r="J97" s="88"/>
-      <c r="K97" s="88"/>
-      <c r="L97" s="88"/>
-      <c r="M97" s="88"/>
-      <c r="N97" s="88"/>
-      <c r="O97" s="88"/>
+      <c r="B97" s="92"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="92"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="92"/>
+      <c r="H97" s="92"/>
+      <c r="I97" s="92"/>
+      <c r="J97" s="92"/>
+      <c r="K97" s="92"/>
+      <c r="L97" s="92"/>
+      <c r="M97" s="92"/>
+      <c r="N97" s="92"/>
+      <c r="O97" s="92"/>
       <c r="P97" s="21"/>
       <c r="Q97" s="21"/>
       <c r="R97" s="21"/>
@@ -29715,23 +29701,23 @@
       <c r="BN98" s="22"/>
     </row>
     <row r="99" spans="1:66" s="7" customFormat="1" ht="18" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A99" s="87" t="s">
+      <c r="A99" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="B99" s="87"/>
-      <c r="C99" s="87"/>
-      <c r="D99" s="87"/>
-      <c r="E99" s="87"/>
-      <c r="F99" s="87"/>
-      <c r="G99" s="87"/>
-      <c r="H99" s="87"/>
-      <c r="I99" s="87"/>
-      <c r="J99" s="87"/>
-      <c r="K99" s="87"/>
-      <c r="L99" s="87"/>
-      <c r="M99" s="87"/>
-      <c r="N99" s="87"/>
-      <c r="O99" s="87"/>
+      <c r="B99" s="91"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="91"/>
+      <c r="G99" s="91"/>
+      <c r="H99" s="91"/>
+      <c r="I99" s="91"/>
+      <c r="J99" s="91"/>
+      <c r="K99" s="91"/>
+      <c r="L99" s="91"/>
+      <c r="M99" s="91"/>
+      <c r="N99" s="91"/>
+      <c r="O99" s="91"/>
       <c r="P99" s="22"/>
       <c r="Q99" s="22"/>
       <c r="R99" s="22"/>
@@ -29785,23 +29771,23 @@
       <c r="BN99" s="22"/>
     </row>
     <row r="100" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A100" s="88" t="s">
+      <c r="A100" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B100" s="88"/>
-      <c r="C100" s="88"/>
-      <c r="D100" s="88"/>
-      <c r="E100" s="88"/>
-      <c r="F100" s="88"/>
-      <c r="G100" s="88"/>
-      <c r="H100" s="88"/>
-      <c r="I100" s="88"/>
-      <c r="J100" s="88"/>
-      <c r="K100" s="88"/>
-      <c r="L100" s="88"/>
-      <c r="M100" s="88"/>
-      <c r="N100" s="88"/>
-      <c r="O100" s="88"/>
+      <c r="B100" s="92"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="92"/>
+      <c r="H100" s="92"/>
+      <c r="I100" s="92"/>
+      <c r="J100" s="92"/>
+      <c r="K100" s="92"/>
+      <c r="L100" s="92"/>
+      <c r="M100" s="92"/>
+      <c r="N100" s="92"/>
+      <c r="O100" s="92"/>
       <c r="P100" s="22"/>
       <c r="Q100" s="22"/>
       <c r="R100" s="22"/>
@@ -30833,7 +30819,7 @@
       <c r="B113" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C113" s="98" t="s">
+      <c r="C113" s="87" t="s">
         <v>248</v>
       </c>
       <c r="D113" s="27"/>
@@ -30851,30 +30837,30 @@
       </c>
       <c r="K113" s="27"/>
       <c r="L113" s="27"/>
-      <c r="M113" s="98" t="s">
+      <c r="M113" s="87" t="s">
         <v>248</v>
       </c>
       <c r="N113" s="34"/>
       <c r="O113" s="34"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A114" s="88" t="s">
+      <c r="A114" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="B114" s="88"/>
-      <c r="C114" s="88"/>
-      <c r="D114" s="88"/>
-      <c r="E114" s="88"/>
-      <c r="F114" s="88"/>
-      <c r="G114" s="88"/>
-      <c r="H114" s="88"/>
-      <c r="I114" s="88"/>
-      <c r="J114" s="88"/>
-      <c r="K114" s="88"/>
-      <c r="L114" s="88"/>
-      <c r="M114" s="88"/>
-      <c r="N114" s="88"/>
-      <c r="O114" s="88"/>
+      <c r="B114" s="92"/>
+      <c r="C114" s="92"/>
+      <c r="D114" s="92"/>
+      <c r="E114" s="92"/>
+      <c r="F114" s="92"/>
+      <c r="G114" s="92"/>
+      <c r="H114" s="92"/>
+      <c r="I114" s="92"/>
+      <c r="J114" s="92"/>
+      <c r="K114" s="92"/>
+      <c r="L114" s="92"/>
+      <c r="M114" s="92"/>
+      <c r="N114" s="92"/>
+      <c r="O114" s="92"/>
     </row>
     <row r="115" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
@@ -31065,42 +31051,42 @@
       </c>
     </row>
     <row r="119" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A119" s="87" t="s">
+      <c r="A119" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="B119" s="87"/>
-      <c r="C119" s="87"/>
-      <c r="D119" s="87"/>
-      <c r="E119" s="87"/>
-      <c r="F119" s="87"/>
-      <c r="G119" s="87"/>
-      <c r="H119" s="87"/>
-      <c r="I119" s="87"/>
-      <c r="J119" s="87"/>
-      <c r="K119" s="87"/>
-      <c r="L119" s="87"/>
-      <c r="M119" s="87"/>
-      <c r="N119" s="87"/>
-      <c r="O119" s="87"/>
+      <c r="B119" s="91"/>
+      <c r="C119" s="91"/>
+      <c r="D119" s="91"/>
+      <c r="E119" s="91"/>
+      <c r="F119" s="91"/>
+      <c r="G119" s="91"/>
+      <c r="H119" s="91"/>
+      <c r="I119" s="91"/>
+      <c r="J119" s="91"/>
+      <c r="K119" s="91"/>
+      <c r="L119" s="91"/>
+      <c r="M119" s="91"/>
+      <c r="N119" s="91"/>
+      <c r="O119" s="91"/>
     </row>
     <row r="120" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A120" s="88" t="s">
+      <c r="A120" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B120" s="88"/>
-      <c r="C120" s="88"/>
-      <c r="D120" s="88"/>
-      <c r="E120" s="88"/>
-      <c r="F120" s="88"/>
-      <c r="G120" s="88"/>
-      <c r="H120" s="88"/>
-      <c r="I120" s="88"/>
-      <c r="J120" s="88"/>
-      <c r="K120" s="88"/>
-      <c r="L120" s="88"/>
-      <c r="M120" s="88"/>
-      <c r="N120" s="88"/>
-      <c r="O120" s="88"/>
+      <c r="B120" s="92"/>
+      <c r="C120" s="92"/>
+      <c r="D120" s="92"/>
+      <c r="E120" s="92"/>
+      <c r="F120" s="92"/>
+      <c r="G120" s="92"/>
+      <c r="H120" s="92"/>
+      <c r="I120" s="92"/>
+      <c r="J120" s="92"/>
+      <c r="K120" s="92"/>
+      <c r="L120" s="92"/>
+      <c r="M120" s="92"/>
+      <c r="N120" s="92"/>
+      <c r="O120" s="92"/>
     </row>
     <row r="121" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
@@ -37076,21 +37062,21 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A22:O22"/>
+    <mergeCell ref="A53:O53"/>
+    <mergeCell ref="A65:O65"/>
+    <mergeCell ref="A78:O78"/>
+    <mergeCell ref="A77:O77"/>
+    <mergeCell ref="A99:O99"/>
+    <mergeCell ref="A66:O66"/>
+    <mergeCell ref="A54:O54"/>
     <mergeCell ref="A119:O119"/>
     <mergeCell ref="A120:O120"/>
     <mergeCell ref="A114:O114"/>
     <mergeCell ref="A97:O97"/>
     <mergeCell ref="A100:O100"/>
-    <mergeCell ref="A78:O78"/>
-    <mergeCell ref="A77:O77"/>
-    <mergeCell ref="A99:O99"/>
-    <mergeCell ref="A66:O66"/>
-    <mergeCell ref="A54:O54"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A22:O22"/>
-    <mergeCell ref="A53:O53"/>
-    <mergeCell ref="A65:O65"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J60:J64 J45:J51 J85:J96 J72:J76 J98 J115:J118 J6:J7 J57:J58 J69:J70 J81:J83 J103:J105 J123:J124 J9:J15 J23:J43 J126:J136 J19:J21 J107:J113">
@@ -37115,1588 +37101,4 @@
     <brk id="76" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A443"/>
-  <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="59">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="96">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="59">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="59">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="59">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="94">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="94">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="94">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="94">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="59">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="94">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="94">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="94">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="94">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="94">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A104" s="59">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A105" s="59">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="4">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="8">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="27">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="97">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="27">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="27">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="27">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="27">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="95">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="95">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="27">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="27">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="93"/>
-    </row>
-    <row r="119" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A119"/>
-    </row>
-    <row r="120" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A120"/>
-    </row>
-    <row r="121" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121"/>
-    </row>
-    <row r="122" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A122"/>
-    </row>
-    <row r="123" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A123"/>
-    </row>
-    <row r="124" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A124"/>
-    </row>
-    <row r="125" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A125"/>
-    </row>
-    <row r="126" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A126"/>
-    </row>
-    <row r="127" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A127"/>
-    </row>
-    <row r="128" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A128"/>
-    </row>
-    <row r="129" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A129"/>
-    </row>
-    <row r="130" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A130"/>
-    </row>
-    <row r="131" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A131"/>
-    </row>
-    <row r="132" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A132"/>
-    </row>
-    <row r="133" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A133"/>
-    </row>
-    <row r="134" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A134"/>
-    </row>
-    <row r="135" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A135"/>
-    </row>
-    <row r="136" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A136"/>
-    </row>
-    <row r="137" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A137"/>
-    </row>
-    <row r="138" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A138"/>
-    </row>
-    <row r="139" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A139"/>
-    </row>
-    <row r="140" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A140"/>
-    </row>
-    <row r="141" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A141"/>
-    </row>
-    <row r="142" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A142"/>
-    </row>
-    <row r="143" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A143"/>
-    </row>
-    <row r="144" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A144"/>
-    </row>
-    <row r="145" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A145"/>
-    </row>
-    <row r="146" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A146"/>
-    </row>
-    <row r="147" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A147"/>
-    </row>
-    <row r="148" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A148"/>
-    </row>
-    <row r="149" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A149"/>
-    </row>
-    <row r="150" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A150"/>
-    </row>
-    <row r="151" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A151"/>
-    </row>
-    <row r="152" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A152"/>
-    </row>
-    <row r="153" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A153"/>
-    </row>
-    <row r="154" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A154"/>
-    </row>
-    <row r="155" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A155"/>
-    </row>
-    <row r="156" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A156"/>
-    </row>
-    <row r="157" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A157"/>
-    </row>
-    <row r="158" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A158"/>
-    </row>
-    <row r="159" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A159"/>
-    </row>
-    <row r="160" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A160"/>
-    </row>
-    <row r="161" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A161"/>
-    </row>
-    <row r="162" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A162"/>
-    </row>
-    <row r="163" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A163"/>
-    </row>
-    <row r="164" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A164"/>
-    </row>
-    <row r="165" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A165"/>
-    </row>
-    <row r="166" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A166"/>
-    </row>
-    <row r="167" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A167"/>
-    </row>
-    <row r="168" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A168"/>
-    </row>
-    <row r="169" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A169"/>
-    </row>
-    <row r="170" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A170"/>
-    </row>
-    <row r="171" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A171"/>
-    </row>
-    <row r="172" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A172"/>
-    </row>
-    <row r="173" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A173"/>
-    </row>
-    <row r="174" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A174"/>
-    </row>
-    <row r="175" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A175"/>
-    </row>
-    <row r="176" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A176"/>
-    </row>
-    <row r="177" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A177"/>
-    </row>
-    <row r="178" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A178"/>
-    </row>
-    <row r="179" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A179"/>
-    </row>
-    <row r="180" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A180"/>
-    </row>
-    <row r="181" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A181"/>
-    </row>
-    <row r="182" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A182"/>
-    </row>
-    <row r="183" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A183"/>
-    </row>
-    <row r="184" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A184"/>
-    </row>
-    <row r="185" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A185"/>
-    </row>
-    <row r="186" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A186"/>
-    </row>
-    <row r="187" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A187"/>
-    </row>
-    <row r="188" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A188"/>
-    </row>
-    <row r="189" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A189"/>
-    </row>
-    <row r="190" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A190"/>
-    </row>
-    <row r="191" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A191"/>
-    </row>
-    <row r="192" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A192"/>
-    </row>
-    <row r="193" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A193"/>
-    </row>
-    <row r="194" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A194"/>
-    </row>
-    <row r="195" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A195"/>
-    </row>
-    <row r="196" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A196"/>
-    </row>
-    <row r="197" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A197"/>
-    </row>
-    <row r="198" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A198"/>
-    </row>
-    <row r="199" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A199"/>
-    </row>
-    <row r="200" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A200"/>
-    </row>
-    <row r="201" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A201"/>
-    </row>
-    <row r="202" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A202"/>
-    </row>
-    <row r="203" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A203"/>
-    </row>
-    <row r="204" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A204"/>
-    </row>
-    <row r="205" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A205"/>
-    </row>
-    <row r="206" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A206"/>
-    </row>
-    <row r="207" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A207"/>
-    </row>
-    <row r="208" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A208"/>
-    </row>
-    <row r="209" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A209"/>
-    </row>
-    <row r="210" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A210"/>
-    </row>
-    <row r="211" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A211"/>
-    </row>
-    <row r="212" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A212"/>
-    </row>
-    <row r="213" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A213"/>
-    </row>
-    <row r="214" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A214"/>
-    </row>
-    <row r="215" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A215"/>
-    </row>
-    <row r="216" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A216"/>
-    </row>
-    <row r="217" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A217"/>
-    </row>
-    <row r="218" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A218"/>
-    </row>
-    <row r="219" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A219"/>
-    </row>
-    <row r="220" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A220"/>
-    </row>
-    <row r="221" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A221"/>
-    </row>
-    <row r="222" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A222"/>
-    </row>
-    <row r="223" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A223"/>
-    </row>
-    <row r="224" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A224"/>
-    </row>
-    <row r="225" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A225"/>
-    </row>
-    <row r="226" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A226"/>
-    </row>
-    <row r="227" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A227"/>
-    </row>
-    <row r="228" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A228"/>
-    </row>
-    <row r="229" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A229"/>
-    </row>
-    <row r="230" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A230"/>
-    </row>
-    <row r="231" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A231"/>
-    </row>
-    <row r="232" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A232"/>
-    </row>
-    <row r="233" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A233"/>
-    </row>
-    <row r="234" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A234"/>
-    </row>
-    <row r="235" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A235"/>
-    </row>
-    <row r="236" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A236"/>
-    </row>
-    <row r="237" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A237"/>
-    </row>
-    <row r="238" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A238"/>
-    </row>
-    <row r="239" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A239"/>
-    </row>
-    <row r="240" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A240"/>
-    </row>
-    <row r="241" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A241"/>
-    </row>
-    <row r="242" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A242"/>
-    </row>
-    <row r="243" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A243"/>
-    </row>
-    <row r="244" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A244"/>
-    </row>
-    <row r="245" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A245"/>
-    </row>
-    <row r="246" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A246"/>
-    </row>
-    <row r="247" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A247"/>
-    </row>
-    <row r="248" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A248"/>
-    </row>
-    <row r="249" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A249"/>
-    </row>
-    <row r="250" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A250"/>
-    </row>
-    <row r="251" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A251"/>
-    </row>
-    <row r="252" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A252"/>
-    </row>
-    <row r="253" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A253"/>
-    </row>
-    <row r="254" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A254"/>
-    </row>
-    <row r="255" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A255"/>
-    </row>
-    <row r="256" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A256"/>
-    </row>
-    <row r="257" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A257"/>
-    </row>
-    <row r="258" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A258"/>
-    </row>
-    <row r="259" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A259"/>
-    </row>
-    <row r="260" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A260"/>
-    </row>
-    <row r="261" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A261"/>
-    </row>
-    <row r="262" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A262"/>
-    </row>
-    <row r="263" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A263"/>
-    </row>
-    <row r="264" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A264"/>
-    </row>
-    <row r="265" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A265"/>
-    </row>
-    <row r="266" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A266"/>
-    </row>
-    <row r="267" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A267"/>
-    </row>
-    <row r="268" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A268"/>
-    </row>
-    <row r="269" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A269"/>
-    </row>
-    <row r="270" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A270"/>
-    </row>
-    <row r="271" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A271"/>
-    </row>
-    <row r="272" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A272"/>
-    </row>
-    <row r="273" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A273"/>
-    </row>
-    <row r="274" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A274"/>
-    </row>
-    <row r="275" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A275"/>
-    </row>
-    <row r="276" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A276"/>
-    </row>
-    <row r="277" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A277"/>
-    </row>
-    <row r="278" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A278"/>
-    </row>
-    <row r="279" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A279"/>
-    </row>
-    <row r="280" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A280"/>
-    </row>
-    <row r="281" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A281"/>
-    </row>
-    <row r="282" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A282"/>
-    </row>
-    <row r="283" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A283"/>
-    </row>
-    <row r="284" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A284"/>
-    </row>
-    <row r="285" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A285"/>
-    </row>
-    <row r="286" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A286"/>
-    </row>
-    <row r="287" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A287"/>
-    </row>
-    <row r="288" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A288"/>
-    </row>
-    <row r="289" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A289"/>
-    </row>
-    <row r="290" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A290"/>
-    </row>
-    <row r="291" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A291"/>
-    </row>
-    <row r="292" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A292"/>
-    </row>
-    <row r="293" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A293"/>
-    </row>
-    <row r="294" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A294"/>
-    </row>
-    <row r="295" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A295"/>
-    </row>
-    <row r="296" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A296"/>
-    </row>
-    <row r="297" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A297"/>
-    </row>
-    <row r="298" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A298"/>
-    </row>
-    <row r="299" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A299"/>
-    </row>
-    <row r="300" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A300"/>
-    </row>
-    <row r="301" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A301"/>
-    </row>
-    <row r="302" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A302"/>
-    </row>
-    <row r="303" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A303"/>
-    </row>
-    <row r="304" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A304"/>
-    </row>
-    <row r="305" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A305"/>
-    </row>
-    <row r="306" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A306"/>
-    </row>
-    <row r="307" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A307"/>
-    </row>
-    <row r="308" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A308"/>
-    </row>
-    <row r="309" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A309"/>
-    </row>
-    <row r="310" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A310"/>
-    </row>
-    <row r="311" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A311"/>
-    </row>
-    <row r="312" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A312"/>
-    </row>
-    <row r="313" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A313"/>
-    </row>
-    <row r="314" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A314"/>
-    </row>
-    <row r="315" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A315"/>
-    </row>
-    <row r="316" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A316"/>
-    </row>
-    <row r="317" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A317"/>
-    </row>
-    <row r="318" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A318"/>
-    </row>
-    <row r="319" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A319"/>
-    </row>
-    <row r="320" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A320"/>
-    </row>
-    <row r="321" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A321"/>
-    </row>
-    <row r="322" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A322"/>
-    </row>
-    <row r="323" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A323"/>
-    </row>
-    <row r="324" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A324"/>
-    </row>
-    <row r="325" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A325"/>
-    </row>
-    <row r="326" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A326"/>
-    </row>
-    <row r="327" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A327"/>
-    </row>
-    <row r="328" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A328"/>
-    </row>
-    <row r="329" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A329"/>
-    </row>
-    <row r="330" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A330"/>
-    </row>
-    <row r="331" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A331"/>
-    </row>
-    <row r="332" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A332"/>
-    </row>
-    <row r="333" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A333"/>
-    </row>
-    <row r="334" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A334"/>
-    </row>
-    <row r="335" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A335"/>
-    </row>
-    <row r="336" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A336"/>
-    </row>
-    <row r="337" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A337"/>
-    </row>
-    <row r="338" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A338"/>
-    </row>
-    <row r="339" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A339"/>
-    </row>
-    <row r="340" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A340"/>
-    </row>
-    <row r="341" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A341"/>
-    </row>
-    <row r="342" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A342"/>
-    </row>
-    <row r="343" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A343"/>
-    </row>
-    <row r="344" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A344"/>
-    </row>
-    <row r="345" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A345"/>
-    </row>
-    <row r="346" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A346"/>
-    </row>
-    <row r="347" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A347"/>
-    </row>
-    <row r="348" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A348"/>
-    </row>
-    <row r="349" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A349"/>
-    </row>
-    <row r="350" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A350"/>
-    </row>
-    <row r="351" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A351"/>
-    </row>
-    <row r="352" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A352"/>
-    </row>
-    <row r="353" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A353"/>
-    </row>
-    <row r="354" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A354"/>
-    </row>
-    <row r="355" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A355"/>
-    </row>
-    <row r="356" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A356"/>
-    </row>
-    <row r="357" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A357"/>
-    </row>
-    <row r="358" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A358"/>
-    </row>
-    <row r="359" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A359"/>
-    </row>
-    <row r="360" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A360"/>
-    </row>
-    <row r="361" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A361"/>
-    </row>
-    <row r="362" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A362"/>
-    </row>
-    <row r="363" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A363"/>
-    </row>
-    <row r="364" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A364"/>
-    </row>
-    <row r="365" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A365"/>
-    </row>
-    <row r="366" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A366"/>
-    </row>
-    <row r="367" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A367"/>
-    </row>
-    <row r="368" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A368"/>
-    </row>
-    <row r="369" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A369"/>
-    </row>
-    <row r="370" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A370"/>
-    </row>
-    <row r="371" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A371"/>
-    </row>
-    <row r="372" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A372"/>
-    </row>
-    <row r="373" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A373"/>
-    </row>
-    <row r="374" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A374"/>
-    </row>
-    <row r="375" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A375"/>
-    </row>
-    <row r="376" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A376"/>
-    </row>
-    <row r="377" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A377"/>
-    </row>
-    <row r="378" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A378"/>
-    </row>
-    <row r="379" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A379"/>
-    </row>
-    <row r="380" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A380"/>
-    </row>
-    <row r="381" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A381"/>
-    </row>
-    <row r="382" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A382"/>
-    </row>
-    <row r="383" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A383"/>
-    </row>
-    <row r="384" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A384"/>
-    </row>
-    <row r="385" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A385"/>
-    </row>
-    <row r="386" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A386"/>
-    </row>
-    <row r="387" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A387"/>
-    </row>
-    <row r="388" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A388"/>
-    </row>
-    <row r="389" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A389"/>
-    </row>
-    <row r="390" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A390"/>
-    </row>
-    <row r="391" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A391"/>
-    </row>
-    <row r="392" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A392"/>
-    </row>
-    <row r="393" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A393"/>
-    </row>
-    <row r="394" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A394"/>
-    </row>
-    <row r="395" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A395"/>
-    </row>
-    <row r="396" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A396"/>
-    </row>
-    <row r="397" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A397"/>
-    </row>
-    <row r="398" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A398"/>
-    </row>
-    <row r="399" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A399"/>
-    </row>
-    <row r="400" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A400"/>
-    </row>
-    <row r="401" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A401"/>
-    </row>
-    <row r="402" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A402"/>
-    </row>
-    <row r="403" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A403"/>
-    </row>
-    <row r="404" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A404"/>
-    </row>
-    <row r="405" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A405"/>
-    </row>
-    <row r="406" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A406"/>
-    </row>
-    <row r="407" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A407"/>
-    </row>
-    <row r="408" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A408"/>
-    </row>
-    <row r="409" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A409"/>
-    </row>
-    <row r="410" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A410"/>
-    </row>
-    <row r="411" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A411"/>
-    </row>
-    <row r="412" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A412"/>
-    </row>
-    <row r="413" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A413"/>
-    </row>
-    <row r="414" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A414"/>
-    </row>
-    <row r="415" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A415"/>
-    </row>
-    <row r="416" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A416"/>
-    </row>
-    <row r="417" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A417"/>
-    </row>
-    <row r="418" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A418"/>
-    </row>
-    <row r="419" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A419"/>
-    </row>
-    <row r="420" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A420"/>
-    </row>
-    <row r="421" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A421"/>
-    </row>
-    <row r="422" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A422"/>
-    </row>
-    <row r="423" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A423"/>
-    </row>
-    <row r="424" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A424"/>
-    </row>
-    <row r="425" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A425"/>
-    </row>
-    <row r="426" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A426"/>
-    </row>
-    <row r="427" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A427"/>
-    </row>
-    <row r="428" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A428"/>
-    </row>
-    <row r="429" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A429"/>
-    </row>
-    <row r="430" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A430"/>
-    </row>
-    <row r="431" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A431"/>
-    </row>
-    <row r="432" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A432"/>
-    </row>
-    <row r="433" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A433"/>
-    </row>
-    <row r="434" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A434"/>
-    </row>
-    <row r="435" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A435"/>
-    </row>
-    <row r="436" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A436"/>
-    </row>
-    <row r="437" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A437"/>
-    </row>
-    <row r="438" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A438"/>
-    </row>
-    <row r="439" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A439"/>
-    </row>
-    <row r="440" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A440"/>
-    </row>
-    <row r="441" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A441"/>
-    </row>
-    <row r="442" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A442"/>
-    </row>
-    <row r="443" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A443"/>
-    </row>
-  </sheetData>
-  <sortState ref="A1:A442">
-    <sortCondition ref="A1:A442"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$A$1:$O$121</definedName>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="257">
   <si>
     <t>Payslip</t>
   </si>
@@ -1088,7 +1087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1317,16 +1316,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1335,15 +1324,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1356,6 +1336,18 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1447,8 +1439,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8277225" y="47625"/>
-          <a:ext cx="1819275" cy="923925"/>
+          <a:off x="8394246" y="47625"/>
+          <a:ext cx="1819275" cy="896711"/>
           <a:chOff x="4063321" y="0"/>
           <a:chExt cx="3161899" cy="1553550"/>
         </a:xfrm>
@@ -22053,10 +22045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:M41"/>
+  <dimension ref="B8:M42"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22073,18 +22065,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
     </row>
     <row r="11" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
@@ -22487,6 +22479,15 @@
       </c>
       <c r="D41" s="81" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="80"/>
+      <c r="C42" s="93">
+        <v>143144145</v>
+      </c>
+      <c r="D42" s="81" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -22507,8 +22508,8 @@
   <dimension ref="A1:BN446"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -22627,23 +22628,23 @@
       <c r="BN1" s="20"/>
     </row>
     <row r="2" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -22697,23 +22698,23 @@
       <c r="BN2" s="21"/>
     </row>
     <row r="3" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -23699,23 +23700,23 @@
       </c>
     </row>
     <row r="22" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
@@ -23775,7 +23776,7 @@
       <c r="B23" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="89" t="s">
         <v>255</v>
       </c>
       <c r="D23" s="39" t="s">
@@ -23811,7 +23812,7 @@
       <c r="N23" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O23" s="90" t="s">
+      <c r="O23" s="86" t="s">
         <v>256</v>
       </c>
       <c r="P23" s="36"/>
@@ -24394,7 +24395,7 @@
       <c r="B34" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="97" t="s">
+      <c r="C34" s="90" t="s">
         <v>217</v>
       </c>
       <c r="D34" s="5">
@@ -24424,7 +24425,7 @@
       <c r="L34" s="27">
         <v>2048</v>
       </c>
-      <c r="M34" s="97" t="s">
+      <c r="M34" s="90" t="s">
         <v>217</v>
       </c>
       <c r="N34" s="32" t="s">
@@ -25542,7 +25543,7 @@
       <c r="B53" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="98" t="s">
+      <c r="C53" s="91" t="s">
         <v>249</v>
       </c>
       <c r="D53" s="4">
@@ -25572,7 +25573,7 @@
       <c r="L53" s="10">
         <v>2045</v>
       </c>
-      <c r="M53" s="99" t="s">
+      <c r="M53" s="92" t="s">
         <v>249</v>
       </c>
       <c r="N53" s="31" t="s">
@@ -25732,23 +25733,23 @@
       <c r="BN54" s="22"/>
     </row>
     <row r="55" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="94" t="s">
+      <c r="A55" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="94"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="94"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="94"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="94"/>
-      <c r="M55" s="94"/>
-      <c r="N55" s="94"/>
-      <c r="O55" s="94"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="95"/>
+      <c r="L55" s="95"/>
+      <c r="M55" s="95"/>
+      <c r="N55" s="95"/>
+      <c r="O55" s="95"/>
       <c r="P55" s="21"/>
       <c r="Q55" s="21"/>
       <c r="R55" s="21"/>
@@ -25802,23 +25803,23 @@
       <c r="BN55" s="21"/>
     </row>
     <row r="56" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="95" t="s">
+      <c r="A56" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="95"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="95"/>
-      <c r="H56" s="95"/>
-      <c r="I56" s="95"/>
-      <c r="J56" s="95"/>
-      <c r="K56" s="95"/>
-      <c r="L56" s="95"/>
-      <c r="M56" s="95"/>
-      <c r="N56" s="95"/>
-      <c r="O56" s="95"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="96"/>
+      <c r="M56" s="96"/>
+      <c r="N56" s="96"/>
+      <c r="O56" s="96"/>
       <c r="P56" s="21"/>
       <c r="Q56" s="21"/>
       <c r="R56" s="21"/>
@@ -26801,23 +26802,23 @@
       <c r="BN66" s="22"/>
     </row>
     <row r="67" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="94" t="s">
+      <c r="A67" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B67" s="94"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="94"/>
-      <c r="J67" s="94"/>
-      <c r="K67" s="94"/>
-      <c r="L67" s="94"/>
-      <c r="M67" s="94"/>
-      <c r="N67" s="94"/>
-      <c r="O67" s="94"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="95"/>
+      <c r="I67" s="95"/>
+      <c r="J67" s="95"/>
+      <c r="K67" s="95"/>
+      <c r="L67" s="95"/>
+      <c r="M67" s="95"/>
+      <c r="N67" s="95"/>
+      <c r="O67" s="95"/>
       <c r="P67" s="21"/>
       <c r="Q67" s="21"/>
       <c r="R67" s="21"/>
@@ -26871,23 +26872,23 @@
       <c r="BN67" s="21"/>
     </row>
     <row r="68" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="95" t="s">
+      <c r="A68" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="95"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="95"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="95"/>
-      <c r="H68" s="95"/>
-      <c r="I68" s="95"/>
-      <c r="J68" s="95"/>
-      <c r="K68" s="95"/>
-      <c r="L68" s="95"/>
-      <c r="M68" s="95"/>
-      <c r="N68" s="95"/>
-      <c r="O68" s="95"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="96"/>
+      <c r="K68" s="96"/>
+      <c r="L68" s="96"/>
+      <c r="M68" s="96"/>
+      <c r="N68" s="96"/>
+      <c r="O68" s="96"/>
       <c r="P68" s="21"/>
       <c r="Q68" s="21"/>
       <c r="R68" s="21"/>
@@ -27870,23 +27871,23 @@
       <c r="BN78" s="22"/>
     </row>
     <row r="79" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="94" t="s">
+      <c r="A79" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="94"/>
-      <c r="C79" s="94"/>
-      <c r="D79" s="94"/>
-      <c r="E79" s="94"/>
-      <c r="F79" s="94"/>
-      <c r="G79" s="94"/>
-      <c r="H79" s="94"/>
-      <c r="I79" s="94"/>
-      <c r="J79" s="94"/>
-      <c r="K79" s="94"/>
-      <c r="L79" s="94"/>
-      <c r="M79" s="94"/>
-      <c r="N79" s="94"/>
-      <c r="O79" s="94"/>
+      <c r="B79" s="95"/>
+      <c r="C79" s="95"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="95"/>
+      <c r="G79" s="95"/>
+      <c r="H79" s="95"/>
+      <c r="I79" s="95"/>
+      <c r="J79" s="95"/>
+      <c r="K79" s="95"/>
+      <c r="L79" s="95"/>
+      <c r="M79" s="95"/>
+      <c r="N79" s="95"/>
+      <c r="O79" s="95"/>
       <c r="P79" s="21"/>
       <c r="Q79" s="21"/>
       <c r="R79" s="21"/>
@@ -27940,23 +27941,23 @@
       <c r="BN79" s="21"/>
     </row>
     <row r="80" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="95" t="s">
+      <c r="A80" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="95"/>
-      <c r="C80" s="95"/>
-      <c r="D80" s="95"/>
-      <c r="E80" s="95"/>
-      <c r="F80" s="95"/>
-      <c r="G80" s="95"/>
-      <c r="H80" s="95"/>
-      <c r="I80" s="95"/>
-      <c r="J80" s="95"/>
-      <c r="K80" s="95"/>
-      <c r="L80" s="95"/>
-      <c r="M80" s="95"/>
-      <c r="N80" s="95"/>
-      <c r="O80" s="95"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="96"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="96"/>
+      <c r="G80" s="96"/>
+      <c r="H80" s="96"/>
+      <c r="I80" s="96"/>
+      <c r="J80" s="96"/>
+      <c r="K80" s="96"/>
+      <c r="L80" s="96"/>
+      <c r="M80" s="96"/>
+      <c r="N80" s="96"/>
+      <c r="O80" s="96"/>
       <c r="P80" s="21"/>
       <c r="Q80" s="21"/>
       <c r="R80" s="21"/>
@@ -29723,23 +29724,23 @@
       <c r="BN98" s="21"/>
     </row>
     <row r="99" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A99" s="95" t="s">
+      <c r="A99" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="B99" s="95"/>
-      <c r="C99" s="95"/>
-      <c r="D99" s="95"/>
-      <c r="E99" s="95"/>
-      <c r="F99" s="95"/>
-      <c r="G99" s="95"/>
-      <c r="H99" s="95"/>
-      <c r="I99" s="95"/>
-      <c r="J99" s="95"/>
-      <c r="K99" s="95"/>
-      <c r="L99" s="95"/>
-      <c r="M99" s="95"/>
-      <c r="N99" s="95"/>
-      <c r="O99" s="95"/>
+      <c r="B99" s="96"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="96"/>
+      <c r="E99" s="96"/>
+      <c r="F99" s="96"/>
+      <c r="G99" s="96"/>
+      <c r="H99" s="96"/>
+      <c r="I99" s="96"/>
+      <c r="J99" s="96"/>
+      <c r="K99" s="96"/>
+      <c r="L99" s="96"/>
+      <c r="M99" s="96"/>
+      <c r="N99" s="96"/>
+      <c r="O99" s="96"/>
       <c r="P99" s="21"/>
       <c r="Q99" s="21"/>
       <c r="R99" s="21"/>
@@ -29826,7 +29827,7 @@
       <c r="K100" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L100" s="91">
+      <c r="L100" s="87">
         <v>3008</v>
       </c>
       <c r="M100" s="38" t="s">
@@ -29835,7 +29836,7 @@
       <c r="N100" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O100" s="92" t="s">
+      <c r="O100" s="88" t="s">
         <v>254</v>
       </c>
       <c r="P100" s="36"/>
@@ -29989,23 +29990,23 @@
       <c r="BN101" s="22"/>
     </row>
     <row r="102" spans="1:66" s="7" customFormat="1" ht="18" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A102" s="94" t="s">
+      <c r="A102" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="B102" s="94"/>
-      <c r="C102" s="94"/>
-      <c r="D102" s="94"/>
-      <c r="E102" s="94"/>
-      <c r="F102" s="94"/>
-      <c r="G102" s="94"/>
-      <c r="H102" s="94"/>
-      <c r="I102" s="94"/>
-      <c r="J102" s="94"/>
-      <c r="K102" s="94"/>
-      <c r="L102" s="94"/>
-      <c r="M102" s="94"/>
-      <c r="N102" s="94"/>
-      <c r="O102" s="94"/>
+      <c r="B102" s="95"/>
+      <c r="C102" s="95"/>
+      <c r="D102" s="95"/>
+      <c r="E102" s="95"/>
+      <c r="F102" s="95"/>
+      <c r="G102" s="95"/>
+      <c r="H102" s="95"/>
+      <c r="I102" s="95"/>
+      <c r="J102" s="95"/>
+      <c r="K102" s="95"/>
+      <c r="L102" s="95"/>
+      <c r="M102" s="95"/>
+      <c r="N102" s="95"/>
+      <c r="O102" s="95"/>
       <c r="P102" s="22"/>
       <c r="Q102" s="22"/>
       <c r="R102" s="22"/>
@@ -30059,23 +30060,23 @@
       <c r="BN102" s="22"/>
     </row>
     <row r="103" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A103" s="95" t="s">
+      <c r="A103" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="B103" s="95"/>
-      <c r="C103" s="95"/>
-      <c r="D103" s="95"/>
-      <c r="E103" s="95"/>
-      <c r="F103" s="95"/>
-      <c r="G103" s="95"/>
-      <c r="H103" s="95"/>
-      <c r="I103" s="95"/>
-      <c r="J103" s="95"/>
-      <c r="K103" s="95"/>
-      <c r="L103" s="95"/>
-      <c r="M103" s="95"/>
-      <c r="N103" s="95"/>
-      <c r="O103" s="95"/>
+      <c r="B103" s="96"/>
+      <c r="C103" s="96"/>
+      <c r="D103" s="96"/>
+      <c r="E103" s="96"/>
+      <c r="F103" s="96"/>
+      <c r="G103" s="96"/>
+      <c r="H103" s="96"/>
+      <c r="I103" s="96"/>
+      <c r="J103" s="96"/>
+      <c r="K103" s="96"/>
+      <c r="L103" s="96"/>
+      <c r="M103" s="96"/>
+      <c r="N103" s="96"/>
+      <c r="O103" s="96"/>
       <c r="P103" s="22"/>
       <c r="Q103" s="22"/>
       <c r="R103" s="22"/>
@@ -31132,23 +31133,23 @@
       <c r="O116" s="34"/>
     </row>
     <row r="117" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A117" s="95" t="s">
+      <c r="A117" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="B117" s="95"/>
-      <c r="C117" s="95"/>
-      <c r="D117" s="95"/>
-      <c r="E117" s="95"/>
-      <c r="F117" s="95"/>
-      <c r="G117" s="95"/>
-      <c r="H117" s="95"/>
-      <c r="I117" s="95"/>
-      <c r="J117" s="95"/>
-      <c r="K117" s="95"/>
-      <c r="L117" s="95"/>
-      <c r="M117" s="95"/>
-      <c r="N117" s="95"/>
-      <c r="O117" s="95"/>
+      <c r="B117" s="96"/>
+      <c r="C117" s="96"/>
+      <c r="D117" s="96"/>
+      <c r="E117" s="96"/>
+      <c r="F117" s="96"/>
+      <c r="G117" s="96"/>
+      <c r="H117" s="96"/>
+      <c r="I117" s="96"/>
+      <c r="J117" s="96"/>
+      <c r="K117" s="96"/>
+      <c r="L117" s="96"/>
+      <c r="M117" s="96"/>
+      <c r="N117" s="96"/>
+      <c r="O117" s="96"/>
     </row>
     <row r="118" spans="1:66" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
@@ -31339,42 +31340,42 @@
       </c>
     </row>
     <row r="122" spans="1:66" ht="18" x14ac:dyDescent="0.3">
-      <c r="A122" s="94" t="s">
+      <c r="A122" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="B122" s="94"/>
-      <c r="C122" s="94"/>
-      <c r="D122" s="94"/>
-      <c r="E122" s="94"/>
-      <c r="F122" s="94"/>
-      <c r="G122" s="94"/>
-      <c r="H122" s="94"/>
-      <c r="I122" s="94"/>
-      <c r="J122" s="94"/>
-      <c r="K122" s="94"/>
-      <c r="L122" s="94"/>
-      <c r="M122" s="94"/>
-      <c r="N122" s="94"/>
-      <c r="O122" s="94"/>
+      <c r="B122" s="95"/>
+      <c r="C122" s="95"/>
+      <c r="D122" s="95"/>
+      <c r="E122" s="95"/>
+      <c r="F122" s="95"/>
+      <c r="G122" s="95"/>
+      <c r="H122" s="95"/>
+      <c r="I122" s="95"/>
+      <c r="J122" s="95"/>
+      <c r="K122" s="95"/>
+      <c r="L122" s="95"/>
+      <c r="M122" s="95"/>
+      <c r="N122" s="95"/>
+      <c r="O122" s="95"/>
     </row>
     <row r="123" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A123" s="95" t="s">
+      <c r="A123" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="B123" s="95"/>
-      <c r="C123" s="95"/>
-      <c r="D123" s="95"/>
-      <c r="E123" s="95"/>
-      <c r="F123" s="95"/>
-      <c r="G123" s="95"/>
-      <c r="H123" s="95"/>
-      <c r="I123" s="95"/>
-      <c r="J123" s="95"/>
-      <c r="K123" s="95"/>
-      <c r="L123" s="95"/>
-      <c r="M123" s="95"/>
-      <c r="N123" s="95"/>
-      <c r="O123" s="95"/>
+      <c r="B123" s="96"/>
+      <c r="C123" s="96"/>
+      <c r="D123" s="96"/>
+      <c r="E123" s="96"/>
+      <c r="F123" s="96"/>
+      <c r="G123" s="96"/>
+      <c r="H123" s="96"/>
+      <c r="I123" s="96"/>
+      <c r="J123" s="96"/>
+      <c r="K123" s="96"/>
+      <c r="L123" s="96"/>
+      <c r="M123" s="96"/>
+      <c r="N123" s="96"/>
+      <c r="O123" s="96"/>
     </row>
     <row r="124" spans="1:66" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
@@ -37388,1593 +37389,4 @@
     <brk id="78" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A444"/>
-  <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="59">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="59">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="88">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="59">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="59">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="86">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="86">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="86">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="86">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="59">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="86">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="86">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="86">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="86">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="86">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A104" s="59">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A105" s="59">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="4">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="8">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="27">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="8">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="27">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="27">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="27">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="87">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="27">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="27">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="27">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="27">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="87">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="89"/>
-    </row>
-    <row r="120" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A120"/>
-    </row>
-    <row r="121" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121"/>
-    </row>
-    <row r="122" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A122"/>
-    </row>
-    <row r="123" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A123"/>
-    </row>
-    <row r="124" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A124"/>
-    </row>
-    <row r="125" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A125"/>
-    </row>
-    <row r="126" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A126"/>
-    </row>
-    <row r="127" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A127"/>
-    </row>
-    <row r="128" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A128"/>
-    </row>
-    <row r="129" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A129"/>
-    </row>
-    <row r="130" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A130"/>
-    </row>
-    <row r="131" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A131"/>
-    </row>
-    <row r="132" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A132"/>
-    </row>
-    <row r="133" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A133"/>
-    </row>
-    <row r="134" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A134"/>
-    </row>
-    <row r="135" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A135"/>
-    </row>
-    <row r="136" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A136"/>
-    </row>
-    <row r="137" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A137"/>
-    </row>
-    <row r="138" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A138"/>
-    </row>
-    <row r="139" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A139"/>
-    </row>
-    <row r="140" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A140"/>
-    </row>
-    <row r="141" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A141"/>
-    </row>
-    <row r="142" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A142"/>
-    </row>
-    <row r="143" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A143"/>
-    </row>
-    <row r="144" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A144"/>
-    </row>
-    <row r="145" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A145"/>
-    </row>
-    <row r="146" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A146"/>
-    </row>
-    <row r="147" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A147"/>
-    </row>
-    <row r="148" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A148"/>
-    </row>
-    <row r="149" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A149"/>
-    </row>
-    <row r="150" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A150"/>
-    </row>
-    <row r="151" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A151"/>
-    </row>
-    <row r="152" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A152"/>
-    </row>
-    <row r="153" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A153"/>
-    </row>
-    <row r="154" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A154"/>
-    </row>
-    <row r="155" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A155"/>
-    </row>
-    <row r="156" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A156"/>
-    </row>
-    <row r="157" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A157"/>
-    </row>
-    <row r="158" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A158"/>
-    </row>
-    <row r="159" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A159"/>
-    </row>
-    <row r="160" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A160"/>
-    </row>
-    <row r="161" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A161"/>
-    </row>
-    <row r="162" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A162"/>
-    </row>
-    <row r="163" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A163"/>
-    </row>
-    <row r="164" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A164"/>
-    </row>
-    <row r="165" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A165"/>
-    </row>
-    <row r="166" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A166"/>
-    </row>
-    <row r="167" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A167"/>
-    </row>
-    <row r="168" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A168"/>
-    </row>
-    <row r="169" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A169"/>
-    </row>
-    <row r="170" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A170"/>
-    </row>
-    <row r="171" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A171"/>
-    </row>
-    <row r="172" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A172"/>
-    </row>
-    <row r="173" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A173"/>
-    </row>
-    <row r="174" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A174"/>
-    </row>
-    <row r="175" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A175"/>
-    </row>
-    <row r="176" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A176"/>
-    </row>
-    <row r="177" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A177"/>
-    </row>
-    <row r="178" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A178"/>
-    </row>
-    <row r="179" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A179"/>
-    </row>
-    <row r="180" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A180"/>
-    </row>
-    <row r="181" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A181"/>
-    </row>
-    <row r="182" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A182"/>
-    </row>
-    <row r="183" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A183"/>
-    </row>
-    <row r="184" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A184"/>
-    </row>
-    <row r="185" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A185"/>
-    </row>
-    <row r="186" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A186"/>
-    </row>
-    <row r="187" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A187"/>
-    </row>
-    <row r="188" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A188"/>
-    </row>
-    <row r="189" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A189"/>
-    </row>
-    <row r="190" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A190"/>
-    </row>
-    <row r="191" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A191"/>
-    </row>
-    <row r="192" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A192"/>
-    </row>
-    <row r="193" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A193"/>
-    </row>
-    <row r="194" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A194"/>
-    </row>
-    <row r="195" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A195"/>
-    </row>
-    <row r="196" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A196"/>
-    </row>
-    <row r="197" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A197"/>
-    </row>
-    <row r="198" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A198"/>
-    </row>
-    <row r="199" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A199"/>
-    </row>
-    <row r="200" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A200"/>
-    </row>
-    <row r="201" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A201"/>
-    </row>
-    <row r="202" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A202"/>
-    </row>
-    <row r="203" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A203"/>
-    </row>
-    <row r="204" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A204"/>
-    </row>
-    <row r="205" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A205"/>
-    </row>
-    <row r="206" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A206"/>
-    </row>
-    <row r="207" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A207"/>
-    </row>
-    <row r="208" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A208"/>
-    </row>
-    <row r="209" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A209"/>
-    </row>
-    <row r="210" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A210"/>
-    </row>
-    <row r="211" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A211"/>
-    </row>
-    <row r="212" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A212"/>
-    </row>
-    <row r="213" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A213"/>
-    </row>
-    <row r="214" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A214"/>
-    </row>
-    <row r="215" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A215"/>
-    </row>
-    <row r="216" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A216"/>
-    </row>
-    <row r="217" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A217"/>
-    </row>
-    <row r="218" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A218"/>
-    </row>
-    <row r="219" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A219"/>
-    </row>
-    <row r="220" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A220"/>
-    </row>
-    <row r="221" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A221"/>
-    </row>
-    <row r="222" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A222"/>
-    </row>
-    <row r="223" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A223"/>
-    </row>
-    <row r="224" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A224"/>
-    </row>
-    <row r="225" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A225"/>
-    </row>
-    <row r="226" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A226"/>
-    </row>
-    <row r="227" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A227"/>
-    </row>
-    <row r="228" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A228"/>
-    </row>
-    <row r="229" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A229"/>
-    </row>
-    <row r="230" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A230"/>
-    </row>
-    <row r="231" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A231"/>
-    </row>
-    <row r="232" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A232"/>
-    </row>
-    <row r="233" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A233"/>
-    </row>
-    <row r="234" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A234"/>
-    </row>
-    <row r="235" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A235"/>
-    </row>
-    <row r="236" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A236"/>
-    </row>
-    <row r="237" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A237"/>
-    </row>
-    <row r="238" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A238"/>
-    </row>
-    <row r="239" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A239"/>
-    </row>
-    <row r="240" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A240"/>
-    </row>
-    <row r="241" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A241"/>
-    </row>
-    <row r="242" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A242"/>
-    </row>
-    <row r="243" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A243"/>
-    </row>
-    <row r="244" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A244"/>
-    </row>
-    <row r="245" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A245"/>
-    </row>
-    <row r="246" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A246"/>
-    </row>
-    <row r="247" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A247"/>
-    </row>
-    <row r="248" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A248"/>
-    </row>
-    <row r="249" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A249"/>
-    </row>
-    <row r="250" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A250"/>
-    </row>
-    <row r="251" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A251"/>
-    </row>
-    <row r="252" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A252"/>
-    </row>
-    <row r="253" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A253"/>
-    </row>
-    <row r="254" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A254"/>
-    </row>
-    <row r="255" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A255"/>
-    </row>
-    <row r="256" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A256"/>
-    </row>
-    <row r="257" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A257"/>
-    </row>
-    <row r="258" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A258"/>
-    </row>
-    <row r="259" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A259"/>
-    </row>
-    <row r="260" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A260"/>
-    </row>
-    <row r="261" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A261"/>
-    </row>
-    <row r="262" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A262"/>
-    </row>
-    <row r="263" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A263"/>
-    </row>
-    <row r="264" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A264"/>
-    </row>
-    <row r="265" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A265"/>
-    </row>
-    <row r="266" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A266"/>
-    </row>
-    <row r="267" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A267"/>
-    </row>
-    <row r="268" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A268"/>
-    </row>
-    <row r="269" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A269"/>
-    </row>
-    <row r="270" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A270"/>
-    </row>
-    <row r="271" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A271"/>
-    </row>
-    <row r="272" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A272"/>
-    </row>
-    <row r="273" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A273"/>
-    </row>
-    <row r="274" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A274"/>
-    </row>
-    <row r="275" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A275"/>
-    </row>
-    <row r="276" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A276"/>
-    </row>
-    <row r="277" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A277"/>
-    </row>
-    <row r="278" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A278"/>
-    </row>
-    <row r="279" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A279"/>
-    </row>
-    <row r="280" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A280"/>
-    </row>
-    <row r="281" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A281"/>
-    </row>
-    <row r="282" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A282"/>
-    </row>
-    <row r="283" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A283"/>
-    </row>
-    <row r="284" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A284"/>
-    </row>
-    <row r="285" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A285"/>
-    </row>
-    <row r="286" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A286"/>
-    </row>
-    <row r="287" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A287"/>
-    </row>
-    <row r="288" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A288"/>
-    </row>
-    <row r="289" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A289"/>
-    </row>
-    <row r="290" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A290"/>
-    </row>
-    <row r="291" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A291"/>
-    </row>
-    <row r="292" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A292"/>
-    </row>
-    <row r="293" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A293"/>
-    </row>
-    <row r="294" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A294"/>
-    </row>
-    <row r="295" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A295"/>
-    </row>
-    <row r="296" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A296"/>
-    </row>
-    <row r="297" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A297"/>
-    </row>
-    <row r="298" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A298"/>
-    </row>
-    <row r="299" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A299"/>
-    </row>
-    <row r="300" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A300"/>
-    </row>
-    <row r="301" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A301"/>
-    </row>
-    <row r="302" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A302"/>
-    </row>
-    <row r="303" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A303"/>
-    </row>
-    <row r="304" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A304"/>
-    </row>
-    <row r="305" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A305"/>
-    </row>
-    <row r="306" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A306"/>
-    </row>
-    <row r="307" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A307"/>
-    </row>
-    <row r="308" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A308"/>
-    </row>
-    <row r="309" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A309"/>
-    </row>
-    <row r="310" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A310"/>
-    </row>
-    <row r="311" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A311"/>
-    </row>
-    <row r="312" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A312"/>
-    </row>
-    <row r="313" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A313"/>
-    </row>
-    <row r="314" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A314"/>
-    </row>
-    <row r="315" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A315"/>
-    </row>
-    <row r="316" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A316"/>
-    </row>
-    <row r="317" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A317"/>
-    </row>
-    <row r="318" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A318"/>
-    </row>
-    <row r="319" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A319"/>
-    </row>
-    <row r="320" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A320"/>
-    </row>
-    <row r="321" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A321"/>
-    </row>
-    <row r="322" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A322"/>
-    </row>
-    <row r="323" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A323"/>
-    </row>
-    <row r="324" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A324"/>
-    </row>
-    <row r="325" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A325"/>
-    </row>
-    <row r="326" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A326"/>
-    </row>
-    <row r="327" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A327"/>
-    </row>
-    <row r="328" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A328"/>
-    </row>
-    <row r="329" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A329"/>
-    </row>
-    <row r="330" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A330"/>
-    </row>
-    <row r="331" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A331"/>
-    </row>
-    <row r="332" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A332"/>
-    </row>
-    <row r="333" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A333"/>
-    </row>
-    <row r="334" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A334"/>
-    </row>
-    <row r="335" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A335"/>
-    </row>
-    <row r="336" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A336"/>
-    </row>
-    <row r="337" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A337"/>
-    </row>
-    <row r="338" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A338"/>
-    </row>
-    <row r="339" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A339"/>
-    </row>
-    <row r="340" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A340"/>
-    </row>
-    <row r="341" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A341"/>
-    </row>
-    <row r="342" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A342"/>
-    </row>
-    <row r="343" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A343"/>
-    </row>
-    <row r="344" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A344"/>
-    </row>
-    <row r="345" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A345"/>
-    </row>
-    <row r="346" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A346"/>
-    </row>
-    <row r="347" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A347"/>
-    </row>
-    <row r="348" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A348"/>
-    </row>
-    <row r="349" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A349"/>
-    </row>
-    <row r="350" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A350"/>
-    </row>
-    <row r="351" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A351"/>
-    </row>
-    <row r="352" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A352"/>
-    </row>
-    <row r="353" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A353"/>
-    </row>
-    <row r="354" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A354"/>
-    </row>
-    <row r="355" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A355"/>
-    </row>
-    <row r="356" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A356"/>
-    </row>
-    <row r="357" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A357"/>
-    </row>
-    <row r="358" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A358"/>
-    </row>
-    <row r="359" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A359"/>
-    </row>
-    <row r="360" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A360"/>
-    </row>
-    <row r="361" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A361"/>
-    </row>
-    <row r="362" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A362"/>
-    </row>
-    <row r="363" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A363"/>
-    </row>
-    <row r="364" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A364"/>
-    </row>
-    <row r="365" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A365"/>
-    </row>
-    <row r="366" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A366"/>
-    </row>
-    <row r="367" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A367"/>
-    </row>
-    <row r="368" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A368"/>
-    </row>
-    <row r="369" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A369"/>
-    </row>
-    <row r="370" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A370"/>
-    </row>
-    <row r="371" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A371"/>
-    </row>
-    <row r="372" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A372"/>
-    </row>
-    <row r="373" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A373"/>
-    </row>
-    <row r="374" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A374"/>
-    </row>
-    <row r="375" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A375"/>
-    </row>
-    <row r="376" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A376"/>
-    </row>
-    <row r="377" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A377"/>
-    </row>
-    <row r="378" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A378"/>
-    </row>
-    <row r="379" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A379"/>
-    </row>
-    <row r="380" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A380"/>
-    </row>
-    <row r="381" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A381"/>
-    </row>
-    <row r="382" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A382"/>
-    </row>
-    <row r="383" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A383"/>
-    </row>
-    <row r="384" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A384"/>
-    </row>
-    <row r="385" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A385"/>
-    </row>
-    <row r="386" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A386"/>
-    </row>
-    <row r="387" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A387"/>
-    </row>
-    <row r="388" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A388"/>
-    </row>
-    <row r="389" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A389"/>
-    </row>
-    <row r="390" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A390"/>
-    </row>
-    <row r="391" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A391"/>
-    </row>
-    <row r="392" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A392"/>
-    </row>
-    <row r="393" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A393"/>
-    </row>
-    <row r="394" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A394"/>
-    </row>
-    <row r="395" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A395"/>
-    </row>
-    <row r="396" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A396"/>
-    </row>
-    <row r="397" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A397"/>
-    </row>
-    <row r="398" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A398"/>
-    </row>
-    <row r="399" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A399"/>
-    </row>
-    <row r="400" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A400"/>
-    </row>
-    <row r="401" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A401"/>
-    </row>
-    <row r="402" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A402"/>
-    </row>
-    <row r="403" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A403"/>
-    </row>
-    <row r="404" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A404"/>
-    </row>
-    <row r="405" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A405"/>
-    </row>
-    <row r="406" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A406"/>
-    </row>
-    <row r="407" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A407"/>
-    </row>
-    <row r="408" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A408"/>
-    </row>
-    <row r="409" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A409"/>
-    </row>
-    <row r="410" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A410"/>
-    </row>
-    <row r="411" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A411"/>
-    </row>
-    <row r="412" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A412"/>
-    </row>
-    <row r="413" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A413"/>
-    </row>
-    <row r="414" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A414"/>
-    </row>
-    <row r="415" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A415"/>
-    </row>
-    <row r="416" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A416"/>
-    </row>
-    <row r="417" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A417"/>
-    </row>
-    <row r="418" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A418"/>
-    </row>
-    <row r="419" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A419"/>
-    </row>
-    <row r="420" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A420"/>
-    </row>
-    <row r="421" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A421"/>
-    </row>
-    <row r="422" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A422"/>
-    </row>
-    <row r="423" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A423"/>
-    </row>
-    <row r="424" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A424"/>
-    </row>
-    <row r="425" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A425"/>
-    </row>
-    <row r="426" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A426"/>
-    </row>
-    <row r="427" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A427"/>
-    </row>
-    <row r="428" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A428"/>
-    </row>
-    <row r="429" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A429"/>
-    </row>
-    <row r="430" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A430"/>
-    </row>
-    <row r="431" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A431"/>
-    </row>
-    <row r="432" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A432"/>
-    </row>
-    <row r="433" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A433"/>
-    </row>
-    <row r="434" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A434"/>
-    </row>
-    <row r="435" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A435"/>
-    </row>
-    <row r="436" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A436"/>
-    </row>
-    <row r="437" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A437"/>
-    </row>
-    <row r="438" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A438"/>
-    </row>
-    <row r="439" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A439"/>
-    </row>
-    <row r="440" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A440"/>
-    </row>
-    <row r="441" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A441"/>
-    </row>
-    <row r="442" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A442"/>
-    </row>
-    <row r="443" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A443"/>
-    </row>
-    <row r="444" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A444"/>
-    </row>
-  </sheetData>
-  <sortState ref="A1:A443">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$A$1:$O$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$453</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$123</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$124</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="262">
   <si>
     <t>Payslip</t>
   </si>
@@ -852,6 +852,18 @@
   <si>
     <t>Cert is not active</t>
   </si>
+  <si>
+    <t>97, 98, 115, 99</t>
+  </si>
+  <si>
+    <t>Corrected to Async</t>
+  </si>
+  <si>
+    <t>Added to Payroll Submission</t>
+  </si>
+  <si>
+    <t>PayrollSubmission Response</t>
+  </si>
 </sst>
 </file>
 
@@ -1090,7 +1102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1348,6 +1360,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -22054,10 +22069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:M43"/>
+  <dimension ref="B8:M45"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="C45" sqref="C45:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22074,18 +22089,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
     </row>
     <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
@@ -22506,6 +22521,24 @@
       </c>
       <c r="D43" s="81" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="80"/>
+      <c r="C44" s="80">
+        <v>97</v>
+      </c>
+      <c r="D44" s="84" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="80"/>
+      <c r="C45" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="81" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -22523,11 +22556,11 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BN452"/>
+  <dimension ref="A1:BN453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -22646,23 +22679,23 @@
       <c r="BN1" s="20"/>
     </row>
     <row r="2" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -22716,23 +22749,23 @@
       <c r="BN2" s="21"/>
     </row>
     <row r="3" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -23816,23 +23849,23 @@
       </c>
     </row>
     <row r="23" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
@@ -23885,113 +23918,62 @@
       <c r="BM23" s="21"/>
       <c r="BN23" s="21"/>
     </row>
-    <row r="24" spans="1:66" s="37" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
-        <v>143</v>
+    <row r="24" spans="1:66" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>97</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="89" t="s">
-        <v>255</v>
-      </c>
-      <c r="D24" s="39" t="s">
+      <c r="C24" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="5" t="s">
         <v>151</v>
       </c>
       <c r="G24" s="39">
         <v>200</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="24" t="s">
         <v>228</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L24" s="39">
-        <v>2050</v>
-      </c>
-      <c r="M24" s="38" t="s">
-        <v>255</v>
+        <v>35</v>
+      </c>
+      <c r="L24" s="8">
+        <v>4002</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>45</v>
       </c>
       <c r="N24" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O24" s="86" t="s">
-        <v>256</v>
-      </c>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="36"/>
-      <c r="AR24" s="36"/>
-      <c r="AS24" s="36"/>
-      <c r="AT24" s="36"/>
-      <c r="AU24" s="36"/>
-      <c r="AV24" s="36"/>
-      <c r="AW24" s="36"/>
-      <c r="AX24" s="36"/>
-      <c r="AY24" s="36"/>
-      <c r="AZ24" s="36"/>
-      <c r="BA24" s="36"/>
-      <c r="BB24" s="36"/>
-      <c r="BC24" s="36"/>
-      <c r="BD24" s="36"/>
-      <c r="BE24" s="36"/>
-      <c r="BF24" s="36"/>
-      <c r="BG24" s="36"/>
-      <c r="BH24" s="36"/>
-      <c r="BI24" s="36"/>
-      <c r="BJ24" s="36"/>
-      <c r="BK24" s="36"/>
-      <c r="BL24" s="36"/>
-      <c r="BM24" s="36"/>
-      <c r="BN24" s="36"/>
+      <c r="O24" s="32" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25" spans="1:66" s="37" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="42" t="s">
-        <v>252</v>
+      <c r="C25" s="89" t="s">
+        <v>255</v>
       </c>
       <c r="D25" s="39" t="s">
         <v>12</v>
@@ -24002,32 +23984,32 @@
       <c r="F25" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="24">
-        <v>400</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>227</v>
+      <c r="G25" s="39">
+        <v>200</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>228</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J25" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="66">
-        <v>2051</v>
+      <c r="K25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="39">
+        <v>2050</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="N25" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O25" s="44" t="s">
-        <v>251</v>
+      <c r="O25" s="86" t="s">
+        <v>256</v>
       </c>
       <c r="P25" s="36"/>
       <c r="Q25" s="36"/>
@@ -24081,18 +24063,18 @@
       <c r="BM25" s="36"/>
       <c r="BN25" s="36"/>
     </row>
-    <row r="26" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>20</v>
+    <row r="26" spans="1:66" s="37" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>144</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="5">
-        <v>8</v>
+      <c r="C26" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>151</v>
@@ -24101,45 +24083,96 @@
         <v>151</v>
       </c>
       <c r="G26" s="24">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="J26" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="5">
-        <v>1010</v>
-      </c>
-      <c r="M26" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="32" t="s">
+      <c r="K26" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="66">
+        <v>2051</v>
+      </c>
+      <c r="M26" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="N26" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O26" s="32" t="s">
-        <v>1</v>
-      </c>
+      <c r="O26" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="36"/>
+      <c r="AM26" s="36"/>
+      <c r="AN26" s="36"/>
+      <c r="AO26" s="36"/>
+      <c r="AP26" s="36"/>
+      <c r="AQ26" s="36"/>
+      <c r="AR26" s="36"/>
+      <c r="AS26" s="36"/>
+      <c r="AT26" s="36"/>
+      <c r="AU26" s="36"/>
+      <c r="AV26" s="36"/>
+      <c r="AW26" s="36"/>
+      <c r="AX26" s="36"/>
+      <c r="AY26" s="36"/>
+      <c r="AZ26" s="36"/>
+      <c r="BA26" s="36"/>
+      <c r="BB26" s="36"/>
+      <c r="BC26" s="36"/>
+      <c r="BD26" s="36"/>
+      <c r="BE26" s="36"/>
+      <c r="BF26" s="36"/>
+      <c r="BG26" s="36"/>
+      <c r="BH26" s="36"/>
+      <c r="BI26" s="36"/>
+      <c r="BJ26" s="36"/>
+      <c r="BK26" s="36"/>
+      <c r="BL26" s="36"/>
+      <c r="BM26" s="36"/>
+      <c r="BN26" s="36"/>
     </row>
     <row r="27" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="D27" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>151</v>
@@ -24150,7 +24183,7 @@
       <c r="G27" s="24">
         <v>200</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="24" t="s">
         <v>228</v>
       </c>
       <c r="I27" s="24" t="s">
@@ -24160,33 +24193,33 @@
         <v>7</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27" s="8">
-        <v>2009</v>
+        <v>11</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1010</v>
       </c>
       <c r="M27" s="31" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="N27" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O27" s="32" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>76</v>
+      <c r="C28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="5">
+        <v>13</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>151</v>
@@ -24209,31 +24242,31 @@
       <c r="K28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L28" s="5">
-        <v>2010</v>
+      <c r="L28" s="8">
+        <v>2009</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="N28" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="31" t="s">
-        <v>54</v>
+      <c r="O28" s="32" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>36</v>
+      <c r="C29" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>151</v>
@@ -24257,30 +24290,30 @@
         <v>35</v>
       </c>
       <c r="L29" s="5">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="M29" s="31" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="N29" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O29" s="31" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>77</v>
+      <c r="C30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>151</v>
@@ -24301,30 +24334,30 @@
         <v>7</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L30" s="5">
-        <v>2014</v>
-      </c>
-      <c r="M30" s="33" t="s">
-        <v>245</v>
+        <v>2012</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="N30" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:66" ht="35.450000000000003" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>33</v>
+      <c r="C31" s="23" t="s">
+        <v>244</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>77</v>
@@ -24338,7 +24371,7 @@
       <c r="G31" s="24">
         <v>200</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="55" t="s">
         <v>228</v>
       </c>
       <c r="I31" s="24" t="s">
@@ -24348,13 +24381,13 @@
         <v>7</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L31" s="5">
-        <v>2015</v>
-      </c>
-      <c r="M31" s="31" t="s">
-        <v>20</v>
+        <v>2014</v>
+      </c>
+      <c r="M31" s="33" t="s">
+        <v>245</v>
       </c>
       <c r="N31" s="32" t="s">
         <v>0</v>
@@ -24363,112 +24396,112 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:66" s="74" customFormat="1" ht="52.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A32" s="59">
-        <v>27</v>
-      </c>
-      <c r="B32" s="60" t="s">
+    <row r="32" spans="1:66" ht="35.450000000000003" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>26</v>
+      </c>
+      <c r="B32" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="59" t="s">
+      <c r="C32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F32" s="59" t="s">
+      <c r="F32" s="24" t="s">
         <v>151</v>
       </c>
       <c r="G32" s="24">
         <v>200</v>
       </c>
-      <c r="H32" s="59" t="s">
+      <c r="H32" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="I32" s="59" t="s">
+      <c r="I32" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J32" s="59" t="s">
+      <c r="J32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="62">
-        <v>2016</v>
-      </c>
-      <c r="M32" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="N32" s="60" t="s">
+      <c r="K32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="5">
+        <v>2015</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O32" s="60" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>28</v>
-      </c>
-      <c r="B33" s="31" t="s">
+      <c r="O32" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:66" s="74" customFormat="1" ht="52.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A33" s="59">
+        <v>27</v>
+      </c>
+      <c r="B33" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="59" t="s">
         <v>151</v>
       </c>
       <c r="G33" s="24">
         <v>200</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L33" s="8">
-        <v>2013</v>
-      </c>
-      <c r="M33" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="N33" s="32" t="s">
+      <c r="K33" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="62">
+        <v>2016</v>
+      </c>
+      <c r="M33" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="O33" s="31" t="s">
+      <c r="O33" s="60" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="5">
-        <v>12</v>
+      <c r="C34" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>151</v>
@@ -24489,30 +24522,30 @@
         <v>7</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="5">
-        <v>2017</v>
+        <v>35</v>
+      </c>
+      <c r="L34" s="8">
+        <v>2013</v>
       </c>
       <c r="M34" s="31" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N34" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O34" s="32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="27">
-        <v>134</v>
+      <c r="O34" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>31</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="90" t="s">
-        <v>217</v>
+      <c r="C35" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="D35" s="5">
         <v>12</v>
@@ -24536,13 +24569,13 @@
         <v>7</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L35" s="27">
-        <v>2048</v>
-      </c>
-      <c r="M35" s="90" t="s">
-        <v>217</v>
+        <v>11</v>
+      </c>
+      <c r="L35" s="5">
+        <v>2017</v>
+      </c>
+      <c r="M35" s="31" t="s">
+        <v>13</v>
       </c>
       <c r="N35" s="32" t="s">
         <v>0</v>
@@ -24551,15 +24584,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>32</v>
+    <row r="36" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="27">
+        <v>134</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>103</v>
+      <c r="C36" s="90" t="s">
+        <v>217</v>
       </c>
       <c r="D36" s="5">
         <v>12</v>
@@ -24583,13 +24616,13 @@
         <v>7</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="5">
-        <v>2018</v>
-      </c>
-      <c r="M36" s="31" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="L36" s="27">
+        <v>2048</v>
+      </c>
+      <c r="M36" s="90" t="s">
+        <v>217</v>
       </c>
       <c r="N36" s="32" t="s">
         <v>0</v>
@@ -24598,18 +24631,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:66" s="37" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>33</v>
-      </c>
-      <c r="B37" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="24">
-        <v>16</v>
+      <c r="C37" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="5">
+        <v>12</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>151</v>
@@ -24626,87 +24659,36 @@
       <c r="I37" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J37" s="24" t="s">
+      <c r="J37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L37" s="25">
-        <v>2020</v>
-      </c>
-      <c r="M37" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="N37" s="38" t="s">
+      <c r="K37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="5">
+        <v>2018</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O37" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="36"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="36"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="36"/>
-      <c r="AI37" s="36"/>
-      <c r="AJ37" s="36"/>
-      <c r="AK37" s="36"/>
-      <c r="AL37" s="36"/>
-      <c r="AM37" s="36"/>
-      <c r="AN37" s="36"/>
-      <c r="AO37" s="36"/>
-      <c r="AP37" s="36"/>
-      <c r="AQ37" s="36"/>
-      <c r="AR37" s="36"/>
-      <c r="AS37" s="36"/>
-      <c r="AT37" s="36"/>
-      <c r="AU37" s="36"/>
-      <c r="AV37" s="36"/>
-      <c r="AW37" s="36"/>
-      <c r="AX37" s="36"/>
-      <c r="AY37" s="36"/>
-      <c r="AZ37" s="36"/>
-      <c r="BA37" s="36"/>
-      <c r="BB37" s="36"/>
-      <c r="BC37" s="36"/>
-      <c r="BD37" s="36"/>
-      <c r="BE37" s="36"/>
-      <c r="BF37" s="36"/>
-      <c r="BG37" s="36"/>
-      <c r="BH37" s="36"/>
-      <c r="BI37" s="36"/>
-      <c r="BJ37" s="36"/>
-      <c r="BK37" s="36"/>
-      <c r="BL37" s="36"/>
-      <c r="BM37" s="36"/>
-      <c r="BN37" s="36"/>
-    </row>
-    <row r="38" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O37" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:66" s="37" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>35</v>
-      </c>
-      <c r="B38" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>109</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="5">
+        <v>126</v>
+      </c>
+      <c r="D38" s="24">
         <v>16</v>
       </c>
       <c r="E38" s="24" t="s">
@@ -24724,37 +24706,88 @@
       <c r="I38" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" s="25">
+        <v>2020</v>
+      </c>
+      <c r="M38" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="N38" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="36"/>
+      <c r="AJ38" s="36"/>
+      <c r="AK38" s="36"/>
+      <c r="AL38" s="36"/>
+      <c r="AM38" s="36"/>
+      <c r="AN38" s="36"/>
+      <c r="AO38" s="36"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="36"/>
+      <c r="AR38" s="36"/>
+      <c r="AS38" s="36"/>
+      <c r="AT38" s="36"/>
+      <c r="AU38" s="36"/>
+      <c r="AV38" s="36"/>
+      <c r="AW38" s="36"/>
+      <c r="AX38" s="36"/>
+      <c r="AY38" s="36"/>
+      <c r="AZ38" s="36"/>
+      <c r="BA38" s="36"/>
+      <c r="BB38" s="36"/>
+      <c r="BC38" s="36"/>
+      <c r="BD38" s="36"/>
+      <c r="BE38" s="36"/>
+      <c r="BF38" s="36"/>
+      <c r="BG38" s="36"/>
+      <c r="BH38" s="36"/>
+      <c r="BI38" s="36"/>
+      <c r="BJ38" s="36"/>
+      <c r="BK38" s="36"/>
+      <c r="BL38" s="36"/>
+      <c r="BM38" s="36"/>
+      <c r="BN38" s="36"/>
+    </row>
+    <row r="39" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>35</v>
       </c>
-      <c r="L38" s="5">
-        <v>2023</v>
-      </c>
-      <c r="M38" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="N38" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="O38" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:66" s="37" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>36</v>
-      </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="39">
-        <v>53</v>
+      <c r="C39" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="5">
+        <v>16</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>151</v>
@@ -24771,88 +24804,37 @@
       <c r="I39" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J39" s="39" t="s">
+      <c r="J39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K39" s="39" t="s">
+      <c r="K39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L39" s="5">
-        <v>2025</v>
-      </c>
-      <c r="M39" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="N39" s="38" t="s">
+        <v>2023</v>
+      </c>
+      <c r="M39" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="N39" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O39" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-      <c r="AC39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="36"/>
-      <c r="AI39" s="36"/>
-      <c r="AJ39" s="36"/>
-      <c r="AK39" s="36"/>
-      <c r="AL39" s="36"/>
-      <c r="AM39" s="36"/>
-      <c r="AN39" s="36"/>
-      <c r="AO39" s="36"/>
-      <c r="AP39" s="36"/>
-      <c r="AQ39" s="36"/>
-      <c r="AR39" s="36"/>
-      <c r="AS39" s="36"/>
-      <c r="AT39" s="36"/>
-      <c r="AU39" s="36"/>
-      <c r="AV39" s="36"/>
-      <c r="AW39" s="36"/>
-      <c r="AX39" s="36"/>
-      <c r="AY39" s="36"/>
-      <c r="AZ39" s="36"/>
-      <c r="BA39" s="36"/>
-      <c r="BB39" s="36"/>
-      <c r="BC39" s="36"/>
-      <c r="BD39" s="36"/>
-      <c r="BE39" s="36"/>
-      <c r="BF39" s="36"/>
-      <c r="BG39" s="36"/>
-      <c r="BH39" s="36"/>
-      <c r="BI39" s="36"/>
-      <c r="BJ39" s="36"/>
-      <c r="BK39" s="36"/>
-      <c r="BL39" s="36"/>
-      <c r="BM39" s="36"/>
-      <c r="BN39" s="36"/>
-    </row>
-    <row r="40" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O39" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:66" s="37" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>37</v>
-      </c>
-      <c r="B40" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="4">
-        <v>21</v>
+      <c r="C40" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="39">
+        <v>53</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>151</v>
@@ -24869,88 +24851,88 @@
       <c r="I40" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="39" t="s">
         <v>35</v>
       </c>
       <c r="L40" s="5">
-        <v>2030</v>
-      </c>
-      <c r="M40" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="N40" s="31" t="s">
+        <v>2025</v>
+      </c>
+      <c r="M40" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="N40" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O40" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="22"/>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="22"/>
-      <c r="AF40" s="22"/>
-      <c r="AG40" s="22"/>
-      <c r="AH40" s="22"/>
-      <c r="AI40" s="22"/>
-      <c r="AJ40" s="22"/>
-      <c r="AK40" s="22"/>
-      <c r="AL40" s="22"/>
-      <c r="AM40" s="22"/>
-      <c r="AN40" s="22"/>
-      <c r="AO40" s="22"/>
-      <c r="AP40" s="22"/>
-      <c r="AQ40" s="22"/>
-      <c r="AR40" s="22"/>
-      <c r="AS40" s="22"/>
-      <c r="AT40" s="22"/>
-      <c r="AU40" s="22"/>
-      <c r="AV40" s="22"/>
-      <c r="AW40" s="22"/>
-      <c r="AX40" s="22"/>
-      <c r="AY40" s="22"/>
-      <c r="AZ40" s="22"/>
-      <c r="BA40" s="22"/>
-      <c r="BB40" s="22"/>
-      <c r="BC40" s="22"/>
-      <c r="BD40" s="22"/>
-      <c r="BE40" s="22"/>
-      <c r="BF40" s="22"/>
-      <c r="BG40" s="22"/>
-      <c r="BH40" s="22"/>
-      <c r="BI40" s="22"/>
-      <c r="BJ40" s="22"/>
-      <c r="BK40" s="22"/>
-      <c r="BL40" s="22"/>
-      <c r="BM40" s="22"/>
-      <c r="BN40" s="22"/>
-    </row>
-    <row r="41" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O40" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36"/>
+      <c r="AH40" s="36"/>
+      <c r="AI40" s="36"/>
+      <c r="AJ40" s="36"/>
+      <c r="AK40" s="36"/>
+      <c r="AL40" s="36"/>
+      <c r="AM40" s="36"/>
+      <c r="AN40" s="36"/>
+      <c r="AO40" s="36"/>
+      <c r="AP40" s="36"/>
+      <c r="AQ40" s="36"/>
+      <c r="AR40" s="36"/>
+      <c r="AS40" s="36"/>
+      <c r="AT40" s="36"/>
+      <c r="AU40" s="36"/>
+      <c r="AV40" s="36"/>
+      <c r="AW40" s="36"/>
+      <c r="AX40" s="36"/>
+      <c r="AY40" s="36"/>
+      <c r="AZ40" s="36"/>
+      <c r="BA40" s="36"/>
+      <c r="BB40" s="36"/>
+      <c r="BC40" s="36"/>
+      <c r="BD40" s="36"/>
+      <c r="BE40" s="36"/>
+      <c r="BF40" s="36"/>
+      <c r="BG40" s="36"/>
+      <c r="BH40" s="36"/>
+      <c r="BI40" s="36"/>
+      <c r="BJ40" s="36"/>
+      <c r="BK40" s="36"/>
+      <c r="BL40" s="36"/>
+      <c r="BM40" s="36"/>
+      <c r="BN40" s="36"/>
+    </row>
+    <row r="41" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>12</v>
+      <c r="C41" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="4">
+        <v>21</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>151</v>
@@ -24967,37 +24949,88 @@
       <c r="I41" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K41" s="5" t="s">
-        <v>11</v>
+      <c r="K41" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="L41" s="5">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N41" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="N41" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O41" s="32" t="s">
-        <v>58</v>
-      </c>
+      <c r="O41" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="22"/>
+      <c r="AH41" s="22"/>
+      <c r="AI41" s="22"/>
+      <c r="AJ41" s="22"/>
+      <c r="AK41" s="22"/>
+      <c r="AL41" s="22"/>
+      <c r="AM41" s="22"/>
+      <c r="AN41" s="22"/>
+      <c r="AO41" s="22"/>
+      <c r="AP41" s="22"/>
+      <c r="AQ41" s="22"/>
+      <c r="AR41" s="22"/>
+      <c r="AS41" s="22"/>
+      <c r="AT41" s="22"/>
+      <c r="AU41" s="22"/>
+      <c r="AV41" s="22"/>
+      <c r="AW41" s="22"/>
+      <c r="AX41" s="22"/>
+      <c r="AY41" s="22"/>
+      <c r="AZ41" s="22"/>
+      <c r="BA41" s="22"/>
+      <c r="BB41" s="22"/>
+      <c r="BC41" s="22"/>
+      <c r="BD41" s="22"/>
+      <c r="BE41" s="22"/>
+      <c r="BF41" s="22"/>
+      <c r="BG41" s="22"/>
+      <c r="BH41" s="22"/>
+      <c r="BI41" s="22"/>
+      <c r="BJ41" s="22"/>
+      <c r="BK41" s="22"/>
+      <c r="BL41" s="22"/>
+      <c r="BM41" s="22"/>
+      <c r="BN41" s="22"/>
     </row>
     <row r="42" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="5">
-        <v>20</v>
+      <c r="C42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>151</v>
@@ -25018,33 +25051,33 @@
         <v>7</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L42" s="5">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="M42" s="31" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="N42" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O42" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>179</v>
+      <c r="C43" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="D43" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>151</v>
@@ -25068,30 +25101,30 @@
         <v>35</v>
       </c>
       <c r="L43" s="5">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="M43" s="31" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="N43" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O43" s="32" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>109</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D44" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>151</v>
@@ -25115,30 +25148,30 @@
         <v>35</v>
       </c>
       <c r="L44" s="5">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="M44" s="31" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="N44" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O44" s="32" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" s="24">
-        <v>17</v>
+      <c r="C45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="5">
+        <v>23</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>151</v>
@@ -25155,42 +25188,42 @@
       <c r="I45" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J45" s="24" t="s">
+      <c r="J45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K45" s="24" t="s">
-        <v>38</v>
+      <c r="K45" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="L45" s="5">
-        <v>2019</v>
-      </c>
-      <c r="M45" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="N45" s="33" t="s">
+        <v>2032</v>
+      </c>
+      <c r="M45" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="N45" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O45" s="33" t="s">
-        <v>61</v>
+      <c r="O45" s="32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A46" s="59">
-        <v>43</v>
-      </c>
-      <c r="B46" s="60" t="s">
+      <c r="A46" s="5">
+        <v>42</v>
+      </c>
+      <c r="B46" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" s="59">
+      <c r="C46" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="24">
         <v>17</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E46" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F46" s="59" t="s">
+      <c r="F46" s="24" t="s">
         <v>151</v>
       </c>
       <c r="G46" s="24">
@@ -25202,42 +25235,42 @@
       <c r="I46" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J46" s="59" t="s">
+      <c r="J46" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="L46" s="59">
-        <v>1002</v>
-      </c>
-      <c r="M46" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="N46" s="60" t="s">
+      <c r="K46" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" s="5">
+        <v>2019</v>
+      </c>
+      <c r="M46" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="N46" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="O46" s="60" t="s">
+      <c r="O46" s="33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:66" s="37" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>44</v>
-      </c>
-      <c r="B47" s="40" t="s">
+    <row r="47" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A47" s="59">
+        <v>43</v>
+      </c>
+      <c r="B47" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="43">
-        <v>30</v>
-      </c>
-      <c r="E47" s="24" t="s">
+      <c r="C47" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="59">
+        <v>17</v>
+      </c>
+      <c r="E47" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="59" t="s">
         <v>151</v>
       </c>
       <c r="G47" s="24">
@@ -25249,88 +25282,37 @@
       <c r="I47" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J47" s="43" t="s">
+      <c r="J47" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K47" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="L47" s="5">
-        <v>2043</v>
-      </c>
-      <c r="M47" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="N47" s="40" t="s">
+      <c r="K47" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="59">
+        <v>1002</v>
+      </c>
+      <c r="M47" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="N47" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="O47" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="36"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="36"/>
-      <c r="AF47" s="36"/>
-      <c r="AG47" s="36"/>
-      <c r="AH47" s="36"/>
-      <c r="AI47" s="36"/>
-      <c r="AJ47" s="36"/>
-      <c r="AK47" s="36"/>
-      <c r="AL47" s="36"/>
-      <c r="AM47" s="36"/>
-      <c r="AN47" s="36"/>
-      <c r="AO47" s="36"/>
-      <c r="AP47" s="36"/>
-      <c r="AQ47" s="36"/>
-      <c r="AR47" s="36"/>
-      <c r="AS47" s="36"/>
-      <c r="AT47" s="36"/>
-      <c r="AU47" s="36"/>
-      <c r="AV47" s="36"/>
-      <c r="AW47" s="36"/>
-      <c r="AX47" s="36"/>
-      <c r="AY47" s="36"/>
-      <c r="AZ47" s="36"/>
-      <c r="BA47" s="36"/>
-      <c r="BB47" s="36"/>
-      <c r="BC47" s="36"/>
-      <c r="BD47" s="36"/>
-      <c r="BE47" s="36"/>
-      <c r="BF47" s="36"/>
-      <c r="BG47" s="36"/>
-      <c r="BH47" s="36"/>
-      <c r="BI47" s="36"/>
-      <c r="BJ47" s="36"/>
-      <c r="BK47" s="36"/>
-      <c r="BL47" s="36"/>
-      <c r="BM47" s="36"/>
-      <c r="BN47" s="36"/>
-    </row>
-    <row r="48" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O47" s="60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:66" s="37" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>45</v>
-      </c>
-      <c r="B48" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="5">
-        <v>31</v>
+      <c r="C48" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="43">
+        <v>30</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>151</v>
@@ -25347,34 +25329,85 @@
       <c r="I48" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="L48" s="8">
-        <v>2033</v>
-      </c>
-      <c r="M48" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="N48" s="32" t="s">
+      <c r="L48" s="5">
+        <v>2043</v>
+      </c>
+      <c r="M48" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="N48" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="O48" s="32" t="s">
-        <v>115</v>
-      </c>
+      <c r="O48" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="36"/>
+      <c r="AA48" s="36"/>
+      <c r="AB48" s="36"/>
+      <c r="AC48" s="36"/>
+      <c r="AD48" s="36"/>
+      <c r="AE48" s="36"/>
+      <c r="AF48" s="36"/>
+      <c r="AG48" s="36"/>
+      <c r="AH48" s="36"/>
+      <c r="AI48" s="36"/>
+      <c r="AJ48" s="36"/>
+      <c r="AK48" s="36"/>
+      <c r="AL48" s="36"/>
+      <c r="AM48" s="36"/>
+      <c r="AN48" s="36"/>
+      <c r="AO48" s="36"/>
+      <c r="AP48" s="36"/>
+      <c r="AQ48" s="36"/>
+      <c r="AR48" s="36"/>
+      <c r="AS48" s="36"/>
+      <c r="AT48" s="36"/>
+      <c r="AU48" s="36"/>
+      <c r="AV48" s="36"/>
+      <c r="AW48" s="36"/>
+      <c r="AX48" s="36"/>
+      <c r="AY48" s="36"/>
+      <c r="AZ48" s="36"/>
+      <c r="BA48" s="36"/>
+      <c r="BB48" s="36"/>
+      <c r="BC48" s="36"/>
+      <c r="BD48" s="36"/>
+      <c r="BE48" s="36"/>
+      <c r="BF48" s="36"/>
+      <c r="BG48" s="36"/>
+      <c r="BH48" s="36"/>
+      <c r="BI48" s="36"/>
+      <c r="BJ48" s="36"/>
+      <c r="BK48" s="36"/>
+      <c r="BL48" s="36"/>
+      <c r="BM48" s="36"/>
+      <c r="BN48" s="36"/>
     </row>
     <row r="49" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="D49" s="5">
         <v>31</v>
@@ -25398,33 +25431,33 @@
         <v>7</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L49" s="8">
-        <v>2037</v>
-      </c>
-      <c r="M49" s="31" t="s">
-        <v>22</v>
+        <v>2033</v>
+      </c>
+      <c r="M49" s="33" t="s">
+        <v>119</v>
       </c>
       <c r="N49" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O49" s="38" t="s">
-        <v>131</v>
+      <c r="O49" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>109</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="D50" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>151</v>
@@ -25448,30 +25481,30 @@
         <v>11</v>
       </c>
       <c r="L50" s="8">
-        <v>2036</v>
-      </c>
-      <c r="M50" s="33" t="s">
-        <v>172</v>
+        <v>2037</v>
+      </c>
+      <c r="M50" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="N50" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O50" s="32" t="s">
-        <v>63</v>
+      <c r="O50" s="38" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>118</v>
+      <c r="C51" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="D51" s="5">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>151</v>
@@ -25492,178 +25525,127 @@
         <v>7</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L51" s="8">
-        <v>2038</v>
-      </c>
-      <c r="M51" s="31" t="s">
-        <v>117</v>
+        <v>2036</v>
+      </c>
+      <c r="M51" s="33" t="s">
+        <v>172</v>
       </c>
       <c r="N51" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O51" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:66" s="74" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A52" s="59">
-        <v>49</v>
-      </c>
-      <c r="B52" s="60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>48</v>
+      </c>
+      <c r="B52" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="59">
-        <v>39</v>
-      </c>
-      <c r="E52" s="59" t="s">
+      <c r="C52" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="5">
+        <v>35</v>
+      </c>
+      <c r="E52" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F52" s="59" t="s">
+      <c r="F52" s="24" t="s">
         <v>151</v>
       </c>
       <c r="G52" s="24">
         <v>200</v>
       </c>
-      <c r="H52" s="75" t="s">
+      <c r="H52" s="24" t="s">
         <v>228</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J52" s="59" t="s">
+      <c r="J52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K52" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" s="62">
-        <v>2039</v>
-      </c>
-      <c r="M52" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="N52" s="60" t="s">
+      <c r="K52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" s="8">
+        <v>2038</v>
+      </c>
+      <c r="M52" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="N52" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O52" s="60" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>50</v>
-      </c>
-      <c r="B53" s="31" t="s">
+      <c r="O52" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:66" s="74" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A53" s="59">
+        <v>49</v>
+      </c>
+      <c r="B53" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="4">
-        <v>19</v>
-      </c>
-      <c r="E53" s="24" t="s">
+      <c r="C53" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="59">
+        <v>39</v>
+      </c>
+      <c r="E53" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="59" t="s">
         <v>151</v>
       </c>
       <c r="G53" s="24">
         <v>200</v>
       </c>
-      <c r="H53" s="24" t="s">
+      <c r="H53" s="75" t="s">
         <v>228</v>
       </c>
       <c r="I53" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L53" s="10">
-        <v>2044</v>
-      </c>
-      <c r="M53" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="N53" s="31" t="s">
+      <c r="J53" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="62">
+        <v>2039</v>
+      </c>
+      <c r="M53" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="N53" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="O53" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="22"/>
-      <c r="AA53" s="22"/>
-      <c r="AB53" s="22"/>
-      <c r="AC53" s="22"/>
-      <c r="AD53" s="22"/>
-      <c r="AE53" s="22"/>
-      <c r="AF53" s="22"/>
-      <c r="AG53" s="22"/>
-      <c r="AH53" s="22"/>
-      <c r="AI53" s="22"/>
-      <c r="AJ53" s="22"/>
-      <c r="AK53" s="22"/>
-      <c r="AL53" s="22"/>
-      <c r="AM53" s="22"/>
-      <c r="AN53" s="22"/>
-      <c r="AO53" s="22"/>
-      <c r="AP53" s="22"/>
-      <c r="AQ53" s="22"/>
-      <c r="AR53" s="22"/>
-      <c r="AS53" s="22"/>
-      <c r="AT53" s="22"/>
-      <c r="AU53" s="22"/>
-      <c r="AV53" s="22"/>
-      <c r="AW53" s="22"/>
-      <c r="AX53" s="22"/>
-      <c r="AY53" s="22"/>
-      <c r="AZ53" s="22"/>
-      <c r="BA53" s="22"/>
-      <c r="BB53" s="22"/>
-      <c r="BC53" s="22"/>
-      <c r="BD53" s="22"/>
-      <c r="BE53" s="22"/>
-      <c r="BF53" s="22"/>
-      <c r="BG53" s="22"/>
-      <c r="BH53" s="22"/>
-      <c r="BI53" s="22"/>
-      <c r="BJ53" s="22"/>
-      <c r="BK53" s="22"/>
-      <c r="BL53" s="22"/>
-      <c r="BM53" s="22"/>
-      <c r="BN53" s="22"/>
+      <c r="O53" s="60" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="54" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="91" t="s">
-        <v>249</v>
+      <c r="C54" s="48" t="s">
+        <v>155</v>
       </c>
       <c r="D54" s="4">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>151</v>
@@ -25687,16 +25669,16 @@
         <v>38</v>
       </c>
       <c r="L54" s="10">
-        <v>2045</v>
-      </c>
-      <c r="M54" s="92" t="s">
-        <v>249</v>
+        <v>2044</v>
+      </c>
+      <c r="M54" s="31" t="s">
+        <v>154</v>
       </c>
       <c r="N54" s="31" t="s">
         <v>0</v>
       </c>
       <c r="O54" s="31" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="P54" s="22"/>
       <c r="Q54" s="22"/>
@@ -25752,24 +25734,24 @@
     </row>
     <row r="55" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>122</v>
-      </c>
-      <c r="B55" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="D55" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="55" t="s">
+      <c r="C55" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" s="4">
+        <v>8</v>
+      </c>
+      <c r="E55" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F55" s="55" t="s">
+      <c r="F55" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G55" s="55">
+      <c r="G55" s="24">
         <v>200</v>
       </c>
       <c r="H55" s="24" t="s">
@@ -25778,23 +25760,23 @@
       <c r="I55" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J55" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="K55" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="L55" s="54">
-        <v>2047</v>
-      </c>
-      <c r="M55" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="N55" s="53" t="s">
+      <c r="J55" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55" s="10">
+        <v>2045</v>
+      </c>
+      <c r="M55" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="N55" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O55" s="64" t="s">
-        <v>0</v>
+      <c r="O55" s="31" t="s">
+        <v>1</v>
       </c>
       <c r="P55" s="22"/>
       <c r="Q55" s="22"/>
@@ -25848,79 +25830,107 @@
       <c r="BM55" s="22"/>
       <c r="BN55" s="22"/>
     </row>
-    <row r="56" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="97" t="s">
+    <row r="56" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>122</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" s="55">
+        <v>200</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J56" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="L56" s="54">
+        <v>2047</v>
+      </c>
+      <c r="M56" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="N56" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="O56" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="22"/>
+      <c r="AH56" s="22"/>
+      <c r="AI56" s="22"/>
+      <c r="AJ56" s="22"/>
+      <c r="AK56" s="22"/>
+      <c r="AL56" s="22"/>
+      <c r="AM56" s="22"/>
+      <c r="AN56" s="22"/>
+      <c r="AO56" s="22"/>
+      <c r="AP56" s="22"/>
+      <c r="AQ56" s="22"/>
+      <c r="AR56" s="22"/>
+      <c r="AS56" s="22"/>
+      <c r="AT56" s="22"/>
+      <c r="AU56" s="22"/>
+      <c r="AV56" s="22"/>
+      <c r="AW56" s="22"/>
+      <c r="AX56" s="22"/>
+      <c r="AY56" s="22"/>
+      <c r="AZ56" s="22"/>
+      <c r="BA56" s="22"/>
+      <c r="BB56" s="22"/>
+      <c r="BC56" s="22"/>
+      <c r="BD56" s="22"/>
+      <c r="BE56" s="22"/>
+      <c r="BF56" s="22"/>
+      <c r="BG56" s="22"/>
+      <c r="BH56" s="22"/>
+      <c r="BI56" s="22"/>
+      <c r="BJ56" s="22"/>
+      <c r="BK56" s="22"/>
+      <c r="BL56" s="22"/>
+      <c r="BM56" s="22"/>
+      <c r="BN56" s="22"/>
+    </row>
+    <row r="57" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="98" t="s">
         <v>49</v>
-      </c>
-      <c r="B56" s="97"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="97"/>
-      <c r="H56" s="97"/>
-      <c r="I56" s="97"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="97"/>
-      <c r="M56" s="97"/>
-      <c r="N56" s="97"/>
-      <c r="O56" s="97"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="21"/>
-      <c r="AB56" s="21"/>
-      <c r="AC56" s="21"/>
-      <c r="AD56" s="21"/>
-      <c r="AE56" s="21"/>
-      <c r="AF56" s="21"/>
-      <c r="AG56" s="21"/>
-      <c r="AH56" s="21"/>
-      <c r="AI56" s="21"/>
-      <c r="AJ56" s="21"/>
-      <c r="AK56" s="21"/>
-      <c r="AL56" s="21"/>
-      <c r="AM56" s="21"/>
-      <c r="AN56" s="21"/>
-      <c r="AO56" s="21"/>
-      <c r="AP56" s="21"/>
-      <c r="AQ56" s="21"/>
-      <c r="AR56" s="21"/>
-      <c r="AS56" s="21"/>
-      <c r="AT56" s="21"/>
-      <c r="AU56" s="21"/>
-      <c r="AV56" s="21"/>
-      <c r="AW56" s="21"/>
-      <c r="AX56" s="21"/>
-      <c r="AY56" s="21"/>
-      <c r="AZ56" s="21"/>
-      <c r="BA56" s="21"/>
-      <c r="BB56" s="21"/>
-      <c r="BC56" s="21"/>
-      <c r="BD56" s="21"/>
-      <c r="BE56" s="21"/>
-      <c r="BF56" s="21"/>
-      <c r="BG56" s="21"/>
-      <c r="BH56" s="21"/>
-      <c r="BI56" s="21"/>
-      <c r="BJ56" s="21"/>
-      <c r="BK56" s="21"/>
-      <c r="BL56" s="21"/>
-      <c r="BM56" s="21"/>
-      <c r="BN56" s="21"/>
-    </row>
-    <row r="57" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="98" t="s">
-        <v>157</v>
       </c>
       <c r="B57" s="98"/>
       <c r="C57" s="98"/>
@@ -25988,52 +25998,24 @@
       <c r="BM57" s="21"/>
       <c r="BN57" s="21"/>
     </row>
-    <row r="58" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="94">
-        <v>146</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="D58" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="F58" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="G58" s="94">
-        <v>403</v>
-      </c>
-      <c r="H58" s="94" t="s">
-        <v>227</v>
-      </c>
-      <c r="I58" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J58" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="K58" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="L58" s="94">
-        <v>1016</v>
-      </c>
-      <c r="M58" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="N58" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="O58" s="95" t="s">
-        <v>12</v>
-      </c>
+    <row r="58" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="99"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="99"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="99"/>
+      <c r="M58" s="99"/>
+      <c r="N58" s="99"/>
+      <c r="O58" s="99"/>
       <c r="P58" s="21"/>
       <c r="Q58" s="21"/>
       <c r="R58" s="21"/>
@@ -26086,50 +26068,50 @@
       <c r="BM58" s="21"/>
       <c r="BN58" s="21"/>
     </row>
-    <row r="59" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>52</v>
+    <row r="59" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="94">
+        <v>146</v>
       </c>
       <c r="B59" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" s="4" t="s">
+      <c r="C59" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="D59" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="G59" s="24">
-        <v>401</v>
-      </c>
-      <c r="H59" s="59" t="s">
+      <c r="G59" s="94">
+        <v>403</v>
+      </c>
+      <c r="H59" s="94" t="s">
         <v>227</v>
       </c>
       <c r="I59" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="J59" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="L59" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M59" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="N59" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="O59" s="50" t="s">
+      <c r="L59" s="94">
+        <v>1016</v>
+      </c>
+      <c r="M59" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="N59" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="O59" s="95" t="s">
         <v>12</v>
       </c>
       <c r="P59" s="21"/>
@@ -26184,15 +26166,15 @@
       <c r="BM59" s="21"/>
       <c r="BN59" s="21"/>
     </row>
-    <row r="60" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="23" t="s">
-        <v>158</v>
+      <c r="C60" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>12</v>
@@ -26219,15 +26201,15 @@
         <v>38</v>
       </c>
       <c r="L60" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N60" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O60" s="48" t="s">
+      <c r="O60" s="50" t="s">
         <v>12</v>
       </c>
       <c r="P60" s="21"/>
@@ -26282,15 +26264,15 @@
       <c r="BM60" s="21"/>
       <c r="BN60" s="21"/>
     </row>
-    <row r="61" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B61" s="31" t="s">
         <v>110</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>12</v>
@@ -26302,7 +26284,7 @@
         <v>151</v>
       </c>
       <c r="G61" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H61" s="59" t="s">
         <v>227</v>
@@ -26310,85 +26292,85 @@
       <c r="I61" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J61" s="24" t="s">
+      <c r="J61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K61" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="L61" s="24">
-        <v>1003</v>
-      </c>
-      <c r="M61" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="N61" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="O61" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="22"/>
-      <c r="T61" s="22"/>
-      <c r="U61" s="22"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="22"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="22"/>
-      <c r="AE61" s="22"/>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="22"/>
-      <c r="AH61" s="22"/>
-      <c r="AI61" s="22"/>
-      <c r="AJ61" s="22"/>
-      <c r="AK61" s="22"/>
-      <c r="AL61" s="22"/>
-      <c r="AM61" s="22"/>
-      <c r="AN61" s="22"/>
-      <c r="AO61" s="22"/>
-      <c r="AP61" s="22"/>
-      <c r="AQ61" s="22"/>
-      <c r="AR61" s="22"/>
-      <c r="AS61" s="22"/>
-      <c r="AT61" s="22"/>
-      <c r="AU61" s="22"/>
-      <c r="AV61" s="22"/>
-      <c r="AW61" s="22"/>
-      <c r="AX61" s="22"/>
-      <c r="AY61" s="22"/>
-      <c r="AZ61" s="22"/>
-      <c r="BA61" s="22"/>
-      <c r="BB61" s="22"/>
-      <c r="BC61" s="22"/>
-      <c r="BD61" s="22"/>
-      <c r="BE61" s="22"/>
-      <c r="BF61" s="22"/>
-      <c r="BG61" s="22"/>
-      <c r="BH61" s="22"/>
-      <c r="BI61" s="22"/>
-      <c r="BJ61" s="22"/>
-      <c r="BK61" s="22"/>
-      <c r="BL61" s="22"/>
-      <c r="BM61" s="22"/>
-      <c r="BN61" s="22"/>
-    </row>
-    <row r="62" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K61" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L61" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M61" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="N61" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O61" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
+      <c r="AB61" s="21"/>
+      <c r="AC61" s="21"/>
+      <c r="AD61" s="21"/>
+      <c r="AE61" s="21"/>
+      <c r="AF61" s="21"/>
+      <c r="AG61" s="21"/>
+      <c r="AH61" s="21"/>
+      <c r="AI61" s="21"/>
+      <c r="AJ61" s="21"/>
+      <c r="AK61" s="21"/>
+      <c r="AL61" s="21"/>
+      <c r="AM61" s="21"/>
+      <c r="AN61" s="21"/>
+      <c r="AO61" s="21"/>
+      <c r="AP61" s="21"/>
+      <c r="AQ61" s="21"/>
+      <c r="AR61" s="21"/>
+      <c r="AS61" s="21"/>
+      <c r="AT61" s="21"/>
+      <c r="AU61" s="21"/>
+      <c r="AV61" s="21"/>
+      <c r="AW61" s="21"/>
+      <c r="AX61" s="21"/>
+      <c r="AY61" s="21"/>
+      <c r="AZ61" s="21"/>
+      <c r="BA61" s="21"/>
+      <c r="BB61" s="21"/>
+      <c r="BC61" s="21"/>
+      <c r="BD61" s="21"/>
+      <c r="BE61" s="21"/>
+      <c r="BF61" s="21"/>
+      <c r="BG61" s="21"/>
+      <c r="BH61" s="21"/>
+      <c r="BI61" s="21"/>
+      <c r="BJ61" s="21"/>
+      <c r="BK61" s="21"/>
+      <c r="BL61" s="21"/>
+      <c r="BM61" s="21"/>
+      <c r="BN61" s="21"/>
+    </row>
+    <row r="62" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="31" t="s">
         <v>110</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>12</v>
@@ -26412,13 +26394,13 @@
         <v>7</v>
       </c>
       <c r="K62" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L62" s="25">
-        <v>1004</v>
+        <v>35</v>
+      </c>
+      <c r="L62" s="24">
+        <v>1003</v>
       </c>
       <c r="M62" s="33" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N62" s="31" t="s">
         <v>67</v>
@@ -26478,26 +26460,26 @@
       <c r="BM62" s="22"/>
       <c r="BN62" s="22"/>
     </row>
-    <row r="63" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B63" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="D63" s="54" t="s">
+      <c r="C63" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="54" t="s">
+      <c r="E63" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F63" s="54" t="s">
+      <c r="F63" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G63" s="55">
+      <c r="G63" s="24">
         <v>400</v>
       </c>
       <c r="H63" s="59" t="s">
@@ -26506,46 +26488,97 @@
       <c r="I63" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J63" s="54" t="s">
+      <c r="J63" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K63" s="55" t="s">
+      <c r="K63" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L63" s="54">
-        <v>1015</v>
-      </c>
-      <c r="M63" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="N63" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="O63" s="64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L63" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M63" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="O63" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="22"/>
+      <c r="S63" s="22"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="22"/>
+      <c r="AD63" s="22"/>
+      <c r="AE63" s="22"/>
+      <c r="AF63" s="22"/>
+      <c r="AG63" s="22"/>
+      <c r="AH63" s="22"/>
+      <c r="AI63" s="22"/>
+      <c r="AJ63" s="22"/>
+      <c r="AK63" s="22"/>
+      <c r="AL63" s="22"/>
+      <c r="AM63" s="22"/>
+      <c r="AN63" s="22"/>
+      <c r="AO63" s="22"/>
+      <c r="AP63" s="22"/>
+      <c r="AQ63" s="22"/>
+      <c r="AR63" s="22"/>
+      <c r="AS63" s="22"/>
+      <c r="AT63" s="22"/>
+      <c r="AU63" s="22"/>
+      <c r="AV63" s="22"/>
+      <c r="AW63" s="22"/>
+      <c r="AX63" s="22"/>
+      <c r="AY63" s="22"/>
+      <c r="AZ63" s="22"/>
+      <c r="BA63" s="22"/>
+      <c r="BB63" s="22"/>
+      <c r="BC63" s="22"/>
+      <c r="BD63" s="22"/>
+      <c r="BE63" s="22"/>
+      <c r="BF63" s="22"/>
+      <c r="BG63" s="22"/>
+      <c r="BH63" s="22"/>
+      <c r="BI63" s="22"/>
+      <c r="BJ63" s="22"/>
+      <c r="BK63" s="22"/>
+      <c r="BL63" s="22"/>
+      <c r="BM63" s="22"/>
+      <c r="BN63" s="22"/>
+    </row>
+    <row r="64" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B64" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="C64" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="G64" s="24">
-        <v>403</v>
+      <c r="G64" s="55">
+        <v>400</v>
       </c>
       <c r="H64" s="59" t="s">
         <v>227</v>
@@ -26553,85 +26586,34 @@
       <c r="I64" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J64" s="24" t="s">
+      <c r="J64" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K64" s="24" t="s">
+      <c r="K64" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L64" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M64" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="N64" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="O64" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
-      <c r="Z64" s="22"/>
-      <c r="AA64" s="22"/>
-      <c r="AB64" s="22"/>
-      <c r="AC64" s="22"/>
-      <c r="AD64" s="22"/>
-      <c r="AE64" s="22"/>
-      <c r="AF64" s="22"/>
-      <c r="AG64" s="22"/>
-      <c r="AH64" s="22"/>
-      <c r="AI64" s="22"/>
-      <c r="AJ64" s="22"/>
-      <c r="AK64" s="22"/>
-      <c r="AL64" s="22"/>
-      <c r="AM64" s="22"/>
-      <c r="AN64" s="22"/>
-      <c r="AO64" s="22"/>
-      <c r="AP64" s="22"/>
-      <c r="AQ64" s="22"/>
-      <c r="AR64" s="22"/>
-      <c r="AS64" s="22"/>
-      <c r="AT64" s="22"/>
-      <c r="AU64" s="22"/>
-      <c r="AV64" s="22"/>
-      <c r="AW64" s="22"/>
-      <c r="AX64" s="22"/>
-      <c r="AY64" s="22"/>
-      <c r="AZ64" s="22"/>
-      <c r="BA64" s="22"/>
-      <c r="BB64" s="22"/>
-      <c r="BC64" s="22"/>
-      <c r="BD64" s="22"/>
-      <c r="BE64" s="22"/>
-      <c r="BF64" s="22"/>
-      <c r="BG64" s="22"/>
-      <c r="BH64" s="22"/>
-      <c r="BI64" s="22"/>
-      <c r="BJ64" s="22"/>
-      <c r="BK64" s="22"/>
-      <c r="BL64" s="22"/>
-      <c r="BM64" s="22"/>
-      <c r="BN64" s="22"/>
+      <c r="L64" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M64" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="N64" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="O64" s="64" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="65" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" s="31" t="s">
         <v>110</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>12</v>
@@ -26655,13 +26637,13 @@
         <v>7</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L65" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M65" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N65" s="31" t="s">
         <v>67</v>
@@ -26723,13 +26705,13 @@
     </row>
     <row r="66" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" s="31" t="s">
         <v>110</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>12</v>
@@ -26756,10 +26738,10 @@
         <v>35</v>
       </c>
       <c r="L66" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M66" s="33" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N66" s="31" t="s">
         <v>67</v>
@@ -26821,15 +26803,15 @@
     </row>
     <row r="67" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" s="31" t="s">
         <v>110</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="D67" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="4" t="s">
@@ -26851,19 +26833,19 @@
         <v>7</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L67" s="24">
-        <v>1011</v>
+        <v>35</v>
+      </c>
+      <c r="L67" s="25">
+        <v>1008</v>
       </c>
       <c r="M67" s="33" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="N67" s="31" t="s">
         <v>67</v>
       </c>
       <c r="O67" s="31" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="P67" s="22"/>
       <c r="Q67" s="22"/>
@@ -26919,15 +26901,15 @@
     </row>
     <row r="68" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68" s="31" t="s">
         <v>110</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -26937,7 +26919,7 @@
         <v>151</v>
       </c>
       <c r="G68" s="24">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H68" s="59" t="s">
         <v>227</v>
@@ -26945,23 +26927,23 @@
       <c r="I68" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="J68" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="K68" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="L68" s="4">
-        <v>2501</v>
-      </c>
-      <c r="M68" s="31" t="s">
-        <v>47</v>
+      <c r="L68" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M68" s="33" t="s">
+        <v>213</v>
       </c>
       <c r="N68" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O68" s="31" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="P68" s="22"/>
       <c r="Q68" s="22"/>
@@ -27015,79 +26997,107 @@
       <c r="BM68" s="22"/>
       <c r="BN68" s="22"/>
     </row>
-    <row r="69" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="97" t="s">
+    <row r="69" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>61</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G69" s="24">
+        <v>404</v>
+      </c>
+      <c r="H69" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L69" s="4">
+        <v>2501</v>
+      </c>
+      <c r="M69" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="N69" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="O69" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="22"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="22"/>
+      <c r="AD69" s="22"/>
+      <c r="AE69" s="22"/>
+      <c r="AF69" s="22"/>
+      <c r="AG69" s="22"/>
+      <c r="AH69" s="22"/>
+      <c r="AI69" s="22"/>
+      <c r="AJ69" s="22"/>
+      <c r="AK69" s="22"/>
+      <c r="AL69" s="22"/>
+      <c r="AM69" s="22"/>
+      <c r="AN69" s="22"/>
+      <c r="AO69" s="22"/>
+      <c r="AP69" s="22"/>
+      <c r="AQ69" s="22"/>
+      <c r="AR69" s="22"/>
+      <c r="AS69" s="22"/>
+      <c r="AT69" s="22"/>
+      <c r="AU69" s="22"/>
+      <c r="AV69" s="22"/>
+      <c r="AW69" s="22"/>
+      <c r="AX69" s="22"/>
+      <c r="AY69" s="22"/>
+      <c r="AZ69" s="22"/>
+      <c r="BA69" s="22"/>
+      <c r="BB69" s="22"/>
+      <c r="BC69" s="22"/>
+      <c r="BD69" s="22"/>
+      <c r="BE69" s="22"/>
+      <c r="BF69" s="22"/>
+      <c r="BG69" s="22"/>
+      <c r="BH69" s="22"/>
+      <c r="BI69" s="22"/>
+      <c r="BJ69" s="22"/>
+      <c r="BK69" s="22"/>
+      <c r="BL69" s="22"/>
+      <c r="BM69" s="22"/>
+      <c r="BN69" s="22"/>
+    </row>
+    <row r="70" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="98" t="s">
         <v>48</v>
-      </c>
-      <c r="B69" s="97"/>
-      <c r="C69" s="97"/>
-      <c r="D69" s="97"/>
-      <c r="E69" s="97"/>
-      <c r="F69" s="97"/>
-      <c r="G69" s="97"/>
-      <c r="H69" s="97"/>
-      <c r="I69" s="97"/>
-      <c r="J69" s="97"/>
-      <c r="K69" s="97"/>
-      <c r="L69" s="97"/>
-      <c r="M69" s="97"/>
-      <c r="N69" s="97"/>
-      <c r="O69" s="97"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="21"/>
-      <c r="X69" s="21"/>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="21"/>
-      <c r="AB69" s="21"/>
-      <c r="AC69" s="21"/>
-      <c r="AD69" s="21"/>
-      <c r="AE69" s="21"/>
-      <c r="AF69" s="21"/>
-      <c r="AG69" s="21"/>
-      <c r="AH69" s="21"/>
-      <c r="AI69" s="21"/>
-      <c r="AJ69" s="21"/>
-      <c r="AK69" s="21"/>
-      <c r="AL69" s="21"/>
-      <c r="AM69" s="21"/>
-      <c r="AN69" s="21"/>
-      <c r="AO69" s="21"/>
-      <c r="AP69" s="21"/>
-      <c r="AQ69" s="21"/>
-      <c r="AR69" s="21"/>
-      <c r="AS69" s="21"/>
-      <c r="AT69" s="21"/>
-      <c r="AU69" s="21"/>
-      <c r="AV69" s="21"/>
-      <c r="AW69" s="21"/>
-      <c r="AX69" s="21"/>
-      <c r="AY69" s="21"/>
-      <c r="AZ69" s="21"/>
-      <c r="BA69" s="21"/>
-      <c r="BB69" s="21"/>
-      <c r="BC69" s="21"/>
-      <c r="BD69" s="21"/>
-      <c r="BE69" s="21"/>
-      <c r="BF69" s="21"/>
-      <c r="BG69" s="21"/>
-      <c r="BH69" s="21"/>
-      <c r="BI69" s="21"/>
-      <c r="BJ69" s="21"/>
-      <c r="BK69" s="21"/>
-      <c r="BL69" s="21"/>
-      <c r="BM69" s="21"/>
-      <c r="BN69" s="21"/>
-    </row>
-    <row r="70" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="98" t="s">
-        <v>157</v>
       </c>
       <c r="B70" s="98"/>
       <c r="C70" s="98"/>
@@ -27155,52 +27165,24 @@
       <c r="BM70" s="21"/>
       <c r="BN70" s="21"/>
     </row>
-    <row r="71" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="94">
-        <v>146</v>
-      </c>
-      <c r="B71" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C71" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="D71" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="F71" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="G71" s="94">
-        <v>403</v>
-      </c>
-      <c r="H71" s="94" t="s">
-        <v>227</v>
-      </c>
-      <c r="I71" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J71" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="K71" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="L71" s="94">
-        <v>1016</v>
-      </c>
-      <c r="M71" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="N71" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="O71" s="95" t="s">
-        <v>12</v>
-      </c>
+    <row r="71" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="99"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
+      <c r="H71" s="99"/>
+      <c r="I71" s="99"/>
+      <c r="J71" s="99"/>
+      <c r="K71" s="99"/>
+      <c r="L71" s="99"/>
+      <c r="M71" s="99"/>
+      <c r="N71" s="99"/>
+      <c r="O71" s="99"/>
       <c r="P71" s="21"/>
       <c r="Q71" s="21"/>
       <c r="R71" s="21"/>
@@ -27253,50 +27235,50 @@
       <c r="BM71" s="21"/>
       <c r="BN71" s="21"/>
     </row>
-    <row r="72" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>62</v>
+    <row r="72" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="94">
+        <v>146</v>
       </c>
       <c r="B72" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="C72" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="G72" s="24">
-        <v>401</v>
-      </c>
-      <c r="H72" s="59" t="s">
+      <c r="G72" s="94">
+        <v>403</v>
+      </c>
+      <c r="H72" s="94" t="s">
         <v>227</v>
       </c>
       <c r="I72" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J72" s="4" t="s">
+      <c r="J72" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K72" s="4" t="s">
+      <c r="K72" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="L72" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M72" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="N72" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="O72" s="50" t="s">
+      <c r="L72" s="94">
+        <v>1016</v>
+      </c>
+      <c r="M72" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="N72" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="O72" s="95" t="s">
         <v>12</v>
       </c>
       <c r="P72" s="21"/>
@@ -27351,15 +27333,15 @@
       <c r="BM72" s="21"/>
       <c r="BN72" s="21"/>
     </row>
-    <row r="73" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>12</v>
@@ -27386,15 +27368,15 @@
         <v>38</v>
       </c>
       <c r="L73" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M73" s="23" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N73" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O73" s="48" t="s">
+      <c r="O73" s="50" t="s">
         <v>12</v>
       </c>
       <c r="P73" s="21"/>
@@ -27449,15 +27431,15 @@
       <c r="BM73" s="21"/>
       <c r="BN73" s="21"/>
     </row>
-    <row r="74" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B74" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="26" t="s">
-        <v>94</v>
+      <c r="C74" s="23" t="s">
+        <v>158</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>12</v>
@@ -27469,7 +27451,7 @@
         <v>151</v>
       </c>
       <c r="G74" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H74" s="59" t="s">
         <v>227</v>
@@ -27477,85 +27459,85 @@
       <c r="I74" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J74" s="25" t="s">
+      <c r="J74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K74" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="L74" s="25">
-        <v>1003</v>
-      </c>
-      <c r="M74" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="N74" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="O74" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="22"/>
-      <c r="T74" s="22"/>
-      <c r="U74" s="22"/>
-      <c r="V74" s="22"/>
-      <c r="W74" s="22"/>
-      <c r="X74" s="22"/>
-      <c r="Y74" s="22"/>
-      <c r="Z74" s="22"/>
-      <c r="AA74" s="22"/>
-      <c r="AB74" s="22"/>
-      <c r="AC74" s="22"/>
-      <c r="AD74" s="22"/>
-      <c r="AE74" s="22"/>
-      <c r="AF74" s="22"/>
-      <c r="AG74" s="22"/>
-      <c r="AH74" s="22"/>
-      <c r="AI74" s="22"/>
-      <c r="AJ74" s="22"/>
-      <c r="AK74" s="22"/>
-      <c r="AL74" s="22"/>
-      <c r="AM74" s="22"/>
-      <c r="AN74" s="22"/>
-      <c r="AO74" s="22"/>
-      <c r="AP74" s="22"/>
-      <c r="AQ74" s="22"/>
-      <c r="AR74" s="22"/>
-      <c r="AS74" s="22"/>
-      <c r="AT74" s="22"/>
-      <c r="AU74" s="22"/>
-      <c r="AV74" s="22"/>
-      <c r="AW74" s="22"/>
-      <c r="AX74" s="22"/>
-      <c r="AY74" s="22"/>
-      <c r="AZ74" s="22"/>
-      <c r="BA74" s="22"/>
-      <c r="BB74" s="22"/>
-      <c r="BC74" s="22"/>
-      <c r="BD74" s="22"/>
-      <c r="BE74" s="22"/>
-      <c r="BF74" s="22"/>
-      <c r="BG74" s="22"/>
-      <c r="BH74" s="22"/>
-      <c r="BI74" s="22"/>
-      <c r="BJ74" s="22"/>
-      <c r="BK74" s="22"/>
-      <c r="BL74" s="22"/>
-      <c r="BM74" s="22"/>
-      <c r="BN74" s="22"/>
-    </row>
-    <row r="75" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K74" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L74" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M74" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="N74" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O74" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="21"/>
+      <c r="X74" s="21"/>
+      <c r="Y74" s="21"/>
+      <c r="Z74" s="21"/>
+      <c r="AA74" s="21"/>
+      <c r="AB74" s="21"/>
+      <c r="AC74" s="21"/>
+      <c r="AD74" s="21"/>
+      <c r="AE74" s="21"/>
+      <c r="AF74" s="21"/>
+      <c r="AG74" s="21"/>
+      <c r="AH74" s="21"/>
+      <c r="AI74" s="21"/>
+      <c r="AJ74" s="21"/>
+      <c r="AK74" s="21"/>
+      <c r="AL74" s="21"/>
+      <c r="AM74" s="21"/>
+      <c r="AN74" s="21"/>
+      <c r="AO74" s="21"/>
+      <c r="AP74" s="21"/>
+      <c r="AQ74" s="21"/>
+      <c r="AR74" s="21"/>
+      <c r="AS74" s="21"/>
+      <c r="AT74" s="21"/>
+      <c r="AU74" s="21"/>
+      <c r="AV74" s="21"/>
+      <c r="AW74" s="21"/>
+      <c r="AX74" s="21"/>
+      <c r="AY74" s="21"/>
+      <c r="AZ74" s="21"/>
+      <c r="BA74" s="21"/>
+      <c r="BB74" s="21"/>
+      <c r="BC74" s="21"/>
+      <c r="BD74" s="21"/>
+      <c r="BE74" s="21"/>
+      <c r="BF74" s="21"/>
+      <c r="BG74" s="21"/>
+      <c r="BH74" s="21"/>
+      <c r="BI74" s="21"/>
+      <c r="BJ74" s="21"/>
+      <c r="BK74" s="21"/>
+      <c r="BL74" s="21"/>
+      <c r="BM74" s="21"/>
+      <c r="BN74" s="21"/>
+    </row>
+    <row r="75" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B75" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C75" s="23" t="s">
-        <v>95</v>
+      <c r="C75" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>12</v>
@@ -27575,22 +27557,22 @@
       <c r="I75" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J75" s="24" t="s">
+      <c r="J75" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K75" s="24" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L75" s="25">
-        <v>1004</v>
-      </c>
-      <c r="M75" s="31" t="s">
-        <v>25</v>
+        <v>1003</v>
+      </c>
+      <c r="M75" s="48" t="s">
+        <v>14</v>
       </c>
       <c r="N75" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="O75" s="31" t="s">
+      <c r="O75" s="4" t="s">
         <v>50</v>
       </c>
       <c r="P75" s="22"/>
@@ -27645,26 +27627,26 @@
       <c r="BM75" s="22"/>
       <c r="BN75" s="22"/>
     </row>
-    <row r="76" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B76" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C76" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="D76" s="54" t="s">
+      <c r="C76" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="54" t="s">
+      <c r="E76" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F76" s="54" t="s">
+      <c r="F76" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G76" s="55">
+      <c r="G76" s="24">
         <v>400</v>
       </c>
       <c r="H76" s="59" t="s">
@@ -27673,46 +27655,97 @@
       <c r="I76" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J76" s="54" t="s">
+      <c r="J76" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K76" s="55" t="s">
+      <c r="K76" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L76" s="54">
-        <v>1015</v>
-      </c>
-      <c r="M76" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="N76" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="O76" s="64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L76" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M76" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N76" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="O76" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="22"/>
+      <c r="U76" s="22"/>
+      <c r="V76" s="22"/>
+      <c r="W76" s="22"/>
+      <c r="X76" s="22"/>
+      <c r="Y76" s="22"/>
+      <c r="Z76" s="22"/>
+      <c r="AA76" s="22"/>
+      <c r="AB76" s="22"/>
+      <c r="AC76" s="22"/>
+      <c r="AD76" s="22"/>
+      <c r="AE76" s="22"/>
+      <c r="AF76" s="22"/>
+      <c r="AG76" s="22"/>
+      <c r="AH76" s="22"/>
+      <c r="AI76" s="22"/>
+      <c r="AJ76" s="22"/>
+      <c r="AK76" s="22"/>
+      <c r="AL76" s="22"/>
+      <c r="AM76" s="22"/>
+      <c r="AN76" s="22"/>
+      <c r="AO76" s="22"/>
+      <c r="AP76" s="22"/>
+      <c r="AQ76" s="22"/>
+      <c r="AR76" s="22"/>
+      <c r="AS76" s="22"/>
+      <c r="AT76" s="22"/>
+      <c r="AU76" s="22"/>
+      <c r="AV76" s="22"/>
+      <c r="AW76" s="22"/>
+      <c r="AX76" s="22"/>
+      <c r="AY76" s="22"/>
+      <c r="AZ76" s="22"/>
+      <c r="BA76" s="22"/>
+      <c r="BB76" s="22"/>
+      <c r="BC76" s="22"/>
+      <c r="BD76" s="22"/>
+      <c r="BE76" s="22"/>
+      <c r="BF76" s="22"/>
+      <c r="BG76" s="22"/>
+      <c r="BH76" s="22"/>
+      <c r="BI76" s="22"/>
+      <c r="BJ76" s="22"/>
+      <c r="BK76" s="22"/>
+      <c r="BL76" s="22"/>
+      <c r="BM76" s="22"/>
+      <c r="BN76" s="22"/>
+    </row>
+    <row r="77" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="B77" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C77" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D77" s="4" t="s">
+      <c r="C77" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="G77" s="24">
-        <v>403</v>
+      <c r="G77" s="55">
+        <v>400</v>
       </c>
       <c r="H77" s="59" t="s">
         <v>227</v>
@@ -27720,85 +27753,34 @@
       <c r="I77" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J77" s="24" t="s">
+      <c r="J77" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K77" s="24" t="s">
+      <c r="K77" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L77" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M77" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="N77" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="O77" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="22"/>
-      <c r="S77" s="22"/>
-      <c r="T77" s="22"/>
-      <c r="U77" s="22"/>
-      <c r="V77" s="22"/>
-      <c r="W77" s="22"/>
-      <c r="X77" s="22"/>
-      <c r="Y77" s="22"/>
-      <c r="Z77" s="22"/>
-      <c r="AA77" s="22"/>
-      <c r="AB77" s="22"/>
-      <c r="AC77" s="22"/>
-      <c r="AD77" s="22"/>
-      <c r="AE77" s="22"/>
-      <c r="AF77" s="22"/>
-      <c r="AG77" s="22"/>
-      <c r="AH77" s="22"/>
-      <c r="AI77" s="22"/>
-      <c r="AJ77" s="22"/>
-      <c r="AK77" s="22"/>
-      <c r="AL77" s="22"/>
-      <c r="AM77" s="22"/>
-      <c r="AN77" s="22"/>
-      <c r="AO77" s="22"/>
-      <c r="AP77" s="22"/>
-      <c r="AQ77" s="22"/>
-      <c r="AR77" s="22"/>
-      <c r="AS77" s="22"/>
-      <c r="AT77" s="22"/>
-      <c r="AU77" s="22"/>
-      <c r="AV77" s="22"/>
-      <c r="AW77" s="22"/>
-      <c r="AX77" s="22"/>
-      <c r="AY77" s="22"/>
-      <c r="AZ77" s="22"/>
-      <c r="BA77" s="22"/>
-      <c r="BB77" s="22"/>
-      <c r="BC77" s="22"/>
-      <c r="BD77" s="22"/>
-      <c r="BE77" s="22"/>
-      <c r="BF77" s="22"/>
-      <c r="BG77" s="22"/>
-      <c r="BH77" s="22"/>
-      <c r="BI77" s="22"/>
-      <c r="BJ77" s="22"/>
-      <c r="BK77" s="22"/>
-      <c r="BL77" s="22"/>
-      <c r="BM77" s="22"/>
-      <c r="BN77" s="22"/>
+      <c r="L77" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M77" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="N77" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="O77" s="64" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="78" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B78" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>12</v>
@@ -27822,13 +27804,13 @@
         <v>7</v>
       </c>
       <c r="K78" s="24" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L78" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M78" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N78" s="31" t="s">
         <v>67</v>
@@ -27890,13 +27872,13 @@
     </row>
     <row r="79" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B79" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>12</v>
@@ -27923,10 +27905,10 @@
         <v>35</v>
       </c>
       <c r="L79" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M79" s="31" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N79" s="31" t="s">
         <v>67</v>
@@ -27988,15 +27970,15 @@
     </row>
     <row r="80" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="D80" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="4" t="s">
@@ -28018,19 +28000,19 @@
         <v>7</v>
       </c>
       <c r="K80" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L80" s="24">
-        <v>1011</v>
-      </c>
-      <c r="M80" s="33" t="s">
-        <v>213</v>
+        <v>35</v>
+      </c>
+      <c r="L80" s="25">
+        <v>1008</v>
+      </c>
+      <c r="M80" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="N80" s="31" t="s">
         <v>67</v>
       </c>
       <c r="O80" s="31" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="P80" s="22"/>
       <c r="Q80" s="22"/>
@@ -28086,15 +28068,15 @@
     </row>
     <row r="81" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B81" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D81" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="4" t="s">
@@ -28104,7 +28086,7 @@
         <v>151</v>
       </c>
       <c r="G81" s="24">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H81" s="59" t="s">
         <v>227</v>
@@ -28112,23 +28094,23 @@
       <c r="I81" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="J81" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K81" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L81" s="10">
-        <v>2506</v>
-      </c>
-      <c r="M81" s="31" t="s">
-        <v>46</v>
+      <c r="K81" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L81" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M81" s="33" t="s">
+        <v>213</v>
       </c>
       <c r="N81" s="31" t="s">
         <v>67</v>
       </c>
       <c r="O81" s="31" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="P81" s="22"/>
       <c r="Q81" s="22"/>
@@ -28182,79 +28164,107 @@
       <c r="BM81" s="22"/>
       <c r="BN81" s="22"/>
     </row>
-    <row r="82" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="97" t="s">
+    <row r="82" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>71</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G82" s="24">
+        <v>404</v>
+      </c>
+      <c r="H82" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="I82" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L82" s="10">
+        <v>2506</v>
+      </c>
+      <c r="M82" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="N82" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="O82" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="22"/>
+      <c r="T82" s="22"/>
+      <c r="U82" s="22"/>
+      <c r="V82" s="22"/>
+      <c r="W82" s="22"/>
+      <c r="X82" s="22"/>
+      <c r="Y82" s="22"/>
+      <c r="Z82" s="22"/>
+      <c r="AA82" s="22"/>
+      <c r="AB82" s="22"/>
+      <c r="AC82" s="22"/>
+      <c r="AD82" s="22"/>
+      <c r="AE82" s="22"/>
+      <c r="AF82" s="22"/>
+      <c r="AG82" s="22"/>
+      <c r="AH82" s="22"/>
+      <c r="AI82" s="22"/>
+      <c r="AJ82" s="22"/>
+      <c r="AK82" s="22"/>
+      <c r="AL82" s="22"/>
+      <c r="AM82" s="22"/>
+      <c r="AN82" s="22"/>
+      <c r="AO82" s="22"/>
+      <c r="AP82" s="22"/>
+      <c r="AQ82" s="22"/>
+      <c r="AR82" s="22"/>
+      <c r="AS82" s="22"/>
+      <c r="AT82" s="22"/>
+      <c r="AU82" s="22"/>
+      <c r="AV82" s="22"/>
+      <c r="AW82" s="22"/>
+      <c r="AX82" s="22"/>
+      <c r="AY82" s="22"/>
+      <c r="AZ82" s="22"/>
+      <c r="BA82" s="22"/>
+      <c r="BB82" s="22"/>
+      <c r="BC82" s="22"/>
+      <c r="BD82" s="22"/>
+      <c r="BE82" s="22"/>
+      <c r="BF82" s="22"/>
+      <c r="BG82" s="22"/>
+      <c r="BH82" s="22"/>
+      <c r="BI82" s="22"/>
+      <c r="BJ82" s="22"/>
+      <c r="BK82" s="22"/>
+      <c r="BL82" s="22"/>
+      <c r="BM82" s="22"/>
+      <c r="BN82" s="22"/>
+    </row>
+    <row r="83" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="98" t="s">
         <v>140</v>
-      </c>
-      <c r="B82" s="97"/>
-      <c r="C82" s="97"/>
-      <c r="D82" s="97"/>
-      <c r="E82" s="97"/>
-      <c r="F82" s="97"/>
-      <c r="G82" s="97"/>
-      <c r="H82" s="97"/>
-      <c r="I82" s="97"/>
-      <c r="J82" s="97"/>
-      <c r="K82" s="97"/>
-      <c r="L82" s="97"/>
-      <c r="M82" s="97"/>
-      <c r="N82" s="97"/>
-      <c r="O82" s="97"/>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="21"/>
-      <c r="S82" s="21"/>
-      <c r="T82" s="21"/>
-      <c r="U82" s="21"/>
-      <c r="V82" s="21"/>
-      <c r="W82" s="21"/>
-      <c r="X82" s="21"/>
-      <c r="Y82" s="21"/>
-      <c r="Z82" s="21"/>
-      <c r="AA82" s="21"/>
-      <c r="AB82" s="21"/>
-      <c r="AC82" s="21"/>
-      <c r="AD82" s="21"/>
-      <c r="AE82" s="21"/>
-      <c r="AF82" s="21"/>
-      <c r="AG82" s="21"/>
-      <c r="AH82" s="21"/>
-      <c r="AI82" s="21"/>
-      <c r="AJ82" s="21"/>
-      <c r="AK82" s="21"/>
-      <c r="AL82" s="21"/>
-      <c r="AM82" s="21"/>
-      <c r="AN82" s="21"/>
-      <c r="AO82" s="21"/>
-      <c r="AP82" s="21"/>
-      <c r="AQ82" s="21"/>
-      <c r="AR82" s="21"/>
-      <c r="AS82" s="21"/>
-      <c r="AT82" s="21"/>
-      <c r="AU82" s="21"/>
-      <c r="AV82" s="21"/>
-      <c r="AW82" s="21"/>
-      <c r="AX82" s="21"/>
-      <c r="AY82" s="21"/>
-      <c r="AZ82" s="21"/>
-      <c r="BA82" s="21"/>
-      <c r="BB82" s="21"/>
-      <c r="BC82" s="21"/>
-      <c r="BD82" s="21"/>
-      <c r="BE82" s="21"/>
-      <c r="BF82" s="21"/>
-      <c r="BG82" s="21"/>
-      <c r="BH82" s="21"/>
-      <c r="BI82" s="21"/>
-      <c r="BJ82" s="21"/>
-      <c r="BK82" s="21"/>
-      <c r="BL82" s="21"/>
-      <c r="BM82" s="21"/>
-      <c r="BN82" s="21"/>
-    </row>
-    <row r="83" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="98" t="s">
-        <v>157</v>
       </c>
       <c r="B83" s="98"/>
       <c r="C83" s="98"/>
@@ -28322,52 +28332,24 @@
       <c r="BM83" s="21"/>
       <c r="BN83" s="21"/>
     </row>
-    <row r="84" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="94">
-        <v>146</v>
-      </c>
-      <c r="B84" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C84" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="D84" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="F84" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="G84" s="94">
-        <v>403</v>
-      </c>
-      <c r="H84" s="94" t="s">
-        <v>227</v>
-      </c>
-      <c r="I84" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J84" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="K84" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="L84" s="94">
-        <v>1016</v>
-      </c>
-      <c r="M84" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="N84" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="O84" s="95" t="s">
-        <v>12</v>
-      </c>
+    <row r="84" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" s="99"/>
+      <c r="C84" s="99"/>
+      <c r="D84" s="99"/>
+      <c r="E84" s="99"/>
+      <c r="F84" s="99"/>
+      <c r="G84" s="99"/>
+      <c r="H84" s="99"/>
+      <c r="I84" s="99"/>
+      <c r="J84" s="99"/>
+      <c r="K84" s="99"/>
+      <c r="L84" s="99"/>
+      <c r="M84" s="99"/>
+      <c r="N84" s="99"/>
+      <c r="O84" s="99"/>
       <c r="P84" s="21"/>
       <c r="Q84" s="21"/>
       <c r="R84" s="21"/>
@@ -28420,50 +28402,50 @@
       <c r="BM84" s="21"/>
       <c r="BN84" s="21"/>
     </row>
-    <row r="85" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
-        <v>72</v>
+    <row r="85" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="94">
+        <v>146</v>
       </c>
       <c r="B85" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C85" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="D85" s="4" t="s">
+      <c r="C85" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="D85" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="G85" s="24">
-        <v>401</v>
-      </c>
-      <c r="H85" s="59" t="s">
+      <c r="G85" s="94">
+        <v>403</v>
+      </c>
+      <c r="H85" s="94" t="s">
         <v>227</v>
       </c>
       <c r="I85" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="J85" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="K85" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="L85" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M85" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="N85" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="O85" s="50" t="s">
+      <c r="L85" s="94">
+        <v>1016</v>
+      </c>
+      <c r="M85" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="N85" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="O85" s="95" t="s">
         <v>12</v>
       </c>
       <c r="P85" s="21"/>
@@ -28518,15 +28500,15 @@
       <c r="BM85" s="21"/>
       <c r="BN85" s="21"/>
     </row>
-    <row r="86" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B86" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>12</v>
@@ -28553,15 +28535,15 @@
         <v>38</v>
       </c>
       <c r="L86" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M86" s="23" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N86" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O86" s="48" t="s">
+      <c r="O86" s="50" t="s">
         <v>12</v>
       </c>
       <c r="P86" s="21"/>
@@ -28616,15 +28598,15 @@
       <c r="BM86" s="21"/>
       <c r="BN86" s="21"/>
     </row>
-    <row r="87" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B87" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>94</v>
+      <c r="C87" s="23" t="s">
+        <v>158</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>12</v>
@@ -28636,7 +28618,7 @@
         <v>151</v>
       </c>
       <c r="G87" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H87" s="59" t="s">
         <v>227</v>
@@ -28648,81 +28630,81 @@
         <v>7</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L87" s="10">
-        <v>1003</v>
-      </c>
-      <c r="M87" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="N87" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="O87" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="22"/>
-      <c r="T87" s="22"/>
-      <c r="U87" s="22"/>
-      <c r="V87" s="22"/>
-      <c r="W87" s="22"/>
-      <c r="X87" s="22"/>
-      <c r="Y87" s="22"/>
-      <c r="Z87" s="22"/>
-      <c r="AA87" s="22"/>
-      <c r="AB87" s="22"/>
-      <c r="AC87" s="22"/>
-      <c r="AD87" s="22"/>
-      <c r="AE87" s="22"/>
-      <c r="AF87" s="22"/>
-      <c r="AG87" s="22"/>
-      <c r="AH87" s="22"/>
-      <c r="AI87" s="22"/>
-      <c r="AJ87" s="22"/>
-      <c r="AK87" s="22"/>
-      <c r="AL87" s="22"/>
-      <c r="AM87" s="22"/>
-      <c r="AN87" s="22"/>
-      <c r="AO87" s="22"/>
-      <c r="AP87" s="22"/>
-      <c r="AQ87" s="22"/>
-      <c r="AR87" s="22"/>
-      <c r="AS87" s="22"/>
-      <c r="AT87" s="22"/>
-      <c r="AU87" s="22"/>
-      <c r="AV87" s="22"/>
-      <c r="AW87" s="22"/>
-      <c r="AX87" s="22"/>
-      <c r="AY87" s="22"/>
-      <c r="AZ87" s="22"/>
-      <c r="BA87" s="22"/>
-      <c r="BB87" s="22"/>
-      <c r="BC87" s="22"/>
-      <c r="BD87" s="22"/>
-      <c r="BE87" s="22"/>
-      <c r="BF87" s="22"/>
-      <c r="BG87" s="22"/>
-      <c r="BH87" s="22"/>
-      <c r="BI87" s="22"/>
-      <c r="BJ87" s="22"/>
-      <c r="BK87" s="22"/>
-      <c r="BL87" s="22"/>
-      <c r="BM87" s="22"/>
-      <c r="BN87" s="22"/>
-    </row>
-    <row r="88" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="L87" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M87" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="N87" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O87" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="X87" s="21"/>
+      <c r="Y87" s="21"/>
+      <c r="Z87" s="21"/>
+      <c r="AA87" s="21"/>
+      <c r="AB87" s="21"/>
+      <c r="AC87" s="21"/>
+      <c r="AD87" s="21"/>
+      <c r="AE87" s="21"/>
+      <c r="AF87" s="21"/>
+      <c r="AG87" s="21"/>
+      <c r="AH87" s="21"/>
+      <c r="AI87" s="21"/>
+      <c r="AJ87" s="21"/>
+      <c r="AK87" s="21"/>
+      <c r="AL87" s="21"/>
+      <c r="AM87" s="21"/>
+      <c r="AN87" s="21"/>
+      <c r="AO87" s="21"/>
+      <c r="AP87" s="21"/>
+      <c r="AQ87" s="21"/>
+      <c r="AR87" s="21"/>
+      <c r="AS87" s="21"/>
+      <c r="AT87" s="21"/>
+      <c r="AU87" s="21"/>
+      <c r="AV87" s="21"/>
+      <c r="AW87" s="21"/>
+      <c r="AX87" s="21"/>
+      <c r="AY87" s="21"/>
+      <c r="AZ87" s="21"/>
+      <c r="BA87" s="21"/>
+      <c r="BB87" s="21"/>
+      <c r="BC87" s="21"/>
+      <c r="BD87" s="21"/>
+      <c r="BE87" s="21"/>
+      <c r="BF87" s="21"/>
+      <c r="BG87" s="21"/>
+      <c r="BH87" s="21"/>
+      <c r="BI87" s="21"/>
+      <c r="BJ87" s="21"/>
+      <c r="BK87" s="21"/>
+      <c r="BL87" s="21"/>
+      <c r="BM87" s="21"/>
+      <c r="BN87" s="21"/>
+    </row>
+    <row r="88" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B88" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>12</v>
@@ -28746,13 +28728,13 @@
         <v>7</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L88" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M88" s="31" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N88" s="31" t="s">
         <v>142</v>
@@ -28812,15 +28794,15 @@
       <c r="BM88" s="22"/>
       <c r="BN88" s="22"/>
     </row>
-    <row r="89" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B89" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>12</v>
@@ -28844,13 +28826,13 @@
         <v>7</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L89" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M89" s="31" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N89" s="31" t="s">
         <v>142</v>
@@ -28910,26 +28892,26 @@
       <c r="BM89" s="22"/>
       <c r="BN89" s="22"/>
     </row>
-    <row r="90" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B90" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C90" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="D90" s="54" t="s">
+      <c r="C90" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="54" t="s">
+      <c r="E90" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F90" s="54" t="s">
+      <c r="F90" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G90" s="55">
+      <c r="G90" s="24">
         <v>400</v>
       </c>
       <c r="H90" s="59" t="s">
@@ -28938,46 +28920,97 @@
       <c r="I90" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J90" s="54" t="s">
+      <c r="J90" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K90" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="L90" s="54">
-        <v>1015</v>
-      </c>
-      <c r="M90" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="N90" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="O90" s="64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K90" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L90" s="10">
+        <v>1005</v>
+      </c>
+      <c r="M90" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N90" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="O90" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="P90" s="22"/>
+      <c r="Q90" s="22"/>
+      <c r="R90" s="22"/>
+      <c r="S90" s="22"/>
+      <c r="T90" s="22"/>
+      <c r="U90" s="22"/>
+      <c r="V90" s="22"/>
+      <c r="W90" s="22"/>
+      <c r="X90" s="22"/>
+      <c r="Y90" s="22"/>
+      <c r="Z90" s="22"/>
+      <c r="AA90" s="22"/>
+      <c r="AB90" s="22"/>
+      <c r="AC90" s="22"/>
+      <c r="AD90" s="22"/>
+      <c r="AE90" s="22"/>
+      <c r="AF90" s="22"/>
+      <c r="AG90" s="22"/>
+      <c r="AH90" s="22"/>
+      <c r="AI90" s="22"/>
+      <c r="AJ90" s="22"/>
+      <c r="AK90" s="22"/>
+      <c r="AL90" s="22"/>
+      <c r="AM90" s="22"/>
+      <c r="AN90" s="22"/>
+      <c r="AO90" s="22"/>
+      <c r="AP90" s="22"/>
+      <c r="AQ90" s="22"/>
+      <c r="AR90" s="22"/>
+      <c r="AS90" s="22"/>
+      <c r="AT90" s="22"/>
+      <c r="AU90" s="22"/>
+      <c r="AV90" s="22"/>
+      <c r="AW90" s="22"/>
+      <c r="AX90" s="22"/>
+      <c r="AY90" s="22"/>
+      <c r="AZ90" s="22"/>
+      <c r="BA90" s="22"/>
+      <c r="BB90" s="22"/>
+      <c r="BC90" s="22"/>
+      <c r="BD90" s="22"/>
+      <c r="BE90" s="22"/>
+      <c r="BF90" s="22"/>
+      <c r="BG90" s="22"/>
+      <c r="BH90" s="22"/>
+      <c r="BI90" s="22"/>
+      <c r="BJ90" s="22"/>
+      <c r="BK90" s="22"/>
+      <c r="BL90" s="22"/>
+      <c r="BM90" s="22"/>
+      <c r="BN90" s="22"/>
+    </row>
+    <row r="91" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B91" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D91" s="4" t="s">
+      <c r="C91" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="G91" s="24">
-        <v>403</v>
+      <c r="G91" s="55">
+        <v>400</v>
       </c>
       <c r="H91" s="59" t="s">
         <v>227</v>
@@ -28985,85 +29018,34 @@
       <c r="I91" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="J91" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K91" s="4" t="s">
+      <c r="K91" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L91" s="10">
-        <v>1006</v>
-      </c>
-      <c r="M91" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="N91" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="O91" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
-      <c r="T91" s="22"/>
-      <c r="U91" s="22"/>
-      <c r="V91" s="22"/>
-      <c r="W91" s="22"/>
-      <c r="X91" s="22"/>
-      <c r="Y91" s="22"/>
-      <c r="Z91" s="22"/>
-      <c r="AA91" s="22"/>
-      <c r="AB91" s="22"/>
-      <c r="AC91" s="22"/>
-      <c r="AD91" s="22"/>
-      <c r="AE91" s="22"/>
-      <c r="AF91" s="22"/>
-      <c r="AG91" s="22"/>
-      <c r="AH91" s="22"/>
-      <c r="AI91" s="22"/>
-      <c r="AJ91" s="22"/>
-      <c r="AK91" s="22"/>
-      <c r="AL91" s="22"/>
-      <c r="AM91" s="22"/>
-      <c r="AN91" s="22"/>
-      <c r="AO91" s="22"/>
-      <c r="AP91" s="22"/>
-      <c r="AQ91" s="22"/>
-      <c r="AR91" s="22"/>
-      <c r="AS91" s="22"/>
-      <c r="AT91" s="22"/>
-      <c r="AU91" s="22"/>
-      <c r="AV91" s="22"/>
-      <c r="AW91" s="22"/>
-      <c r="AX91" s="22"/>
-      <c r="AY91" s="22"/>
-      <c r="AZ91" s="22"/>
-      <c r="BA91" s="22"/>
-      <c r="BB91" s="22"/>
-      <c r="BC91" s="22"/>
-      <c r="BD91" s="22"/>
-      <c r="BE91" s="22"/>
-      <c r="BF91" s="22"/>
-      <c r="BG91" s="22"/>
-      <c r="BH91" s="22"/>
-      <c r="BI91" s="22"/>
-      <c r="BJ91" s="22"/>
-      <c r="BK91" s="22"/>
-      <c r="BL91" s="22"/>
-      <c r="BM91" s="22"/>
-      <c r="BN91" s="22"/>
+      <c r="L91" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M91" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="N91" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="O91" s="64" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="92" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B92" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>12</v>
@@ -29087,13 +29069,13 @@
         <v>7</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L92" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M92" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N92" s="31" t="s">
         <v>142</v>
@@ -29153,15 +29135,15 @@
       <c r="BM92" s="22"/>
       <c r="BN92" s="22"/>
     </row>
-    <row r="93" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B93" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>12</v>
@@ -29188,10 +29170,10 @@
         <v>35</v>
       </c>
       <c r="L93" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M93" s="31" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N93" s="31" t="s">
         <v>142</v>
@@ -29253,15 +29235,15 @@
     </row>
     <row r="94" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B94" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D94" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E94" s="4" t="s">
@@ -29283,19 +29265,19 @@
         <v>7</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L94" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M94" s="33" t="s">
-        <v>213</v>
+        <v>35</v>
+      </c>
+      <c r="L94" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M94" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="N94" s="31" t="s">
         <v>142</v>
       </c>
       <c r="O94" s="31" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="P94" s="22"/>
       <c r="Q94" s="22"/>
@@ -29349,17 +29331,17 @@
       <c r="BM94" s="22"/>
       <c r="BN94" s="22"/>
     </row>
-    <row r="95" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B95" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D95" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="4" t="s">
@@ -29369,7 +29351,7 @@
         <v>151</v>
       </c>
       <c r="G95" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H95" s="59" t="s">
         <v>227</v>
@@ -29383,17 +29365,17 @@
       <c r="K95" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L95" s="10">
-        <v>3001</v>
-      </c>
-      <c r="M95" s="31" t="s">
-        <v>222</v>
+      <c r="L95" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M95" s="33" t="s">
+        <v>213</v>
       </c>
       <c r="N95" s="31" t="s">
         <v>142</v>
       </c>
       <c r="O95" s="31" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="P95" s="22"/>
       <c r="Q95" s="22"/>
@@ -29447,15 +29429,15 @@
       <c r="BM95" s="22"/>
       <c r="BN95" s="22"/>
     </row>
-    <row r="96" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B96" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>12</v>
@@ -29479,19 +29461,19 @@
         <v>7</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="L96" s="10">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="M96" s="31" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="N96" s="31" t="s">
         <v>142</v>
       </c>
       <c r="O96" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P96" s="22"/>
       <c r="Q96" s="22"/>
@@ -29546,14 +29528,14 @@
       <c r="BN96" s="22"/>
     </row>
     <row r="97" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A97" s="27">
-        <v>137</v>
+      <c r="A97" s="4">
+        <v>83</v>
       </c>
       <c r="B97" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C97" s="72" t="s">
-        <v>218</v>
+      <c r="C97" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>12</v>
@@ -29561,8 +29543,8 @@
       <c r="E97" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F97" s="27" t="s">
-        <v>152</v>
+      <c r="F97" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="G97" s="24">
         <v>400</v>
@@ -29579,17 +29561,17 @@
       <c r="K97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L97" s="27">
-        <v>3009</v>
-      </c>
-      <c r="M97" s="72" t="s">
-        <v>218</v>
+      <c r="L97" s="10">
+        <v>3002</v>
+      </c>
+      <c r="M97" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="N97" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="O97" s="34" t="s">
-        <v>223</v>
+      <c r="O97" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P97" s="22"/>
       <c r="Q97" s="22"/>
@@ -29643,15 +29625,15 @@
       <c r="BM97" s="22"/>
       <c r="BN97" s="22"/>
     </row>
-    <row r="98" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="27">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B98" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C98" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>12</v>
@@ -29675,81 +29657,81 @@
         <v>7</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L98" s="27">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="M98" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N98" s="31" t="s">
         <v>142</v>
       </c>
       <c r="O98" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="P98" s="21"/>
-      <c r="Q98" s="21"/>
-      <c r="R98" s="21"/>
-      <c r="S98" s="21"/>
-      <c r="T98" s="21"/>
-      <c r="U98" s="21"/>
-      <c r="V98" s="21"/>
-      <c r="W98" s="21"/>
-      <c r="X98" s="21"/>
-      <c r="Y98" s="21"/>
-      <c r="Z98" s="21"/>
-      <c r="AA98" s="21"/>
-      <c r="AB98" s="21"/>
-      <c r="AC98" s="21"/>
-      <c r="AD98" s="21"/>
-      <c r="AE98" s="21"/>
-      <c r="AF98" s="21"/>
-      <c r="AG98" s="21"/>
-      <c r="AH98" s="21"/>
-      <c r="AI98" s="21"/>
-      <c r="AJ98" s="21"/>
-      <c r="AK98" s="21"/>
-      <c r="AL98" s="21"/>
-      <c r="AM98" s="21"/>
-      <c r="AN98" s="21"/>
-      <c r="AO98" s="21"/>
-      <c r="AP98" s="21"/>
-      <c r="AQ98" s="21"/>
-      <c r="AR98" s="21"/>
-      <c r="AS98" s="21"/>
-      <c r="AT98" s="21"/>
-      <c r="AU98" s="21"/>
-      <c r="AV98" s="21"/>
-      <c r="AW98" s="21"/>
-      <c r="AX98" s="21"/>
-      <c r="AY98" s="21"/>
-      <c r="AZ98" s="21"/>
-      <c r="BA98" s="21"/>
-      <c r="BB98" s="21"/>
-      <c r="BC98" s="21"/>
-      <c r="BD98" s="21"/>
-      <c r="BE98" s="21"/>
-      <c r="BF98" s="21"/>
-      <c r="BG98" s="21"/>
-      <c r="BH98" s="21"/>
-      <c r="BI98" s="21"/>
-      <c r="BJ98" s="21"/>
-      <c r="BK98" s="21"/>
-      <c r="BL98" s="21"/>
-      <c r="BM98" s="21"/>
-      <c r="BN98" s="21"/>
-    </row>
-    <row r="99" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="P98" s="22"/>
+      <c r="Q98" s="22"/>
+      <c r="R98" s="22"/>
+      <c r="S98" s="22"/>
+      <c r="T98" s="22"/>
+      <c r="U98" s="22"/>
+      <c r="V98" s="22"/>
+      <c r="W98" s="22"/>
+      <c r="X98" s="22"/>
+      <c r="Y98" s="22"/>
+      <c r="Z98" s="22"/>
+      <c r="AA98" s="22"/>
+      <c r="AB98" s="22"/>
+      <c r="AC98" s="22"/>
+      <c r="AD98" s="22"/>
+      <c r="AE98" s="22"/>
+      <c r="AF98" s="22"/>
+      <c r="AG98" s="22"/>
+      <c r="AH98" s="22"/>
+      <c r="AI98" s="22"/>
+      <c r="AJ98" s="22"/>
+      <c r="AK98" s="22"/>
+      <c r="AL98" s="22"/>
+      <c r="AM98" s="22"/>
+      <c r="AN98" s="22"/>
+      <c r="AO98" s="22"/>
+      <c r="AP98" s="22"/>
+      <c r="AQ98" s="22"/>
+      <c r="AR98" s="22"/>
+      <c r="AS98" s="22"/>
+      <c r="AT98" s="22"/>
+      <c r="AU98" s="22"/>
+      <c r="AV98" s="22"/>
+      <c r="AW98" s="22"/>
+      <c r="AX98" s="22"/>
+      <c r="AY98" s="22"/>
+      <c r="AZ98" s="22"/>
+      <c r="BA98" s="22"/>
+      <c r="BB98" s="22"/>
+      <c r="BC98" s="22"/>
+      <c r="BD98" s="22"/>
+      <c r="BE98" s="22"/>
+      <c r="BF98" s="22"/>
+      <c r="BG98" s="22"/>
+      <c r="BH98" s="22"/>
+      <c r="BI98" s="22"/>
+      <c r="BJ98" s="22"/>
+      <c r="BK98" s="22"/>
+      <c r="BL98" s="22"/>
+      <c r="BM98" s="22"/>
+      <c r="BN98" s="22"/>
+    </row>
+    <row r="99" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="27">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B99" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C99" s="72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>12</v>
@@ -29776,10 +29758,10 @@
         <v>35</v>
       </c>
       <c r="L99" s="27">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="M99" s="72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N99" s="31" t="s">
         <v>142</v>
@@ -29839,15 +29821,15 @@
       <c r="BM99" s="21"/>
       <c r="BN99" s="21"/>
     </row>
-    <row r="100" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="27">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B100" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C100" s="72" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>12</v>
@@ -29859,7 +29841,7 @@
         <v>152</v>
       </c>
       <c r="G100" s="24">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H100" s="59" t="s">
         <v>227</v>
@@ -29874,16 +29856,16 @@
         <v>35</v>
       </c>
       <c r="L100" s="27">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="M100" s="72" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="N100" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="O100" s="31" t="s">
-        <v>12</v>
+      <c r="O100" s="34" t="s">
+        <v>224</v>
       </c>
       <c r="P100" s="21"/>
       <c r="Q100" s="21"/>
@@ -29939,13 +29921,13 @@
     </row>
     <row r="101" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="27">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B101" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C101" s="85" t="s">
-        <v>240</v>
+      <c r="C101" s="72" t="s">
+        <v>232</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>12</v>
@@ -29957,7 +29939,7 @@
         <v>152</v>
       </c>
       <c r="G101" s="24">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H101" s="59" t="s">
         <v>227</v>
@@ -29972,16 +29954,16 @@
         <v>35</v>
       </c>
       <c r="L101" s="27">
-        <v>3013</v>
-      </c>
-      <c r="M101" s="85" t="s">
-        <v>241</v>
+        <v>3012</v>
+      </c>
+      <c r="M101" s="72" t="s">
+        <v>233</v>
       </c>
       <c r="N101" s="31" t="s">
         <v>142</v>
       </c>
       <c r="O101" s="31" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="P101" s="21"/>
       <c r="Q101" s="21"/>
@@ -30035,26 +30017,26 @@
       <c r="BM101" s="21"/>
       <c r="BN101" s="21"/>
     </row>
-    <row r="102" spans="1:66" s="51" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A102" s="59">
-        <v>84</v>
-      </c>
-      <c r="B102" s="60" t="s">
+    <row r="102" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A102" s="27">
         <v>141</v>
       </c>
-      <c r="C102" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="D102" s="59" t="s">
+      <c r="B102" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C102" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="73" t="s">
+      <c r="E102" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F102" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="G102" s="59">
+      <c r="F102" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G102" s="24">
         <v>400</v>
       </c>
       <c r="H102" s="59" t="s">
@@ -30063,23 +30045,23 @@
       <c r="I102" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J102" s="59" t="s">
+      <c r="J102" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K102" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="L102" s="59">
-        <v>1002</v>
-      </c>
-      <c r="M102" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="N102" s="60" t="s">
+      <c r="K102" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L102" s="27">
+        <v>3013</v>
+      </c>
+      <c r="M102" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="N102" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="O102" s="60" t="s">
-        <v>73</v>
+      <c r="O102" s="31" t="s">
+        <v>242</v>
       </c>
       <c r="P102" s="21"/>
       <c r="Q102" s="21"/>
@@ -30133,24 +30115,52 @@
       <c r="BM102" s="21"/>
       <c r="BN102" s="21"/>
     </row>
-    <row r="103" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A103" s="98" t="s">
-        <v>156</v>
-      </c>
-      <c r="B103" s="98"/>
-      <c r="C103" s="98"/>
-      <c r="D103" s="98"/>
-      <c r="E103" s="98"/>
-      <c r="F103" s="98"/>
-      <c r="G103" s="98"/>
-      <c r="H103" s="98"/>
-      <c r="I103" s="98"/>
-      <c r="J103" s="98"/>
-      <c r="K103" s="98"/>
-      <c r="L103" s="98"/>
-      <c r="M103" s="98"/>
-      <c r="N103" s="98"/>
-      <c r="O103" s="98"/>
+    <row r="103" spans="1:66" s="51" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A103" s="59">
+        <v>84</v>
+      </c>
+      <c r="B103" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="C103" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D103" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F103" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="G103" s="59">
+        <v>400</v>
+      </c>
+      <c r="H103" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="I103" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J103" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K103" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L103" s="59">
+        <v>1002</v>
+      </c>
+      <c r="M103" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="N103" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="O103" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="P103" s="21"/>
       <c r="Q103" s="21"/>
       <c r="R103" s="21"/>
@@ -30203,220 +30213,220 @@
       <c r="BM103" s="21"/>
       <c r="BN103" s="21"/>
     </row>
-    <row r="104" spans="1:66" s="37" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A104" s="39">
+    <row r="104" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A104" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" s="99"/>
+      <c r="C104" s="99"/>
+      <c r="D104" s="99"/>
+      <c r="E104" s="99"/>
+      <c r="F104" s="99"/>
+      <c r="G104" s="99"/>
+      <c r="H104" s="99"/>
+      <c r="I104" s="99"/>
+      <c r="J104" s="99"/>
+      <c r="K104" s="99"/>
+      <c r="L104" s="99"/>
+      <c r="M104" s="99"/>
+      <c r="N104" s="99"/>
+      <c r="O104" s="99"/>
+      <c r="P104" s="21"/>
+      <c r="Q104" s="21"/>
+      <c r="R104" s="21"/>
+      <c r="S104" s="21"/>
+      <c r="T104" s="21"/>
+      <c r="U104" s="21"/>
+      <c r="V104" s="21"/>
+      <c r="W104" s="21"/>
+      <c r="X104" s="21"/>
+      <c r="Y104" s="21"/>
+      <c r="Z104" s="21"/>
+      <c r="AA104" s="21"/>
+      <c r="AB104" s="21"/>
+      <c r="AC104" s="21"/>
+      <c r="AD104" s="21"/>
+      <c r="AE104" s="21"/>
+      <c r="AF104" s="21"/>
+      <c r="AG104" s="21"/>
+      <c r="AH104" s="21"/>
+      <c r="AI104" s="21"/>
+      <c r="AJ104" s="21"/>
+      <c r="AK104" s="21"/>
+      <c r="AL104" s="21"/>
+      <c r="AM104" s="21"/>
+      <c r="AN104" s="21"/>
+      <c r="AO104" s="21"/>
+      <c r="AP104" s="21"/>
+      <c r="AQ104" s="21"/>
+      <c r="AR104" s="21"/>
+      <c r="AS104" s="21"/>
+      <c r="AT104" s="21"/>
+      <c r="AU104" s="21"/>
+      <c r="AV104" s="21"/>
+      <c r="AW104" s="21"/>
+      <c r="AX104" s="21"/>
+      <c r="AY104" s="21"/>
+      <c r="AZ104" s="21"/>
+      <c r="BA104" s="21"/>
+      <c r="BB104" s="21"/>
+      <c r="BC104" s="21"/>
+      <c r="BD104" s="21"/>
+      <c r="BE104" s="21"/>
+      <c r="BF104" s="21"/>
+      <c r="BG104" s="21"/>
+      <c r="BH104" s="21"/>
+      <c r="BI104" s="21"/>
+      <c r="BJ104" s="21"/>
+      <c r="BK104" s="21"/>
+      <c r="BL104" s="21"/>
+      <c r="BM104" s="21"/>
+      <c r="BN104" s="21"/>
+    </row>
+    <row r="105" spans="1:66" s="37" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A105" s="39">
         <v>145</v>
-      </c>
-      <c r="B104" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C104" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="D104" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="F104" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="G104" s="24">
-        <v>400</v>
-      </c>
-      <c r="H104" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="I104" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J104" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="K104" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="L104" s="87">
-        <v>3008</v>
-      </c>
-      <c r="M104" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="N104" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="O104" s="88" t="s">
-        <v>254</v>
-      </c>
-      <c r="P104" s="36"/>
-      <c r="Q104" s="36"/>
-      <c r="R104" s="36"/>
-      <c r="S104" s="36"/>
-      <c r="T104" s="36"/>
-      <c r="U104" s="36"/>
-      <c r="V104" s="36"/>
-      <c r="W104" s="36"/>
-      <c r="X104" s="36"/>
-      <c r="Y104" s="36"/>
-      <c r="Z104" s="36"/>
-      <c r="AA104" s="36"/>
-      <c r="AB104" s="36"/>
-      <c r="AC104" s="36"/>
-      <c r="AD104" s="36"/>
-      <c r="AE104" s="36"/>
-      <c r="AF104" s="36"/>
-      <c r="AG104" s="36"/>
-      <c r="AH104" s="36"/>
-      <c r="AI104" s="36"/>
-      <c r="AJ104" s="36"/>
-      <c r="AK104" s="36"/>
-      <c r="AL104" s="36"/>
-      <c r="AM104" s="36"/>
-      <c r="AN104" s="36"/>
-      <c r="AO104" s="36"/>
-      <c r="AP104" s="36"/>
-      <c r="AQ104" s="36"/>
-      <c r="AR104" s="36"/>
-      <c r="AS104" s="36"/>
-      <c r="AT104" s="36"/>
-      <c r="AU104" s="36"/>
-      <c r="AV104" s="36"/>
-      <c r="AW104" s="36"/>
-      <c r="AX104" s="36"/>
-      <c r="AY104" s="36"/>
-      <c r="AZ104" s="36"/>
-      <c r="BA104" s="36"/>
-      <c r="BB104" s="36"/>
-      <c r="BC104" s="36"/>
-      <c r="BD104" s="36"/>
-      <c r="BE104" s="36"/>
-      <c r="BF104" s="36"/>
-      <c r="BG104" s="36"/>
-      <c r="BH104" s="36"/>
-      <c r="BI104" s="36"/>
-      <c r="BJ104" s="36"/>
-      <c r="BK104" s="36"/>
-      <c r="BL104" s="36"/>
-      <c r="BM104" s="36"/>
-      <c r="BN104" s="36"/>
-    </row>
-    <row r="105" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
-        <v>85</v>
       </c>
       <c r="B105" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D105" s="4">
-        <v>8</v>
+      <c r="C105" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="D105" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>151</v>
       </c>
       <c r="F105" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G105" s="24">
+        <v>400</v>
+      </c>
+      <c r="H105" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="I105" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J105" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="K105" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L105" s="87">
+        <v>3008</v>
+      </c>
+      <c r="M105" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="N105" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="O105" s="88" t="s">
+        <v>254</v>
+      </c>
+      <c r="P105" s="36"/>
+      <c r="Q105" s="36"/>
+      <c r="R105" s="36"/>
+      <c r="S105" s="36"/>
+      <c r="T105" s="36"/>
+      <c r="U105" s="36"/>
+      <c r="V105" s="36"/>
+      <c r="W105" s="36"/>
+      <c r="X105" s="36"/>
+      <c r="Y105" s="36"/>
+      <c r="Z105" s="36"/>
+      <c r="AA105" s="36"/>
+      <c r="AB105" s="36"/>
+      <c r="AC105" s="36"/>
+      <c r="AD105" s="36"/>
+      <c r="AE105" s="36"/>
+      <c r="AF105" s="36"/>
+      <c r="AG105" s="36"/>
+      <c r="AH105" s="36"/>
+      <c r="AI105" s="36"/>
+      <c r="AJ105" s="36"/>
+      <c r="AK105" s="36"/>
+      <c r="AL105" s="36"/>
+      <c r="AM105" s="36"/>
+      <c r="AN105" s="36"/>
+      <c r="AO105" s="36"/>
+      <c r="AP105" s="36"/>
+      <c r="AQ105" s="36"/>
+      <c r="AR105" s="36"/>
+      <c r="AS105" s="36"/>
+      <c r="AT105" s="36"/>
+      <c r="AU105" s="36"/>
+      <c r="AV105" s="36"/>
+      <c r="AW105" s="36"/>
+      <c r="AX105" s="36"/>
+      <c r="AY105" s="36"/>
+      <c r="AZ105" s="36"/>
+      <c r="BA105" s="36"/>
+      <c r="BB105" s="36"/>
+      <c r="BC105" s="36"/>
+      <c r="BD105" s="36"/>
+      <c r="BE105" s="36"/>
+      <c r="BF105" s="36"/>
+      <c r="BG105" s="36"/>
+      <c r="BH105" s="36"/>
+      <c r="BI105" s="36"/>
+      <c r="BJ105" s="36"/>
+      <c r="BK105" s="36"/>
+      <c r="BL105" s="36"/>
+      <c r="BM105" s="36"/>
+      <c r="BN105" s="36"/>
+    </row>
+    <row r="106" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>85</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" s="4">
+        <v>8</v>
+      </c>
+      <c r="E106" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G105" s="45">
+      <c r="F106" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G106" s="45">
         <v>200</v>
       </c>
-      <c r="H105" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="I105" s="24" t="s">
+      <c r="H106" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="I106" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="J105" s="4" t="s">
+      <c r="J106" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K105" s="4" t="s">
+      <c r="K106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L105" s="4">
+      <c r="L106" s="4">
         <v>1010</v>
       </c>
-      <c r="M105" s="31" t="s">
+      <c r="M106" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N105" s="31" t="s">
+      <c r="N106" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="O105" s="31" t="s">
+      <c r="O106" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="P105" s="22"/>
-      <c r="Q105" s="22"/>
-      <c r="R105" s="22"/>
-      <c r="S105" s="22"/>
-      <c r="T105" s="22"/>
-      <c r="U105" s="22"/>
-      <c r="V105" s="22"/>
-      <c r="W105" s="22"/>
-      <c r="X105" s="22"/>
-      <c r="Y105" s="22"/>
-      <c r="Z105" s="22"/>
-      <c r="AA105" s="22"/>
-      <c r="AB105" s="22"/>
-      <c r="AC105" s="22"/>
-      <c r="AD105" s="22"/>
-      <c r="AE105" s="22"/>
-      <c r="AF105" s="22"/>
-      <c r="AG105" s="22"/>
-      <c r="AH105" s="22"/>
-      <c r="AI105" s="22"/>
-      <c r="AJ105" s="22"/>
-      <c r="AK105" s="22"/>
-      <c r="AL105" s="22"/>
-      <c r="AM105" s="22"/>
-      <c r="AN105" s="22"/>
-      <c r="AO105" s="22"/>
-      <c r="AP105" s="22"/>
-      <c r="AQ105" s="22"/>
-      <c r="AR105" s="22"/>
-      <c r="AS105" s="22"/>
-      <c r="AT105" s="22"/>
-      <c r="AU105" s="22"/>
-      <c r="AV105" s="22"/>
-      <c r="AW105" s="22"/>
-      <c r="AX105" s="22"/>
-      <c r="AY105" s="22"/>
-      <c r="AZ105" s="22"/>
-      <c r="BA105" s="22"/>
-      <c r="BB105" s="22"/>
-      <c r="BC105" s="22"/>
-      <c r="BD105" s="22"/>
-      <c r="BE105" s="22"/>
-      <c r="BF105" s="22"/>
-      <c r="BG105" s="22"/>
-      <c r="BH105" s="22"/>
-      <c r="BI105" s="22"/>
-      <c r="BJ105" s="22"/>
-      <c r="BK105" s="22"/>
-      <c r="BL105" s="22"/>
-      <c r="BM105" s="22"/>
-      <c r="BN105" s="22"/>
-    </row>
-    <row r="106" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A106" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="B106" s="97"/>
-      <c r="C106" s="97"/>
-      <c r="D106" s="97"/>
-      <c r="E106" s="97"/>
-      <c r="F106" s="97"/>
-      <c r="G106" s="97"/>
-      <c r="H106" s="97"/>
-      <c r="I106" s="97"/>
-      <c r="J106" s="97"/>
-      <c r="K106" s="97"/>
-      <c r="L106" s="97"/>
-      <c r="M106" s="97"/>
-      <c r="N106" s="97"/>
-      <c r="O106" s="97"/>
       <c r="P106" s="22"/>
       <c r="Q106" s="22"/>
       <c r="R106" s="22"/>
@@ -30469,9 +30479,9 @@
       <c r="BM106" s="22"/>
       <c r="BN106" s="22"/>
     </row>
-    <row r="107" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A107" s="98" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B107" s="98"/>
       <c r="C107" s="98"/>
@@ -30539,160 +30549,183 @@
       <c r="BM107" s="22"/>
       <c r="BN107" s="22"/>
     </row>
-    <row r="108" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="94">
+    <row r="108" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A108" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" s="99"/>
+      <c r="C108" s="99"/>
+      <c r="D108" s="99"/>
+      <c r="E108" s="99"/>
+      <c r="F108" s="99"/>
+      <c r="G108" s="99"/>
+      <c r="H108" s="99"/>
+      <c r="I108" s="99"/>
+      <c r="J108" s="99"/>
+      <c r="K108" s="99"/>
+      <c r="L108" s="99"/>
+      <c r="M108" s="99"/>
+      <c r="N108" s="99"/>
+      <c r="O108" s="99"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="22"/>
+      <c r="S108" s="22"/>
+      <c r="T108" s="22"/>
+      <c r="U108" s="22"/>
+      <c r="V108" s="22"/>
+      <c r="W108" s="22"/>
+      <c r="X108" s="22"/>
+      <c r="Y108" s="22"/>
+      <c r="Z108" s="22"/>
+      <c r="AA108" s="22"/>
+      <c r="AB108" s="22"/>
+      <c r="AC108" s="22"/>
+      <c r="AD108" s="22"/>
+      <c r="AE108" s="22"/>
+      <c r="AF108" s="22"/>
+      <c r="AG108" s="22"/>
+      <c r="AH108" s="22"/>
+      <c r="AI108" s="22"/>
+      <c r="AJ108" s="22"/>
+      <c r="AK108" s="22"/>
+      <c r="AL108" s="22"/>
+      <c r="AM108" s="22"/>
+      <c r="AN108" s="22"/>
+      <c r="AO108" s="22"/>
+      <c r="AP108" s="22"/>
+      <c r="AQ108" s="22"/>
+      <c r="AR108" s="22"/>
+      <c r="AS108" s="22"/>
+      <c r="AT108" s="22"/>
+      <c r="AU108" s="22"/>
+      <c r="AV108" s="22"/>
+      <c r="AW108" s="22"/>
+      <c r="AX108" s="22"/>
+      <c r="AY108" s="22"/>
+      <c r="AZ108" s="22"/>
+      <c r="BA108" s="22"/>
+      <c r="BB108" s="22"/>
+      <c r="BC108" s="22"/>
+      <c r="BD108" s="22"/>
+      <c r="BE108" s="22"/>
+      <c r="BF108" s="22"/>
+      <c r="BG108" s="22"/>
+      <c r="BH108" s="22"/>
+      <c r="BI108" s="22"/>
+      <c r="BJ108" s="22"/>
+      <c r="BK108" s="22"/>
+      <c r="BL108" s="22"/>
+      <c r="BM108" s="22"/>
+      <c r="BN108" s="22"/>
+    </row>
+    <row r="109" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="94">
         <v>146</v>
-      </c>
-      <c r="B108" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C108" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="D108" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="F108" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="G108" s="94">
-        <v>403</v>
-      </c>
-      <c r="H108" s="94" t="s">
-        <v>227</v>
-      </c>
-      <c r="I108" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J108" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="K108" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="L108" s="94">
-        <v>1016</v>
-      </c>
-      <c r="M108" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="N108" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="O108" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="P108" s="21"/>
-      <c r="Q108" s="21"/>
-      <c r="R108" s="21"/>
-      <c r="S108" s="21"/>
-      <c r="T108" s="21"/>
-      <c r="U108" s="21"/>
-      <c r="V108" s="21"/>
-      <c r="W108" s="21"/>
-      <c r="X108" s="21"/>
-      <c r="Y108" s="21"/>
-      <c r="Z108" s="21"/>
-      <c r="AA108" s="21"/>
-      <c r="AB108" s="21"/>
-      <c r="AC108" s="21"/>
-      <c r="AD108" s="21"/>
-      <c r="AE108" s="21"/>
-      <c r="AF108" s="21"/>
-      <c r="AG108" s="21"/>
-      <c r="AH108" s="21"/>
-      <c r="AI108" s="21"/>
-      <c r="AJ108" s="21"/>
-      <c r="AK108" s="21"/>
-      <c r="AL108" s="21"/>
-      <c r="AM108" s="21"/>
-      <c r="AN108" s="21"/>
-      <c r="AO108" s="21"/>
-      <c r="AP108" s="21"/>
-      <c r="AQ108" s="21"/>
-      <c r="AR108" s="21"/>
-      <c r="AS108" s="21"/>
-      <c r="AT108" s="21"/>
-      <c r="AU108" s="21"/>
-      <c r="AV108" s="21"/>
-      <c r="AW108" s="21"/>
-      <c r="AX108" s="21"/>
-      <c r="AY108" s="21"/>
-      <c r="AZ108" s="21"/>
-      <c r="BA108" s="21"/>
-      <c r="BB108" s="21"/>
-      <c r="BC108" s="21"/>
-      <c r="BD108" s="21"/>
-      <c r="BE108" s="21"/>
-      <c r="BF108" s="21"/>
-      <c r="BG108" s="21"/>
-      <c r="BH108" s="21"/>
-      <c r="BI108" s="21"/>
-      <c r="BJ108" s="21"/>
-      <c r="BK108" s="21"/>
-      <c r="BL108" s="21"/>
-      <c r="BM108" s="21"/>
-      <c r="BN108" s="21"/>
-    </row>
-    <row r="109" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
-        <v>86</v>
       </c>
       <c r="B109" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C109" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="D109" s="4" t="s">
+      <c r="C109" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="D109" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="G109" s="24">
-        <v>401</v>
-      </c>
-      <c r="H109" s="59" t="s">
+      <c r="G109" s="94">
+        <v>403</v>
+      </c>
+      <c r="H109" s="94" t="s">
         <v>227</v>
       </c>
       <c r="I109" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J109" s="4" t="s">
+      <c r="J109" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K109" s="4" t="s">
+      <c r="K109" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="L109" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M109" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="N109" s="33" t="s">
+      <c r="L109" s="94">
+        <v>1016</v>
+      </c>
+      <c r="M109" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="N109" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="O109" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="O109" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="P109" s="21"/>
+      <c r="Q109" s="21"/>
+      <c r="R109" s="21"/>
+      <c r="S109" s="21"/>
+      <c r="T109" s="21"/>
+      <c r="U109" s="21"/>
+      <c r="V109" s="21"/>
+      <c r="W109" s="21"/>
+      <c r="X109" s="21"/>
+      <c r="Y109" s="21"/>
+      <c r="Z109" s="21"/>
+      <c r="AA109" s="21"/>
+      <c r="AB109" s="21"/>
+      <c r="AC109" s="21"/>
+      <c r="AD109" s="21"/>
+      <c r="AE109" s="21"/>
+      <c r="AF109" s="21"/>
+      <c r="AG109" s="21"/>
+      <c r="AH109" s="21"/>
+      <c r="AI109" s="21"/>
+      <c r="AJ109" s="21"/>
+      <c r="AK109" s="21"/>
+      <c r="AL109" s="21"/>
+      <c r="AM109" s="21"/>
+      <c r="AN109" s="21"/>
+      <c r="AO109" s="21"/>
+      <c r="AP109" s="21"/>
+      <c r="AQ109" s="21"/>
+      <c r="AR109" s="21"/>
+      <c r="AS109" s="21"/>
+      <c r="AT109" s="21"/>
+      <c r="AU109" s="21"/>
+      <c r="AV109" s="21"/>
+      <c r="AW109" s="21"/>
+      <c r="AX109" s="21"/>
+      <c r="AY109" s="21"/>
+      <c r="AZ109" s="21"/>
+      <c r="BA109" s="21"/>
+      <c r="BB109" s="21"/>
+      <c r="BC109" s="21"/>
+      <c r="BD109" s="21"/>
+      <c r="BE109" s="21"/>
+      <c r="BF109" s="21"/>
+      <c r="BG109" s="21"/>
+      <c r="BH109" s="21"/>
+      <c r="BI109" s="21"/>
+      <c r="BJ109" s="21"/>
+      <c r="BK109" s="21"/>
+      <c r="BL109" s="21"/>
+      <c r="BM109" s="21"/>
+      <c r="BN109" s="21"/>
+    </row>
+    <row r="110" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B110" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C110" s="23" t="s">
-        <v>158</v>
+      <c r="C110" s="52" t="s">
+        <v>165</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>12</v>
@@ -30719,78 +30752,27 @@
         <v>38</v>
       </c>
       <c r="L110" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M110" s="23" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N110" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O110" s="48" t="s">
+      <c r="O110" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="P110" s="22"/>
-      <c r="Q110" s="22"/>
-      <c r="R110" s="22"/>
-      <c r="S110" s="22"/>
-      <c r="T110" s="22"/>
-      <c r="U110" s="22"/>
-      <c r="V110" s="22"/>
-      <c r="W110" s="22"/>
-      <c r="X110" s="22"/>
-      <c r="Y110" s="22"/>
-      <c r="Z110" s="22"/>
-      <c r="AA110" s="22"/>
-      <c r="AB110" s="22"/>
-      <c r="AC110" s="22"/>
-      <c r="AD110" s="22"/>
-      <c r="AE110" s="22"/>
-      <c r="AF110" s="22"/>
-      <c r="AG110" s="22"/>
-      <c r="AH110" s="22"/>
-      <c r="AI110" s="22"/>
-      <c r="AJ110" s="22"/>
-      <c r="AK110" s="22"/>
-      <c r="AL110" s="22"/>
-      <c r="AM110" s="22"/>
-      <c r="AN110" s="22"/>
-      <c r="AO110" s="22"/>
-      <c r="AP110" s="22"/>
-      <c r="AQ110" s="22"/>
-      <c r="AR110" s="22"/>
-      <c r="AS110" s="22"/>
-      <c r="AT110" s="22"/>
-      <c r="AU110" s="22"/>
-      <c r="AV110" s="22"/>
-      <c r="AW110" s="22"/>
-      <c r="AX110" s="22"/>
-      <c r="AY110" s="22"/>
-      <c r="AZ110" s="22"/>
-      <c r="BA110" s="22"/>
-      <c r="BB110" s="22"/>
-      <c r="BC110" s="22"/>
-      <c r="BD110" s="22"/>
-      <c r="BE110" s="22"/>
-      <c r="BF110" s="22"/>
-      <c r="BG110" s="22"/>
-      <c r="BH110" s="22"/>
-      <c r="BI110" s="22"/>
-      <c r="BJ110" s="22"/>
-      <c r="BK110" s="22"/>
-      <c r="BL110" s="22"/>
-      <c r="BM110" s="22"/>
-      <c r="BN110" s="22"/>
     </row>
     <row r="111" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B111" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C111" s="6" t="s">
-        <v>94</v>
+      <c r="C111" s="23" t="s">
+        <v>158</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>12</v>
@@ -30802,7 +30784,7 @@
         <v>151</v>
       </c>
       <c r="G111" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H111" s="59" t="s">
         <v>227</v>
@@ -30814,19 +30796,19 @@
         <v>7</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L111" s="10">
-        <v>1003</v>
-      </c>
-      <c r="M111" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="N111" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="O111" s="31" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="L111" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M111" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="N111" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O111" s="48" t="s">
+        <v>12</v>
       </c>
       <c r="P111" s="22"/>
       <c r="Q111" s="22"/>
@@ -30880,15 +30862,15 @@
       <c r="BM111" s="22"/>
       <c r="BN111" s="22"/>
     </row>
-    <row r="112" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B112" s="31" t="s">
         <v>144</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>12</v>
@@ -30912,13 +30894,13 @@
         <v>7</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L112" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M112" s="31" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N112" s="31" t="s">
         <v>145</v>
@@ -30978,15 +30960,15 @@
       <c r="BM112" s="22"/>
       <c r="BN112" s="22"/>
     </row>
-    <row r="113" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B113" s="31" t="s">
         <v>144</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>12</v>
@@ -31010,13 +30992,13 @@
         <v>7</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L113" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M113" s="31" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N113" s="31" t="s">
         <v>145</v>
@@ -31076,26 +31058,26 @@
       <c r="BM113" s="22"/>
       <c r="BN113" s="22"/>
     </row>
-    <row r="114" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B114" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C114" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="D114" s="54" t="s">
+      <c r="C114" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E114" s="54" t="s">
+      <c r="E114" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F114" s="54" t="s">
+      <c r="F114" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G114" s="55">
+      <c r="G114" s="24">
         <v>400</v>
       </c>
       <c r="H114" s="59" t="s">
@@ -31104,23 +31086,23 @@
       <c r="I114" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J114" s="54" t="s">
+      <c r="J114" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K114" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="L114" s="54">
-        <v>1015</v>
-      </c>
-      <c r="M114" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="N114" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="O114" s="64" t="s">
-        <v>12</v>
+      <c r="K114" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L114" s="10">
+        <v>1005</v>
+      </c>
+      <c r="M114" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N114" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="O114" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="P114" s="22"/>
       <c r="Q114" s="22"/>
@@ -31174,27 +31156,27 @@
       <c r="BM114" s="22"/>
       <c r="BN114" s="22"/>
     </row>
-    <row r="115" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B115" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D115" s="4" t="s">
+      <c r="C115" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D115" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="G115" s="24">
-        <v>404</v>
+      <c r="G115" s="55">
+        <v>400</v>
       </c>
       <c r="H115" s="59" t="s">
         <v>227</v>
@@ -31202,85 +31184,85 @@
       <c r="I115" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J115" s="4" t="s">
+      <c r="J115" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K115" s="4" t="s">
+      <c r="K115" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L115" s="10">
-        <v>1006</v>
-      </c>
-      <c r="M115" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="N115" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="O115" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="P115" s="21"/>
-      <c r="Q115" s="21"/>
-      <c r="R115" s="21"/>
-      <c r="S115" s="21"/>
-      <c r="T115" s="21"/>
-      <c r="U115" s="21"/>
-      <c r="V115" s="21"/>
-      <c r="W115" s="21"/>
-      <c r="X115" s="21"/>
-      <c r="Y115" s="21"/>
-      <c r="Z115" s="21"/>
-      <c r="AA115" s="21"/>
-      <c r="AB115" s="21"/>
-      <c r="AC115" s="21"/>
-      <c r="AD115" s="21"/>
-      <c r="AE115" s="21"/>
-      <c r="AF115" s="21"/>
-      <c r="AG115" s="21"/>
-      <c r="AH115" s="21"/>
-      <c r="AI115" s="21"/>
-      <c r="AJ115" s="21"/>
-      <c r="AK115" s="21"/>
-      <c r="AL115" s="21"/>
-      <c r="AM115" s="21"/>
-      <c r="AN115" s="21"/>
-      <c r="AO115" s="21"/>
-      <c r="AP115" s="21"/>
-      <c r="AQ115" s="21"/>
-      <c r="AR115" s="21"/>
-      <c r="AS115" s="21"/>
-      <c r="AT115" s="21"/>
-      <c r="AU115" s="21"/>
-      <c r="AV115" s="21"/>
-      <c r="AW115" s="21"/>
-      <c r="AX115" s="21"/>
-      <c r="AY115" s="21"/>
-      <c r="AZ115" s="21"/>
-      <c r="BA115" s="21"/>
-      <c r="BB115" s="21"/>
-      <c r="BC115" s="21"/>
-      <c r="BD115" s="21"/>
-      <c r="BE115" s="21"/>
-      <c r="BF115" s="21"/>
-      <c r="BG115" s="21"/>
-      <c r="BH115" s="21"/>
-      <c r="BI115" s="21"/>
-      <c r="BJ115" s="21"/>
-      <c r="BK115" s="21"/>
-      <c r="BL115" s="21"/>
-      <c r="BM115" s="21"/>
-      <c r="BN115" s="21"/>
-    </row>
-    <row r="116" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L115" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M115" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="N115" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="O115" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="P115" s="22"/>
+      <c r="Q115" s="22"/>
+      <c r="R115" s="22"/>
+      <c r="S115" s="22"/>
+      <c r="T115" s="22"/>
+      <c r="U115" s="22"/>
+      <c r="V115" s="22"/>
+      <c r="W115" s="22"/>
+      <c r="X115" s="22"/>
+      <c r="Y115" s="22"/>
+      <c r="Z115" s="22"/>
+      <c r="AA115" s="22"/>
+      <c r="AB115" s="22"/>
+      <c r="AC115" s="22"/>
+      <c r="AD115" s="22"/>
+      <c r="AE115" s="22"/>
+      <c r="AF115" s="22"/>
+      <c r="AG115" s="22"/>
+      <c r="AH115" s="22"/>
+      <c r="AI115" s="22"/>
+      <c r="AJ115" s="22"/>
+      <c r="AK115" s="22"/>
+      <c r="AL115" s="22"/>
+      <c r="AM115" s="22"/>
+      <c r="AN115" s="22"/>
+      <c r="AO115" s="22"/>
+      <c r="AP115" s="22"/>
+      <c r="AQ115" s="22"/>
+      <c r="AR115" s="22"/>
+      <c r="AS115" s="22"/>
+      <c r="AT115" s="22"/>
+      <c r="AU115" s="22"/>
+      <c r="AV115" s="22"/>
+      <c r="AW115" s="22"/>
+      <c r="AX115" s="22"/>
+      <c r="AY115" s="22"/>
+      <c r="AZ115" s="22"/>
+      <c r="BA115" s="22"/>
+      <c r="BB115" s="22"/>
+      <c r="BC115" s="22"/>
+      <c r="BD115" s="22"/>
+      <c r="BE115" s="22"/>
+      <c r="BF115" s="22"/>
+      <c r="BG115" s="22"/>
+      <c r="BH115" s="22"/>
+      <c r="BI115" s="22"/>
+      <c r="BJ115" s="22"/>
+      <c r="BK115" s="22"/>
+      <c r="BL115" s="22"/>
+      <c r="BM115" s="22"/>
+      <c r="BN115" s="22"/>
+    </row>
+    <row r="116" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B116" s="31" t="s">
         <v>144</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>12</v>
@@ -31304,13 +31286,13 @@
         <v>7</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L116" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M116" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N116" s="31" t="s">
         <v>145</v>
@@ -31318,16 +31300,67 @@
       <c r="O116" s="31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="117" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="P116" s="21"/>
+      <c r="Q116" s="21"/>
+      <c r="R116" s="21"/>
+      <c r="S116" s="21"/>
+      <c r="T116" s="21"/>
+      <c r="U116" s="21"/>
+      <c r="V116" s="21"/>
+      <c r="W116" s="21"/>
+      <c r="X116" s="21"/>
+      <c r="Y116" s="21"/>
+      <c r="Z116" s="21"/>
+      <c r="AA116" s="21"/>
+      <c r="AB116" s="21"/>
+      <c r="AC116" s="21"/>
+      <c r="AD116" s="21"/>
+      <c r="AE116" s="21"/>
+      <c r="AF116" s="21"/>
+      <c r="AG116" s="21"/>
+      <c r="AH116" s="21"/>
+      <c r="AI116" s="21"/>
+      <c r="AJ116" s="21"/>
+      <c r="AK116" s="21"/>
+      <c r="AL116" s="21"/>
+      <c r="AM116" s="21"/>
+      <c r="AN116" s="21"/>
+      <c r="AO116" s="21"/>
+      <c r="AP116" s="21"/>
+      <c r="AQ116" s="21"/>
+      <c r="AR116" s="21"/>
+      <c r="AS116" s="21"/>
+      <c r="AT116" s="21"/>
+      <c r="AU116" s="21"/>
+      <c r="AV116" s="21"/>
+      <c r="AW116" s="21"/>
+      <c r="AX116" s="21"/>
+      <c r="AY116" s="21"/>
+      <c r="AZ116" s="21"/>
+      <c r="BA116" s="21"/>
+      <c r="BB116" s="21"/>
+      <c r="BC116" s="21"/>
+      <c r="BD116" s="21"/>
+      <c r="BE116" s="21"/>
+      <c r="BF116" s="21"/>
+      <c r="BG116" s="21"/>
+      <c r="BH116" s="21"/>
+      <c r="BI116" s="21"/>
+      <c r="BJ116" s="21"/>
+      <c r="BK116" s="21"/>
+      <c r="BL116" s="21"/>
+      <c r="BM116" s="21"/>
+      <c r="BN116" s="21"/>
+    </row>
+    <row r="117" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B117" s="31" t="s">
         <v>144</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>12</v>
@@ -31339,7 +31372,7 @@
         <v>151</v>
       </c>
       <c r="G117" s="24">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H117" s="59" t="s">
         <v>227</v>
@@ -31354,10 +31387,10 @@
         <v>35</v>
       </c>
       <c r="L117" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M117" s="31" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N117" s="31" t="s">
         <v>145</v>
@@ -31366,15 +31399,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A118" s="27">
-        <v>141</v>
+    <row r="118" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>94</v>
       </c>
       <c r="B118" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C118" s="85" t="s">
-        <v>240</v>
+      <c r="C118" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>12</v>
@@ -31382,11 +31415,11 @@
       <c r="E118" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F118" s="27" t="s">
-        <v>152</v>
+      <c r="F118" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="G118" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H118" s="59" t="s">
         <v>227</v>
@@ -31400,91 +31433,40 @@
       <c r="K118" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L118" s="27">
-        <v>3013</v>
-      </c>
-      <c r="M118" s="85" t="s">
-        <v>241</v>
+      <c r="L118" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M118" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="N118" s="31" t="s">
         <v>145</v>
       </c>
       <c r="O118" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="P118" s="21"/>
-      <c r="Q118" s="21"/>
-      <c r="R118" s="21"/>
-      <c r="S118" s="21"/>
-      <c r="T118" s="21"/>
-      <c r="U118" s="21"/>
-      <c r="V118" s="21"/>
-      <c r="W118" s="21"/>
-      <c r="X118" s="21"/>
-      <c r="Y118" s="21"/>
-      <c r="Z118" s="21"/>
-      <c r="AA118" s="21"/>
-      <c r="AB118" s="21"/>
-      <c r="AC118" s="21"/>
-      <c r="AD118" s="21"/>
-      <c r="AE118" s="21"/>
-      <c r="AF118" s="21"/>
-      <c r="AG118" s="21"/>
-      <c r="AH118" s="21"/>
-      <c r="AI118" s="21"/>
-      <c r="AJ118" s="21"/>
-      <c r="AK118" s="21"/>
-      <c r="AL118" s="21"/>
-      <c r="AM118" s="21"/>
-      <c r="AN118" s="21"/>
-      <c r="AO118" s="21"/>
-      <c r="AP118" s="21"/>
-      <c r="AQ118" s="21"/>
-      <c r="AR118" s="21"/>
-      <c r="AS118" s="21"/>
-      <c r="AT118" s="21"/>
-      <c r="AU118" s="21"/>
-      <c r="AV118" s="21"/>
-      <c r="AW118" s="21"/>
-      <c r="AX118" s="21"/>
-      <c r="AY118" s="21"/>
-      <c r="AZ118" s="21"/>
-      <c r="BA118" s="21"/>
-      <c r="BB118" s="21"/>
-      <c r="BC118" s="21"/>
-      <c r="BD118" s="21"/>
-      <c r="BE118" s="21"/>
-      <c r="BF118" s="21"/>
-      <c r="BG118" s="21"/>
-      <c r="BH118" s="21"/>
-      <c r="BI118" s="21"/>
-      <c r="BJ118" s="21"/>
-      <c r="BK118" s="21"/>
-      <c r="BL118" s="21"/>
-      <c r="BM118" s="21"/>
-      <c r="BN118" s="21"/>
-    </row>
-    <row r="119" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
-        <v>95</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A119" s="27">
+        <v>141</v>
       </c>
       <c r="B119" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D119" s="24" t="s">
+      <c r="C119" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>151</v>
+      <c r="F119" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="G119" s="24">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H119" s="59" t="s">
         <v>227</v>
@@ -31496,32 +31478,83 @@
         <v>7</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L119" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M119" s="33" t="s">
-        <v>213</v>
+        <v>35</v>
+      </c>
+      <c r="L119" s="27">
+        <v>3013</v>
+      </c>
+      <c r="M119" s="85" t="s">
+        <v>241</v>
       </c>
       <c r="N119" s="31" t="s">
         <v>145</v>
       </c>
       <c r="O119" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="P119" s="21"/>
+      <c r="Q119" s="21"/>
+      <c r="R119" s="21"/>
+      <c r="S119" s="21"/>
+      <c r="T119" s="21"/>
+      <c r="U119" s="21"/>
+      <c r="V119" s="21"/>
+      <c r="W119" s="21"/>
+      <c r="X119" s="21"/>
+      <c r="Y119" s="21"/>
+      <c r="Z119" s="21"/>
+      <c r="AA119" s="21"/>
+      <c r="AB119" s="21"/>
+      <c r="AC119" s="21"/>
+      <c r="AD119" s="21"/>
+      <c r="AE119" s="21"/>
+      <c r="AF119" s="21"/>
+      <c r="AG119" s="21"/>
+      <c r="AH119" s="21"/>
+      <c r="AI119" s="21"/>
+      <c r="AJ119" s="21"/>
+      <c r="AK119" s="21"/>
+      <c r="AL119" s="21"/>
+      <c r="AM119" s="21"/>
+      <c r="AN119" s="21"/>
+      <c r="AO119" s="21"/>
+      <c r="AP119" s="21"/>
+      <c r="AQ119" s="21"/>
+      <c r="AR119" s="21"/>
+      <c r="AS119" s="21"/>
+      <c r="AT119" s="21"/>
+      <c r="AU119" s="21"/>
+      <c r="AV119" s="21"/>
+      <c r="AW119" s="21"/>
+      <c r="AX119" s="21"/>
+      <c r="AY119" s="21"/>
+      <c r="AZ119" s="21"/>
+      <c r="BA119" s="21"/>
+      <c r="BB119" s="21"/>
+      <c r="BC119" s="21"/>
+      <c r="BD119" s="21"/>
+      <c r="BE119" s="21"/>
+      <c r="BF119" s="21"/>
+      <c r="BG119" s="21"/>
+      <c r="BH119" s="21"/>
+      <c r="BI119" s="21"/>
+      <c r="BJ119" s="21"/>
+      <c r="BK119" s="21"/>
+      <c r="BL119" s="21"/>
+      <c r="BM119" s="21"/>
+      <c r="BN119" s="21"/>
+    </row>
+    <row r="120" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B120" s="31" t="s">
         <v>144</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D120" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D120" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E120" s="4" t="s">
@@ -31531,7 +31564,7 @@
         <v>151</v>
       </c>
       <c r="G120" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H120" s="59" t="s">
         <v>227</v>
@@ -31545,178 +31578,178 @@
       <c r="K120" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L120" s="10">
-        <v>4001</v>
-      </c>
-      <c r="M120" s="31" t="s">
-        <v>19</v>
+      <c r="L120" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M120" s="33" t="s">
+        <v>213</v>
       </c>
       <c r="N120" s="31" t="s">
         <v>145</v>
       </c>
       <c r="O120" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="P120" s="22"/>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="22"/>
-      <c r="S120" s="22"/>
-      <c r="T120" s="22"/>
-      <c r="U120" s="22"/>
-      <c r="V120" s="22"/>
-      <c r="W120" s="22"/>
-      <c r="X120" s="22"/>
-      <c r="Y120" s="22"/>
-      <c r="Z120" s="22"/>
-      <c r="AA120" s="22"/>
-      <c r="AB120" s="22"/>
-      <c r="AC120" s="22"/>
-      <c r="AD120" s="22"/>
-      <c r="AE120" s="22"/>
-      <c r="AF120" s="22"/>
-      <c r="AG120" s="22"/>
-      <c r="AH120" s="22"/>
-      <c r="AI120" s="22"/>
-      <c r="AJ120" s="22"/>
-      <c r="AK120" s="22"/>
-      <c r="AL120" s="22"/>
-      <c r="AM120" s="22"/>
-      <c r="AN120" s="22"/>
-      <c r="AO120" s="22"/>
-      <c r="AP120" s="22"/>
-      <c r="AQ120" s="22"/>
-      <c r="AR120" s="22"/>
-      <c r="AS120" s="22"/>
-      <c r="AT120" s="22"/>
-      <c r="AU120" s="22"/>
-      <c r="AV120" s="22"/>
-      <c r="AW120" s="22"/>
-      <c r="AX120" s="22"/>
-      <c r="AY120" s="22"/>
-      <c r="AZ120" s="22"/>
-      <c r="BA120" s="22"/>
-      <c r="BB120" s="22"/>
-      <c r="BC120" s="22"/>
-      <c r="BD120" s="22"/>
-      <c r="BE120" s="22"/>
-      <c r="BF120" s="22"/>
-      <c r="BG120" s="22"/>
-      <c r="BH120" s="22"/>
-      <c r="BI120" s="22"/>
-      <c r="BJ120" s="22"/>
-      <c r="BK120" s="22"/>
-      <c r="BL120" s="22"/>
-      <c r="BM120" s="22"/>
-      <c r="BN120" s="22"/>
-    </row>
-    <row r="121" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A121" s="27">
-        <v>142</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>96</v>
       </c>
       <c r="B121" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C121" s="85" t="s">
+      <c r="C121" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G121" s="24">
+        <v>400</v>
+      </c>
+      <c r="H121" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="I121" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L121" s="10">
+        <v>4001</v>
+      </c>
+      <c r="M121" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N121" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="O121" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P121" s="22"/>
+      <c r="Q121" s="22"/>
+      <c r="R121" s="22"/>
+      <c r="S121" s="22"/>
+      <c r="T121" s="22"/>
+      <c r="U121" s="22"/>
+      <c r="V121" s="22"/>
+      <c r="W121" s="22"/>
+      <c r="X121" s="22"/>
+      <c r="Y121" s="22"/>
+      <c r="Z121" s="22"/>
+      <c r="AA121" s="22"/>
+      <c r="AB121" s="22"/>
+      <c r="AC121" s="22"/>
+      <c r="AD121" s="22"/>
+      <c r="AE121" s="22"/>
+      <c r="AF121" s="22"/>
+      <c r="AG121" s="22"/>
+      <c r="AH121" s="22"/>
+      <c r="AI121" s="22"/>
+      <c r="AJ121" s="22"/>
+      <c r="AK121" s="22"/>
+      <c r="AL121" s="22"/>
+      <c r="AM121" s="22"/>
+      <c r="AN121" s="22"/>
+      <c r="AO121" s="22"/>
+      <c r="AP121" s="22"/>
+      <c r="AQ121" s="22"/>
+      <c r="AR121" s="22"/>
+      <c r="AS121" s="22"/>
+      <c r="AT121" s="22"/>
+      <c r="AU121" s="22"/>
+      <c r="AV121" s="22"/>
+      <c r="AW121" s="22"/>
+      <c r="AX121" s="22"/>
+      <c r="AY121" s="22"/>
+      <c r="AZ121" s="22"/>
+      <c r="BA121" s="22"/>
+      <c r="BB121" s="22"/>
+      <c r="BC121" s="22"/>
+      <c r="BD121" s="22"/>
+      <c r="BE121" s="22"/>
+      <c r="BF121" s="22"/>
+      <c r="BG121" s="22"/>
+      <c r="BH121" s="22"/>
+      <c r="BI121" s="22"/>
+      <c r="BJ121" s="22"/>
+      <c r="BK121" s="22"/>
+      <c r="BL121" s="22"/>
+      <c r="BM121" s="22"/>
+      <c r="BN121" s="22"/>
+    </row>
+    <row r="122" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A122" s="27">
+        <v>142</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122" s="85" t="s">
         <v>248</v>
       </c>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="66">
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="66">
         <v>413</v>
       </c>
-      <c r="H121" s="66" t="s">
+      <c r="H122" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="I121" s="66"/>
-      <c r="J121" s="59" t="s">
+      <c r="I122" s="66"/>
+      <c r="J122" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K121" s="27"/>
-      <c r="L121" s="27"/>
-      <c r="M121" s="85" t="s">
+      <c r="K122" s="27"/>
+      <c r="L122" s="27"/>
+      <c r="M122" s="85" t="s">
         <v>248</v>
       </c>
-      <c r="N121" s="34"/>
-      <c r="O121" s="34"/>
-    </row>
-    <row r="122" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A122" s="98" t="s">
+      <c r="N122" s="34"/>
+      <c r="O122" s="34"/>
+    </row>
+    <row r="123" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A123" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="B122" s="98"/>
-      <c r="C122" s="98"/>
-      <c r="D122" s="98"/>
-      <c r="E122" s="98"/>
-      <c r="F122" s="98"/>
-      <c r="G122" s="98"/>
-      <c r="H122" s="98"/>
-      <c r="I122" s="98"/>
-      <c r="J122" s="98"/>
-      <c r="K122" s="98"/>
-      <c r="L122" s="98"/>
-      <c r="M122" s="98"/>
-      <c r="N122" s="98"/>
-      <c r="O122" s="98"/>
-    </row>
-    <row r="123" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
-        <v>97</v>
-      </c>
-      <c r="B123" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G123" s="39">
-        <v>200</v>
-      </c>
-      <c r="H123" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="I123" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="J123" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K123" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L123" s="8">
-        <v>4002</v>
-      </c>
-      <c r="M123" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="N123" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="O123" s="32" t="s">
-        <v>69</v>
-      </c>
+      <c r="B123" s="99"/>
+      <c r="C123" s="99"/>
+      <c r="D123" s="99"/>
+      <c r="E123" s="99"/>
+      <c r="F123" s="99"/>
+      <c r="G123" s="99"/>
+      <c r="H123" s="99"/>
+      <c r="I123" s="99"/>
+      <c r="J123" s="99"/>
+      <c r="K123" s="99"/>
+      <c r="L123" s="99"/>
+      <c r="M123" s="99"/>
+      <c r="N123" s="99"/>
+      <c r="O123" s="99"/>
     </row>
     <row r="124" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B124" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C124" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D124" s="27" t="s">
+      <c r="C124" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E124" s="5" t="s">
@@ -31728,8 +31761,8 @@
       <c r="G124" s="39">
         <v>200</v>
       </c>
-      <c r="H124" s="39" t="s">
-        <v>227</v>
+      <c r="H124" s="24" t="s">
+        <v>228</v>
       </c>
       <c r="I124" s="24" t="s">
         <v>239</v>
@@ -31737,31 +31770,31 @@
       <c r="J124" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K124" s="27" t="s">
+      <c r="K124" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L124" s="27">
-        <v>4003</v>
+      <c r="L124" s="8">
+        <v>4002</v>
       </c>
       <c r="M124" s="33" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="N124" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="O124" s="34" t="s">
-        <v>1</v>
+      <c r="O124" s="32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B125" s="32" t="s">
         <v>144</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="D125" s="27" t="s">
         <v>12</v>
@@ -31775,8 +31808,8 @@
       <c r="G125" s="39">
         <v>200</v>
       </c>
-      <c r="H125" s="39" t="s">
-        <v>227</v>
+      <c r="H125" s="24" t="s">
+        <v>228</v>
       </c>
       <c r="I125" s="24" t="s">
         <v>239</v>
@@ -31788,87 +31821,115 @@
         <v>35</v>
       </c>
       <c r="L125" s="27">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="M125" s="33" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="N125" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="O125" s="32" t="s">
-        <v>195</v>
+      <c r="O125" s="34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B126" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D126" s="4">
-        <v>8</v>
-      </c>
-      <c r="E126" s="24" t="s">
+      <c r="C126" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D126" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F126" s="24" t="s">
+      <c r="F126" s="5" t="s">
         <v>151</v>
       </c>
       <c r="G126" s="39">
         <v>200</v>
       </c>
-      <c r="H126" s="39" t="s">
-        <v>227</v>
+      <c r="H126" s="24" t="s">
+        <v>228</v>
       </c>
       <c r="I126" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="J126" s="4" t="s">
+      <c r="J126" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K126" s="4" t="s">
+      <c r="K126" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L126" s="27">
+        <v>4004</v>
+      </c>
+      <c r="M126" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="N126" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="O126" s="32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>99</v>
+      </c>
+      <c r="B127" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D127" s="4">
+        <v>8</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G127" s="39">
+        <v>200</v>
+      </c>
+      <c r="H127" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="I127" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L126" s="4">
+      <c r="L127" s="4">
         <v>1010</v>
       </c>
-      <c r="M126" s="31" t="s">
+      <c r="M127" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N126" s="31" t="s">
+      <c r="N127" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="O126" s="31" t="s">
+      <c r="O127" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="97" t="s">
+    <row r="128" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="98" t="s">
         <v>184</v>
-      </c>
-      <c r="B127" s="97"/>
-      <c r="C127" s="97"/>
-      <c r="D127" s="97"/>
-      <c r="E127" s="97"/>
-      <c r="F127" s="97"/>
-      <c r="G127" s="97"/>
-      <c r="H127" s="97"/>
-      <c r="I127" s="97"/>
-      <c r="J127" s="97"/>
-      <c r="K127" s="97"/>
-      <c r="L127" s="97"/>
-      <c r="M127" s="97"/>
-      <c r="N127" s="97"/>
-      <c r="O127" s="97"/>
-    </row>
-    <row r="128" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A128" s="98" t="s">
-        <v>157</v>
       </c>
       <c r="B128" s="98"/>
       <c r="C128" s="98"/>
@@ -31885,160 +31946,132 @@
       <c r="N128" s="98"/>
       <c r="O128" s="98"/>
     </row>
-    <row r="129" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="94">
+    <row r="129" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A129" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="99"/>
+      <c r="C129" s="99"/>
+      <c r="D129" s="99"/>
+      <c r="E129" s="99"/>
+      <c r="F129" s="99"/>
+      <c r="G129" s="99"/>
+      <c r="H129" s="99"/>
+      <c r="I129" s="99"/>
+      <c r="J129" s="99"/>
+      <c r="K129" s="99"/>
+      <c r="L129" s="99"/>
+      <c r="M129" s="99"/>
+      <c r="N129" s="99"/>
+      <c r="O129" s="99"/>
+    </row>
+    <row r="130" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="94">
         <v>146</v>
-      </c>
-      <c r="B129" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C129" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="D129" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="F129" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="G129" s="94">
-        <v>403</v>
-      </c>
-      <c r="H129" s="94" t="s">
-        <v>227</v>
-      </c>
-      <c r="I129" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J129" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="K129" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="L129" s="94">
-        <v>1016</v>
-      </c>
-      <c r="M129" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="N129" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="O129" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="P129" s="21"/>
-      <c r="Q129" s="21"/>
-      <c r="R129" s="21"/>
-      <c r="S129" s="21"/>
-      <c r="T129" s="21"/>
-      <c r="U129" s="21"/>
-      <c r="V129" s="21"/>
-      <c r="W129" s="21"/>
-      <c r="X129" s="21"/>
-      <c r="Y129" s="21"/>
-      <c r="Z129" s="21"/>
-      <c r="AA129" s="21"/>
-      <c r="AB129" s="21"/>
-      <c r="AC129" s="21"/>
-      <c r="AD129" s="21"/>
-      <c r="AE129" s="21"/>
-      <c r="AF129" s="21"/>
-      <c r="AG129" s="21"/>
-      <c r="AH129" s="21"/>
-      <c r="AI129" s="21"/>
-      <c r="AJ129" s="21"/>
-      <c r="AK129" s="21"/>
-      <c r="AL129" s="21"/>
-      <c r="AM129" s="21"/>
-      <c r="AN129" s="21"/>
-      <c r="AO129" s="21"/>
-      <c r="AP129" s="21"/>
-      <c r="AQ129" s="21"/>
-      <c r="AR129" s="21"/>
-      <c r="AS129" s="21"/>
-      <c r="AT129" s="21"/>
-      <c r="AU129" s="21"/>
-      <c r="AV129" s="21"/>
-      <c r="AW129" s="21"/>
-      <c r="AX129" s="21"/>
-      <c r="AY129" s="21"/>
-      <c r="AZ129" s="21"/>
-      <c r="BA129" s="21"/>
-      <c r="BB129" s="21"/>
-      <c r="BC129" s="21"/>
-      <c r="BD129" s="21"/>
-      <c r="BE129" s="21"/>
-      <c r="BF129" s="21"/>
-      <c r="BG129" s="21"/>
-      <c r="BH129" s="21"/>
-      <c r="BI129" s="21"/>
-      <c r="BJ129" s="21"/>
-      <c r="BK129" s="21"/>
-      <c r="BL129" s="21"/>
-      <c r="BM129" s="21"/>
-      <c r="BN129" s="21"/>
-    </row>
-    <row r="130" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
-        <v>102</v>
       </c>
       <c r="B130" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C130" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="D130" s="4" t="s">
+      <c r="C130" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="D130" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E130" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="G130" s="24">
-        <v>401</v>
-      </c>
-      <c r="H130" s="66" t="s">
+      <c r="G130" s="94">
+        <v>403</v>
+      </c>
+      <c r="H130" s="94" t="s">
         <v>227</v>
       </c>
       <c r="I130" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J130" s="4" t="s">
+      <c r="J130" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K130" s="4" t="s">
+      <c r="K130" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="L130" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M130" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="N130" s="33" t="s">
+      <c r="L130" s="94">
+        <v>1016</v>
+      </c>
+      <c r="M130" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="N130" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="O130" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="O130" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P130" s="21"/>
+      <c r="Q130" s="21"/>
+      <c r="R130" s="21"/>
+      <c r="S130" s="21"/>
+      <c r="T130" s="21"/>
+      <c r="U130" s="21"/>
+      <c r="V130" s="21"/>
+      <c r="W130" s="21"/>
+      <c r="X130" s="21"/>
+      <c r="Y130" s="21"/>
+      <c r="Z130" s="21"/>
+      <c r="AA130" s="21"/>
+      <c r="AB130" s="21"/>
+      <c r="AC130" s="21"/>
+      <c r="AD130" s="21"/>
+      <c r="AE130" s="21"/>
+      <c r="AF130" s="21"/>
+      <c r="AG130" s="21"/>
+      <c r="AH130" s="21"/>
+      <c r="AI130" s="21"/>
+      <c r="AJ130" s="21"/>
+      <c r="AK130" s="21"/>
+      <c r="AL130" s="21"/>
+      <c r="AM130" s="21"/>
+      <c r="AN130" s="21"/>
+      <c r="AO130" s="21"/>
+      <c r="AP130" s="21"/>
+      <c r="AQ130" s="21"/>
+      <c r="AR130" s="21"/>
+      <c r="AS130" s="21"/>
+      <c r="AT130" s="21"/>
+      <c r="AU130" s="21"/>
+      <c r="AV130" s="21"/>
+      <c r="AW130" s="21"/>
+      <c r="AX130" s="21"/>
+      <c r="AY130" s="21"/>
+      <c r="AZ130" s="21"/>
+      <c r="BA130" s="21"/>
+      <c r="BB130" s="21"/>
+      <c r="BC130" s="21"/>
+      <c r="BD130" s="21"/>
+      <c r="BE130" s="21"/>
+      <c r="BF130" s="21"/>
+      <c r="BG130" s="21"/>
+      <c r="BH130" s="21"/>
+      <c r="BI130" s="21"/>
+      <c r="BJ130" s="21"/>
+      <c r="BK130" s="21"/>
+      <c r="BL130" s="21"/>
+      <c r="BM130" s="21"/>
+      <c r="BN130" s="21"/>
+    </row>
+    <row r="131" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B131" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C131" s="23" t="s">
-        <v>158</v>
+      <c r="C131" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>12</v>
@@ -32065,39 +32098,39 @@
         <v>38</v>
       </c>
       <c r="L131" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M131" s="23" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N131" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O131" s="48" t="s">
+      <c r="O131" s="50" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B132" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D132" s="24">
-        <v>201</v>
-      </c>
-      <c r="E132" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F132" s="24" t="s">
+      <c r="F132" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G132" s="45">
-        <v>400</v>
+      <c r="G132" s="24">
+        <v>401</v>
       </c>
       <c r="H132" s="66" t="s">
         <v>227</v>
@@ -32105,34 +32138,34 @@
       <c r="I132" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J132" s="24" t="s">
+      <c r="J132" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K132" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="L132" s="41">
-        <v>1003</v>
-      </c>
-      <c r="M132" s="33" t="s">
-        <v>14</v>
+      <c r="K132" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L132" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M132" s="23" t="s">
+        <v>158</v>
       </c>
       <c r="N132" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="O132" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="133" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="O132" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B133" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="D133" s="24">
         <v>201</v>
@@ -32156,13 +32189,13 @@
         <v>7</v>
       </c>
       <c r="K133" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L133" s="25">
-        <v>1004</v>
+        <v>35</v>
+      </c>
+      <c r="L133" s="41">
+        <v>1003</v>
       </c>
       <c r="M133" s="33" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N133" s="33" t="s">
         <v>62</v>
@@ -32171,26 +32204,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B134" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C134" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="D134" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" s="54" t="s">
+      <c r="C134" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D134" s="24">
+        <v>201</v>
+      </c>
+      <c r="E134" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F134" s="54" t="s">
+      <c r="F134" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G134" s="55">
+      <c r="G134" s="45">
         <v>400</v>
       </c>
       <c r="H134" s="66" t="s">
@@ -32199,46 +32232,46 @@
       <c r="I134" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J134" s="54" t="s">
+      <c r="J134" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K134" s="55" t="s">
+      <c r="K134" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L134" s="54">
-        <v>1015</v>
-      </c>
-      <c r="M134" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="N134" s="53" t="s">
+      <c r="L134" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M134" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N134" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="O134" s="64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="O134" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B135" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C135" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D135" s="24">
-        <v>202</v>
-      </c>
-      <c r="E135" s="24" t="s">
+      <c r="C135" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D135" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="F135" s="24" t="s">
+      <c r="F135" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="G135" s="45">
-        <v>403</v>
+      <c r="G135" s="55">
+        <v>400</v>
       </c>
       <c r="H135" s="66" t="s">
         <v>227</v>
@@ -32246,34 +32279,34 @@
       <c r="I135" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J135" s="24" t="s">
+      <c r="J135" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K135" s="24" t="s">
+      <c r="K135" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L135" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M135" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="N135" s="33" t="s">
+      <c r="L135" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M135" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="N135" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="O135" s="31" t="s">
-        <v>66</v>
+      <c r="O135" s="64" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B136" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D136" s="24">
         <v>202</v>
@@ -32297,13 +32330,13 @@
         <v>7</v>
       </c>
       <c r="K136" s="24" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L136" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M136" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N136" s="33" t="s">
         <v>62</v>
@@ -32312,15 +32345,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B137" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D137" s="24">
         <v>202</v>
@@ -32331,7 +32364,7 @@
       <c r="F137" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G137" s="24">
+      <c r="G137" s="45">
         <v>403</v>
       </c>
       <c r="H137" s="66" t="s">
@@ -32347,10 +32380,10 @@
         <v>35</v>
       </c>
       <c r="L137" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M137" s="33" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N137" s="33" t="s">
         <v>62</v>
@@ -32361,13 +32394,13 @@
     </row>
     <row r="138" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B138" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="D138" s="24">
         <v>202</v>
@@ -32393,11 +32426,11 @@
       <c r="K138" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L138" s="66">
-        <v>5001</v>
+      <c r="L138" s="25">
+        <v>1008</v>
       </c>
       <c r="M138" s="33" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="N138" s="33" t="s">
         <v>62</v>
@@ -32406,15 +32439,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B139" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="D139" s="24">
         <v>202</v>
@@ -32425,7 +32458,7 @@
       <c r="F139" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G139" s="45">
+      <c r="G139" s="24">
         <v>403</v>
       </c>
       <c r="H139" s="66" t="s">
@@ -32438,42 +32471,42 @@
         <v>7</v>
       </c>
       <c r="K139" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L139" s="24">
-        <v>1011</v>
+        <v>35</v>
+      </c>
+      <c r="L139" s="66">
+        <v>5001</v>
       </c>
       <c r="M139" s="33" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="N139" s="33" t="s">
         <v>62</v>
       </c>
       <c r="O139" s="31" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="140" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B140" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D140" s="4">
-        <v>203</v>
-      </c>
-      <c r="E140" s="4" t="s">
+      <c r="C140" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D140" s="24">
+        <v>202</v>
+      </c>
+      <c r="E140" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F140" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G140" s="24">
-        <v>400</v>
+      <c r="G140" s="45">
+        <v>403</v>
       </c>
       <c r="H140" s="66" t="s">
         <v>227</v>
@@ -32481,34 +32514,34 @@
       <c r="I140" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J140" s="4" t="s">
+      <c r="J140" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K140" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L140" s="10">
-        <v>3002</v>
-      </c>
-      <c r="M140" s="31" t="s">
-        <v>189</v>
+      <c r="K140" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L140" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M140" s="33" t="s">
+        <v>213</v>
       </c>
       <c r="N140" s="33" t="s">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c r="O140" s="31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="141" spans="1:66" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="27">
-        <v>132</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>112</v>
       </c>
       <c r="B141" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C141" s="58" t="s">
-        <v>206</v>
+      <c r="C141" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="D141" s="4">
         <v>203</v>
@@ -32528,19 +32561,19 @@
       <c r="I141" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J141" s="59" t="s">
+      <c r="J141" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K141" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L141" s="27">
-        <v>3003</v>
-      </c>
-      <c r="M141" s="58" t="s">
-        <v>206</v>
-      </c>
-      <c r="N141" s="34" t="s">
+      <c r="L141" s="10">
+        <v>3002</v>
+      </c>
+      <c r="M141" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="N141" s="33" t="s">
         <v>225</v>
       </c>
       <c r="O141" s="31" t="s">
@@ -32549,16 +32582,16 @@
     </row>
     <row r="142" spans="1:66" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A142" s="27">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B142" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C142" s="58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D142" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>151</v>
@@ -32582,30 +32615,30 @@
         <v>11</v>
       </c>
       <c r="L142" s="27">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="M142" s="58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N142" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="O142" s="57" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="143" spans="1:66" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="8">
-        <v>130</v>
+      <c r="O142" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="143" spans="1:66" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="27">
+        <v>131</v>
       </c>
       <c r="B143" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C143" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>12</v>
+        <v>207</v>
+      </c>
+      <c r="D143" s="4">
+        <v>204</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>151</v>
@@ -32629,30 +32662,30 @@
         <v>11</v>
       </c>
       <c r="L143" s="27">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="M143" s="58" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N143" s="34" t="s">
         <v>225</v>
       </c>
       <c r="O143" s="57" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="144" spans="1:66" ht="30.75" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:66" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B144" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C144" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="D144" s="4">
-        <v>203</v>
+        <v>212</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>151</v>
@@ -32676,30 +32709,30 @@
         <v>11</v>
       </c>
       <c r="L144" s="27">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="M144" s="58" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N144" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="O144" s="58" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A145" s="27">
-        <v>129</v>
+      <c r="O144" s="57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="8">
+        <v>128</v>
       </c>
       <c r="B145" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C145" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>12</v>
+      <c r="C145" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="D145" s="4">
+        <v>203</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>151</v>
@@ -32707,8 +32740,8 @@
       <c r="F145" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G145" s="66">
-        <v>404</v>
+      <c r="G145" s="24">
+        <v>400</v>
       </c>
       <c r="H145" s="66" t="s">
         <v>227</v>
@@ -32722,11 +32755,11 @@
       <c r="K145" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L145" s="67">
-        <v>3007</v>
-      </c>
-      <c r="M145" s="68" t="s">
-        <v>216</v>
+      <c r="L145" s="27">
+        <v>3006</v>
+      </c>
+      <c r="M145" s="58" t="s">
+        <v>209</v>
       </c>
       <c r="N145" s="34" t="s">
         <v>225</v>
@@ -32736,21 +32769,51 @@
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" s="20"/>
-      <c r="B146" s="21"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="46"/>
-      <c r="H146" s="46"/>
-      <c r="I146" s="46"/>
-      <c r="J146" s="20"/>
-      <c r="K146" s="20"/>
-      <c r="L146" s="20"/>
-      <c r="M146" s="35"/>
-      <c r="N146" s="21"/>
-      <c r="O146" s="21"/>
+      <c r="A146" s="27">
+        <v>129</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C146" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G146" s="66">
+        <v>404</v>
+      </c>
+      <c r="H146" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="I146" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J146" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L146" s="67">
+        <v>3007</v>
+      </c>
+      <c r="M146" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="N146" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="O146" s="58" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="20"/>
@@ -33053,6 +33116,7 @@
       <c r="I164" s="46"/>
       <c r="J164" s="20"/>
       <c r="K164" s="20"/>
+      <c r="L164" s="20"/>
       <c r="M164" s="35"/>
       <c r="N164" s="21"/>
       <c r="O164" s="21"/>
@@ -33069,7 +33133,6 @@
       <c r="I165" s="46"/>
       <c r="J165" s="20"/>
       <c r="K165" s="20"/>
-      <c r="L165" s="20"/>
       <c r="M165" s="35"/>
       <c r="N165" s="21"/>
       <c r="O165" s="21"/>
@@ -37953,33 +38016,51 @@
       <c r="N452" s="21"/>
       <c r="O452" s="21"/>
     </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A453" s="20"/>
+      <c r="B453" s="21"/>
+      <c r="C453" s="22"/>
+      <c r="D453" s="20"/>
+      <c r="E453" s="20"/>
+      <c r="F453" s="20"/>
+      <c r="G453" s="46"/>
+      <c r="H453" s="46"/>
+      <c r="I453" s="46"/>
+      <c r="J453" s="20"/>
+      <c r="K453" s="20"/>
+      <c r="L453" s="20"/>
+      <c r="M453" s="35"/>
+      <c r="N453" s="21"/>
+      <c r="O453" s="21"/>
+    </row>
   </sheetData>
+  <autoFilter ref="G1:G453"/>
   <dataConsolidate/>
   <mergeCells count="15">
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A23:O23"/>
-    <mergeCell ref="A56:O56"/>
-    <mergeCell ref="A69:O69"/>
+    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A84:O84"/>
     <mergeCell ref="A83:O83"/>
-    <mergeCell ref="A82:O82"/>
-    <mergeCell ref="A106:O106"/>
-    <mergeCell ref="A70:O70"/>
-    <mergeCell ref="A57:O57"/>
-    <mergeCell ref="A127:O127"/>
+    <mergeCell ref="A107:O107"/>
+    <mergeCell ref="A71:O71"/>
+    <mergeCell ref="A58:O58"/>
     <mergeCell ref="A128:O128"/>
-    <mergeCell ref="A122:O122"/>
-    <mergeCell ref="A103:O103"/>
-    <mergeCell ref="A107:O107"/>
+    <mergeCell ref="A129:O129"/>
+    <mergeCell ref="A123:O123"/>
+    <mergeCell ref="A104:O104"/>
+    <mergeCell ref="A108:O108"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J64:J68 J48:J54 J91:J102 J77:J81 J123:J126 J7:J8 J61:J62 J74:J75 J87:J89 J111:J113 J132:J133 J10:J16 J135:J145 J20:J22 J115:J121 J104:J105 J24:J46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J65:J69 J49:J55 J92:J103 J78:J82 J7:J8 J62:J63 J75:J76 J88:J90 J112:J114 J133:J134 J10:J16 J136:J146 J20:J22 J116:J122 J105:J106 J124:J127 J24:J47">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K48:K54 K64:K68 K123 K77:K81 K126 K7:K8 K61:K62 K74:K75 K87:K89 K111:K113 K132:K133 K10:K16 K91:K102 K135:K145 K20:K22 K115:K121 K104:K105 K24:K46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K49:K55 K65:K69 K78:K82 K127 K7:K8 K62:K63 K75:K76 K88:K90 K112:K114 K133:K134 K10:K16 K92:K103 K136:K146 K20:K22 K116:K122 K105:K106 K124 K24:K47">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L64:L68 L10:L14 L77:L81 L105 L126 L123 L48:L52 L139:L140 L135:L137 L7:L8 L61:L62 L74:L75 L87:L89 L111:L113 L132:L133 L16 L36:L45 L91:L96 L115:L117 L20:L22 L119:L121 L25:L34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L65:L69 L10:L14 L78:L82 L106 L127 L49:L53 L140:L141 L136:L138 L7:L8 L62:L63 L75:L76 L88:L90 L112:L114 L133:L134 L16 L37:L46 L92:L97 L116:L118 L20:L22 L120:L122 L26:L35 L124 L24">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -37991,8 +38072,8 @@
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="22" max="16383" man="1"/>
-    <brk id="55" max="16383" man="1"/>
-    <brk id="81" max="9" man="1"/>
+    <brk id="56" max="16383" man="1"/>
+    <brk id="82" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$453</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$454</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$124</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="263">
   <si>
     <t>Payslip</t>
   </si>
@@ -864,6 +864,9 @@
   <si>
     <t>PayrollSubmission Response</t>
   </si>
+  <si>
+    <t>The PeriodEndDate must be today or earlier</t>
+  </si>
 </sst>
 </file>
 
@@ -22069,10 +22072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:M45"/>
+  <dimension ref="B8:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:D45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22541,6 +22544,15 @@
         <v>259</v>
       </c>
     </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="80"/>
+      <c r="C46" s="80">
+        <v>147</v>
+      </c>
+      <c r="D46" s="81" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:E9"/>
@@ -22556,11 +22568,11 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BN453"/>
+  <dimension ref="A1:BN454"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E135" sqref="E135"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N133" sqref="N133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -31965,15 +31977,15 @@
       <c r="N129" s="99"/>
       <c r="O129" s="99"/>
     </row>
-    <row r="130" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:66" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A130" s="94">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B130" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C130" s="95" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D130" s="94" t="s">
         <v>12</v>
@@ -31985,7 +31997,7 @@
         <v>151</v>
       </c>
       <c r="G130" s="94">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H130" s="94" t="s">
         <v>227</v>
@@ -31997,128 +32009,128 @@
         <v>7</v>
       </c>
       <c r="K130" s="94" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="L130" s="94">
-        <v>1016</v>
+        <v>3015</v>
       </c>
       <c r="M130" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="N130" s="95" t="s">
-        <v>62</v>
+        <v>262</v>
+      </c>
+      <c r="N130" s="34" t="s">
+        <v>225</v>
       </c>
       <c r="O130" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="P130" s="21"/>
-      <c r="Q130" s="21"/>
-      <c r="R130" s="21"/>
-      <c r="S130" s="21"/>
-      <c r="T130" s="21"/>
-      <c r="U130" s="21"/>
-      <c r="V130" s="21"/>
-      <c r="W130" s="21"/>
-      <c r="X130" s="21"/>
-      <c r="Y130" s="21"/>
-      <c r="Z130" s="21"/>
-      <c r="AA130" s="21"/>
-      <c r="AB130" s="21"/>
-      <c r="AC130" s="21"/>
-      <c r="AD130" s="21"/>
-      <c r="AE130" s="21"/>
-      <c r="AF130" s="21"/>
-      <c r="AG130" s="21"/>
-      <c r="AH130" s="21"/>
-      <c r="AI130" s="21"/>
-      <c r="AJ130" s="21"/>
-      <c r="AK130" s="21"/>
-      <c r="AL130" s="21"/>
-      <c r="AM130" s="21"/>
-      <c r="AN130" s="21"/>
-      <c r="AO130" s="21"/>
-      <c r="AP130" s="21"/>
-      <c r="AQ130" s="21"/>
-      <c r="AR130" s="21"/>
-      <c r="AS130" s="21"/>
-      <c r="AT130" s="21"/>
-      <c r="AU130" s="21"/>
-      <c r="AV130" s="21"/>
-      <c r="AW130" s="21"/>
-      <c r="AX130" s="21"/>
-      <c r="AY130" s="21"/>
-      <c r="AZ130" s="21"/>
-      <c r="BA130" s="21"/>
-      <c r="BB130" s="21"/>
-      <c r="BC130" s="21"/>
-      <c r="BD130" s="21"/>
-      <c r="BE130" s="21"/>
-      <c r="BF130" s="21"/>
-      <c r="BG130" s="21"/>
-      <c r="BH130" s="21"/>
-      <c r="BI130" s="21"/>
-      <c r="BJ130" s="21"/>
-      <c r="BK130" s="21"/>
-      <c r="BL130" s="21"/>
-      <c r="BM130" s="21"/>
-      <c r="BN130" s="21"/>
-    </row>
-    <row r="131" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
-        <v>102</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="131" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="94">
+        <v>146</v>
       </c>
       <c r="B131" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C131" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="D131" s="4" t="s">
+      <c r="C131" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="D131" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="G131" s="24">
-        <v>401</v>
-      </c>
-      <c r="H131" s="66" t="s">
+      <c r="G131" s="94">
+        <v>403</v>
+      </c>
+      <c r="H131" s="94" t="s">
         <v>227</v>
       </c>
       <c r="I131" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J131" s="4" t="s">
+      <c r="J131" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K131" s="4" t="s">
+      <c r="K131" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="L131" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M131" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="N131" s="33" t="s">
+      <c r="L131" s="94">
+        <v>1016</v>
+      </c>
+      <c r="M131" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="N131" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="O131" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="O131" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P131" s="21"/>
+      <c r="Q131" s="21"/>
+      <c r="R131" s="21"/>
+      <c r="S131" s="21"/>
+      <c r="T131" s="21"/>
+      <c r="U131" s="21"/>
+      <c r="V131" s="21"/>
+      <c r="W131" s="21"/>
+      <c r="X131" s="21"/>
+      <c r="Y131" s="21"/>
+      <c r="Z131" s="21"/>
+      <c r="AA131" s="21"/>
+      <c r="AB131" s="21"/>
+      <c r="AC131" s="21"/>
+      <c r="AD131" s="21"/>
+      <c r="AE131" s="21"/>
+      <c r="AF131" s="21"/>
+      <c r="AG131" s="21"/>
+      <c r="AH131" s="21"/>
+      <c r="AI131" s="21"/>
+      <c r="AJ131" s="21"/>
+      <c r="AK131" s="21"/>
+      <c r="AL131" s="21"/>
+      <c r="AM131" s="21"/>
+      <c r="AN131" s="21"/>
+      <c r="AO131" s="21"/>
+      <c r="AP131" s="21"/>
+      <c r="AQ131" s="21"/>
+      <c r="AR131" s="21"/>
+      <c r="AS131" s="21"/>
+      <c r="AT131" s="21"/>
+      <c r="AU131" s="21"/>
+      <c r="AV131" s="21"/>
+      <c r="AW131" s="21"/>
+      <c r="AX131" s="21"/>
+      <c r="AY131" s="21"/>
+      <c r="AZ131" s="21"/>
+      <c r="BA131" s="21"/>
+      <c r="BB131" s="21"/>
+      <c r="BC131" s="21"/>
+      <c r="BD131" s="21"/>
+      <c r="BE131" s="21"/>
+      <c r="BF131" s="21"/>
+      <c r="BG131" s="21"/>
+      <c r="BH131" s="21"/>
+      <c r="BI131" s="21"/>
+      <c r="BJ131" s="21"/>
+      <c r="BK131" s="21"/>
+      <c r="BL131" s="21"/>
+      <c r="BM131" s="21"/>
+      <c r="BN131" s="21"/>
+    </row>
+    <row r="132" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B132" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C132" s="23" t="s">
-        <v>158</v>
+      <c r="C132" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>12</v>
@@ -32145,39 +32157,39 @@
         <v>38</v>
       </c>
       <c r="L132" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M132" s="23" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N132" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O132" s="48" t="s">
+      <c r="O132" s="50" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B133" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D133" s="24">
-        <v>201</v>
-      </c>
-      <c r="E133" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F133" s="24" t="s">
+      <c r="F133" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G133" s="45">
-        <v>400</v>
+      <c r="G133" s="24">
+        <v>401</v>
       </c>
       <c r="H133" s="66" t="s">
         <v>227</v>
@@ -32185,34 +32197,34 @@
       <c r="I133" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J133" s="24" t="s">
+      <c r="J133" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K133" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="L133" s="41">
-        <v>1003</v>
-      </c>
-      <c r="M133" s="33" t="s">
-        <v>14</v>
+      <c r="K133" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L133" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M133" s="23" t="s">
+        <v>158</v>
       </c>
       <c r="N133" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="O133" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="134" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="O133" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B134" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="D134" s="24">
         <v>201</v>
@@ -32236,13 +32248,13 @@
         <v>7</v>
       </c>
       <c r="K134" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L134" s="25">
-        <v>1004</v>
+        <v>35</v>
+      </c>
+      <c r="L134" s="41">
+        <v>1003</v>
       </c>
       <c r="M134" s="33" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N134" s="33" t="s">
         <v>62</v>
@@ -32251,26 +32263,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B135" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C135" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="D135" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" s="54" t="s">
+      <c r="C135" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D135" s="24">
+        <v>201</v>
+      </c>
+      <c r="E135" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F135" s="54" t="s">
+      <c r="F135" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G135" s="55">
+      <c r="G135" s="45">
         <v>400</v>
       </c>
       <c r="H135" s="66" t="s">
@@ -32279,46 +32291,46 @@
       <c r="I135" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J135" s="54" t="s">
+      <c r="J135" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K135" s="55" t="s">
+      <c r="K135" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L135" s="54">
-        <v>1015</v>
-      </c>
-      <c r="M135" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="N135" s="53" t="s">
+      <c r="L135" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M135" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N135" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="O135" s="64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="O135" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B136" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C136" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D136" s="24">
-        <v>202</v>
-      </c>
-      <c r="E136" s="24" t="s">
+      <c r="C136" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D136" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="F136" s="24" t="s">
+      <c r="F136" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="G136" s="45">
-        <v>403</v>
+      <c r="G136" s="55">
+        <v>400</v>
       </c>
       <c r="H136" s="66" t="s">
         <v>227</v>
@@ -32326,34 +32338,34 @@
       <c r="I136" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J136" s="24" t="s">
+      <c r="J136" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K136" s="24" t="s">
+      <c r="K136" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L136" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M136" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="N136" s="33" t="s">
+      <c r="L136" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M136" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="N136" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="O136" s="31" t="s">
-        <v>66</v>
+      <c r="O136" s="64" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B137" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D137" s="24">
         <v>202</v>
@@ -32377,13 +32389,13 @@
         <v>7</v>
       </c>
       <c r="K137" s="24" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L137" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M137" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N137" s="33" t="s">
         <v>62</v>
@@ -32392,15 +32404,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="138" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B138" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D138" s="24">
         <v>202</v>
@@ -32411,7 +32423,7 @@
       <c r="F138" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G138" s="24">
+      <c r="G138" s="45">
         <v>403</v>
       </c>
       <c r="H138" s="66" t="s">
@@ -32427,10 +32439,10 @@
         <v>35</v>
       </c>
       <c r="L138" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M138" s="33" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N138" s="33" t="s">
         <v>62</v>
@@ -32441,13 +32453,13 @@
     </row>
     <row r="139" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B139" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="D139" s="24">
         <v>202</v>
@@ -32473,11 +32485,11 @@
       <c r="K139" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L139" s="66">
-        <v>5001</v>
+      <c r="L139" s="25">
+        <v>1008</v>
       </c>
       <c r="M139" s="33" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="N139" s="33" t="s">
         <v>62</v>
@@ -32486,15 +32498,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="140" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B140" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="D140" s="24">
         <v>202</v>
@@ -32505,7 +32517,7 @@
       <c r="F140" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G140" s="45">
+      <c r="G140" s="24">
         <v>403</v>
       </c>
       <c r="H140" s="66" t="s">
@@ -32518,42 +32530,42 @@
         <v>7</v>
       </c>
       <c r="K140" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L140" s="24">
-        <v>1011</v>
+        <v>35</v>
+      </c>
+      <c r="L140" s="66">
+        <v>5001</v>
       </c>
       <c r="M140" s="33" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="N140" s="33" t="s">
         <v>62</v>
       </c>
       <c r="O140" s="31" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B141" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D141" s="4">
-        <v>203</v>
-      </c>
-      <c r="E141" s="4" t="s">
+      <c r="C141" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D141" s="24">
+        <v>202</v>
+      </c>
+      <c r="E141" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F141" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G141" s="24">
-        <v>400</v>
+      <c r="G141" s="45">
+        <v>403</v>
       </c>
       <c r="H141" s="66" t="s">
         <v>227</v>
@@ -32561,34 +32573,34 @@
       <c r="I141" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J141" s="4" t="s">
+      <c r="J141" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K141" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L141" s="10">
-        <v>3002</v>
-      </c>
-      <c r="M141" s="31" t="s">
-        <v>189</v>
+      <c r="K141" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L141" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M141" s="33" t="s">
+        <v>213</v>
       </c>
       <c r="N141" s="33" t="s">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c r="O141" s="31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="142" spans="1:66" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="27">
-        <v>132</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>112</v>
       </c>
       <c r="B142" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C142" s="58" t="s">
-        <v>206</v>
+      <c r="C142" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="D142" s="4">
         <v>203</v>
@@ -32608,19 +32620,19 @@
       <c r="I142" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J142" s="59" t="s">
+      <c r="J142" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K142" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L142" s="27">
-        <v>3003</v>
-      </c>
-      <c r="M142" s="58" t="s">
-        <v>206</v>
-      </c>
-      <c r="N142" s="34" t="s">
+      <c r="L142" s="10">
+        <v>3002</v>
+      </c>
+      <c r="M142" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="N142" s="33" t="s">
         <v>225</v>
       </c>
       <c r="O142" s="31" t="s">
@@ -32629,16 +32641,16 @@
     </row>
     <row r="143" spans="1:66" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A143" s="27">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B143" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C143" s="58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D143" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>151</v>
@@ -32662,30 +32674,30 @@
         <v>11</v>
       </c>
       <c r="L143" s="27">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="M143" s="58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N143" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="O143" s="57" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="144" spans="1:66" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="8">
-        <v>130</v>
+      <c r="O143" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="144" spans="1:66" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="27">
+        <v>131</v>
       </c>
       <c r="B144" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C144" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>12</v>
+        <v>207</v>
+      </c>
+      <c r="D144" s="4">
+        <v>204</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>151</v>
@@ -32709,30 +32721,30 @@
         <v>11</v>
       </c>
       <c r="L144" s="27">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="M144" s="58" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N144" s="34" t="s">
         <v>225</v>
       </c>
       <c r="O144" s="57" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B145" s="33" t="s">
         <v>185</v>
       </c>
       <c r="C145" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="D145" s="4">
-        <v>203</v>
+        <v>212</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>151</v>
@@ -32756,30 +32768,30 @@
         <v>11</v>
       </c>
       <c r="L145" s="27">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="M145" s="58" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N145" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="O145" s="58" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" s="27">
-        <v>129</v>
+      <c r="O145" s="57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="8">
+        <v>128</v>
       </c>
       <c r="B146" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C146" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>12</v>
+      <c r="C146" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="D146" s="4">
+        <v>203</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>151</v>
@@ -32787,8 +32799,8 @@
       <c r="F146" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G146" s="66">
-        <v>404</v>
+      <c r="G146" s="24">
+        <v>400</v>
       </c>
       <c r="H146" s="66" t="s">
         <v>227</v>
@@ -32802,11 +32814,11 @@
       <c r="K146" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L146" s="67">
-        <v>3007</v>
-      </c>
-      <c r="M146" s="68" t="s">
-        <v>216</v>
+      <c r="L146" s="27">
+        <v>3006</v>
+      </c>
+      <c r="M146" s="58" t="s">
+        <v>209</v>
       </c>
       <c r="N146" s="34" t="s">
         <v>225</v>
@@ -32816,21 +32828,51 @@
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A147" s="20"/>
-      <c r="B147" s="21"/>
-      <c r="C147" s="22"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="46"/>
-      <c r="H147" s="46"/>
-      <c r="I147" s="46"/>
-      <c r="J147" s="20"/>
-      <c r="K147" s="20"/>
-      <c r="L147" s="20"/>
-      <c r="M147" s="35"/>
-      <c r="N147" s="21"/>
-      <c r="O147" s="21"/>
+      <c r="A147" s="27">
+        <v>129</v>
+      </c>
+      <c r="B147" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C147" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G147" s="66">
+        <v>404</v>
+      </c>
+      <c r="H147" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="I147" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J147" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L147" s="67">
+        <v>3007</v>
+      </c>
+      <c r="M147" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="N147" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="O147" s="58" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="20"/>
@@ -33133,6 +33175,7 @@
       <c r="I165" s="46"/>
       <c r="J165" s="20"/>
       <c r="K165" s="20"/>
+      <c r="L165" s="20"/>
       <c r="M165" s="35"/>
       <c r="N165" s="21"/>
       <c r="O165" s="21"/>
@@ -33149,7 +33192,6 @@
       <c r="I166" s="46"/>
       <c r="J166" s="20"/>
       <c r="K166" s="20"/>
-      <c r="L166" s="20"/>
       <c r="M166" s="35"/>
       <c r="N166" s="21"/>
       <c r="O166" s="21"/>
@@ -38033,34 +38075,51 @@
       <c r="N453" s="21"/>
       <c r="O453" s="21"/>
     </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A454" s="20"/>
+      <c r="B454" s="21"/>
+      <c r="C454" s="22"/>
+      <c r="D454" s="20"/>
+      <c r="E454" s="20"/>
+      <c r="F454" s="20"/>
+      <c r="G454" s="46"/>
+      <c r="H454" s="46"/>
+      <c r="I454" s="46"/>
+      <c r="J454" s="20"/>
+      <c r="K454" s="20"/>
+      <c r="L454" s="20"/>
+      <c r="M454" s="35"/>
+      <c r="N454" s="21"/>
+      <c r="O454" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="G1:G453"/>
+  <autoFilter ref="G1:G454"/>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A128:O128"/>
+    <mergeCell ref="A129:O129"/>
+    <mergeCell ref="A123:O123"/>
+    <mergeCell ref="A104:O104"/>
+    <mergeCell ref="A108:O108"/>
+    <mergeCell ref="A84:O84"/>
+    <mergeCell ref="A83:O83"/>
+    <mergeCell ref="A107:O107"/>
+    <mergeCell ref="A71:O71"/>
+    <mergeCell ref="A58:O58"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A23:O23"/>
     <mergeCell ref="A57:O57"/>
     <mergeCell ref="A70:O70"/>
-    <mergeCell ref="A84:O84"/>
-    <mergeCell ref="A83:O83"/>
-    <mergeCell ref="A107:O107"/>
-    <mergeCell ref="A71:O71"/>
-    <mergeCell ref="A58:O58"/>
-    <mergeCell ref="A128:O128"/>
-    <mergeCell ref="A129:O129"/>
-    <mergeCell ref="A123:O123"/>
-    <mergeCell ref="A104:O104"/>
-    <mergeCell ref="A108:O108"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J65:J69 J49:J55 J92:J103 J78:J82 J7:J8 J62:J63 J75:J76 J88:J90 J112:J114 J133:J134 J10:J16 J136:J146 J20:J22 J116:J122 J105:J106 J124:J127 J24:J47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J65:J69 J49:J55 J92:J103 J78:J82 J7:J8 J62:J63 J75:J76 J88:J90 J112:J114 J134:J135 J10:J16 J137:J147 J20:J22 J116:J122 J105:J106 J124:J127 J24:J47">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K49:K55 K65:K69 K78:K82 K127 K7:K8 K62:K63 K75:K76 K88:K90 K112:K114 K133:K134 K10:K16 K92:K103 K136:K146 K20:K22 K116:K122 K105:K106 K124 K24:K47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K49:K55 K65:K69 K78:K82 K127 K7:K8 K62:K63 K75:K76 K88:K90 K112:K114 K134:K135 K10:K16 K92:K103 K137:K147 K20:K22 K116:K122 K105:K106 K124 K24:K47">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L65:L69 L10:L14 L78:L82 L106 L127 L49:L53 L140:L141 L136:L138 L7:L8 L62:L63 L75:L76 L88:L90 L112:L114 L133:L134 L16 L37:L46 L92:L97 L116:L118 L20:L22 L120:L122 L26:L35 L124 L24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L65:L69 L10:L14 L78:L82 L106 L127 L49:L53 L141:L142 L137:L139 L7:L8 L62:L63 L75:L76 L88:L90 L112:L114 L134:L135 L16 L37:L46 L92:L97 L116:L118 L20:L22 L120:L122 L26:L35 L124 L24">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="266">
   <si>
     <t>Payslip</t>
   </si>
@@ -870,6 +870,12 @@
   <si>
     <t>StartDate</t>
   </si>
+  <si>
+    <t>19, 126</t>
+  </si>
+  <si>
+    <t>Moved to Employee Level from request Level</t>
+  </si>
 </sst>
 </file>
 
@@ -22091,10 +22097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:M51"/>
+  <dimension ref="B8:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22617,6 +22623,15 @@
         <v>166</v>
       </c>
     </row>
+    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="80"/>
+      <c r="C52" s="80" t="s">
+        <v>264</v>
+      </c>
+      <c r="D52" s="84" t="s">
+        <v>265</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:E9"/>
@@ -22634,9 +22649,9 @@
   </sheetPr>
   <dimension ref="A1:BN456"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -23752,247 +23767,247 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="24">
+        <v>5</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="45">
+        <v>400</v>
+      </c>
+      <c r="H19" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="25">
+        <v>1009</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>142</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="66">
+        <v>413</v>
+      </c>
+      <c r="H20" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="I20" s="66"/>
+      <c r="J20" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+    </row>
+    <row r="21" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="21"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="21"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="21"/>
+      <c r="AR21" s="21"/>
+      <c r="AS21" s="21"/>
+      <c r="AT21" s="21"/>
+      <c r="AU21" s="21"/>
+      <c r="AV21" s="21"/>
+      <c r="AW21" s="21"/>
+      <c r="AX21" s="21"/>
+      <c r="AY21" s="21"/>
+      <c r="AZ21" s="21"/>
+      <c r="BA21" s="21"/>
+      <c r="BB21" s="21"/>
+      <c r="BC21" s="21"/>
+      <c r="BD21" s="21"/>
+      <c r="BE21" s="21"/>
+      <c r="BF21" s="21"/>
+      <c r="BG21" s="21"/>
+      <c r="BH21" s="21"/>
+      <c r="BI21" s="21"/>
+      <c r="BJ21" s="21"/>
+      <c r="BK21" s="21"/>
+      <c r="BL21" s="21"/>
+      <c r="BM21" s="21"/>
+      <c r="BN21" s="21"/>
+    </row>
+    <row r="22" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>126</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B22" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C22" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D22" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E22" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F22" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G22" s="55">
         <v>200</v>
       </c>
-      <c r="H19" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="J19" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="56">
-        <v>2049</v>
-      </c>
-      <c r="M19" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="N19" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="65" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>17</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="24">
-        <v>5</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="45">
-        <v>400</v>
-      </c>
-      <c r="H20" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="25">
-        <v>1009</v>
-      </c>
-      <c r="M20" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="O20" s="33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <v>142</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="85" t="s">
-        <v>241</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="66">
-        <v>413</v>
-      </c>
-      <c r="H21" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="I21" s="66"/>
-      <c r="J21" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="85" t="s">
-        <v>241</v>
-      </c>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-    </row>
-    <row r="22" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>19</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="24">
-        <v>200</v>
-      </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="55" t="s">
         <v>221</v>
       </c>
       <c r="I22" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="56">
+        <v>2049</v>
+      </c>
+      <c r="M22" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="N22" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="65" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>19</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="24">
+        <v>200</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L23" s="5">
         <v>2007</v>
       </c>
-      <c r="M22" s="31" t="s">
+      <c r="M23" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N22" s="32" t="s">
+      <c r="N23" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="32" t="s">
+      <c r="O23" s="32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="100" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="21"/>
-      <c r="AJ23" s="21"/>
-      <c r="AK23" s="21"/>
-      <c r="AL23" s="21"/>
-      <c r="AM23" s="21"/>
-      <c r="AN23" s="21"/>
-      <c r="AO23" s="21"/>
-      <c r="AP23" s="21"/>
-      <c r="AQ23" s="21"/>
-      <c r="AR23" s="21"/>
-      <c r="AS23" s="21"/>
-      <c r="AT23" s="21"/>
-      <c r="AU23" s="21"/>
-      <c r="AV23" s="21"/>
-      <c r="AW23" s="21"/>
-      <c r="AX23" s="21"/>
-      <c r="AY23" s="21"/>
-      <c r="AZ23" s="21"/>
-      <c r="BA23" s="21"/>
-      <c r="BB23" s="21"/>
-      <c r="BC23" s="21"/>
-      <c r="BD23" s="21"/>
-      <c r="BE23" s="21"/>
-      <c r="BF23" s="21"/>
-      <c r="BG23" s="21"/>
-      <c r="BH23" s="21"/>
-      <c r="BI23" s="21"/>
-      <c r="BJ23" s="21"/>
-      <c r="BK23" s="21"/>
-      <c r="BL23" s="21"/>
-      <c r="BM23" s="21"/>
-      <c r="BN23" s="21"/>
     </row>
     <row r="24" spans="1:66" s="11" customFormat="1" ht="48" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94">
@@ -38458,30 +38473,30 @@
   <autoFilter ref="G1:G456"/>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A23:O23"/>
-    <mergeCell ref="A57:O57"/>
-    <mergeCell ref="A71:O71"/>
+    <mergeCell ref="A130:O130"/>
+    <mergeCell ref="A131:O131"/>
+    <mergeCell ref="A125:O125"/>
+    <mergeCell ref="A106:O106"/>
+    <mergeCell ref="A110:O110"/>
     <mergeCell ref="A86:O86"/>
     <mergeCell ref="A85:O85"/>
     <mergeCell ref="A109:O109"/>
     <mergeCell ref="A72:O72"/>
     <mergeCell ref="A58:O58"/>
-    <mergeCell ref="A130:O130"/>
-    <mergeCell ref="A131:O131"/>
-    <mergeCell ref="A125:O125"/>
-    <mergeCell ref="A106:O106"/>
-    <mergeCell ref="A110:O110"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="A71:O71"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J66:J70 J49:J55 J94:J105 J80:J84 J7:J8 J63:J64 J77:J78 J90:J92 J114:J116 J136:J137 J10:J16 J139:J149 J20:J22 J118:J124 J107:J108 J126:J129 J26:J47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J66:J70 J49:J55 J94:J105 J80:J84 J7:J8 J63:J64 J77:J78 J90:J92 J114:J116 J136:J137 J10:J16 J139:J149 J118:J124 J107:J108 J126:J129 J26:J47 J23 J19:J20">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K49:K55 K66:K70 K80:K84 K129 K7:K8 K63:K64 K77:K78 K90:K92 K114:K116 K136:K137 K10:K16 K94:K105 K139:K149 K20:K22 K118:K124 K107:K108 K126 K24:K47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K49:K55 K66:K70 K80:K84 K129 K7:K8 K63:K64 K77:K78 K90:K92 K114:K116 K136:K137 K10:K16 K94:K105 K139:K149 K118:K124 K107:K108 K126 K23:K47 K19:K20">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L66:L70 L10:L14 L80:L84 L108 L129 L49:L53 L143:L144 L139:L141 L7:L8 L63:L64 L77:L78 L90:L92 L114:L116 L136:L137 L16 L37:L46 L94:L99 L118:L120 L20:L22 L122:L124 L126 L26 L28:L35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L66:L70 L10:L14 L80:L84 L108 L129 L49:L53 L143:L144 L139:L141 L7:L8 L63:L64 L77:L78 L90:L92 L114:L116 L136:L137 L16 L37:L46 L94:L99 L118:L120 L122:L124 L126 L26 L28:L35 L23 L19:L20">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -38492,7 +38507,7 @@
     <oddFooter>&amp;L&amp;BRevenue Confidential&amp;B&amp;C&amp;D&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="22" max="16383" man="1"/>
+    <brk id="20" max="16383" man="1"/>
     <brk id="56" max="16383" man="1"/>
     <brk id="84" max="9" man="1"/>
   </rowBreaks>

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$459</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$458</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$129</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="278">
   <si>
     <t>Payslip</t>
   </si>
@@ -838,9 +838,6 @@
     <t>PayrollSubmission Response</t>
   </si>
   <si>
-    <t>The PeriodEndDate must be today or earlier</t>
-  </si>
-  <si>
     <t>24, 28</t>
   </si>
   <si>
@@ -22136,10 +22133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:M61"/>
+  <dimension ref="B8:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22620,7 +22617,7 @@
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="79"/>
       <c r="C47" s="79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D47" s="80" t="s">
         <v>153</v>
@@ -22665,10 +22662,10 @@
     <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="79"/>
       <c r="C52" s="79" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="83" t="s">
         <v>260</v>
-      </c>
-      <c r="D52" s="83" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
@@ -22677,7 +22674,7 @@
         <v>149</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -22686,7 +22683,7 @@
         <v>141</v>
       </c>
       <c r="D54" s="80" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -22695,16 +22692,16 @@
         <v>82</v>
       </c>
       <c r="D55" s="80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="79"/>
       <c r="C56" s="79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D56" s="80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
@@ -22713,7 +22710,7 @@
         <v>55</v>
       </c>
       <c r="D57" s="80" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
@@ -22722,7 +22719,7 @@
         <v>10</v>
       </c>
       <c r="D58" s="80" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
@@ -22737,7 +22734,7 @@
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="79"/>
       <c r="C60" s="79" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D60" s="80" t="s">
         <v>164</v>
@@ -22749,7 +22746,16 @@
         <v>131</v>
       </c>
       <c r="D61" s="80" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="79"/>
+      <c r="C62" s="79">
+        <v>147</v>
+      </c>
+      <c r="D62" s="80" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -22767,11 +22773,11 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BN459"/>
+  <dimension ref="A1:BN458"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M156" sqref="M156"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135:XFD135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -23331,7 +23337,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D7" s="24">
         <v>1</v>
@@ -23660,7 +23666,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>12</v>
@@ -23690,7 +23696,7 @@
         <v>2001</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N14" s="32" t="s">
         <v>63</v>
@@ -24043,7 +24049,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>12</v>
@@ -24073,13 +24079,13 @@
         <v>1017</v>
       </c>
       <c r="M22" s="64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N22" s="52" t="s">
         <v>0</v>
       </c>
       <c r="O22" s="64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
@@ -24141,7 +24147,7 @@
         <v>100</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>12</v>
@@ -24171,13 +24177,13 @@
         <v>1018</v>
       </c>
       <c r="M23" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N23" s="52" t="s">
         <v>0</v>
       </c>
       <c r="O23" s="64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
@@ -24333,7 +24339,7 @@
         <v>100</v>
       </c>
       <c r="C26" s="94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D26" s="93" t="s">
         <v>12</v>
@@ -24363,13 +24369,13 @@
         <v>2021</v>
       </c>
       <c r="M26" s="94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N26" s="52" t="s">
         <v>0</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
@@ -24431,7 +24437,7 @@
         <v>100</v>
       </c>
       <c r="C27" s="94" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D27" s="93" t="s">
         <v>12</v>
@@ -24461,7 +24467,7 @@
         <v>2024</v>
       </c>
       <c r="M27" s="94" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N27" s="52" t="s">
         <v>0</v>
@@ -26585,7 +26591,7 @@
         <v>101</v>
       </c>
       <c r="C61" s="94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D61" s="93" t="s">
         <v>12</v>
@@ -26615,7 +26621,7 @@
         <v>1111</v>
       </c>
       <c r="M61" s="94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N61" s="30" t="s">
         <v>62</v>
@@ -26977,7 +26983,7 @@
         <v>101</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>12</v>
@@ -27850,7 +27856,7 @@
         <v>102</v>
       </c>
       <c r="C75" s="94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D75" s="93" t="s">
         <v>12</v>
@@ -27880,7 +27886,7 @@
         <v>1111</v>
       </c>
       <c r="M75" s="94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N75" s="30" t="s">
         <v>62</v>
@@ -28242,7 +28248,7 @@
         <v>102</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>12</v>
@@ -29409,7 +29415,7 @@
         <v>132</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>12</v>
@@ -31575,7 +31581,7 @@
         <v>135</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>12</v>
@@ -32452,7 +32458,7 @@
         <v>135</v>
       </c>
       <c r="C128" s="97" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>12</v>
@@ -32482,11 +32488,11 @@
         <v>4005</v>
       </c>
       <c r="M128" s="97" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N128" s="71"/>
       <c r="O128" s="97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
@@ -32715,15 +32721,15 @@
       <c r="N134" s="100"/>
       <c r="O134" s="100"/>
     </row>
-    <row r="135" spans="1:66" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B135" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C135" s="94" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D135" s="93" t="s">
         <v>12</v>
@@ -32735,7 +32741,7 @@
         <v>142</v>
       </c>
       <c r="G135" s="93">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H135" s="93" t="s">
         <v>218</v>
@@ -32747,128 +32753,128 @@
         <v>7</v>
       </c>
       <c r="K135" s="93" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L135" s="93">
-        <v>3015</v>
+        <v>1016</v>
       </c>
       <c r="M135" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="N135" s="33" t="s">
-        <v>216</v>
+        <v>248</v>
+      </c>
+      <c r="N135" s="94" t="s">
+        <v>57</v>
       </c>
       <c r="O135" s="94" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="136" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="93">
-        <v>146</v>
+        <v>12</v>
+      </c>
+      <c r="P135" s="21"/>
+      <c r="Q135" s="21"/>
+      <c r="R135" s="21"/>
+      <c r="S135" s="21"/>
+      <c r="T135" s="21"/>
+      <c r="U135" s="21"/>
+      <c r="V135" s="21"/>
+      <c r="W135" s="21"/>
+      <c r="X135" s="21"/>
+      <c r="Y135" s="21"/>
+      <c r="Z135" s="21"/>
+      <c r="AA135" s="21"/>
+      <c r="AB135" s="21"/>
+      <c r="AC135" s="21"/>
+      <c r="AD135" s="21"/>
+      <c r="AE135" s="21"/>
+      <c r="AF135" s="21"/>
+      <c r="AG135" s="21"/>
+      <c r="AH135" s="21"/>
+      <c r="AI135" s="21"/>
+      <c r="AJ135" s="21"/>
+      <c r="AK135" s="21"/>
+      <c r="AL135" s="21"/>
+      <c r="AM135" s="21"/>
+      <c r="AN135" s="21"/>
+      <c r="AO135" s="21"/>
+      <c r="AP135" s="21"/>
+      <c r="AQ135" s="21"/>
+      <c r="AR135" s="21"/>
+      <c r="AS135" s="21"/>
+      <c r="AT135" s="21"/>
+      <c r="AU135" s="21"/>
+      <c r="AV135" s="21"/>
+      <c r="AW135" s="21"/>
+      <c r="AX135" s="21"/>
+      <c r="AY135" s="21"/>
+      <c r="AZ135" s="21"/>
+      <c r="BA135" s="21"/>
+      <c r="BB135" s="21"/>
+      <c r="BC135" s="21"/>
+      <c r="BD135" s="21"/>
+      <c r="BE135" s="21"/>
+      <c r="BF135" s="21"/>
+      <c r="BG135" s="21"/>
+      <c r="BH135" s="21"/>
+      <c r="BI135" s="21"/>
+      <c r="BJ135" s="21"/>
+      <c r="BK135" s="21"/>
+      <c r="BL135" s="21"/>
+      <c r="BM135" s="21"/>
+      <c r="BN135" s="21"/>
+    </row>
+    <row r="136" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>102</v>
       </c>
       <c r="B136" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C136" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="D136" s="93" t="s">
+      <c r="C136" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E136" s="93" t="s">
+      <c r="E136" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F136" s="93" t="s">
+      <c r="F136" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G136" s="93">
-        <v>403</v>
-      </c>
-      <c r="H136" s="93" t="s">
+      <c r="G136" s="24">
+        <v>401</v>
+      </c>
+      <c r="H136" s="65" t="s">
         <v>218</v>
       </c>
       <c r="I136" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J136" s="93" t="s">
+      <c r="J136" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K136" s="93" t="s">
+      <c r="K136" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L136" s="93">
-        <v>1016</v>
-      </c>
-      <c r="M136" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="N136" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="O136" s="94" t="s">
+      <c r="L136" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M136" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N136" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P136" s="21"/>
-      <c r="Q136" s="21"/>
-      <c r="R136" s="21"/>
-      <c r="S136" s="21"/>
-      <c r="T136" s="21"/>
-      <c r="U136" s="21"/>
-      <c r="V136" s="21"/>
-      <c r="W136" s="21"/>
-      <c r="X136" s="21"/>
-      <c r="Y136" s="21"/>
-      <c r="Z136" s="21"/>
-      <c r="AA136" s="21"/>
-      <c r="AB136" s="21"/>
-      <c r="AC136" s="21"/>
-      <c r="AD136" s="21"/>
-      <c r="AE136" s="21"/>
-      <c r="AF136" s="21"/>
-      <c r="AG136" s="21"/>
-      <c r="AH136" s="21"/>
-      <c r="AI136" s="21"/>
-      <c r="AJ136" s="21"/>
-      <c r="AK136" s="21"/>
-      <c r="AL136" s="21"/>
-      <c r="AM136" s="21"/>
-      <c r="AN136" s="21"/>
-      <c r="AO136" s="21"/>
-      <c r="AP136" s="21"/>
-      <c r="AQ136" s="21"/>
-      <c r="AR136" s="21"/>
-      <c r="AS136" s="21"/>
-      <c r="AT136" s="21"/>
-      <c r="AU136" s="21"/>
-      <c r="AV136" s="21"/>
-      <c r="AW136" s="21"/>
-      <c r="AX136" s="21"/>
-      <c r="AY136" s="21"/>
-      <c r="AZ136" s="21"/>
-      <c r="BA136" s="21"/>
-      <c r="BB136" s="21"/>
-      <c r="BC136" s="21"/>
-      <c r="BD136" s="21"/>
-      <c r="BE136" s="21"/>
-      <c r="BF136" s="21"/>
-      <c r="BG136" s="21"/>
-      <c r="BH136" s="21"/>
-      <c r="BI136" s="21"/>
-      <c r="BJ136" s="21"/>
-      <c r="BK136" s="21"/>
-      <c r="BL136" s="21"/>
-      <c r="BM136" s="21"/>
-      <c r="BN136" s="21"/>
-    </row>
-    <row r="137" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="O136" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B137" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C137" s="32" t="s">
-        <v>156</v>
+      <c r="C137" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>12</v>
@@ -32895,39 +32901,39 @@
         <v>34</v>
       </c>
       <c r="L137" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M137" s="23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N137" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O137" s="49" t="s">
+      <c r="O137" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B138" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D138" s="24">
+        <v>201</v>
+      </c>
+      <c r="E138" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F138" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G138" s="24">
-        <v>401</v>
+      <c r="G138" s="44">
+        <v>400</v>
       </c>
       <c r="H138" s="65" t="s">
         <v>218</v>
@@ -32935,34 +32941,34 @@
       <c r="I138" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J138" s="4" t="s">
+      <c r="J138" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K138" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L138" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M138" s="23" t="s">
-        <v>149</v>
+      <c r="K138" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L138" s="40">
+        <v>1003</v>
+      </c>
+      <c r="M138" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="N138" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O138" s="47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="O138" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B139" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>268</v>
+        <v>150</v>
       </c>
       <c r="D139" s="24">
         <v>201</v>
@@ -32973,7 +32979,7 @@
       <c r="F139" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G139" s="44">
+      <c r="G139" s="24">
         <v>400</v>
       </c>
       <c r="H139" s="65" t="s">
@@ -32986,13 +32992,13 @@
         <v>7</v>
       </c>
       <c r="K139" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L139" s="40">
-        <v>1003</v>
+        <v>11</v>
+      </c>
+      <c r="L139" s="25">
+        <v>1004</v>
       </c>
       <c r="M139" s="32" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N139" s="32" t="s">
         <v>57</v>
@@ -33001,26 +33007,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B140" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C140" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D140" s="24">
-        <v>201</v>
-      </c>
-      <c r="E140" s="24" t="s">
+      <c r="C140" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D140" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F140" s="24" t="s">
+      <c r="F140" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G140" s="24">
+      <c r="G140" s="54">
         <v>400</v>
       </c>
       <c r="H140" s="65" t="s">
@@ -33029,46 +33035,46 @@
       <c r="I140" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J140" s="24" t="s">
+      <c r="J140" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K140" s="24" t="s">
+      <c r="K140" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L140" s="25">
-        <v>1004</v>
-      </c>
-      <c r="M140" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="N140" s="32" t="s">
+      <c r="L140" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M140" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N140" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="O140" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="141" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="O140" s="63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B141" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C141" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D141" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" s="53" t="s">
+      <c r="C141" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D141" s="24">
+        <v>202</v>
+      </c>
+      <c r="E141" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F141" s="53" t="s">
+      <c r="F141" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G141" s="54">
-        <v>400</v>
+      <c r="G141" s="44">
+        <v>403</v>
       </c>
       <c r="H141" s="65" t="s">
         <v>218</v>
@@ -33076,34 +33082,34 @@
       <c r="I141" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J141" s="53" t="s">
+      <c r="J141" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K141" s="54" t="s">
+      <c r="K141" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L141" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M141" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N141" s="52" t="s">
+      <c r="L141" s="25">
+        <v>1006</v>
+      </c>
+      <c r="M141" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N141" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O141" s="63" t="s">
-        <v>12</v>
+      <c r="O141" s="30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="142" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B142" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D142" s="24">
         <v>202</v>
@@ -33127,13 +33133,13 @@
         <v>7</v>
       </c>
       <c r="K142" s="24" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L142" s="25">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M142" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N142" s="32" t="s">
         <v>57</v>
@@ -33142,15 +33148,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="143" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B143" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D143" s="24">
         <v>202</v>
@@ -33161,7 +33167,7 @@
       <c r="F143" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G143" s="44">
+      <c r="G143" s="24">
         <v>403</v>
       </c>
       <c r="H143" s="65" t="s">
@@ -33177,10 +33183,10 @@
         <v>32</v>
       </c>
       <c r="L143" s="25">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M143" s="32" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N143" s="32" t="s">
         <v>57</v>
@@ -33191,13 +33197,13 @@
     </row>
     <row r="144" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B144" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="D144" s="24">
         <v>202</v>
@@ -33223,11 +33229,11 @@
       <c r="K144" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L144" s="25">
-        <v>1008</v>
+      <c r="L144" s="65">
+        <v>5001</v>
       </c>
       <c r="M144" s="32" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="N144" s="32" t="s">
         <v>57</v>
@@ -33236,15 +33242,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B145" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="D145" s="24">
         <v>202</v>
@@ -33255,7 +33261,7 @@
       <c r="F145" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G145" s="24">
+      <c r="G145" s="44">
         <v>403</v>
       </c>
       <c r="H145" s="65" t="s">
@@ -33268,42 +33274,42 @@
         <v>7</v>
       </c>
       <c r="K145" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L145" s="65">
-        <v>5001</v>
+        <v>34</v>
+      </c>
+      <c r="L145" s="24">
+        <v>1011</v>
       </c>
       <c r="M145" s="32" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="N145" s="32" t="s">
         <v>57</v>
       </c>
       <c r="O145" s="30" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B146" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C146" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D146" s="24">
-        <v>202</v>
-      </c>
-      <c r="E146" s="24" t="s">
+      <c r="C146" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D146" s="4">
+        <v>203</v>
+      </c>
+      <c r="E146" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F146" s="24" t="s">
+      <c r="F146" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G146" s="44">
-        <v>403</v>
+      <c r="G146" s="24">
+        <v>400</v>
       </c>
       <c r="H146" s="65" t="s">
         <v>218</v>
@@ -33311,34 +33317,34 @@
       <c r="I146" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J146" s="24" t="s">
+      <c r="J146" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K146" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L146" s="24">
-        <v>1011</v>
-      </c>
-      <c r="M146" s="32" t="s">
-        <v>204</v>
+      <c r="K146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L146" s="10">
+        <v>3002</v>
+      </c>
+      <c r="M146" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="N146" s="32" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="O146" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="4">
-        <v>112</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="26">
+        <v>132</v>
       </c>
       <c r="B147" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>179</v>
+      <c r="C147" s="57" t="s">
+        <v>197</v>
       </c>
       <c r="D147" s="4">
         <v>203</v>
@@ -33358,19 +33364,19 @@
       <c r="I147" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J147" s="4" t="s">
+      <c r="J147" s="58" t="s">
         <v>7</v>
       </c>
       <c r="K147" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L147" s="10">
-        <v>3002</v>
-      </c>
-      <c r="M147" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="N147" s="32" t="s">
+      <c r="L147" s="26">
+        <v>3003</v>
+      </c>
+      <c r="M147" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="N147" s="33" t="s">
         <v>216</v>
       </c>
       <c r="O147" s="30" t="s">
@@ -33379,16 +33385,16 @@
     </row>
     <row r="148" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A148" s="26">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B148" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C148" s="57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D148" s="4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>142</v>
@@ -33412,30 +33418,30 @@
         <v>11</v>
       </c>
       <c r="L148" s="26">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="M148" s="57" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="N148" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O148" s="30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="26">
-        <v>131</v>
+      <c r="O148" s="56" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="8">
+        <v>130</v>
       </c>
       <c r="B149" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C149" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="D149" s="4">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>142</v>
@@ -33459,30 +33465,30 @@
         <v>11</v>
       </c>
       <c r="L149" s="26">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="M149" s="57" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="N149" s="33" t="s">
         <v>216</v>
       </c>
       <c r="O149" s="56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B150" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C150" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D150" s="4">
         <v>203</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>142</v>
@@ -33506,30 +33512,30 @@
         <v>11</v>
       </c>
       <c r="L150" s="26">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="M150" s="57" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N150" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O150" s="56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="8">
-        <v>128</v>
+      <c r="O150" s="57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A151" s="26">
+        <v>129</v>
       </c>
       <c r="B151" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C151" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="D151" s="4">
-        <v>203</v>
+      <c r="C151" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>142</v>
@@ -33537,8 +33543,8 @@
       <c r="F151" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G151" s="24">
-        <v>400</v>
+      <c r="G151" s="65">
+        <v>404</v>
       </c>
       <c r="H151" s="65" t="s">
         <v>218</v>
@@ -33552,11 +33558,11 @@
       <c r="K151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L151" s="26">
-        <v>3006</v>
-      </c>
-      <c r="M151" s="57" t="s">
-        <v>200</v>
+      <c r="L151" s="66">
+        <v>3007</v>
+      </c>
+      <c r="M151" s="67" t="s">
+        <v>207</v>
       </c>
       <c r="N151" s="33" t="s">
         <v>216</v>
@@ -33566,51 +33572,21 @@
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A152" s="26">
-        <v>129</v>
-      </c>
-      <c r="B152" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C152" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G152" s="65">
-        <v>404</v>
-      </c>
-      <c r="H152" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="I152" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J152" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="K152" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L152" s="66">
-        <v>3007</v>
-      </c>
-      <c r="M152" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="N152" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="O152" s="57" t="s">
-        <v>181</v>
-      </c>
+      <c r="A152" s="20"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="45"/>
+      <c r="H152" s="45"/>
+      <c r="I152" s="45"/>
+      <c r="J152" s="20"/>
+      <c r="K152" s="20"/>
+      <c r="L152" s="20"/>
+      <c r="M152" s="34"/>
+      <c r="N152" s="21"/>
+      <c r="O152" s="21"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="20"/>
@@ -33913,7 +33889,6 @@
       <c r="I170" s="45"/>
       <c r="J170" s="20"/>
       <c r="K170" s="20"/>
-      <c r="L170" s="20"/>
       <c r="M170" s="34"/>
       <c r="N170" s="21"/>
       <c r="O170" s="21"/>
@@ -33930,6 +33905,7 @@
       <c r="I171" s="45"/>
       <c r="J171" s="20"/>
       <c r="K171" s="20"/>
+      <c r="L171" s="20"/>
       <c r="M171" s="34"/>
       <c r="N171" s="21"/>
       <c r="O171" s="21"/>
@@ -38813,51 +38789,34 @@
       <c r="N458" s="21"/>
       <c r="O458" s="21"/>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A459" s="20"/>
-      <c r="B459" s="21"/>
-      <c r="C459" s="22"/>
-      <c r="D459" s="20"/>
-      <c r="E459" s="20"/>
-      <c r="F459" s="20"/>
-      <c r="G459" s="45"/>
-      <c r="H459" s="45"/>
-      <c r="I459" s="45"/>
-      <c r="J459" s="20"/>
-      <c r="K459" s="20"/>
-      <c r="L459" s="20"/>
-      <c r="M459" s="34"/>
-      <c r="N459" s="21"/>
-      <c r="O459" s="21"/>
-    </row>
   </sheetData>
-  <autoFilter ref="G1:G459"/>
+  <autoFilter ref="G1:G458"/>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A59:O59"/>
+    <mergeCell ref="A73:O73"/>
+    <mergeCell ref="A88:O88"/>
+    <mergeCell ref="A87:O87"/>
+    <mergeCell ref="A111:O111"/>
+    <mergeCell ref="A74:O74"/>
+    <mergeCell ref="A60:O60"/>
     <mergeCell ref="A133:O133"/>
     <mergeCell ref="A134:O134"/>
     <mergeCell ref="A127:O127"/>
     <mergeCell ref="A108:O108"/>
     <mergeCell ref="A112:O112"/>
-    <mergeCell ref="A88:O88"/>
-    <mergeCell ref="A87:O87"/>
-    <mergeCell ref="A111:O111"/>
-    <mergeCell ref="A74:O74"/>
-    <mergeCell ref="A60:O60"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A59:O59"/>
-    <mergeCell ref="A73:O73"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J68:J72 J51:J57 J96:J107 J82:J86 J7:J8 J65:J66 J79:J80 J92:J94 J116:J118 J139:J140 J10:J16 J142:J152 J120:J126 J109:J110 J28:J49 J25 J19:J20 J128:J132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J68:J72 J51:J57 J96:J107 J82:J86 J7:J8 J65:J66 J79:J80 J92:J94 J116:J118 J138:J139 J10:J16 J141:J151 J120:J126 J109:J110 J28:J49 J25 J19:J20 J128:J132">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K51:K57 K68:K72 K82:K86 K132 K7:K8 K65:K66 K79:K80 K92:K94 K116:K118 K139:K140 K10:K16 K96:K107 K142:K152 K120:K126 K109:K110 K25:K49 K19:K20 K128:K129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K51:K57 K68:K72 K82:K86 K132 K7:K8 K65:K66 K79:K80 K92:K94 K116:K118 K138:K139 K10:K16 K96:K107 K141:K151 K120:K126 K109:K110 K25:K49 K19:K20 K128:K129">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L68:L72 L10:L14 L82:L86 L110 L132 L51:L55 L146:L147 L142:L144 L7:L8 L65:L66 L79:L80 L92:L94 L116:L118 L139:L140 L16 L39:L48 L96:L101 L120:L122 L124:L126 L28 L30:L37 L25 L19:L20 L129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L68:L72 L10:L14 L82:L86 L110 L132 L51:L55 L145:L146 L141:L143 L7:L8 L65:L66 L79:L80 L92:L94 L116:L118 L138:L139 L16 L39:L48 L96:L101 L120:L122 L124:L126 L28 L30:L37 L25 L19:L20 L129">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="277">
   <si>
     <t>Payslip</t>
   </si>
@@ -909,9 +909,6 @@
   <si>
     <t>Unable to delete line item because it has already been deleted.</t>
   </si>
-  <si>
-    <t>Period end date must be last day of the month and in a valid date in the format YYYY-MM-DD (e.g. 2019-01-31). Does not apply for current month.</t>
-  </si>
 </sst>
 </file>
 
@@ -22133,10 +22130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:M62"/>
+  <dimension ref="B8:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView topLeftCell="A46" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22743,18 +22740,9 @@
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="79"/>
       <c r="C61" s="79">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D61" s="80" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="79"/>
-      <c r="C62" s="79">
-        <v>147</v>
-      </c>
-      <c r="D62" s="80" t="s">
         <v>153</v>
       </c>
     </row>
@@ -22775,9 +22763,9 @@
   </sheetPr>
   <dimension ref="A1:BN458"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A135" sqref="A135:XFD135"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -33421,7 +33409,7 @@
         <v>3004</v>
       </c>
       <c r="M148" s="57" t="s">
-        <v>277</v>
+        <v>198</v>
       </c>
       <c r="N148" s="33" t="s">
         <v>216</v>
@@ -38793,21 +38781,21 @@
   <autoFilter ref="G1:G458"/>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A133:O133"/>
+    <mergeCell ref="A134:O134"/>
+    <mergeCell ref="A127:O127"/>
+    <mergeCell ref="A108:O108"/>
+    <mergeCell ref="A112:O112"/>
+    <mergeCell ref="A88:O88"/>
+    <mergeCell ref="A87:O87"/>
+    <mergeCell ref="A111:O111"/>
+    <mergeCell ref="A74:O74"/>
+    <mergeCell ref="A60:O60"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A21:O21"/>
     <mergeCell ref="A59:O59"/>
     <mergeCell ref="A73:O73"/>
-    <mergeCell ref="A88:O88"/>
-    <mergeCell ref="A87:O87"/>
-    <mergeCell ref="A111:O111"/>
-    <mergeCell ref="A74:O74"/>
-    <mergeCell ref="A60:O60"/>
-    <mergeCell ref="A133:O133"/>
-    <mergeCell ref="A134:O134"/>
-    <mergeCell ref="A127:O127"/>
-    <mergeCell ref="A108:O108"/>
-    <mergeCell ref="A112:O112"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J68:J72 J51:J57 J96:J107 J82:J86 J7:J8 J65:J66 J79:J80 J92:J94 J116:J118 J138:J139 J10:J16 J141:J151 J120:J126 J109:J110 J28:J49 J25 J19:J20 J128:J132">
